--- a/mycode/刷题统计.xlsx
+++ b/mycode/刷题统计.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/study/shua_ti/mycode/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/study/lint_leet/mycode/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="3040" yWindow="540" windowWidth="22240" windowHeight="14180" tabRatio="500"/>
+    <workbookView xWindow="1260" yWindow="480" windowWidth="22240" windowHeight="14180" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="185">
   <si>
     <t>1 binary search</t>
   </si>
@@ -577,6 +577,12 @@
   </si>
   <si>
     <t>two pointer slow fast</t>
+  </si>
+  <si>
+    <t>没过</t>
+  </si>
+  <si>
+    <t>小yes</t>
   </si>
 </sst>
 </file>
@@ -1009,7 +1015,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L149"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+    <sheetView showRuler="0" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C72" sqref="C72"/>
     </sheetView>
@@ -3236,11 +3242,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L81"/>
+  <dimension ref="A1:M81"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L36" sqref="L36"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E51" sqref="E51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4154,7 +4160,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="33" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>120</v>
       </c>
@@ -4180,7 +4186,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C34" s="4">
         <v>82</v>
       </c>
@@ -4209,7 +4215,7 @@
         <v>42924</v>
       </c>
     </row>
-    <row r="35" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C35" s="4"/>
       <c r="D35" s="4">
         <v>170</v>
@@ -4233,7 +4239,7 @@
         <v>42924</v>
       </c>
     </row>
-    <row r="36" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C36" s="4">
         <v>488</v>
       </c>
@@ -4262,7 +4268,7 @@
         <v>42925</v>
       </c>
     </row>
-    <row r="37" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D37" s="4">
         <v>204</v>
       </c>
@@ -4275,11 +4281,23 @@
       <c r="G37" s="4" t="s">
         <v>85</v>
       </c>
+      <c r="I37">
+        <v>1</v>
+      </c>
+      <c r="J37" t="s">
+        <v>77</v>
+      </c>
       <c r="K37">
         <v>1</v>
       </c>
-    </row>
-    <row r="38" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L37" s="10">
+        <v>42925</v>
+      </c>
+      <c r="M37" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C38" s="4">
         <v>638</v>
       </c>
@@ -4295,11 +4313,20 @@
       <c r="G38" s="4" t="s">
         <v>85</v>
       </c>
+      <c r="I38">
+        <v>1</v>
+      </c>
+      <c r="J38" t="s">
+        <v>77</v>
+      </c>
       <c r="K38">
         <v>1</v>
       </c>
-    </row>
-    <row r="39" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L38" s="10">
+        <v>42925</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C39" s="4"/>
       <c r="D39" s="4">
         <v>217</v>
@@ -4320,7 +4347,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C40" s="4"/>
       <c r="D40" s="4">
         <v>219</v>
@@ -4341,7 +4368,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C41" s="4"/>
       <c r="D41" s="4">
         <v>242</v>
@@ -4355,11 +4382,17 @@
       <c r="G41" s="4" t="s">
         <v>85</v>
       </c>
+      <c r="I41">
+        <v>1</v>
+      </c>
       <c r="K41">
         <v>1</v>
       </c>
-    </row>
-    <row r="42" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L41" s="10">
+        <v>42925</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C42" s="4"/>
       <c r="D42" s="4">
         <v>246</v>
@@ -4373,11 +4406,17 @@
       <c r="G42" s="4" t="s">
         <v>85</v>
       </c>
+      <c r="I42">
+        <v>1</v>
+      </c>
       <c r="K42">
         <v>1</v>
       </c>
-    </row>
-    <row r="43" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L42" s="10">
+        <v>42925</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C43" s="4"/>
       <c r="D43" s="4">
         <v>266</v>
@@ -4391,11 +4430,17 @@
       <c r="G43" s="4" t="s">
         <v>85</v>
       </c>
+      <c r="I43">
+        <v>1</v>
+      </c>
       <c r="K43">
         <v>1</v>
       </c>
-    </row>
-    <row r="44" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L43" s="10">
+        <v>42925</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C44" s="4"/>
       <c r="D44" s="4">
         <v>290</v>
@@ -4409,11 +4454,17 @@
       <c r="G44" s="4" t="s">
         <v>85</v>
       </c>
+      <c r="I44">
+        <v>1</v>
+      </c>
       <c r="K44">
         <v>1</v>
       </c>
-    </row>
-    <row r="45" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L44" s="10">
+        <v>42925</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C45" s="4">
         <v>547</v>
       </c>
@@ -4436,7 +4487,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C46" s="4">
         <v>548</v>
       </c>
@@ -4459,7 +4510,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C47" s="4"/>
       <c r="D47" s="4">
         <v>359</v>
@@ -4473,11 +4524,17 @@
       <c r="G47" s="4" t="s">
         <v>85</v>
       </c>
+      <c r="I47">
+        <v>1</v>
+      </c>
       <c r="K47">
         <v>1</v>
       </c>
-    </row>
-    <row r="48" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L47" s="10">
+        <v>42925</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C48" s="4"/>
       <c r="D48" s="4">
         <v>389</v>
@@ -4491,8 +4548,14 @@
       <c r="G48" s="4" t="s">
         <v>85</v>
       </c>
+      <c r="I48">
+        <v>1</v>
+      </c>
       <c r="K48">
         <v>1</v>
+      </c>
+      <c r="L48" s="10">
+        <v>42925</v>
       </c>
     </row>
     <row r="49" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -4511,8 +4574,17 @@
       <c r="G49" s="4" t="s">
         <v>85</v>
       </c>
+      <c r="I49">
+        <v>1</v>
+      </c>
+      <c r="J49" t="s">
+        <v>184</v>
+      </c>
       <c r="K49">
         <v>1</v>
+      </c>
+      <c r="L49" s="10">
+        <v>42925</v>
       </c>
     </row>
     <row r="50" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -4531,8 +4603,17 @@
       <c r="G50" s="4" t="s">
         <v>85</v>
       </c>
+      <c r="I50">
+        <v>1</v>
+      </c>
+      <c r="J50" t="s">
+        <v>77</v>
+      </c>
       <c r="K50">
         <v>1</v>
+      </c>
+      <c r="L50" s="10">
+        <v>42925</v>
       </c>
     </row>
     <row r="51" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -4678,7 +4759,7 @@
       </c>
       <c r="I58" s="13">
         <f>SUM(I33:I57)</f>
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="K58" s="13">
         <f>SUM(K33:K57)</f>
@@ -4760,22 +4841,22 @@
     <hyperlink ref="E51" r:id="rId36"/>
     <hyperlink ref="E50" r:id="rId37"/>
     <hyperlink ref="E49" r:id="rId38"/>
-    <hyperlink ref="E48" r:id="rId39"/>
-    <hyperlink ref="E34" r:id="rId40"/>
-    <hyperlink ref="E46" r:id="rId41"/>
-    <hyperlink ref="E56" r:id="rId42"/>
-    <hyperlink ref="E41" r:id="rId43"/>
-    <hyperlink ref="E40" r:id="rId44"/>
-    <hyperlink ref="E39" r:id="rId45"/>
-    <hyperlink ref="E38" r:id="rId46"/>
-    <hyperlink ref="E37" r:id="rId47"/>
-    <hyperlink ref="E36" r:id="rId48"/>
-    <hyperlink ref="E44" r:id="rId49"/>
-    <hyperlink ref="E35" r:id="rId50"/>
-    <hyperlink ref="E57" r:id="rId51"/>
-    <hyperlink ref="E45" r:id="rId52"/>
-    <hyperlink ref="E43" r:id="rId53"/>
-    <hyperlink ref="E47" r:id="rId54"/>
+    <hyperlink ref="E34" r:id="rId39"/>
+    <hyperlink ref="E46" r:id="rId40"/>
+    <hyperlink ref="E56" r:id="rId41"/>
+    <hyperlink ref="E41" r:id="rId42"/>
+    <hyperlink ref="E40" r:id="rId43"/>
+    <hyperlink ref="E39" r:id="rId44"/>
+    <hyperlink ref="E38" r:id="rId45"/>
+    <hyperlink ref="E37" r:id="rId46"/>
+    <hyperlink ref="E36" r:id="rId47"/>
+    <hyperlink ref="E44" r:id="rId48"/>
+    <hyperlink ref="E35" r:id="rId49"/>
+    <hyperlink ref="E57" r:id="rId50"/>
+    <hyperlink ref="E45" r:id="rId51"/>
+    <hyperlink ref="E43" r:id="rId52"/>
+    <hyperlink ref="E47" r:id="rId53"/>
+    <hyperlink ref="E48" r:id="rId54"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/mycode/刷题统计.xlsx
+++ b/mycode/刷题统计.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1260" yWindow="480" windowWidth="22240" windowHeight="14180" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="1280" yWindow="540" windowWidth="23600" windowHeight="14180" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="222">
   <si>
     <t>1 binary search</t>
   </si>
@@ -583,6 +583,117 @@
   </si>
   <si>
     <t>小yes</t>
+  </si>
+  <si>
+    <t>listed_list to Tree</t>
+  </si>
+  <si>
+    <t>翻转</t>
+  </si>
+  <si>
+    <t>partition</t>
+  </si>
+  <si>
+    <t>mid</t>
+  </si>
+  <si>
+    <t>partition+翻转</t>
+  </si>
+  <si>
+    <t>翻转+快慢指针</t>
+  </si>
+  <si>
+    <t>快慢指针</t>
+  </si>
+  <si>
+    <t>heap</t>
+  </si>
+  <si>
+    <t>partition+mid+merge</t>
+  </si>
+  <si>
+    <t>merge</t>
+  </si>
+  <si>
+    <t>Read N Characters Given Read4 </t>
+  </si>
+  <si>
+    <t>Implement strStr()</t>
+  </si>
+  <si>
+    <t>Reverse Words in a String III</t>
+  </si>
+  <si>
+    <t>Student Attendance Record I</t>
+  </si>
+  <si>
+    <t>Reverse String II</t>
+  </si>
+  <si>
+    <t>Longest Uncommon Subsequence I</t>
+  </si>
+  <si>
+    <t>Roman to Integer</t>
+  </si>
+  <si>
+    <t>Longest Common Prefix</t>
+  </si>
+  <si>
+    <t>Detect Capital</t>
+  </si>
+  <si>
+    <t>Valid Parentheses</t>
+  </si>
+  <si>
+    <t>Repeated Substring Pattern</t>
+  </si>
+  <si>
+    <t>Construct String from Binary Tree</t>
+  </si>
+  <si>
+    <t>Number of Segments in a String</t>
+  </si>
+  <si>
+    <t>Valid Word Abbreviation </t>
+  </si>
+  <si>
+    <t>Count and Say</t>
+  </si>
+  <si>
+    <t>Ransom Note</t>
+  </si>
+  <si>
+    <t>Reverse Vowels of a String</t>
+  </si>
+  <si>
+    <t>Reverse String</t>
+  </si>
+  <si>
+    <t>Length of Last Word</t>
+  </si>
+  <si>
+    <t>Flip Game </t>
+  </si>
+  <si>
+    <t>Add Binary</t>
+  </si>
+  <si>
+    <t>Valid Palindrome</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>Delete Node in a Linked List</t>
+  </si>
+  <si>
+    <t>Remove Duplicates from Sorted List</t>
+  </si>
+  <si>
+    <t>Merge Two Sorted Lists</t>
+  </si>
+  <si>
+    <t>Odd Even Linked List</t>
   </si>
 </sst>
 </file>
@@ -633,7 +744,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -646,21 +757,30 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="4">
     <border>
       <left/>
       <right/>
       <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -688,6 +808,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -703,28 +838,31 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="7"/>
     <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="16" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="7" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="3" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="3" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="7" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="0" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="12">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -1013,17 +1151,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L149"/>
+  <dimension ref="A1:M150"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C72" sqref="C72"/>
+      <pane ySplit="1" topLeftCell="A92" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K106" sqref="K106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="22.5" customWidth="1"/>
-    <col min="4" max="4" width="36.1640625" customWidth="1"/>
+    <col min="3" max="3" width="26.33203125" customWidth="1"/>
+    <col min="4" max="4" width="39" customWidth="1"/>
     <col min="6" max="6" width="12" customWidth="1"/>
     <col min="7" max="7" width="17" customWidth="1"/>
   </cols>
@@ -1057,2129 +1195,2463 @@
         <v>78</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
+    <row r="2" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="10">
+        <v>1</v>
+      </c>
+      <c r="B2" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="10">
         <v>60</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="10">
         <v>35</v>
       </c>
-      <c r="G2">
-        <v>1</v>
-      </c>
-      <c r="H2">
-        <v>1</v>
-      </c>
-      <c r="I2">
-        <v>1</v>
-      </c>
-      <c r="K2" s="8">
+      <c r="G2" s="10">
+        <v>1</v>
+      </c>
+      <c r="H2" s="10">
+        <v>1</v>
+      </c>
+      <c r="I2" s="10">
+        <v>1</v>
+      </c>
+      <c r="K2" s="11">
         <v>42912</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A3">
+    <row r="3" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="10">
         <v>2</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="10">
         <v>28</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="10">
         <v>74</v>
       </c>
-      <c r="G3">
-        <v>1</v>
-      </c>
-      <c r="H3">
+      <c r="G3" s="10">
+        <v>1</v>
+      </c>
+      <c r="H3" s="10">
         <v>2</v>
       </c>
-      <c r="I3">
-        <v>1</v>
-      </c>
-      <c r="K3" s="8">
+      <c r="I3" s="10">
+        <v>1</v>
+      </c>
+      <c r="K3" s="11">
         <v>42912</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A4">
+    <row r="4" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="10">
         <v>3</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="10">
         <v>38</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="10">
         <v>240</v>
       </c>
-      <c r="G4">
-        <v>1</v>
-      </c>
-      <c r="H4">
+      <c r="G4" s="10">
+        <v>1</v>
+      </c>
+      <c r="H4" s="10">
         <v>2</v>
       </c>
-      <c r="K4" s="8">
+      <c r="K4" s="11">
         <v>42912</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A5">
+    <row r="5" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="10">
         <v>4</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="10">
         <v>159</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="10">
         <v>153</v>
       </c>
-      <c r="G5">
-        <v>1</v>
-      </c>
-      <c r="H5">
+      <c r="G5" s="10">
+        <v>1</v>
+      </c>
+      <c r="H5" s="10">
         <v>2</v>
       </c>
-      <c r="I5">
-        <v>1</v>
-      </c>
-      <c r="K5" s="8">
+      <c r="I5" s="10">
+        <v>1</v>
+      </c>
+      <c r="K5" s="11">
         <v>42912</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A6">
+    <row r="6" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="10">
         <v>5</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="10">
         <v>160</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="10">
         <v>154</v>
       </c>
-      <c r="G6">
-        <v>1</v>
-      </c>
-      <c r="H6">
+      <c r="G6" s="10">
+        <v>1</v>
+      </c>
+      <c r="H6" s="10">
         <v>3</v>
       </c>
-      <c r="K6" s="8">
+      <c r="K6" s="11">
         <v>42912</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A7">
+    <row r="7" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="10">
         <v>6</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="10">
         <v>62</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="10">
         <v>33</v>
       </c>
-      <c r="G7">
-        <v>1</v>
-      </c>
-      <c r="H7">
+      <c r="G7" s="10">
+        <v>1</v>
+      </c>
+      <c r="H7" s="10">
         <v>2</v>
       </c>
-      <c r="K7" s="8">
+      <c r="K7" s="11">
         <v>42912</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A8">
+    <row r="8" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="10">
         <v>7</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="10">
         <v>63</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="10">
         <v>81</v>
       </c>
-      <c r="G8">
-        <v>1</v>
-      </c>
-      <c r="H8">
+      <c r="G8" s="10">
+        <v>1</v>
+      </c>
+      <c r="H8" s="10">
         <v>2</v>
       </c>
-      <c r="K8" s="8">
+      <c r="K8" s="11">
         <v>42912</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A9">
+    <row r="9" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="10">
         <v>8</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="10">
         <v>141</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="10">
         <v>69</v>
       </c>
-      <c r="G9">
-        <v>1</v>
-      </c>
-      <c r="H9">
-        <v>1</v>
-      </c>
-      <c r="K9" s="8">
+      <c r="G9" s="10">
+        <v>1</v>
+      </c>
+      <c r="H9" s="10">
+        <v>1</v>
+      </c>
+      <c r="K9" s="11">
         <v>42912</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A10">
+    <row r="10" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="10">
         <v>9</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="10">
         <v>74</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="10">
         <v>278</v>
       </c>
-      <c r="G10">
-        <v>1</v>
-      </c>
-      <c r="H10">
-        <v>1</v>
-      </c>
-      <c r="K10" s="8">
+      <c r="G10" s="10">
+        <v>1</v>
+      </c>
+      <c r="H10" s="10">
+        <v>1</v>
+      </c>
+      <c r="K10" s="11">
         <v>42913</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A11">
+    <row r="11" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="10">
         <v>10</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="10">
         <v>183</v>
       </c>
-      <c r="G11">
-        <v>1</v>
-      </c>
-      <c r="H11">
+      <c r="G11" s="10">
+        <v>1</v>
+      </c>
+      <c r="H11" s="10">
         <v>3</v>
       </c>
-      <c r="K11" s="8">
+      <c r="K11" s="11">
         <v>42913</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A12">
+    <row r="12" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="10">
         <v>11</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="10">
         <v>61</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="10">
         <v>34</v>
       </c>
-      <c r="G12">
-        <v>1</v>
-      </c>
-      <c r="H12">
+      <c r="G12" s="10">
+        <v>1</v>
+      </c>
+      <c r="H12" s="10">
         <v>2</v>
       </c>
-      <c r="K12" s="8">
+      <c r="K12" s="11">
         <v>42913</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A13">
+    <row r="13" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="10">
         <v>12</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="10">
         <v>248</v>
       </c>
-      <c r="G13">
-        <v>1</v>
-      </c>
-      <c r="H13">
+      <c r="G13" s="10">
+        <v>1</v>
+      </c>
+      <c r="H13" s="10">
         <v>2</v>
       </c>
-      <c r="K13" s="8">
+      <c r="K13" s="11">
         <v>42913</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A14">
+    <row r="14" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="10">
         <v>13</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="10">
         <v>8</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="10">
         <v>189</v>
       </c>
-      <c r="H14">
-        <v>1</v>
-      </c>
-      <c r="K14" s="3"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A15">
+      <c r="H14" s="10">
+        <v>1</v>
+      </c>
+      <c r="K14" s="12"/>
+    </row>
+    <row r="15" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="10">
         <v>14</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="10">
         <v>39</v>
       </c>
-      <c r="H15">
-        <v>1</v>
-      </c>
-      <c r="K15" s="3"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A16">
+      <c r="H15" s="10">
+        <v>1</v>
+      </c>
+      <c r="K15" s="12"/>
+    </row>
+    <row r="16" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="10">
         <v>15</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="10">
         <v>75</v>
       </c>
-      <c r="F16">
+      <c r="F16" s="10">
         <v>162</v>
       </c>
-      <c r="H16">
+      <c r="H16" s="10">
         <v>2</v>
       </c>
-      <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A17">
+      <c r="K16" s="12"/>
+    </row>
+    <row r="17" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="10">
         <v>16</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="10">
         <v>459</v>
       </c>
-      <c r="K17" s="3"/>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A18">
+      <c r="K17" s="12"/>
+    </row>
+    <row r="18" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="10">
         <v>17</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="10">
         <v>460</v>
       </c>
-      <c r="K18" s="3"/>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A19">
+      <c r="K18" s="12"/>
+    </row>
+    <row r="19" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="10">
         <v>18</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D19" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="10">
         <v>462</v>
       </c>
-      <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A20">
+      <c r="K19" s="12"/>
+    </row>
+    <row r="20" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="10">
         <v>19</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D20" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="E20">
+      <c r="E20" s="10">
         <v>585</v>
       </c>
-      <c r="K20" s="3"/>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A21">
+      <c r="K20" s="12"/>
+    </row>
+    <row r="21" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="10">
         <v>20</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D21" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="E21">
+      <c r="E21" s="10">
         <v>600</v>
       </c>
-      <c r="F21">
+      <c r="F21" s="10">
         <v>302</v>
       </c>
-      <c r="H21">
+      <c r="H21" s="10">
         <v>3</v>
       </c>
-      <c r="K21" s="3"/>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A22">
+      <c r="K21" s="12"/>
+    </row>
+    <row r="22" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="10">
         <v>21</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D22" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="E22">
+      <c r="E22" s="10">
         <v>414</v>
       </c>
-      <c r="F22">
+      <c r="F22" s="10">
         <v>29</v>
       </c>
-      <c r="H22">
+      <c r="H22" s="10">
         <v>2</v>
       </c>
-      <c r="K22" s="3"/>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A23">
+      <c r="K22" s="12"/>
+    </row>
+    <row r="23" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="10">
         <v>22</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D23" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="E23">
+      <c r="E23" s="10">
         <v>254</v>
       </c>
-      <c r="K23" s="3"/>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A24">
+      <c r="K23" s="12"/>
+    </row>
+    <row r="24" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="10">
         <v>23</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D24" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="E24">
+      <c r="E24" s="10">
         <v>586</v>
       </c>
-      <c r="H24">
+      <c r="H24" s="10">
         <v>2</v>
       </c>
-      <c r="K24" s="3"/>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A25">
+      <c r="K24" s="12"/>
+    </row>
+    <row r="25" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="10">
         <v>24</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D25" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="F25">
+      <c r="F25" s="10">
         <v>315</v>
       </c>
-      <c r="G25">
-        <v>1</v>
-      </c>
-      <c r="H25">
+      <c r="G25" s="10">
+        <v>1</v>
+      </c>
+      <c r="H25" s="10">
         <v>3</v>
       </c>
-      <c r="J25" t="s">
-        <v>77</v>
-      </c>
-      <c r="K25" s="8">
+      <c r="J25" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="K25" s="11">
         <v>42913</v>
       </c>
     </row>
-    <row r="26" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="1">
+    <row r="26" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="13">
         <v>25</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B26" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="D26" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="E26" s="1">
+      <c r="E26" s="13">
         <v>6</v>
       </c>
-      <c r="G26" s="1">
-        <v>1</v>
-      </c>
-      <c r="H26" s="1">
-        <v>1</v>
-      </c>
-      <c r="K26" s="8">
+      <c r="G26" s="13">
+        <v>1</v>
+      </c>
+      <c r="H26" s="13">
+        <v>1</v>
+      </c>
+      <c r="K26" s="14">
         <v>42913</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A27">
+    <row r="27" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="13">
         <v>26</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D27" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="E27">
+      <c r="E27" s="13">
         <v>64</v>
       </c>
-      <c r="F27">
+      <c r="F27" s="13">
         <v>88</v>
       </c>
-      <c r="G27">
-        <v>1</v>
-      </c>
-      <c r="H27">
-        <v>1</v>
-      </c>
-      <c r="K27" s="8">
+      <c r="G27" s="13">
+        <v>1</v>
+      </c>
+      <c r="H27" s="13">
+        <v>1</v>
+      </c>
+      <c r="K27" s="14">
         <v>42913</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A28">
+    <row r="28" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="13">
         <v>27</v>
       </c>
-      <c r="D28" t="s">
+      <c r="D28" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="E28">
+      <c r="E28" s="13">
         <v>547</v>
       </c>
-      <c r="F28">
+      <c r="F28" s="13">
         <v>349</v>
       </c>
-      <c r="G28">
-        <v>1</v>
-      </c>
-      <c r="H28">
-        <v>1</v>
-      </c>
-      <c r="J28" t="s">
-        <v>77</v>
-      </c>
-      <c r="K28" s="8">
+      <c r="G28" s="13">
+        <v>1</v>
+      </c>
+      <c r="H28" s="13">
+        <v>1</v>
+      </c>
+      <c r="J28" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="K28" s="14">
         <v>42913</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A29">
+    <row r="29" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="13">
         <v>28</v>
       </c>
-      <c r="D29" t="s">
+      <c r="D29" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="F29">
+      <c r="F29" s="13">
         <v>350</v>
       </c>
-      <c r="G29">
-        <v>1</v>
-      </c>
-      <c r="H29">
-        <v>1</v>
-      </c>
-      <c r="K29" s="8">
+      <c r="G29" s="13">
+        <v>1</v>
+      </c>
+      <c r="H29" s="13">
+        <v>1</v>
+      </c>
+      <c r="K29" s="14">
         <v>42913</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A30">
+    <row r="30" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="13">
         <v>29</v>
       </c>
-      <c r="D30" t="s">
+      <c r="D30" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="E30">
+      <c r="E30" s="13">
         <v>65</v>
       </c>
-      <c r="F30">
+      <c r="F30" s="13">
         <v>4</v>
       </c>
-      <c r="G30">
-        <v>1</v>
-      </c>
-      <c r="H30">
+      <c r="G30" s="13">
+        <v>1</v>
+      </c>
+      <c r="H30" s="13">
         <v>3</v>
       </c>
-      <c r="J30" t="s">
-        <v>77</v>
-      </c>
-      <c r="K30" s="7">
+      <c r="J30" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="K30" s="15">
         <v>42914</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A31">
+    <row r="31" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="13">
         <v>30</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C31" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="D31" t="s">
+      <c r="D31" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="E31">
+      <c r="E31" s="13">
         <v>41</v>
       </c>
-      <c r="F31">
+      <c r="F31" s="13">
         <v>53</v>
       </c>
-      <c r="G31">
-        <v>1</v>
-      </c>
-      <c r="H31">
-        <v>1</v>
-      </c>
-      <c r="J31" t="s">
-        <v>77</v>
-      </c>
-      <c r="K31" s="7">
+      <c r="G31" s="13">
+        <v>1</v>
+      </c>
+      <c r="H31" s="13">
+        <v>1</v>
+      </c>
+      <c r="J31" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="K31" s="15">
         <v>42915</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A32">
+    <row r="32" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="13">
         <v>31</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C32" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="D32" t="s">
+      <c r="D32" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="E32">
+      <c r="E32" s="13">
         <v>42</v>
       </c>
-      <c r="G32">
-        <v>1</v>
-      </c>
-      <c r="H32">
+      <c r="G32" s="13">
+        <v>1</v>
+      </c>
+      <c r="H32" s="13">
         <v>2</v>
       </c>
-      <c r="K32" s="7">
+      <c r="K32" s="15">
         <v>42915</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A33">
+    <row r="33" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="13">
         <v>32</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C33" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="D33" t="s">
+      <c r="D33" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="E33">
+      <c r="E33" s="13">
         <v>44</v>
       </c>
-      <c r="G33">
-        <v>1</v>
-      </c>
-      <c r="H33">
-        <v>1</v>
-      </c>
-      <c r="K33" s="7">
+      <c r="G33" s="13">
+        <v>1</v>
+      </c>
+      <c r="H33" s="13">
+        <v>1</v>
+      </c>
+      <c r="K33" s="15">
         <v>42915</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A34">
+    <row r="34" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="13">
         <v>33</v>
       </c>
-      <c r="D34" t="s">
+      <c r="D34" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="F34" t="s">
+      <c r="F34" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="H34">
+      <c r="H34" s="13">
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A35">
+    <row r="35" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="13">
         <v>34</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C35" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="D35" t="s">
+      <c r="D35" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="E35">
+      <c r="E35" s="13">
         <v>45</v>
       </c>
-      <c r="G35">
-        <v>1</v>
-      </c>
-      <c r="H35">
+      <c r="G35" s="13">
+        <v>1</v>
+      </c>
+      <c r="H35" s="13">
         <v>2</v>
       </c>
-      <c r="K35" s="7">
+      <c r="K35" s="15">
         <v>42915</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A36">
+    <row r="36" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="13">
         <v>35</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C36" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="D36" t="s">
+      <c r="D36" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="E36">
+      <c r="E36" s="13">
         <v>191</v>
       </c>
-      <c r="F36">
+      <c r="F36" s="13">
         <v>152</v>
       </c>
-      <c r="G36">
-        <v>1</v>
-      </c>
-      <c r="H36">
+      <c r="G36" s="13">
+        <v>1</v>
+      </c>
+      <c r="H36" s="13">
         <v>2</v>
       </c>
-      <c r="J36" t="s">
-        <v>77</v>
-      </c>
-      <c r="K36" s="7">
+      <c r="J36" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="K36" s="15">
         <v>42915</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A37">
+    <row r="37" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="13">
         <v>36</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C37" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="D37" t="s">
+      <c r="D37" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="E37">
+      <c r="E37" s="13">
         <v>149</v>
       </c>
-      <c r="F37">
+      <c r="F37" s="13">
         <v>121</v>
       </c>
-      <c r="G37">
-        <v>1</v>
-      </c>
-      <c r="H37">
+      <c r="G37" s="13">
+        <v>1</v>
+      </c>
+      <c r="H37" s="13">
         <v>2</v>
       </c>
-      <c r="J37" t="s">
-        <v>77</v>
-      </c>
-      <c r="K37" s="7">
+      <c r="J37" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="K37" s="15">
         <v>42916</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A38">
+    <row r="38" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="13">
         <v>37</v>
       </c>
-      <c r="D38" t="s">
+      <c r="D38" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="E38">
+      <c r="E38" s="13">
         <v>150</v>
       </c>
-      <c r="F38">
+      <c r="F38" s="13">
         <v>122</v>
       </c>
-      <c r="G38">
-        <v>1</v>
-      </c>
-      <c r="H38">
+      <c r="G38" s="13">
+        <v>1</v>
+      </c>
+      <c r="H38" s="13">
         <v>2</v>
       </c>
-      <c r="J38" t="s">
-        <v>77</v>
-      </c>
-      <c r="K38" s="7">
+      <c r="J38" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="K38" s="15">
         <v>42916</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A39">
+    <row r="39" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="13">
         <v>38</v>
       </c>
-      <c r="D39" t="s">
+      <c r="D39" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="E39">
+      <c r="E39" s="13">
         <v>151</v>
       </c>
-      <c r="F39">
+      <c r="F39" s="13">
         <v>123</v>
       </c>
-      <c r="G39">
-        <v>1</v>
-      </c>
-      <c r="H39">
+      <c r="G39" s="13">
+        <v>1</v>
+      </c>
+      <c r="H39" s="13">
         <v>3</v>
       </c>
-      <c r="J39" t="s">
-        <v>77</v>
-      </c>
-      <c r="K39" s="7">
+      <c r="J39" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="K39" s="15">
         <v>42916</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A40">
+    <row r="40" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="13">
         <v>39</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C40" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="D40" t="s">
+      <c r="D40" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="E40">
+      <c r="E40" s="13">
         <v>393</v>
       </c>
-      <c r="F40">
+      <c r="F40" s="13">
         <v>188</v>
       </c>
-      <c r="G40">
-        <v>1</v>
-      </c>
-      <c r="H40">
+      <c r="G40" s="13">
+        <v>1</v>
+      </c>
+      <c r="H40" s="13">
         <v>3</v>
       </c>
-      <c r="J40" t="s">
-        <v>77</v>
-      </c>
-      <c r="K40" s="7">
+      <c r="J40" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="K40" s="15">
         <v>42917</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A41">
+    <row r="41" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="13">
         <v>40</v>
       </c>
-      <c r="D41" t="s">
+      <c r="D41" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="E41">
+      <c r="E41" s="13">
         <v>138</v>
       </c>
-      <c r="F41">
+      <c r="F41" s="13">
         <v>560</v>
       </c>
-      <c r="G41">
-        <v>1</v>
-      </c>
-      <c r="H41">
+      <c r="G41" s="13">
+        <v>1</v>
+      </c>
+      <c r="H41" s="13">
         <v>2</v>
       </c>
-      <c r="J41" t="s">
-        <v>77</v>
-      </c>
-      <c r="K41" s="7">
+      <c r="J41" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="K41" s="15">
         <v>42918</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A42">
+    <row r="42" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="13">
         <v>41</v>
       </c>
-      <c r="C42" s="2"/>
-      <c r="D42" s="2" t="s">
+      <c r="D42" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="E42" s="2">
+      <c r="E42" s="13">
         <v>139</v>
       </c>
-      <c r="F42" s="2"/>
-      <c r="G42" s="2"/>
-      <c r="H42" s="2">
+      <c r="H42" s="13">
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A43">
+    <row r="43" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="13">
         <v>42</v>
       </c>
-      <c r="B43" s="2"/>
-      <c r="C43" t="s">
+      <c r="C43" s="13" t="s">
         <v>117</v>
       </c>
-      <c r="D43" t="s">
+      <c r="D43" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="E43">
+      <c r="E43" s="13">
         <v>56</v>
       </c>
-      <c r="F43">
-        <v>1</v>
-      </c>
-      <c r="G43" s="9">
-        <v>1</v>
-      </c>
-      <c r="H43">
-        <v>1</v>
-      </c>
-      <c r="K43" s="7">
+      <c r="F43" s="13">
+        <v>1</v>
+      </c>
+      <c r="G43" s="13">
+        <v>1</v>
+      </c>
+      <c r="H43" s="13">
+        <v>1</v>
+      </c>
+      <c r="K43" s="15">
         <v>42918</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A44">
+    <row r="44" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="13">
         <v>43</v>
       </c>
-      <c r="D44" t="s">
+      <c r="D44" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="E44">
+      <c r="E44" s="13">
         <v>57</v>
       </c>
-      <c r="H44">
+      <c r="H44" s="13">
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:12" ht="18" x14ac:dyDescent="0.2">
-      <c r="A45">
+    <row r="45" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="13">
         <v>44</v>
       </c>
-      <c r="C45" t="s">
+    </row>
+    <row r="46" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="13">
+        <v>45</v>
+      </c>
+      <c r="D46" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="E46" s="13">
+        <v>59</v>
+      </c>
+      <c r="F46" s="13">
+        <v>16</v>
+      </c>
+      <c r="H46" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="13">
+        <v>46</v>
+      </c>
+      <c r="C47" s="13" t="s">
         <v>118</v>
       </c>
-      <c r="D45" s="5" t="s">
+      <c r="D47" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="E47" s="13">
+        <v>31</v>
+      </c>
+      <c r="G47" s="13">
+        <v>1</v>
+      </c>
+      <c r="H47" s="13">
+        <v>2</v>
+      </c>
+      <c r="J47" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="K47" s="15">
+        <v>42921</v>
+      </c>
+      <c r="L47" s="13" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="13">
+        <v>47</v>
+      </c>
+      <c r="D48" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="F48" s="13">
+        <v>561</v>
+      </c>
+      <c r="G48" s="13">
+        <v>1</v>
+      </c>
+      <c r="H48" s="13">
+        <v>2</v>
+      </c>
+      <c r="J48" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="K48" s="15">
+        <v>42920</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="13">
+        <v>48</v>
+      </c>
+      <c r="D49" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="E49" s="13">
+        <v>625</v>
+      </c>
+      <c r="G49" s="13">
+        <v>1</v>
+      </c>
+      <c r="J49" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="K49" s="15">
+        <v>42921</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="13">
+        <v>49</v>
+      </c>
+      <c r="C50" s="13" t="s">
+        <v>179</v>
+      </c>
+      <c r="D50" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="E50" s="13">
+        <v>148</v>
+      </c>
+      <c r="F50" s="13">
+        <v>75</v>
+      </c>
+      <c r="G50" s="13">
+        <v>1</v>
+      </c>
+      <c r="H50" s="13">
+        <v>2</v>
+      </c>
+      <c r="K50" s="15">
+        <v>42921</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="13">
+        <v>50</v>
+      </c>
+      <c r="D51" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="E51" s="13">
+        <v>143</v>
+      </c>
+      <c r="G51" s="13">
+        <v>1</v>
+      </c>
+      <c r="H51" s="13">
+        <v>2</v>
+      </c>
+      <c r="J51" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="K51" s="15">
+        <v>42921</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" s="13" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A52" s="13">
+        <v>51</v>
+      </c>
+      <c r="C52" s="17" t="s">
+        <v>181</v>
+      </c>
+      <c r="D52" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="E52" s="13">
+        <v>100</v>
+      </c>
+      <c r="F52" s="13">
+        <v>26</v>
+      </c>
+      <c r="G52" s="13">
+        <v>1</v>
+      </c>
+      <c r="H52" s="13">
+        <v>1</v>
+      </c>
+      <c r="J52" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="K52" s="15">
+        <v>42918</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" s="13" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A53" s="13">
+        <v>52</v>
+      </c>
+      <c r="C53" s="17" t="s">
+        <v>181</v>
+      </c>
+      <c r="D53" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="E53" s="13">
+        <v>101</v>
+      </c>
+      <c r="F53" s="13">
+        <v>80</v>
+      </c>
+      <c r="G53" s="13">
+        <v>1</v>
+      </c>
+      <c r="H53" s="13">
+        <v>2</v>
+      </c>
+      <c r="J53" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="K53" s="15">
+        <v>42921</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" s="13" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="13">
+        <v>53</v>
+      </c>
+      <c r="C54" s="17" t="s">
+        <v>181</v>
+      </c>
+      <c r="D54" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="F54" s="13">
+        <v>283</v>
+      </c>
+      <c r="G54" s="13">
+        <v>1</v>
+      </c>
+      <c r="H54" s="13">
+        <v>1</v>
+      </c>
+      <c r="J54" s="16" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" s="13" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="13">
+        <v>54</v>
+      </c>
+      <c r="C55" s="17" t="s">
+        <v>181</v>
+      </c>
+      <c r="D55" s="18" t="s">
         <v>92</v>
       </c>
-      <c r="E45">
+      <c r="E55" s="13">
         <v>172</v>
       </c>
-      <c r="F45" s="4">
+      <c r="F55" s="17">
         <v>27</v>
       </c>
-      <c r="G45">
-        <v>1</v>
-      </c>
-      <c r="H45">
-        <v>1</v>
-      </c>
-      <c r="J45" t="s">
-        <v>77</v>
-      </c>
-      <c r="K45" s="7">
+      <c r="G55" s="13">
+        <v>1</v>
+      </c>
+      <c r="H55" s="13">
+        <v>1</v>
+      </c>
+      <c r="J55" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="K55" s="15">
         <v>42918</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A46">
-        <v>45</v>
-      </c>
-      <c r="D46" t="s">
-        <v>53</v>
-      </c>
-      <c r="E46">
+    <row r="56" spans="1:12" s="13" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="13">
+        <v>55</v>
+      </c>
+      <c r="D56" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="E56" s="13">
+        <v>157</v>
+      </c>
+      <c r="G56" s="13">
+        <v>1</v>
+      </c>
+      <c r="H56" s="13">
+        <v>1</v>
+      </c>
+      <c r="K56" s="15">
+        <v>42923</v>
+      </c>
+      <c r="L56" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" s="13" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="13">
+        <v>56</v>
+      </c>
+      <c r="D57" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="E57" s="13">
+        <v>161</v>
+      </c>
+      <c r="F57" s="13">
+        <v>48</v>
+      </c>
+      <c r="G57" s="13">
+        <v>1</v>
+      </c>
+      <c r="H57" s="13">
+        <v>2</v>
+      </c>
+      <c r="J57" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="K57" s="15">
+        <v>42923</v>
+      </c>
+      <c r="L57" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" s="13" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="13">
+        <v>57</v>
+      </c>
+      <c r="D58" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="E58" s="13">
+        <v>162</v>
+      </c>
+      <c r="G58" s="13">
+        <v>1</v>
+      </c>
+      <c r="H58" s="13">
+        <v>2</v>
+      </c>
+      <c r="J58" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="K58" s="15">
+        <v>42923</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" s="13" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="13">
+        <v>58</v>
+      </c>
+      <c r="D59" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="E59" s="13">
+        <v>436</v>
+      </c>
+      <c r="F59" s="13">
+        <v>221</v>
+      </c>
+      <c r="H59" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" s="13" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="13">
         <v>59</v>
       </c>
-      <c r="F46">
-        <v>16</v>
-      </c>
-      <c r="H46">
+      <c r="D60" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="E60" s="13">
+        <v>510</v>
+      </c>
+      <c r="F60" s="13">
+        <v>85</v>
+      </c>
+      <c r="H60" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="13">
+        <v>60</v>
+      </c>
+      <c r="D61" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="E61" s="13">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" s="13" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="13">
+        <v>61</v>
+      </c>
+      <c r="D62" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="E62" s="13">
+        <v>58</v>
+      </c>
+      <c r="F62" s="13">
+        <v>18</v>
+      </c>
+      <c r="H62" s="13">
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A47">
-        <v>46</v>
-      </c>
-      <c r="C47" t="s">
-        <v>118</v>
-      </c>
-      <c r="D47" t="s">
-        <v>55</v>
-      </c>
-      <c r="E47">
-        <v>31</v>
-      </c>
-      <c r="G47">
-        <v>1</v>
-      </c>
-      <c r="H47">
+    <row r="63" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="13">
+        <v>62</v>
+      </c>
+      <c r="D63" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="E63" s="13">
+        <v>415</v>
+      </c>
+      <c r="F63" s="13">
+        <v>125</v>
+      </c>
+      <c r="H63" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" s="13" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="13">
+        <v>63</v>
+      </c>
+      <c r="D64" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="E64" s="13">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" s="13" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="13">
+        <v>64</v>
+      </c>
+      <c r="D65" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="E65" s="13">
+        <v>539</v>
+      </c>
+      <c r="H65" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" s="13" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="13">
+        <v>65</v>
+      </c>
+      <c r="D66" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="E66" s="13">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" s="13" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="13">
+        <v>66</v>
+      </c>
+      <c r="D67" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="E67" s="13">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" s="13" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="13">
+        <v>67</v>
+      </c>
+      <c r="D68" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="E68" s="13">
+        <v>607</v>
+      </c>
+      <c r="F68" s="13">
+        <v>170</v>
+      </c>
+      <c r="G68" s="13">
+        <v>1</v>
+      </c>
+      <c r="H68" s="13">
+        <v>1</v>
+      </c>
+      <c r="K68" s="15">
+        <v>42924</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" s="13" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="13">
+        <v>68</v>
+      </c>
+      <c r="D69" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="E69" s="13">
+        <v>608</v>
+      </c>
+      <c r="F69" s="13">
+        <v>167</v>
+      </c>
+      <c r="G69" s="13">
+        <v>1</v>
+      </c>
+      <c r="H69" s="13">
+        <v>1</v>
+      </c>
+      <c r="I69" s="13">
+        <v>1</v>
+      </c>
+      <c r="K69" s="15">
+        <v>42919</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" s="13" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="13">
+        <v>69</v>
+      </c>
+      <c r="D70" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="E70" s="13">
+        <v>609</v>
+      </c>
+      <c r="H70" s="13">
         <v>2</v>
       </c>
-      <c r="J47" s="15" t="s">
-        <v>77</v>
-      </c>
-      <c r="K47" s="7">
-        <v>42921</v>
-      </c>
-      <c r="L47" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A48">
-        <v>47</v>
-      </c>
-      <c r="D48" t="s">
-        <v>122</v>
-      </c>
-      <c r="F48">
-        <v>561</v>
-      </c>
-      <c r="G48">
-        <v>1</v>
-      </c>
-      <c r="H48">
+    </row>
+    <row r="71" spans="1:11" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="13">
+        <v>70</v>
+      </c>
+      <c r="D71" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="E71" s="13">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" s="13" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="13">
+        <v>71</v>
+      </c>
+      <c r="C72" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="D72" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="E72" s="13">
+        <v>406</v>
+      </c>
+      <c r="F72" s="13">
+        <v>209</v>
+      </c>
+      <c r="G72" s="13">
+        <v>1</v>
+      </c>
+      <c r="H72" s="13">
         <v>2</v>
       </c>
-      <c r="J48" t="s">
-        <v>77</v>
-      </c>
-      <c r="K48" s="7">
-        <v>42920</v>
-      </c>
-    </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A49">
-        <v>48</v>
-      </c>
-      <c r="D49" s="14" t="s">
+      <c r="J72" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="K72" s="15">
+        <v>42915</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" s="13" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A73" s="13">
+        <v>72</v>
+      </c>
+      <c r="C73" s="13" t="s">
+        <v>182</v>
+      </c>
+      <c r="D73" s="18" t="s">
+        <v>153</v>
+      </c>
+      <c r="E73" s="17">
+        <v>488</v>
+      </c>
+      <c r="F73" s="17">
+        <v>202</v>
+      </c>
+      <c r="G73" s="13">
+        <v>1</v>
+      </c>
+      <c r="H73" s="13">
+        <v>1</v>
+      </c>
+      <c r="J73" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="K73" s="20">
+        <v>42925</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" s="13" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="13">
+        <v>73</v>
+      </c>
+      <c r="D74" s="13" t="s">
+        <v>176</v>
+      </c>
+      <c r="E74" s="13">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" s="13" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="13">
         <v>74</v>
       </c>
-      <c r="E49" s="14">
-        <v>625</v>
-      </c>
-      <c r="G49">
-        <v>1</v>
-      </c>
-      <c r="J49" s="15" t="s">
-        <v>77</v>
-      </c>
-      <c r="K49" s="7">
-        <v>42921</v>
-      </c>
-    </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A50">
-        <v>49</v>
-      </c>
-      <c r="C50" t="s">
-        <v>179</v>
-      </c>
-      <c r="D50" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="E50" s="14">
+      <c r="D75" s="13" t="s">
+        <v>177</v>
+      </c>
+      <c r="E75" s="13">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" s="13" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="13">
+        <v>75</v>
+      </c>
+      <c r="D76" s="13" t="s">
+        <v>172</v>
+      </c>
+      <c r="E76" s="13">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" s="21" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A77" s="21">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" s="21" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A78" s="21">
+        <v>77</v>
+      </c>
+      <c r="B78" s="21" t="s">
+        <v>123</v>
+      </c>
+      <c r="D78" s="21" t="s">
+        <v>124</v>
+      </c>
+      <c r="E78" s="21">
+        <v>112</v>
+      </c>
+      <c r="F78" s="21">
+        <v>83</v>
+      </c>
+      <c r="G78" s="21">
+        <v>1</v>
+      </c>
+      <c r="H78" s="21">
+        <v>1</v>
+      </c>
+      <c r="K78" s="22">
+        <v>42928</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" s="21" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A79" s="21">
+        <v>78</v>
+      </c>
+      <c r="D79" s="21" t="s">
+        <v>125</v>
+      </c>
+      <c r="E79" s="21">
+        <v>113</v>
+      </c>
+      <c r="F79" s="21">
+        <v>82</v>
+      </c>
+      <c r="G79" s="21">
+        <v>1</v>
+      </c>
+      <c r="H79" s="21">
+        <v>2</v>
+      </c>
+      <c r="J79" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="K79" s="22">
+        <v>42928</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" s="21" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A80" s="21">
+        <v>79</v>
+      </c>
+      <c r="D80" s="21" t="s">
+        <v>126</v>
+      </c>
+      <c r="E80" s="21">
+        <v>173</v>
+      </c>
+      <c r="F80" s="21">
+        <v>147</v>
+      </c>
+      <c r="G80" s="21">
+        <v>1</v>
+      </c>
+      <c r="H80" s="21">
+        <v>1</v>
+      </c>
+      <c r="J80" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="K80" s="22">
+        <v>42928</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" s="21" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A81" s="21">
+        <v>80</v>
+      </c>
+      <c r="C81" s="21" t="s">
+        <v>186</v>
+      </c>
+      <c r="D81" s="21" t="s">
+        <v>127</v>
+      </c>
+      <c r="E81" s="21">
+        <v>35</v>
+      </c>
+      <c r="F81" s="21">
+        <v>206</v>
+      </c>
+      <c r="G81" s="21">
+        <v>1</v>
+      </c>
+      <c r="H81" s="21">
+        <v>1</v>
+      </c>
+      <c r="J81" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="K81" s="22">
+        <v>42929</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" s="21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A82" s="21">
+        <v>81</v>
+      </c>
+      <c r="C82" s="21" t="s">
+        <v>186</v>
+      </c>
+      <c r="D82" s="21" t="s">
+        <v>128</v>
+      </c>
+      <c r="E82" s="21">
+        <v>36</v>
+      </c>
+      <c r="F82" s="21">
+        <v>92</v>
+      </c>
+      <c r="G82" s="21">
+        <v>1</v>
+      </c>
+      <c r="H82" s="21">
+        <v>2</v>
+      </c>
+      <c r="J82" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="K82" s="22">
+        <v>42929</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" s="21" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A83" s="21">
+        <v>82</v>
+      </c>
+      <c r="C83" s="21" t="s">
+        <v>187</v>
+      </c>
+      <c r="D83" s="21" t="s">
+        <v>129</v>
+      </c>
+      <c r="E83" s="21">
+        <v>96</v>
+      </c>
+      <c r="F83" s="21">
+        <v>86</v>
+      </c>
+      <c r="G83" s="21">
+        <v>1</v>
+      </c>
+      <c r="H83" s="21">
+        <v>1</v>
+      </c>
+      <c r="K83" s="22">
+        <v>42929</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" s="21" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A84" s="21">
+        <v>83</v>
+      </c>
+      <c r="C84" s="21" t="s">
+        <v>188</v>
+      </c>
+      <c r="D84" s="21" t="s">
+        <v>135</v>
+      </c>
+      <c r="E84" s="21">
+        <v>228</v>
+      </c>
+      <c r="G84" s="21">
+        <v>1</v>
+      </c>
+      <c r="H84" s="21">
+        <v>1</v>
+      </c>
+      <c r="K84" s="22">
+        <v>42930</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" s="21" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A85" s="21">
+        <v>84</v>
+      </c>
+      <c r="C85" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="D85" s="21" t="s">
+        <v>162</v>
+      </c>
+      <c r="E85" s="21">
+        <v>165</v>
+      </c>
+      <c r="F85" s="21">
+        <v>21</v>
+      </c>
+      <c r="G85" s="21">
+        <v>1</v>
+      </c>
+      <c r="H85" s="21">
+        <v>1</v>
+      </c>
+      <c r="K85" s="22">
+        <v>42932</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" s="21" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A86" s="21">
+        <v>85</v>
+      </c>
+      <c r="C86" s="21" t="s">
+        <v>189</v>
+      </c>
+      <c r="D86" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="E86" s="21">
+        <v>99</v>
+      </c>
+      <c r="F86" s="21">
+        <v>143</v>
+      </c>
+      <c r="G86" s="21">
+        <v>1</v>
+      </c>
+      <c r="H86" s="21">
+        <v>2</v>
+      </c>
+      <c r="J86" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="K86" s="22">
+        <v>42930</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" s="21" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A87" s="21">
+        <v>86</v>
+      </c>
+      <c r="C87" s="21" t="s">
+        <v>193</v>
+      </c>
+      <c r="D87" s="21" t="s">
+        <v>130</v>
+      </c>
+      <c r="E87" s="21">
+        <v>98</v>
+      </c>
+      <c r="F87" s="21">
         <v>148</v>
       </c>
-      <c r="F50">
-        <v>75</v>
-      </c>
-      <c r="G50">
-        <v>1</v>
-      </c>
-      <c r="H50">
+      <c r="G87" s="21">
+        <v>1</v>
+      </c>
+      <c r="H87" s="21">
         <v>2</v>
       </c>
-      <c r="K50" s="7">
-        <v>42921</v>
-      </c>
-    </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A51">
-        <v>50</v>
-      </c>
-      <c r="D51" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="E51" s="14">
-        <v>143</v>
-      </c>
-      <c r="G51">
-        <v>1</v>
-      </c>
-      <c r="H51">
+      <c r="J87" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="K87" s="22">
+        <v>42929</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" s="21" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A88" s="21">
+        <v>87</v>
+      </c>
+      <c r="C88" s="21" t="s">
+        <v>191</v>
+      </c>
+      <c r="D88" s="21" t="s">
+        <v>134</v>
+      </c>
+      <c r="E88" s="21">
+        <v>174</v>
+      </c>
+      <c r="F88" s="21">
+        <v>19</v>
+      </c>
+      <c r="G88" s="21">
+        <v>1</v>
+      </c>
+      <c r="H88" s="21">
+        <v>1</v>
+      </c>
+      <c r="K88" s="22">
+        <v>42930</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" s="21" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A89" s="21">
+        <v>88</v>
+      </c>
+      <c r="C89" s="21" t="s">
+        <v>191</v>
+      </c>
+      <c r="D89" s="21" t="s">
+        <v>132</v>
+      </c>
+      <c r="E89" s="21">
+        <v>102</v>
+      </c>
+      <c r="F89" s="21">
+        <v>141</v>
+      </c>
+      <c r="G89" s="21">
+        <v>1</v>
+      </c>
+      <c r="H89" s="21">
         <v>2</v>
       </c>
-      <c r="J51" s="15" t="s">
-        <v>77</v>
-      </c>
-      <c r="K51" s="7">
-        <v>42921</v>
-      </c>
-    </row>
-    <row r="52" spans="1:12" ht="18" x14ac:dyDescent="0.2">
-      <c r="A52">
-        <v>51</v>
-      </c>
-      <c r="C52" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="D52" t="s">
-        <v>58</v>
-      </c>
-      <c r="E52">
+      <c r="J89" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="K89" s="22">
+        <v>42930</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" s="21" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A90" s="21">
+        <v>89</v>
+      </c>
+      <c r="C90" s="21" t="s">
+        <v>191</v>
+      </c>
+      <c r="D90" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="E90" s="21">
+        <v>103</v>
+      </c>
+      <c r="F90" s="21">
+        <v>142</v>
+      </c>
+      <c r="G90" s="21">
+        <v>1</v>
+      </c>
+      <c r="H90" s="21">
+        <v>2</v>
+      </c>
+      <c r="J90" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="K90" s="22">
+        <v>42930</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" s="21" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A91" s="21">
+        <v>90</v>
+      </c>
+      <c r="C91" s="21" t="s">
+        <v>190</v>
+      </c>
+      <c r="D91" s="21" t="s">
+        <v>136</v>
+      </c>
+      <c r="E91" s="21">
+        <v>170</v>
+      </c>
+      <c r="F91" s="21">
+        <v>61</v>
+      </c>
+      <c r="G91" s="21">
+        <v>1</v>
+      </c>
+      <c r="H91" s="21">
+        <v>1</v>
+      </c>
+      <c r="J91" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="K91" s="22">
+        <v>42932</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" s="21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A92" s="21">
+        <v>91</v>
+      </c>
+      <c r="C92" s="21" t="s">
+        <v>192</v>
+      </c>
+      <c r="D92" s="21" t="s">
+        <v>137</v>
+      </c>
+      <c r="E92" s="21">
+        <v>104</v>
+      </c>
+      <c r="F92" s="21">
+        <v>23</v>
+      </c>
+      <c r="G92" s="21">
+        <v>1</v>
+      </c>
+      <c r="H92" s="21">
+        <v>2</v>
+      </c>
+      <c r="J92" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="K92" s="22">
+        <v>42932</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" s="21" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A93" s="21">
+        <v>92</v>
+      </c>
+      <c r="C93" s="21" t="s">
+        <v>120</v>
+      </c>
+      <c r="D93" s="21" t="s">
+        <v>138</v>
+      </c>
+      <c r="E93" s="21">
+        <v>105</v>
+      </c>
+      <c r="F93" s="21">
+        <v>138</v>
+      </c>
+      <c r="G93" s="21">
+        <v>1</v>
+      </c>
+      <c r="H93" s="21">
+        <v>2</v>
+      </c>
+      <c r="J93" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="K93" s="22">
+        <v>42932</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" s="21" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A94" s="21">
+        <v>93</v>
+      </c>
+      <c r="C94" s="21" t="s">
+        <v>185</v>
+      </c>
+      <c r="D94" s="21" t="s">
+        <v>161</v>
+      </c>
+      <c r="E94" s="21">
+        <v>106</v>
+      </c>
+      <c r="F94" s="21">
+        <v>109</v>
+      </c>
+      <c r="G94" s="21">
+        <v>1</v>
+      </c>
+      <c r="H94" s="21">
+        <v>2</v>
+      </c>
+      <c r="J94" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="K94" s="22">
+        <v>42932</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" s="21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A95" s="21">
+        <v>94</v>
+      </c>
+      <c r="C95" s="21" t="s">
+        <v>191</v>
+      </c>
+      <c r="D95" s="21" t="s">
+        <v>163</v>
+      </c>
+      <c r="E95" s="21">
+        <v>166</v>
+      </c>
+      <c r="G95" s="21">
+        <v>1</v>
+      </c>
+      <c r="H95" s="21">
+        <v>1</v>
+      </c>
+      <c r="K95" s="22">
+        <v>42932</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" s="21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A96" s="21">
+        <v>95</v>
+      </c>
+      <c r="D96" s="21" t="s">
+        <v>164</v>
+      </c>
+      <c r="E96" s="21">
+        <v>167</v>
+      </c>
+      <c r="F96" s="21">
+        <v>2</v>
+      </c>
+      <c r="G96" s="21">
+        <v>1</v>
+      </c>
+      <c r="H96" s="21">
+        <v>2</v>
+      </c>
+      <c r="J96" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="K96" s="22">
+        <v>42932</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13" s="21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A97" s="21">
+        <v>96</v>
+      </c>
+      <c r="D97" s="21" t="s">
+        <v>165</v>
+      </c>
+      <c r="E97" s="21">
+        <v>221</v>
+      </c>
+      <c r="F97" s="21">
+        <v>445</v>
+      </c>
+      <c r="G97" s="21">
+        <v>1</v>
+      </c>
+      <c r="H97" s="21">
+        <v>2</v>
+      </c>
+      <c r="J97" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="K97" s="22">
+        <v>42932</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13" s="21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A98" s="21">
+        <v>97</v>
+      </c>
+      <c r="D98" s="21" t="s">
+        <v>174</v>
+      </c>
+      <c r="E98" s="21">
+        <v>217</v>
+      </c>
+      <c r="G98" s="21">
+        <v>1</v>
+      </c>
+      <c r="H98" s="21">
+        <v>1</v>
+      </c>
+      <c r="K98" s="22">
+        <v>42933</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13" s="21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A99" s="21">
+        <v>98</v>
+      </c>
+      <c r="D99" s="21" t="s">
+        <v>168</v>
+      </c>
+      <c r="E99" s="21">
+        <v>380</v>
+      </c>
+      <c r="F99" s="21">
+        <v>160</v>
+      </c>
+      <c r="G99" s="21">
+        <v>1</v>
+      </c>
+      <c r="H99" s="21">
+        <v>1</v>
+      </c>
+      <c r="J99" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="K99" s="22">
+        <v>42933</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13" s="21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A100" s="21">
+        <v>99</v>
+      </c>
+      <c r="D100" s="21" t="s">
+        <v>166</v>
+      </c>
+      <c r="E100" s="21">
+        <v>223</v>
+      </c>
+      <c r="F100" s="21">
+        <v>234</v>
+      </c>
+      <c r="G100" s="21">
+        <v>1</v>
+      </c>
+      <c r="H100" s="21">
+        <v>1</v>
+      </c>
+      <c r="J100" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="K100" s="22">
+        <v>42933</v>
+      </c>
+    </row>
+    <row r="101" spans="1:13" s="21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A101" s="21">
         <v>100</v>
       </c>
-      <c r="F52">
-        <v>26</v>
-      </c>
-      <c r="G52">
-        <v>1</v>
-      </c>
-      <c r="H52">
-        <v>1</v>
-      </c>
-      <c r="J52" t="s">
-        <v>77</v>
-      </c>
-      <c r="K52" s="7">
-        <v>42918</v>
-      </c>
-    </row>
-    <row r="53" spans="1:12" ht="18" x14ac:dyDescent="0.2">
-      <c r="A53">
-        <v>52</v>
-      </c>
-      <c r="C53" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="D53" t="s">
-        <v>59</v>
-      </c>
-      <c r="E53">
+      <c r="D101" s="21" t="s">
+        <v>167</v>
+      </c>
+      <c r="E101" s="21">
+        <v>372</v>
+      </c>
+      <c r="H101" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13" s="21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A102" s="21">
         <v>101</v>
       </c>
-      <c r="F53">
-        <v>80</v>
-      </c>
-      <c r="G53">
-        <v>1</v>
-      </c>
-      <c r="H53">
+      <c r="D102" s="21" t="s">
+        <v>169</v>
+      </c>
+      <c r="E102" s="21">
+        <v>450</v>
+      </c>
+      <c r="F102" s="21">
+        <v>25</v>
+      </c>
+      <c r="G102" s="21">
+        <v>1</v>
+      </c>
+      <c r="H102" s="21">
+        <v>3</v>
+      </c>
+      <c r="J102" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="K102" s="22">
+        <v>42933</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13" s="21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A103" s="21">
+        <v>102</v>
+      </c>
+      <c r="D103" s="21" t="s">
+        <v>170</v>
+      </c>
+      <c r="E103" s="21">
+        <v>451</v>
+      </c>
+      <c r="F103" s="21">
+        <v>24</v>
+      </c>
+      <c r="G103" s="21">
+        <v>1</v>
+      </c>
+      <c r="H103" s="21">
         <v>2</v>
       </c>
-      <c r="J53" s="15" t="s">
-        <v>77</v>
-      </c>
-      <c r="K53" s="7">
-        <v>42921</v>
-      </c>
-    </row>
-    <row r="54" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54">
-        <v>53</v>
-      </c>
-      <c r="D54" t="s">
-        <v>60</v>
-      </c>
-      <c r="E54">
-        <v>157</v>
-      </c>
-      <c r="G54">
-        <v>1</v>
-      </c>
-      <c r="H54">
-        <v>1</v>
-      </c>
-      <c r="K54" s="7">
-        <v>42923</v>
-      </c>
-      <c r="L54">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55">
-        <v>54</v>
-      </c>
-      <c r="D55" t="s">
-        <v>65</v>
-      </c>
-      <c r="E55">
-        <v>161</v>
-      </c>
-      <c r="F55">
-        <v>48</v>
-      </c>
-      <c r="G55">
-        <v>1</v>
-      </c>
-      <c r="H55">
+      <c r="J103" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="K103" s="22">
+        <v>42933</v>
+      </c>
+    </row>
+    <row r="104" spans="1:13" s="21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A104" s="21">
+        <v>103</v>
+      </c>
+      <c r="D104" s="21" t="s">
+        <v>171</v>
+      </c>
+      <c r="E104" s="21">
+        <v>452</v>
+      </c>
+      <c r="F104" s="21">
+        <v>203</v>
+      </c>
+      <c r="G104" s="21">
+        <v>1</v>
+      </c>
+      <c r="H104" s="21">
+        <v>1</v>
+      </c>
+      <c r="K104" s="22">
+        <v>42933</v>
+      </c>
+    </row>
+    <row r="105" spans="1:13" s="21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A105" s="21">
+        <v>104</v>
+      </c>
+      <c r="D105" s="21" t="s">
+        <v>173</v>
+      </c>
+      <c r="E105" s="21">
+        <v>511</v>
+      </c>
+      <c r="H105" s="21">
         <v>2</v>
       </c>
-      <c r="J55" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="K55" s="7">
-        <v>42923</v>
-      </c>
-      <c r="L55">
+    </row>
+    <row r="106" spans="1:13" s="21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A106" s="21">
+        <v>105</v>
+      </c>
+      <c r="D106" s="21" t="s">
+        <v>218</v>
+      </c>
+      <c r="F106" s="21">
+        <v>237</v>
+      </c>
+      <c r="G106" s="21">
+        <v>1</v>
+      </c>
+      <c r="H106" s="21">
+        <v>1</v>
+      </c>
+      <c r="K106" s="22">
+        <v>42933</v>
+      </c>
+    </row>
+    <row r="107" spans="1:13" s="21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A107" s="21">
+        <v>106</v>
+      </c>
+      <c r="D107" s="21" t="s">
+        <v>221</v>
+      </c>
+      <c r="F107" s="21">
+        <v>328</v>
+      </c>
+      <c r="G107" s="21">
+        <v>1</v>
+      </c>
+      <c r="H107" s="21">
         <v>2</v>
       </c>
-    </row>
-    <row r="56" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56">
-        <v>55</v>
-      </c>
-      <c r="D56" t="s">
-        <v>64</v>
-      </c>
-      <c r="E56">
-        <v>162</v>
-      </c>
-      <c r="G56">
-        <v>1</v>
-      </c>
-      <c r="H56">
-        <v>2</v>
-      </c>
-      <c r="J56" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="K56" s="7">
-        <v>42923</v>
-      </c>
-    </row>
-    <row r="57" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57">
-        <v>56</v>
-      </c>
-      <c r="D57" t="s">
-        <v>63</v>
-      </c>
-      <c r="E57">
-        <v>436</v>
-      </c>
-      <c r="F57">
-        <v>221</v>
-      </c>
-      <c r="H57">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="58" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58">
-        <v>57</v>
-      </c>
-      <c r="D58" t="s">
-        <v>62</v>
-      </c>
-      <c r="E58">
-        <v>510</v>
-      </c>
-      <c r="F58">
-        <v>85</v>
-      </c>
-      <c r="H58">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="59" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59">
-        <v>58</v>
-      </c>
-      <c r="D59" t="s">
-        <v>61</v>
-      </c>
-      <c r="E59">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="60" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60">
-        <v>59</v>
-      </c>
-      <c r="D60" t="s">
-        <v>66</v>
-      </c>
-      <c r="E60">
-        <v>58</v>
-      </c>
-      <c r="F60">
-        <v>18</v>
-      </c>
-      <c r="H60">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="61" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61">
-        <v>60</v>
-      </c>
-      <c r="D61" t="s">
-        <v>67</v>
-      </c>
-      <c r="E61">
-        <v>415</v>
-      </c>
-      <c r="F61">
-        <v>125</v>
-      </c>
-      <c r="H61">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="1:12" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62">
-        <v>61</v>
-      </c>
-      <c r="D62" t="s">
-        <v>68</v>
-      </c>
-      <c r="E62">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A63">
-        <v>62</v>
-      </c>
-      <c r="D63" t="s">
-        <v>69</v>
-      </c>
-      <c r="E63">
-        <v>539</v>
-      </c>
-      <c r="H63">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64">
-        <v>63</v>
-      </c>
-      <c r="D64" t="s">
-        <v>70</v>
-      </c>
-      <c r="E64">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="65" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65">
-        <v>64</v>
-      </c>
-      <c r="D65" t="s">
-        <v>71</v>
-      </c>
-      <c r="E65">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="66" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66">
-        <v>65</v>
-      </c>
-      <c r="D66" t="s">
-        <v>72</v>
-      </c>
-      <c r="E66">
-        <v>607</v>
-      </c>
-      <c r="F66">
-        <v>170</v>
-      </c>
-      <c r="G66">
-        <v>1</v>
-      </c>
-      <c r="H66">
-        <v>1</v>
-      </c>
-      <c r="K66" s="7">
-        <v>42924</v>
-      </c>
-    </row>
-    <row r="67" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67">
-        <v>66</v>
-      </c>
-      <c r="D67" t="s">
-        <v>73</v>
-      </c>
-      <c r="E67">
-        <v>608</v>
-      </c>
-      <c r="F67">
-        <v>167</v>
-      </c>
-      <c r="G67">
-        <v>1</v>
-      </c>
-      <c r="H67">
-        <v>1</v>
-      </c>
-      <c r="I67">
-        <v>1</v>
-      </c>
-      <c r="K67" s="7">
-        <v>42919</v>
-      </c>
-    </row>
-    <row r="68" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68">
-        <v>67</v>
-      </c>
-      <c r="D68" t="s">
-        <v>75</v>
-      </c>
-      <c r="E68">
-        <v>609</v>
-      </c>
-      <c r="H68">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="69" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="2">
-        <v>68</v>
-      </c>
-      <c r="B69" s="2"/>
-      <c r="C69" s="2"/>
-      <c r="D69" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="E69" s="2">
-        <v>610</v>
-      </c>
-      <c r="F69" s="2"/>
-      <c r="G69" s="2"/>
-      <c r="H69" s="2"/>
-      <c r="I69" s="2"/>
-      <c r="J69" s="2"/>
-      <c r="K69" s="2"/>
-    </row>
-    <row r="70" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="2">
-        <v>69</v>
-      </c>
-      <c r="B70" s="2"/>
-      <c r="C70" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="D70" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E70" s="2">
-        <v>406</v>
-      </c>
-      <c r="F70" s="2">
-        <v>209</v>
-      </c>
-      <c r="G70" s="2">
-        <v>1</v>
-      </c>
-      <c r="H70" s="2">
-        <v>2</v>
-      </c>
-      <c r="I70" s="2"/>
-      <c r="J70" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="K70" s="17">
-        <v>42915</v>
-      </c>
-    </row>
-    <row r="71" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="2">
-        <v>70</v>
-      </c>
-      <c r="B71" s="2"/>
-      <c r="C71" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="D71" s="18" t="s">
-        <v>153</v>
-      </c>
-      <c r="E71" s="19">
-        <v>488</v>
-      </c>
-      <c r="F71" s="19">
-        <v>202</v>
-      </c>
-      <c r="G71" s="9">
-        <v>1</v>
-      </c>
-      <c r="H71" s="9">
-        <v>1</v>
-      </c>
-      <c r="I71" s="2"/>
-      <c r="J71" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="K71" s="20">
-        <v>42925</v>
-      </c>
-    </row>
-    <row r="72" spans="1:11" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72">
-        <v>71</v>
-      </c>
-      <c r="B72" s="2"/>
-      <c r="C72" s="2"/>
-      <c r="D72" s="2"/>
-      <c r="E72" s="2"/>
-      <c r="F72" s="2"/>
-      <c r="G72" s="2"/>
-      <c r="H72" s="2"/>
-      <c r="I72" s="2"/>
-      <c r="J72" s="2"/>
-      <c r="K72" s="2"/>
-    </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A73">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="74" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="75" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="76" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="2">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="77" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A77">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="78" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A78">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="79" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A79">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="80" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A80">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="81" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A81">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A82">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="83" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A83">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="84" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A84">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="85" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A85">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="86" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A86">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="87" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A87">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="88" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A88">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="89" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A89">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="90" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A90">
-        <v>89</v>
-      </c>
-      <c r="B90" t="s">
-        <v>123</v>
-      </c>
-      <c r="D90" t="s">
-        <v>124</v>
-      </c>
-      <c r="E90" s="9">
+      <c r="J107" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="K107" s="22">
+        <v>42933</v>
+      </c>
+    </row>
+    <row r="108" spans="1:13" s="21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A108" s="21">
+        <v>107</v>
+      </c>
+      <c r="D108" s="21" t="s">
+        <v>175</v>
+      </c>
+      <c r="E108" s="21">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="109" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A109" s="23">
+        <v>108</v>
+      </c>
+      <c r="B109" s="23"/>
+      <c r="C109" s="23"/>
+      <c r="D109" s="23"/>
+      <c r="E109" s="23"/>
+      <c r="F109" s="23"/>
+      <c r="G109" s="23"/>
+      <c r="H109" s="23"/>
+      <c r="I109" s="23"/>
+      <c r="J109" s="23"/>
+      <c r="K109" s="23"/>
+      <c r="L109" s="23"/>
+      <c r="M109" s="23"/>
+    </row>
+    <row r="110" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A110" s="23">
+        <v>109</v>
+      </c>
+      <c r="B110" s="23"/>
+      <c r="C110" s="23"/>
+      <c r="D110" s="23"/>
+      <c r="E110" s="23"/>
+      <c r="F110" s="23"/>
+      <c r="G110" s="23"/>
+      <c r="H110" s="23"/>
+      <c r="I110" s="23"/>
+      <c r="J110" s="23"/>
+      <c r="K110" s="23"/>
+      <c r="L110" s="23"/>
+      <c r="M110" s="23"/>
+    </row>
+    <row r="111" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A111" s="23">
+        <v>110</v>
+      </c>
+      <c r="B111" s="23"/>
+      <c r="C111" s="23"/>
+      <c r="D111" s="23"/>
+      <c r="E111" s="23"/>
+      <c r="F111" s="23"/>
+      <c r="G111" s="23"/>
+      <c r="H111" s="23"/>
+      <c r="I111" s="23"/>
+      <c r="J111" s="23"/>
+      <c r="K111" s="23"/>
+      <c r="L111" s="23"/>
+      <c r="M111" s="23"/>
+    </row>
+    <row r="112" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A112" s="23">
+        <v>111</v>
+      </c>
+      <c r="B112" s="23"/>
+      <c r="C112" s="23"/>
+      <c r="D112" s="23"/>
+      <c r="E112" s="23"/>
+      <c r="F112" s="23"/>
+      <c r="G112" s="23"/>
+      <c r="H112" s="23"/>
+      <c r="I112" s="23"/>
+      <c r="J112" s="23"/>
+      <c r="K112" s="23"/>
+      <c r="L112" s="23"/>
+      <c r="M112" s="23"/>
+    </row>
+    <row r="113" spans="1:1" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A113" s="9">
         <v>112</v>
       </c>
-      <c r="F90" s="9">
-        <v>83</v>
-      </c>
-      <c r="H90" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="91" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A91">
-        <v>90</v>
-      </c>
-      <c r="D91" s="14" t="s">
-        <v>125</v>
-      </c>
-      <c r="E91" s="9">
-        <v>113</v>
-      </c>
-      <c r="F91" s="9">
-        <v>82</v>
-      </c>
-      <c r="H91" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A92">
-        <v>91</v>
-      </c>
-      <c r="D92" s="14" t="s">
-        <v>126</v>
-      </c>
-      <c r="E92" s="9">
-        <v>173</v>
-      </c>
-      <c r="F92" s="9">
-        <v>147</v>
-      </c>
-      <c r="H92">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="93" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A93">
-        <v>92</v>
-      </c>
-      <c r="D93" s="14" t="s">
-        <v>127</v>
-      </c>
-      <c r="E93" s="9">
-        <v>35</v>
-      </c>
-      <c r="F93" s="9">
-        <v>206</v>
-      </c>
-      <c r="H93">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="94" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A94">
-        <v>93</v>
-      </c>
-      <c r="D94" s="14" t="s">
-        <v>128</v>
-      </c>
-      <c r="E94" s="9">
-        <v>36</v>
-      </c>
-      <c r="F94" s="9">
-        <v>92</v>
-      </c>
-      <c r="H94">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A95">
-        <v>94</v>
-      </c>
-      <c r="B95" s="2"/>
-      <c r="C95" s="2"/>
-      <c r="D95" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="E95" s="9">
-        <v>96</v>
-      </c>
-      <c r="F95" s="9">
-        <v>86</v>
-      </c>
-      <c r="G95" s="2"/>
-      <c r="H95" s="2">
-        <v>1</v>
-      </c>
-      <c r="I95" s="2"/>
-      <c r="J95" s="2"/>
-    </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A96">
-        <v>95</v>
-      </c>
-      <c r="D96" s="14" t="s">
-        <v>130</v>
-      </c>
-      <c r="E96" s="9">
-        <v>98</v>
-      </c>
-      <c r="F96" s="9">
-        <v>148</v>
-      </c>
-      <c r="H96">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A97" s="2">
-        <v>96</v>
-      </c>
-      <c r="D97" s="14" t="s">
-        <v>131</v>
-      </c>
-      <c r="E97" s="9">
-        <v>99</v>
-      </c>
-      <c r="F97" s="9">
-        <v>143</v>
-      </c>
-      <c r="H97">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A98">
-        <v>97</v>
-      </c>
-      <c r="D98" s="14" t="s">
-        <v>135</v>
-      </c>
-      <c r="E98" s="9">
-        <v>228</v>
-      </c>
-      <c r="H98">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A99">
-        <v>98</v>
-      </c>
-      <c r="D99" s="14" t="s">
-        <v>134</v>
-      </c>
-      <c r="E99" s="9">
-        <v>174</v>
-      </c>
-      <c r="F99">
-        <v>19</v>
-      </c>
-      <c r="H99">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A100">
-        <v>99</v>
-      </c>
-      <c r="D100" s="14" t="s">
-        <v>132</v>
-      </c>
-      <c r="E100" s="9">
-        <v>102</v>
-      </c>
-      <c r="F100">
-        <v>141</v>
-      </c>
-      <c r="H100">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A101">
-        <v>100</v>
-      </c>
-      <c r="D101" s="14" t="s">
-        <v>133</v>
-      </c>
-      <c r="E101" s="9">
-        <v>103</v>
-      </c>
-      <c r="F101">
-        <v>142</v>
-      </c>
-      <c r="H101">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A102">
-        <v>101</v>
-      </c>
-      <c r="D102" s="14" t="s">
-        <v>136</v>
-      </c>
-      <c r="E102" s="14">
-        <v>170</v>
-      </c>
-      <c r="F102">
-        <v>61</v>
-      </c>
-      <c r="H102">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A103">
-        <v>102</v>
-      </c>
-      <c r="D103" s="14" t="s">
-        <v>137</v>
-      </c>
-      <c r="E103" s="14">
-        <v>104</v>
-      </c>
-      <c r="F103">
-        <v>23</v>
-      </c>
-      <c r="H103">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A104">
-        <v>103</v>
-      </c>
-      <c r="D104" s="14" t="s">
-        <v>138</v>
-      </c>
-      <c r="E104" s="14">
-        <v>105</v>
-      </c>
-      <c r="F104">
-        <v>138</v>
-      </c>
-      <c r="H104">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A105">
-        <v>104</v>
-      </c>
-      <c r="D105" s="14" t="s">
-        <v>161</v>
-      </c>
-      <c r="E105" s="14">
-        <v>106</v>
-      </c>
-      <c r="H105">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A106">
-        <v>105</v>
-      </c>
-      <c r="D106" s="14" t="s">
-        <v>162</v>
-      </c>
-      <c r="E106" s="14">
-        <v>165</v>
-      </c>
-      <c r="H106">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A107">
-        <v>106</v>
-      </c>
-      <c r="D107" s="14" t="s">
-        <v>163</v>
-      </c>
-      <c r="E107" s="14">
-        <v>166</v>
-      </c>
-      <c r="H107">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A108">
-        <v>107</v>
-      </c>
-      <c r="D108" s="14" t="s">
-        <v>164</v>
-      </c>
-      <c r="E108" s="14">
-        <v>167</v>
-      </c>
-      <c r="H108">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A109">
-        <v>108</v>
-      </c>
-      <c r="D109" s="14" t="s">
-        <v>174</v>
-      </c>
-      <c r="E109" s="14">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A110">
-        <v>109</v>
-      </c>
-      <c r="D110" s="14" t="s">
-        <v>165</v>
-      </c>
-      <c r="E110" s="14">
-        <v>221</v>
-      </c>
-      <c r="H110">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A111">
-        <v>110</v>
-      </c>
-      <c r="D111" s="14" t="s">
-        <v>166</v>
-      </c>
-      <c r="E111" s="14">
-        <v>223</v>
-      </c>
-      <c r="H111">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A112">
-        <v>111</v>
-      </c>
-      <c r="D112" s="14" t="s">
-        <v>167</v>
-      </c>
-      <c r="E112" s="14">
-        <v>372</v>
-      </c>
-      <c r="H112">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A113">
-        <v>112</v>
-      </c>
-      <c r="D113" s="9" t="s">
-        <v>168</v>
-      </c>
-      <c r="E113" s="9">
-        <v>380</v>
-      </c>
-      <c r="F113" s="2"/>
-      <c r="G113" s="2"/>
-      <c r="H113" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>113</v>
       </c>
-      <c r="D114" s="14" t="s">
-        <v>169</v>
-      </c>
-      <c r="E114" s="14">
-        <v>450</v>
-      </c>
-      <c r="H114">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>114</v>
       </c>
-      <c r="D115" s="14" t="s">
-        <v>170</v>
-      </c>
-      <c r="E115" s="14">
-        <v>451</v>
-      </c>
-      <c r="H115">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>115</v>
       </c>
-      <c r="B116" s="2"/>
-      <c r="C116" s="2"/>
-      <c r="D116" s="14" t="s">
-        <v>171</v>
-      </c>
-      <c r="E116" s="14">
-        <v>452</v>
-      </c>
-      <c r="H116">
-        <v>1</v>
-      </c>
-      <c r="I116" s="2"/>
-      <c r="J116" s="2"/>
-      <c r="K116" s="2"/>
-    </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>116</v>
       </c>
-      <c r="D117" s="14" t="s">
-        <v>173</v>
-      </c>
-      <c r="E117" s="14">
-        <v>511</v>
-      </c>
-      <c r="H117">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>117</v>
       </c>
-      <c r="D118" s="14" t="s">
-        <v>172</v>
-      </c>
-      <c r="E118" s="14">
-        <v>43</v>
-      </c>
-      <c r="H118">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>118</v>
       </c>
-      <c r="D119" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="E119" s="14">
-        <v>548</v>
-      </c>
-      <c r="H119">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>119</v>
       </c>
-      <c r="D120" s="14" t="s">
-        <v>175</v>
-      </c>
-      <c r="E120" s="14">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>120</v>
       </c>
-      <c r="D121" s="14" t="s">
-        <v>176</v>
-      </c>
-      <c r="E121" s="14">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>121</v>
       </c>
-      <c r="D122" s="14" t="s">
-        <v>177</v>
-      </c>
-      <c r="E122">
-        <v>621</v>
-      </c>
-    </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>122</v>
       </c>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A124">
         <v>123</v>
       </c>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A125">
         <v>124</v>
       </c>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A126">
         <v>125</v>
       </c>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A127">
         <v>126</v>
       </c>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A128">
         <v>127</v>
       </c>
@@ -3209,21 +3681,21 @@
         <v>132</v>
       </c>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A149" t="s">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A150" t="s">
         <v>31</v>
       </c>
-      <c r="E149">
-        <f>COUNTA(E2:E111)</f>
-        <v>88</v>
-      </c>
-      <c r="F149">
-        <f>COUNTA(F2:F111)</f>
-        <v>57</v>
-      </c>
-      <c r="G149">
-        <f>SUM(G2:G111)</f>
-        <v>44</v>
+      <c r="E150">
+        <f>COUNTA(E2:E100)</f>
+        <v>92</v>
+      </c>
+      <c r="F150">
+        <f>COUNTA(F2:F100)</f>
+        <v>64</v>
+      </c>
+      <c r="G150">
+        <f>SUM(G2:G149)</f>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -3231,9 +3703,11 @@
     <sortCondition ref="A1"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="D45" r:id="rId1"/>
-    <hyperlink ref="D103" r:id="rId2"/>
-    <hyperlink ref="D71" r:id="rId3"/>
+    <hyperlink ref="D55" r:id="rId1"/>
+    <hyperlink ref="D92" r:id="rId2"/>
+    <hyperlink ref="D73" r:id="rId3"/>
+    <hyperlink ref="D54" r:id="rId4"/>
+    <hyperlink ref="D106" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -3242,11 +3716,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M81"/>
+  <dimension ref="A1:M99"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E51" sqref="E51"/>
+      <pane ySplit="1" topLeftCell="A67" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C82" sqref="C82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3256,7 +3730,7 @@
     <col min="5" max="5" width="35.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C1" t="s">
         <v>115</v>
       </c>
@@ -3279,23 +3753,23 @@
         <v>160</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="18" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>111</v>
       </c>
       <c r="C2">
         <v>56</v>
       </c>
-      <c r="D2" s="4">
-        <v>1</v>
-      </c>
-      <c r="E2" s="5" t="s">
+      <c r="D2" s="1">
+        <v>1</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="F2" s="6">
+      <c r="F2" s="3">
         <v>0.33600000000000002</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="1" t="s">
         <v>85</v>
       </c>
       <c r="H2">
@@ -3307,25 +3781,28 @@
       <c r="K2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" ht="18" x14ac:dyDescent="0.2">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4" t="s">
+      <c r="M2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="18" x14ac:dyDescent="0.2">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="1">
         <v>100</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="1">
         <v>26</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="F3" s="6">
+      <c r="F3" s="3">
         <v>0.35499999999999998</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="1" t="s">
         <v>85</v>
       </c>
       <c r="H3">
@@ -3340,25 +3817,28 @@
       <c r="K3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" ht="18" x14ac:dyDescent="0.2">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4" t="s">
+      <c r="M3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="18" x14ac:dyDescent="0.2">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="1">
         <v>172</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="1">
         <v>27</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="F4" s="6">
+      <c r="F4" s="3">
         <v>0.38600000000000001</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="G4" s="1" t="s">
         <v>85</v>
       </c>
       <c r="I4">
@@ -3370,23 +3850,26 @@
       <c r="K4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" ht="18" x14ac:dyDescent="0.2">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4">
+      <c r="M4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="18" x14ac:dyDescent="0.2">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1">
         <v>60</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="1">
         <v>35</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="F5" s="6">
+      <c r="F5" s="3">
         <v>0.39600000000000002</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="G5" s="1" t="s">
         <v>85</v>
       </c>
       <c r="H5">
@@ -3399,22 +3882,22 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="18" x14ac:dyDescent="0.2">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4">
+    <row r="6" spans="1:13" ht="18" x14ac:dyDescent="0.2">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1">
         <v>41</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="1">
         <v>53</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="F6" s="6">
+      <c r="F6" s="3">
         <v>0.39400000000000002</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="G6" s="1" t="s">
         <v>85</v>
       </c>
       <c r="H6">
@@ -3430,25 +3913,25 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="18" x14ac:dyDescent="0.2">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4">
+    <row r="7" spans="1:13" ht="18" x14ac:dyDescent="0.2">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1">
         <v>407</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="1">
         <v>66</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E7" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="F7" s="6">
+      <c r="F7" s="3">
         <v>0.38300000000000001</v>
       </c>
-      <c r="G7" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="H7" s="4"/>
+      <c r="G7" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="H7" s="1"/>
       <c r="I7">
         <v>1</v>
       </c>
@@ -3456,22 +3939,22 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="18" x14ac:dyDescent="0.2">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4">
+    <row r="8" spans="1:13" ht="18" x14ac:dyDescent="0.2">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1">
         <v>64</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="1">
         <v>88</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="E8" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="F8" s="6">
+      <c r="F8" s="3">
         <v>0.31900000000000001</v>
       </c>
-      <c r="G8" s="4" t="s">
+      <c r="G8" s="1" t="s">
         <v>85</v>
       </c>
       <c r="H8">
@@ -3483,24 +3966,24 @@
       <c r="K8">
         <v>1</v>
       </c>
-      <c r="L8" s="11">
+      <c r="L8" s="5">
         <v>42919</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="18" x14ac:dyDescent="0.2">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4">
+    <row r="9" spans="1:13" ht="18" x14ac:dyDescent="0.2">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1">
         <v>118</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="E9" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="F9" s="6">
+      <c r="F9" s="3">
         <v>0.38100000000000001</v>
       </c>
-      <c r="G9" s="4" t="s">
+      <c r="G9" s="1" t="s">
         <v>85</v>
       </c>
       <c r="I9">
@@ -3509,24 +3992,27 @@
       <c r="K9">
         <v>1</v>
       </c>
-      <c r="L9" s="11">
+      <c r="L9" s="5">
         <v>42919</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" ht="18" x14ac:dyDescent="0.2">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4">
+      <c r="M9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="18" x14ac:dyDescent="0.2">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1">
         <v>119</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="E10" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="F10" s="6">
+      <c r="F10" s="3">
         <v>0.36399999999999999</v>
       </c>
-      <c r="G10" s="4" t="s">
+      <c r="G10" s="1" t="s">
         <v>85</v>
       </c>
       <c r="I10">
@@ -3535,28 +4021,28 @@
       <c r="K10">
         <v>1</v>
       </c>
-      <c r="L10" s="11">
+      <c r="L10" s="5">
         <v>42919</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="18" x14ac:dyDescent="0.2">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4" t="s">
+    <row r="11" spans="1:13" ht="18" x14ac:dyDescent="0.2">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="1">
         <v>149</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D11" s="1">
         <v>121</v>
       </c>
-      <c r="E11" s="5" t="s">
+      <c r="E11" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="F11" s="6">
+      <c r="F11" s="3">
         <v>0.40699999999999997</v>
       </c>
-      <c r="G11" s="4" t="s">
+      <c r="G11" s="1" t="s">
         <v>85</v>
       </c>
       <c r="H11">
@@ -3571,28 +4057,28 @@
       <c r="K11">
         <v>1</v>
       </c>
-      <c r="L11" s="11">
+      <c r="L11" s="5">
         <v>42919</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="18" x14ac:dyDescent="0.2">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4" t="s">
+    <row r="12" spans="1:13" ht="18" x14ac:dyDescent="0.2">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12" s="1">
         <v>150</v>
       </c>
-      <c r="D12" s="4">
+      <c r="D12" s="1">
         <v>122</v>
       </c>
-      <c r="E12" s="5" t="s">
+      <c r="E12" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="F12" s="6">
+      <c r="F12" s="3">
         <v>0.46600000000000003</v>
       </c>
-      <c r="G12" s="4" t="s">
+      <c r="G12" s="1" t="s">
         <v>85</v>
       </c>
       <c r="H12">
@@ -3607,28 +4093,31 @@
       <c r="K12">
         <v>1</v>
       </c>
-      <c r="L12" s="11">
+      <c r="L12" s="5">
         <v>42919</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" ht="18" x14ac:dyDescent="0.2">
-      <c r="A13" s="4"/>
-      <c r="B13" s="4" t="s">
+      <c r="M12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="18" x14ac:dyDescent="0.2">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C13" s="1">
         <v>608</v>
       </c>
-      <c r="D13" s="4">
+      <c r="D13" s="1">
         <v>167</v>
       </c>
-      <c r="E13" s="5" t="s">
+      <c r="E13" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="F13" s="6">
+      <c r="F13" s="3">
         <v>0.47099999999999997</v>
       </c>
-      <c r="G13" s="4" t="s">
+      <c r="G13" s="1" t="s">
         <v>85</v>
       </c>
       <c r="H13">
@@ -3640,28 +4129,28 @@
       <c r="K13">
         <v>1</v>
       </c>
-      <c r="L13" s="11">
+      <c r="L13" s="5">
         <v>42919</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="18" x14ac:dyDescent="0.2">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4" t="s">
+    <row r="14" spans="1:13" ht="18" x14ac:dyDescent="0.2">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="C14" s="4">
+      <c r="C14" s="1">
         <v>46</v>
       </c>
-      <c r="D14" s="4">
+      <c r="D14" s="1">
         <v>169</v>
       </c>
-      <c r="E14" s="5" t="s">
+      <c r="E14" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="F14" s="6">
+      <c r="F14" s="3">
         <v>0.46200000000000002</v>
       </c>
-      <c r="G14" s="4" t="s">
+      <c r="G14" s="1" t="s">
         <v>85</v>
       </c>
       <c r="I14">
@@ -3670,24 +4159,24 @@
       <c r="K14">
         <v>1</v>
       </c>
-      <c r="L14" s="11">
+      <c r="L14" s="5">
         <v>42919</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="18" x14ac:dyDescent="0.2">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4">
+    <row r="15" spans="1:13" ht="18" x14ac:dyDescent="0.2">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1">
         <v>189</v>
       </c>
-      <c r="E15" s="5" t="s">
+      <c r="E15" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="F15" s="6">
+      <c r="F15" s="3">
         <v>0.24299999999999999</v>
       </c>
-      <c r="G15" s="4" t="s">
+      <c r="G15" s="1" t="s">
         <v>85</v>
       </c>
       <c r="H15">
@@ -3699,26 +4188,26 @@
       <c r="K15">
         <v>1</v>
       </c>
-      <c r="L15" s="11">
+      <c r="L15" s="5">
         <v>42919</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="18" x14ac:dyDescent="0.2">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4" t="s">
+    <row r="16" spans="1:13" ht="18" x14ac:dyDescent="0.2">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4">
+      <c r="C16" s="1"/>
+      <c r="D16" s="1">
         <v>217</v>
       </c>
-      <c r="E16" s="5" t="s">
+      <c r="E16" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="F16" s="6">
+      <c r="F16" s="3">
         <v>0.45300000000000001</v>
       </c>
-      <c r="G16" s="4" t="s">
+      <c r="G16" s="1" t="s">
         <v>85</v>
       </c>
       <c r="I16">
@@ -3727,26 +4216,26 @@
       <c r="K16">
         <v>1</v>
       </c>
-      <c r="L16" s="11">
+      <c r="L16" s="5">
         <v>42919</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="18" x14ac:dyDescent="0.2">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4" t="s">
+    <row r="17" spans="1:13" ht="18" x14ac:dyDescent="0.2">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4">
+      <c r="C17" s="1"/>
+      <c r="D17" s="1">
         <v>219</v>
       </c>
-      <c r="E17" s="5" t="s">
+      <c r="E17" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="F17" s="6">
+      <c r="F17" s="3">
         <v>0.32200000000000001</v>
       </c>
-      <c r="G17" s="4" t="s">
+      <c r="G17" s="1" t="s">
         <v>85</v>
       </c>
       <c r="I17">
@@ -3755,26 +4244,26 @@
       <c r="K17">
         <v>1</v>
       </c>
-      <c r="L17" s="11">
+      <c r="L17" s="5">
         <v>42919</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="18" x14ac:dyDescent="0.2">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4" t="s">
+    <row r="18" spans="1:13" ht="18" x14ac:dyDescent="0.2">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4">
+      <c r="C18" s="1"/>
+      <c r="D18" s="1">
         <v>243</v>
       </c>
-      <c r="E18" s="5" t="s">
+      <c r="E18" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="F18" s="6">
+      <c r="F18" s="3">
         <v>0.52</v>
       </c>
-      <c r="G18" s="4" t="s">
+      <c r="G18" s="1" t="s">
         <v>85</v>
       </c>
       <c r="I18">
@@ -3786,28 +4275,28 @@
       <c r="K18">
         <v>1</v>
       </c>
-      <c r="L18" s="11">
+      <c r="L18" s="5">
         <v>42919</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="18" x14ac:dyDescent="0.2">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4" t="s">
+    <row r="19" spans="1:13" ht="18" x14ac:dyDescent="0.2">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="C19" s="4">
+      <c r="C19" s="1">
         <v>196</v>
       </c>
-      <c r="D19" s="4">
+      <c r="D19" s="1">
         <v>268</v>
       </c>
-      <c r="E19" s="5" t="s">
+      <c r="E19" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="F19" s="6">
+      <c r="F19" s="3">
         <v>0.441</v>
       </c>
-      <c r="G19" s="4" t="s">
+      <c r="G19" s="1" t="s">
         <v>85</v>
       </c>
       <c r="I19">
@@ -3816,26 +4305,26 @@
       <c r="K19">
         <v>1</v>
       </c>
-      <c r="L19" s="11">
+      <c r="L19" s="5">
         <v>42919</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="18" x14ac:dyDescent="0.2">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4" t="s">
+    <row r="20" spans="1:13" ht="18" x14ac:dyDescent="0.2">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4">
+      <c r="C20" s="1"/>
+      <c r="D20" s="1">
         <v>283</v>
       </c>
-      <c r="E20" s="5" t="s">
+      <c r="E20" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="F20" s="6">
+      <c r="F20" s="3">
         <v>0.495</v>
       </c>
-      <c r="G20" s="4" t="s">
+      <c r="G20" s="1" t="s">
         <v>85</v>
       </c>
       <c r="I20">
@@ -3847,24 +4336,24 @@
       <c r="K20">
         <v>1</v>
       </c>
-      <c r="L20" s="11">
+      <c r="L20" s="5">
         <v>42919</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="18" x14ac:dyDescent="0.2">
-      <c r="A21" s="4"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4">
+    <row r="21" spans="1:13" ht="18" x14ac:dyDescent="0.2">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1">
         <v>414</v>
       </c>
-      <c r="E21" s="5" t="s">
+      <c r="E21" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="F21" s="6">
+      <c r="F21" s="3">
         <v>0.27700000000000002</v>
       </c>
-      <c r="G21" s="4" t="s">
+      <c r="G21" s="1" t="s">
         <v>85</v>
       </c>
       <c r="I21">
@@ -3876,26 +4365,26 @@
       <c r="K21">
         <v>1</v>
       </c>
-      <c r="L21" s="10">
+      <c r="L21" s="4">
         <v>42920</v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="18" x14ac:dyDescent="0.2">
-      <c r="A22" s="4"/>
-      <c r="B22" s="4" t="s">
+    <row r="22" spans="1:13" ht="18" x14ac:dyDescent="0.2">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4">
+      <c r="C22" s="1"/>
+      <c r="D22" s="1">
         <v>448</v>
       </c>
-      <c r="E22" s="5" t="s">
+      <c r="E22" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="F22" s="6">
+      <c r="F22" s="3">
         <v>0.52</v>
       </c>
-      <c r="G22" s="4" t="s">
+      <c r="G22" s="1" t="s">
         <v>85</v>
       </c>
       <c r="I22">
@@ -3904,26 +4393,26 @@
       <c r="K22">
         <v>1</v>
       </c>
-      <c r="L22" s="10">
+      <c r="L22" s="4">
         <v>42920</v>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="18" x14ac:dyDescent="0.2">
-      <c r="A23" s="4"/>
-      <c r="B23" s="4" t="s">
+    <row r="23" spans="1:13" ht="18" x14ac:dyDescent="0.2">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4">
+      <c r="C23" s="1"/>
+      <c r="D23" s="1">
         <v>485</v>
       </c>
-      <c r="E23" s="5" t="s">
+      <c r="E23" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="F23" s="6">
+      <c r="F23" s="3">
         <v>0.54200000000000004</v>
       </c>
-      <c r="G23" s="4" t="s">
+      <c r="G23" s="1" t="s">
         <v>85</v>
       </c>
       <c r="I23">
@@ -3932,24 +4421,24 @@
       <c r="K23">
         <v>1</v>
       </c>
-      <c r="L23" s="10">
+      <c r="L23" s="4">
         <v>42920</v>
       </c>
     </row>
-    <row r="24" spans="1:12" ht="18" x14ac:dyDescent="0.2">
-      <c r="A24" s="4"/>
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4">
+    <row r="24" spans="1:13" ht="18" x14ac:dyDescent="0.2">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1">
         <v>532</v>
       </c>
-      <c r="E24" s="5" t="s">
+      <c r="E24" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="F24" s="6">
+      <c r="F24" s="3">
         <v>0.28000000000000003</v>
       </c>
-      <c r="G24" s="4" t="s">
+      <c r="G24" s="1" t="s">
         <v>85</v>
       </c>
       <c r="I24">
@@ -3961,24 +4450,24 @@
       <c r="K24">
         <v>1</v>
       </c>
-      <c r="L24" s="10">
+      <c r="L24" s="4">
         <v>42920</v>
       </c>
     </row>
-    <row r="25" spans="1:12" ht="18" x14ac:dyDescent="0.2">
-      <c r="A25" s="4"/>
-      <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4">
+    <row r="25" spans="1:13" ht="18" x14ac:dyDescent="0.2">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1">
         <v>561</v>
       </c>
-      <c r="E25" s="5" t="s">
+      <c r="E25" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="F25" s="6">
+      <c r="F25" s="3">
         <v>0.68400000000000005</v>
       </c>
-      <c r="G25" s="4" t="s">
+      <c r="G25" s="1" t="s">
         <v>85</v>
       </c>
       <c r="H25">
@@ -3993,24 +4482,24 @@
       <c r="K25">
         <v>1</v>
       </c>
-      <c r="L25" s="10">
+      <c r="L25" s="4">
         <v>42920</v>
       </c>
     </row>
-    <row r="26" spans="1:12" ht="18" x14ac:dyDescent="0.2">
-      <c r="A26" s="4"/>
-      <c r="B26" s="4"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4">
+    <row r="26" spans="1:13" ht="18" x14ac:dyDescent="0.2">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1">
         <v>566</v>
       </c>
-      <c r="E26" s="5" t="s">
+      <c r="E26" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="F26" s="6">
+      <c r="F26" s="3">
         <v>0.59799999999999998</v>
       </c>
-      <c r="G26" s="4" t="s">
+      <c r="G26" s="1" t="s">
         <v>85</v>
       </c>
       <c r="I26">
@@ -4019,26 +4508,29 @@
       <c r="K26">
         <v>1</v>
       </c>
-      <c r="L26" s="10">
+      <c r="L26" s="4">
         <v>42920</v>
       </c>
-    </row>
-    <row r="27" spans="1:12" ht="18" x14ac:dyDescent="0.2">
-      <c r="A27" s="4"/>
-      <c r="B27" s="4" t="s">
+      <c r="M26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" ht="18" x14ac:dyDescent="0.2">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="C27" s="4"/>
-      <c r="D27" s="4">
+      <c r="C27" s="1"/>
+      <c r="D27" s="1">
         <v>581</v>
       </c>
-      <c r="E27" s="5" t="s">
+      <c r="E27" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="F27" s="6">
+      <c r="F27" s="3">
         <v>0.30099999999999999</v>
       </c>
-      <c r="G27" s="4" t="s">
+      <c r="G27" s="1" t="s">
         <v>85</v>
       </c>
       <c r="I27">
@@ -4050,24 +4542,27 @@
       <c r="K27">
         <v>1</v>
       </c>
-      <c r="L27" s="10">
+      <c r="L27" s="4">
         <v>42920</v>
       </c>
-    </row>
-    <row r="28" spans="1:12" ht="18" x14ac:dyDescent="0.2">
-      <c r="A28" s="4"/>
-      <c r="B28" s="4"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4">
+      <c r="M27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" ht="18" x14ac:dyDescent="0.2">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1">
         <v>605</v>
       </c>
-      <c r="E28" s="5" t="s">
+      <c r="E28" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="F28" s="6">
+      <c r="F28" s="3">
         <v>0.30299999999999999</v>
       </c>
-      <c r="G28" s="4" t="s">
+      <c r="G28" s="1" t="s">
         <v>85</v>
       </c>
       <c r="I28">
@@ -4079,24 +4574,27 @@
       <c r="K28">
         <v>1</v>
       </c>
-      <c r="L28" s="10">
+      <c r="L28" s="4">
         <v>42920</v>
       </c>
-    </row>
-    <row r="29" spans="1:12" ht="18" x14ac:dyDescent="0.2">
-      <c r="A29" s="4"/>
-      <c r="B29" s="4"/>
-      <c r="C29" s="4"/>
-      <c r="D29" s="4">
+      <c r="M28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" ht="18" x14ac:dyDescent="0.2">
+      <c r="A29" s="1"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1">
         <v>624</v>
       </c>
-      <c r="E29" s="5" t="s">
+      <c r="E29" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="F29" s="6">
+      <c r="F29" s="3">
         <v>0.32600000000000001</v>
       </c>
-      <c r="G29" s="4" t="s">
+      <c r="G29" s="1" t="s">
         <v>85</v>
       </c>
       <c r="I29">
@@ -4108,24 +4606,27 @@
       <c r="K29">
         <v>1</v>
       </c>
-      <c r="L29" s="10">
+      <c r="L29" s="4">
         <v>42920</v>
       </c>
-    </row>
-    <row r="30" spans="1:12" ht="18" x14ac:dyDescent="0.2">
-      <c r="A30" s="4"/>
-      <c r="B30" s="4"/>
-      <c r="C30" s="4"/>
-      <c r="D30" s="4">
+      <c r="M29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" ht="18" x14ac:dyDescent="0.2">
+      <c r="A30" s="1"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1">
         <v>628</v>
       </c>
-      <c r="E30" s="5" t="s">
+      <c r="E30" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="F30" s="6">
+      <c r="F30" s="3">
         <v>0.45900000000000002</v>
       </c>
-      <c r="G30" s="4" t="s">
+      <c r="G30" s="1" t="s">
         <v>85</v>
       </c>
       <c r="I30">
@@ -4137,25 +4638,28 @@
       <c r="K30">
         <v>1</v>
       </c>
-      <c r="L30" s="10">
+      <c r="L30" s="4">
         <v>42920</v>
       </c>
-    </row>
-    <row r="31" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="32" spans="1:12" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="12"/>
-      <c r="D32" s="13" t="s">
+      <c r="M30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="32" spans="1:13" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="6"/>
+      <c r="D32" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="H32" s="13">
+      <c r="H32" s="7">
         <f>SUM(H2:H31)</f>
         <v>10</v>
       </c>
-      <c r="I32" s="13">
-        <f>SUM(I1:I30)</f>
+      <c r="I32" s="7">
+        <f>SUM(I2:I30)</f>
         <v>29</v>
       </c>
-      <c r="K32" s="13">
+      <c r="K32" s="7">
         <f t="shared" ref="K32" si="0">SUM(K1:K30)</f>
         <v>29</v>
       </c>
@@ -4167,16 +4671,16 @@
       <c r="C33">
         <v>56</v>
       </c>
-      <c r="D33" s="4">
-        <v>1</v>
-      </c>
-      <c r="E33" s="5" t="s">
+      <c r="D33" s="1">
+        <v>1</v>
+      </c>
+      <c r="E33" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="F33" s="6">
+      <c r="F33" s="3">
         <v>0.33700000000000002</v>
       </c>
-      <c r="G33" s="4" t="s">
+      <c r="G33" s="1" t="s">
         <v>85</v>
       </c>
       <c r="I33">
@@ -4187,19 +4691,19 @@
       </c>
     </row>
     <row r="34" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C34" s="4">
+      <c r="C34" s="1">
         <v>82</v>
       </c>
-      <c r="D34" s="4">
+      <c r="D34" s="1">
         <v>136</v>
       </c>
-      <c r="E34" s="5" t="s">
+      <c r="E34" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="F34" s="6">
+      <c r="F34" s="3">
         <v>0.54100000000000004</v>
       </c>
-      <c r="G34" s="4" t="s">
+      <c r="G34" s="1" t="s">
         <v>85</v>
       </c>
       <c r="I34">
@@ -4211,22 +4715,22 @@
       <c r="K34">
         <v>1</v>
       </c>
-      <c r="L34" s="10">
+      <c r="L34" s="4">
         <v>42924</v>
       </c>
     </row>
     <row r="35" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C35" s="4"/>
-      <c r="D35" s="4">
+      <c r="C35" s="1"/>
+      <c r="D35" s="1">
         <v>170</v>
       </c>
-      <c r="E35" s="5" t="s">
+      <c r="E35" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="F35" s="6">
+      <c r="F35" s="3">
         <v>0.24</v>
       </c>
-      <c r="G35" s="4" t="s">
+      <c r="G35" s="1" t="s">
         <v>85</v>
       </c>
       <c r="I35">
@@ -4235,24 +4739,24 @@
       <c r="K35">
         <v>1</v>
       </c>
-      <c r="L35" s="10">
+      <c r="L35" s="4">
         <v>42924</v>
       </c>
     </row>
     <row r="36" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C36" s="4">
+      <c r="C36" s="1">
         <v>488</v>
       </c>
-      <c r="D36" s="4">
+      <c r="D36" s="1">
         <v>202</v>
       </c>
-      <c r="E36" s="5" t="s">
+      <c r="E36" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="F36" s="6">
+      <c r="F36" s="3">
         <v>0.40400000000000003</v>
       </c>
-      <c r="G36" s="4" t="s">
+      <c r="G36" s="1" t="s">
         <v>85</v>
       </c>
       <c r="I36">
@@ -4264,21 +4768,21 @@
       <c r="K36">
         <v>1</v>
       </c>
-      <c r="L36" s="10">
+      <c r="L36" s="4">
         <v>42925</v>
       </c>
     </row>
     <row r="37" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D37" s="4">
+      <c r="D37" s="1">
         <v>204</v>
       </c>
-      <c r="E37" s="5" t="s">
+      <c r="E37" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="F37" s="6">
+      <c r="F37" s="3">
         <v>0.26500000000000001</v>
       </c>
-      <c r="G37" s="4" t="s">
+      <c r="G37" s="1" t="s">
         <v>85</v>
       </c>
       <c r="I37">
@@ -4290,7 +4794,7 @@
       <c r="K37">
         <v>1</v>
       </c>
-      <c r="L37" s="10">
+      <c r="L37" s="4">
         <v>42925</v>
       </c>
       <c r="M37" t="s">
@@ -4298,19 +4802,19 @@
       </c>
     </row>
     <row r="38" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C38" s="4">
+      <c r="C38" s="1">
         <v>638</v>
       </c>
-      <c r="D38" s="4">
+      <c r="D38" s="1">
         <v>205</v>
       </c>
-      <c r="E38" s="5" t="s">
+      <c r="E38" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="F38" s="6">
+      <c r="F38" s="3">
         <v>0.33500000000000002</v>
       </c>
-      <c r="G38" s="4" t="s">
+      <c r="G38" s="1" t="s">
         <v>85</v>
       </c>
       <c r="I38">
@@ -4322,22 +4826,22 @@
       <c r="K38">
         <v>1</v>
       </c>
-      <c r="L38" s="10">
+      <c r="L38" s="4">
         <v>42925</v>
       </c>
     </row>
     <row r="39" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C39" s="4"/>
-      <c r="D39" s="4">
+      <c r="C39" s="1"/>
+      <c r="D39" s="1">
         <v>217</v>
       </c>
-      <c r="E39" s="5" t="s">
+      <c r="E39" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="F39" s="6">
+      <c r="F39" s="3">
         <v>0.45300000000000001</v>
       </c>
-      <c r="G39" s="4" t="s">
+      <c r="G39" s="1" t="s">
         <v>85</v>
       </c>
       <c r="I39">
@@ -4348,17 +4852,17 @@
       </c>
     </row>
     <row r="40" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C40" s="4"/>
-      <c r="D40" s="4">
+      <c r="C40" s="1"/>
+      <c r="D40" s="1">
         <v>219</v>
       </c>
-      <c r="E40" s="5" t="s">
+      <c r="E40" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="F40" s="6">
+      <c r="F40" s="3">
         <v>0.32200000000000001</v>
       </c>
-      <c r="G40" s="4" t="s">
+      <c r="G40" s="1" t="s">
         <v>85</v>
       </c>
       <c r="I40">
@@ -4369,17 +4873,17 @@
       </c>
     </row>
     <row r="41" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C41" s="4"/>
-      <c r="D41" s="4">
+      <c r="C41" s="1"/>
+      <c r="D41" s="1">
         <v>242</v>
       </c>
-      <c r="E41" s="5" t="s">
+      <c r="E41" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="F41" s="6">
+      <c r="F41" s="3">
         <v>0.46100000000000002</v>
       </c>
-      <c r="G41" s="4" t="s">
+      <c r="G41" s="1" t="s">
         <v>85</v>
       </c>
       <c r="I41">
@@ -4388,22 +4892,22 @@
       <c r="K41">
         <v>1</v>
       </c>
-      <c r="L41" s="10">
+      <c r="L41" s="4">
         <v>42925</v>
       </c>
     </row>
     <row r="42" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C42" s="4"/>
-      <c r="D42" s="4">
+      <c r="C42" s="1"/>
+      <c r="D42" s="1">
         <v>246</v>
       </c>
-      <c r="E42" s="5" t="s">
+      <c r="E42" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="F42" s="6">
+      <c r="F42" s="3">
         <v>0.39500000000000002</v>
       </c>
-      <c r="G42" s="4" t="s">
+      <c r="G42" s="1" t="s">
         <v>85</v>
       </c>
       <c r="I42">
@@ -4412,22 +4916,22 @@
       <c r="K42">
         <v>1</v>
       </c>
-      <c r="L42" s="10">
+      <c r="L42" s="4">
         <v>42925</v>
       </c>
     </row>
     <row r="43" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C43" s="4"/>
-      <c r="D43" s="4">
+      <c r="C43" s="1"/>
+      <c r="D43" s="1">
         <v>266</v>
       </c>
-      <c r="E43" s="5" t="s">
+      <c r="E43" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="F43" s="6">
+      <c r="F43" s="3">
         <v>0.56599999999999995</v>
       </c>
-      <c r="G43" s="4" t="s">
+      <c r="G43" s="1" t="s">
         <v>85</v>
       </c>
       <c r="I43">
@@ -4436,22 +4940,22 @@
       <c r="K43">
         <v>1</v>
       </c>
-      <c r="L43" s="10">
+      <c r="L43" s="4">
         <v>42925</v>
       </c>
     </row>
     <row r="44" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C44" s="4"/>
-      <c r="D44" s="4">
+      <c r="C44" s="1"/>
+      <c r="D44" s="1">
         <v>290</v>
       </c>
-      <c r="E44" s="5" t="s">
+      <c r="E44" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="F44" s="6">
+      <c r="F44" s="3">
         <v>0.32900000000000001</v>
       </c>
-      <c r="G44" s="4" t="s">
+      <c r="G44" s="1" t="s">
         <v>85</v>
       </c>
       <c r="I44">
@@ -4460,24 +4964,24 @@
       <c r="K44">
         <v>1</v>
       </c>
-      <c r="L44" s="10">
+      <c r="L44" s="4">
         <v>42925</v>
       </c>
     </row>
     <row r="45" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C45" s="4">
+      <c r="C45" s="1">
         <v>547</v>
       </c>
-      <c r="D45" s="4">
+      <c r="D45" s="1">
         <v>349</v>
       </c>
-      <c r="E45" s="5" t="s">
+      <c r="E45" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="F45" s="6">
+      <c r="F45" s="3">
         <v>0.47</v>
       </c>
-      <c r="G45" s="4" t="s">
+      <c r="G45" s="1" t="s">
         <v>85</v>
       </c>
       <c r="I45">
@@ -4488,19 +4992,19 @@
       </c>
     </row>
     <row r="46" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C46" s="4">
+      <c r="C46" s="1">
         <v>548</v>
       </c>
-      <c r="D46" s="4">
+      <c r="D46" s="1">
         <v>350</v>
       </c>
-      <c r="E46" s="5" t="s">
+      <c r="E46" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="F46" s="6">
+      <c r="F46" s="3">
         <v>0.44500000000000001</v>
       </c>
-      <c r="G46" s="4" t="s">
+      <c r="G46" s="1" t="s">
         <v>85</v>
       </c>
       <c r="I46">
@@ -4511,17 +5015,17 @@
       </c>
     </row>
     <row r="47" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C47" s="4"/>
-      <c r="D47" s="4">
+      <c r="C47" s="1"/>
+      <c r="D47" s="1">
         <v>359</v>
       </c>
-      <c r="E47" s="5" t="s">
+      <c r="E47" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="F47" s="6">
+      <c r="F47" s="3">
         <v>0.59399999999999997</v>
       </c>
-      <c r="G47" s="4" t="s">
+      <c r="G47" s="1" t="s">
         <v>85</v>
       </c>
       <c r="I47">
@@ -4530,22 +5034,22 @@
       <c r="K47">
         <v>1</v>
       </c>
-      <c r="L47" s="10">
+      <c r="L47" s="4">
         <v>42925</v>
       </c>
     </row>
     <row r="48" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C48" s="4"/>
-      <c r="D48" s="4">
+      <c r="C48" s="1"/>
+      <c r="D48" s="1">
         <v>389</v>
       </c>
-      <c r="E48" s="5" t="s">
+      <c r="E48" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="F48" s="6">
+      <c r="F48" s="3">
         <v>0.51500000000000001</v>
       </c>
-      <c r="G48" s="4" t="s">
+      <c r="G48" s="1" t="s">
         <v>85</v>
       </c>
       <c r="I48">
@@ -4554,24 +5058,24 @@
       <c r="K48">
         <v>1</v>
       </c>
-      <c r="L48" s="10">
+      <c r="L48" s="4">
         <v>42925</v>
       </c>
     </row>
     <row r="49" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C49" s="4">
+      <c r="C49" s="1">
         <v>627</v>
       </c>
-      <c r="D49" s="4">
+      <c r="D49" s="1">
         <v>409</v>
       </c>
-      <c r="E49" s="5" t="s">
+      <c r="E49" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="F49" s="6">
+      <c r="F49" s="3">
         <v>0.45300000000000001</v>
       </c>
-      <c r="G49" s="4" t="s">
+      <c r="G49" s="1" t="s">
         <v>85</v>
       </c>
       <c r="I49">
@@ -4583,24 +5087,24 @@
       <c r="K49">
         <v>1</v>
       </c>
-      <c r="L49" s="10">
+      <c r="L49" s="4">
         <v>42925</v>
       </c>
     </row>
     <row r="50" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C50" s="4">
+      <c r="C50" s="1">
         <v>647</v>
       </c>
-      <c r="D50" s="4">
+      <c r="D50" s="1">
         <v>438</v>
       </c>
-      <c r="E50" s="5" t="s">
+      <c r="E50" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="F50" s="6">
+      <c r="F50" s="3">
         <v>0.33500000000000002</v>
       </c>
-      <c r="G50" s="4" t="s">
+      <c r="G50" s="1" t="s">
         <v>85</v>
       </c>
       <c r="I50">
@@ -4612,112 +5116,154 @@
       <c r="K50">
         <v>1</v>
       </c>
-      <c r="L50" s="10">
+      <c r="L50" s="4">
         <v>42925</v>
       </c>
     </row>
     <row r="51" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C51" s="4"/>
-      <c r="D51" s="4">
+      <c r="C51" s="1"/>
+      <c r="D51" s="1">
         <v>447</v>
       </c>
-      <c r="E51" s="5" t="s">
+      <c r="E51" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="F51" s="6">
+      <c r="F51" s="3">
         <v>0.44600000000000001</v>
       </c>
-      <c r="G51" s="4" t="s">
-        <v>85</v>
+      <c r="G51" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="I51">
+        <v>1</v>
+      </c>
+      <c r="J51" t="s">
+        <v>77</v>
       </c>
       <c r="K51">
         <v>1</v>
       </c>
+      <c r="L51" s="4">
+        <v>42926</v>
+      </c>
     </row>
     <row r="52" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C52" s="4"/>
-      <c r="D52" s="4">
+      <c r="C52" s="1"/>
+      <c r="D52" s="1">
         <v>463</v>
       </c>
-      <c r="E52" s="5" t="s">
+      <c r="E52" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="F52" s="6">
+      <c r="F52" s="3">
         <v>0.57099999999999995</v>
       </c>
-      <c r="G52" s="4" t="s">
-        <v>85</v>
+      <c r="G52" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="I52">
+        <v>1</v>
+      </c>
+      <c r="J52" t="s">
+        <v>77</v>
       </c>
       <c r="K52">
         <v>1</v>
       </c>
+      <c r="L52" s="4">
+        <v>42926</v>
+      </c>
     </row>
     <row r="53" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C53" s="4"/>
-      <c r="D53" s="4">
+      <c r="C53" s="1"/>
+      <c r="D53" s="1">
         <v>500</v>
       </c>
-      <c r="E53" s="5" t="s">
+      <c r="E53" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="F53" s="6">
+      <c r="F53" s="3">
         <v>0.6</v>
       </c>
-      <c r="G53" s="4" t="s">
-        <v>85</v>
+      <c r="G53" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="I53">
+        <v>1</v>
+      </c>
+      <c r="J53" t="s">
+        <v>77</v>
       </c>
       <c r="K53">
         <v>1</v>
       </c>
+      <c r="L53" s="4">
+        <v>42926</v>
+      </c>
     </row>
     <row r="54" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C54" s="4"/>
-      <c r="D54" s="4">
+      <c r="C54" s="1"/>
+      <c r="D54" s="1">
         <v>575</v>
       </c>
-      <c r="E54" s="5" t="s">
+      <c r="E54" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="F54" s="6">
+      <c r="F54" s="3">
         <v>0.59399999999999997</v>
       </c>
-      <c r="G54" s="4" t="s">
-        <v>85</v>
+      <c r="G54" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="I54">
+        <v>1</v>
       </c>
       <c r="K54">
         <v>1</v>
       </c>
+      <c r="L54" s="4">
+        <v>42926</v>
+      </c>
     </row>
     <row r="55" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C55" s="4"/>
-      <c r="D55" s="4">
+      <c r="C55" s="1"/>
+      <c r="D55" s="1">
         <v>594</v>
       </c>
-      <c r="E55" s="5" t="s">
+      <c r="E55" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="F55" s="6">
+      <c r="F55" s="3">
         <v>0.39800000000000002</v>
       </c>
-      <c r="G55" s="4" t="s">
-        <v>85</v>
+      <c r="G55" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="I55">
+        <v>1</v>
+      </c>
+      <c r="J55" t="s">
+        <v>77</v>
       </c>
       <c r="K55">
         <v>1</v>
       </c>
+      <c r="L55" s="4">
+        <v>42926</v>
+      </c>
     </row>
     <row r="56" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C56" s="4"/>
-      <c r="D56" s="4">
+      <c r="C56" s="1"/>
+      <c r="D56" s="1">
         <v>599</v>
       </c>
-      <c r="E56" s="5" t="s">
+      <c r="E56" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="F56" s="6">
+      <c r="F56" s="3">
         <v>0.48099999999999998</v>
       </c>
-      <c r="G56" s="4" t="s">
+      <c r="G56" s="1" t="s">
         <v>85</v>
       </c>
       <c r="I56">
@@ -4726,76 +5272,678 @@
       <c r="K56">
         <v>1</v>
       </c>
-      <c r="L56" s="10">
+      <c r="L56" s="4">
         <v>42924</v>
       </c>
     </row>
     <row r="57" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C57" s="4"/>
-      <c r="D57" s="4">
+      <c r="C57" s="1"/>
+      <c r="D57" s="1">
         <v>624</v>
       </c>
-      <c r="E57" s="5" t="s">
+      <c r="E57" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="F57" s="6">
+      <c r="F57" s="3">
         <v>0.32600000000000001</v>
       </c>
-      <c r="G57" s="4" t="s">
-        <v>85</v>
+      <c r="G57" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="I57">
+        <v>1</v>
+      </c>
+      <c r="J57" t="s">
+        <v>77</v>
       </c>
       <c r="K57">
         <v>1</v>
       </c>
-    </row>
-    <row r="58" spans="1:12" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="12"/>
-      <c r="D58" s="13" t="s">
+      <c r="L57" s="4">
+        <v>42926</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="6"/>
+      <c r="D58" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="H58" s="13">
+      <c r="H58" s="7">
         <f>SUM(H33:H57)</f>
         <v>0</v>
       </c>
-      <c r="I58" s="13">
+      <c r="I58" s="7">
         <f>SUM(I33:I57)</f>
-        <v>19</v>
-      </c>
-      <c r="K58" s="13">
+        <v>25</v>
+      </c>
+      <c r="K58" s="7">
         <f>SUM(K33:K57)</f>
         <v>25</v>
       </c>
     </row>
-    <row r="59" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="60" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="61" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="62" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="63" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="64" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="65" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="66" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="67" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="68" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="69" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="70" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="71" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="72" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="73" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="74" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="75" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="76" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="77" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="78" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="79" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="80" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="81" spans="8:9" x14ac:dyDescent="0.2">
-      <c r="H81">
+    <row r="59" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D60" s="1">
+        <v>157</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="F60" s="3">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="K60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C61" s="1">
+        <v>13</v>
+      </c>
+      <c r="D61" s="1">
+        <v>28</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="F61" s="3">
+        <v>0.27900000000000003</v>
+      </c>
+      <c r="G61" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="K61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C62" s="1">
+        <v>53</v>
+      </c>
+      <c r="D62" s="1">
+        <v>557</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="F62" s="3">
+        <v>0.59799999999999998</v>
+      </c>
+      <c r="G62" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="K62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C63" s="1"/>
+      <c r="D63" s="1">
+        <v>551</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="F63" s="3">
+        <v>0.437</v>
+      </c>
+      <c r="G63" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="K63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C64" s="1"/>
+      <c r="D64" s="1">
+        <v>541</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="F64" s="3">
+        <v>0.44</v>
+      </c>
+      <c r="G64" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="K64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="3:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C65" s="1">
+        <v>77</v>
+      </c>
+      <c r="D65" s="1">
+        <v>521</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="F65" s="3">
+        <v>0.54800000000000004</v>
+      </c>
+      <c r="G65" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="K65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="3:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C66" s="1">
+        <v>419</v>
+      </c>
+      <c r="D66" s="1">
+        <v>13</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="F66" s="3">
+        <v>0.45400000000000001</v>
+      </c>
+      <c r="G66" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="K66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="3:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C67" s="1">
+        <v>78</v>
+      </c>
+      <c r="D67" s="1">
+        <v>14</v>
+      </c>
+      <c r="E67" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="F67" s="3">
+        <v>0.314</v>
+      </c>
+      <c r="G67" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="K67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="3:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C68" s="1"/>
+      <c r="D68" s="1">
+        <v>520</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="F68" s="3">
+        <v>0.52100000000000002</v>
+      </c>
+      <c r="G68" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="K68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="3:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C69" s="1">
+        <v>423</v>
+      </c>
+      <c r="D69" s="1">
+        <v>20</v>
+      </c>
+      <c r="E69" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="F69" s="3">
+        <v>0.33300000000000002</v>
+      </c>
+      <c r="G69" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="K69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="3:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C70" s="1"/>
+      <c r="D70" s="1">
+        <v>459</v>
+      </c>
+      <c r="E70" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="F70" s="3">
+        <v>0.38100000000000001</v>
+      </c>
+      <c r="G70" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="K70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="3:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C71" s="1"/>
+      <c r="D71" s="1">
+        <v>606</v>
+      </c>
+      <c r="E71" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="F71" s="3">
+        <v>0.51400000000000001</v>
+      </c>
+      <c r="G71" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="K71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="3:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C72" s="1"/>
+      <c r="D72" s="1">
+        <v>434</v>
+      </c>
+      <c r="E72" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="F72" s="3">
+        <v>0.36799999999999999</v>
+      </c>
+      <c r="G72" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="K72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="3:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C73" s="1"/>
+      <c r="D73" s="1">
+        <v>408</v>
+      </c>
+      <c r="E73" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="F73" s="3">
+        <v>0.27900000000000003</v>
+      </c>
+      <c r="G73" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="K73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="3:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C74" s="1">
+        <v>420</v>
+      </c>
+      <c r="D74" s="1">
+        <v>38</v>
+      </c>
+      <c r="E74" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="F74" s="3">
+        <v>0.34300000000000003</v>
+      </c>
+      <c r="G74" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="K74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="3:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C75" s="1"/>
+      <c r="D75" s="1">
+        <v>383</v>
+      </c>
+      <c r="E75" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="F75" s="3">
+        <v>0.47099999999999997</v>
+      </c>
+      <c r="G75" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="K75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="3:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C76" s="1"/>
+      <c r="D76" s="1">
+        <v>345</v>
+      </c>
+      <c r="E76" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="F76" s="3">
+        <v>0.38400000000000001</v>
+      </c>
+      <c r="G76" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="K76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="3:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C77" s="1"/>
+      <c r="D77" s="1">
+        <v>344</v>
+      </c>
+      <c r="E77" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="F77" s="3">
+        <v>0.59</v>
+      </c>
+      <c r="G77" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="K77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="3:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C78" s="1">
+        <v>422</v>
+      </c>
+      <c r="D78" s="1">
+        <v>58</v>
+      </c>
+      <c r="E78" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="F78" s="3">
+        <v>0.318</v>
+      </c>
+      <c r="G78" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="K78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="3:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C79" s="1"/>
+      <c r="D79" s="1">
+        <v>293</v>
+      </c>
+      <c r="E79" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="F79" s="3">
+        <v>0.55500000000000005</v>
+      </c>
+      <c r="G79" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="K79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="3:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C80" s="1">
+        <v>408</v>
+      </c>
+      <c r="D80" s="1">
+        <v>67</v>
+      </c>
+      <c r="E80" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="F80" s="3">
+        <v>0.32100000000000001</v>
+      </c>
+      <c r="G80" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="K80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" ht="18" x14ac:dyDescent="0.2">
+      <c r="C81" s="1">
+        <v>415</v>
+      </c>
+      <c r="D81" s="1">
+        <v>125</v>
+      </c>
+      <c r="E81" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="F81" s="3">
+        <v>0.26100000000000001</v>
+      </c>
+      <c r="G81" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="K81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="I82" s="8">
+        <f>SUM(I60:I81)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" ht="18" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>123</v>
+      </c>
+      <c r="C83" s="1"/>
+      <c r="D83" s="1">
+        <v>141</v>
+      </c>
+      <c r="E83" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="F83" s="3">
+        <v>0.35399999999999998</v>
+      </c>
+      <c r="G83" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="I83">
+        <v>1</v>
+      </c>
+      <c r="J83" t="s">
+        <v>77</v>
+      </c>
+      <c r="K83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" ht="18" x14ac:dyDescent="0.2">
+      <c r="C84" s="1"/>
+      <c r="D84" s="1">
+        <v>237</v>
+      </c>
+      <c r="E84" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="F84" s="3">
+        <v>0.46300000000000002</v>
+      </c>
+      <c r="G84" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="I84">
+        <v>1</v>
+      </c>
+      <c r="K84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" ht="18" x14ac:dyDescent="0.2">
+      <c r="C85" s="1"/>
+      <c r="D85" s="1">
+        <v>83</v>
+      </c>
+      <c r="E85" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="F85" s="3">
+        <v>0.39700000000000002</v>
+      </c>
+      <c r="G85" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="I85">
+        <v>1</v>
+      </c>
+      <c r="K85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" ht="18" x14ac:dyDescent="0.2">
+      <c r="C86" s="1"/>
+      <c r="D86" s="1">
+        <v>160</v>
+      </c>
+      <c r="E86" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="F86" s="3">
+        <v>0.30499999999999999</v>
+      </c>
+      <c r="G86" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="I86">
+        <v>1</v>
+      </c>
+      <c r="J86" t="s">
+        <v>77</v>
+      </c>
+      <c r="K86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" ht="18" x14ac:dyDescent="0.2">
+      <c r="C87" s="1"/>
+      <c r="D87" s="1">
+        <v>203</v>
+      </c>
+      <c r="E87" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="F87" s="3">
+        <v>0.32200000000000001</v>
+      </c>
+      <c r="G87" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="I87">
+        <v>1</v>
+      </c>
+      <c r="K87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" ht="18" x14ac:dyDescent="0.2">
+      <c r="C88" s="1"/>
+      <c r="D88" s="1">
+        <v>206</v>
+      </c>
+      <c r="E88" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="F88" s="3">
+        <v>0.45200000000000001</v>
+      </c>
+      <c r="G88" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="I88">
+        <v>1</v>
+      </c>
+      <c r="J88" t="s">
+        <v>77</v>
+      </c>
+      <c r="K88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" ht="18" x14ac:dyDescent="0.2">
+      <c r="C89" s="1"/>
+      <c r="D89" s="1">
+        <v>234</v>
+      </c>
+      <c r="E89" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="F89" s="3">
+        <v>0.32600000000000001</v>
+      </c>
+      <c r="G89" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="I89">
+        <v>1</v>
+      </c>
+      <c r="J89" t="s">
+        <v>77</v>
+      </c>
+      <c r="K89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" ht="18" x14ac:dyDescent="0.2">
+      <c r="C90" s="1"/>
+      <c r="D90" s="1">
+        <v>21</v>
+      </c>
+      <c r="E90" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="F90" s="3">
+        <v>0.39</v>
+      </c>
+      <c r="G90" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="I90">
+        <v>1</v>
+      </c>
+      <c r="K90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="I91" s="8">
+        <f>SUM(I83:I90)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="99" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H99">
         <f>COUNTA(H2:H30)</f>
         <v>10</v>
       </c>
-      <c r="I81">
-        <f>COUNTA(I2:I32)</f>
-        <v>30</v>
+      <c r="I99">
+        <f>I32+I58+I82+I91</f>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -4857,6 +6005,36 @@
     <hyperlink ref="E43" r:id="rId52"/>
     <hyperlink ref="E47" r:id="rId53"/>
     <hyperlink ref="E48" r:id="rId54"/>
+    <hyperlink ref="E60" r:id="rId55"/>
+    <hyperlink ref="E61" r:id="rId56"/>
+    <hyperlink ref="E62" r:id="rId57"/>
+    <hyperlink ref="E63" r:id="rId58"/>
+    <hyperlink ref="E64" r:id="rId59"/>
+    <hyperlink ref="E65" r:id="rId60"/>
+    <hyperlink ref="E66" r:id="rId61"/>
+    <hyperlink ref="E67" r:id="rId62"/>
+    <hyperlink ref="E68" r:id="rId63"/>
+    <hyperlink ref="E69" r:id="rId64"/>
+    <hyperlink ref="E70" r:id="rId65"/>
+    <hyperlink ref="E71" r:id="rId66"/>
+    <hyperlink ref="E72" r:id="rId67"/>
+    <hyperlink ref="E73" r:id="rId68"/>
+    <hyperlink ref="E74" r:id="rId69"/>
+    <hyperlink ref="E75" r:id="rId70"/>
+    <hyperlink ref="E76" r:id="rId71"/>
+    <hyperlink ref="E77" r:id="rId72"/>
+    <hyperlink ref="E78" r:id="rId73"/>
+    <hyperlink ref="E79" r:id="rId74"/>
+    <hyperlink ref="E80" r:id="rId75"/>
+    <hyperlink ref="E81" r:id="rId76"/>
+    <hyperlink ref="E83" r:id="rId77"/>
+    <hyperlink ref="E84" r:id="rId78"/>
+    <hyperlink ref="E85" r:id="rId79"/>
+    <hyperlink ref="E86" r:id="rId80"/>
+    <hyperlink ref="E87" r:id="rId81"/>
+    <hyperlink ref="E88" r:id="rId82"/>
+    <hyperlink ref="E89" r:id="rId83"/>
+    <hyperlink ref="E90" r:id="rId84"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/mycode/刷题统计.xlsx
+++ b/mycode/刷题统计.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="226">
   <si>
     <t>1 binary search</t>
   </si>
@@ -694,6 +694,18 @@
   </si>
   <si>
     <t>Odd Even Linked List</t>
+  </si>
+  <si>
+    <t>切一段</t>
+  </si>
+  <si>
+    <t>157锁</t>
+  </si>
+  <si>
+    <t>同25题切块</t>
+  </si>
+  <si>
+    <t>293锁</t>
   </si>
 </sst>
 </file>
@@ -838,7 +850,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="7"/>
@@ -863,6 +875,11 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="16" fontId="0" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="7" applyFill="1"/>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="12">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -1154,8 +1171,8 @@
   <dimension ref="A1:M150"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A92" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K106" sqref="K106"/>
+      <pane ySplit="1" topLeftCell="A128" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F102" sqref="F102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3716,11 +3733,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M99"/>
+  <dimension ref="A1:X99"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A67" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C82" sqref="C82"/>
+      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K90" sqref="K90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5327,8 +5344,8 @@
       </c>
     </row>
     <row r="60" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D60" s="1">
-        <v>157</v>
+      <c r="D60" s="1" t="s">
+        <v>223</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>195</v>
@@ -5344,6 +5361,9 @@
       </c>
     </row>
     <row r="61" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B61" t="s">
+        <v>222</v>
+      </c>
       <c r="C61" s="1">
         <v>13</v>
       </c>
@@ -5359,175 +5379,138 @@
       <c r="G61" s="1" t="s">
         <v>85</v>
       </c>
+      <c r="I61">
+        <v>1</v>
+      </c>
+      <c r="J61" t="s">
+        <v>77</v>
+      </c>
       <c r="K61">
         <v>1</v>
       </c>
-    </row>
-    <row r="62" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C62" s="1">
-        <v>53</v>
-      </c>
-      <c r="D62" s="1">
-        <v>557</v>
-      </c>
-      <c r="E62" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="F62" s="3">
-        <v>0.59799999999999998</v>
-      </c>
-      <c r="G62" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="K62">
-        <v>1</v>
-      </c>
-    </row>
+      <c r="L61" s="4">
+        <v>42934</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="63" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C63" s="1"/>
-      <c r="D63" s="1">
+    </row>
+    <row r="64" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="65" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D65" s="1">
         <v>551</v>
       </c>
-      <c r="E63" s="2" t="s">
+      <c r="E65" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="F63" s="3">
+      <c r="F65" s="3">
         <v>0.437</v>
       </c>
-      <c r="G63" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="K63">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C64" s="1"/>
-      <c r="D64" s="1">
-        <v>541</v>
-      </c>
-      <c r="E64" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="F64" s="3">
-        <v>0.44</v>
-      </c>
-      <c r="G64" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="K64">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="3:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C65" s="1">
-        <v>77</v>
-      </c>
-      <c r="D65" s="1">
+      <c r="G65" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="K65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C66" s="1">
+        <v>77</v>
+      </c>
+      <c r="D66" s="1">
         <v>521</v>
       </c>
-      <c r="E65" s="2" t="s">
+      <c r="E66" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="F65" s="3">
+      <c r="F66" s="3">
         <v>0.54800000000000004</v>
       </c>
-      <c r="G65" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="K65">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" spans="3:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C66" s="1">
+      <c r="G66" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="K66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C67" s="1">
         <v>419</v>
       </c>
-      <c r="D66" s="1">
+      <c r="D67" s="1">
         <v>13</v>
       </c>
-      <c r="E66" s="2" t="s">
+      <c r="E67" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="F66" s="3">
+      <c r="F67" s="3">
         <v>0.45400000000000001</v>
       </c>
-      <c r="G66" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="K66">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67" spans="3:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C67" s="1">
+      <c r="G67" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="K67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C68" s="1">
         <v>78</v>
       </c>
-      <c r="D67" s="1">
+      <c r="D68" s="1">
         <v>14</v>
       </c>
-      <c r="E67" s="2" t="s">
+      <c r="E68" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="F67" s="3">
+      <c r="F68" s="3">
         <v>0.314</v>
       </c>
-      <c r="G67" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="K67">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" spans="3:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C68" s="1"/>
-      <c r="D68" s="1">
+      <c r="G68" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="K68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C69" s="1"/>
+      <c r="D69" s="1">
         <v>520</v>
       </c>
-      <c r="E68" s="2" t="s">
+      <c r="E69" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="F68" s="3">
+      <c r="F69" s="3">
         <v>0.52100000000000002</v>
       </c>
-      <c r="G68" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="K68">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="3:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C69" s="1">
+      <c r="G69" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="I69">
+        <v>1</v>
+      </c>
+      <c r="K69">
+        <v>1</v>
+      </c>
+      <c r="L69" s="4">
+        <v>42934</v>
+      </c>
+    </row>
+    <row r="70" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C70" s="1">
         <v>423</v>
       </c>
-      <c r="D69" s="1">
+      <c r="D70" s="1">
         <v>20</v>
       </c>
-      <c r="E69" s="2" t="s">
+      <c r="E70" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="F69" s="3">
+      <c r="F70" s="3">
         <v>0.33300000000000002</v>
       </c>
-      <c r="G69" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="K69">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="3:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C70" s="1"/>
-      <c r="D70" s="1">
-        <v>459</v>
-      </c>
-      <c r="E70" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="F70" s="3">
-        <v>0.38100000000000001</v>
-      </c>
       <c r="G70" s="1" t="s">
         <v>85</v>
       </c>
@@ -5535,16 +5518,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="3:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C71" s="1"/>
       <c r="D71" s="1">
-        <v>606</v>
+        <v>459</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F71" s="3">
-        <v>0.51400000000000001</v>
+        <v>0.38100000000000001</v>
       </c>
       <c r="G71" s="1" t="s">
         <v>85</v>
@@ -5553,16 +5536,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="3:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C72" s="1"/>
       <c r="D72" s="1">
-        <v>434</v>
+        <v>606</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F72" s="3">
-        <v>0.36799999999999999</v>
+        <v>0.51400000000000001</v>
       </c>
       <c r="G72" s="1" t="s">
         <v>85</v>
@@ -5571,55 +5554,55 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="3:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C73" s="1"/>
       <c r="D73" s="1">
+        <v>434</v>
+      </c>
+      <c r="E73" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="F73" s="3">
+        <v>0.36799999999999999</v>
+      </c>
+      <c r="G73" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="K73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C74" s="1"/>
+      <c r="D74" s="1">
         <v>408</v>
       </c>
-      <c r="E73" s="2" t="s">
+      <c r="E74" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="F73" s="3">
+      <c r="F74" s="3">
         <v>0.27900000000000003</v>
       </c>
-      <c r="G73" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="K73">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74" spans="3:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C74" s="1">
+      <c r="G74" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="K74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C75" s="1">
         <v>420</v>
       </c>
-      <c r="D74" s="1">
+      <c r="D75" s="1">
         <v>38</v>
       </c>
-      <c r="E74" s="2" t="s">
+      <c r="E75" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="F74" s="3">
+      <c r="F75" s="3">
         <v>0.34300000000000003</v>
       </c>
-      <c r="G74" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="K74">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="75" spans="3:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C75" s="1"/>
-      <c r="D75" s="1">
-        <v>383</v>
-      </c>
-      <c r="E75" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="F75" s="3">
-        <v>0.47099999999999997</v>
-      </c>
       <c r="G75" s="1" t="s">
         <v>85</v>
       </c>
@@ -5627,34 +5610,43 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="3:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B76" t="s">
+        <v>120</v>
+      </c>
       <c r="C76" s="1"/>
       <c r="D76" s="1">
-        <v>345</v>
+        <v>383</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F76" s="3">
-        <v>0.38400000000000001</v>
+        <v>0.47099999999999997</v>
       </c>
       <c r="G76" s="1" t="s">
         <v>85</v>
       </c>
+      <c r="I76">
+        <v>1</v>
+      </c>
       <c r="K76">
         <v>1</v>
       </c>
-    </row>
-    <row r="77" spans="3:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L76" s="4">
+        <v>42934</v>
+      </c>
+    </row>
+    <row r="77" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C77" s="1"/>
       <c r="D77" s="1">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F77" s="3">
-        <v>0.59</v>
+        <v>0.38400000000000001</v>
       </c>
       <c r="G77" s="1" t="s">
         <v>85</v>
@@ -5663,7 +5655,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="3:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C78" s="1">
         <v>422</v>
       </c>
@@ -5683,10 +5675,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="3:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C79" s="1"/>
-      <c r="D79" s="1">
-        <v>293</v>
+      <c r="D79" s="1" t="s">
+        <v>225</v>
       </c>
       <c r="E79" s="2" t="s">
         <v>214</v>
@@ -5701,7 +5693,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="3:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C80" s="1">
         <v>408</v>
       </c>
@@ -5721,7 +5713,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:11" ht="18" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="C81" s="1">
         <v>415</v>
       </c>
@@ -5741,25 +5733,43 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="I82" s="8">
-        <f>SUM(I60:I81)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:11" ht="18" x14ac:dyDescent="0.2">
-      <c r="A83" t="s">
-        <v>123</v>
+    <row r="82" spans="1:24" s="24" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="C82" s="25"/>
+      <c r="D82" s="25">
+        <v>344</v>
+      </c>
+      <c r="E82" s="26" t="s">
+        <v>212</v>
+      </c>
+      <c r="F82" s="27">
+        <v>0.59</v>
+      </c>
+      <c r="G82" s="25" t="s">
+        <v>85</v>
+      </c>
+      <c r="I82" s="24">
+        <v>1</v>
+      </c>
+      <c r="K82" s="24">
+        <v>1</v>
+      </c>
+      <c r="L82" s="28">
+        <v>42934</v>
+      </c>
+    </row>
+    <row r="83" spans="1:24" ht="18" x14ac:dyDescent="0.2">
+      <c r="B83" t="s">
+        <v>224</v>
       </c>
       <c r="C83" s="1"/>
       <c r="D83" s="1">
-        <v>141</v>
+        <v>541</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>132</v>
+        <v>199</v>
       </c>
       <c r="F83" s="3">
-        <v>0.35399999999999998</v>
+        <v>0.44</v>
       </c>
       <c r="G83" s="1" t="s">
         <v>85</v>
@@ -5767,23 +5777,25 @@
       <c r="I83">
         <v>1</v>
       </c>
-      <c r="J83" t="s">
-        <v>77</v>
-      </c>
       <c r="K83">
         <v>1</v>
       </c>
-    </row>
-    <row r="84" spans="1:11" ht="18" x14ac:dyDescent="0.2">
-      <c r="C84" s="1"/>
+      <c r="L83" s="4">
+        <v>42934</v>
+      </c>
+    </row>
+    <row r="84" spans="1:24" ht="18" x14ac:dyDescent="0.2">
+      <c r="C84" s="1">
+        <v>53</v>
+      </c>
       <c r="D84" s="1">
-        <v>237</v>
+        <v>557</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>218</v>
+        <v>197</v>
       </c>
       <c r="F84" s="3">
-        <v>0.46300000000000002</v>
+        <v>0.59799999999999998</v>
       </c>
       <c r="G84" s="1" t="s">
         <v>85</v>
@@ -5794,156 +5806,279 @@
       <c r="K84">
         <v>1</v>
       </c>
-    </row>
-    <row r="85" spans="1:11" ht="18" x14ac:dyDescent="0.2">
-      <c r="C85" s="1"/>
-      <c r="D85" s="1">
-        <v>83</v>
-      </c>
-      <c r="E85" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="F85" s="3">
-        <v>0.39700000000000002</v>
-      </c>
-      <c r="G85" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="I85">
-        <v>1</v>
-      </c>
-      <c r="K85">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="86" spans="1:11" ht="18" x14ac:dyDescent="0.2">
-      <c r="C86" s="1"/>
-      <c r="D86" s="1">
-        <v>160</v>
-      </c>
-      <c r="E86" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="F86" s="3">
-        <v>0.30499999999999999</v>
-      </c>
-      <c r="G86" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="I86">
-        <v>1</v>
-      </c>
-      <c r="J86" t="s">
-        <v>77</v>
-      </c>
-      <c r="K86">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="87" spans="1:11" ht="18" x14ac:dyDescent="0.2">
-      <c r="C87" s="1"/>
-      <c r="D87" s="1">
-        <v>203</v>
-      </c>
-      <c r="E87" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="F87" s="3">
-        <v>0.32200000000000001</v>
-      </c>
-      <c r="G87" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="I87">
-        <v>1</v>
-      </c>
-      <c r="K87">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="88" spans="1:11" ht="18" x14ac:dyDescent="0.2">
-      <c r="C88" s="1"/>
-      <c r="D88" s="1">
-        <v>206</v>
-      </c>
-      <c r="E88" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="F88" s="3">
-        <v>0.45200000000000001</v>
-      </c>
-      <c r="G88" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="I88">
-        <v>1</v>
-      </c>
-      <c r="J88" t="s">
-        <v>77</v>
-      </c>
-      <c r="K88">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="89" spans="1:11" ht="18" x14ac:dyDescent="0.2">
-      <c r="C89" s="1"/>
-      <c r="D89" s="1">
-        <v>234</v>
-      </c>
-      <c r="E89" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="F89" s="3">
-        <v>0.32600000000000001</v>
-      </c>
-      <c r="G89" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="I89">
-        <v>1</v>
-      </c>
-      <c r="J89" t="s">
-        <v>77</v>
-      </c>
-      <c r="K89">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="90" spans="1:11" ht="18" x14ac:dyDescent="0.2">
+      <c r="L84" s="4">
+        <v>42934</v>
+      </c>
+    </row>
+    <row r="89" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A89" s="8"/>
+      <c r="B89" s="8"/>
+      <c r="C89" s="8"/>
+      <c r="D89" s="8"/>
+      <c r="E89" s="8"/>
+      <c r="F89" s="8"/>
+      <c r="G89" s="8"/>
+      <c r="H89" s="8"/>
+      <c r="I89" s="8">
+        <f>SUM(I60:I84)</f>
+        <v>6</v>
+      </c>
+      <c r="J89" s="8"/>
+      <c r="K89" s="8">
+        <f>SUM(K60:K88)</f>
+        <v>22</v>
+      </c>
+      <c r="L89" s="8"/>
+      <c r="M89" s="8"/>
+      <c r="N89" s="8"/>
+      <c r="O89" s="8"/>
+      <c r="P89" s="8"/>
+      <c r="Q89" s="8"/>
+      <c r="R89" s="8"/>
+      <c r="S89" s="8"/>
+      <c r="T89" s="8"/>
+      <c r="U89" s="8"/>
+      <c r="V89" s="8"/>
+      <c r="W89" s="8"/>
+      <c r="X89" s="8"/>
+    </row>
+    <row r="90" spans="1:24" ht="18" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>123</v>
+      </c>
       <c r="C90" s="1"/>
       <c r="D90" s="1">
+        <v>141</v>
+      </c>
+      <c r="E90" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="F90" s="3">
+        <v>0.35399999999999998</v>
+      </c>
+      <c r="G90" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="I90">
+        <v>1</v>
+      </c>
+      <c r="J90" t="s">
+        <v>77</v>
+      </c>
+      <c r="K90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:24" s="8" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A91"/>
+      <c r="B91"/>
+      <c r="C91" s="1"/>
+      <c r="D91" s="1">
+        <v>237</v>
+      </c>
+      <c r="E91" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="F91" s="3">
+        <v>0.46300000000000002</v>
+      </c>
+      <c r="G91" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="H91"/>
+      <c r="I91">
+        <v>1</v>
+      </c>
+      <c r="J91"/>
+      <c r="K91">
+        <v>1</v>
+      </c>
+      <c r="L91"/>
+      <c r="M91"/>
+      <c r="N91"/>
+      <c r="O91"/>
+      <c r="P91"/>
+      <c r="Q91"/>
+      <c r="R91"/>
+      <c r="S91"/>
+      <c r="T91"/>
+      <c r="U91"/>
+      <c r="V91"/>
+      <c r="W91"/>
+      <c r="X91"/>
+    </row>
+    <row r="92" spans="1:24" ht="18" x14ac:dyDescent="0.2">
+      <c r="C92" s="1"/>
+      <c r="D92" s="1">
+        <v>83</v>
+      </c>
+      <c r="E92" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="F92" s="3">
+        <v>0.39700000000000002</v>
+      </c>
+      <c r="G92" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="I92">
+        <v>1</v>
+      </c>
+      <c r="K92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:24" ht="18" x14ac:dyDescent="0.2">
+      <c r="C93" s="1"/>
+      <c r="D93" s="1">
+        <v>160</v>
+      </c>
+      <c r="E93" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="F93" s="3">
+        <v>0.30499999999999999</v>
+      </c>
+      <c r="G93" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="I93">
+        <v>1</v>
+      </c>
+      <c r="J93" t="s">
+        <v>77</v>
+      </c>
+      <c r="K93">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:24" ht="18" x14ac:dyDescent="0.2">
+      <c r="C94" s="1"/>
+      <c r="D94" s="1">
+        <v>203</v>
+      </c>
+      <c r="E94" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="F94" s="3">
+        <v>0.32200000000000001</v>
+      </c>
+      <c r="G94" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="I94">
+        <v>1</v>
+      </c>
+      <c r="K94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:24" ht="18" x14ac:dyDescent="0.2">
+      <c r="C95" s="1"/>
+      <c r="D95" s="1">
+        <v>206</v>
+      </c>
+      <c r="E95" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="F95" s="3">
+        <v>0.45200000000000001</v>
+      </c>
+      <c r="G95" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="I95">
+        <v>1</v>
+      </c>
+      <c r="J95" t="s">
+        <v>77</v>
+      </c>
+      <c r="K95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:24" ht="18" x14ac:dyDescent="0.2">
+      <c r="C96" s="1"/>
+      <c r="D96" s="1">
+        <v>234</v>
+      </c>
+      <c r="E96" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="F96" s="3">
+        <v>0.32600000000000001</v>
+      </c>
+      <c r="G96" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="I96">
+        <v>1</v>
+      </c>
+      <c r="J96" t="s">
+        <v>77</v>
+      </c>
+      <c r="K96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:24" ht="18" x14ac:dyDescent="0.2">
+      <c r="C97" s="1"/>
+      <c r="D97" s="1">
         <v>21</v>
       </c>
-      <c r="E90" s="2" t="s">
+      <c r="E97" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="F90" s="3">
+      <c r="F97" s="3">
         <v>0.39</v>
       </c>
-      <c r="G90" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="I90">
-        <v>1</v>
-      </c>
-      <c r="K90">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="91" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="I91" s="8">
-        <f>SUM(I83:I90)</f>
+      <c r="G97" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="I97">
+        <v>1</v>
+      </c>
+      <c r="K97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A98" s="8"/>
+      <c r="B98" s="8"/>
+      <c r="C98" s="8"/>
+      <c r="D98" s="8"/>
+      <c r="E98" s="8"/>
+      <c r="F98" s="8"/>
+      <c r="G98" s="8"/>
+      <c r="H98" s="8"/>
+      <c r="I98" s="8">
+        <f>SUM(I90:I97)</f>
         <v>8</v>
       </c>
-    </row>
-    <row r="99" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="J98" s="8"/>
+      <c r="K98" s="8"/>
+      <c r="L98" s="8"/>
+      <c r="M98" s="8"/>
+      <c r="N98" s="8"/>
+      <c r="O98" s="8"/>
+      <c r="P98" s="8"/>
+      <c r="Q98" s="8"/>
+      <c r="R98" s="8"/>
+      <c r="S98" s="8"/>
+      <c r="T98" s="8"/>
+      <c r="U98" s="8"/>
+      <c r="V98" s="8"/>
+      <c r="W98" s="8"/>
+      <c r="X98" s="8"/>
+    </row>
+    <row r="99" spans="1:24" x14ac:dyDescent="0.2">
       <c r="H99">
         <f>COUNTA(H2:H30)</f>
         <v>10</v>
       </c>
       <c r="I99">
-        <f>I32+I58+I82+I91</f>
-        <v>62</v>
+        <f>I32+I58+I89+I98</f>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -6007,34 +6142,34 @@
     <hyperlink ref="E48" r:id="rId54"/>
     <hyperlink ref="E60" r:id="rId55"/>
     <hyperlink ref="E61" r:id="rId56"/>
-    <hyperlink ref="E62" r:id="rId57"/>
-    <hyperlink ref="E63" r:id="rId58"/>
-    <hyperlink ref="E64" r:id="rId59"/>
-    <hyperlink ref="E65" r:id="rId60"/>
-    <hyperlink ref="E66" r:id="rId61"/>
-    <hyperlink ref="E67" r:id="rId62"/>
-    <hyperlink ref="E68" r:id="rId63"/>
-    <hyperlink ref="E69" r:id="rId64"/>
-    <hyperlink ref="E70" r:id="rId65"/>
-    <hyperlink ref="E71" r:id="rId66"/>
-    <hyperlink ref="E72" r:id="rId67"/>
-    <hyperlink ref="E73" r:id="rId68"/>
-    <hyperlink ref="E74" r:id="rId69"/>
-    <hyperlink ref="E75" r:id="rId70"/>
-    <hyperlink ref="E76" r:id="rId71"/>
-    <hyperlink ref="E77" r:id="rId72"/>
+    <hyperlink ref="E84" r:id="rId57"/>
+    <hyperlink ref="E65" r:id="rId58"/>
+    <hyperlink ref="E83" r:id="rId59"/>
+    <hyperlink ref="E66" r:id="rId60"/>
+    <hyperlink ref="E67" r:id="rId61"/>
+    <hyperlink ref="E68" r:id="rId62"/>
+    <hyperlink ref="E69" r:id="rId63"/>
+    <hyperlink ref="E70" r:id="rId64"/>
+    <hyperlink ref="E71" r:id="rId65"/>
+    <hyperlink ref="E72" r:id="rId66"/>
+    <hyperlink ref="E73" r:id="rId67"/>
+    <hyperlink ref="E74" r:id="rId68"/>
+    <hyperlink ref="E75" r:id="rId69"/>
+    <hyperlink ref="E76" r:id="rId70"/>
+    <hyperlink ref="E77" r:id="rId71"/>
+    <hyperlink ref="E82" r:id="rId72"/>
     <hyperlink ref="E78" r:id="rId73"/>
     <hyperlink ref="E79" r:id="rId74"/>
     <hyperlink ref="E80" r:id="rId75"/>
     <hyperlink ref="E81" r:id="rId76"/>
-    <hyperlink ref="E83" r:id="rId77"/>
-    <hyperlink ref="E84" r:id="rId78"/>
-    <hyperlink ref="E85" r:id="rId79"/>
-    <hyperlink ref="E86" r:id="rId80"/>
-    <hyperlink ref="E87" r:id="rId81"/>
-    <hyperlink ref="E88" r:id="rId82"/>
-    <hyperlink ref="E89" r:id="rId83"/>
-    <hyperlink ref="E90" r:id="rId84"/>
+    <hyperlink ref="E90" r:id="rId77"/>
+    <hyperlink ref="E91" r:id="rId78"/>
+    <hyperlink ref="E92" r:id="rId79"/>
+    <hyperlink ref="E93" r:id="rId80"/>
+    <hyperlink ref="E94" r:id="rId81"/>
+    <hyperlink ref="E95" r:id="rId82"/>
+    <hyperlink ref="E96" r:id="rId83"/>
+    <hyperlink ref="E97" r:id="rId84"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/mycode/刷题统计.xlsx
+++ b/mycode/刷题统计.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1280" yWindow="540" windowWidth="23600" windowHeight="14180" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="800" yWindow="460" windowWidth="24180" windowHeight="14180" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="551" uniqueCount="303">
   <si>
     <t>1 binary search</t>
   </si>
@@ -363,9 +363,6 @@
     <t>Contains Duplicate II</t>
   </si>
   <si>
-    <t>ARRAY</t>
-  </si>
-  <si>
     <t>前表已有</t>
   </si>
   <si>
@@ -393,9 +390,6 @@
     <t>hash</t>
   </si>
   <si>
-    <t>同leet268</t>
-  </si>
-  <si>
     <t>Partition Array i</t>
   </si>
   <si>
@@ -570,9 +564,6 @@
     <t>two pointer/625</t>
   </si>
   <si>
-    <t>two pointer 相对</t>
-  </si>
-  <si>
     <t>two pointer 同向 i觅食</t>
   </si>
   <si>
@@ -706,13 +697,253 @@
   </si>
   <si>
     <t>293锁</t>
+  </si>
+  <si>
+    <t>Tree</t>
+  </si>
+  <si>
+    <t>Minimum Depth of Binary Tree</t>
+  </si>
+  <si>
+    <t>Lowest Common Ancestor of a Binary Search Tree</t>
+  </si>
+  <si>
+    <t>Closest Binary Search Tree Value </t>
+  </si>
+  <si>
+    <t>Find Mode in Binary Search Tree</t>
+  </si>
+  <si>
+    <t>Diameter of Binary Tree</t>
+  </si>
+  <si>
+    <t>Path Sum III</t>
+  </si>
+  <si>
+    <t>Sum of Left Leaves</t>
+  </si>
+  <si>
+    <t>Convert BST to Greater Tree</t>
+  </si>
+  <si>
+    <t>Average of Levels in Binary Tree</t>
+  </si>
+  <si>
+    <t>Path Sum</t>
+  </si>
+  <si>
+    <t>Binary Tree Paths</t>
+  </si>
+  <si>
+    <t>Balanced Binary Tree</t>
+  </si>
+  <si>
+    <t>Convert Sorted Array to Binary Search Tree</t>
+  </si>
+  <si>
+    <t>Binary Tree Level Order Traversal II</t>
+  </si>
+  <si>
+    <t>Invert Binary Tree</t>
+  </si>
+  <si>
+    <t>Subtree of Another Tree</t>
+  </si>
+  <si>
+    <t>Maximum Depth of Binary Tree</t>
+  </si>
+  <si>
+    <t>Binary Tree Tilt</t>
+  </si>
+  <si>
+    <t>Merge Two Binary Trees</t>
+  </si>
+  <si>
+    <t>Symmetric Tree</t>
+  </si>
+  <si>
+    <t>Same Tree</t>
+  </si>
+  <si>
+    <t>hash_2sum</t>
+  </si>
+  <si>
+    <t>ARRAY_easy</t>
+  </si>
+  <si>
+    <t>array_medum</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Find the Duplicate Number</t>
+  </si>
+  <si>
+    <t>Medium</t>
+  </si>
+  <si>
+    <t>bit</t>
+  </si>
+  <si>
+    <t>Set Mismatch</t>
+  </si>
+  <si>
+    <t>first missing positive</t>
+  </si>
+  <si>
+    <t>Find All Duplicates in an Array</t>
+  </si>
+  <si>
+    <t>hard</t>
+  </si>
+  <si>
+    <t>index对应法</t>
+  </si>
+  <si>
+    <t>Remove Duplicates from Sorted Array II   </t>
+  </si>
+  <si>
+    <t>two pointer觅食</t>
+  </si>
+  <si>
+    <t>用栈</t>
+  </si>
+  <si>
+    <t>分段重复</t>
+  </si>
+  <si>
+    <t>408锁</t>
+  </si>
+  <si>
+    <t>讲下</t>
+  </si>
+  <si>
+    <t>datastructure</t>
+  </si>
+  <si>
+    <t>ugly number ii</t>
+  </si>
+  <si>
+    <t>min stack</t>
+  </si>
+  <si>
+    <t>largest rectangle in histogram</t>
+  </si>
+  <si>
+    <t>max tree</t>
+  </si>
+  <si>
+    <t>hash function</t>
+  </si>
+  <si>
+    <t>rehashing</t>
+  </si>
+  <si>
+    <t>LRU</t>
+  </si>
+  <si>
+    <t>number of islands</t>
+  </si>
+  <si>
+    <t>implement trie</t>
+  </si>
+  <si>
+    <t>merge k sorted arrays</t>
+  </si>
+  <si>
+    <t>implement queue by 2 stacks</t>
+  </si>
+  <si>
+    <t>implement queue by linked list</t>
+  </si>
+  <si>
+    <t>implement queue by linked list ii</t>
+  </si>
+  <si>
+    <t>implement stack by two queues</t>
+  </si>
+  <si>
+    <t>implement stack</t>
+  </si>
+  <si>
+    <t>top k largest number</t>
+  </si>
+  <si>
+    <t>top k largest number ii</t>
+  </si>
+  <si>
+    <t>longest palindrom</t>
+  </si>
+  <si>
+    <t>substring anagrams</t>
+  </si>
+  <si>
+    <t>lsomorphic strings</t>
+  </si>
+  <si>
+    <t>longst consecutive sequence</t>
+  </si>
+  <si>
+    <t>top k frequent words</t>
+  </si>
+  <si>
+    <t>flatten nested list literator</t>
+  </si>
+  <si>
+    <t>zigzag iterator</t>
+  </si>
+  <si>
+    <t>zigzag iterator ii</t>
+  </si>
+  <si>
+    <t>nested list weight sum</t>
+  </si>
+  <si>
+    <t>expression expand</t>
+  </si>
+  <si>
+    <t>strStr ii</t>
+  </si>
+  <si>
+    <t>flatten 2d vector</t>
+  </si>
+  <si>
+    <t>k closest points</t>
+  </si>
+  <si>
+    <t>high five</t>
+  </si>
+  <si>
+    <t>LFU-cache</t>
+  </si>
+  <si>
+    <t>单调栈</t>
+  </si>
+  <si>
+    <t>做一遍</t>
+  </si>
+  <si>
+    <t>再一遍</t>
+  </si>
+  <si>
+    <t>取前3个最大的</t>
+  </si>
+  <si>
+    <t>check</t>
+  </si>
+  <si>
+    <t>medium</t>
+  </si>
+  <si>
+    <t>Majority Element ii</t>
+  </si>
+  <si>
+    <t>多数投票法</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -755,8 +986,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -787,8 +1026,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9E1F2"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -835,8 +1086,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="12">
+  <cellStyleXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -849,8 +1109,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="7"/>
@@ -880,8 +1143,27 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="7" applyFill="1"/>
     <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="7" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="12">
+  <cellStyles count="15">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -889,6 +1171,9 @@
     <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="11" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="13" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1171,8 +1456,8 @@
   <dimension ref="A1:M150"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A128" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F102" sqref="F102"/>
+      <pane ySplit="1" topLeftCell="A45" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G115" sqref="G115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2093,7 +2378,7 @@
         <v>42</v>
       </c>
       <c r="C43" s="13" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D43" s="13" t="s">
         <v>52</v>
@@ -2155,7 +2440,7 @@
         <v>46</v>
       </c>
       <c r="C47" s="13" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D47" s="13" t="s">
         <v>55</v>
@@ -2176,7 +2461,7 @@
         <v>42921</v>
       </c>
       <c r="L47" s="13" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="48" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.2">
@@ -2184,7 +2469,7 @@
         <v>47</v>
       </c>
       <c r="D48" s="13" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F48" s="13">
         <v>561</v>
@@ -2227,7 +2512,7 @@
         <v>49</v>
       </c>
       <c r="C50" s="13" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D50" s="13" t="s">
         <v>56</v>
@@ -2276,7 +2561,7 @@
         <v>51</v>
       </c>
       <c r="C52" s="17" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="D52" s="13" t="s">
         <v>58</v>
@@ -2305,7 +2590,7 @@
         <v>52</v>
       </c>
       <c r="C53" s="17" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="D53" s="13" t="s">
         <v>59</v>
@@ -2334,7 +2619,7 @@
         <v>53</v>
       </c>
       <c r="C54" s="17" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="D54" s="18" t="s">
         <v>99</v>
@@ -2357,7 +2642,7 @@
         <v>54</v>
       </c>
       <c r="C55" s="17" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="D55" s="18" t="s">
         <v>92</v>
@@ -2690,10 +2975,10 @@
         <v>72</v>
       </c>
       <c r="C73" s="13" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D73" s="18" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E73" s="17">
         <v>488</v>
@@ -2719,7 +3004,7 @@
         <v>73</v>
       </c>
       <c r="D74" s="13" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E74" s="13">
         <v>620</v>
@@ -2730,7 +3015,7 @@
         <v>74</v>
       </c>
       <c r="D75" s="13" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E75" s="13">
         <v>621</v>
@@ -2741,7 +3026,7 @@
         <v>75</v>
       </c>
       <c r="D76" s="13" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E76" s="13">
         <v>43</v>
@@ -2757,10 +3042,10 @@
         <v>77</v>
       </c>
       <c r="B78" s="21" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D78" s="21" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E78" s="21">
         <v>112</v>
@@ -2783,7 +3068,7 @@
         <v>78</v>
       </c>
       <c r="D79" s="21" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E79" s="21">
         <v>113</v>
@@ -2809,7 +3094,7 @@
         <v>79</v>
       </c>
       <c r="D80" s="21" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E80" s="21">
         <v>173</v>
@@ -2835,10 +3120,10 @@
         <v>80</v>
       </c>
       <c r="C81" s="21" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D81" s="21" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E81" s="21">
         <v>35</v>
@@ -2864,10 +3149,10 @@
         <v>81</v>
       </c>
       <c r="C82" s="21" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D82" s="21" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E82" s="21">
         <v>36</v>
@@ -2893,10 +3178,10 @@
         <v>82</v>
       </c>
       <c r="C83" s="21" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="D83" s="21" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E83" s="21">
         <v>96</v>
@@ -2919,10 +3204,10 @@
         <v>83</v>
       </c>
       <c r="C84" s="21" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="D84" s="21" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E84" s="21">
         <v>228</v>
@@ -2942,10 +3227,10 @@
         <v>84</v>
       </c>
       <c r="C85" s="21" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="D85" s="21" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E85" s="21">
         <v>165</v>
@@ -2968,10 +3253,10 @@
         <v>85</v>
       </c>
       <c r="C86" s="21" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="D86" s="21" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E86" s="21">
         <v>99</v>
@@ -2997,10 +3282,10 @@
         <v>86</v>
       </c>
       <c r="C87" s="21" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="D87" s="21" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E87" s="21">
         <v>98</v>
@@ -3026,10 +3311,10 @@
         <v>87</v>
       </c>
       <c r="C88" s="21" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="D88" s="21" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E88" s="21">
         <v>174</v>
@@ -3052,10 +3337,10 @@
         <v>88</v>
       </c>
       <c r="C89" s="21" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="D89" s="21" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E89" s="21">
         <v>102</v>
@@ -3081,10 +3366,10 @@
         <v>89</v>
       </c>
       <c r="C90" s="21" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="D90" s="21" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E90" s="21">
         <v>103</v>
@@ -3110,10 +3395,10 @@
         <v>90</v>
       </c>
       <c r="C91" s="21" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="D91" s="21" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E91" s="21">
         <v>170</v>
@@ -3139,10 +3424,10 @@
         <v>91</v>
       </c>
       <c r="C92" s="21" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="D92" s="21" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E92" s="21">
         <v>104</v>
@@ -3168,10 +3453,10 @@
         <v>92</v>
       </c>
       <c r="C93" s="21" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D93" s="21" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E93" s="21">
         <v>105</v>
@@ -3197,10 +3482,10 @@
         <v>93</v>
       </c>
       <c r="C94" s="21" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D94" s="21" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E94" s="21">
         <v>106</v>
@@ -3226,10 +3511,10 @@
         <v>94</v>
       </c>
       <c r="C95" s="21" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="D95" s="21" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E95" s="21">
         <v>166</v>
@@ -3249,7 +3534,7 @@
         <v>95</v>
       </c>
       <c r="D96" s="21" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E96" s="21">
         <v>167</v>
@@ -3275,7 +3560,7 @@
         <v>96</v>
       </c>
       <c r="D97" s="21" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E97" s="21">
         <v>221</v>
@@ -3301,7 +3586,7 @@
         <v>97</v>
       </c>
       <c r="D98" s="21" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E98" s="21">
         <v>217</v>
@@ -3321,7 +3606,7 @@
         <v>98</v>
       </c>
       <c r="D99" s="21" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E99" s="21">
         <v>380</v>
@@ -3347,7 +3632,7 @@
         <v>99</v>
       </c>
       <c r="D100" s="21" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E100" s="21">
         <v>223</v>
@@ -3373,7 +3658,7 @@
         <v>100</v>
       </c>
       <c r="D101" s="21" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E101" s="21">
         <v>372</v>
@@ -3387,7 +3672,7 @@
         <v>101</v>
       </c>
       <c r="D102" s="21" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E102" s="21">
         <v>450</v>
@@ -3413,7 +3698,7 @@
         <v>102</v>
       </c>
       <c r="D103" s="21" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E103" s="21">
         <v>451</v>
@@ -3439,7 +3724,7 @@
         <v>103</v>
       </c>
       <c r="D104" s="21" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E104" s="21">
         <v>452</v>
@@ -3462,7 +3747,7 @@
         <v>104</v>
       </c>
       <c r="D105" s="21" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E105" s="21">
         <v>511</v>
@@ -3476,7 +3761,7 @@
         <v>105</v>
       </c>
       <c r="D106" s="21" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="F106" s="21">
         <v>237</v>
@@ -3496,7 +3781,7 @@
         <v>106</v>
       </c>
       <c r="D107" s="21" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="F107" s="21">
         <v>328</v>
@@ -3519,7 +3804,7 @@
         <v>107</v>
       </c>
       <c r="D108" s="21" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E108" s="21">
         <v>599</v>
@@ -3529,7 +3814,6 @@
       <c r="A109" s="23">
         <v>108</v>
       </c>
-      <c r="B109" s="23"/>
       <c r="C109" s="23"/>
       <c r="D109" s="23"/>
       <c r="E109" s="23"/>
@@ -3542,161 +3826,455 @@
       <c r="L109" s="23"/>
       <c r="M109" s="23"/>
     </row>
-    <row r="110" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A110" s="23">
+    <row r="110" spans="1:13" s="31" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A110" s="31">
         <v>109</v>
       </c>
-      <c r="B110" s="23"/>
-      <c r="C110" s="23"/>
-      <c r="D110" s="23"/>
-      <c r="E110" s="23"/>
-      <c r="F110" s="23"/>
-      <c r="G110" s="23"/>
-      <c r="H110" s="23"/>
-      <c r="I110" s="23"/>
-      <c r="J110" s="23"/>
-      <c r="K110" s="23"/>
-      <c r="L110" s="23"/>
-      <c r="M110" s="23"/>
-    </row>
-    <row r="111" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A111" s="23">
+      <c r="B110" s="31" t="s">
+        <v>262</v>
+      </c>
+      <c r="D110" s="31" t="s">
+        <v>263</v>
+      </c>
+      <c r="E110" s="31">
+        <v>4</v>
+      </c>
+      <c r="F110" s="31">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="111" spans="1:13" s="31" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A111" s="31">
         <v>110</v>
       </c>
-      <c r="B111" s="23"/>
-      <c r="C111" s="23"/>
-      <c r="D111" s="23"/>
-      <c r="E111" s="23"/>
-      <c r="F111" s="23"/>
-      <c r="G111" s="23"/>
-      <c r="H111" s="23"/>
-      <c r="I111" s="23"/>
-      <c r="J111" s="23"/>
-      <c r="K111" s="23"/>
-      <c r="L111" s="23"/>
-      <c r="M111" s="23"/>
-    </row>
-    <row r="112" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A112" s="23">
+      <c r="D111" s="31" t="s">
+        <v>264</v>
+      </c>
+      <c r="E111" s="31">
+        <v>12</v>
+      </c>
+      <c r="F111" s="31">
+        <v>155</v>
+      </c>
+      <c r="G111" s="31">
+        <v>1</v>
+      </c>
+      <c r="H111" s="31">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="112" spans="1:13" s="31" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A112" s="31">
         <v>111</v>
       </c>
-      <c r="B112" s="23"/>
-      <c r="C112" s="23"/>
-      <c r="D112" s="23"/>
-      <c r="E112" s="23"/>
-      <c r="F112" s="23"/>
-      <c r="G112" s="23"/>
-      <c r="H112" s="23"/>
-      <c r="I112" s="23"/>
-      <c r="J112" s="23"/>
-      <c r="K112" s="23"/>
-      <c r="L112" s="23"/>
-      <c r="M112" s="23"/>
-    </row>
-    <row r="113" spans="1:1" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A113" s="9">
+      <c r="D112" s="31" t="s">
+        <v>273</v>
+      </c>
+      <c r="E112" s="31">
+        <v>40</v>
+      </c>
+      <c r="F112" s="31">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" s="31" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A113" s="31">
         <v>112</v>
       </c>
-    </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A114">
+      <c r="C113" s="31" t="s">
+        <v>295</v>
+      </c>
+      <c r="D113" s="31" t="s">
+        <v>276</v>
+      </c>
+      <c r="E113" s="31">
+        <v>494</v>
+      </c>
+      <c r="F113" s="31">
+        <v>225</v>
+      </c>
+      <c r="J113" s="31" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" s="31" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A114" s="31">
         <v>113</v>
       </c>
-    </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A115">
+      <c r="C114" s="31" t="s">
+        <v>295</v>
+      </c>
+      <c r="D114" s="31" t="s">
+        <v>265</v>
+      </c>
+      <c r="E114" s="31">
+        <v>122</v>
+      </c>
+      <c r="F114" s="31">
+        <v>84</v>
+      </c>
+      <c r="G114" s="31">
+        <v>1</v>
+      </c>
+      <c r="H114" s="31">
+        <v>3</v>
+      </c>
+      <c r="J114" s="32" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10" s="31" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A115" s="31">
         <v>114</v>
       </c>
-    </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A116">
+      <c r="C115" s="31" t="s">
+        <v>295</v>
+      </c>
+      <c r="D115" s="31" t="s">
+        <v>62</v>
+      </c>
+      <c r="E115" s="31">
+        <v>510</v>
+      </c>
+      <c r="F115" s="31">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" s="31" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A116" s="31">
         <v>115</v>
       </c>
-    </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A117">
+      <c r="D116" s="31" t="s">
+        <v>266</v>
+      </c>
+      <c r="E116" s="31">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10" s="31" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A117" s="31">
         <v>116</v>
       </c>
-    </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A118">
+      <c r="D117" s="31" t="s">
+        <v>267</v>
+      </c>
+      <c r="E117" s="31">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10" s="31" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A118" s="31">
         <v>117</v>
       </c>
-    </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A119">
+      <c r="D118" s="31" t="s">
+        <v>268</v>
+      </c>
+      <c r="E118" s="31">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10" s="31" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A119" s="31">
         <v>118</v>
       </c>
-    </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A120">
+      <c r="D119" s="31" t="s">
+        <v>269</v>
+      </c>
+      <c r="E119" s="31">
+        <v>134</v>
+      </c>
+      <c r="F119" s="31">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10" s="31" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A120" s="31">
         <v>119</v>
       </c>
-    </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A121">
+      <c r="D120" s="31" t="s">
+        <v>270</v>
+      </c>
+      <c r="E120" s="31">
+        <v>433</v>
+      </c>
+      <c r="F120" s="31">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10" s="31" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A121" s="31">
         <v>120</v>
       </c>
-    </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A122">
+      <c r="D121" s="31" t="s">
+        <v>271</v>
+      </c>
+      <c r="E121" s="31">
+        <v>442</v>
+      </c>
+      <c r="F121" s="31">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10" s="31" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A122" s="31">
         <v>121</v>
       </c>
-    </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A123">
+      <c r="D122" s="31" t="s">
+        <v>272</v>
+      </c>
+      <c r="E122" s="31">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10" s="31" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A123" s="31">
         <v>122</v>
       </c>
-    </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A124">
+      <c r="D123" s="31" t="s">
+        <v>274</v>
+      </c>
+      <c r="E123" s="31">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10" s="31" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A124" s="31">
         <v>123</v>
       </c>
-    </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A125">
+      <c r="D124" s="31" t="s">
+        <v>275</v>
+      </c>
+      <c r="E124" s="31">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10" s="31" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A125" s="31">
         <v>124</v>
       </c>
     </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A126">
+    <row r="126" spans="1:10" s="31" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A126" s="31">
         <v>125</v>
       </c>
-    </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A127">
+      <c r="D126" s="31" t="s">
+        <v>277</v>
+      </c>
+      <c r="E126" s="31">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10" s="31" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A127" s="31">
         <v>126</v>
       </c>
     </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A128">
+    <row r="128" spans="1:10" s="31" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A128" s="31">
         <v>127</v>
       </c>
-    </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A129">
+      <c r="D128" s="31" t="s">
+        <v>278</v>
+      </c>
+      <c r="E128" s="31">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A129" s="31">
         <v>128</v>
       </c>
-    </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A130">
+      <c r="D129" s="31" t="s">
+        <v>279</v>
+      </c>
+      <c r="E129" s="31">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A130" s="31">
         <v>129</v>
       </c>
-    </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A131">
+      <c r="D130" s="31" t="s">
+        <v>280</v>
+      </c>
+      <c r="E130" s="31">
+        <v>627</v>
+      </c>
+      <c r="F130" s="31">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A131" s="31">
         <v>130</v>
       </c>
-    </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A132">
+      <c r="D131" s="31" t="s">
+        <v>281</v>
+      </c>
+      <c r="E131" s="31">
+        <v>647</v>
+      </c>
+      <c r="F131" s="31">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A132" s="31">
         <v>131</v>
       </c>
-    </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A133">
+      <c r="D132" s="31" t="s">
+        <v>282</v>
+      </c>
+      <c r="E132" s="31">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A133" s="31">
         <v>132</v>
       </c>
+      <c r="D133" s="31" t="s">
+        <v>294</v>
+      </c>
+      <c r="E133" s="31">
+        <v>24</v>
+      </c>
+      <c r="F133" s="31">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A134" s="31">
+        <v>133</v>
+      </c>
+      <c r="D134" s="31" t="s">
+        <v>283</v>
+      </c>
+      <c r="E134" s="31">
+        <v>124</v>
+      </c>
+      <c r="F134" s="31">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A135" s="31">
+        <v>134</v>
+      </c>
+      <c r="D135" s="31" t="s">
+        <v>284</v>
+      </c>
+      <c r="E135" s="31">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A136" s="31">
+        <v>135</v>
+      </c>
+      <c r="D136" s="31" t="s">
+        <v>285</v>
+      </c>
+      <c r="E136" s="31">
+        <v>528</v>
+      </c>
+      <c r="F136" s="31">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A137" s="31">
+        <v>136</v>
+      </c>
+      <c r="D137" s="31" t="s">
+        <v>286</v>
+      </c>
+      <c r="E137" s="31">
+        <v>540</v>
+      </c>
+      <c r="F137" s="31">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A138" s="31">
+        <v>137</v>
+      </c>
+      <c r="D138" s="31" t="s">
+        <v>287</v>
+      </c>
+      <c r="E138" s="31">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A139" s="31">
+        <v>138</v>
+      </c>
+      <c r="D139" s="31" t="s">
+        <v>288</v>
+      </c>
+      <c r="E139" s="31">
+        <v>551</v>
+      </c>
+      <c r="F139" s="31">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A140" s="31">
+        <v>139</v>
+      </c>
+      <c r="D140" s="31" t="s">
+        <v>289</v>
+      </c>
+      <c r="E140" s="31">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A141" s="31">
+        <v>140</v>
+      </c>
+      <c r="D141" s="31" t="s">
+        <v>290</v>
+      </c>
+      <c r="E141" s="31">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A142" s="31">
+        <v>141</v>
+      </c>
+      <c r="D142" s="31" t="s">
+        <v>291</v>
+      </c>
+      <c r="E142" s="31">
+        <v>601</v>
+      </c>
+      <c r="F142" s="31">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D143" s="31" t="s">
+        <v>292</v>
+      </c>
+      <c r="E143" s="31">
+        <v>612</v>
+      </c>
+      <c r="F143" s="31"/>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D144" s="31" t="s">
+        <v>293</v>
+      </c>
+      <c r="E144" s="31">
+        <v>613</v>
+      </c>
+      <c r="F144" s="31"/>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
@@ -3712,7 +4290,7 @@
       </c>
       <c r="G150">
         <f>SUM(G2:G149)</f>
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -3733,46 +4311,46 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X99"/>
+  <dimension ref="A1:X133"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K90" sqref="K90"/>
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B90" sqref="B90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="24" customWidth="1"/>
+    <col min="2" max="2" width="19.6640625" customWidth="1"/>
     <col min="4" max="4" width="11.5" customWidth="1"/>
     <col min="5" max="5" width="35.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D1" t="s">
         <v>115</v>
       </c>
-      <c r="D1" t="s">
-        <v>116</v>
-      </c>
       <c r="H1" t="s">
+        <v>111</v>
+      </c>
+      <c r="I1" t="s">
         <v>112</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>113</v>
       </c>
-      <c r="J1" t="s">
-        <v>114</v>
-      </c>
       <c r="K1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="L1" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" ht="18" x14ac:dyDescent="0.2">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="18" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>111</v>
+        <v>246</v>
       </c>
       <c r="C2">
         <v>56</v>
@@ -3802,89 +4380,51 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="18" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" ht="18" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
-      <c r="B3" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="C3" s="1">
-        <v>100</v>
-      </c>
-      <c r="D3" s="1">
-        <v>26</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="F3" s="3">
-        <v>0.35499999999999998</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="H3">
-        <v>1</v>
-      </c>
-      <c r="I3">
-        <v>1</v>
-      </c>
-      <c r="J3" t="s">
-        <v>77</v>
-      </c>
-      <c r="K3">
-        <v>1</v>
-      </c>
-      <c r="M3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" ht="18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:14" ht="18" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
-      <c r="B4" s="1" t="s">
-        <v>180</v>
-      </c>
+      <c r="B4" s="1"/>
       <c r="C4" s="1">
-        <v>172</v>
+        <v>60</v>
       </c>
       <c r="D4" s="1">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="F4" s="3">
-        <v>0.38600000000000001</v>
+        <v>0.39600000000000002</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>85</v>
       </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
       <c r="I4">
         <v>1</v>
       </c>
-      <c r="J4" t="s">
-        <v>77</v>
-      </c>
       <c r="K4">
         <v>1</v>
       </c>
-      <c r="M4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" ht="18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:14" ht="18" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="D5" s="1">
-        <v>35</v>
+        <v>53</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="F5" s="3">
-        <v>0.39600000000000002</v>
+        <v>0.39400000000000002</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>85</v>
@@ -3895,87 +4435,88 @@
       <c r="I5">
         <v>1</v>
       </c>
+      <c r="J5" t="s">
+        <v>77</v>
+      </c>
       <c r="K5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" ht="18" x14ac:dyDescent="0.2">
+      <c r="M5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="18" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1">
-        <v>41</v>
+        <v>407</v>
       </c>
       <c r="D6" s="1">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="F6" s="3">
-        <v>0.39400000000000002</v>
+        <v>0.38300000000000001</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="H6">
-        <v>1</v>
-      </c>
+      <c r="H6" s="1"/>
       <c r="I6">
         <v>1</v>
       </c>
-      <c r="J6" t="s">
-        <v>77</v>
-      </c>
       <c r="K6">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" ht="18" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1">
-        <v>407</v>
+        <v>64</v>
       </c>
       <c r="D7" s="1">
-        <v>66</v>
+        <v>88</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>84</v>
+        <v>35</v>
       </c>
       <c r="F7" s="3">
-        <v>0.38300000000000001</v>
+        <v>0.31900000000000001</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="H7" s="1"/>
+      <c r="H7">
+        <v>1</v>
+      </c>
       <c r="I7">
         <v>1</v>
       </c>
       <c r="K7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" ht="18" x14ac:dyDescent="0.2">
+      <c r="L7" s="5">
+        <v>42919</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="18" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
-      <c r="C8" s="1">
-        <v>64</v>
-      </c>
+      <c r="C8" s="1"/>
       <c r="D8" s="1">
-        <v>88</v>
+        <v>118</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>35</v>
+        <v>100</v>
       </c>
       <c r="F8" s="3">
-        <v>0.31900000000000001</v>
+        <v>0.38100000000000001</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>85</v>
-      </c>
-      <c r="H8">
-        <v>1</v>
       </c>
       <c r="I8">
         <v>1</v>
@@ -3986,19 +4527,22 @@
       <c r="L8" s="5">
         <v>42919</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" ht="18" x14ac:dyDescent="0.2">
+      <c r="M8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="18" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F9" s="3">
-        <v>0.38100000000000001</v>
+        <v>0.36399999999999999</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>85</v>
@@ -4012,28 +4556,35 @@
       <c r="L9" s="5">
         <v>42919</v>
       </c>
-      <c r="M9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" ht="18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:14" ht="18" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
+      <c r="B10" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C10" s="1">
+        <v>149</v>
+      </c>
       <c r="D10" s="1">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>101</v>
+        <v>46</v>
       </c>
       <c r="F10" s="3">
-        <v>0.36399999999999999</v>
+        <v>0.40699999999999997</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>85</v>
       </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
       <c r="I10">
         <v>1</v>
+      </c>
+      <c r="J10" t="s">
+        <v>77</v>
       </c>
       <c r="K10">
         <v>1</v>
@@ -4042,22 +4593,22 @@
         <v>42919</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" ht="18" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
       <c r="B11" s="1" t="s">
         <v>83</v>
       </c>
       <c r="C11" s="1">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D11" s="1">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>46</v>
+        <v>95</v>
       </c>
       <c r="F11" s="3">
-        <v>0.40699999999999997</v>
+        <v>0.46600000000000003</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>85</v>
@@ -4077,23 +4628,26 @@
       <c r="L11" s="5">
         <v>42919</v>
       </c>
-    </row>
-    <row r="12" spans="1:13" ht="18" x14ac:dyDescent="0.2">
+      <c r="M11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="18" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
       <c r="B12" s="1" t="s">
-        <v>83</v>
+        <v>117</v>
       </c>
       <c r="C12" s="1">
-        <v>150</v>
+        <v>608</v>
       </c>
       <c r="D12" s="1">
-        <v>122</v>
+        <v>167</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="F12" s="3">
-        <v>0.46600000000000003</v>
+        <v>0.47099999999999997</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>85</v>
@@ -4103,9 +4657,6 @@
       </c>
       <c r="I12">
         <v>1</v>
-      </c>
-      <c r="J12" t="s">
-        <v>77</v>
       </c>
       <c r="K12">
         <v>1</v>
@@ -4113,62 +4664,28 @@
       <c r="L12" s="5">
         <v>42919</v>
       </c>
-      <c r="M12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" ht="18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:14" ht="18" x14ac:dyDescent="0.2">
       <c r="A13" s="1"/>
-      <c r="B13" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C13" s="1">
-        <v>608</v>
-      </c>
-      <c r="D13" s="1">
-        <v>167</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="F13" s="3">
-        <v>0.47099999999999997</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="H13">
-        <v>1</v>
-      </c>
-      <c r="I13">
-        <v>1</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13" s="5">
-        <v>42919</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" ht="18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="14" spans="1:14" ht="18" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
-      <c r="B14" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="C14" s="1">
-        <v>46</v>
-      </c>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
       <c r="D14" s="1">
-        <v>169</v>
+        <v>189</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F14" s="3">
-        <v>0.46200000000000002</v>
+        <v>0.24299999999999999</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>85</v>
+      </c>
+      <c r="H14">
+        <v>1</v>
       </c>
       <c r="I14">
         <v>1</v>
@@ -4179,25 +4696,30 @@
       <c r="L14" s="5">
         <v>42919</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" ht="18" x14ac:dyDescent="0.2">
+      <c r="M14" t="s">
+        <v>296</v>
+      </c>
+      <c r="N14" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="18" x14ac:dyDescent="0.2">
       <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
+      <c r="B15" s="1" t="s">
+        <v>119</v>
+      </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1">
-        <v>189</v>
+        <v>217</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="F15" s="3">
-        <v>0.24299999999999999</v>
+        <v>0.45300000000000001</v>
       </c>
       <c r="G15" s="1" t="s">
         <v>85</v>
-      </c>
-      <c r="H15">
-        <v>1</v>
       </c>
       <c r="I15">
         <v>1</v>
@@ -4209,20 +4731,20 @@
         <v>42919</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="18" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14" ht="18" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
       <c r="B16" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F16" s="3">
-        <v>0.45300000000000001</v>
+        <v>0.32200000000000001</v>
       </c>
       <c r="G16" s="1" t="s">
         <v>85</v>
@@ -4237,26 +4759,29 @@
         <v>42919</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="18" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:14" ht="18" x14ac:dyDescent="0.2">
       <c r="A17" s="1"/>
       <c r="B17" s="1" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1">
-        <v>219</v>
+        <v>243</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>110</v>
+        <v>91</v>
       </c>
       <c r="F17" s="3">
-        <v>0.32200000000000001</v>
+        <v>0.52</v>
       </c>
       <c r="G17" s="1" t="s">
         <v>85</v>
       </c>
       <c r="I17">
         <v>1</v>
+      </c>
+      <c r="J17" t="s">
+        <v>77</v>
       </c>
       <c r="K17">
         <v>1</v>
@@ -4265,20 +4790,20 @@
         <v>42919</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="18" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:14" ht="18" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
-      <c r="B18" s="1" t="s">
-        <v>118</v>
+      <c r="B18" s="33" t="s">
+        <v>257</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1">
-        <v>243</v>
+        <v>283</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="F18" s="3">
-        <v>0.52</v>
+        <v>0.495</v>
       </c>
       <c r="G18" s="1" t="s">
         <v>85</v>
@@ -4295,54 +4820,61 @@
       <c r="L18" s="5">
         <v>42919</v>
       </c>
-    </row>
-    <row r="19" spans="1:13" ht="18" x14ac:dyDescent="0.2">
+      <c r="M18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" ht="18" x14ac:dyDescent="0.2">
       <c r="A19" s="1"/>
-      <c r="B19" s="1" t="s">
-        <v>120</v>
-      </c>
+      <c r="B19" s="34"/>
       <c r="C19" s="1">
-        <v>196</v>
+        <v>100</v>
       </c>
       <c r="D19" s="1">
-        <v>268</v>
+        <v>26</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>96</v>
+        <v>58</v>
       </c>
       <c r="F19" s="3">
-        <v>0.441</v>
+        <v>0.35499999999999998</v>
       </c>
       <c r="G19" s="1" t="s">
         <v>85</v>
       </c>
+      <c r="H19">
+        <v>1</v>
+      </c>
       <c r="I19">
         <v>1</v>
       </c>
+      <c r="J19" t="s">
+        <v>77</v>
+      </c>
       <c r="K19">
         <v>1</v>
       </c>
-      <c r="L19" s="5">
-        <v>42919</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" ht="18" x14ac:dyDescent="0.2">
+      <c r="M19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" ht="18" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
-      <c r="B20" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="C20" s="1"/>
+      <c r="B20" s="34"/>
+      <c r="C20" s="1">
+        <v>101</v>
+      </c>
       <c r="D20" s="1">
-        <v>283</v>
+        <v>80</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>99</v>
+        <v>256</v>
       </c>
       <c r="F20" s="3">
-        <v>0.495</v>
+        <v>0.35799999999999998</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>85</v>
+        <v>249</v>
       </c>
       <c r="I20">
         <v>1</v>
@@ -4351,24 +4883,23 @@
         <v>77</v>
       </c>
       <c r="K20">
-        <v>1</v>
-      </c>
-      <c r="L20" s="5">
-        <v>42919</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" ht="18" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" ht="18" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
+      <c r="B21" s="34"/>
+      <c r="C21" s="1">
+        <v>172</v>
+      </c>
       <c r="D21" s="1">
-        <v>414</v>
+        <v>27</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>105</v>
+        <v>92</v>
       </c>
       <c r="F21" s="3">
-        <v>0.27700000000000002</v>
+        <v>0.38600000000000001</v>
       </c>
       <c r="G21" s="1" t="s">
         <v>85</v>
@@ -4382,42 +4913,17 @@
       <c r="K21">
         <v>1</v>
       </c>
-      <c r="L21" s="4">
-        <v>42920</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" ht="18" x14ac:dyDescent="0.2">
+      <c r="M21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" ht="18" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
-      <c r="B22" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1">
-        <v>448</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="F22" s="3">
-        <v>0.52</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="I22">
-        <v>1</v>
-      </c>
-      <c r="K22">
-        <v>1</v>
-      </c>
-      <c r="L22" s="4">
-        <v>42920</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" ht="18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="23" spans="1:14" ht="18" x14ac:dyDescent="0.2">
       <c r="A23" s="1"/>
       <c r="B23" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C23" s="1"/>
       <c r="D23" s="1">
@@ -4441,15 +4947,20 @@
       <c r="L23" s="4">
         <v>42920</v>
       </c>
-    </row>
-    <row r="24" spans="1:13" ht="18" x14ac:dyDescent="0.2">
+      <c r="M23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" ht="18" x14ac:dyDescent="0.2">
       <c r="A24" s="1"/>
-      <c r="B24" s="1"/>
+      <c r="B24" s="1" t="s">
+        <v>245</v>
+      </c>
       <c r="C24" s="1"/>
       <c r="D24" s="1">
         <v>532</v>
       </c>
-      <c r="E24" s="2" t="s">
+      <c r="E24" s="29" t="s">
         <v>109</v>
       </c>
       <c r="F24" s="3">
@@ -4470,8 +4981,14 @@
       <c r="L24" s="4">
         <v>42920</v>
       </c>
-    </row>
-    <row r="25" spans="1:13" ht="18" x14ac:dyDescent="0.2">
+      <c r="M24" t="s">
+        <v>296</v>
+      </c>
+      <c r="N24" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" ht="18" x14ac:dyDescent="0.2">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -4503,7 +5020,7 @@
         <v>42920</v>
       </c>
     </row>
-    <row r="26" spans="1:13" ht="18" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:14" ht="18" x14ac:dyDescent="0.2">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -4532,10 +5049,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:13" ht="18" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:14" ht="18" x14ac:dyDescent="0.2">
       <c r="A27" s="1"/>
       <c r="B27" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C27" s="1"/>
       <c r="D27" s="1">
@@ -4566,7 +5083,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:13" ht="18" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:14" ht="18" x14ac:dyDescent="0.2">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -4598,7 +5115,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:13" ht="18" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:14" ht="18" x14ac:dyDescent="0.2">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -4630,18 +5147,20 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:13" ht="18" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:14" ht="18" x14ac:dyDescent="0.2">
       <c r="A30" s="1"/>
-      <c r="B30" s="1"/>
+      <c r="B30" s="35" t="s">
+        <v>298</v>
+      </c>
       <c r="C30" s="1"/>
       <c r="D30" s="1">
-        <v>628</v>
+        <v>414</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>86</v>
+        <v>105</v>
       </c>
       <c r="F30" s="3">
-        <v>0.45900000000000002</v>
+        <v>0.27700000000000002</v>
       </c>
       <c r="G30" s="1" t="s">
         <v>85</v>
@@ -4658,44 +5177,87 @@
       <c r="L30" s="4">
         <v>42920</v>
       </c>
-      <c r="M30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="32" spans="1:13" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="6"/>
-      <c r="D32" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="H32" s="7">
-        <f>SUM(H2:H31)</f>
-        <v>10</v>
-      </c>
-      <c r="I32" s="7">
-        <f>SUM(I2:I30)</f>
-        <v>29</v>
-      </c>
-      <c r="K32" s="7">
-        <f t="shared" ref="K32" si="0">SUM(K1:K30)</f>
-        <v>29</v>
+      <c r="M30" t="s">
+        <v>296</v>
+      </c>
+      <c r="N30" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B31" s="35"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1">
+        <v>628</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F31" s="3">
+        <v>0.45900000000000002</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="I31">
+        <v>1</v>
+      </c>
+      <c r="J31" t="s">
+        <v>77</v>
+      </c>
+      <c r="K31">
+        <v>1</v>
+      </c>
+      <c r="L31" s="4">
+        <v>42920</v>
+      </c>
+      <c r="M31" t="s">
+        <v>296</v>
+      </c>
+      <c r="N31" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B32" s="36" t="s">
+        <v>255</v>
+      </c>
+      <c r="C32" s="1">
+        <v>196</v>
+      </c>
+      <c r="D32" s="1">
+        <v>268</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F32" s="3">
+        <v>0.441</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="I32">
+        <v>1</v>
+      </c>
+      <c r="K32">
+        <v>1</v>
+      </c>
+      <c r="L32" s="5">
+        <v>42919</v>
       </c>
     </row>
     <row r="33" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>120</v>
-      </c>
-      <c r="C33">
-        <v>56</v>
-      </c>
+      <c r="B33" s="36"/>
+      <c r="C33" s="1"/>
       <c r="D33" s="1">
-        <v>1</v>
+        <v>645</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>97</v>
+        <v>251</v>
       </c>
       <c r="F33" s="3">
-        <v>0.33700000000000002</v>
+        <v>0.41899999999999998</v>
       </c>
       <c r="G33" s="1" t="s">
         <v>85</v>
@@ -4703,22 +5265,27 @@
       <c r="I33">
         <v>1</v>
       </c>
+      <c r="J33" t="s">
+        <v>77</v>
+      </c>
       <c r="K33">
         <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C34" s="1">
-        <v>82</v>
-      </c>
+      <c r="A34" t="s">
+        <v>247</v>
+      </c>
+      <c r="B34" s="36"/>
+      <c r="C34" s="1"/>
       <c r="D34" s="1">
-        <v>136</v>
+        <v>448</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>148</v>
+        <v>106</v>
       </c>
       <c r="F34" s="3">
-        <v>0.54100000000000004</v>
+        <v>0.52</v>
       </c>
       <c r="G34" s="1" t="s">
         <v>85</v>
@@ -4733,244 +5300,243 @@
         <v>1</v>
       </c>
       <c r="L34" s="4">
-        <v>42924</v>
+        <v>42920</v>
       </c>
     </row>
     <row r="35" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B35" s="36"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1">
-        <v>170</v>
+        <v>442</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="F35" s="3">
-        <v>0.24</v>
+        <v>253</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>85</v>
+        <v>249</v>
       </c>
       <c r="I35">
         <v>1</v>
       </c>
+      <c r="J35" t="s">
+        <v>77</v>
+      </c>
       <c r="K35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L35" s="4">
+        <v>42940</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B36" s="36"/>
+      <c r="C36" s="1">
+        <v>633</v>
+      </c>
+      <c r="D36" s="1">
+        <v>287</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="I36">
+        <v>1</v>
+      </c>
+      <c r="J36" t="s">
+        <v>77</v>
+      </c>
+      <c r="K36">
+        <v>2</v>
+      </c>
+      <c r="L36" s="4">
+        <v>42940</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B37" s="36"/>
+      <c r="C37" s="1">
+        <v>189</v>
+      </c>
+      <c r="D37" s="1">
+        <v>41</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="I37">
+        <v>1</v>
+      </c>
+      <c r="J37" t="s">
+        <v>77</v>
+      </c>
+      <c r="K37">
+        <v>3</v>
+      </c>
+      <c r="L37" s="4">
+        <v>42940</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B38" s="36" t="s">
+        <v>302</v>
+      </c>
+      <c r="C38" s="1">
+        <v>46</v>
+      </c>
+      <c r="D38" s="1">
+        <v>169</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="F38" s="3">
+        <v>0.46200000000000002</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="I38">
+        <v>1</v>
+      </c>
+      <c r="J38" t="s">
+        <v>77</v>
+      </c>
+      <c r="K38">
+        <v>1</v>
+      </c>
+      <c r="L38" s="5">
+        <v>42945</v>
+      </c>
+      <c r="M38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B39" s="36"/>
+      <c r="C39" s="1">
+        <v>47</v>
+      </c>
+      <c r="D39" s="1">
+        <v>299</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="I39">
+        <v>1</v>
+      </c>
+      <c r="J39" t="s">
+        <v>77</v>
+      </c>
+      <c r="K39">
+        <v>2</v>
+      </c>
+      <c r="L39" s="5">
+        <v>42945</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B40" s="37"/>
+      <c r="C40" s="1"/>
+      <c r="E40" s="2"/>
+      <c r="G40" s="1"/>
+      <c r="L40" s="5"/>
+    </row>
+    <row r="41" spans="1:13" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="6"/>
+      <c r="D41" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H41" s="7">
+        <f>SUM(H2:H37)</f>
+        <v>10</v>
+      </c>
+      <c r="I41" s="7">
+        <f>SUM(I2:I33)</f>
+        <v>29</v>
+      </c>
+      <c r="K41" s="7">
+        <f>SUM(K1:K33)</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>119</v>
+      </c>
+      <c r="C42" s="1">
+        <v>56</v>
+      </c>
+      <c r="D42" s="1">
+        <v>1</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="F42" s="3">
+        <v>0.33700000000000002</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="I42">
+        <v>1</v>
+      </c>
+      <c r="K42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B43" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="C43" s="1">
+        <v>82</v>
+      </c>
+      <c r="D43" s="1">
+        <v>136</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="F43" s="3">
+        <v>0.54100000000000004</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="I43">
+        <v>1</v>
+      </c>
+      <c r="J43" t="s">
+        <v>77</v>
+      </c>
+      <c r="K43">
+        <v>1</v>
+      </c>
+      <c r="L43" s="4">
         <v>42924</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C36" s="1">
-        <v>488</v>
-      </c>
-      <c r="D36" s="1">
-        <v>202</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="F36" s="3">
-        <v>0.40400000000000003</v>
-      </c>
-      <c r="G36" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="I36">
-        <v>1</v>
-      </c>
-      <c r="J36" t="s">
-        <v>77</v>
-      </c>
-      <c r="K36">
-        <v>1</v>
-      </c>
-      <c r="L36" s="4">
-        <v>42925</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D37" s="1">
-        <v>204</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="F37" s="3">
-        <v>0.26500000000000001</v>
-      </c>
-      <c r="G37" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="I37">
-        <v>1</v>
-      </c>
-      <c r="J37" t="s">
-        <v>77</v>
-      </c>
-      <c r="K37">
-        <v>1</v>
-      </c>
-      <c r="L37" s="4">
-        <v>42925</v>
-      </c>
-      <c r="M37" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C38" s="1">
-        <v>638</v>
-      </c>
-      <c r="D38" s="1">
-        <v>205</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="F38" s="3">
-        <v>0.33500000000000002</v>
-      </c>
-      <c r="G38" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="I38">
-        <v>1</v>
-      </c>
-      <c r="J38" t="s">
-        <v>77</v>
-      </c>
-      <c r="K38">
-        <v>1</v>
-      </c>
-      <c r="L38" s="4">
-        <v>42925</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C39" s="1"/>
-      <c r="D39" s="1">
-        <v>217</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="F39" s="3">
-        <v>0.45300000000000001</v>
-      </c>
-      <c r="G39" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="I39">
-        <v>1</v>
-      </c>
-      <c r="K39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C40" s="1"/>
-      <c r="D40" s="1">
-        <v>219</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="F40" s="3">
-        <v>0.32200000000000001</v>
-      </c>
-      <c r="G40" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="I40">
-        <v>1</v>
-      </c>
-      <c r="K40">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C41" s="1"/>
-      <c r="D41" s="1">
-        <v>242</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="F41" s="3">
-        <v>0.46100000000000002</v>
-      </c>
-      <c r="G41" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="I41">
-        <v>1</v>
-      </c>
-      <c r="K41">
-        <v>1</v>
-      </c>
-      <c r="L41" s="4">
-        <v>42925</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C42" s="1"/>
-      <c r="D42" s="1">
-        <v>246</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="F42" s="3">
-        <v>0.39500000000000002</v>
-      </c>
-      <c r="G42" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="I42">
-        <v>1</v>
-      </c>
-      <c r="K42">
-        <v>1</v>
-      </c>
-      <c r="L42" s="4">
-        <v>42925</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C43" s="1"/>
-      <c r="D43" s="1">
-        <v>266</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="F43" s="3">
-        <v>0.56599999999999995</v>
-      </c>
-      <c r="G43" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="I43">
-        <v>1</v>
-      </c>
-      <c r="K43">
-        <v>1</v>
-      </c>
-      <c r="L43" s="4">
-        <v>42925</v>
       </c>
     </row>
     <row r="44" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C44" s="1"/>
       <c r="D44" s="1">
-        <v>290</v>
+        <v>170</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F44" s="3">
-        <v>0.32900000000000001</v>
+        <v>0.24</v>
       </c>
       <c r="G44" s="1" t="s">
         <v>85</v>
@@ -4982,21 +5548,21 @@
         <v>1</v>
       </c>
       <c r="L44" s="4">
-        <v>42925</v>
+        <v>42924</v>
       </c>
     </row>
     <row r="45" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C45" s="1">
-        <v>547</v>
+        <v>488</v>
       </c>
       <c r="D45" s="1">
-        <v>349</v>
+        <v>202</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="F45" s="3">
-        <v>0.47</v>
+        <v>0.40400000000000003</v>
       </c>
       <c r="G45" s="1" t="s">
         <v>85</v>
@@ -5004,22 +5570,26 @@
       <c r="I45">
         <v>1</v>
       </c>
+      <c r="J45" t="s">
+        <v>77</v>
+      </c>
       <c r="K45">
         <v>1</v>
       </c>
+      <c r="L45" s="4">
+        <v>42925</v>
+      </c>
     </row>
     <row r="46" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C46" s="1">
-        <v>548</v>
-      </c>
+      <c r="C46" s="1"/>
       <c r="D46" s="1">
-        <v>350</v>
+        <v>204</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>37</v>
+        <v>150</v>
       </c>
       <c r="F46" s="3">
-        <v>0.44500000000000001</v>
+        <v>0.26500000000000001</v>
       </c>
       <c r="G46" s="1" t="s">
         <v>85</v>
@@ -5027,26 +5597,40 @@
       <c r="I46">
         <v>1</v>
       </c>
+      <c r="J46" t="s">
+        <v>77</v>
+      </c>
       <c r="K46">
         <v>1</v>
       </c>
+      <c r="L46" s="4">
+        <v>42925</v>
+      </c>
+      <c r="M46" t="s">
+        <v>180</v>
+      </c>
     </row>
     <row r="47" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C47" s="1"/>
+      <c r="C47" s="1">
+        <v>638</v>
+      </c>
       <c r="D47" s="1">
-        <v>359</v>
+        <v>205</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="F47" s="3">
-        <v>0.59399999999999997</v>
+        <v>0.33500000000000002</v>
       </c>
       <c r="G47" s="1" t="s">
         <v>85</v>
       </c>
       <c r="I47">
         <v>1</v>
+      </c>
+      <c r="J47" t="s">
+        <v>77</v>
       </c>
       <c r="K47">
         <v>1</v>
@@ -5058,13 +5642,13 @@
     <row r="48" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C48" s="1"/>
       <c r="D48" s="1">
-        <v>389</v>
+        <v>217</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>147</v>
+        <v>108</v>
       </c>
       <c r="F48" s="3">
-        <v>0.51500000000000001</v>
+        <v>0.45300000000000001</v>
       </c>
       <c r="G48" s="1" t="s">
         <v>85</v>
@@ -5075,22 +5659,17 @@
       <c r="K48">
         <v>1</v>
       </c>
-      <c r="L48" s="4">
-        <v>42925</v>
-      </c>
-    </row>
-    <row r="49" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C49" s="1">
-        <v>627</v>
-      </c>
+    </row>
+    <row r="49" spans="3:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C49" s="1"/>
       <c r="D49" s="1">
-        <v>409</v>
+        <v>219</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>146</v>
+        <v>110</v>
       </c>
       <c r="F49" s="3">
-        <v>0.45300000000000001</v>
+        <v>0.32200000000000001</v>
       </c>
       <c r="G49" s="1" t="s">
         <v>85</v>
@@ -5098,37 +5677,26 @@
       <c r="I49">
         <v>1</v>
       </c>
-      <c r="J49" t="s">
-        <v>184</v>
-      </c>
       <c r="K49">
         <v>1</v>
       </c>
-      <c r="L49" s="4">
-        <v>42925</v>
-      </c>
-    </row>
-    <row r="50" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C50" s="1">
-        <v>647</v>
-      </c>
+    </row>
+    <row r="50" spans="3:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C50" s="1"/>
       <c r="D50" s="1">
-        <v>438</v>
+        <v>242</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="F50" s="3">
-        <v>0.33500000000000002</v>
+        <v>0.46100000000000002</v>
       </c>
       <c r="G50" s="1" t="s">
         <v>85</v>
       </c>
       <c r="I50">
         <v>1</v>
-      </c>
-      <c r="J50" t="s">
-        <v>77</v>
       </c>
       <c r="K50">
         <v>1</v>
@@ -5137,16 +5705,16 @@
         <v>42925</v>
       </c>
     </row>
-    <row r="51" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="3:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C51" s="1"/>
       <c r="D51" s="1">
-        <v>447</v>
+        <v>246</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="F51" s="3">
-        <v>0.44600000000000001</v>
+        <v>0.39500000000000002</v>
       </c>
       <c r="G51" s="1" t="s">
         <v>85</v>
@@ -5154,26 +5722,23 @@
       <c r="I51">
         <v>1</v>
       </c>
-      <c r="J51" t="s">
-        <v>77</v>
-      </c>
       <c r="K51">
         <v>1</v>
       </c>
       <c r="L51" s="4">
-        <v>42926</v>
-      </c>
-    </row>
-    <row r="52" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>42925</v>
+      </c>
+    </row>
+    <row r="52" spans="3:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C52" s="1"/>
       <c r="D52" s="1">
-        <v>463</v>
+        <v>266</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>143</v>
+        <v>156</v>
       </c>
       <c r="F52" s="3">
-        <v>0.57099999999999995</v>
+        <v>0.56599999999999995</v>
       </c>
       <c r="G52" s="1" t="s">
         <v>85</v>
@@ -5181,26 +5746,23 @@
       <c r="I52">
         <v>1</v>
       </c>
-      <c r="J52" t="s">
-        <v>77</v>
-      </c>
       <c r="K52">
         <v>1</v>
       </c>
       <c r="L52" s="4">
-        <v>42926</v>
-      </c>
-    </row>
-    <row r="53" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>42925</v>
+      </c>
+    </row>
+    <row r="53" spans="3:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C53" s="1"/>
       <c r="D53" s="1">
-        <v>500</v>
+        <v>290</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="F53" s="3">
-        <v>0.6</v>
+        <v>0.32900000000000001</v>
       </c>
       <c r="G53" s="1" t="s">
         <v>85</v>
@@ -5208,26 +5770,25 @@
       <c r="I53">
         <v>1</v>
       </c>
-      <c r="J53" t="s">
-        <v>77</v>
-      </c>
       <c r="K53">
         <v>1</v>
       </c>
       <c r="L53" s="4">
-        <v>42926</v>
-      </c>
-    </row>
-    <row r="54" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C54" s="1"/>
+        <v>42925</v>
+      </c>
+    </row>
+    <row r="54" spans="3:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C54" s="1">
+        <v>547</v>
+      </c>
       <c r="D54" s="1">
-        <v>575</v>
+        <v>349</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>141</v>
+        <v>155</v>
       </c>
       <c r="F54" s="3">
-        <v>0.59399999999999997</v>
+        <v>0.47</v>
       </c>
       <c r="G54" s="1" t="s">
         <v>85</v>
@@ -5238,20 +5799,19 @@
       <c r="K54">
         <v>1</v>
       </c>
-      <c r="L54" s="4">
-        <v>42926</v>
-      </c>
-    </row>
-    <row r="55" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C55" s="1"/>
+    </row>
+    <row r="55" spans="3:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C55" s="1">
+        <v>548</v>
+      </c>
       <c r="D55" s="1">
-        <v>594</v>
+        <v>350</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>140</v>
+        <v>37</v>
       </c>
       <c r="F55" s="3">
-        <v>0.39800000000000002</v>
+        <v>0.44500000000000001</v>
       </c>
       <c r="G55" s="1" t="s">
         <v>85</v>
@@ -5259,26 +5819,20 @@
       <c r="I55">
         <v>1</v>
       </c>
-      <c r="J55" t="s">
-        <v>77</v>
-      </c>
       <c r="K55">
         <v>1</v>
       </c>
-      <c r="L55" s="4">
-        <v>42926</v>
-      </c>
-    </row>
-    <row r="56" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="56" spans="3:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C56" s="1"/>
       <c r="D56" s="1">
-        <v>599</v>
+        <v>359</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="F56" s="3">
-        <v>0.48099999999999998</v>
+        <v>0.59399999999999997</v>
       </c>
       <c r="G56" s="1" t="s">
         <v>85</v>
@@ -5290,633 +5844,867 @@
         <v>1</v>
       </c>
       <c r="L56" s="4">
-        <v>42924</v>
-      </c>
-    </row>
-    <row r="57" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>42925</v>
+      </c>
+    </row>
+    <row r="57" spans="3:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C57" s="1"/>
       <c r="D57" s="1">
+        <v>389</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="F57" s="3">
+        <v>0.51500000000000001</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="I57">
+        <v>1</v>
+      </c>
+      <c r="K57">
+        <v>1</v>
+      </c>
+      <c r="L57" s="4">
+        <v>42925</v>
+      </c>
+    </row>
+    <row r="58" spans="3:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C58" s="1">
+        <v>627</v>
+      </c>
+      <c r="D58" s="1">
+        <v>409</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="F58" s="3">
+        <v>0.45300000000000001</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="I58">
+        <v>1</v>
+      </c>
+      <c r="J58" t="s">
+        <v>181</v>
+      </c>
+      <c r="K58">
+        <v>1</v>
+      </c>
+      <c r="L58" s="4">
+        <v>42925</v>
+      </c>
+    </row>
+    <row r="59" spans="3:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C59" s="1">
+        <v>647</v>
+      </c>
+      <c r="D59" s="1">
+        <v>438</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="F59" s="3">
+        <v>0.33500000000000002</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="I59">
+        <v>2</v>
+      </c>
+      <c r="J59" t="s">
+        <v>77</v>
+      </c>
+      <c r="K59">
+        <v>1</v>
+      </c>
+      <c r="L59" s="4">
+        <v>42925</v>
+      </c>
+      <c r="M59" t="s">
+        <v>297</v>
+      </c>
+      <c r="N59" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="60" spans="3:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C60" s="1"/>
+      <c r="D60" s="1">
+        <v>447</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="F60" s="3">
+        <v>0.44600000000000001</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="I60">
+        <v>1</v>
+      </c>
+      <c r="J60" t="s">
+        <v>77</v>
+      </c>
+      <c r="K60">
+        <v>1</v>
+      </c>
+      <c r="L60" s="4">
+        <v>42926</v>
+      </c>
+    </row>
+    <row r="61" spans="3:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C61" s="1"/>
+      <c r="D61" s="1">
+        <v>463</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="F61" s="3">
+        <v>0.57099999999999995</v>
+      </c>
+      <c r="G61" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="I61">
+        <v>1</v>
+      </c>
+      <c r="J61" t="s">
+        <v>77</v>
+      </c>
+      <c r="K61">
+        <v>1</v>
+      </c>
+      <c r="L61" s="4">
+        <v>42926</v>
+      </c>
+    </row>
+    <row r="62" spans="3:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C62" s="1"/>
+      <c r="D62" s="1">
+        <v>500</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="F62" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="G62" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="I62">
+        <v>1</v>
+      </c>
+      <c r="J62" t="s">
+        <v>77</v>
+      </c>
+      <c r="K62">
+        <v>1</v>
+      </c>
+      <c r="L62" s="4">
+        <v>42926</v>
+      </c>
+    </row>
+    <row r="63" spans="3:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C63" s="1"/>
+      <c r="D63" s="1">
+        <v>575</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="F63" s="3">
+        <v>0.59399999999999997</v>
+      </c>
+      <c r="G63" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="I63">
+        <v>1</v>
+      </c>
+      <c r="K63">
+        <v>1</v>
+      </c>
+      <c r="L63" s="4">
+        <v>42926</v>
+      </c>
+    </row>
+    <row r="64" spans="3:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C64" s="1"/>
+      <c r="D64" s="1">
+        <v>594</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="F64" s="3">
+        <v>0.39800000000000002</v>
+      </c>
+      <c r="G64" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="I64">
+        <v>1</v>
+      </c>
+      <c r="J64" t="s">
+        <v>77</v>
+      </c>
+      <c r="K64">
+        <v>1</v>
+      </c>
+      <c r="L64" s="4">
+        <v>42926</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C65" s="1"/>
+      <c r="D65" s="1">
+        <v>599</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="F65" s="3">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="G65" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="I65">
+        <v>1</v>
+      </c>
+      <c r="K65">
+        <v>1</v>
+      </c>
+      <c r="L65" s="4">
+        <v>42924</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C66" s="1"/>
+      <c r="D66" s="1">
         <v>624</v>
       </c>
-      <c r="E57" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="F57" s="3">
+      <c r="E66" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="F66" s="3">
         <v>0.32600000000000001</v>
       </c>
-      <c r="G57" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="I57">
-        <v>1</v>
-      </c>
-      <c r="J57" t="s">
-        <v>77</v>
-      </c>
-      <c r="K57">
-        <v>1</v>
-      </c>
-      <c r="L57" s="4">
+      <c r="G66" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="I66">
+        <v>1</v>
+      </c>
+      <c r="J66" t="s">
+        <v>77</v>
+      </c>
+      <c r="K66">
+        <v>1</v>
+      </c>
+      <c r="L66" s="4">
         <v>42926</v>
       </c>
     </row>
-    <row r="58" spans="1:12" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="6"/>
-      <c r="D58" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="H58" s="7">
-        <f>SUM(H33:H57)</f>
-        <v>0</v>
-      </c>
-      <c r="I58" s="7">
-        <f>SUM(I33:I57)</f>
-        <v>25</v>
-      </c>
-      <c r="K58" s="7">
-        <f>SUM(K33:K57)</f>
-        <v>25</v>
-      </c>
-    </row>
-    <row r="59" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="60" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D60" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="E60" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="F60" s="3">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="G60" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="K60">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B61" t="s">
-        <v>222</v>
-      </c>
-      <c r="C61" s="1">
-        <v>13</v>
-      </c>
-      <c r="D61" s="1">
-        <v>28</v>
-      </c>
-      <c r="E61" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="F61" s="3">
-        <v>0.27900000000000003</v>
-      </c>
-      <c r="G61" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="I61">
-        <v>1</v>
-      </c>
-      <c r="J61" t="s">
-        <v>77</v>
-      </c>
-      <c r="K61">
-        <v>1</v>
-      </c>
-      <c r="L61" s="4">
-        <v>42934</v>
-      </c>
-    </row>
-    <row r="62" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="63" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C63" s="1"/>
-    </row>
-    <row r="64" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="65" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D65" s="1">
-        <v>551</v>
-      </c>
-      <c r="E65" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="F65" s="3">
-        <v>0.437</v>
-      </c>
-      <c r="G65" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="K65">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C66" s="1">
-        <v>77</v>
-      </c>
-      <c r="D66" s="1">
-        <v>521</v>
-      </c>
-      <c r="E66" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="F66" s="3">
-        <v>0.54800000000000004</v>
-      </c>
-      <c r="G66" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="K66">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C67" s="1">
-        <v>419</v>
-      </c>
-      <c r="D67" s="1">
-        <v>13</v>
-      </c>
-      <c r="E67" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="F67" s="3">
-        <v>0.45400000000000001</v>
-      </c>
-      <c r="G67" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="K67">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C68" s="1">
-        <v>78</v>
-      </c>
-      <c r="D68" s="1">
-        <v>14</v>
-      </c>
-      <c r="E68" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="F68" s="3">
-        <v>0.314</v>
-      </c>
-      <c r="G68" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="K68">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C67" s="1"/>
+      <c r="D67" s="1"/>
+      <c r="E67" s="2"/>
+      <c r="F67" s="3"/>
+      <c r="G67" s="1"/>
+      <c r="L67" s="4"/>
+    </row>
+    <row r="68" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C68" s="1"/>
+      <c r="D68" s="1"/>
+      <c r="E68" s="2"/>
+      <c r="F68" s="3"/>
+      <c r="G68" s="1"/>
+      <c r="L68" s="4"/>
+    </row>
+    <row r="69" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C69" s="1"/>
       <c r="D69" s="1">
+        <v>645</v>
+      </c>
+      <c r="E69" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="F69" s="3">
+        <v>0.41899999999999998</v>
+      </c>
+      <c r="G69" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="H69" s="30"/>
+      <c r="I69" s="30"/>
+      <c r="J69" s="30"/>
+      <c r="K69" s="30"/>
+      <c r="L69" s="30"/>
+    </row>
+    <row r="70" spans="1:12" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="6"/>
+      <c r="D70" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H70" s="7">
+        <f>SUM(H42:H66)</f>
+        <v>0</v>
+      </c>
+      <c r="I70" s="7">
+        <f>SUM(I42:I66)</f>
+        <v>26</v>
+      </c>
+      <c r="K70" s="7">
+        <f>SUM(K42:K66)</f>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D72" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="E72" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="F72" s="3">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="G72" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="K72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B73" t="s">
+        <v>219</v>
+      </c>
+      <c r="C73" s="1">
+        <v>13</v>
+      </c>
+      <c r="D73" s="1">
+        <v>28</v>
+      </c>
+      <c r="E73" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="F73" s="3">
+        <v>0.27900000000000003</v>
+      </c>
+      <c r="G73" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="I73">
+        <v>1</v>
+      </c>
+      <c r="J73" t="s">
+        <v>77</v>
+      </c>
+      <c r="K73">
+        <v>1</v>
+      </c>
+      <c r="L73" s="4">
+        <v>42934</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D74" s="1">
+        <v>551</v>
+      </c>
+      <c r="E74" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="F74" s="3">
+        <v>0.437</v>
+      </c>
+      <c r="G74" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="I74">
+        <v>1</v>
+      </c>
+      <c r="J74" t="s">
+        <v>77</v>
+      </c>
+      <c r="K74">
+        <v>1</v>
+      </c>
+      <c r="L74" s="4">
+        <v>42941</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C75" s="1">
+        <v>77</v>
+      </c>
+      <c r="D75" s="1">
+        <v>521</v>
+      </c>
+      <c r="E75" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="F75" s="3">
+        <v>0.54800000000000004</v>
+      </c>
+      <c r="G75" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="I75">
+        <v>1</v>
+      </c>
+      <c r="K75">
+        <v>1</v>
+      </c>
+      <c r="L75" s="4">
+        <v>42941</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C76" s="1">
+        <v>419</v>
+      </c>
+      <c r="D76" s="1">
+        <v>13</v>
+      </c>
+      <c r="E76" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="F76" s="3">
+        <v>0.45400000000000001</v>
+      </c>
+      <c r="G76" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="K76">
+        <v>1</v>
+      </c>
+      <c r="L76" s="4"/>
+    </row>
+    <row r="77" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C77" s="1">
+        <v>78</v>
+      </c>
+      <c r="D77" s="1">
+        <v>14</v>
+      </c>
+      <c r="E77" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="F77" s="3">
+        <v>0.314</v>
+      </c>
+      <c r="G77" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="I77">
+        <v>1</v>
+      </c>
+      <c r="K77">
+        <v>1</v>
+      </c>
+      <c r="L77" s="4">
+        <v>42941</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C78" s="1"/>
+      <c r="D78" s="1">
         <v>520</v>
       </c>
-      <c r="E69" s="2" t="s">
+      <c r="E78" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="F78" s="3">
+        <v>0.52100000000000002</v>
+      </c>
+      <c r="G78" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="I78">
+        <v>1</v>
+      </c>
+      <c r="K78">
+        <v>1</v>
+      </c>
+      <c r="L78" s="4">
+        <v>42934</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B79" t="s">
+        <v>258</v>
+      </c>
+      <c r="C79" s="1">
+        <v>423</v>
+      </c>
+      <c r="D79" s="1">
+        <v>20</v>
+      </c>
+      <c r="E79" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="F79" s="3">
+        <v>0.33300000000000002</v>
+      </c>
+      <c r="G79" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="I79">
+        <v>1</v>
+      </c>
+      <c r="J79" t="s">
+        <v>77</v>
+      </c>
+      <c r="K79">
+        <v>1</v>
+      </c>
+      <c r="L79" s="4">
+        <v>42941</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B80" t="s">
+        <v>259</v>
+      </c>
+      <c r="C80" s="1"/>
+      <c r="D80" s="1">
+        <v>459</v>
+      </c>
+      <c r="E80" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="F80" s="3">
+        <v>0.38100000000000001</v>
+      </c>
+      <c r="G80" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="I80">
+        <v>1</v>
+      </c>
+      <c r="J80" t="s">
+        <v>77</v>
+      </c>
+      <c r="K80">
+        <v>1</v>
+      </c>
+      <c r="L80" s="4">
+        <v>42941</v>
+      </c>
+    </row>
+    <row r="81" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C81" s="1"/>
+      <c r="D81" s="1">
+        <v>606</v>
+      </c>
+      <c r="E81" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="F69" s="3">
-        <v>0.52100000000000002</v>
-      </c>
-      <c r="G69" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="I69">
-        <v>1</v>
-      </c>
-      <c r="K69">
-        <v>1</v>
-      </c>
-      <c r="L69" s="4">
+      <c r="F81" s="3">
+        <v>0.51400000000000001</v>
+      </c>
+      <c r="G81" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="I81">
+        <v>1</v>
+      </c>
+      <c r="J81" t="s">
+        <v>77</v>
+      </c>
+      <c r="K81">
+        <v>1</v>
+      </c>
+      <c r="L81" s="4">
+        <v>42942</v>
+      </c>
+    </row>
+    <row r="82" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C82" s="1"/>
+      <c r="D82" s="1">
+        <v>434</v>
+      </c>
+      <c r="E82" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="F82" s="3">
+        <v>0.36799999999999999</v>
+      </c>
+      <c r="G82" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="I82">
+        <v>1</v>
+      </c>
+      <c r="J82" t="s">
+        <v>77</v>
+      </c>
+      <c r="K82">
+        <v>1</v>
+      </c>
+      <c r="L82" s="4">
+        <v>42941</v>
+      </c>
+    </row>
+    <row r="83" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C83" s="1"/>
+      <c r="D83" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="E83" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="F83" s="3">
+        <v>0.27900000000000003</v>
+      </c>
+      <c r="G83" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="K83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C84" s="1">
+        <v>420</v>
+      </c>
+      <c r="D84" s="1">
+        <v>38</v>
+      </c>
+      <c r="E84" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="F84" s="3">
+        <v>0.34300000000000003</v>
+      </c>
+      <c r="G84" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="I84">
+        <v>1</v>
+      </c>
+      <c r="K84">
+        <v>1</v>
+      </c>
+      <c r="L84" s="4">
+        <v>42942</v>
+      </c>
+    </row>
+    <row r="85" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B85" t="s">
+        <v>119</v>
+      </c>
+      <c r="C85" s="1"/>
+      <c r="D85" s="1">
+        <v>383</v>
+      </c>
+      <c r="E85" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="F85" s="3">
+        <v>0.47099999999999997</v>
+      </c>
+      <c r="G85" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="I85">
+        <v>1</v>
+      </c>
+      <c r="K85">
+        <v>1</v>
+      </c>
+      <c r="L85" s="4">
         <v>42934</v>
       </c>
     </row>
-    <row r="70" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C70" s="1">
-        <v>423</v>
-      </c>
-      <c r="D70" s="1">
-        <v>20</v>
-      </c>
-      <c r="E70" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="F70" s="3">
-        <v>0.33300000000000002</v>
-      </c>
-      <c r="G70" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="K70">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C71" s="1"/>
-      <c r="D71" s="1">
-        <v>459</v>
-      </c>
-      <c r="E71" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="F71" s="3">
-        <v>0.38100000000000001</v>
-      </c>
-      <c r="G71" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="K71">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="72" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C72" s="1"/>
-      <c r="D72" s="1">
-        <v>606</v>
-      </c>
-      <c r="E72" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="F72" s="3">
-        <v>0.51400000000000001</v>
-      </c>
-      <c r="G72" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="K72">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="73" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C73" s="1"/>
-      <c r="D73" s="1">
-        <v>434</v>
-      </c>
-      <c r="E73" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="F73" s="3">
-        <v>0.36799999999999999</v>
-      </c>
-      <c r="G73" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="K73">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C74" s="1"/>
-      <c r="D74" s="1">
+    <row r="86" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C86" s="1"/>
+      <c r="D86" s="1">
+        <v>345</v>
+      </c>
+      <c r="E86" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="F86" s="3">
+        <v>0.38400000000000001</v>
+      </c>
+      <c r="G86" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="I86">
+        <v>1</v>
+      </c>
+      <c r="J86" t="s">
+        <v>77</v>
+      </c>
+      <c r="K86">
+        <v>1</v>
+      </c>
+      <c r="L86" s="4">
+        <v>42942</v>
+      </c>
+    </row>
+    <row r="87" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C87" s="1">
+        <v>422</v>
+      </c>
+      <c r="D87" s="1">
+        <v>58</v>
+      </c>
+      <c r="E87" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="F87" s="3">
+        <v>0.318</v>
+      </c>
+      <c r="G87" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="I87">
+        <v>1</v>
+      </c>
+      <c r="K87">
+        <v>1</v>
+      </c>
+      <c r="L87" s="4">
+        <v>42942</v>
+      </c>
+    </row>
+    <row r="88" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C88" s="1"/>
+      <c r="D88" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="E88" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="F88" s="3">
+        <v>0.55500000000000005</v>
+      </c>
+      <c r="G88" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="K88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B89" t="s">
+        <v>250</v>
+      </c>
+      <c r="C89" s="1">
         <v>408</v>
       </c>
-      <c r="E74" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="F74" s="3">
-        <v>0.27900000000000003</v>
-      </c>
-      <c r="G74" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="K74">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="75" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C75" s="1">
-        <v>420</v>
-      </c>
-      <c r="D75" s="1">
-        <v>38</v>
-      </c>
-      <c r="E75" s="2" t="s">
+      <c r="D89" s="1">
+        <v>67</v>
+      </c>
+      <c r="E89" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="F89" s="3">
+        <v>0.32100000000000001</v>
+      </c>
+      <c r="G89" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="I89">
+        <v>1</v>
+      </c>
+      <c r="J89" t="s">
+        <v>261</v>
+      </c>
+      <c r="K89">
+        <v>1</v>
+      </c>
+      <c r="L89" s="4">
+        <v>42942</v>
+      </c>
+    </row>
+    <row r="90" spans="2:12" ht="18" x14ac:dyDescent="0.2">
+      <c r="C90" s="1">
+        <v>415</v>
+      </c>
+      <c r="D90" s="1">
+        <v>125</v>
+      </c>
+      <c r="E90" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="F90" s="3">
+        <v>0.26100000000000001</v>
+      </c>
+      <c r="G90" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="I90">
+        <v>1</v>
+      </c>
+      <c r="J90" t="s">
+        <v>77</v>
+      </c>
+      <c r="K90">
+        <v>1</v>
+      </c>
+      <c r="L90" s="4">
+        <v>42942</v>
+      </c>
+    </row>
+    <row r="91" spans="2:12" s="24" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="C91" s="25"/>
+      <c r="D91" s="25">
+        <v>344</v>
+      </c>
+      <c r="E91" s="26" t="s">
         <v>209</v>
       </c>
-      <c r="F75" s="3">
-        <v>0.34300000000000003</v>
-      </c>
-      <c r="G75" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="K75">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="76" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B76" t="s">
-        <v>120</v>
-      </c>
-      <c r="C76" s="1"/>
-      <c r="D76" s="1">
-        <v>383</v>
-      </c>
-      <c r="E76" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="F76" s="3">
-        <v>0.47099999999999997</v>
-      </c>
-      <c r="G76" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="I76">
-        <v>1</v>
-      </c>
-      <c r="K76">
-        <v>1</v>
-      </c>
-      <c r="L76" s="4">
+      <c r="F91" s="27">
+        <v>0.59</v>
+      </c>
+      <c r="G91" s="25" t="s">
+        <v>85</v>
+      </c>
+      <c r="I91" s="24">
+        <v>1</v>
+      </c>
+      <c r="K91" s="24">
+        <v>1</v>
+      </c>
+      <c r="L91" s="28">
         <v>42934</v>
       </c>
     </row>
-    <row r="77" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C77" s="1"/>
-      <c r="D77" s="1">
-        <v>345</v>
-      </c>
-      <c r="E77" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="F77" s="3">
-        <v>0.38400000000000001</v>
-      </c>
-      <c r="G77" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="K77">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="78" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C78" s="1">
-        <v>422</v>
-      </c>
-      <c r="D78" s="1">
-        <v>58</v>
-      </c>
-      <c r="E78" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="F78" s="3">
-        <v>0.318</v>
-      </c>
-      <c r="G78" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="K78">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="79" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C79" s="1"/>
-      <c r="D79" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="E79" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="F79" s="3">
-        <v>0.55500000000000005</v>
-      </c>
-      <c r="G79" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="K79">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="80" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C80" s="1">
-        <v>408</v>
-      </c>
-      <c r="D80" s="1">
-        <v>67</v>
-      </c>
-      <c r="E80" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="F80" s="3">
-        <v>0.32100000000000001</v>
-      </c>
-      <c r="G80" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="K80">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="81" spans="1:24" ht="18" x14ac:dyDescent="0.2">
-      <c r="C81" s="1">
-        <v>415</v>
-      </c>
-      <c r="D81" s="1">
-        <v>125</v>
-      </c>
-      <c r="E81" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="F81" s="3">
-        <v>0.26100000000000001</v>
-      </c>
-      <c r="G81" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="K81">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="82" spans="1:24" s="24" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="C82" s="25"/>
-      <c r="D82" s="25">
-        <v>344</v>
-      </c>
-      <c r="E82" s="26" t="s">
-        <v>212</v>
-      </c>
-      <c r="F82" s="27">
-        <v>0.59</v>
-      </c>
-      <c r="G82" s="25" t="s">
-        <v>85</v>
-      </c>
-      <c r="I82" s="24">
-        <v>1</v>
-      </c>
-      <c r="K82" s="24">
-        <v>1</v>
-      </c>
-      <c r="L82" s="28">
-        <v>42934</v>
-      </c>
-    </row>
-    <row r="83" spans="1:24" ht="18" x14ac:dyDescent="0.2">
-      <c r="B83" t="s">
-        <v>224</v>
-      </c>
-      <c r="C83" s="1"/>
-      <c r="D83" s="1">
-        <v>541</v>
-      </c>
-      <c r="E83" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="F83" s="3">
-        <v>0.44</v>
-      </c>
-      <c r="G83" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="I83">
-        <v>1</v>
-      </c>
-      <c r="K83">
-        <v>1</v>
-      </c>
-      <c r="L83" s="4">
-        <v>42934</v>
-      </c>
-    </row>
-    <row r="84" spans="1:24" ht="18" x14ac:dyDescent="0.2">
-      <c r="C84" s="1">
-        <v>53</v>
-      </c>
-      <c r="D84" s="1">
-        <v>557</v>
-      </c>
-      <c r="E84" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="F84" s="3">
-        <v>0.59799999999999998</v>
-      </c>
-      <c r="G84" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="I84">
-        <v>1</v>
-      </c>
-      <c r="K84">
-        <v>1</v>
-      </c>
-      <c r="L84" s="4">
-        <v>42934</v>
-      </c>
-    </row>
-    <row r="89" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A89" s="8"/>
-      <c r="B89" s="8"/>
-      <c r="C89" s="8"/>
-      <c r="D89" s="8"/>
-      <c r="E89" s="8"/>
-      <c r="F89" s="8"/>
-      <c r="G89" s="8"/>
-      <c r="H89" s="8"/>
-      <c r="I89" s="8">
-        <f>SUM(I60:I84)</f>
-        <v>6</v>
-      </c>
-      <c r="J89" s="8"/>
-      <c r="K89" s="8">
-        <f>SUM(K60:K88)</f>
-        <v>22</v>
-      </c>
-      <c r="L89" s="8"/>
-      <c r="M89" s="8"/>
-      <c r="N89" s="8"/>
-      <c r="O89" s="8"/>
-      <c r="P89" s="8"/>
-      <c r="Q89" s="8"/>
-      <c r="R89" s="8"/>
-      <c r="S89" s="8"/>
-      <c r="T89" s="8"/>
-      <c r="U89" s="8"/>
-      <c r="V89" s="8"/>
-      <c r="W89" s="8"/>
-      <c r="X89" s="8"/>
-    </row>
-    <row r="90" spans="1:24" ht="18" x14ac:dyDescent="0.2">
-      <c r="A90" t="s">
-        <v>123</v>
-      </c>
-      <c r="C90" s="1"/>
-      <c r="D90" s="1">
-        <v>141</v>
-      </c>
-      <c r="E90" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="F90" s="3">
-        <v>0.35399999999999998</v>
-      </c>
-      <c r="G90" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="I90">
-        <v>1</v>
-      </c>
-      <c r="J90" t="s">
-        <v>77</v>
-      </c>
-      <c r="K90">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="91" spans="1:24" s="8" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A91"/>
-      <c r="B91"/>
-      <c r="C91" s="1"/>
-      <c r="D91" s="1">
-        <v>237</v>
-      </c>
-      <c r="E91" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="F91" s="3">
-        <v>0.46300000000000002</v>
-      </c>
-      <c r="G91" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="H91"/>
-      <c r="I91">
-        <v>1</v>
-      </c>
-      <c r="J91"/>
-      <c r="K91">
-        <v>1</v>
-      </c>
-      <c r="L91"/>
-      <c r="M91"/>
-      <c r="N91"/>
-      <c r="O91"/>
-      <c r="P91"/>
-      <c r="Q91"/>
-      <c r="R91"/>
-      <c r="S91"/>
-      <c r="T91"/>
-      <c r="U91"/>
-      <c r="V91"/>
-      <c r="W91"/>
-      <c r="X91"/>
-    </row>
-    <row r="92" spans="1:24" ht="18" x14ac:dyDescent="0.2">
+    <row r="92" spans="2:12" ht="18" x14ac:dyDescent="0.2">
+      <c r="B92" t="s">
+        <v>221</v>
+      </c>
       <c r="C92" s="1"/>
       <c r="D92" s="1">
-        <v>83</v>
+        <v>541</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>219</v>
+        <v>196</v>
       </c>
       <c r="F92" s="3">
-        <v>0.39700000000000002</v>
+        <v>0.44</v>
       </c>
       <c r="G92" s="1" t="s">
         <v>85</v>
@@ -5927,17 +6715,22 @@
       <c r="K92">
         <v>1</v>
       </c>
-    </row>
-    <row r="93" spans="1:24" ht="18" x14ac:dyDescent="0.2">
-      <c r="C93" s="1"/>
+      <c r="L92" s="4">
+        <v>42934</v>
+      </c>
+    </row>
+    <row r="93" spans="2:12" ht="18" x14ac:dyDescent="0.2">
+      <c r="C93" s="1">
+        <v>53</v>
+      </c>
       <c r="D93" s="1">
-        <v>160</v>
+        <v>557</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>168</v>
+        <v>194</v>
       </c>
       <c r="F93" s="3">
-        <v>0.30499999999999999</v>
+        <v>0.59799999999999998</v>
       </c>
       <c r="G93" s="1" t="s">
         <v>85</v>
@@ -5945,101 +6738,11 @@
       <c r="I93">
         <v>1</v>
       </c>
-      <c r="J93" t="s">
-        <v>77</v>
-      </c>
       <c r="K93">
         <v>1</v>
       </c>
-    </row>
-    <row r="94" spans="1:24" ht="18" x14ac:dyDescent="0.2">
-      <c r="C94" s="1"/>
-      <c r="D94" s="1">
-        <v>203</v>
-      </c>
-      <c r="E94" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="F94" s="3">
-        <v>0.32200000000000001</v>
-      </c>
-      <c r="G94" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="I94">
-        <v>1</v>
-      </c>
-      <c r="K94">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="95" spans="1:24" ht="18" x14ac:dyDescent="0.2">
-      <c r="C95" s="1"/>
-      <c r="D95" s="1">
-        <v>206</v>
-      </c>
-      <c r="E95" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="F95" s="3">
-        <v>0.45200000000000001</v>
-      </c>
-      <c r="G95" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="I95">
-        <v>1</v>
-      </c>
-      <c r="J95" t="s">
-        <v>77</v>
-      </c>
-      <c r="K95">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="96" spans="1:24" ht="18" x14ac:dyDescent="0.2">
-      <c r="C96" s="1"/>
-      <c r="D96" s="1">
-        <v>234</v>
-      </c>
-      <c r="E96" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="F96" s="3">
-        <v>0.32600000000000001</v>
-      </c>
-      <c r="G96" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="I96">
-        <v>1</v>
-      </c>
-      <c r="J96" t="s">
-        <v>77</v>
-      </c>
-      <c r="K96">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="97" spans="1:24" ht="18" x14ac:dyDescent="0.2">
-      <c r="C97" s="1"/>
-      <c r="D97" s="1">
-        <v>21</v>
-      </c>
-      <c r="E97" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="F97" s="3">
-        <v>0.39</v>
-      </c>
-      <c r="G97" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="I97">
-        <v>1</v>
-      </c>
-      <c r="K97">
-        <v>1</v>
+      <c r="L93" s="4">
+        <v>42934</v>
       </c>
     </row>
     <row r="98" spans="1:24" x14ac:dyDescent="0.2">
@@ -6052,11 +6755,14 @@
       <c r="G98" s="8"/>
       <c r="H98" s="8"/>
       <c r="I98" s="8">
-        <f>SUM(I90:I97)</f>
-        <v>8</v>
+        <f>SUM(I72:I93)</f>
+        <v>18</v>
       </c>
       <c r="J98" s="8"/>
-      <c r="K98" s="8"/>
+      <c r="K98" s="8">
+        <f>SUM(K72:K97)</f>
+        <v>22</v>
+      </c>
       <c r="L98" s="8"/>
       <c r="M98" s="8"/>
       <c r="N98" s="8"/>
@@ -6071,105 +6777,714 @@
       <c r="W98" s="8"/>
       <c r="X98" s="8"/>
     </row>
-    <row r="99" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="H99">
-        <f>COUNTA(H2:H30)</f>
+    <row r="99" spans="1:24" ht="18" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
+        <v>121</v>
+      </c>
+      <c r="C99" s="1"/>
+      <c r="D99" s="1">
+        <v>141</v>
+      </c>
+      <c r="E99" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="F99" s="3">
+        <v>0.35399999999999998</v>
+      </c>
+      <c r="G99" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="I99">
+        <v>1</v>
+      </c>
+      <c r="J99" t="s">
+        <v>77</v>
+      </c>
+      <c r="K99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:24" s="8" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A100"/>
+      <c r="B100"/>
+      <c r="C100" s="1"/>
+      <c r="D100" s="1">
+        <v>237</v>
+      </c>
+      <c r="E100" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="F100" s="3">
+        <v>0.46300000000000002</v>
+      </c>
+      <c r="G100" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="H100"/>
+      <c r="I100">
+        <v>1</v>
+      </c>
+      <c r="J100"/>
+      <c r="K100">
+        <v>1</v>
+      </c>
+      <c r="L100"/>
+      <c r="M100"/>
+      <c r="N100"/>
+      <c r="O100"/>
+      <c r="P100"/>
+      <c r="Q100"/>
+      <c r="R100"/>
+      <c r="S100"/>
+      <c r="T100"/>
+      <c r="U100"/>
+      <c r="V100"/>
+      <c r="W100"/>
+      <c r="X100"/>
+    </row>
+    <row r="101" spans="1:24" ht="18" x14ac:dyDescent="0.2">
+      <c r="C101" s="1"/>
+      <c r="D101" s="1">
+        <v>83</v>
+      </c>
+      <c r="E101" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="F101" s="3">
+        <v>0.39700000000000002</v>
+      </c>
+      <c r="G101" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="I101">
+        <v>1</v>
+      </c>
+      <c r="K101">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:24" ht="18" x14ac:dyDescent="0.2">
+      <c r="C102" s="1"/>
+      <c r="D102" s="1">
+        <v>160</v>
+      </c>
+      <c r="E102" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="F102" s="3">
+        <v>0.30499999999999999</v>
+      </c>
+      <c r="G102" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="I102">
+        <v>1</v>
+      </c>
+      <c r="J102" t="s">
+        <v>77</v>
+      </c>
+      <c r="K102">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:24" ht="18" x14ac:dyDescent="0.2">
+      <c r="C103" s="1"/>
+      <c r="D103" s="1">
+        <v>203</v>
+      </c>
+      <c r="E103" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="F103" s="3">
+        <v>0.32200000000000001</v>
+      </c>
+      <c r="G103" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="I103">
+        <v>1</v>
+      </c>
+      <c r="K103">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:24" ht="18" x14ac:dyDescent="0.2">
+      <c r="C104" s="1"/>
+      <c r="D104" s="1">
+        <v>206</v>
+      </c>
+      <c r="E104" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="F104" s="3">
+        <v>0.45200000000000001</v>
+      </c>
+      <c r="G104" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="I104">
+        <v>1</v>
+      </c>
+      <c r="J104" t="s">
+        <v>77</v>
+      </c>
+      <c r="K104">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:24" ht="18" x14ac:dyDescent="0.2">
+      <c r="C105" s="1"/>
+      <c r="D105" s="1">
+        <v>234</v>
+      </c>
+      <c r="E105" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="F105" s="3">
+        <v>0.32600000000000001</v>
+      </c>
+      <c r="G105" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="I105">
+        <v>1</v>
+      </c>
+      <c r="J105" t="s">
+        <v>77</v>
+      </c>
+      <c r="K105">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:24" ht="18" x14ac:dyDescent="0.2">
+      <c r="C106" s="1"/>
+      <c r="D106" s="1">
+        <v>21</v>
+      </c>
+      <c r="E106" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="F106" s="3">
+        <v>0.39</v>
+      </c>
+      <c r="G106" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="I106">
+        <v>1</v>
+      </c>
+      <c r="K106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A107" s="8"/>
+      <c r="B107" s="8"/>
+      <c r="C107" s="8"/>
+      <c r="D107" s="8"/>
+      <c r="E107" s="8"/>
+      <c r="F107" s="8"/>
+      <c r="G107" s="8"/>
+      <c r="H107" s="8"/>
+      <c r="I107" s="8">
+        <f>SUM(I99:I106)</f>
+        <v>8</v>
+      </c>
+      <c r="J107" s="8"/>
+      <c r="K107" s="8"/>
+      <c r="L107" s="8"/>
+      <c r="M107" s="8"/>
+      <c r="N107" s="8"/>
+      <c r="O107" s="8"/>
+      <c r="P107" s="8"/>
+      <c r="Q107" s="8"/>
+      <c r="R107" s="8"/>
+      <c r="S107" s="8"/>
+      <c r="T107" s="8"/>
+      <c r="U107" s="8"/>
+      <c r="V107" s="8"/>
+      <c r="W107" s="8"/>
+      <c r="X107" s="8"/>
+    </row>
+    <row r="108" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="H108">
+        <f>COUNTA(H2:H31)</f>
         <v>10</v>
       </c>
-      <c r="I99">
-        <f>I32+I58+I89+I98</f>
-        <v>68</v>
+    </row>
+    <row r="109" spans="1:24" ht="18" x14ac:dyDescent="0.2">
+      <c r="A109" t="s">
+        <v>223</v>
+      </c>
+      <c r="C109">
+        <v>155</v>
+      </c>
+      <c r="D109" s="1">
+        <v>111</v>
+      </c>
+      <c r="E109" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="F109" s="3">
+        <v>0.33</v>
+      </c>
+      <c r="G109" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="110" spans="1:24" ht="18" x14ac:dyDescent="0.2">
+      <c r="C110" s="1">
+        <v>88</v>
+      </c>
+      <c r="D110" s="1">
+        <v>235</v>
+      </c>
+      <c r="E110" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="F110" s="3">
+        <v>0.38900000000000001</v>
+      </c>
+      <c r="G110" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="111" spans="1:24" ht="18" x14ac:dyDescent="0.2">
+      <c r="C111" s="1"/>
+      <c r="D111" s="1">
+        <v>270</v>
+      </c>
+      <c r="E111" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="F111" s="3">
+        <v>0.39200000000000002</v>
+      </c>
+      <c r="G111" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="112" spans="1:24" ht="18" x14ac:dyDescent="0.2">
+      <c r="C112" s="1"/>
+      <c r="D112" s="1">
+        <v>606</v>
+      </c>
+      <c r="E112" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="F112" s="3">
+        <v>0.51300000000000001</v>
+      </c>
+      <c r="G112" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="113" spans="3:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="C113" s="1"/>
+      <c r="D113" s="1">
+        <v>501</v>
+      </c>
+      <c r="E113" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="F113" s="3">
+        <v>0.38100000000000001</v>
+      </c>
+      <c r="G113" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="114" spans="3:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="C114" s="1"/>
+      <c r="D114" s="1">
+        <v>543</v>
+      </c>
+      <c r="E114" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="F114" s="3">
+        <v>0.434</v>
+      </c>
+      <c r="G114" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="115" spans="3:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="C115" s="1"/>
+      <c r="D115" s="1">
+        <v>437</v>
+      </c>
+      <c r="E115" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="F115" s="3">
+        <v>0.39800000000000002</v>
+      </c>
+      <c r="G115" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="116" spans="3:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="C116" s="1"/>
+      <c r="D116" s="1">
+        <v>404</v>
+      </c>
+      <c r="E116" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="F116" s="3">
+        <v>0.46899999999999997</v>
+      </c>
+      <c r="G116" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="117" spans="3:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="C117" s="1"/>
+      <c r="D117" s="1">
+        <v>538</v>
+      </c>
+      <c r="E117" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="F117" s="3">
+        <v>0.51900000000000002</v>
+      </c>
+      <c r="G117" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="118" spans="3:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="C118" s="1"/>
+      <c r="D118" s="1">
+        <v>637</v>
+      </c>
+      <c r="E118" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="F118" s="3">
+        <v>0.58499999999999996</v>
+      </c>
+      <c r="G118" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="119" spans="3:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="C119" s="1"/>
+      <c r="D119" s="1">
+        <v>112</v>
+      </c>
+      <c r="E119" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="F119" s="3">
+        <v>0.33800000000000002</v>
+      </c>
+      <c r="G119" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="120" spans="3:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="C120" s="1"/>
+      <c r="D120" s="1">
+        <v>257</v>
+      </c>
+      <c r="E120" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="F120" s="3">
+        <v>0.38</v>
+      </c>
+      <c r="G120" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="121" spans="3:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="C121" s="1"/>
+      <c r="D121" s="1">
+        <v>110</v>
+      </c>
+      <c r="E121" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="F121" s="3">
+        <v>0.373</v>
+      </c>
+      <c r="G121" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="122" spans="3:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="C122" s="1"/>
+      <c r="D122" s="1">
+        <v>108</v>
+      </c>
+      <c r="E122" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="F122" s="3">
+        <v>0.41899999999999998</v>
+      </c>
+      <c r="G122" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="123" spans="3:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="C123" s="1"/>
+      <c r="D123" s="1">
+        <v>107</v>
+      </c>
+      <c r="E123" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="F123" s="3">
+        <v>0.39900000000000002</v>
+      </c>
+      <c r="G123" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="124" spans="3:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="C124" s="1"/>
+      <c r="D124" s="1">
+        <v>226</v>
+      </c>
+      <c r="E124" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="F124" s="3">
+        <v>0.51600000000000001</v>
+      </c>
+      <c r="G124" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="125" spans="3:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="C125" s="1"/>
+      <c r="D125" s="1">
+        <v>572</v>
+      </c>
+      <c r="E125" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="F125" s="3">
+        <v>0.40799999999999997</v>
+      </c>
+      <c r="G125" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="126" spans="3:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="C126" s="1"/>
+      <c r="D126" s="1">
+        <v>104</v>
+      </c>
+      <c r="E126" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="F126" s="3">
+        <v>0.52400000000000002</v>
+      </c>
+      <c r="G126" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="127" spans="3:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="C127" s="1"/>
+      <c r="D127" s="1">
+        <v>563</v>
+      </c>
+      <c r="E127" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="F127" s="3">
+        <v>0.46899999999999997</v>
+      </c>
+      <c r="G127" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="128" spans="3:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="C128" s="1"/>
+      <c r="D128" s="1">
+        <v>617</v>
+      </c>
+      <c r="E128" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="F128" s="3">
+        <v>0.69099999999999995</v>
+      </c>
+      <c r="G128" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="129" spans="3:9" ht="18" x14ac:dyDescent="0.2">
+      <c r="C129" s="1"/>
+      <c r="D129" s="1">
+        <v>101</v>
+      </c>
+      <c r="E129" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="F129" s="3">
+        <v>0.38500000000000001</v>
+      </c>
+      <c r="G129" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="130" spans="3:9" ht="18" x14ac:dyDescent="0.2">
+      <c r="C130" s="1"/>
+      <c r="D130" s="1">
+        <v>100</v>
+      </c>
+      <c r="E130" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="F130" s="3">
+        <v>0.46300000000000002</v>
+      </c>
+      <c r="G130" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="131" spans="3:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="I131" s="8">
+        <f>SUM(I109:I130)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="I133">
+        <f>I41+I70+I98+I107+I131</f>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
   <sortState ref="D34:G58">
     <sortCondition ref="D34"/>
   </sortState>
+  <mergeCells count="4">
+    <mergeCell ref="B18:B21"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="B32:B37"/>
+    <mergeCell ref="B38:B40"/>
+  </mergeCells>
   <hyperlinks>
-    <hyperlink ref="E7" r:id="rId1"/>
-    <hyperlink ref="E30" r:id="rId2"/>
-    <hyperlink ref="E5" r:id="rId3"/>
-    <hyperlink ref="E8" r:id="rId4"/>
+    <hyperlink ref="E6" r:id="rId1"/>
+    <hyperlink ref="E31" r:id="rId2"/>
+    <hyperlink ref="E4" r:id="rId3"/>
+    <hyperlink ref="E7" r:id="rId4"/>
     <hyperlink ref="E28" r:id="rId5"/>
     <hyperlink ref="E27" r:id="rId6"/>
     <hyperlink ref="E26" r:id="rId7"/>
-    <hyperlink ref="E18" r:id="rId8"/>
-    <hyperlink ref="E4" r:id="rId9"/>
+    <hyperlink ref="E17" r:id="rId8"/>
+    <hyperlink ref="E21" r:id="rId9"/>
     <hyperlink ref="E25" r:id="rId10"/>
-    <hyperlink ref="E6" r:id="rId11"/>
-    <hyperlink ref="E12" r:id="rId12"/>
-    <hyperlink ref="E19" r:id="rId13"/>
+    <hyperlink ref="E5" r:id="rId11"/>
+    <hyperlink ref="E11" r:id="rId12"/>
+    <hyperlink ref="E32" r:id="rId13"/>
     <hyperlink ref="E2" r:id="rId14"/>
     <hyperlink ref="E29" r:id="rId15"/>
-    <hyperlink ref="E20" r:id="rId16"/>
-    <hyperlink ref="E9" r:id="rId17"/>
-    <hyperlink ref="E10" r:id="rId18"/>
-    <hyperlink ref="E13" r:id="rId19"/>
-    <hyperlink ref="E14" r:id="rId20"/>
-    <hyperlink ref="E15" r:id="rId21"/>
-    <hyperlink ref="E21" r:id="rId22"/>
-    <hyperlink ref="E3" r:id="rId23"/>
-    <hyperlink ref="E22" r:id="rId24"/>
+    <hyperlink ref="E18" r:id="rId16"/>
+    <hyperlink ref="E8" r:id="rId17"/>
+    <hyperlink ref="E9" r:id="rId18"/>
+    <hyperlink ref="E12" r:id="rId19"/>
+    <hyperlink ref="E38" r:id="rId20"/>
+    <hyperlink ref="E14" r:id="rId21"/>
+    <hyperlink ref="E30" r:id="rId22"/>
+    <hyperlink ref="E19" r:id="rId23"/>
+    <hyperlink ref="E34" r:id="rId24"/>
     <hyperlink ref="E23" r:id="rId25"/>
-    <hyperlink ref="E11" r:id="rId26"/>
-    <hyperlink ref="E16" r:id="rId27"/>
+    <hyperlink ref="E10" r:id="rId26"/>
+    <hyperlink ref="E15" r:id="rId27"/>
     <hyperlink ref="E24" r:id="rId28"/>
-    <hyperlink ref="E17" r:id="rId29"/>
-    <hyperlink ref="E42" r:id="rId30"/>
-    <hyperlink ref="E33" r:id="rId31"/>
-    <hyperlink ref="E55" r:id="rId32"/>
-    <hyperlink ref="E54" r:id="rId33"/>
-    <hyperlink ref="E53" r:id="rId34"/>
-    <hyperlink ref="E52" r:id="rId35"/>
-    <hyperlink ref="E51" r:id="rId36"/>
-    <hyperlink ref="E50" r:id="rId37"/>
-    <hyperlink ref="E49" r:id="rId38"/>
-    <hyperlink ref="E34" r:id="rId39"/>
-    <hyperlink ref="E46" r:id="rId40"/>
-    <hyperlink ref="E56" r:id="rId41"/>
-    <hyperlink ref="E41" r:id="rId42"/>
-    <hyperlink ref="E40" r:id="rId43"/>
-    <hyperlink ref="E39" r:id="rId44"/>
-    <hyperlink ref="E38" r:id="rId45"/>
-    <hyperlink ref="E37" r:id="rId46"/>
-    <hyperlink ref="E36" r:id="rId47"/>
-    <hyperlink ref="E44" r:id="rId48"/>
-    <hyperlink ref="E35" r:id="rId49"/>
-    <hyperlink ref="E57" r:id="rId50"/>
-    <hyperlink ref="E45" r:id="rId51"/>
-    <hyperlink ref="E43" r:id="rId52"/>
-    <hyperlink ref="E47" r:id="rId53"/>
-    <hyperlink ref="E48" r:id="rId54"/>
-    <hyperlink ref="E60" r:id="rId55"/>
-    <hyperlink ref="E61" r:id="rId56"/>
-    <hyperlink ref="E84" r:id="rId57"/>
-    <hyperlink ref="E65" r:id="rId58"/>
-    <hyperlink ref="E83" r:id="rId59"/>
-    <hyperlink ref="E66" r:id="rId60"/>
-    <hyperlink ref="E67" r:id="rId61"/>
-    <hyperlink ref="E68" r:id="rId62"/>
-    <hyperlink ref="E69" r:id="rId63"/>
-    <hyperlink ref="E70" r:id="rId64"/>
-    <hyperlink ref="E71" r:id="rId65"/>
-    <hyperlink ref="E72" r:id="rId66"/>
-    <hyperlink ref="E73" r:id="rId67"/>
-    <hyperlink ref="E74" r:id="rId68"/>
-    <hyperlink ref="E75" r:id="rId69"/>
-    <hyperlink ref="E76" r:id="rId70"/>
-    <hyperlink ref="E77" r:id="rId71"/>
-    <hyperlink ref="E82" r:id="rId72"/>
-    <hyperlink ref="E78" r:id="rId73"/>
-    <hyperlink ref="E79" r:id="rId74"/>
-    <hyperlink ref="E80" r:id="rId75"/>
-    <hyperlink ref="E81" r:id="rId76"/>
-    <hyperlink ref="E90" r:id="rId77"/>
-    <hyperlink ref="E91" r:id="rId78"/>
-    <hyperlink ref="E92" r:id="rId79"/>
-    <hyperlink ref="E93" r:id="rId80"/>
-    <hyperlink ref="E94" r:id="rId81"/>
-    <hyperlink ref="E95" r:id="rId82"/>
-    <hyperlink ref="E96" r:id="rId83"/>
-    <hyperlink ref="E97" r:id="rId84"/>
+    <hyperlink ref="E16" r:id="rId29"/>
+    <hyperlink ref="E51" r:id="rId30"/>
+    <hyperlink ref="E42" r:id="rId31"/>
+    <hyperlink ref="E64" r:id="rId32"/>
+    <hyperlink ref="E63" r:id="rId33"/>
+    <hyperlink ref="E62" r:id="rId34"/>
+    <hyperlink ref="E61" r:id="rId35"/>
+    <hyperlink ref="E60" r:id="rId36"/>
+    <hyperlink ref="E59" r:id="rId37"/>
+    <hyperlink ref="E58" r:id="rId38"/>
+    <hyperlink ref="E43" r:id="rId39"/>
+    <hyperlink ref="E55" r:id="rId40"/>
+    <hyperlink ref="E65" r:id="rId41"/>
+    <hyperlink ref="E50" r:id="rId42"/>
+    <hyperlink ref="E49" r:id="rId43"/>
+    <hyperlink ref="E48" r:id="rId44"/>
+    <hyperlink ref="E47" r:id="rId45"/>
+    <hyperlink ref="E46" r:id="rId46"/>
+    <hyperlink ref="E45" r:id="rId47"/>
+    <hyperlink ref="E53" r:id="rId48"/>
+    <hyperlink ref="E44" r:id="rId49"/>
+    <hyperlink ref="E66" r:id="rId50"/>
+    <hyperlink ref="E54" r:id="rId51"/>
+    <hyperlink ref="E52" r:id="rId52"/>
+    <hyperlink ref="E56" r:id="rId53"/>
+    <hyperlink ref="E57" r:id="rId54"/>
+    <hyperlink ref="E72" r:id="rId55"/>
+    <hyperlink ref="E73" r:id="rId56"/>
+    <hyperlink ref="E93" r:id="rId57"/>
+    <hyperlink ref="E74" r:id="rId58"/>
+    <hyperlink ref="E92" r:id="rId59"/>
+    <hyperlink ref="E75" r:id="rId60"/>
+    <hyperlink ref="E76" r:id="rId61"/>
+    <hyperlink ref="E77" r:id="rId62"/>
+    <hyperlink ref="E78" r:id="rId63"/>
+    <hyperlink ref="E79" r:id="rId64"/>
+    <hyperlink ref="E80" r:id="rId65"/>
+    <hyperlink ref="E81" r:id="rId66"/>
+    <hyperlink ref="E82" r:id="rId67"/>
+    <hyperlink ref="E83" r:id="rId68"/>
+    <hyperlink ref="E84" r:id="rId69"/>
+    <hyperlink ref="E85" r:id="rId70"/>
+    <hyperlink ref="E86" r:id="rId71"/>
+    <hyperlink ref="E91" r:id="rId72"/>
+    <hyperlink ref="E87" r:id="rId73"/>
+    <hyperlink ref="E88" r:id="rId74"/>
+    <hyperlink ref="E89" r:id="rId75"/>
+    <hyperlink ref="E90" r:id="rId76"/>
+    <hyperlink ref="E99" r:id="rId77"/>
+    <hyperlink ref="E100" r:id="rId78"/>
+    <hyperlink ref="E101" r:id="rId79"/>
+    <hyperlink ref="E102" r:id="rId80"/>
+    <hyperlink ref="E103" r:id="rId81"/>
+    <hyperlink ref="E104" r:id="rId82"/>
+    <hyperlink ref="E105" r:id="rId83"/>
+    <hyperlink ref="E106" r:id="rId84"/>
+    <hyperlink ref="E109" r:id="rId85"/>
+    <hyperlink ref="E110" r:id="rId86"/>
+    <hyperlink ref="E111" r:id="rId87"/>
+    <hyperlink ref="E112" r:id="rId88"/>
+    <hyperlink ref="E113" r:id="rId89"/>
+    <hyperlink ref="E114" r:id="rId90"/>
+    <hyperlink ref="E115" r:id="rId91"/>
+    <hyperlink ref="E116" r:id="rId92"/>
+    <hyperlink ref="E117" r:id="rId93"/>
+    <hyperlink ref="E118" r:id="rId94"/>
+    <hyperlink ref="E119" r:id="rId95"/>
+    <hyperlink ref="E120" r:id="rId96"/>
+    <hyperlink ref="E121" r:id="rId97"/>
+    <hyperlink ref="E122" r:id="rId98"/>
+    <hyperlink ref="E123" r:id="rId99"/>
+    <hyperlink ref="E124" r:id="rId100"/>
+    <hyperlink ref="E125" r:id="rId101"/>
+    <hyperlink ref="E126" r:id="rId102"/>
+    <hyperlink ref="E127" r:id="rId103"/>
+    <hyperlink ref="E128" r:id="rId104"/>
+    <hyperlink ref="E129" r:id="rId105"/>
+    <hyperlink ref="E130" r:id="rId106"/>
+    <hyperlink ref="E36" r:id="rId107" location="/description"/>
+    <hyperlink ref="E69" r:id="rId108"/>
+    <hyperlink ref="E33" r:id="rId109"/>
+    <hyperlink ref="E35" r:id="rId110" location="/description"/>
+    <hyperlink ref="E37" r:id="rId111" location="/description"/>
+    <hyperlink ref="E20" r:id="rId112"/>
+    <hyperlink ref="E39" r:id="rId113"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/mycode/刷题统计.xlsx
+++ b/mycode/刷题统计.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="800" yWindow="460" windowWidth="24180" windowHeight="14180" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="4060" yWindow="460" windowWidth="19540" windowHeight="14180" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="551" uniqueCount="303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="608" uniqueCount="346">
   <si>
     <t>1 binary search</t>
   </si>
@@ -318,9 +318,6 @@
     <t>Best Time to Buy and Sell Stock II</t>
   </si>
   <si>
-    <t>Missing Number</t>
-  </si>
-  <si>
     <t>Two Sum</t>
   </si>
   <si>
@@ -937,6 +934,138 @@
   </si>
   <si>
     <t>多数投票法</t>
+  </si>
+  <si>
+    <t>搞不懂</t>
+  </si>
+  <si>
+    <t>双向链表+hash</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Missing Number </t>
+  </si>
+  <si>
+    <t>k-diff，2sum</t>
+  </si>
+  <si>
+    <t>也可以bit</t>
+  </si>
+  <si>
+    <t>hamming distance</t>
+  </si>
+  <si>
+    <t>Heapif</t>
+  </si>
+  <si>
+    <t>level order for BT</t>
+  </si>
+  <si>
+    <t>max depth</t>
+  </si>
+  <si>
+    <t>min depth</t>
+  </si>
+  <si>
+    <t>balanced binary tree</t>
+  </si>
+  <si>
+    <t>LCA</t>
+  </si>
+  <si>
+    <t>LCA ii</t>
+  </si>
+  <si>
+    <t>root to any</t>
+  </si>
+  <si>
+    <t>any to any</t>
+  </si>
+  <si>
+    <t>validate bst</t>
+  </si>
+  <si>
+    <t>BST iterator</t>
+  </si>
+  <si>
+    <t>level order for BT ii</t>
+  </si>
+  <si>
+    <t>binary tree zigzag level order traveral</t>
+  </si>
+  <si>
+    <t>inorder successor in bst</t>
+  </si>
+  <si>
+    <t>construct BT from inorder and postorder</t>
+  </si>
+  <si>
+    <t>construct BT from preorder and inorder</t>
+  </si>
+  <si>
+    <t>convert sorted array to BST with min height</t>
+  </si>
+  <si>
+    <t>segment tree build</t>
+  </si>
+  <si>
+    <t>binary tree path sum</t>
+  </si>
+  <si>
+    <t>complete binary tree</t>
+  </si>
+  <si>
+    <t>symmetric binary tree</t>
+  </si>
+  <si>
+    <t>identical binary tree</t>
+  </si>
+  <si>
+    <t>binary tree path sum ii</t>
+  </si>
+  <si>
+    <t>convert BST to doubly linked list</t>
+  </si>
+  <si>
+    <t>flatten binary tree to linked list</t>
+  </si>
+  <si>
+    <t>binary tree path sum iii</t>
+  </si>
+  <si>
+    <t>binary tree paths</t>
+  </si>
+  <si>
+    <t>LCA iii</t>
+  </si>
+  <si>
+    <t>binary tree longest consecutive sequence</t>
+  </si>
+  <si>
+    <t>min subtree</t>
+  </si>
+  <si>
+    <t>subtree with max average</t>
+  </si>
+  <si>
+    <t>binary tree longest consecutive sequence ii</t>
+  </si>
+  <si>
+    <t>binary tree longest consecutive sequence iii</t>
+  </si>
+  <si>
+    <t>tree</t>
+  </si>
+  <si>
+    <t>背</t>
+  </si>
+  <si>
+    <t>preorder for BT</t>
+  </si>
+  <si>
+    <t>inorder for BT</t>
+  </si>
+  <si>
+    <t>postorder for BT</t>
   </si>
 </sst>
 </file>
@@ -995,7 +1124,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1038,8 +1167,14 @@
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -1095,8 +1230,34 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="15">
+  <cellStyleXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1112,8 +1273,18 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="7"/>
@@ -1147,6 +1318,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="0" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1162,8 +1334,11 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="15">
+  <cellStyles count="25">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1174,6 +1349,16 @@
     <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="15" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="17" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="19" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="21" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="23" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1453,11 +1638,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M150"/>
+  <dimension ref="A1:M185"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A45" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G115" sqref="G115"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A133" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G148" sqref="G148"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2378,7 +2563,7 @@
         <v>42</v>
       </c>
       <c r="C43" s="13" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D43" s="13" t="s">
         <v>52</v>
@@ -2440,7 +2625,7 @@
         <v>46</v>
       </c>
       <c r="C47" s="13" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D47" s="13" t="s">
         <v>55</v>
@@ -2461,7 +2646,7 @@
         <v>42921</v>
       </c>
       <c r="L47" s="13" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="48" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.2">
@@ -2469,7 +2654,7 @@
         <v>47</v>
       </c>
       <c r="D48" s="13" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F48" s="13">
         <v>561</v>
@@ -2512,7 +2697,7 @@
         <v>49</v>
       </c>
       <c r="C50" s="13" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D50" s="13" t="s">
         <v>56</v>
@@ -2561,7 +2746,7 @@
         <v>51</v>
       </c>
       <c r="C52" s="17" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D52" s="13" t="s">
         <v>58</v>
@@ -2590,7 +2775,7 @@
         <v>52</v>
       </c>
       <c r="C53" s="17" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D53" s="13" t="s">
         <v>59</v>
@@ -2619,10 +2804,10 @@
         <v>53</v>
       </c>
       <c r="C54" s="17" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D54" s="18" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F54" s="13">
         <v>283</v>
@@ -2642,7 +2827,7 @@
         <v>54</v>
       </c>
       <c r="C55" s="17" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D55" s="18" t="s">
         <v>92</v>
@@ -2975,10 +3160,10 @@
         <v>72</v>
       </c>
       <c r="C73" s="13" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D73" s="18" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E73" s="17">
         <v>488</v>
@@ -3004,7 +3189,7 @@
         <v>73</v>
       </c>
       <c r="D74" s="13" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E74" s="13">
         <v>620</v>
@@ -3015,7 +3200,7 @@
         <v>74</v>
       </c>
       <c r="D75" s="13" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E75" s="13">
         <v>621</v>
@@ -3026,7 +3211,7 @@
         <v>75</v>
       </c>
       <c r="D76" s="13" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E76" s="13">
         <v>43</v>
@@ -3042,10 +3227,10 @@
         <v>77</v>
       </c>
       <c r="B78" s="21" t="s">
+        <v>120</v>
+      </c>
+      <c r="D78" s="21" t="s">
         <v>121</v>
-      </c>
-      <c r="D78" s="21" t="s">
-        <v>122</v>
       </c>
       <c r="E78" s="21">
         <v>112</v>
@@ -3068,7 +3253,7 @@
         <v>78</v>
       </c>
       <c r="D79" s="21" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E79" s="21">
         <v>113</v>
@@ -3094,7 +3279,7 @@
         <v>79</v>
       </c>
       <c r="D80" s="21" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E80" s="21">
         <v>173</v>
@@ -3120,10 +3305,10 @@
         <v>80</v>
       </c>
       <c r="C81" s="21" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D81" s="21" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E81" s="21">
         <v>35</v>
@@ -3149,10 +3334,10 @@
         <v>81</v>
       </c>
       <c r="C82" s="21" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D82" s="21" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E82" s="21">
         <v>36</v>
@@ -3178,10 +3363,10 @@
         <v>82</v>
       </c>
       <c r="C83" s="21" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D83" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E83" s="21">
         <v>96</v>
@@ -3204,10 +3389,10 @@
         <v>83</v>
       </c>
       <c r="C84" s="21" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D84" s="21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E84" s="21">
         <v>228</v>
@@ -3227,10 +3412,10 @@
         <v>84</v>
       </c>
       <c r="C85" s="21" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D85" s="21" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E85" s="21">
         <v>165</v>
@@ -3253,10 +3438,10 @@
         <v>85</v>
       </c>
       <c r="C86" s="21" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D86" s="21" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E86" s="21">
         <v>99</v>
@@ -3282,10 +3467,10 @@
         <v>86</v>
       </c>
       <c r="C87" s="21" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D87" s="21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E87" s="21">
         <v>98</v>
@@ -3311,10 +3496,10 @@
         <v>87</v>
       </c>
       <c r="C88" s="21" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D88" s="21" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E88" s="21">
         <v>174</v>
@@ -3337,10 +3522,10 @@
         <v>88</v>
       </c>
       <c r="C89" s="21" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D89" s="21" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E89" s="21">
         <v>102</v>
@@ -3366,10 +3551,10 @@
         <v>89</v>
       </c>
       <c r="C90" s="21" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D90" s="21" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E90" s="21">
         <v>103</v>
@@ -3395,10 +3580,10 @@
         <v>90</v>
       </c>
       <c r="C91" s="21" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D91" s="21" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E91" s="21">
         <v>170</v>
@@ -3424,10 +3609,10 @@
         <v>91</v>
       </c>
       <c r="C92" s="21" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D92" s="21" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E92" s="21">
         <v>104</v>
@@ -3453,10 +3638,10 @@
         <v>92</v>
       </c>
       <c r="C93" s="21" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D93" s="21" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E93" s="21">
         <v>105</v>
@@ -3482,10 +3667,10 @@
         <v>93</v>
       </c>
       <c r="C94" s="21" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D94" s="21" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E94" s="21">
         <v>106</v>
@@ -3511,10 +3696,10 @@
         <v>94</v>
       </c>
       <c r="C95" s="21" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D95" s="21" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E95" s="21">
         <v>166</v>
@@ -3534,7 +3719,7 @@
         <v>95</v>
       </c>
       <c r="D96" s="21" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E96" s="21">
         <v>167</v>
@@ -3560,7 +3745,7 @@
         <v>96</v>
       </c>
       <c r="D97" s="21" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E97" s="21">
         <v>221</v>
@@ -3586,7 +3771,7 @@
         <v>97</v>
       </c>
       <c r="D98" s="21" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E98" s="21">
         <v>217</v>
@@ -3606,7 +3791,7 @@
         <v>98</v>
       </c>
       <c r="D99" s="21" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E99" s="21">
         <v>380</v>
@@ -3632,7 +3817,7 @@
         <v>99</v>
       </c>
       <c r="D100" s="21" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E100" s="21">
         <v>223</v>
@@ -3658,7 +3843,7 @@
         <v>100</v>
       </c>
       <c r="D101" s="21" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E101" s="21">
         <v>372</v>
@@ -3672,7 +3857,7 @@
         <v>101</v>
       </c>
       <c r="D102" s="21" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E102" s="21">
         <v>450</v>
@@ -3698,7 +3883,7 @@
         <v>102</v>
       </c>
       <c r="D103" s="21" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E103" s="21">
         <v>451</v>
@@ -3724,7 +3909,7 @@
         <v>103</v>
       </c>
       <c r="D104" s="21" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E104" s="21">
         <v>452</v>
@@ -3747,7 +3932,7 @@
         <v>104</v>
       </c>
       <c r="D105" s="21" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E105" s="21">
         <v>511</v>
@@ -3761,7 +3946,7 @@
         <v>105</v>
       </c>
       <c r="D106" s="21" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F106" s="21">
         <v>237</v>
@@ -3781,7 +3966,7 @@
         <v>106</v>
       </c>
       <c r="D107" s="21" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F107" s="21">
         <v>328</v>
@@ -3804,7 +3989,7 @@
         <v>107</v>
       </c>
       <c r="D108" s="21" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E108" s="21">
         <v>599</v>
@@ -3831,16 +4016,31 @@
         <v>109</v>
       </c>
       <c r="B110" s="31" t="s">
+        <v>261</v>
+      </c>
+      <c r="C110" s="31" t="s">
+        <v>188</v>
+      </c>
+      <c r="D110" s="31" t="s">
         <v>262</v>
-      </c>
-      <c r="D110" s="31" t="s">
-        <v>263</v>
       </c>
       <c r="E110" s="31">
         <v>4</v>
       </c>
       <c r="F110" s="31">
         <v>264</v>
+      </c>
+      <c r="G110" s="31">
+        <v>1</v>
+      </c>
+      <c r="H110" s="31">
+        <v>2</v>
+      </c>
+      <c r="J110" s="31" t="s">
+        <v>77</v>
+      </c>
+      <c r="K110" s="33">
+        <v>42946</v>
       </c>
     </row>
     <row r="111" spans="1:13" s="31" customFormat="1" x14ac:dyDescent="0.2">
@@ -3848,7 +4048,7 @@
         <v>110</v>
       </c>
       <c r="D111" s="31" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E111" s="31">
         <v>12</v>
@@ -3861,6 +4061,9 @@
       </c>
       <c r="H111" s="31">
         <v>2</v>
+      </c>
+      <c r="K111" s="33">
+        <v>42944</v>
       </c>
     </row>
     <row r="112" spans="1:13" s="31" customFormat="1" x14ac:dyDescent="0.2">
@@ -3868,7 +4071,7 @@
         <v>111</v>
       </c>
       <c r="D112" s="31" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E112" s="31">
         <v>40</v>
@@ -3876,16 +4079,22 @@
       <c r="F112" s="31">
         <v>232</v>
       </c>
-    </row>
-    <row r="113" spans="1:10" s="31" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G112" s="31">
+        <v>1</v>
+      </c>
+      <c r="H112" s="31">
+        <v>1</v>
+      </c>
+      <c r="K112" s="33">
+        <v>42946</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A113" s="31">
         <v>112</v>
       </c>
-      <c r="C113" s="31" t="s">
-        <v>295</v>
-      </c>
       <c r="D113" s="31" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E113" s="31">
         <v>494</v>
@@ -3893,19 +4102,28 @@
       <c r="F113" s="31">
         <v>225</v>
       </c>
+      <c r="G113" s="31">
+        <v>1</v>
+      </c>
+      <c r="H113" s="31">
+        <v>1</v>
+      </c>
       <c r="J113" s="31" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="114" spans="1:10" s="31" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="K113" s="33">
+        <v>42946</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A114" s="31">
         <v>113</v>
       </c>
       <c r="C114" s="31" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D114" s="31" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E114" s="31">
         <v>122</v>
@@ -3922,13 +4140,16 @@
       <c r="J114" s="32" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="115" spans="1:10" s="31" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="K114" s="33">
+        <v>42945</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A115" s="31">
         <v>114</v>
       </c>
       <c r="C115" s="31" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D115" s="31" t="s">
         <v>62</v>
@@ -3939,46 +4160,100 @@
       <c r="F115" s="31">
         <v>85</v>
       </c>
-    </row>
-    <row r="116" spans="1:10" s="31" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G115" s="31">
+        <v>1</v>
+      </c>
+      <c r="H115" s="31">
+        <v>3</v>
+      </c>
+      <c r="J115" s="32" t="s">
+        <v>77</v>
+      </c>
+      <c r="K115" s="33">
+        <v>42946</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A116" s="31">
         <v>115</v>
       </c>
+      <c r="C116" s="31" t="s">
+        <v>294</v>
+      </c>
       <c r="D116" s="31" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E116" s="31">
         <v>126</v>
       </c>
-    </row>
-    <row r="117" spans="1:10" s="31" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G116" s="31">
+        <v>1</v>
+      </c>
+      <c r="H116" s="31">
+        <v>3</v>
+      </c>
+      <c r="J116" s="31" t="s">
+        <v>302</v>
+      </c>
+      <c r="K116" s="33">
+        <v>42946</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A117" s="31">
         <v>116</v>
       </c>
       <c r="D117" s="31" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E117" s="31">
         <v>128</v>
       </c>
-    </row>
-    <row r="118" spans="1:10" s="31" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G117" s="31">
+        <v>1</v>
+      </c>
+      <c r="H117" s="31">
+        <v>1</v>
+      </c>
+      <c r="J117" s="32" t="s">
+        <v>77</v>
+      </c>
+      <c r="K117" s="33">
+        <v>42946</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A118" s="31">
         <v>117</v>
       </c>
       <c r="D118" s="31" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E118" s="31">
         <v>129</v>
       </c>
-    </row>
-    <row r="119" spans="1:10" s="31" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G118" s="31">
+        <v>1</v>
+      </c>
+      <c r="H118" s="31">
+        <v>2</v>
+      </c>
+      <c r="J118" s="32" t="s">
+        <v>77</v>
+      </c>
+      <c r="K118" s="33">
+        <v>42946</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A119" s="31">
         <v>118</v>
       </c>
+      <c r="C119" s="31" t="s">
+        <v>303</v>
+      </c>
       <c r="D119" s="31" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E119" s="31">
         <v>134</v>
@@ -3986,13 +4261,25 @@
       <c r="F119" s="31">
         <v>146</v>
       </c>
-    </row>
-    <row r="120" spans="1:10" s="31" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G119" s="31">
+        <v>1</v>
+      </c>
+      <c r="H119" s="31">
+        <v>3</v>
+      </c>
+      <c r="J119" s="31" t="s">
+        <v>296</v>
+      </c>
+      <c r="K119" s="33">
+        <v>42946</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A120" s="31">
         <v>119</v>
       </c>
       <c r="D120" s="31" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E120" s="31">
         <v>433</v>
@@ -4001,12 +4288,12 @@
         <v>200</v>
       </c>
     </row>
-    <row r="121" spans="1:10" s="31" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:11" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A121" s="31">
         <v>120</v>
       </c>
       <c r="D121" s="31" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E121" s="31">
         <v>442</v>
@@ -4015,88 +4302,124 @@
         <v>208</v>
       </c>
     </row>
-    <row r="122" spans="1:10" s="31" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:11" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A122" s="31">
         <v>121</v>
       </c>
       <c r="D122" s="31" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E122" s="31">
         <v>486</v>
       </c>
     </row>
-    <row r="123" spans="1:10" s="31" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:11" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A123" s="31">
         <v>122</v>
       </c>
       <c r="D123" s="31" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E123" s="31">
         <v>492</v>
       </c>
     </row>
-    <row r="124" spans="1:10" s="31" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:11" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A124" s="31">
         <v>123</v>
       </c>
       <c r="D124" s="31" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E124" s="31">
         <v>493</v>
       </c>
     </row>
-    <row r="125" spans="1:10" s="31" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:11" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A125" s="31">
         <v>124</v>
       </c>
-    </row>
-    <row r="126" spans="1:10" s="31" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D125" s="31" t="s">
+        <v>308</v>
+      </c>
+      <c r="E125" s="31">
+        <v>130</v>
+      </c>
+      <c r="G125" s="31">
+        <v>1</v>
+      </c>
+      <c r="H125" s="31">
+        <v>2</v>
+      </c>
+      <c r="K125" s="33">
+        <v>42949</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A126" s="31">
         <v>125</v>
       </c>
       <c r="D126" s="31" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E126" s="31">
         <v>495</v>
       </c>
     </row>
-    <row r="127" spans="1:10" s="31" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:11" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A127" s="31">
         <v>126</v>
       </c>
     </row>
-    <row r="128" spans="1:10" s="31" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:11" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A128" s="31">
         <v>127</v>
       </c>
       <c r="D128" s="31" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E128" s="31">
         <v>544</v>
       </c>
-    </row>
-    <row r="129" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F128" s="31">
+        <v>215</v>
+      </c>
+      <c r="G128" s="31">
+        <v>1</v>
+      </c>
+      <c r="H128" s="31">
+        <v>2</v>
+      </c>
+      <c r="K128" s="33">
+        <v>42949</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A129" s="31">
         <v>128</v>
       </c>
       <c r="D129" s="31" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E129" s="31">
         <v>545</v>
       </c>
-    </row>
-    <row r="130" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G129" s="31">
+        <v>1</v>
+      </c>
+      <c r="H129" s="31">
+        <v>2</v>
+      </c>
+      <c r="K129" s="33">
+        <v>42949</v>
+      </c>
+    </row>
+    <row r="130" spans="1:11" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A130" s="31">
         <v>129</v>
       </c>
       <c r="D130" s="31" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E130" s="31">
         <v>627</v>
@@ -4105,12 +4428,12 @@
         <v>409</v>
       </c>
     </row>
-    <row r="131" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:11" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A131" s="31">
         <v>130</v>
       </c>
       <c r="D131" s="31" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E131" s="31">
         <v>647</v>
@@ -4119,23 +4442,23 @@
         <v>438</v>
       </c>
     </row>
-    <row r="132" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:11" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A132" s="31">
         <v>131</v>
       </c>
       <c r="D132" s="31" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E132" s="31">
         <v>648</v>
       </c>
     </row>
-    <row r="133" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:11" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A133" s="31">
         <v>132</v>
       </c>
       <c r="D133" s="31" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E133" s="31">
         <v>24</v>
@@ -4144,12 +4467,12 @@
         <v>460</v>
       </c>
     </row>
-    <row r="134" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:11" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A134" s="31">
         <v>133</v>
       </c>
       <c r="D134" s="31" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E134" s="31">
         <v>124</v>
@@ -4158,23 +4481,23 @@
         <v>128</v>
       </c>
     </row>
-    <row r="135" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:11" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A135" s="31">
         <v>134</v>
       </c>
       <c r="D135" s="31" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E135" s="31">
         <v>471</v>
       </c>
     </row>
-    <row r="136" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:11" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A136" s="31">
         <v>135</v>
       </c>
       <c r="D136" s="31" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E136" s="31">
         <v>528</v>
@@ -4183,12 +4506,12 @@
         <v>341</v>
       </c>
     </row>
-    <row r="137" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:11" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A137" s="31">
         <v>136</v>
       </c>
       <c r="D137" s="31" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E137" s="31">
         <v>540</v>
@@ -4197,23 +4520,23 @@
         <v>281</v>
       </c>
     </row>
-    <row r="138" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:11" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A138" s="31">
         <v>137</v>
       </c>
       <c r="D138" s="31" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E138" s="31">
         <v>541</v>
       </c>
     </row>
-    <row r="139" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:11" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A139" s="31">
         <v>138</v>
       </c>
       <c r="D139" s="31" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E139" s="31">
         <v>551</v>
@@ -4222,34 +4545,34 @@
         <v>339</v>
       </c>
     </row>
-    <row r="140" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:11" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A140" s="31">
         <v>139</v>
       </c>
       <c r="D140" s="31" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E140" s="31">
         <v>575</v>
       </c>
     </row>
-    <row r="141" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:11" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A141" s="31">
         <v>140</v>
       </c>
       <c r="D141" s="31" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E141" s="31">
         <v>594</v>
       </c>
     </row>
-    <row r="142" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:11" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A142" s="31">
         <v>141</v>
       </c>
       <c r="D142" s="31" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E142" s="31">
         <v>601</v>
@@ -4258,39 +4581,625 @@
         <v>251</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A143" s="31">
+        <v>142</v>
+      </c>
       <c r="D143" s="31" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E143" s="31">
         <v>612</v>
       </c>
       <c r="F143" s="31"/>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="D144" s="31" t="s">
-        <v>293</v>
-      </c>
-      <c r="E144" s="31">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A144" s="40">
+        <v>143</v>
+      </c>
+      <c r="D144" s="40" t="s">
+        <v>292</v>
+      </c>
+      <c r="E144" s="40">
         <v>613</v>
       </c>
-      <c r="F144" s="31"/>
-    </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A150" t="s">
+      <c r="F144" s="40"/>
+    </row>
+    <row r="145" spans="1:11" s="39" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A145" s="39">
+        <v>144</v>
+      </c>
+      <c r="B145" s="39" t="s">
+        <v>341</v>
+      </c>
+      <c r="D145" s="39" t="s">
+        <v>343</v>
+      </c>
+      <c r="E145" s="39">
+        <v>66</v>
+      </c>
+      <c r="F145" s="39">
+        <v>144</v>
+      </c>
+      <c r="G145" s="39">
+        <v>1</v>
+      </c>
+      <c r="H145" s="39">
+        <v>2</v>
+      </c>
+      <c r="J145" s="39" t="s">
+        <v>342</v>
+      </c>
+      <c r="K145" s="33">
+        <v>42950</v>
+      </c>
+    </row>
+    <row r="146" spans="1:11" s="39" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A146" s="39">
+        <v>145</v>
+      </c>
+      <c r="D146" s="39" t="s">
+        <v>344</v>
+      </c>
+      <c r="E146" s="39">
+        <v>67</v>
+      </c>
+      <c r="F146" s="39">
+        <v>94</v>
+      </c>
+      <c r="G146" s="39">
+        <v>1</v>
+      </c>
+      <c r="H146" s="39">
+        <v>2</v>
+      </c>
+      <c r="J146" s="39" t="s">
+        <v>342</v>
+      </c>
+      <c r="K146" s="33">
+        <v>42950</v>
+      </c>
+    </row>
+    <row r="147" spans="1:11" s="39" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A147" s="39">
+        <v>146</v>
+      </c>
+      <c r="D147" s="39" t="s">
+        <v>345</v>
+      </c>
+      <c r="E147" s="39">
+        <v>68</v>
+      </c>
+      <c r="F147" s="39">
+        <v>145</v>
+      </c>
+      <c r="G147" s="39">
+        <v>1</v>
+      </c>
+      <c r="H147" s="39">
+        <v>3</v>
+      </c>
+      <c r="J147" s="39" t="s">
+        <v>342</v>
+      </c>
+      <c r="K147" s="33">
+        <v>42950</v>
+      </c>
+    </row>
+    <row r="148" spans="1:11" s="39" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A148" s="39">
+        <v>147</v>
+      </c>
+      <c r="D148" s="39" t="s">
+        <v>309</v>
+      </c>
+      <c r="E148" s="39">
+        <v>69</v>
+      </c>
+      <c r="F148" s="39">
+        <v>102</v>
+      </c>
+      <c r="H148" s="39">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="149" spans="1:11" s="39" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A149" s="39">
+        <v>148</v>
+      </c>
+      <c r="D149" s="39" t="s">
+        <v>319</v>
+      </c>
+      <c r="E149" s="39">
+        <v>70</v>
+      </c>
+      <c r="F149" s="39">
+        <v>107</v>
+      </c>
+      <c r="H149" s="39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:11" s="39" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A150" s="39">
+        <v>149</v>
+      </c>
+      <c r="D150" s="39" t="s">
+        <v>320</v>
+      </c>
+      <c r="E150" s="39">
+        <v>71</v>
+      </c>
+      <c r="F150" s="39">
+        <v>103</v>
+      </c>
+      <c r="H150" s="39">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="151" spans="1:11" s="39" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A151" s="39">
+        <v>150</v>
+      </c>
+      <c r="D151" s="39" t="s">
+        <v>310</v>
+      </c>
+      <c r="E151" s="39">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="152" spans="1:11" s="39" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A152" s="39">
+        <v>151</v>
+      </c>
+      <c r="D152" s="39" t="s">
+        <v>311</v>
+      </c>
+      <c r="E152" s="39">
+        <v>155</v>
+      </c>
+      <c r="F152" s="39">
+        <v>111</v>
+      </c>
+      <c r="H152" s="39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153" spans="1:11" s="39" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A153" s="39">
+        <v>152</v>
+      </c>
+      <c r="D153" s="39" t="s">
+        <v>312</v>
+      </c>
+      <c r="E153" s="39">
+        <v>93</v>
+      </c>
+      <c r="F153" s="39">
+        <v>110</v>
+      </c>
+      <c r="H153" s="39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" spans="1:11" s="39" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A154" s="39">
+        <v>153</v>
+      </c>
+      <c r="D154" s="39" t="s">
+        <v>313</v>
+      </c>
+      <c r="E154" s="39">
+        <v>88</v>
+      </c>
+      <c r="F154" s="39">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="155" spans="1:11" s="39" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A155" s="39">
+        <v>154</v>
+      </c>
+      <c r="D155" s="39" t="s">
+        <v>314</v>
+      </c>
+      <c r="E155" s="39">
+        <v>474</v>
+      </c>
+      <c r="F155" s="39">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="156" spans="1:11" s="39" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A156" s="39">
+        <v>155</v>
+      </c>
+      <c r="D156" s="39" t="s">
+        <v>335</v>
+      </c>
+      <c r="E156" s="39">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="157" spans="1:11" s="39" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A157" s="39">
+        <v>156</v>
+      </c>
+      <c r="D157" s="39" t="s">
+        <v>315</v>
+      </c>
+      <c r="E157" s="39">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="158" spans="1:11" s="39" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A158" s="39">
+        <v>157</v>
+      </c>
+      <c r="D158" s="39" t="s">
+        <v>316</v>
+      </c>
+      <c r="E158" s="39">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="159" spans="1:11" s="39" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A159" s="39">
+        <v>158</v>
+      </c>
+      <c r="D159" s="39" t="s">
+        <v>317</v>
+      </c>
+      <c r="E159" s="39">
+        <v>95</v>
+      </c>
+      <c r="F159" s="39">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="160" spans="1:11" s="39" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A160" s="39">
+        <v>159</v>
+      </c>
+      <c r="D160" s="39" t="s">
+        <v>318</v>
+      </c>
+      <c r="E160" s="39">
+        <v>86</v>
+      </c>
+      <c r="F160" s="39">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A161" s="39">
+        <v>160</v>
+      </c>
+      <c r="D161" s="39" t="s">
+        <v>321</v>
+      </c>
+      <c r="E161" s="39">
+        <v>448</v>
+      </c>
+      <c r="F161" s="39">
+        <v>285</v>
+      </c>
+      <c r="H161" s="39">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A162" s="39">
+        <v>161</v>
+      </c>
+      <c r="D162" s="39" t="s">
+        <v>322</v>
+      </c>
+      <c r="E162" s="39">
+        <v>72</v>
+      </c>
+      <c r="F162" s="39">
+        <v>106</v>
+      </c>
+      <c r="H162" s="39">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A163" s="39">
+        <v>162</v>
+      </c>
+      <c r="D163" s="39" t="s">
+        <v>323</v>
+      </c>
+      <c r="E163" s="39">
+        <v>73</v>
+      </c>
+      <c r="F163" s="39">
+        <v>105</v>
+      </c>
+      <c r="H163" s="39">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A164" s="39">
+        <v>163</v>
+      </c>
+      <c r="D164" s="39" t="s">
+        <v>324</v>
+      </c>
+      <c r="E164" s="39">
+        <v>177</v>
+      </c>
+      <c r="F164" s="39">
+        <v>108</v>
+      </c>
+      <c r="H164" s="39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A165" s="39">
+        <v>164</v>
+      </c>
+      <c r="D165" s="39" t="s">
+        <v>325</v>
+      </c>
+      <c r="E165" s="39">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A166" s="39">
+        <v>165</v>
+      </c>
+      <c r="D166" s="39" t="s">
+        <v>326</v>
+      </c>
+      <c r="E166" s="39">
+        <v>376</v>
+      </c>
+      <c r="F166" s="39">
+        <v>112</v>
+      </c>
+      <c r="H166" s="39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A167" s="39">
+        <v>166</v>
+      </c>
+      <c r="D167" s="39" t="s">
+        <v>330</v>
+      </c>
+      <c r="E167" s="39">
+        <v>246</v>
+      </c>
+      <c r="F167" s="39">
+        <v>113</v>
+      </c>
+      <c r="H167" s="39">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A168" s="39">
+        <v>167</v>
+      </c>
+      <c r="D168" s="39" t="s">
+        <v>333</v>
+      </c>
+      <c r="E168" s="39">
+        <v>472</v>
+      </c>
+      <c r="F168" s="39">
+        <v>437</v>
+      </c>
+      <c r="H168" s="39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A169" s="39">
+        <v>168</v>
+      </c>
+      <c r="D169" s="39" t="s">
+        <v>334</v>
+      </c>
+      <c r="E169" s="39">
+        <v>480</v>
+      </c>
+      <c r="F169" s="39">
+        <v>257</v>
+      </c>
+      <c r="H169" s="39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A170" s="39">
+        <v>169</v>
+      </c>
+      <c r="D170" s="39" t="s">
+        <v>327</v>
+      </c>
+      <c r="E170" s="39">
+        <v>467</v>
+      </c>
+      <c r="F170" s="39">
+        <v>222</v>
+      </c>
+      <c r="H170" s="39">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A171" s="39">
+        <v>170</v>
+      </c>
+      <c r="D171" s="39" t="s">
+        <v>328</v>
+      </c>
+      <c r="E171" s="39">
+        <v>468</v>
+      </c>
+      <c r="F171" s="39">
+        <v>101</v>
+      </c>
+      <c r="H171" s="39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A172" s="39">
+        <v>171</v>
+      </c>
+      <c r="D172" s="39" t="s">
+        <v>329</v>
+      </c>
+      <c r="E172" s="39">
+        <v>469</v>
+      </c>
+      <c r="F172" s="39">
+        <v>100</v>
+      </c>
+      <c r="H172" s="39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A173" s="39">
+        <v>172</v>
+      </c>
+      <c r="D173" s="39" t="s">
+        <v>331</v>
+      </c>
+      <c r="E173" s="39">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A174" s="39">
+        <v>173</v>
+      </c>
+      <c r="D174" s="39" t="s">
+        <v>332</v>
+      </c>
+      <c r="E174" s="39">
+        <v>453</v>
+      </c>
+      <c r="F174" s="39">
+        <v>114</v>
+      </c>
+      <c r="H174" s="39">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A175" s="39">
+        <v>174</v>
+      </c>
+      <c r="D175" s="39" t="s">
+        <v>336</v>
+      </c>
+      <c r="E175" s="39">
+        <v>595</v>
+      </c>
+      <c r="F175" s="39">
+        <v>298</v>
+      </c>
+      <c r="H175" s="39">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A176" s="39">
+        <v>175</v>
+      </c>
+      <c r="D176" s="39" t="s">
+        <v>339</v>
+      </c>
+      <c r="E176" s="39">
+        <v>614</v>
+      </c>
+      <c r="F176" s="39">
+        <v>549</v>
+      </c>
+      <c r="H176" s="39">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="177" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A177" s="39">
+        <v>176</v>
+      </c>
+      <c r="D177" s="39" t="s">
+        <v>340</v>
+      </c>
+      <c r="E177" s="39">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="178" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A178" s="39">
+        <v>177</v>
+      </c>
+      <c r="D178" s="39" t="s">
+        <v>337</v>
+      </c>
+      <c r="E178" s="39">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="179" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A179" s="39">
+        <v>178</v>
+      </c>
+      <c r="D179" s="39" t="s">
+        <v>338</v>
+      </c>
+      <c r="E179" s="39">
+        <v>597</v>
+      </c>
+      <c r="F179" s="39">
+        <v>643</v>
+      </c>
+      <c r="H179" s="39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A180" s="41">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="181" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A181" s="31">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="182" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A182" s="31">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="185" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A185" t="s">
         <v>31</v>
       </c>
-      <c r="E150">
-        <f>COUNTA(E2:E100)</f>
-        <v>92</v>
-      </c>
-      <c r="F150">
+      <c r="E185">
+        <f>COUNTA(E2:E181)</f>
+        <v>167</v>
+      </c>
+      <c r="F185">
         <f>COUNTA(F2:F100)</f>
         <v>64</v>
       </c>
-      <c r="G150">
-        <f>SUM(G2:G149)</f>
-        <v>75</v>
+      <c r="G185">
+        <f>SUM(G2:G184)</f>
+        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -4311,11 +5220,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X133"/>
+  <dimension ref="A1:X154"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B90" sqref="B90"/>
+    <sheetView showRuler="0" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A51" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E62" sqref="E62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4327,30 +5236,30 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D1" t="s">
         <v>114</v>
       </c>
-      <c r="D1" t="s">
-        <v>115</v>
-      </c>
       <c r="H1" t="s">
+        <v>110</v>
+      </c>
+      <c r="I1" t="s">
         <v>111</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>112</v>
       </c>
-      <c r="J1" t="s">
-        <v>113</v>
-      </c>
       <c r="K1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="L1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="18" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C2">
         <v>56</v>
@@ -4359,7 +5268,7 @@
         <v>1</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F2" s="3">
         <v>0.33600000000000002</v>
@@ -4510,7 +5419,7 @@
         <v>118</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F8" s="3">
         <v>0.38100000000000001</v>
@@ -4539,7 +5448,7 @@
         <v>119</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F9" s="3">
         <v>0.36399999999999999</v>
@@ -4635,7 +5544,7 @@
     <row r="12" spans="1:14" ht="18" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
       <c r="B12" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C12" s="1">
         <v>608</v>
@@ -4644,7 +5553,7 @@
         <v>167</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F12" s="3">
         <v>0.47099999999999997</v>
@@ -4676,7 +5585,7 @@
         <v>189</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F14" s="3">
         <v>0.24299999999999999</v>
@@ -4697,23 +5606,23 @@
         <v>42919</v>
       </c>
       <c r="M14" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="N14" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="18" x14ac:dyDescent="0.2">
       <c r="A15" s="1"/>
       <c r="B15" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1">
         <v>217</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F15" s="3">
         <v>0.45300000000000001</v>
@@ -4734,14 +5643,14 @@
     <row r="16" spans="1:14" ht="18" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
       <c r="B16" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1">
         <v>219</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F16" s="3">
         <v>0.32200000000000001</v>
@@ -4762,7 +5671,7 @@
     <row r="17" spans="1:14" ht="18" x14ac:dyDescent="0.2">
       <c r="A17" s="1"/>
       <c r="B17" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1">
@@ -4792,15 +5701,15 @@
     </row>
     <row r="18" spans="1:14" ht="18" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
-      <c r="B18" s="33" t="s">
-        <v>257</v>
+      <c r="B18" s="34" t="s">
+        <v>256</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1">
         <v>283</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F18" s="3">
         <v>0.495</v>
@@ -4826,7 +5735,7 @@
     </row>
     <row r="19" spans="1:14" ht="18" x14ac:dyDescent="0.2">
       <c r="A19" s="1"/>
-      <c r="B19" s="34"/>
+      <c r="B19" s="35"/>
       <c r="C19" s="1">
         <v>100</v>
       </c>
@@ -4860,7 +5769,7 @@
     </row>
     <row r="20" spans="1:14" ht="18" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
-      <c r="B20" s="34"/>
+      <c r="B20" s="35"/>
       <c r="C20" s="1">
         <v>101</v>
       </c>
@@ -4868,13 +5777,13 @@
         <v>80</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F20" s="3">
         <v>0.35799999999999998</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="I20">
         <v>1</v>
@@ -4888,7 +5797,7 @@
     </row>
     <row r="21" spans="1:14" ht="18" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>
-      <c r="B21" s="34"/>
+      <c r="B21" s="35"/>
       <c r="C21" s="1">
         <v>172</v>
       </c>
@@ -4923,14 +5832,14 @@
     <row r="23" spans="1:14" ht="18" x14ac:dyDescent="0.2">
       <c r="A23" s="1"/>
       <c r="B23" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C23" s="1"/>
       <c r="D23" s="1">
         <v>485</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F23" s="3">
         <v>0.54200000000000004</v>
@@ -4954,14 +5863,14 @@
     <row r="24" spans="1:14" ht="18" x14ac:dyDescent="0.2">
       <c r="A24" s="1"/>
       <c r="B24" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C24" s="1"/>
       <c r="D24" s="1">
         <v>532</v>
       </c>
       <c r="E24" s="29" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F24" s="3">
         <v>0.28000000000000003</v>
@@ -4982,10 +5891,10 @@
         <v>42920</v>
       </c>
       <c r="M24" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="N24" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="25" spans="1:14" ht="18" x14ac:dyDescent="0.2">
@@ -5052,7 +5961,7 @@
     <row r="27" spans="1:14" ht="18" x14ac:dyDescent="0.2">
       <c r="A27" s="1"/>
       <c r="B27" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C27" s="1"/>
       <c r="D27" s="1">
@@ -5123,7 +6032,7 @@
         <v>624</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F29" s="3">
         <v>0.32600000000000001</v>
@@ -5149,15 +6058,15 @@
     </row>
     <row r="30" spans="1:14" ht="18" x14ac:dyDescent="0.2">
       <c r="A30" s="1"/>
-      <c r="B30" s="35" t="s">
-        <v>298</v>
+      <c r="B30" s="36" t="s">
+        <v>297</v>
       </c>
       <c r="C30" s="1"/>
       <c r="D30" s="1">
         <v>414</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F30" s="3">
         <v>0.27700000000000002</v>
@@ -5178,14 +6087,14 @@
         <v>42920</v>
       </c>
       <c r="M30" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="N30" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="31" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B31" s="35"/>
+      <c r="B31" s="36"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1">
         <v>628</v>
@@ -5212,15 +6121,15 @@
         <v>42920</v>
       </c>
       <c r="M31" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="N31" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="32" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B32" s="36" t="s">
-        <v>255</v>
+      <c r="B32" s="37" t="s">
+        <v>254</v>
       </c>
       <c r="C32" s="1">
         <v>196</v>
@@ -5229,7 +6138,7 @@
         <v>268</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>96</v>
+        <v>304</v>
       </c>
       <c r="F32" s="3">
         <v>0.441</v>
@@ -5246,15 +6155,18 @@
       <c r="L32" s="5">
         <v>42919</v>
       </c>
+      <c r="M32" t="s">
+        <v>306</v>
+      </c>
     </row>
     <row r="33" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B33" s="36"/>
+      <c r="B33" s="37"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1">
         <v>645</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F33" s="3">
         <v>0.41899999999999998</v>
@@ -5274,15 +6186,15 @@
     </row>
     <row r="34" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>247</v>
-      </c>
-      <c r="B34" s="36"/>
+        <v>246</v>
+      </c>
+      <c r="B34" s="37"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1">
         <v>448</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F34" s="3">
         <v>0.52</v>
@@ -5304,16 +6216,16 @@
       </c>
     </row>
     <row r="35" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B35" s="36"/>
+      <c r="B35" s="37"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1">
         <v>442</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="I35">
         <v>1</v>
@@ -5329,7 +6241,7 @@
       </c>
     </row>
     <row r="36" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B36" s="36"/>
+      <c r="B36" s="37"/>
       <c r="C36" s="1">
         <v>633</v>
       </c>
@@ -5337,10 +6249,10 @@
         <v>287</v>
       </c>
       <c r="E36" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="G36" s="1" t="s">
         <v>248</v>
-      </c>
-      <c r="G36" s="1" t="s">
-        <v>249</v>
       </c>
       <c r="I36">
         <v>1</v>
@@ -5356,7 +6268,7 @@
       </c>
     </row>
     <row r="37" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B37" s="36"/>
+      <c r="B37" s="37"/>
       <c r="C37" s="1">
         <v>189</v>
       </c>
@@ -5364,10 +6276,10 @@
         <v>41</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="I37">
         <v>1</v>
@@ -5383,8 +6295,8 @@
       </c>
     </row>
     <row r="38" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B38" s="36" t="s">
-        <v>302</v>
+      <c r="B38" s="37" t="s">
+        <v>301</v>
       </c>
       <c r="C38" s="1">
         <v>46</v>
@@ -5393,7 +6305,7 @@
         <v>169</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F38" s="3">
         <v>0.46200000000000002</v>
@@ -5418,7 +6330,7 @@
       </c>
     </row>
     <row r="39" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B39" s="36"/>
+      <c r="B39" s="37"/>
       <c r="C39" s="1">
         <v>47</v>
       </c>
@@ -5426,10 +6338,10 @@
         <v>299</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="I39">
         <v>1</v>
@@ -5445,7 +6357,7 @@
       </c>
     </row>
     <row r="40" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B40" s="37"/>
+      <c r="B40" s="38"/>
       <c r="C40" s="1"/>
       <c r="E40" s="2"/>
       <c r="G40" s="1"/>
@@ -5471,7 +6383,7 @@
     </row>
     <row r="42" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C42" s="1">
         <v>56</v>
@@ -5480,7 +6392,7 @@
         <v>1</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F42" s="3">
         <v>0.33700000000000002</v>
@@ -5497,7 +6409,7 @@
     </row>
     <row r="43" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B43" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C43" s="1">
         <v>82</v>
@@ -5506,7 +6418,7 @@
         <v>136</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F43" s="3">
         <v>0.54100000000000004</v>
@@ -5533,7 +6445,7 @@
         <v>170</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F44" s="3">
         <v>0.24</v>
@@ -5559,7 +6471,7 @@
         <v>202</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F45" s="3">
         <v>0.40400000000000003</v>
@@ -5586,7 +6498,7 @@
         <v>204</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F46" s="3">
         <v>0.26500000000000001</v>
@@ -5607,7 +6519,7 @@
         <v>42925</v>
       </c>
       <c r="M46" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="47" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -5618,7 +6530,7 @@
         <v>205</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F47" s="3">
         <v>0.33500000000000002</v>
@@ -5645,7 +6557,7 @@
         <v>217</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F48" s="3">
         <v>0.45300000000000001</v>
@@ -5660,13 +6572,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="3:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C49" s="1"/>
       <c r="D49" s="1">
         <v>219</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F49" s="3">
         <v>0.32200000000000001</v>
@@ -5681,13 +6593,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="3:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C50" s="1"/>
       <c r="D50" s="1">
         <v>242</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F50" s="3">
         <v>0.46100000000000002</v>
@@ -5705,13 +6617,13 @@
         <v>42925</v>
       </c>
     </row>
-    <row r="51" spans="3:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C51" s="1"/>
       <c r="D51" s="1">
         <v>246</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F51" s="3">
         <v>0.39500000000000002</v>
@@ -5729,13 +6641,13 @@
         <v>42925</v>
       </c>
     </row>
-    <row r="52" spans="3:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C52" s="1"/>
       <c r="D52" s="1">
         <v>266</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F52" s="3">
         <v>0.56599999999999995</v>
@@ -5753,13 +6665,13 @@
         <v>42925</v>
       </c>
     </row>
-    <row r="53" spans="3:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C53" s="1"/>
       <c r="D53" s="1">
         <v>290</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F53" s="3">
         <v>0.32900000000000001</v>
@@ -5777,7 +6689,7 @@
         <v>42925</v>
       </c>
     </row>
-    <row r="54" spans="3:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C54" s="1">
         <v>547</v>
       </c>
@@ -5785,7 +6697,7 @@
         <v>349</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F54" s="3">
         <v>0.47</v>
@@ -5800,7 +6712,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="3:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C55" s="1">
         <v>548</v>
       </c>
@@ -5823,13 +6735,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="3:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C56" s="1"/>
       <c r="D56" s="1">
         <v>359</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F56" s="3">
         <v>0.59399999999999997</v>
@@ -5847,13 +6759,16 @@
         <v>42925</v>
       </c>
     </row>
-    <row r="57" spans="3:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B57" t="s">
+        <v>249</v>
+      </c>
       <c r="C57" s="1"/>
       <c r="D57" s="1">
         <v>389</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F57" s="3">
         <v>0.51500000000000001</v>
@@ -5870,8 +6785,14 @@
       <c r="L57" s="4">
         <v>42925</v>
       </c>
-    </row>
-    <row r="58" spans="3:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M57">
+        <v>1</v>
+      </c>
+      <c r="N57" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="58" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C58" s="1">
         <v>627</v>
       </c>
@@ -5879,7 +6800,7 @@
         <v>409</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F58" s="3">
         <v>0.45300000000000001</v>
@@ -5891,7 +6812,7 @@
         <v>1</v>
       </c>
       <c r="J58" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="K58">
         <v>1</v>
@@ -5900,7 +6821,7 @@
         <v>42925</v>
       </c>
     </row>
-    <row r="59" spans="3:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C59" s="1">
         <v>647</v>
       </c>
@@ -5908,7 +6829,7 @@
         <v>438</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F59" s="3">
         <v>0.33500000000000002</v>
@@ -5929,19 +6850,19 @@
         <v>42925</v>
       </c>
       <c r="M59" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="N59" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="60" spans="3:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="60" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C60" s="1"/>
       <c r="D60" s="1">
         <v>447</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F60" s="3">
         <v>0.44600000000000001</v>
@@ -5950,7 +6871,7 @@
         <v>85</v>
       </c>
       <c r="I60">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J60" t="s">
         <v>77</v>
@@ -5961,14 +6882,17 @@
       <c r="L60" s="4">
         <v>42926</v>
       </c>
-    </row>
-    <row r="61" spans="3:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N60" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="61" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C61" s="1"/>
       <c r="D61" s="1">
         <v>463</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F61" s="3">
         <v>0.57099999999999995</v>
@@ -5989,13 +6913,13 @@
         <v>42926</v>
       </c>
     </row>
-    <row r="62" spans="3:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C62" s="1"/>
       <c r="D62" s="1">
         <v>500</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F62" s="3">
         <v>0.6</v>
@@ -6004,7 +6928,7 @@
         <v>85</v>
       </c>
       <c r="I62">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J62" t="s">
         <v>77</v>
@@ -6015,14 +6939,17 @@
       <c r="L62" s="4">
         <v>42926</v>
       </c>
-    </row>
-    <row r="63" spans="3:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N62" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="63" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C63" s="1"/>
       <c r="D63" s="1">
         <v>575</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F63" s="3">
         <v>0.59399999999999997</v>
@@ -6040,13 +6967,16 @@
         <v>42926</v>
       </c>
     </row>
-    <row r="64" spans="3:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B64" t="s">
+        <v>305</v>
+      </c>
       <c r="C64" s="1"/>
       <c r="D64" s="1">
         <v>594</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F64" s="3">
         <v>0.39800000000000002</v>
@@ -6065,6 +6995,9 @@
       </c>
       <c r="L64" s="4">
         <v>42926</v>
+      </c>
+      <c r="N64" t="s">
+        <v>298</v>
       </c>
     </row>
     <row r="65" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -6073,7 +7006,7 @@
         <v>599</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F65" s="3">
         <v>0.48099999999999998</v>
@@ -6097,7 +7030,7 @@
         <v>624</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F66" s="3">
         <v>0.32600000000000001</v>
@@ -6140,7 +7073,7 @@
         <v>645</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F69" s="3">
         <v>0.41899999999999998</v>
@@ -6165,7 +7098,7 @@
       </c>
       <c r="I70" s="7">
         <f>SUM(I42:I66)</f>
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="K70" s="7">
         <f>SUM(K42:K66)</f>
@@ -6174,15 +7107,15 @@
     </row>
     <row r="71" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="72" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D72" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F72" s="3">
         <v>0.28999999999999998</v>
@@ -6196,7 +7129,7 @@
     </row>
     <row r="73" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B73" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C73" s="1">
         <v>13</v>
@@ -6205,7 +7138,7 @@
         <v>28</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F73" s="3">
         <v>0.27900000000000003</v>
@@ -6231,7 +7164,7 @@
         <v>551</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F74" s="3">
         <v>0.437</v>
@@ -6260,7 +7193,7 @@
         <v>521</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F75" s="3">
         <v>0.54800000000000004</v>
@@ -6286,7 +7219,7 @@
         <v>13</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F76" s="3">
         <v>0.45400000000000001</v>
@@ -6307,7 +7240,7 @@
         <v>14</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F77" s="3">
         <v>0.314</v>
@@ -6331,7 +7264,7 @@
         <v>520</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F78" s="3">
         <v>0.52100000000000002</v>
@@ -6351,7 +7284,7 @@
     </row>
     <row r="79" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B79" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C79" s="1">
         <v>423</v>
@@ -6360,7 +7293,7 @@
         <v>20</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F79" s="3">
         <v>0.33300000000000002</v>
@@ -6383,14 +7316,14 @@
     </row>
     <row r="80" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B80" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C80" s="1"/>
       <c r="D80" s="1">
         <v>459</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F80" s="3">
         <v>0.38100000000000001</v>
@@ -6417,7 +7350,7 @@
         <v>606</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F81" s="3">
         <v>0.51400000000000001</v>
@@ -6444,7 +7377,7 @@
         <v>434</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F82" s="3">
         <v>0.36799999999999999</v>
@@ -6468,10 +7401,10 @@
     <row r="83" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C83" s="1"/>
       <c r="D83" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F83" s="3">
         <v>0.27900000000000003</v>
@@ -6491,7 +7424,7 @@
         <v>38</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F84" s="3">
         <v>0.34300000000000003</v>
@@ -6511,14 +7444,14 @@
     </row>
     <row r="85" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B85" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C85" s="1"/>
       <c r="D85" s="1">
         <v>383</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F85" s="3">
         <v>0.47099999999999997</v>
@@ -6542,7 +7475,7 @@
         <v>345</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F86" s="3">
         <v>0.38400000000000001</v>
@@ -6571,7 +7504,7 @@
         <v>58</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F87" s="3">
         <v>0.318</v>
@@ -6592,10 +7525,10 @@
     <row r="88" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C88" s="1"/>
       <c r="D88" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F88" s="3">
         <v>0.55500000000000005</v>
@@ -6609,7 +7542,7 @@
     </row>
     <row r="89" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B89" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C89" s="1">
         <v>408</v>
@@ -6618,7 +7551,7 @@
         <v>67</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F89" s="3">
         <v>0.32100000000000001</v>
@@ -6630,7 +7563,7 @@
         <v>1</v>
       </c>
       <c r="J89" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="K89">
         <v>1</v>
@@ -6647,7 +7580,7 @@
         <v>125</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F90" s="3">
         <v>0.26100000000000001</v>
@@ -6674,7 +7607,7 @@
         <v>344</v>
       </c>
       <c r="E91" s="26" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F91" s="27">
         <v>0.59</v>
@@ -6694,14 +7627,14 @@
     </row>
     <row r="92" spans="2:12" ht="18" x14ac:dyDescent="0.2">
       <c r="B92" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C92" s="1"/>
       <c r="D92" s="1">
         <v>541</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F92" s="3">
         <v>0.44</v>
@@ -6727,7 +7660,7 @@
         <v>557</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F93" s="3">
         <v>0.59799999999999998</v>
@@ -6779,14 +7712,14 @@
     </row>
     <row r="99" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C99" s="1"/>
       <c r="D99" s="1">
         <v>141</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F99" s="3">
         <v>0.35399999999999998</v>
@@ -6812,7 +7745,7 @@
         <v>237</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F100" s="3">
         <v>0.46300000000000002</v>
@@ -6848,7 +7781,7 @@
         <v>83</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F101" s="3">
         <v>0.39700000000000002</v>
@@ -6869,7 +7802,7 @@
         <v>160</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F102" s="3">
         <v>0.30499999999999999</v>
@@ -6893,7 +7826,7 @@
         <v>203</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F103" s="3">
         <v>0.32200000000000001</v>
@@ -6914,7 +7847,7 @@
         <v>206</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F104" s="3">
         <v>0.45200000000000001</v>
@@ -6938,7 +7871,7 @@
         <v>234</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F105" s="3">
         <v>0.32600000000000001</v>
@@ -6962,7 +7895,7 @@
         <v>21</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F106" s="3">
         <v>0.39</v>
@@ -7014,7 +7947,7 @@
     </row>
     <row r="109" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C109">
         <v>155</v>
@@ -7023,13 +7956,16 @@
         <v>111</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F109" s="3">
         <v>0.33</v>
       </c>
       <c r="G109" s="1" t="s">
         <v>85</v>
+      </c>
+      <c r="H109">
+        <v>1</v>
       </c>
     </row>
     <row r="110" spans="1:24" ht="18" x14ac:dyDescent="0.2">
@@ -7040,13 +7976,16 @@
         <v>235</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F110" s="3">
         <v>0.38900000000000001</v>
       </c>
       <c r="G110" s="1" t="s">
         <v>85</v>
+      </c>
+      <c r="H110">
+        <v>1</v>
       </c>
     </row>
     <row r="111" spans="1:24" ht="18" x14ac:dyDescent="0.2">
@@ -7055,7 +7994,7 @@
         <v>270</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F111" s="3">
         <v>0.39200000000000002</v>
@@ -7070,7 +8009,7 @@
         <v>606</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F112" s="3">
         <v>0.51300000000000001</v>
@@ -7079,13 +8018,13 @@
         <v>85</v>
       </c>
     </row>
-    <row r="113" spans="3:7" ht="18" x14ac:dyDescent="0.2">
+    <row r="113" spans="3:8" ht="18" x14ac:dyDescent="0.2">
       <c r="C113" s="1"/>
       <c r="D113" s="1">
         <v>501</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F113" s="3">
         <v>0.38100000000000001</v>
@@ -7094,13 +8033,13 @@
         <v>85</v>
       </c>
     </row>
-    <row r="114" spans="3:7" ht="18" x14ac:dyDescent="0.2">
+    <row r="114" spans="3:8" ht="18" x14ac:dyDescent="0.2">
       <c r="C114" s="1"/>
       <c r="D114" s="1">
         <v>543</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F114" s="3">
         <v>0.434</v>
@@ -7109,13 +8048,15 @@
         <v>85</v>
       </c>
     </row>
-    <row r="115" spans="3:7" ht="18" x14ac:dyDescent="0.2">
-      <c r="C115" s="1"/>
+    <row r="115" spans="3:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="C115" s="1">
+        <v>472</v>
+      </c>
       <c r="D115" s="1">
         <v>437</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F115" s="3">
         <v>0.39800000000000002</v>
@@ -7123,14 +8064,17 @@
       <c r="G115" s="1" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="116" spans="3:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="H115">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="3:8" ht="18" x14ac:dyDescent="0.2">
       <c r="C116" s="1"/>
       <c r="D116" s="1">
         <v>404</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F116" s="3">
         <v>0.46899999999999997</v>
@@ -7139,13 +8083,15 @@
         <v>85</v>
       </c>
     </row>
-    <row r="117" spans="3:7" ht="18" x14ac:dyDescent="0.2">
-      <c r="C117" s="1"/>
+    <row r="117" spans="3:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="C117" s="1">
+        <v>661</v>
+      </c>
       <c r="D117" s="1">
         <v>538</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F117" s="3">
         <v>0.51900000000000002</v>
@@ -7154,13 +8100,13 @@
         <v>85</v>
       </c>
     </row>
-    <row r="118" spans="3:7" ht="18" x14ac:dyDescent="0.2">
+    <row r="118" spans="3:8" ht="18" x14ac:dyDescent="0.2">
       <c r="C118" s="1"/>
       <c r="D118" s="1">
         <v>637</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F118" s="3">
         <v>0.58499999999999996</v>
@@ -7169,13 +8115,15 @@
         <v>85</v>
       </c>
     </row>
-    <row r="119" spans="3:7" ht="18" x14ac:dyDescent="0.2">
-      <c r="C119" s="1"/>
+    <row r="119" spans="3:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="C119" s="1">
+        <v>376</v>
+      </c>
       <c r="D119" s="1">
         <v>112</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F119" s="3">
         <v>0.33800000000000002</v>
@@ -7183,14 +8131,19 @@
       <c r="G119" s="1" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="120" spans="3:7" ht="18" x14ac:dyDescent="0.2">
-      <c r="C120" s="1"/>
+      <c r="H119">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="3:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="C120" s="1">
+        <v>480</v>
+      </c>
       <c r="D120" s="1">
         <v>257</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F120" s="3">
         <v>0.38</v>
@@ -7198,14 +8151,19 @@
       <c r="G120" s="1" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="121" spans="3:7" ht="18" x14ac:dyDescent="0.2">
-      <c r="C121" s="1"/>
+      <c r="H120">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="3:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="C121" s="1">
+        <v>93</v>
+      </c>
       <c r="D121" s="1">
         <v>110</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F121" s="3">
         <v>0.373</v>
@@ -7213,14 +8171,19 @@
       <c r="G121" s="1" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="122" spans="3:7" ht="18" x14ac:dyDescent="0.2">
-      <c r="C122" s="1"/>
+      <c r="H121">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="3:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="C122" s="1">
+        <v>177</v>
+      </c>
       <c r="D122" s="1">
         <v>108</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F122" s="3">
         <v>0.41899999999999998</v>
@@ -7228,14 +8191,19 @@
       <c r="G122" s="1" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="123" spans="3:7" ht="18" x14ac:dyDescent="0.2">
-      <c r="C123" s="1"/>
+      <c r="H122">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="3:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="C123" s="1">
+        <v>70</v>
+      </c>
       <c r="D123" s="1">
         <v>107</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F123" s="3">
         <v>0.39900000000000002</v>
@@ -7243,14 +8211,19 @@
       <c r="G123" s="1" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="124" spans="3:7" ht="18" x14ac:dyDescent="0.2">
-      <c r="C124" s="1"/>
+      <c r="H123">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="3:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="C124" s="1">
+        <v>175</v>
+      </c>
       <c r="D124" s="1">
         <v>226</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F124" s="3">
         <v>0.51600000000000001</v>
@@ -7259,13 +8232,13 @@
         <v>85</v>
       </c>
     </row>
-    <row r="125" spans="3:7" ht="18" x14ac:dyDescent="0.2">
+    <row r="125" spans="3:8" ht="18" x14ac:dyDescent="0.2">
       <c r="C125" s="1"/>
       <c r="D125" s="1">
         <v>572</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F125" s="3">
         <v>0.40799999999999997</v>
@@ -7274,13 +8247,15 @@
         <v>85</v>
       </c>
     </row>
-    <row r="126" spans="3:7" ht="18" x14ac:dyDescent="0.2">
-      <c r="C126" s="1"/>
+    <row r="126" spans="3:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="C126" s="1">
+        <v>97</v>
+      </c>
       <c r="D126" s="1">
         <v>104</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F126" s="3">
         <v>0.52400000000000002</v>
@@ -7289,13 +8264,13 @@
         <v>85</v>
       </c>
     </row>
-    <row r="127" spans="3:7" ht="18" x14ac:dyDescent="0.2">
+    <row r="127" spans="3:8" ht="18" x14ac:dyDescent="0.2">
       <c r="C127" s="1"/>
       <c r="D127" s="1">
         <v>563</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F127" s="3">
         <v>0.46899999999999997</v>
@@ -7304,13 +8279,13 @@
         <v>85</v>
       </c>
     </row>
-    <row r="128" spans="3:7" ht="18" x14ac:dyDescent="0.2">
+    <row r="128" spans="3:8" ht="18" x14ac:dyDescent="0.2">
       <c r="C128" s="1"/>
       <c r="D128" s="1">
         <v>617</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F128" s="3">
         <v>0.69099999999999995</v>
@@ -7319,13 +8294,15 @@
         <v>85</v>
       </c>
     </row>
-    <row r="129" spans="3:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="C129" s="1"/>
+    <row r="129" spans="1:9" ht="18" x14ac:dyDescent="0.2">
+      <c r="C129" s="1">
+        <v>468</v>
+      </c>
       <c r="D129" s="1">
         <v>101</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F129" s="3">
         <v>0.38500000000000001</v>
@@ -7333,14 +8310,19 @@
       <c r="G129" s="1" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="130" spans="3:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="C130" s="1"/>
+      <c r="H129">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" ht="18" x14ac:dyDescent="0.2">
+      <c r="C130" s="1">
+        <v>469</v>
+      </c>
       <c r="D130" s="1">
         <v>100</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F130" s="3">
         <v>0.46300000000000002</v>
@@ -7349,16 +8331,32 @@
         <v>85</v>
       </c>
     </row>
-    <row r="131" spans="3:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="I131" s="8">
         <f>SUM(I109:I130)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A132" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" ht="18" x14ac:dyDescent="0.2">
+      <c r="D133" s="1">
+        <v>416</v>
+      </c>
+      <c r="E133" t="s">
+        <v>307</v>
+      </c>
       <c r="I133">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I154">
         <f>I41+I70+I98+I107+I131</f>
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -7384,7 +8382,7 @@
     <hyperlink ref="E25" r:id="rId10"/>
     <hyperlink ref="E5" r:id="rId11"/>
     <hyperlink ref="E11" r:id="rId12"/>
-    <hyperlink ref="E32" r:id="rId13"/>
+    <hyperlink ref="E32" r:id="rId13" display="Missing Number"/>
     <hyperlink ref="E2" r:id="rId14"/>
     <hyperlink ref="E29" r:id="rId15"/>
     <hyperlink ref="E18" r:id="rId16"/>

--- a/mycode/刷题统计.xlsx
+++ b/mycode/刷题统计.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="4060" yWindow="460" windowWidth="19540" windowHeight="14180" tabRatio="500"/>
+    <workbookView xWindow="780" yWindow="460" windowWidth="24020" windowHeight="14180" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="608" uniqueCount="346">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="649" uniqueCount="359">
   <si>
     <t>1 binary search</t>
   </si>
@@ -1066,6 +1066,45 @@
   </si>
   <si>
     <t>postorder for BT</t>
+  </si>
+  <si>
+    <t>LCA bst</t>
+  </si>
+  <si>
+    <t>Add One Row to Tree</t>
+  </si>
+  <si>
+    <t>Smallest Range</t>
+  </si>
+  <si>
+    <t>比较绕，要重看</t>
+  </si>
+  <si>
+    <t>比较难懂</t>
+  </si>
+  <si>
+    <t>inorder,不易想</t>
+  </si>
+  <si>
+    <t>遍历树存array</t>
+  </si>
+  <si>
+    <t>用array建树</t>
+  </si>
+  <si>
+    <t>path sum</t>
+  </si>
+  <si>
+    <t>min path sum</t>
+  </si>
+  <si>
+    <t>Binary Tree Maximum Path Sum root to any)</t>
+  </si>
+  <si>
+    <t>Binary Tree Maximum Path Sum(any to any)</t>
+  </si>
+  <si>
+    <t>只return true</t>
   </si>
 </sst>
 </file>
@@ -1124,7 +1163,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1173,8 +1212,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEDEDED"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="7">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -1256,8 +1301,32 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="25">
+  <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1283,8 +1352,25 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="7"/>
@@ -1319,6 +1405,28 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="16" fontId="0" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="0" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="3" fillId="9" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1331,14 +1439,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="25">
+  <cellStyles count="42">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1359,6 +1462,23 @@
     <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="23" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="25" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="27" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="29" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="31" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="33" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="35" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="37" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="39" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="41" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1638,11 +1758,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M185"/>
+  <dimension ref="A1:M199"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A133" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G148" sqref="G148"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A156" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K173" sqref="K173"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2010,6 +2130,9 @@
       <c r="F16" s="10">
         <v>162</v>
       </c>
+      <c r="G16" s="10">
+        <v>1</v>
+      </c>
       <c r="H16" s="10">
         <v>2</v>
       </c>
@@ -2036,6 +2159,9 @@
       </c>
       <c r="E18" s="10">
         <v>460</v>
+      </c>
+      <c r="F18" s="10">
+        <v>658</v>
       </c>
       <c r="K18" s="12"/>
     </row>
@@ -4594,618 +4720,1019 @@
       <c r="F143" s="31"/>
     </row>
     <row r="144" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A144" s="40">
+      <c r="A144" s="35">
         <v>143</v>
       </c>
-      <c r="D144" s="40" t="s">
+      <c r="D144" s="35" t="s">
         <v>292</v>
       </c>
-      <c r="E144" s="40">
+      <c r="E144" s="35">
         <v>613</v>
       </c>
-      <c r="F144" s="40"/>
-    </row>
-    <row r="145" spans="1:11" s="39" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A145" s="39">
+      <c r="F144" s="35"/>
+    </row>
+    <row r="145" spans="1:11" s="34" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A145" s="34">
         <v>144</v>
       </c>
-      <c r="B145" s="39" t="s">
+      <c r="B145" s="34" t="s">
         <v>341</v>
       </c>
-      <c r="D145" s="39" t="s">
+      <c r="C145" s="43" t="s">
+        <v>352</v>
+      </c>
+      <c r="D145" s="34" t="s">
         <v>343</v>
       </c>
-      <c r="E145" s="39">
+      <c r="E145" s="34">
         <v>66</v>
       </c>
-      <c r="F145" s="39">
+      <c r="F145" s="34">
         <v>144</v>
       </c>
-      <c r="G145" s="39">
-        <v>1</v>
-      </c>
-      <c r="H145" s="39">
+      <c r="G145" s="34">
+        <v>1</v>
+      </c>
+      <c r="H145" s="34">
         <v>2</v>
       </c>
-      <c r="J145" s="39" t="s">
+      <c r="J145" s="34" t="s">
         <v>342</v>
       </c>
-      <c r="K145" s="33">
+      <c r="K145" s="37">
         <v>42950</v>
       </c>
     </row>
-    <row r="146" spans="1:11" s="39" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A146" s="39">
+    <row r="146" spans="1:11" s="34" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A146" s="34">
         <v>145</v>
       </c>
-      <c r="D146" s="39" t="s">
+      <c r="C146" s="44"/>
+      <c r="D146" s="34" t="s">
         <v>344</v>
       </c>
-      <c r="E146" s="39">
+      <c r="E146" s="34">
         <v>67</v>
       </c>
-      <c r="F146" s="39">
+      <c r="F146" s="34">
         <v>94</v>
       </c>
-      <c r="G146" s="39">
-        <v>1</v>
-      </c>
-      <c r="H146" s="39">
+      <c r="G146" s="34">
+        <v>1</v>
+      </c>
+      <c r="H146" s="34">
         <v>2</v>
       </c>
-      <c r="J146" s="39" t="s">
+      <c r="J146" s="34" t="s">
         <v>342</v>
       </c>
-      <c r="K146" s="33">
+      <c r="K146" s="37">
         <v>42950</v>
       </c>
     </row>
-    <row r="147" spans="1:11" s="39" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A147" s="39">
+    <row r="147" spans="1:11" s="34" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A147" s="34">
         <v>146</v>
       </c>
-      <c r="D147" s="39" t="s">
+      <c r="C147" s="44"/>
+      <c r="D147" s="34" t="s">
         <v>345</v>
       </c>
-      <c r="E147" s="39">
+      <c r="E147" s="34">
         <v>68</v>
       </c>
-      <c r="F147" s="39">
+      <c r="F147" s="34">
         <v>145</v>
       </c>
-      <c r="G147" s="39">
-        <v>1</v>
-      </c>
-      <c r="H147" s="39">
+      <c r="G147" s="34">
+        <v>1</v>
+      </c>
+      <c r="H147" s="34">
         <v>3</v>
       </c>
-      <c r="J147" s="39" t="s">
+      <c r="J147" s="34" t="s">
         <v>342</v>
       </c>
-      <c r="K147" s="33">
+      <c r="K147" s="37">
         <v>42950</v>
       </c>
     </row>
-    <row r="148" spans="1:11" s="39" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A148" s="39">
+    <row r="148" spans="1:11" s="34" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A148" s="34">
         <v>147</v>
       </c>
-      <c r="D148" s="39" t="s">
+      <c r="C148" s="44"/>
+      <c r="D148" s="34" t="s">
         <v>309</v>
       </c>
-      <c r="E148" s="39">
+      <c r="E148" s="34">
         <v>69</v>
       </c>
-      <c r="F148" s="39">
+      <c r="F148" s="34">
         <v>102</v>
       </c>
-      <c r="H148" s="39">
+      <c r="G148" s="34">
+        <v>1</v>
+      </c>
+      <c r="H148" s="34">
         <v>2</v>
       </c>
-    </row>
-    <row r="149" spans="1:11" s="39" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A149" s="39">
+      <c r="K148" s="37">
+        <v>42951</v>
+      </c>
+    </row>
+    <row r="149" spans="1:11" s="34" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A149" s="34">
         <v>148</v>
       </c>
-      <c r="D149" s="39" t="s">
+      <c r="C149" s="44"/>
+      <c r="D149" s="34" t="s">
         <v>319</v>
       </c>
-      <c r="E149" s="39">
+      <c r="E149" s="34">
         <v>70</v>
       </c>
-      <c r="F149" s="39">
+      <c r="F149" s="34">
         <v>107</v>
       </c>
-      <c r="H149" s="39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="150" spans="1:11" s="39" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A150" s="39">
+      <c r="G149" s="34">
+        <v>1</v>
+      </c>
+      <c r="H149" s="34">
+        <v>1</v>
+      </c>
+      <c r="K149" s="37">
+        <v>42951</v>
+      </c>
+    </row>
+    <row r="150" spans="1:11" s="34" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A150" s="34">
         <v>149</v>
       </c>
-      <c r="D150" s="39" t="s">
+      <c r="C150" s="45"/>
+      <c r="D150" s="34" t="s">
         <v>320</v>
       </c>
-      <c r="E150" s="39">
+      <c r="E150" s="34">
         <v>71</v>
       </c>
-      <c r="F150" s="39">
+      <c r="F150" s="34">
         <v>103</v>
       </c>
-      <c r="H150" s="39">
+      <c r="G150" s="34">
+        <v>1</v>
+      </c>
+      <c r="H150" s="34">
         <v>2</v>
       </c>
-    </row>
-    <row r="151" spans="1:11" s="39" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A151" s="39">
+      <c r="K150" s="37">
+        <v>42951</v>
+      </c>
+    </row>
+    <row r="151" spans="1:11" s="34" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A151" s="34">
         <v>150</v>
       </c>
-      <c r="D151" s="39" t="s">
+      <c r="D151" s="34" t="s">
         <v>310</v>
       </c>
-      <c r="E151" s="39">
+      <c r="E151" s="34">
         <v>97</v>
       </c>
-    </row>
-    <row r="152" spans="1:11" s="39" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A152" s="39">
+      <c r="F151" s="34">
+        <v>104</v>
+      </c>
+      <c r="G151" s="34">
+        <v>1</v>
+      </c>
+      <c r="H151" s="34">
+        <v>1</v>
+      </c>
+      <c r="K151" s="37">
+        <v>42951</v>
+      </c>
+    </row>
+    <row r="152" spans="1:11" s="34" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A152" s="34">
         <v>151</v>
       </c>
-      <c r="D152" s="39" t="s">
+      <c r="D152" s="34" t="s">
         <v>311</v>
       </c>
-      <c r="E152" s="39">
+      <c r="E152" s="34">
         <v>155</v>
       </c>
-      <c r="F152" s="39">
+      <c r="F152" s="34">
         <v>111</v>
       </c>
-      <c r="H152" s="39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="153" spans="1:11" s="39" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A153" s="39">
+      <c r="G152" s="34">
+        <v>1</v>
+      </c>
+      <c r="H152" s="34">
+        <v>1</v>
+      </c>
+      <c r="J152" s="34" t="s">
+        <v>77</v>
+      </c>
+      <c r="K152" s="37">
+        <v>42951</v>
+      </c>
+    </row>
+    <row r="153" spans="1:11" s="34" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A153" s="34">
         <v>152</v>
       </c>
-      <c r="D153" s="39" t="s">
+      <c r="D153" s="34" t="s">
         <v>312</v>
       </c>
-      <c r="E153" s="39">
+      <c r="E153" s="34">
         <v>93</v>
       </c>
-      <c r="F153" s="39">
+      <c r="F153" s="34">
         <v>110</v>
       </c>
-      <c r="H153" s="39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="154" spans="1:11" s="39" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A154" s="39">
+      <c r="G153" s="34">
+        <v>1</v>
+      </c>
+      <c r="H153" s="34">
+        <v>1</v>
+      </c>
+      <c r="J153" s="34" t="s">
+        <v>77</v>
+      </c>
+      <c r="K153" s="37">
+        <v>42951</v>
+      </c>
+    </row>
+    <row r="154" spans="1:11" s="34" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A154" s="34">
         <v>153</v>
       </c>
-      <c r="D154" s="39" t="s">
+      <c r="C154" s="43" t="s">
         <v>313</v>
       </c>
-      <c r="E154" s="39">
+      <c r="D154" s="34" t="s">
+        <v>313</v>
+      </c>
+      <c r="E154" s="34">
         <v>88</v>
       </c>
-      <c r="F154" s="39">
+      <c r="F154" s="34">
         <v>236</v>
       </c>
-    </row>
-    <row r="155" spans="1:11" s="39" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A155" s="39">
+      <c r="G154" s="34">
+        <v>1</v>
+      </c>
+      <c r="H154" s="34">
+        <v>2</v>
+      </c>
+      <c r="J154" s="34" t="s">
+        <v>77</v>
+      </c>
+      <c r="K154" s="37">
+        <v>42960</v>
+      </c>
+    </row>
+    <row r="155" spans="1:11" s="34" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A155" s="34">
         <v>154</v>
       </c>
-      <c r="D155" s="39" t="s">
+      <c r="C155" s="44"/>
+      <c r="D155" s="34" t="s">
         <v>314</v>
       </c>
-      <c r="E155" s="39">
+      <c r="E155" s="34">
         <v>474</v>
       </c>
-      <c r="F155" s="39">
+      <c r="G155" s="34">
+        <v>1</v>
+      </c>
+      <c r="H155" s="34">
+        <v>2</v>
+      </c>
+      <c r="J155" s="34" t="s">
+        <v>77</v>
+      </c>
+      <c r="K155" s="37">
+        <v>42960</v>
+      </c>
+    </row>
+    <row r="156" spans="1:11" s="34" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A156" s="34">
+        <v>155</v>
+      </c>
+      <c r="C156" s="44"/>
+      <c r="D156" s="34" t="s">
+        <v>335</v>
+      </c>
+      <c r="E156" s="34">
+        <v>578</v>
+      </c>
+      <c r="G156" s="34">
+        <v>1</v>
+      </c>
+      <c r="H156" s="34">
+        <v>2</v>
+      </c>
+      <c r="J156" s="34" t="s">
+        <v>77</v>
+      </c>
+      <c r="K156" s="37">
+        <v>42960</v>
+      </c>
+    </row>
+    <row r="157" spans="1:11" s="34" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A157" s="34">
+        <v>156</v>
+      </c>
+      <c r="C157" s="45"/>
+      <c r="D157" s="34" t="s">
+        <v>346</v>
+      </c>
+      <c r="F157" s="34">
         <v>235</v>
       </c>
-    </row>
-    <row r="156" spans="1:11" s="39" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A156" s="39">
-        <v>155</v>
-      </c>
-      <c r="D156" s="39" t="s">
-        <v>335</v>
-      </c>
-      <c r="E156" s="39">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="157" spans="1:11" s="39" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A157" s="39">
-        <v>156</v>
-      </c>
-      <c r="D157" s="39" t="s">
+      <c r="G157" s="34">
+        <v>1</v>
+      </c>
+      <c r="H157" s="34">
+        <v>2</v>
+      </c>
+      <c r="J157" s="34" t="s">
+        <v>77</v>
+      </c>
+      <c r="K157" s="37">
+        <v>42960</v>
+      </c>
+    </row>
+    <row r="158" spans="1:11" s="34" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A158" s="34">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="159" spans="1:11" s="34" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A159" s="34">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="160" spans="1:11" s="34" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A160" s="34">
+        <v>159</v>
+      </c>
+      <c r="C160" s="34" t="s">
+        <v>349</v>
+      </c>
+      <c r="D160" s="34" t="s">
+        <v>317</v>
+      </c>
+      <c r="E160" s="34">
+        <v>95</v>
+      </c>
+      <c r="F160" s="34">
+        <v>98</v>
+      </c>
+      <c r="G160" s="34">
+        <v>1</v>
+      </c>
+      <c r="H160" s="34">
+        <v>2</v>
+      </c>
+      <c r="J160" s="34" t="s">
+        <v>77</v>
+      </c>
+      <c r="K160" s="37">
+        <v>42961</v>
+      </c>
+    </row>
+    <row r="161" spans="1:11" s="34" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A161" s="34">
+        <v>160</v>
+      </c>
+      <c r="C161" s="34" t="s">
+        <v>350</v>
+      </c>
+      <c r="D161" s="34" t="s">
+        <v>318</v>
+      </c>
+      <c r="E161" s="34">
+        <v>86</v>
+      </c>
+      <c r="F161" s="34">
+        <v>173</v>
+      </c>
+      <c r="G161" s="40">
+        <v>1</v>
+      </c>
+      <c r="H161" s="41">
+        <v>2</v>
+      </c>
+      <c r="I161" s="41"/>
+      <c r="J161" s="41" t="s">
+        <v>77</v>
+      </c>
+      <c r="K161" s="42">
+        <v>42961</v>
+      </c>
+    </row>
+    <row r="162" spans="1:11" s="34" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A162" s="34">
+        <v>161</v>
+      </c>
+      <c r="C162" s="34" t="s">
+        <v>351</v>
+      </c>
+      <c r="D162" s="34" t="s">
+        <v>321</v>
+      </c>
+      <c r="E162" s="34">
+        <v>448</v>
+      </c>
+      <c r="F162" s="34">
+        <v>285</v>
+      </c>
+      <c r="G162" s="40">
+        <v>1</v>
+      </c>
+      <c r="H162" s="41">
+        <v>2</v>
+      </c>
+      <c r="I162" s="41"/>
+      <c r="J162" s="41" t="s">
+        <v>77</v>
+      </c>
+      <c r="K162" s="42">
+        <v>42961</v>
+      </c>
+    </row>
+    <row r="163" spans="1:11" s="34" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A163" s="34">
+        <v>162</v>
+      </c>
+      <c r="C163" s="43" t="s">
+        <v>353</v>
+      </c>
+      <c r="D163" s="34" t="s">
+        <v>322</v>
+      </c>
+      <c r="E163" s="34">
+        <v>72</v>
+      </c>
+      <c r="F163" s="34">
+        <v>106</v>
+      </c>
+      <c r="G163" s="34">
+        <v>1</v>
+      </c>
+      <c r="H163" s="34">
+        <v>2</v>
+      </c>
+      <c r="K163" s="42">
+        <v>42962</v>
+      </c>
+    </row>
+    <row r="164" spans="1:11" s="34" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A164" s="34">
+        <v>163</v>
+      </c>
+      <c r="C164" s="45"/>
+      <c r="D164" s="34" t="s">
+        <v>323</v>
+      </c>
+      <c r="E164" s="34">
+        <v>73</v>
+      </c>
+      <c r="F164" s="34">
+        <v>105</v>
+      </c>
+      <c r="G164" s="34">
+        <v>1</v>
+      </c>
+      <c r="H164" s="34">
+        <v>2</v>
+      </c>
+      <c r="K164" s="42">
+        <v>42962</v>
+      </c>
+    </row>
+    <row r="165" spans="1:11" s="34" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A165" s="34">
+        <v>164</v>
+      </c>
+      <c r="D165" s="34" t="s">
+        <v>324</v>
+      </c>
+      <c r="E165" s="34">
+        <v>177</v>
+      </c>
+      <c r="F165" s="34">
+        <v>108</v>
+      </c>
+      <c r="H165" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166" spans="1:11" s="34" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A166" s="34">
+        <v>165</v>
+      </c>
+      <c r="D166" s="34" t="s">
+        <v>325</v>
+      </c>
+      <c r="E166" s="34">
+        <v>201</v>
+      </c>
+      <c r="H166" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167" spans="1:11" s="34" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A167" s="34">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="168" spans="1:11" s="34" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A168" s="34">
+        <v>167</v>
+      </c>
+      <c r="D168" s="34" t="s">
+        <v>334</v>
+      </c>
+      <c r="E168" s="34">
+        <v>480</v>
+      </c>
+      <c r="F168" s="34">
+        <v>257</v>
+      </c>
+      <c r="G168" s="34">
+        <v>1</v>
+      </c>
+      <c r="H168" s="34">
+        <v>1</v>
+      </c>
+      <c r="J168" s="34" t="s">
+        <v>77</v>
+      </c>
+      <c r="K168" s="42">
+        <v>42962</v>
+      </c>
+    </row>
+    <row r="169" spans="1:11" s="34" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A169" s="34">
+        <v>168</v>
+      </c>
+      <c r="C169" s="34" t="s">
+        <v>358</v>
+      </c>
+      <c r="D169" s="34" t="s">
+        <v>354</v>
+      </c>
+      <c r="F169" s="34">
+        <v>112</v>
+      </c>
+      <c r="G169" s="34">
+        <v>1</v>
+      </c>
+      <c r="H169" s="34">
+        <v>1</v>
+      </c>
+      <c r="J169" s="34" t="s">
+        <v>77</v>
+      </c>
+      <c r="K169" s="42">
+        <v>42962</v>
+      </c>
+    </row>
+    <row r="170" spans="1:11" s="34" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A170" s="34">
+        <v>169</v>
+      </c>
+      <c r="C170" s="34" t="s">
         <v>315</v>
       </c>
-      <c r="E157" s="39">
+      <c r="D170" s="34" t="s">
+        <v>326</v>
+      </c>
+      <c r="E170" s="34">
+        <v>376</v>
+      </c>
+      <c r="F170" s="34">
+        <v>113</v>
+      </c>
+      <c r="G170" s="34">
+        <v>1</v>
+      </c>
+      <c r="H170" s="34">
+        <v>2</v>
+      </c>
+      <c r="J170" s="34" t="s">
+        <v>77</v>
+      </c>
+      <c r="K170" s="42">
+        <v>42962</v>
+      </c>
+    </row>
+    <row r="171" spans="1:11" s="34" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A171" s="34">
+        <v>170</v>
+      </c>
+      <c r="C171" s="34" t="s">
+        <v>316</v>
+      </c>
+      <c r="D171" s="34" t="s">
+        <v>330</v>
+      </c>
+      <c r="E171" s="34">
+        <v>246</v>
+      </c>
+      <c r="F171" s="34">
+        <v>437</v>
+      </c>
+      <c r="G171" s="34">
+        <v>1</v>
+      </c>
+      <c r="H171" s="34">
+        <v>2</v>
+      </c>
+      <c r="J171" s="34" t="s">
+        <v>77</v>
+      </c>
+      <c r="K171" s="42">
+        <v>42962</v>
+      </c>
+    </row>
+    <row r="172" spans="1:11" s="34" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A172" s="34">
+        <v>171</v>
+      </c>
+      <c r="C172" s="34" t="s">
+        <v>316</v>
+      </c>
+      <c r="D172" s="34" t="s">
+        <v>333</v>
+      </c>
+      <c r="E172" s="34">
+        <v>472</v>
+      </c>
+      <c r="G172" s="34">
+        <v>1</v>
+      </c>
+      <c r="H172" s="34">
+        <v>2</v>
+      </c>
+      <c r="J172" s="34" t="s">
+        <v>77</v>
+      </c>
+      <c r="K172" s="42">
+        <v>42962</v>
+      </c>
+    </row>
+    <row r="173" spans="1:11" s="34" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A173" s="34">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="174" spans="1:11" s="34" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A174" s="34">
+        <v>173</v>
+      </c>
+      <c r="D174" s="34" t="s">
+        <v>357</v>
+      </c>
+      <c r="E174" s="34">
+        <v>94</v>
+      </c>
+      <c r="F174" s="34">
+        <v>124</v>
+      </c>
+      <c r="G174" s="34">
+        <v>1</v>
+      </c>
+      <c r="H174" s="34">
+        <v>3</v>
+      </c>
+      <c r="J174" s="34" t="s">
+        <v>77</v>
+      </c>
+      <c r="K174" s="37">
+        <v>42961</v>
+      </c>
+    </row>
+    <row r="175" spans="1:11" s="34" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A175" s="34">
+        <v>174</v>
+      </c>
+      <c r="D175" s="34" t="s">
+        <v>356</v>
+      </c>
+      <c r="E175" s="34">
         <v>475</v>
       </c>
-    </row>
-    <row r="158" spans="1:11" s="39" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A158" s="39">
-        <v>157</v>
-      </c>
-      <c r="D158" s="39" t="s">
-        <v>316</v>
-      </c>
-      <c r="E158" s="39">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="159" spans="1:11" s="39" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A159" s="39">
-        <v>158</v>
-      </c>
-      <c r="D159" s="39" t="s">
-        <v>317</v>
-      </c>
-      <c r="E159" s="39">
-        <v>95</v>
-      </c>
-      <c r="F159" s="39">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="160" spans="1:11" s="39" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A160" s="39">
-        <v>159</v>
-      </c>
-      <c r="D160" s="39" t="s">
-        <v>318</v>
-      </c>
-      <c r="E160" s="39">
-        <v>86</v>
-      </c>
-      <c r="F160" s="39">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="161" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A161" s="39">
-        <v>160</v>
-      </c>
-      <c r="D161" s="39" t="s">
-        <v>321</v>
-      </c>
-      <c r="E161" s="39">
-        <v>448</v>
-      </c>
-      <c r="F161" s="39">
-        <v>285</v>
-      </c>
-      <c r="H161" s="39">
+      <c r="G175" s="34">
+        <v>1</v>
+      </c>
+      <c r="H175" s="34">
         <v>2</v>
       </c>
-    </row>
-    <row r="162" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A162" s="39">
-        <v>161</v>
-      </c>
-      <c r="D162" s="39" t="s">
-        <v>322</v>
-      </c>
-      <c r="E162" s="39">
-        <v>72</v>
-      </c>
-      <c r="F162" s="39">
-        <v>106</v>
-      </c>
-      <c r="H162" s="39">
+      <c r="J175" s="34" t="s">
+        <v>77</v>
+      </c>
+      <c r="K175" s="37">
+        <v>42961</v>
+      </c>
+    </row>
+    <row r="176" spans="1:11" s="34" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A176" s="34">
+        <v>175</v>
+      </c>
+      <c r="D176" s="34" t="s">
+        <v>327</v>
+      </c>
+      <c r="E176" s="34">
+        <v>467</v>
+      </c>
+      <c r="F176" s="34">
+        <v>222</v>
+      </c>
+      <c r="H176" s="34">
         <v>2</v>
       </c>
     </row>
-    <row r="163" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A163" s="39">
-        <v>162</v>
-      </c>
-      <c r="D163" s="39" t="s">
-        <v>323</v>
-      </c>
-      <c r="E163" s="39">
-        <v>73</v>
-      </c>
-      <c r="F163" s="39">
-        <v>105</v>
-      </c>
-      <c r="H163" s="39">
+    <row r="177" spans="1:12" s="34" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A177" s="34">
+        <v>176</v>
+      </c>
+      <c r="D177" s="34" t="s">
+        <v>328</v>
+      </c>
+      <c r="E177" s="34">
+        <v>468</v>
+      </c>
+      <c r="F177" s="34">
+        <v>101</v>
+      </c>
+      <c r="H177" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178" spans="1:12" s="34" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A178" s="34">
+        <v>177</v>
+      </c>
+      <c r="D178" s="34" t="s">
+        <v>329</v>
+      </c>
+      <c r="E178" s="34">
+        <v>469</v>
+      </c>
+      <c r="F178" s="34">
+        <v>100</v>
+      </c>
+      <c r="H178" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179" spans="1:12" s="34" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A179" s="34">
+        <v>178</v>
+      </c>
+      <c r="D179" s="34" t="s">
+        <v>331</v>
+      </c>
+      <c r="E179" s="34">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="180" spans="1:12" s="34" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A180" s="36">
+        <v>179</v>
+      </c>
+      <c r="D180" s="34" t="s">
+        <v>332</v>
+      </c>
+      <c r="E180" s="34">
+        <v>453</v>
+      </c>
+      <c r="F180" s="34">
+        <v>114</v>
+      </c>
+      <c r="H180" s="34">
         <v>2</v>
       </c>
     </row>
-    <row r="164" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A164" s="39">
-        <v>163</v>
-      </c>
-      <c r="D164" s="39" t="s">
-        <v>324</v>
-      </c>
-      <c r="E164" s="39">
-        <v>177</v>
-      </c>
-      <c r="F164" s="39">
-        <v>108</v>
-      </c>
-      <c r="H164" s="39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="165" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A165" s="39">
-        <v>164</v>
-      </c>
-      <c r="D165" s="39" t="s">
-        <v>325</v>
-      </c>
-      <c r="E165" s="39">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="166" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A166" s="39">
-        <v>165</v>
-      </c>
-      <c r="D166" s="39" t="s">
-        <v>326</v>
-      </c>
-      <c r="E166" s="39">
-        <v>376</v>
-      </c>
-      <c r="F166" s="39">
-        <v>112</v>
-      </c>
-      <c r="H166" s="39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="167" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A167" s="39">
-        <v>166</v>
-      </c>
-      <c r="D167" s="39" t="s">
-        <v>330</v>
-      </c>
-      <c r="E167" s="39">
-        <v>246</v>
-      </c>
-      <c r="F167" s="39">
-        <v>113</v>
-      </c>
-      <c r="H167" s="39">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="168" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A168" s="39">
-        <v>167</v>
-      </c>
-      <c r="D168" s="39" t="s">
-        <v>333</v>
-      </c>
-      <c r="E168" s="39">
-        <v>472</v>
-      </c>
-      <c r="F168" s="39">
-        <v>437</v>
-      </c>
-      <c r="H168" s="39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="169" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A169" s="39">
-        <v>168</v>
-      </c>
-      <c r="D169" s="39" t="s">
-        <v>334</v>
-      </c>
-      <c r="E169" s="39">
-        <v>480</v>
-      </c>
-      <c r="F169" s="39">
-        <v>257</v>
-      </c>
-      <c r="H169" s="39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="170" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A170" s="39">
-        <v>169</v>
-      </c>
-      <c r="D170" s="39" t="s">
-        <v>327</v>
-      </c>
-      <c r="E170" s="39">
-        <v>467</v>
-      </c>
-      <c r="F170" s="39">
-        <v>222</v>
-      </c>
-      <c r="H170" s="39">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="171" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A171" s="39">
-        <v>170</v>
-      </c>
-      <c r="D171" s="39" t="s">
-        <v>328</v>
-      </c>
-      <c r="E171" s="39">
-        <v>468</v>
-      </c>
-      <c r="F171" s="39">
-        <v>101</v>
-      </c>
-      <c r="H171" s="39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="172" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A172" s="39">
-        <v>171</v>
-      </c>
-      <c r="D172" s="39" t="s">
-        <v>329</v>
-      </c>
-      <c r="E172" s="39">
-        <v>469</v>
-      </c>
-      <c r="F172" s="39">
-        <v>100</v>
-      </c>
-      <c r="H172" s="39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="173" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A173" s="39">
-        <v>172</v>
-      </c>
-      <c r="D173" s="39" t="s">
-        <v>331</v>
-      </c>
-      <c r="E173" s="39">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="174" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A174" s="39">
-        <v>173</v>
-      </c>
-      <c r="D174" s="39" t="s">
-        <v>332</v>
-      </c>
-      <c r="E174" s="39">
-        <v>453</v>
-      </c>
-      <c r="F174" s="39">
-        <v>114</v>
-      </c>
-      <c r="H174" s="39">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="175" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A175" s="39">
-        <v>174</v>
-      </c>
-      <c r="D175" s="39" t="s">
-        <v>336</v>
-      </c>
-      <c r="E175" s="39">
-        <v>595</v>
-      </c>
-      <c r="F175" s="39">
-        <v>298</v>
-      </c>
-      <c r="H175" s="39">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="176" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A176" s="39">
-        <v>175</v>
-      </c>
-      <c r="D176" s="39" t="s">
-        <v>339</v>
-      </c>
-      <c r="E176" s="39">
-        <v>614</v>
-      </c>
-      <c r="F176" s="39">
-        <v>549</v>
-      </c>
-      <c r="H176" s="39">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="177" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A177" s="39">
-        <v>176</v>
-      </c>
-      <c r="D177" s="39" t="s">
-        <v>340</v>
-      </c>
-      <c r="E177" s="39">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="178" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A178" s="39">
-        <v>177</v>
-      </c>
-      <c r="D178" s="39" t="s">
-        <v>337</v>
-      </c>
-      <c r="E178" s="39">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="179" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A179" s="39">
-        <v>178</v>
-      </c>
-      <c r="D179" s="39" t="s">
-        <v>338</v>
-      </c>
-      <c r="E179" s="39">
-        <v>597</v>
-      </c>
-      <c r="F179" s="39">
-        <v>643</v>
-      </c>
-      <c r="H179" s="39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A180" s="41">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A181" s="31">
         <v>180</v>
       </c>
-    </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B181" s="34"/>
+      <c r="C181" s="34"/>
+      <c r="D181" s="34" t="s">
+        <v>336</v>
+      </c>
+      <c r="E181" s="34">
+        <v>595</v>
+      </c>
+      <c r="F181" s="34">
+        <v>298</v>
+      </c>
+      <c r="G181" s="34"/>
+      <c r="H181" s="34">
+        <v>2</v>
+      </c>
+      <c r="I181" s="34"/>
+      <c r="J181" s="34"/>
+      <c r="K181" s="34"/>
+      <c r="L181" s="34"/>
+    </row>
+    <row r="182" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A182" s="31">
         <v>181</v>
       </c>
-    </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A185" t="s">
+      <c r="C182" s="34"/>
+      <c r="D182" s="34" t="s">
+        <v>339</v>
+      </c>
+      <c r="E182" s="34">
+        <v>614</v>
+      </c>
+      <c r="F182" s="34">
+        <v>549</v>
+      </c>
+      <c r="G182" s="34"/>
+      <c r="H182" s="34">
+        <v>2</v>
+      </c>
+      <c r="I182" s="34"/>
+      <c r="J182" s="34"/>
+      <c r="K182" s="34"/>
+    </row>
+    <row r="183" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="D183" s="34" t="s">
+        <v>340</v>
+      </c>
+      <c r="E183" s="34">
+        <v>619</v>
+      </c>
+      <c r="F183" s="34"/>
+      <c r="G183" s="34"/>
+      <c r="H183" s="34"/>
+    </row>
+    <row r="184" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="D184" s="34" t="s">
+        <v>337</v>
+      </c>
+      <c r="E184" s="34">
+        <v>596</v>
+      </c>
+      <c r="F184" s="34"/>
+      <c r="G184" s="34"/>
+      <c r="H184" s="34"/>
+    </row>
+    <row r="185" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="D185" s="34" t="s">
+        <v>338</v>
+      </c>
+      <c r="E185" s="34">
+        <v>597</v>
+      </c>
+      <c r="F185" s="34">
+        <v>643</v>
+      </c>
+      <c r="G185" s="34"/>
+      <c r="H185" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="186" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="D186" s="50"/>
+      <c r="E186" s="50"/>
+      <c r="F186" s="50"/>
+      <c r="G186" s="50"/>
+      <c r="H186" s="50"/>
+    </row>
+    <row r="187" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="D187" s="50"/>
+      <c r="E187" s="50"/>
+      <c r="F187" s="50"/>
+      <c r="G187" s="50"/>
+      <c r="H187" s="50"/>
+    </row>
+    <row r="188" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="D188" s="50"/>
+      <c r="E188" s="50"/>
+      <c r="F188" s="50"/>
+      <c r="G188" s="50"/>
+      <c r="H188" s="50"/>
+    </row>
+    <row r="189" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="D189" s="50"/>
+      <c r="E189" s="50"/>
+      <c r="F189" s="50"/>
+      <c r="G189" s="50"/>
+      <c r="H189" s="50"/>
+    </row>
+    <row r="190" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="D190" s="50"/>
+      <c r="E190" s="50"/>
+      <c r="F190" s="50"/>
+      <c r="G190" s="50"/>
+      <c r="H190" s="50"/>
+    </row>
+    <row r="191" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="D191" s="50"/>
+      <c r="E191" s="50"/>
+      <c r="F191" s="50"/>
+      <c r="G191" s="50"/>
+      <c r="H191" s="50"/>
+    </row>
+    <row r="192" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="D192" s="50"/>
+      <c r="E192" s="50"/>
+      <c r="F192" s="50"/>
+      <c r="G192" s="50"/>
+      <c r="H192" s="50"/>
+    </row>
+    <row r="193" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="D193" s="50"/>
+      <c r="E193" s="50"/>
+      <c r="F193" s="50"/>
+      <c r="G193" s="50"/>
+      <c r="H193" s="50"/>
+    </row>
+    <row r="194" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="D194" s="50"/>
+      <c r="E194" s="50"/>
+      <c r="F194" s="50"/>
+      <c r="G194" s="50"/>
+      <c r="H194" s="50"/>
+    </row>
+    <row r="195" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="D195" s="50"/>
+      <c r="E195" s="50"/>
+      <c r="F195" s="50"/>
+      <c r="G195" s="50"/>
+      <c r="H195" s="50"/>
+    </row>
+    <row r="196" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="D196" s="50"/>
+      <c r="E196" s="50"/>
+      <c r="F196" s="50"/>
+      <c r="G196" s="50"/>
+      <c r="H196" s="50"/>
+    </row>
+    <row r="197" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="D197" s="50"/>
+      <c r="E197" s="50"/>
+      <c r="F197" s="50"/>
+      <c r="G197" s="50"/>
+      <c r="H197" s="50"/>
+    </row>
+    <row r="198" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A198" t="s">
+        <v>83</v>
+      </c>
+      <c r="D198" s="34" t="s">
+        <v>355</v>
+      </c>
+      <c r="E198" s="34">
+        <v>110</v>
+      </c>
+      <c r="F198" s="34">
+        <v>64</v>
+      </c>
+      <c r="G198" s="34"/>
+      <c r="H198" s="34">
+        <v>2</v>
+      </c>
+      <c r="I198" s="34"/>
+      <c r="J198" s="34"/>
+      <c r="K198" s="34"/>
+    </row>
+    <row r="199" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A199" t="s">
         <v>31</v>
       </c>
-      <c r="E185">
-        <f>COUNTA(E2:E181)</f>
-        <v>167</v>
-      </c>
-      <c r="F185">
+      <c r="E199">
+        <f>COUNTA(E2:E168)</f>
+        <v>152</v>
+      </c>
+      <c r="F199">
         <f>COUNTA(F2:F100)</f>
-        <v>64</v>
-      </c>
-      <c r="G185">
-        <f>SUM(G2:G184)</f>
-        <v>89</v>
+        <v>65</v>
+      </c>
+      <c r="G199">
+        <f>SUM(G2:G198)</f>
+        <v>112</v>
       </c>
     </row>
   </sheetData>
   <sortState ref="A1:K133">
     <sortCondition ref="A1"/>
   </sortState>
+  <mergeCells count="3">
+    <mergeCell ref="C154:C157"/>
+    <mergeCell ref="C163:C164"/>
+    <mergeCell ref="C145:C150"/>
+  </mergeCells>
   <hyperlinks>
     <hyperlink ref="D55" r:id="rId1"/>
     <hyperlink ref="D92" r:id="rId2"/>
@@ -5220,11 +5747,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X154"/>
+  <dimension ref="A1:X163"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A51" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E62" sqref="E62"/>
+    <sheetView showRuler="0" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A94" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E142" sqref="E142"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5701,7 +6228,7 @@
     </row>
     <row r="18" spans="1:14" ht="18" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
-      <c r="B18" s="34" t="s">
+      <c r="B18" s="46" t="s">
         <v>256</v>
       </c>
       <c r="C18" s="1"/>
@@ -5735,7 +6262,7 @@
     </row>
     <row r="19" spans="1:14" ht="18" x14ac:dyDescent="0.2">
       <c r="A19" s="1"/>
-      <c r="B19" s="35"/>
+      <c r="B19" s="47"/>
       <c r="C19" s="1">
         <v>100</v>
       </c>
@@ -5769,7 +6296,7 @@
     </row>
     <row r="20" spans="1:14" ht="18" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
-      <c r="B20" s="35"/>
+      <c r="B20" s="47"/>
       <c r="C20" s="1">
         <v>101</v>
       </c>
@@ -5797,7 +6324,7 @@
     </row>
     <row r="21" spans="1:14" ht="18" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>
-      <c r="B21" s="35"/>
+      <c r="B21" s="47"/>
       <c r="C21" s="1">
         <v>172</v>
       </c>
@@ -6058,7 +6585,7 @@
     </row>
     <row r="30" spans="1:14" ht="18" x14ac:dyDescent="0.2">
       <c r="A30" s="1"/>
-      <c r="B30" s="36" t="s">
+      <c r="B30" s="48" t="s">
         <v>297</v>
       </c>
       <c r="C30" s="1"/>
@@ -6094,7 +6621,7 @@
       </c>
     </row>
     <row r="31" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B31" s="36"/>
+      <c r="B31" s="48"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1">
         <v>628</v>
@@ -6128,7 +6655,7 @@
       </c>
     </row>
     <row r="32" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B32" s="37" t="s">
+      <c r="B32" s="49" t="s">
         <v>254</v>
       </c>
       <c r="C32" s="1">
@@ -6159,8 +6686,8 @@
         <v>306</v>
       </c>
     </row>
-    <row r="33" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B33" s="37"/>
+    <row r="33" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B33" s="49"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1">
         <v>645</v>
@@ -6184,11 +6711,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>246</v>
       </c>
-      <c r="B34" s="37"/>
+      <c r="B34" s="49"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1">
         <v>448</v>
@@ -6215,8 +6742,8 @@
         <v>42920</v>
       </c>
     </row>
-    <row r="35" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B35" s="37"/>
+    <row r="35" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B35" s="49"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1">
         <v>442</v>
@@ -6240,8 +6767,8 @@
         <v>42940</v>
       </c>
     </row>
-    <row r="36" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B36" s="37"/>
+    <row r="36" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B36" s="49"/>
       <c r="C36" s="1">
         <v>633</v>
       </c>
@@ -6267,8 +6794,8 @@
         <v>42940</v>
       </c>
     </row>
-    <row r="37" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B37" s="37"/>
+    <row r="37" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B37" s="49"/>
       <c r="C37" s="1">
         <v>189</v>
       </c>
@@ -6294,8 +6821,8 @@
         <v>42940</v>
       </c>
     </row>
-    <row r="38" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B38" s="37" t="s">
+    <row r="38" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B38" s="49" t="s">
         <v>301</v>
       </c>
       <c r="C38" s="1">
@@ -6329,8 +6856,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B39" s="37"/>
+    <row r="39" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B39" s="49"/>
       <c r="C39" s="1">
         <v>47</v>
       </c>
@@ -6356,105 +6883,95 @@
         <v>42945</v>
       </c>
     </row>
-    <row r="40" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B40" s="38"/>
       <c r="C40" s="1"/>
-      <c r="E40" s="2"/>
-      <c r="G40" s="1"/>
+      <c r="D40" s="1">
+        <v>632</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>253</v>
+      </c>
       <c r="L40" s="5"/>
     </row>
-    <row r="41" spans="1:13" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="6"/>
-      <c r="D41" s="7" t="s">
+    <row r="41" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B41" s="39"/>
+      <c r="C41" s="1"/>
+      <c r="E41" s="2"/>
+      <c r="G41" s="1"/>
+      <c r="L41" s="5"/>
+    </row>
+    <row r="42" spans="1:14" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="6"/>
+      <c r="D42" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="H41" s="7">
+      <c r="H42" s="7">
         <f>SUM(H2:H37)</f>
         <v>10</v>
       </c>
-      <c r="I41" s="7">
+      <c r="I42" s="7">
         <f>SUM(I2:I33)</f>
         <v>29</v>
       </c>
-      <c r="K41" s="7">
+      <c r="K42" s="7">
         <f>SUM(K1:K33)</f>
         <v>30</v>
       </c>
     </row>
-    <row r="42" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
+    <row r="43" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
         <v>118</v>
       </c>
-      <c r="C42" s="1">
+      <c r="C43" s="1">
         <v>56</v>
       </c>
-      <c r="D42" s="1">
-        <v>1</v>
-      </c>
-      <c r="E42" s="2" t="s">
+      <c r="D43" s="1">
+        <v>1</v>
+      </c>
+      <c r="E43" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="F42" s="3">
+      <c r="F43" s="3">
         <v>0.33700000000000002</v>
       </c>
-      <c r="G42" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="I42">
-        <v>1</v>
-      </c>
-      <c r="K42">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B43" s="1" t="s">
+      <c r="G43" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="I43">
+        <v>1</v>
+      </c>
+      <c r="K43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B44" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="C43" s="1">
+      <c r="C44" s="1">
         <v>82</v>
       </c>
-      <c r="D43" s="1">
+      <c r="D44" s="1">
         <v>136</v>
       </c>
-      <c r="E43" s="2" t="s">
+      <c r="E44" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="F43" s="3">
+      <c r="F44" s="3">
         <v>0.54100000000000004</v>
       </c>
-      <c r="G43" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="I43">
-        <v>1</v>
-      </c>
-      <c r="J43" t="s">
-        <v>77</v>
-      </c>
-      <c r="K43">
-        <v>1</v>
-      </c>
-      <c r="L43" s="4">
-        <v>42924</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C44" s="1"/>
-      <c r="D44" s="1">
-        <v>170</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="F44" s="3">
-        <v>0.24</v>
-      </c>
       <c r="G44" s="1" t="s">
         <v>85</v>
       </c>
       <c r="I44">
         <v>1</v>
+      </c>
+      <c r="J44" t="s">
+        <v>77</v>
       </c>
       <c r="K44">
         <v>1</v>
@@ -6462,46 +6979,46 @@
       <c r="L44" s="4">
         <v>42924</v>
       </c>
-    </row>
-    <row r="45" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C45" s="1">
+      <c r="N44" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C45" s="1"/>
+      <c r="D45" s="1">
+        <v>170</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="F45" s="3">
+        <v>0.24</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="I45">
+        <v>1</v>
+      </c>
+      <c r="K45">
+        <v>1</v>
+      </c>
+      <c r="L45" s="4">
+        <v>42924</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C46" s="1">
         <v>488</v>
       </c>
-      <c r="D45" s="1">
+      <c r="D46" s="1">
         <v>202</v>
       </c>
-      <c r="E45" s="2" t="s">
+      <c r="E46" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="F45" s="3">
+      <c r="F46" s="3">
         <v>0.40400000000000003</v>
-      </c>
-      <c r="G45" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="I45">
-        <v>1</v>
-      </c>
-      <c r="J45" t="s">
-        <v>77</v>
-      </c>
-      <c r="K45">
-        <v>1</v>
-      </c>
-      <c r="L45" s="4">
-        <v>42925</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C46" s="1"/>
-      <c r="D46" s="1">
-        <v>204</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="F46" s="3">
-        <v>0.26500000000000001</v>
       </c>
       <c r="G46" s="1" t="s">
         <v>85</v>
@@ -6518,22 +7035,20 @@
       <c r="L46" s="4">
         <v>42925</v>
       </c>
-      <c r="M46" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C47" s="1">
-        <v>638</v>
-      </c>
+      <c r="N46" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C47" s="1"/>
       <c r="D47" s="1">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F47" s="3">
-        <v>0.33500000000000002</v>
+        <v>0.26500000000000001</v>
       </c>
       <c r="G47" s="1" t="s">
         <v>85</v>
@@ -6550,17 +7065,25 @@
       <c r="L47" s="4">
         <v>42925</v>
       </c>
-    </row>
-    <row r="48" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C48" s="1"/>
+      <c r="M47" t="s">
+        <v>179</v>
+      </c>
+      <c r="N47" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C48" s="1">
+        <v>638</v>
+      </c>
       <c r="D48" s="1">
-        <v>217</v>
+        <v>205</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>107</v>
+        <v>148</v>
       </c>
       <c r="F48" s="3">
-        <v>0.45300000000000001</v>
+        <v>0.33500000000000002</v>
       </c>
       <c r="G48" s="1" t="s">
         <v>85</v>
@@ -6568,20 +7091,29 @@
       <c r="I48">
         <v>1</v>
       </c>
+      <c r="J48" t="s">
+        <v>77</v>
+      </c>
       <c r="K48">
         <v>1</v>
+      </c>
+      <c r="L48" s="4">
+        <v>42925</v>
+      </c>
+      <c r="N48" t="s">
+        <v>298</v>
       </c>
     </row>
     <row r="49" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C49" s="1"/>
       <c r="D49" s="1">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F49" s="3">
-        <v>0.32200000000000001</v>
+        <v>0.45300000000000001</v>
       </c>
       <c r="G49" s="1" t="s">
         <v>85</v>
@@ -6596,13 +7128,13 @@
     <row r="50" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C50" s="1"/>
       <c r="D50" s="1">
-        <v>242</v>
+        <v>219</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>147</v>
+        <v>109</v>
       </c>
       <c r="F50" s="3">
-        <v>0.46100000000000002</v>
+        <v>0.32200000000000001</v>
       </c>
       <c r="G50" s="1" t="s">
         <v>85</v>
@@ -6612,21 +7144,18 @@
       </c>
       <c r="K50">
         <v>1</v>
-      </c>
-      <c r="L50" s="4">
-        <v>42925</v>
       </c>
     </row>
     <row r="51" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C51" s="1"/>
       <c r="D51" s="1">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>136</v>
+        <v>147</v>
       </c>
       <c r="F51" s="3">
-        <v>0.39500000000000002</v>
+        <v>0.46100000000000002</v>
       </c>
       <c r="G51" s="1" t="s">
         <v>85</v>
@@ -6644,13 +7173,13 @@
     <row r="52" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C52" s="1"/>
       <c r="D52" s="1">
-        <v>266</v>
+        <v>246</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>155</v>
+        <v>136</v>
       </c>
       <c r="F52" s="3">
-        <v>0.56599999999999995</v>
+        <v>0.39500000000000002</v>
       </c>
       <c r="G52" s="1" t="s">
         <v>85</v>
@@ -6668,13 +7197,13 @@
     <row r="53" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C53" s="1"/>
       <c r="D53" s="1">
-        <v>290</v>
+        <v>266</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="F53" s="3">
-        <v>0.32900000000000001</v>
+        <v>0.56599999999999995</v>
       </c>
       <c r="G53" s="1" t="s">
         <v>85</v>
@@ -6690,17 +7219,15 @@
       </c>
     </row>
     <row r="54" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C54" s="1">
-        <v>547</v>
-      </c>
+      <c r="C54" s="1"/>
       <c r="D54" s="1">
-        <v>349</v>
+        <v>290</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="F54" s="3">
-        <v>0.47</v>
+        <v>0.32900000000000001</v>
       </c>
       <c r="G54" s="1" t="s">
         <v>85</v>
@@ -6710,42 +7237,50 @@
       </c>
       <c r="K54">
         <v>1</v>
+      </c>
+      <c r="L54" s="4">
+        <v>42925</v>
       </c>
     </row>
     <row r="55" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C55" s="1">
+        <v>547</v>
+      </c>
+      <c r="D55" s="1">
+        <v>349</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="F55" s="3">
+        <v>0.47</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="I55">
+        <v>1</v>
+      </c>
+      <c r="K55">
+        <v>1</v>
+      </c>
+      <c r="N55" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="56" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C56" s="1">
         <v>548</v>
       </c>
-      <c r="D55" s="1">
+      <c r="D56" s="1">
         <v>350</v>
       </c>
-      <c r="E55" s="2" t="s">
+      <c r="E56" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="F55" s="3">
+      <c r="F56" s="3">
         <v>0.44500000000000001</v>
       </c>
-      <c r="G55" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="I55">
-        <v>1</v>
-      </c>
-      <c r="K55">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C56" s="1"/>
-      <c r="D56" s="1">
-        <v>359</v>
-      </c>
-      <c r="E56" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="F56" s="3">
-        <v>0.59399999999999997</v>
-      </c>
       <c r="G56" s="1" t="s">
         <v>85</v>
       </c>
@@ -6755,23 +7290,17 @@
       <c r="K56">
         <v>1</v>
       </c>
-      <c r="L56" s="4">
-        <v>42925</v>
-      </c>
     </row>
     <row r="57" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B57" t="s">
-        <v>249</v>
-      </c>
       <c r="C57" s="1"/>
       <c r="D57" s="1">
-        <v>389</v>
+        <v>359</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>144</v>
+        <v>156</v>
       </c>
       <c r="F57" s="3">
-        <v>0.51500000000000001</v>
+        <v>0.59399999999999997</v>
       </c>
       <c r="G57" s="1" t="s">
         <v>85</v>
@@ -6785,34 +7314,26 @@
       <c r="L57" s="4">
         <v>42925</v>
       </c>
-      <c r="M57">
-        <v>1</v>
-      </c>
-      <c r="N57" t="s">
-        <v>298</v>
-      </c>
     </row>
     <row r="58" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C58" s="1">
-        <v>627</v>
-      </c>
+      <c r="B58" t="s">
+        <v>249</v>
+      </c>
+      <c r="C58" s="1"/>
       <c r="D58" s="1">
-        <v>409</v>
+        <v>389</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F58" s="3">
-        <v>0.45300000000000001</v>
+        <v>0.51500000000000001</v>
       </c>
       <c r="G58" s="1" t="s">
         <v>85</v>
       </c>
       <c r="I58">
         <v>1</v>
-      </c>
-      <c r="J58" t="s">
-        <v>180</v>
       </c>
       <c r="K58">
         <v>1</v>
@@ -6820,28 +7341,34 @@
       <c r="L58" s="4">
         <v>42925</v>
       </c>
+      <c r="M58">
+        <v>1</v>
+      </c>
+      <c r="N58" t="s">
+        <v>298</v>
+      </c>
     </row>
     <row r="59" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C59" s="1">
-        <v>647</v>
+        <v>627</v>
       </c>
       <c r="D59" s="1">
-        <v>438</v>
+        <v>409</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F59" s="3">
-        <v>0.33500000000000002</v>
+        <v>0.45300000000000001</v>
       </c>
       <c r="G59" s="1" t="s">
         <v>85</v>
       </c>
       <c r="I59">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J59" t="s">
-        <v>77</v>
+        <v>180</v>
       </c>
       <c r="K59">
         <v>1</v>
@@ -6849,23 +7376,22 @@
       <c r="L59" s="4">
         <v>42925</v>
       </c>
-      <c r="M59" t="s">
-        <v>296</v>
-      </c>
       <c r="N59" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="60" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C60" s="1"/>
+      <c r="C60" s="1">
+        <v>647</v>
+      </c>
       <c r="D60" s="1">
-        <v>447</v>
+        <v>438</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F60" s="3">
-        <v>0.44600000000000001</v>
+        <v>0.33500000000000002</v>
       </c>
       <c r="G60" s="1" t="s">
         <v>85</v>
@@ -6880,7 +7406,10 @@
         <v>1</v>
       </c>
       <c r="L60" s="4">
-        <v>42926</v>
+        <v>42925</v>
+      </c>
+      <c r="M60" t="s">
+        <v>296</v>
       </c>
       <c r="N60" t="s">
         <v>298</v>
@@ -6889,19 +7418,19 @@
     <row r="61" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C61" s="1"/>
       <c r="D61" s="1">
-        <v>463</v>
+        <v>447</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F61" s="3">
-        <v>0.57099999999999995</v>
+        <v>0.44600000000000001</v>
       </c>
       <c r="G61" s="1" t="s">
         <v>85</v>
       </c>
       <c r="I61">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J61" t="s">
         <v>77</v>
@@ -6911,24 +7440,27 @@
       </c>
       <c r="L61" s="4">
         <v>42926</v>
+      </c>
+      <c r="N61" t="s">
+        <v>298</v>
       </c>
     </row>
     <row r="62" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C62" s="1"/>
       <c r="D62" s="1">
-        <v>500</v>
+        <v>463</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="F62" s="3">
-        <v>0.6</v>
+        <v>0.57099999999999995</v>
       </c>
       <c r="G62" s="1" t="s">
         <v>85</v>
       </c>
       <c r="I62">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J62" t="s">
         <v>77</v>
@@ -6946,19 +7478,22 @@
     <row r="63" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C63" s="1"/>
       <c r="D63" s="1">
-        <v>575</v>
+        <v>500</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F63" s="3">
-        <v>0.59399999999999997</v>
+        <v>0.6</v>
       </c>
       <c r="G63" s="1" t="s">
         <v>85</v>
       </c>
       <c r="I63">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="J63" t="s">
+        <v>77</v>
       </c>
       <c r="K63">
         <v>1</v>
@@ -6966,29 +7501,26 @@
       <c r="L63" s="4">
         <v>42926</v>
       </c>
+      <c r="N63" t="s">
+        <v>298</v>
+      </c>
     </row>
     <row r="64" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B64" t="s">
-        <v>305</v>
-      </c>
       <c r="C64" s="1"/>
       <c r="D64" s="1">
-        <v>594</v>
+        <v>575</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="F64" s="3">
-        <v>0.39800000000000002</v>
+        <v>0.59399999999999997</v>
       </c>
       <c r="G64" s="1" t="s">
         <v>85</v>
       </c>
       <c r="I64">
         <v>1</v>
-      </c>
-      <c r="J64" t="s">
-        <v>77</v>
       </c>
       <c r="K64">
         <v>1</v>
@@ -6996,20 +7528,20 @@
       <c r="L64" s="4">
         <v>42926</v>
       </c>
-      <c r="N64" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="65" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="65" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B65" t="s">
+        <v>305</v>
+      </c>
       <c r="C65" s="1"/>
       <c r="D65" s="1">
-        <v>599</v>
+        <v>594</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="F65" s="3">
-        <v>0.48099999999999998</v>
+        <v>0.39800000000000002</v>
       </c>
       <c r="G65" s="1" t="s">
         <v>85</v>
@@ -7017,49 +7549,71 @@
       <c r="I65">
         <v>1</v>
       </c>
+      <c r="J65" t="s">
+        <v>77</v>
+      </c>
       <c r="K65">
         <v>1</v>
       </c>
       <c r="L65" s="4">
-        <v>42924</v>
-      </c>
-    </row>
-    <row r="66" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>42926</v>
+      </c>
+      <c r="N65" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C66" s="1"/>
       <c r="D66" s="1">
+        <v>599</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="F66" s="3">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="G66" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="I66">
+        <v>1</v>
+      </c>
+      <c r="K66">
+        <v>1</v>
+      </c>
+      <c r="L66" s="4">
+        <v>42924</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C67" s="1"/>
+      <c r="D67" s="1">
         <v>624</v>
       </c>
-      <c r="E66" s="2" t="s">
+      <c r="E67" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="F66" s="3">
+      <c r="F67" s="3">
         <v>0.32600000000000001</v>
       </c>
-      <c r="G66" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="I66">
-        <v>1</v>
-      </c>
-      <c r="J66" t="s">
-        <v>77</v>
-      </c>
-      <c r="K66">
-        <v>1</v>
-      </c>
-      <c r="L66" s="4">
+      <c r="G67" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="I67">
+        <v>1</v>
+      </c>
+      <c r="J67" t="s">
+        <v>77</v>
+      </c>
+      <c r="K67">
+        <v>1</v>
+      </c>
+      <c r="L67" s="4">
         <v>42926</v>
       </c>
     </row>
-    <row r="67" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C67" s="1"/>
-      <c r="D67" s="1"/>
-      <c r="E67" s="2"/>
-      <c r="F67" s="3"/>
-      <c r="G67" s="1"/>
-      <c r="L67" s="4"/>
-    </row>
-    <row r="68" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
       <c r="E68" s="2"/>
@@ -7067,142 +7621,124 @@
       <c r="G68" s="1"/>
       <c r="L68" s="4"/>
     </row>
-    <row r="69" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C69" s="1"/>
-      <c r="D69" s="1">
+      <c r="D69" s="1"/>
+      <c r="E69" s="2"/>
+      <c r="F69" s="3"/>
+      <c r="G69" s="1"/>
+      <c r="L69" s="4"/>
+    </row>
+    <row r="70" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C70" s="1"/>
+      <c r="D70" s="1">
         <v>645</v>
       </c>
-      <c r="E69" s="2" t="s">
+      <c r="E70" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="F69" s="3">
+      <c r="F70" s="3">
         <v>0.41899999999999998</v>
       </c>
-      <c r="G69" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="H69" s="30"/>
-      <c r="I69" s="30"/>
-      <c r="J69" s="30"/>
-      <c r="K69" s="30"/>
-      <c r="L69" s="30"/>
-    </row>
-    <row r="70" spans="1:12" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="6"/>
-      <c r="D70" s="7" t="s">
+      <c r="G70" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="H70" s="30"/>
+      <c r="I70" s="30"/>
+      <c r="J70" s="30"/>
+      <c r="K70" s="30"/>
+      <c r="L70" s="30"/>
+    </row>
+    <row r="71" spans="1:14" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="6"/>
+      <c r="D71" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="H70" s="7">
-        <f>SUM(H42:H66)</f>
+      <c r="H71" s="7">
+        <f>SUM(H43:H67)</f>
         <v>0</v>
       </c>
-      <c r="I70" s="7">
-        <f>SUM(I42:I66)</f>
+      <c r="I71" s="7">
+        <f>SUM(I43:I67)</f>
         <v>28</v>
       </c>
-      <c r="K70" s="7">
-        <f>SUM(K42:K66)</f>
+      <c r="K71" s="7">
+        <f>SUM(K43:K67)</f>
         <v>25</v>
       </c>
     </row>
-    <row r="71" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" t="s">
+    <row r="72" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="72" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D72" s="1" t="s">
+    <row r="73" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D73" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="E72" s="2" t="s">
+      <c r="E73" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="F72" s="3">
+      <c r="F73" s="3">
         <v>0.28999999999999998</v>
       </c>
-      <c r="G72" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="K72">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="73" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B73" t="s">
+      <c r="G73" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="K73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B74" t="s">
         <v>218</v>
       </c>
-      <c r="C73" s="1">
+      <c r="C74" s="1">
         <v>13</v>
       </c>
-      <c r="D73" s="1">
+      <c r="D74" s="1">
         <v>28</v>
       </c>
-      <c r="E73" s="2" t="s">
+      <c r="E74" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="F73" s="3">
+      <c r="F74" s="3">
         <v>0.27900000000000003</v>
       </c>
-      <c r="G73" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="I73">
-        <v>1</v>
-      </c>
-      <c r="J73" t="s">
-        <v>77</v>
-      </c>
-      <c r="K73">
-        <v>1</v>
-      </c>
-      <c r="L73" s="4">
+      <c r="G74" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="I74">
+        <v>1</v>
+      </c>
+      <c r="J74" t="s">
+        <v>77</v>
+      </c>
+      <c r="K74">
+        <v>1</v>
+      </c>
+      <c r="L74" s="4">
         <v>42934</v>
       </c>
     </row>
-    <row r="74" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D74" s="1">
+    <row r="75" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D75" s="1">
         <v>551</v>
       </c>
-      <c r="E74" s="2" t="s">
+      <c r="E75" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="F74" s="3">
+      <c r="F75" s="3">
         <v>0.437</v>
       </c>
-      <c r="G74" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="I74">
-        <v>1</v>
-      </c>
-      <c r="J74" t="s">
-        <v>77</v>
-      </c>
-      <c r="K74">
-        <v>1</v>
-      </c>
-      <c r="L74" s="4">
-        <v>42941</v>
-      </c>
-    </row>
-    <row r="75" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C75" s="1">
-        <v>77</v>
-      </c>
-      <c r="D75" s="1">
-        <v>521</v>
-      </c>
-      <c r="E75" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="F75" s="3">
-        <v>0.54800000000000004</v>
-      </c>
       <c r="G75" s="1" t="s">
         <v>85</v>
       </c>
       <c r="I75">
         <v>1</v>
+      </c>
+      <c r="J75" t="s">
+        <v>77</v>
       </c>
       <c r="K75">
         <v>1</v>
@@ -7211,122 +7747,118 @@
         <v>42941</v>
       </c>
     </row>
-    <row r="76" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C76" s="1">
+        <v>77</v>
+      </c>
+      <c r="D76" s="1">
+        <v>521</v>
+      </c>
+      <c r="E76" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="F76" s="3">
+        <v>0.54800000000000004</v>
+      </c>
+      <c r="G76" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="I76">
+        <v>1</v>
+      </c>
+      <c r="K76">
+        <v>1</v>
+      </c>
+      <c r="L76" s="4">
+        <v>42941</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C77" s="1">
         <v>419</v>
       </c>
-      <c r="D76" s="1">
+      <c r="D77" s="1">
         <v>13</v>
       </c>
-      <c r="E76" s="2" t="s">
+      <c r="E77" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="F76" s="3">
+      <c r="F77" s="3">
         <v>0.45400000000000001</v>
       </c>
-      <c r="G76" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="K76">
-        <v>1</v>
-      </c>
-      <c r="L76" s="4"/>
-    </row>
-    <row r="77" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C77" s="1">
+      <c r="G77" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="K77">
+        <v>1</v>
+      </c>
+      <c r="L77" s="4"/>
+    </row>
+    <row r="78" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C78" s="1">
         <v>78</v>
       </c>
-      <c r="D77" s="1">
+      <c r="D78" s="1">
         <v>14</v>
       </c>
-      <c r="E77" s="2" t="s">
+      <c r="E78" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="F77" s="3">
+      <c r="F78" s="3">
         <v>0.314</v>
       </c>
-      <c r="G77" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="I77">
-        <v>1</v>
-      </c>
-      <c r="K77">
-        <v>1</v>
-      </c>
-      <c r="L77" s="4">
+      <c r="G78" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="I78">
+        <v>1</v>
+      </c>
+      <c r="K78">
+        <v>1</v>
+      </c>
+      <c r="L78" s="4">
         <v>42941</v>
       </c>
     </row>
-    <row r="78" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C78" s="1"/>
-      <c r="D78" s="1">
+    <row r="79" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C79" s="1"/>
+      <c r="D79" s="1">
         <v>520</v>
       </c>
-      <c r="E78" s="2" t="s">
+      <c r="E79" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="F78" s="3">
+      <c r="F79" s="3">
         <v>0.52100000000000002</v>
       </c>
-      <c r="G78" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="I78">
-        <v>1</v>
-      </c>
-      <c r="K78">
-        <v>1</v>
-      </c>
-      <c r="L78" s="4">
+      <c r="G79" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="I79">
+        <v>1</v>
+      </c>
+      <c r="K79">
+        <v>1</v>
+      </c>
+      <c r="L79" s="4">
         <v>42934</v>
       </c>
     </row>
-    <row r="79" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B79" t="s">
+    <row r="80" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B80" t="s">
         <v>257</v>
       </c>
-      <c r="C79" s="1">
+      <c r="C80" s="1">
         <v>423</v>
       </c>
-      <c r="D79" s="1">
+      <c r="D80" s="1">
         <v>20</v>
       </c>
-      <c r="E79" s="2" t="s">
+      <c r="E80" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="F79" s="3">
+      <c r="F80" s="3">
         <v>0.33300000000000002</v>
-      </c>
-      <c r="G79" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="I79">
-        <v>1</v>
-      </c>
-      <c r="J79" t="s">
-        <v>77</v>
-      </c>
-      <c r="K79">
-        <v>1</v>
-      </c>
-      <c r="L79" s="4">
-        <v>42941</v>
-      </c>
-    </row>
-    <row r="80" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B80" t="s">
-        <v>258</v>
-      </c>
-      <c r="C80" s="1"/>
-      <c r="D80" s="1">
-        <v>459</v>
-      </c>
-      <c r="E80" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="F80" s="3">
-        <v>0.38100000000000001</v>
       </c>
       <c r="G80" s="1" t="s">
         <v>85</v>
@@ -7345,15 +7877,18 @@
       </c>
     </row>
     <row r="81" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B81" t="s">
+        <v>258</v>
+      </c>
       <c r="C81" s="1"/>
       <c r="D81" s="1">
-        <v>606</v>
+        <v>459</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F81" s="3">
-        <v>0.51400000000000001</v>
+        <v>0.38100000000000001</v>
       </c>
       <c r="G81" s="1" t="s">
         <v>85</v>
@@ -7368,19 +7903,19 @@
         <v>1</v>
       </c>
       <c r="L81" s="4">
-        <v>42942</v>
+        <v>42941</v>
       </c>
     </row>
     <row r="82" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C82" s="1"/>
       <c r="D82" s="1">
-        <v>434</v>
+        <v>606</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F82" s="3">
-        <v>0.36799999999999999</v>
+        <v>0.51400000000000001</v>
       </c>
       <c r="G82" s="1" t="s">
         <v>85</v>
@@ -7395,125 +7930,126 @@
         <v>1</v>
       </c>
       <c r="L82" s="4">
-        <v>42941</v>
+        <v>42942</v>
       </c>
     </row>
     <row r="83" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C83" s="1"/>
-      <c r="D83" s="1" t="s">
+      <c r="D83" s="1">
+        <v>434</v>
+      </c>
+      <c r="E83" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="F83" s="3">
+        <v>0.36799999999999999</v>
+      </c>
+      <c r="G83" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="I83">
+        <v>1</v>
+      </c>
+      <c r="J83" t="s">
+        <v>77</v>
+      </c>
+      <c r="K83">
+        <v>1</v>
+      </c>
+      <c r="L83" s="4">
+        <v>42941</v>
+      </c>
+    </row>
+    <row r="84" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C84" s="1"/>
+      <c r="D84" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="E83" s="2" t="s">
+      <c r="E84" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="F83" s="3">
+      <c r="F84" s="3">
         <v>0.27900000000000003</v>
       </c>
-      <c r="G83" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="K83">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="84" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C84" s="1">
+      <c r="G84" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="K84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C85" s="1">
         <v>420</v>
       </c>
-      <c r="D84" s="1">
+      <c r="D85" s="1">
         <v>38</v>
       </c>
-      <c r="E84" s="2" t="s">
+      <c r="E85" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="F84" s="3">
+      <c r="F85" s="3">
         <v>0.34300000000000003</v>
       </c>
-      <c r="G84" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="I84">
-        <v>1</v>
-      </c>
-      <c r="K84">
-        <v>1</v>
-      </c>
-      <c r="L84" s="4">
+      <c r="G85" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="I85">
+        <v>1</v>
+      </c>
+      <c r="K85">
+        <v>1</v>
+      </c>
+      <c r="L85" s="4">
         <v>42942</v>
       </c>
     </row>
-    <row r="85" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B85" t="s">
+    <row r="86" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B86" t="s">
         <v>118</v>
       </c>
-      <c r="C85" s="1"/>
-      <c r="D85" s="1">
-        <v>383</v>
-      </c>
-      <c r="E85" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="F85" s="3">
-        <v>0.47099999999999997</v>
-      </c>
-      <c r="G85" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="I85">
-        <v>1</v>
-      </c>
-      <c r="K85">
-        <v>1</v>
-      </c>
-      <c r="L85" s="4">
-        <v>42934</v>
-      </c>
-    </row>
-    <row r="86" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C86" s="1"/>
       <c r="D86" s="1">
+        <v>383</v>
+      </c>
+      <c r="E86" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="F86" s="3">
+        <v>0.47099999999999997</v>
+      </c>
+      <c r="G86" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="I86">
+        <v>1</v>
+      </c>
+      <c r="K86">
+        <v>1</v>
+      </c>
+      <c r="L86" s="4">
+        <v>42934</v>
+      </c>
+    </row>
+    <row r="87" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C87" s="1"/>
+      <c r="D87" s="1">
         <v>345</v>
       </c>
-      <c r="E86" s="2" t="s">
+      <c r="E87" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="F86" s="3">
+      <c r="F87" s="3">
         <v>0.38400000000000001</v>
       </c>
-      <c r="G86" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="I86">
-        <v>1</v>
-      </c>
-      <c r="J86" t="s">
-        <v>77</v>
-      </c>
-      <c r="K86">
-        <v>1</v>
-      </c>
-      <c r="L86" s="4">
-        <v>42942</v>
-      </c>
-    </row>
-    <row r="87" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C87" s="1">
-        <v>422</v>
-      </c>
-      <c r="D87" s="1">
-        <v>58</v>
-      </c>
-      <c r="E87" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="F87" s="3">
-        <v>0.318</v>
-      </c>
       <c r="G87" s="1" t="s">
         <v>85</v>
       </c>
       <c r="I87">
         <v>1</v>
+      </c>
+      <c r="J87" t="s">
+        <v>77</v>
       </c>
       <c r="K87">
         <v>1</v>
@@ -7523,76 +8059,73 @@
       </c>
     </row>
     <row r="88" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C88" s="1"/>
-      <c r="D88" s="1" t="s">
+      <c r="C88" s="1">
+        <v>422</v>
+      </c>
+      <c r="D88" s="1">
+        <v>58</v>
+      </c>
+      <c r="E88" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="F88" s="3">
+        <v>0.318</v>
+      </c>
+      <c r="G88" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="I88">
+        <v>1</v>
+      </c>
+      <c r="K88">
+        <v>1</v>
+      </c>
+      <c r="L88" s="4">
+        <v>42942</v>
+      </c>
+    </row>
+    <row r="89" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C89" s="1"/>
+      <c r="D89" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="E88" s="2" t="s">
+      <c r="E89" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="F88" s="3">
+      <c r="F89" s="3">
         <v>0.55500000000000005</v>
       </c>
-      <c r="G88" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="K88">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="89" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B89" t="s">
+      <c r="G89" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="K89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B90" t="s">
         <v>249</v>
       </c>
-      <c r="C89" s="1">
+      <c r="C90" s="1">
         <v>408</v>
       </c>
-      <c r="D89" s="1">
+      <c r="D90" s="1">
         <v>67</v>
       </c>
-      <c r="E89" s="2" t="s">
+      <c r="E90" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="F89" s="3">
+      <c r="F90" s="3">
         <v>0.32100000000000001</v>
       </c>
-      <c r="G89" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="I89">
-        <v>1</v>
-      </c>
-      <c r="J89" t="s">
+      <c r="G90" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="I90">
+        <v>1</v>
+      </c>
+      <c r="J90" t="s">
         <v>260</v>
-      </c>
-      <c r="K89">
-        <v>1</v>
-      </c>
-      <c r="L89" s="4">
-        <v>42942</v>
-      </c>
-    </row>
-    <row r="90" spans="2:12" ht="18" x14ac:dyDescent="0.2">
-      <c r="C90" s="1">
-        <v>415</v>
-      </c>
-      <c r="D90" s="1">
-        <v>125</v>
-      </c>
-      <c r="E90" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="F90" s="3">
-        <v>0.26100000000000001</v>
-      </c>
-      <c r="G90" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="I90">
-        <v>1</v>
-      </c>
-      <c r="J90" t="s">
-        <v>77</v>
       </c>
       <c r="K90">
         <v>1</v>
@@ -7601,69 +8134,72 @@
         <v>42942</v>
       </c>
     </row>
-    <row r="91" spans="2:12" s="24" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="C91" s="25"/>
-      <c r="D91" s="25">
+    <row r="91" spans="2:12" ht="18" x14ac:dyDescent="0.2">
+      <c r="C91" s="1">
+        <v>415</v>
+      </c>
+      <c r="D91" s="1">
+        <v>125</v>
+      </c>
+      <c r="E91" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="F91" s="3">
+        <v>0.26100000000000001</v>
+      </c>
+      <c r="G91" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="I91">
+        <v>1</v>
+      </c>
+      <c r="J91" t="s">
+        <v>77</v>
+      </c>
+      <c r="K91">
+        <v>1</v>
+      </c>
+      <c r="L91" s="4">
+        <v>42942</v>
+      </c>
+    </row>
+    <row r="92" spans="2:12" s="24" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="C92" s="25"/>
+      <c r="D92" s="25">
         <v>344</v>
       </c>
-      <c r="E91" s="26" t="s">
+      <c r="E92" s="26" t="s">
         <v>208</v>
       </c>
-      <c r="F91" s="27">
+      <c r="F92" s="27">
         <v>0.59</v>
       </c>
-      <c r="G91" s="25" t="s">
-        <v>85</v>
-      </c>
-      <c r="I91" s="24">
-        <v>1</v>
-      </c>
-      <c r="K91" s="24">
-        <v>1</v>
-      </c>
-      <c r="L91" s="28">
+      <c r="G92" s="25" t="s">
+        <v>85</v>
+      </c>
+      <c r="I92" s="24">
+        <v>1</v>
+      </c>
+      <c r="K92" s="24">
+        <v>1</v>
+      </c>
+      <c r="L92" s="28">
         <v>42934</v>
       </c>
     </row>
-    <row r="92" spans="2:12" ht="18" x14ac:dyDescent="0.2">
-      <c r="B92" t="s">
+    <row r="93" spans="2:12" ht="18" x14ac:dyDescent="0.2">
+      <c r="B93" t="s">
         <v>220</v>
       </c>
-      <c r="C92" s="1"/>
-      <c r="D92" s="1">
+      <c r="C93" s="1"/>
+      <c r="D93" s="1">
         <v>541</v>
       </c>
-      <c r="E92" s="2" t="s">
+      <c r="E93" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="F92" s="3">
+      <c r="F93" s="3">
         <v>0.44</v>
-      </c>
-      <c r="G92" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="I92">
-        <v>1</v>
-      </c>
-      <c r="K92">
-        <v>1</v>
-      </c>
-      <c r="L92" s="4">
-        <v>42934</v>
-      </c>
-    </row>
-    <row r="93" spans="2:12" ht="18" x14ac:dyDescent="0.2">
-      <c r="C93" s="1">
-        <v>53</v>
-      </c>
-      <c r="D93" s="1">
-        <v>557</v>
-      </c>
-      <c r="E93" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="F93" s="3">
-        <v>0.59799999999999998</v>
       </c>
       <c r="G93" s="1" t="s">
         <v>85</v>
@@ -7678,143 +8214,145 @@
         <v>42934</v>
       </c>
     </row>
-    <row r="98" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A98" s="8"/>
-      <c r="B98" s="8"/>
-      <c r="C98" s="8"/>
-      <c r="D98" s="8"/>
-      <c r="E98" s="8"/>
-      <c r="F98" s="8"/>
-      <c r="G98" s="8"/>
-      <c r="H98" s="8"/>
-      <c r="I98" s="8">
-        <f>SUM(I72:I93)</f>
+    <row r="94" spans="2:12" ht="18" x14ac:dyDescent="0.2">
+      <c r="C94" s="1">
+        <v>53</v>
+      </c>
+      <c r="D94" s="1">
+        <v>557</v>
+      </c>
+      <c r="E94" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="F94" s="3">
+        <v>0.59799999999999998</v>
+      </c>
+      <c r="G94" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="I94">
+        <v>1</v>
+      </c>
+      <c r="K94">
+        <v>1</v>
+      </c>
+      <c r="L94" s="4">
+        <v>42934</v>
+      </c>
+    </row>
+    <row r="99" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A99" s="8"/>
+      <c r="B99" s="8"/>
+      <c r="C99" s="8"/>
+      <c r="D99" s="8"/>
+      <c r="E99" s="8"/>
+      <c r="F99" s="8"/>
+      <c r="G99" s="8"/>
+      <c r="H99" s="8"/>
+      <c r="I99" s="8">
+        <f>SUM(I73:I94)</f>
         <v>18</v>
       </c>
-      <c r="J98" s="8"/>
-      <c r="K98" s="8">
-        <f>SUM(K72:K97)</f>
+      <c r="J99" s="8"/>
+      <c r="K99" s="8">
+        <f>SUM(K73:K98)</f>
         <v>22</v>
       </c>
-      <c r="L98" s="8"/>
-      <c r="M98" s="8"/>
-      <c r="N98" s="8"/>
-      <c r="O98" s="8"/>
-      <c r="P98" s="8"/>
-      <c r="Q98" s="8"/>
-      <c r="R98" s="8"/>
-      <c r="S98" s="8"/>
-      <c r="T98" s="8"/>
-      <c r="U98" s="8"/>
-      <c r="V98" s="8"/>
-      <c r="W98" s="8"/>
-      <c r="X98" s="8"/>
-    </row>
-    <row r="99" spans="1:24" ht="18" x14ac:dyDescent="0.2">
-      <c r="A99" t="s">
+      <c r="L99" s="8"/>
+      <c r="M99" s="8"/>
+      <c r="N99" s="8"/>
+      <c r="O99" s="8"/>
+      <c r="P99" s="8"/>
+      <c r="Q99" s="8"/>
+      <c r="R99" s="8"/>
+      <c r="S99" s="8"/>
+      <c r="T99" s="8"/>
+      <c r="U99" s="8"/>
+      <c r="V99" s="8"/>
+      <c r="W99" s="8"/>
+      <c r="X99" s="8"/>
+    </row>
+    <row r="100" spans="1:24" ht="18" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
         <v>120</v>
       </c>
-      <c r="C99" s="1"/>
-      <c r="D99" s="1">
-        <v>141</v>
-      </c>
-      <c r="E99" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="F99" s="3">
-        <v>0.35399999999999998</v>
-      </c>
-      <c r="G99" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="I99">
-        <v>1</v>
-      </c>
-      <c r="J99" t="s">
-        <v>77</v>
-      </c>
-      <c r="K99">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="100" spans="1:24" s="8" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A100"/>
-      <c r="B100"/>
       <c r="C100" s="1"/>
       <c r="D100" s="1">
-        <v>237</v>
+        <v>141</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>214</v>
+        <v>129</v>
       </c>
       <c r="F100" s="3">
-        <v>0.46300000000000002</v>
+        <v>0.35399999999999998</v>
       </c>
       <c r="G100" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="H100"/>
       <c r="I100">
         <v>1</v>
       </c>
-      <c r="J100"/>
+      <c r="J100" t="s">
+        <v>77</v>
+      </c>
       <c r="K100">
         <v>1</v>
       </c>
-      <c r="L100"/>
-      <c r="M100"/>
-      <c r="N100"/>
-      <c r="O100"/>
-      <c r="P100"/>
-      <c r="Q100"/>
-      <c r="R100"/>
-      <c r="S100"/>
-      <c r="T100"/>
-      <c r="U100"/>
-      <c r="V100"/>
-      <c r="W100"/>
-      <c r="X100"/>
-    </row>
-    <row r="101" spans="1:24" ht="18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="101" spans="1:24" s="8" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A101"/>
+      <c r="B101"/>
       <c r="C101" s="1"/>
       <c r="D101" s="1">
-        <v>83</v>
+        <v>237</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F101" s="3">
-        <v>0.39700000000000002</v>
+        <v>0.46300000000000002</v>
       </c>
       <c r="G101" s="1" t="s">
         <v>85</v>
       </c>
+      <c r="H101"/>
       <c r="I101">
         <v>1</v>
       </c>
+      <c r="J101"/>
       <c r="K101">
         <v>1</v>
       </c>
+      <c r="L101"/>
+      <c r="M101"/>
+      <c r="N101"/>
+      <c r="O101"/>
+      <c r="P101"/>
+      <c r="Q101"/>
+      <c r="R101"/>
+      <c r="S101"/>
+      <c r="T101"/>
+      <c r="U101"/>
+      <c r="V101"/>
+      <c r="W101"/>
+      <c r="X101"/>
     </row>
     <row r="102" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="C102" s="1"/>
       <c r="D102" s="1">
-        <v>160</v>
+        <v>83</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>165</v>
+        <v>215</v>
       </c>
       <c r="F102" s="3">
-        <v>0.30499999999999999</v>
+        <v>0.39700000000000002</v>
       </c>
       <c r="G102" s="1" t="s">
         <v>85</v>
       </c>
       <c r="I102">
         <v>1</v>
-      </c>
-      <c r="J102" t="s">
-        <v>77</v>
       </c>
       <c r="K102">
         <v>1</v>
@@ -7823,19 +8361,22 @@
     <row r="103" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="C103" s="1"/>
       <c r="D103" s="1">
-        <v>203</v>
+        <v>160</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="F103" s="3">
-        <v>0.32200000000000001</v>
+        <v>0.30499999999999999</v>
       </c>
       <c r="G103" s="1" t="s">
         <v>85</v>
       </c>
       <c r="I103">
         <v>1</v>
+      </c>
+      <c r="J103" t="s">
+        <v>77</v>
       </c>
       <c r="K103">
         <v>1</v>
@@ -7844,22 +8385,19 @@
     <row r="104" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="C104" s="1"/>
       <c r="D104" s="1">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>124</v>
+        <v>168</v>
       </c>
       <c r="F104" s="3">
-        <v>0.45200000000000001</v>
+        <v>0.32200000000000001</v>
       </c>
       <c r="G104" s="1" t="s">
         <v>85</v>
       </c>
       <c r="I104">
         <v>1</v>
-      </c>
-      <c r="J104" t="s">
-        <v>77</v>
       </c>
       <c r="K104">
         <v>1</v>
@@ -7868,13 +8406,13 @@
     <row r="105" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="C105" s="1"/>
       <c r="D105" s="1">
-        <v>234</v>
+        <v>206</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>163</v>
+        <v>124</v>
       </c>
       <c r="F105" s="3">
-        <v>0.32600000000000001</v>
+        <v>0.45200000000000001</v>
       </c>
       <c r="G105" s="1" t="s">
         <v>85</v>
@@ -7892,471 +8430,586 @@
     <row r="106" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="C106" s="1"/>
       <c r="D106" s="1">
+        <v>234</v>
+      </c>
+      <c r="E106" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="F106" s="3">
+        <v>0.32600000000000001</v>
+      </c>
+      <c r="G106" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="I106">
+        <v>1</v>
+      </c>
+      <c r="J106" t="s">
+        <v>77</v>
+      </c>
+      <c r="K106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:24" ht="18" x14ac:dyDescent="0.2">
+      <c r="C107" s="1"/>
+      <c r="D107" s="1">
         <v>21</v>
       </c>
-      <c r="E106" s="2" t="s">
+      <c r="E107" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="F106" s="3">
+      <c r="F107" s="3">
         <v>0.39</v>
       </c>
-      <c r="G106" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="I106">
-        <v>1</v>
-      </c>
-      <c r="K106">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="107" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A107" s="8"/>
-      <c r="B107" s="8"/>
-      <c r="C107" s="8"/>
-      <c r="D107" s="8"/>
-      <c r="E107" s="8"/>
-      <c r="F107" s="8"/>
-      <c r="G107" s="8"/>
-      <c r="H107" s="8"/>
-      <c r="I107" s="8">
-        <f>SUM(I99:I106)</f>
+      <c r="G107" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="I107">
+        <v>1</v>
+      </c>
+      <c r="K107">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A108" s="8"/>
+      <c r="B108" s="8"/>
+      <c r="C108" s="8"/>
+      <c r="D108" s="8"/>
+      <c r="E108" s="8"/>
+      <c r="F108" s="8"/>
+      <c r="G108" s="8"/>
+      <c r="H108" s="8"/>
+      <c r="I108" s="8">
+        <f>SUM(I100:I107)</f>
         <v>8</v>
       </c>
-      <c r="J107" s="8"/>
-      <c r="K107" s="8"/>
-      <c r="L107" s="8"/>
-      <c r="M107" s="8"/>
-      <c r="N107" s="8"/>
-      <c r="O107" s="8"/>
-      <c r="P107" s="8"/>
-      <c r="Q107" s="8"/>
-      <c r="R107" s="8"/>
-      <c r="S107" s="8"/>
-      <c r="T107" s="8"/>
-      <c r="U107" s="8"/>
-      <c r="V107" s="8"/>
-      <c r="W107" s="8"/>
-      <c r="X107" s="8"/>
-    </row>
-    <row r="108" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="H108">
+      <c r="J108" s="8"/>
+      <c r="K108" s="8"/>
+      <c r="L108" s="8"/>
+      <c r="M108" s="8"/>
+      <c r="N108" s="8"/>
+      <c r="O108" s="8"/>
+      <c r="P108" s="8"/>
+      <c r="Q108" s="8"/>
+      <c r="R108" s="8"/>
+      <c r="S108" s="8"/>
+      <c r="T108" s="8"/>
+      <c r="U108" s="8"/>
+      <c r="V108" s="8"/>
+      <c r="W108" s="8"/>
+      <c r="X108" s="8"/>
+    </row>
+    <row r="109" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="H109">
         <f>COUNTA(H2:H31)</f>
         <v>10</v>
       </c>
     </row>
-    <row r="109" spans="1:24" ht="18" x14ac:dyDescent="0.2">
-      <c r="A109" t="s">
+    <row r="110" spans="1:24" ht="18" x14ac:dyDescent="0.2">
+      <c r="A110" t="s">
         <v>222</v>
       </c>
-      <c r="C109">
+      <c r="C110">
         <v>155</v>
       </c>
-      <c r="D109" s="1">
+      <c r="D110" s="1">
         <v>111</v>
       </c>
-      <c r="E109" s="2" t="s">
+      <c r="E110" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="F109" s="3">
+      <c r="F110" s="3">
         <v>0.33</v>
       </c>
-      <c r="G109" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="H109">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="110" spans="1:24" ht="18" x14ac:dyDescent="0.2">
-      <c r="C110" s="1">
+      <c r="G110" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="H110">
+        <v>1</v>
+      </c>
+      <c r="I110">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:24" ht="18" x14ac:dyDescent="0.2">
+      <c r="C111" s="1">
         <v>88</v>
       </c>
-      <c r="D110" s="1">
+      <c r="D111" s="1">
         <v>235</v>
       </c>
-      <c r="E110" s="2" t="s">
+      <c r="E111" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="F110" s="3">
+      <c r="F111" s="3">
         <v>0.38900000000000001</v>
       </c>
-      <c r="G110" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="H110">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="111" spans="1:24" ht="18" x14ac:dyDescent="0.2">
-      <c r="C111" s="1"/>
-      <c r="D111" s="1">
-        <v>270</v>
-      </c>
-      <c r="E111" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="F111" s="3">
-        <v>0.39200000000000002</v>
-      </c>
       <c r="G111" s="1" t="s">
         <v>85</v>
+      </c>
+      <c r="H111">
+        <v>1</v>
       </c>
     </row>
     <row r="112" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="C112" s="1"/>
       <c r="D112" s="1">
-        <v>606</v>
+        <v>270</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>202</v>
+        <v>225</v>
       </c>
       <c r="F112" s="3">
-        <v>0.51300000000000001</v>
+        <v>0.39200000000000002</v>
       </c>
       <c r="G112" s="1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="113" spans="3:8" ht="18" x14ac:dyDescent="0.2">
+    <row r="113" spans="3:9" ht="18" x14ac:dyDescent="0.2">
       <c r="C113" s="1"/>
       <c r="D113" s="1">
-        <v>501</v>
+        <v>606</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>226</v>
+        <v>202</v>
       </c>
       <c r="F113" s="3">
-        <v>0.38100000000000001</v>
+        <v>0.51300000000000001</v>
       </c>
       <c r="G113" s="1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="114" spans="3:8" ht="18" x14ac:dyDescent="0.2">
+    <row r="114" spans="3:9" ht="18" x14ac:dyDescent="0.2">
       <c r="C114" s="1"/>
       <c r="D114" s="1">
+        <v>501</v>
+      </c>
+      <c r="E114" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="F114" s="3">
+        <v>0.38100000000000001</v>
+      </c>
+      <c r="G114" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="115" spans="3:9" ht="18" x14ac:dyDescent="0.2">
+      <c r="C115" s="1"/>
+      <c r="D115" s="1">
         <v>543</v>
       </c>
-      <c r="E114" s="2" t="s">
+      <c r="E115" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="F114" s="3">
+      <c r="F115" s="3">
         <v>0.434</v>
       </c>
-      <c r="G114" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="115" spans="3:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="C115" s="1">
+      <c r="G115" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="116" spans="3:9" ht="18" x14ac:dyDescent="0.2">
+      <c r="C116" s="1">
         <v>472</v>
       </c>
-      <c r="D115" s="1">
+      <c r="D116" s="1">
         <v>437</v>
       </c>
-      <c r="E115" s="2" t="s">
+      <c r="E116" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="F115" s="3">
+      <c r="F116" s="3">
         <v>0.39800000000000002</v>
       </c>
-      <c r="G115" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="H115">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="116" spans="3:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="C116" s="1"/>
-      <c r="D116" s="1">
+      <c r="G116" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="H116">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="3:9" ht="18" x14ac:dyDescent="0.2">
+      <c r="C117" s="1"/>
+      <c r="D117" s="1">
         <v>404</v>
       </c>
-      <c r="E116" s="2" t="s">
+      <c r="E117" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="F116" s="3">
+      <c r="F117" s="3">
         <v>0.46899999999999997</v>
       </c>
-      <c r="G116" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="117" spans="3:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="C117" s="1">
+      <c r="G117" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="118" spans="3:9" ht="18" x14ac:dyDescent="0.2">
+      <c r="C118" s="1">
         <v>661</v>
       </c>
-      <c r="D117" s="1">
+      <c r="D118" s="1">
         <v>538</v>
       </c>
-      <c r="E117" s="2" t="s">
+      <c r="E118" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="F117" s="3">
+      <c r="F118" s="3">
         <v>0.51900000000000002</v>
       </c>
-      <c r="G117" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="118" spans="3:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="C118" s="1"/>
-      <c r="D118" s="1">
+      <c r="G118" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="119" spans="3:9" ht="18" x14ac:dyDescent="0.2">
+      <c r="C119" s="1"/>
+      <c r="D119" s="1">
         <v>637</v>
       </c>
-      <c r="E118" s="2" t="s">
+      <c r="E119" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="F118" s="3">
+      <c r="F119" s="3">
         <v>0.58499999999999996</v>
       </c>
-      <c r="G118" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="119" spans="3:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="C119" s="1">
+      <c r="G119" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="120" spans="3:9" ht="18" x14ac:dyDescent="0.2">
+      <c r="C120" s="1">
         <v>376</v>
       </c>
-      <c r="D119" s="1">
+      <c r="D120" s="1">
         <v>112</v>
       </c>
-      <c r="E119" s="2" t="s">
+      <c r="E120" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="F119" s="3">
+      <c r="F120" s="3">
         <v>0.33800000000000002</v>
       </c>
-      <c r="G119" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="H119">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="120" spans="3:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="C120" s="1">
+      <c r="G120" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="H120">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="3:9" ht="18" x14ac:dyDescent="0.2">
+      <c r="C121" s="1">
         <v>480</v>
       </c>
-      <c r="D120" s="1">
+      <c r="D121" s="1">
         <v>257</v>
       </c>
-      <c r="E120" s="2" t="s">
+      <c r="E121" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="F120" s="3">
+      <c r="F121" s="3">
         <v>0.38</v>
       </c>
-      <c r="G120" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="H120">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="121" spans="3:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="C121" s="1">
+      <c r="G121" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="H121">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="3:9" ht="18" x14ac:dyDescent="0.2">
+      <c r="C122" s="1">
         <v>93</v>
       </c>
-      <c r="D121" s="1">
+      <c r="D122" s="1">
         <v>110</v>
       </c>
-      <c r="E121" s="2" t="s">
+      <c r="E122" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="F121" s="3">
+      <c r="F122" s="3">
         <v>0.373</v>
       </c>
-      <c r="G121" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="H121">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="122" spans="3:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="C122" s="1">
+      <c r="G122" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="H122">
+        <v>1</v>
+      </c>
+      <c r="I122">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="3:9" ht="18" x14ac:dyDescent="0.2">
+      <c r="C123" s="1">
         <v>177</v>
       </c>
-      <c r="D122" s="1">
+      <c r="D123" s="1">
         <v>108</v>
       </c>
-      <c r="E122" s="2" t="s">
+      <c r="E123" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="F122" s="3">
+      <c r="F123" s="3">
         <v>0.41899999999999998</v>
       </c>
-      <c r="G122" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="H122">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="123" spans="3:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="C123" s="1">
+      <c r="G123" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="H123">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="3:9" ht="18" x14ac:dyDescent="0.2">
+      <c r="C124" s="1">
         <v>70</v>
       </c>
-      <c r="D123" s="1">
+      <c r="D124" s="1">
         <v>107</v>
       </c>
-      <c r="E123" s="2" t="s">
+      <c r="E124" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="F123" s="3">
+      <c r="F124" s="3">
         <v>0.39900000000000002</v>
       </c>
-      <c r="G123" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="H123">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="124" spans="3:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="C124" s="1">
+      <c r="G124" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="H124">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="3:9" ht="18" x14ac:dyDescent="0.2">
+      <c r="C125" s="1">
         <v>175</v>
       </c>
-      <c r="D124" s="1">
+      <c r="D125" s="1">
         <v>226</v>
       </c>
-      <c r="E124" s="2" t="s">
+      <c r="E125" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="F124" s="3">
+      <c r="F125" s="3">
         <v>0.51600000000000001</v>
       </c>
-      <c r="G124" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="125" spans="3:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="C125" s="1"/>
-      <c r="D125" s="1">
+      <c r="G125" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="126" spans="3:9" ht="18" x14ac:dyDescent="0.2">
+      <c r="C126" s="1"/>
+      <c r="D126" s="1">
         <v>572</v>
       </c>
-      <c r="E125" s="2" t="s">
+      <c r="E126" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="F125" s="3">
+      <c r="F126" s="3">
         <v>0.40799999999999997</v>
       </c>
-      <c r="G125" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="126" spans="3:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="C126" s="1">
+      <c r="G126" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="127" spans="3:9" ht="18" x14ac:dyDescent="0.2">
+      <c r="C127" s="1">
         <v>97</v>
       </c>
-      <c r="D126" s="1">
+      <c r="D127" s="1">
         <v>104</v>
       </c>
-      <c r="E126" s="2" t="s">
+      <c r="E127" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="F126" s="3">
+      <c r="F127" s="3">
         <v>0.52400000000000002</v>
       </c>
-      <c r="G126" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="127" spans="3:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="C127" s="1"/>
-      <c r="D127" s="1">
-        <v>563</v>
-      </c>
-      <c r="E127" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="F127" s="3">
-        <v>0.46899999999999997</v>
-      </c>
       <c r="G127" s="1" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="128" spans="3:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="H127" s="1">
+        <v>1</v>
+      </c>
+      <c r="I127" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="3:9" ht="18" x14ac:dyDescent="0.2">
       <c r="C128" s="1"/>
       <c r="D128" s="1">
+        <v>563</v>
+      </c>
+      <c r="E128" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="F128" s="3">
+        <v>0.46899999999999997</v>
+      </c>
+      <c r="G128" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="C129" s="1"/>
+      <c r="D129" s="1">
         <v>617</v>
       </c>
-      <c r="E128" s="2" t="s">
+      <c r="E129" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="F128" s="3">
+      <c r="F129" s="3">
         <v>0.69099999999999995</v>
       </c>
-      <c r="G128" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="129" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="C129" s="1">
+      <c r="G129" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="C130" s="1">
         <v>468</v>
       </c>
-      <c r="D129" s="1">
+      <c r="D130" s="1">
         <v>101</v>
       </c>
-      <c r="E129" s="2" t="s">
+      <c r="E130" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="F129" s="3">
+      <c r="F130" s="3">
         <v>0.38500000000000001</v>
       </c>
-      <c r="G129" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="H129">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="130" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="C130" s="1">
+      <c r="G130" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="H130">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="C131" s="1">
         <v>469</v>
       </c>
-      <c r="D130" s="1">
+      <c r="D131" s="1">
         <v>100</v>
       </c>
-      <c r="E130" s="2" t="s">
+      <c r="E131" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="F130" s="3">
+      <c r="F131" s="3">
         <v>0.46300000000000002</v>
       </c>
-      <c r="G130" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="131" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="I131" s="8">
-        <f>SUM(I109:I130)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A132" t="s">
+      <c r="G131" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="H131" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="C132" s="1"/>
+      <c r="D132" s="1"/>
+      <c r="E132" s="2"/>
+      <c r="F132" s="3"/>
+      <c r="G132" s="1"/>
+      <c r="H132" s="1"/>
+    </row>
+    <row r="133" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="C133" s="1"/>
+      <c r="D133" s="1"/>
+      <c r="E133" s="2"/>
+      <c r="F133" s="3"/>
+      <c r="G133" s="1"/>
+      <c r="H133" s="1"/>
+    </row>
+    <row r="134" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="C134" s="1"/>
+      <c r="D134" s="1"/>
+      <c r="E134" s="2"/>
+      <c r="F134" s="3"/>
+      <c r="G134" s="1"/>
+      <c r="H134" s="1"/>
+    </row>
+    <row r="135" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="C135" s="1"/>
+      <c r="D135" s="1"/>
+      <c r="E135" s="2"/>
+      <c r="F135" s="3"/>
+      <c r="G135" s="1"/>
+      <c r="H135" s="1"/>
+    </row>
+    <row r="136" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="C136" s="1"/>
+      <c r="D136" s="1"/>
+      <c r="E136" s="2"/>
+      <c r="F136" s="3"/>
+      <c r="G136" s="1"/>
+      <c r="H136" s="1"/>
+    </row>
+    <row r="137" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="C137" s="1"/>
+      <c r="D137" s="1"/>
+      <c r="E137" s="2"/>
+      <c r="F137" s="3"/>
+      <c r="G137" s="1"/>
+      <c r="H137" s="1"/>
+    </row>
+    <row r="138" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="C138" s="1"/>
+      <c r="D138" s="1"/>
+      <c r="E138" s="2"/>
+      <c r="F138" s="3"/>
+      <c r="G138" s="1"/>
+      <c r="H138" s="1"/>
+    </row>
+    <row r="139" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="C139" s="1"/>
+      <c r="D139" s="1">
+        <v>623</v>
+      </c>
+      <c r="E139" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="F139" s="3"/>
+      <c r="G139" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="H139" s="1"/>
+      <c r="I139">
+        <v>1</v>
+      </c>
+      <c r="J139">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="I140" s="8">
+        <f>SUM(I110:I139)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A141" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="133" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="D133" s="1">
+    <row r="142" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="D142" s="1">
         <v>416</v>
       </c>
-      <c r="E133" t="s">
+      <c r="E142" t="s">
         <v>307</v>
       </c>
-      <c r="I133">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="154" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I154">
-        <f>I41+I70+I98+I107+I131</f>
-        <v>83</v>
+      <c r="I142">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I163">
+        <f>I42+I71+I99+I108+I140</f>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -8367,7 +9020,7 @@
     <mergeCell ref="B18:B21"/>
     <mergeCell ref="B30:B31"/>
     <mergeCell ref="B32:B37"/>
-    <mergeCell ref="B38:B40"/>
+    <mergeCell ref="B38:B39"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E6" r:id="rId1"/>
@@ -8399,90 +9052,92 @@
     <hyperlink ref="E15" r:id="rId27"/>
     <hyperlink ref="E24" r:id="rId28"/>
     <hyperlink ref="E16" r:id="rId29"/>
-    <hyperlink ref="E51" r:id="rId30"/>
-    <hyperlink ref="E42" r:id="rId31"/>
-    <hyperlink ref="E64" r:id="rId32"/>
-    <hyperlink ref="E63" r:id="rId33"/>
-    <hyperlink ref="E62" r:id="rId34"/>
-    <hyperlink ref="E61" r:id="rId35"/>
-    <hyperlink ref="E60" r:id="rId36"/>
-    <hyperlink ref="E59" r:id="rId37"/>
-    <hyperlink ref="E58" r:id="rId38"/>
-    <hyperlink ref="E43" r:id="rId39"/>
-    <hyperlink ref="E55" r:id="rId40"/>
-    <hyperlink ref="E65" r:id="rId41"/>
-    <hyperlink ref="E50" r:id="rId42"/>
-    <hyperlink ref="E49" r:id="rId43"/>
-    <hyperlink ref="E48" r:id="rId44"/>
-    <hyperlink ref="E47" r:id="rId45"/>
-    <hyperlink ref="E46" r:id="rId46"/>
-    <hyperlink ref="E45" r:id="rId47"/>
-    <hyperlink ref="E53" r:id="rId48"/>
-    <hyperlink ref="E44" r:id="rId49"/>
-    <hyperlink ref="E66" r:id="rId50"/>
-    <hyperlink ref="E54" r:id="rId51"/>
-    <hyperlink ref="E52" r:id="rId52"/>
-    <hyperlink ref="E56" r:id="rId53"/>
-    <hyperlink ref="E57" r:id="rId54"/>
-    <hyperlink ref="E72" r:id="rId55"/>
-    <hyperlink ref="E73" r:id="rId56"/>
-    <hyperlink ref="E93" r:id="rId57"/>
-    <hyperlink ref="E74" r:id="rId58"/>
-    <hyperlink ref="E92" r:id="rId59"/>
-    <hyperlink ref="E75" r:id="rId60"/>
-    <hyperlink ref="E76" r:id="rId61"/>
-    <hyperlink ref="E77" r:id="rId62"/>
-    <hyperlink ref="E78" r:id="rId63"/>
-    <hyperlink ref="E79" r:id="rId64"/>
-    <hyperlink ref="E80" r:id="rId65"/>
-    <hyperlink ref="E81" r:id="rId66"/>
-    <hyperlink ref="E82" r:id="rId67"/>
-    <hyperlink ref="E83" r:id="rId68"/>
-    <hyperlink ref="E84" r:id="rId69"/>
-    <hyperlink ref="E85" r:id="rId70"/>
-    <hyperlink ref="E86" r:id="rId71"/>
-    <hyperlink ref="E91" r:id="rId72"/>
-    <hyperlink ref="E87" r:id="rId73"/>
-    <hyperlink ref="E88" r:id="rId74"/>
-    <hyperlink ref="E89" r:id="rId75"/>
-    <hyperlink ref="E90" r:id="rId76"/>
-    <hyperlink ref="E99" r:id="rId77"/>
-    <hyperlink ref="E100" r:id="rId78"/>
-    <hyperlink ref="E101" r:id="rId79"/>
-    <hyperlink ref="E102" r:id="rId80"/>
-    <hyperlink ref="E103" r:id="rId81"/>
-    <hyperlink ref="E104" r:id="rId82"/>
-    <hyperlink ref="E105" r:id="rId83"/>
-    <hyperlink ref="E106" r:id="rId84"/>
-    <hyperlink ref="E109" r:id="rId85"/>
-    <hyperlink ref="E110" r:id="rId86"/>
-    <hyperlink ref="E111" r:id="rId87"/>
-    <hyperlink ref="E112" r:id="rId88"/>
-    <hyperlink ref="E113" r:id="rId89"/>
-    <hyperlink ref="E114" r:id="rId90"/>
-    <hyperlink ref="E115" r:id="rId91"/>
-    <hyperlink ref="E116" r:id="rId92"/>
-    <hyperlink ref="E117" r:id="rId93"/>
-    <hyperlink ref="E118" r:id="rId94"/>
-    <hyperlink ref="E119" r:id="rId95"/>
-    <hyperlink ref="E120" r:id="rId96"/>
-    <hyperlink ref="E121" r:id="rId97"/>
-    <hyperlink ref="E122" r:id="rId98"/>
-    <hyperlink ref="E123" r:id="rId99"/>
-    <hyperlink ref="E124" r:id="rId100"/>
-    <hyperlink ref="E125" r:id="rId101"/>
-    <hyperlink ref="E126" r:id="rId102"/>
-    <hyperlink ref="E127" r:id="rId103"/>
-    <hyperlink ref="E128" r:id="rId104"/>
-    <hyperlink ref="E129" r:id="rId105"/>
-    <hyperlink ref="E130" r:id="rId106"/>
+    <hyperlink ref="E52" r:id="rId30"/>
+    <hyperlink ref="E43" r:id="rId31"/>
+    <hyperlink ref="E65" r:id="rId32"/>
+    <hyperlink ref="E64" r:id="rId33"/>
+    <hyperlink ref="E63" r:id="rId34"/>
+    <hyperlink ref="E62" r:id="rId35"/>
+    <hyperlink ref="E61" r:id="rId36"/>
+    <hyperlink ref="E60" r:id="rId37"/>
+    <hyperlink ref="E59" r:id="rId38"/>
+    <hyperlink ref="E44" r:id="rId39"/>
+    <hyperlink ref="E56" r:id="rId40"/>
+    <hyperlink ref="E66" r:id="rId41"/>
+    <hyperlink ref="E51" r:id="rId42"/>
+    <hyperlink ref="E50" r:id="rId43"/>
+    <hyperlink ref="E49" r:id="rId44"/>
+    <hyperlink ref="E48" r:id="rId45"/>
+    <hyperlink ref="E47" r:id="rId46"/>
+    <hyperlink ref="E46" r:id="rId47"/>
+    <hyperlink ref="E54" r:id="rId48"/>
+    <hyperlink ref="E45" r:id="rId49"/>
+    <hyperlink ref="E67" r:id="rId50"/>
+    <hyperlink ref="E55" r:id="rId51"/>
+    <hyperlink ref="E53" r:id="rId52"/>
+    <hyperlink ref="E57" r:id="rId53"/>
+    <hyperlink ref="E58" r:id="rId54"/>
+    <hyperlink ref="E73" r:id="rId55"/>
+    <hyperlink ref="E74" r:id="rId56"/>
+    <hyperlink ref="E94" r:id="rId57"/>
+    <hyperlink ref="E75" r:id="rId58"/>
+    <hyperlink ref="E93" r:id="rId59"/>
+    <hyperlink ref="E76" r:id="rId60"/>
+    <hyperlink ref="E77" r:id="rId61"/>
+    <hyperlink ref="E78" r:id="rId62"/>
+    <hyperlink ref="E79" r:id="rId63"/>
+    <hyperlink ref="E80" r:id="rId64"/>
+    <hyperlink ref="E81" r:id="rId65"/>
+    <hyperlink ref="E82" r:id="rId66"/>
+    <hyperlink ref="E83" r:id="rId67"/>
+    <hyperlink ref="E84" r:id="rId68"/>
+    <hyperlink ref="E85" r:id="rId69"/>
+    <hyperlink ref="E86" r:id="rId70"/>
+    <hyperlink ref="E87" r:id="rId71"/>
+    <hyperlink ref="E92" r:id="rId72"/>
+    <hyperlink ref="E88" r:id="rId73"/>
+    <hyperlink ref="E89" r:id="rId74"/>
+    <hyperlink ref="E90" r:id="rId75"/>
+    <hyperlink ref="E91" r:id="rId76"/>
+    <hyperlink ref="E100" r:id="rId77"/>
+    <hyperlink ref="E101" r:id="rId78"/>
+    <hyperlink ref="E102" r:id="rId79"/>
+    <hyperlink ref="E103" r:id="rId80"/>
+    <hyperlink ref="E104" r:id="rId81"/>
+    <hyperlink ref="E105" r:id="rId82"/>
+    <hyperlink ref="E106" r:id="rId83"/>
+    <hyperlink ref="E107" r:id="rId84"/>
+    <hyperlink ref="E110" r:id="rId85"/>
+    <hyperlink ref="E111" r:id="rId86"/>
+    <hyperlink ref="E112" r:id="rId87"/>
+    <hyperlink ref="E113" r:id="rId88"/>
+    <hyperlink ref="E114" r:id="rId89"/>
+    <hyperlink ref="E115" r:id="rId90"/>
+    <hyperlink ref="E116" r:id="rId91"/>
+    <hyperlink ref="E117" r:id="rId92"/>
+    <hyperlink ref="E118" r:id="rId93"/>
+    <hyperlink ref="E119" r:id="rId94"/>
+    <hyperlink ref="E120" r:id="rId95"/>
+    <hyperlink ref="E121" r:id="rId96"/>
+    <hyperlink ref="E122" r:id="rId97"/>
+    <hyperlink ref="E123" r:id="rId98"/>
+    <hyperlink ref="E124" r:id="rId99"/>
+    <hyperlink ref="E125" r:id="rId100"/>
+    <hyperlink ref="E126" r:id="rId101"/>
+    <hyperlink ref="E127" r:id="rId102"/>
+    <hyperlink ref="E128" r:id="rId103"/>
+    <hyperlink ref="E129" r:id="rId104"/>
+    <hyperlink ref="E130" r:id="rId105"/>
+    <hyperlink ref="E131" r:id="rId106"/>
     <hyperlink ref="E36" r:id="rId107" location="/description"/>
-    <hyperlink ref="E69" r:id="rId108"/>
+    <hyperlink ref="E70" r:id="rId108"/>
     <hyperlink ref="E33" r:id="rId109"/>
     <hyperlink ref="E35" r:id="rId110" location="/description"/>
     <hyperlink ref="E37" r:id="rId111" location="/description"/>
     <hyperlink ref="E20" r:id="rId112"/>
     <hyperlink ref="E39" r:id="rId113"/>
+    <hyperlink ref="E139" r:id="rId114"/>
+    <hyperlink ref="E40" r:id="rId115"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/mycode/刷题统计.xlsx
+++ b/mycode/刷题统计.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="780" yWindow="460" windowWidth="24020" windowHeight="14180" tabRatio="500"/>
+    <workbookView xWindow="6700" yWindow="500" windowWidth="18180" windowHeight="14180" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="649" uniqueCount="359">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="694" uniqueCount="400">
   <si>
     <t>1 binary search</t>
   </si>
@@ -975,12 +975,6 @@
     <t>LCA ii</t>
   </si>
   <si>
-    <t>root to any</t>
-  </si>
-  <si>
-    <t>any to any</t>
-  </si>
-  <si>
     <t>validate bst</t>
   </si>
   <si>
@@ -1104,7 +1098,136 @@
     <t>Binary Tree Maximum Path Sum(any to any)</t>
   </si>
   <si>
-    <t>只return true</t>
+    <t>遍历树存linkedlist</t>
+  </si>
+  <si>
+    <t>Path sum</t>
+  </si>
+  <si>
+    <t>max path sum</t>
+  </si>
+  <si>
+    <t>LCS</t>
+  </si>
+  <si>
+    <t>DFS</t>
+  </si>
+  <si>
+    <t>Palindrome Partitioning</t>
+  </si>
+  <si>
+    <t>Combination Sum II</t>
+  </si>
+  <si>
+    <t>Combination Sum</t>
+  </si>
+  <si>
+    <t>Permutations II</t>
+  </si>
+  <si>
+    <t>Permutations</t>
+  </si>
+  <si>
+    <t>Word Ladder</t>
+  </si>
+  <si>
+    <t>Next Permutation</t>
+  </si>
+  <si>
+    <t>Previous Permutation</t>
+  </si>
+  <si>
+    <t>Word Break II</t>
+  </si>
+  <si>
+    <t>Word Ladder II</t>
+  </si>
+  <si>
+    <t>String Permutation</t>
+  </si>
+  <si>
+    <t>Permutation Index</t>
+  </si>
+  <si>
+    <t>String Permutation II</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Next Permutation II </t>
+  </si>
+  <si>
+    <t>Permutation Index II</t>
+  </si>
+  <si>
+    <t>Word Break</t>
+  </si>
+  <si>
+    <t>Palindrome Partitioning II</t>
+  </si>
+  <si>
+    <t>BFS</t>
+  </si>
+  <si>
+    <t>Binary Tree Level Order Traversal</t>
+  </si>
+  <si>
+    <t>Number of Islands</t>
+  </si>
+  <si>
+    <t>Course Schedule II</t>
+  </si>
+  <si>
+    <t>Search Graph Nodes</t>
+  </si>
+  <si>
+    <t>Knight Shortest Path</t>
+  </si>
+  <si>
+    <t>Graph Valid Tree</t>
+  </si>
+  <si>
+    <t>Clone Graph</t>
+  </si>
+  <si>
+    <t>Binary Tree Serialization</t>
+  </si>
+  <si>
+    <t>Build Post Office II</t>
+  </si>
+  <si>
+    <t>Convert Binary Tree to Linked Lists by Depth</t>
+  </si>
+  <si>
+    <t>Remove Substrings</t>
+  </si>
+  <si>
+    <t>Sequence Reconstruction</t>
+  </si>
+  <si>
+    <t>Six Degrees</t>
+  </si>
+  <si>
+    <t>Topological Sorting</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Word Ladder </t>
+  </si>
+  <si>
+    <t>Course Schedule</t>
+  </si>
+  <si>
+    <t>Connected Component in Undirected Graph</t>
+  </si>
+  <si>
+    <t>Binary Tree Zigzag Level Order Traversal</t>
+  </si>
+  <si>
+    <t>Smallest Rectangle Enclosing Black Pixels</t>
+  </si>
+  <si>
+    <t>Build Post Office</t>
+  </si>
+  <si>
+    <t>Number of Islands II</t>
   </si>
 </sst>
 </file>
@@ -1163,7 +1286,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1216,6 +1339,36 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFEDEDED"/>
         <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFDEF0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFDEF0"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE3FFFD"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -1326,7 +1479,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1369,8 +1522,40 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="7"/>
@@ -1407,7 +1592,6 @@
     <xf numFmtId="16" fontId="0" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="16" fontId="0" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1415,8 +1599,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="16" fontId="3" fillId="9" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1440,8 +1622,38 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="3" fillId="11" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="10" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="3" fillId="11" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="42">
+  <cellStyles count="74">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1479,6 +1691,38 @@
     <cellStyle name="Followed Hyperlink" xfId="39" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="41" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="43" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="45" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="47" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="49" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="51" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="53" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="55" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="57" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="59" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="61" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="63" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="65" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="67" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="69" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="71" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="73" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1487,6 +1731,13 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFE3FFFD"/>
+      <color rgb="FFDDFFD3"/>
+      <color rgb="FFFFDEF0"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1758,11 +2009,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M199"/>
+  <dimension ref="A1:M322"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A156" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K173" sqref="K173"/>
+      <pane ySplit="1" topLeftCell="A233" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C233" sqref="C233"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2276,7 +2527,7 @@
       </c>
     </row>
     <row r="26" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="13">
+      <c r="A26" s="10">
         <v>25</v>
       </c>
       <c r="B26" s="13" t="s">
@@ -2299,7 +2550,7 @@
       </c>
     </row>
     <row r="27" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="13">
+      <c r="A27" s="10">
         <v>26</v>
       </c>
       <c r="D27" s="13" t="s">
@@ -2322,7 +2573,7 @@
       </c>
     </row>
     <row r="28" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="13">
+      <c r="A28" s="10">
         <v>27</v>
       </c>
       <c r="D28" s="13" t="s">
@@ -2348,7 +2599,7 @@
       </c>
     </row>
     <row r="29" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="13">
+      <c r="A29" s="10">
         <v>28</v>
       </c>
       <c r="D29" s="13" t="s">
@@ -2368,7 +2619,7 @@
       </c>
     </row>
     <row r="30" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="13">
+      <c r="A30" s="10">
         <v>29</v>
       </c>
       <c r="D30" s="13" t="s">
@@ -2394,7 +2645,7 @@
       </c>
     </row>
     <row r="31" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="13">
+      <c r="A31" s="10">
         <v>30</v>
       </c>
       <c r="C31" s="13" t="s">
@@ -2423,7 +2674,7 @@
       </c>
     </row>
     <row r="32" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="13">
+      <c r="A32" s="10">
         <v>31</v>
       </c>
       <c r="C32" s="13" t="s">
@@ -2446,7 +2697,7 @@
       </c>
     </row>
     <row r="33" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="13">
+      <c r="A33" s="10">
         <v>32</v>
       </c>
       <c r="C33" s="13" t="s">
@@ -2469,7 +2720,7 @@
       </c>
     </row>
     <row r="34" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="13">
+      <c r="A34" s="10">
         <v>33</v>
       </c>
       <c r="D34" s="13" t="s">
@@ -2483,7 +2734,7 @@
       </c>
     </row>
     <row r="35" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="13">
+      <c r="A35" s="10">
         <v>34</v>
       </c>
       <c r="C35" s="13" t="s">
@@ -2506,7 +2757,7 @@
       </c>
     </row>
     <row r="36" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="13">
+      <c r="A36" s="10">
         <v>35</v>
       </c>
       <c r="C36" s="13" t="s">
@@ -2535,7 +2786,7 @@
       </c>
     </row>
     <row r="37" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="13">
+      <c r="A37" s="10">
         <v>36</v>
       </c>
       <c r="C37" s="13" t="s">
@@ -2564,7 +2815,7 @@
       </c>
     </row>
     <row r="38" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="13">
+      <c r="A38" s="10">
         <v>37</v>
       </c>
       <c r="D38" s="13" t="s">
@@ -2590,7 +2841,7 @@
       </c>
     </row>
     <row r="39" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="13">
+      <c r="A39" s="10">
         <v>38</v>
       </c>
       <c r="D39" s="13" t="s">
@@ -2616,7 +2867,7 @@
       </c>
     </row>
     <row r="40" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="13">
+      <c r="A40" s="10">
         <v>39</v>
       </c>
       <c r="C40" s="13" t="s">
@@ -2645,7 +2896,7 @@
       </c>
     </row>
     <row r="41" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="13">
+      <c r="A41" s="10">
         <v>40</v>
       </c>
       <c r="D41" s="13" t="s">
@@ -2671,7 +2922,7 @@
       </c>
     </row>
     <row r="42" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="13">
+      <c r="A42" s="10">
         <v>41</v>
       </c>
       <c r="D42" s="13" t="s">
@@ -2685,7 +2936,7 @@
       </c>
     </row>
     <row r="43" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="13">
+      <c r="A43" s="10">
         <v>42</v>
       </c>
       <c r="C43" s="13" t="s">
@@ -2711,7 +2962,7 @@
       </c>
     </row>
     <row r="44" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="13">
+      <c r="A44" s="10">
         <v>43</v>
       </c>
       <c r="D44" s="13" t="s">
@@ -2725,12 +2976,12 @@
       </c>
     </row>
     <row r="45" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="13">
+      <c r="A45" s="10">
         <v>44</v>
       </c>
     </row>
     <row r="46" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="13">
+      <c r="A46" s="10">
         <v>45</v>
       </c>
       <c r="D46" s="13" t="s">
@@ -2747,7 +2998,7 @@
       </c>
     </row>
     <row r="47" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="13">
+      <c r="A47" s="10">
         <v>46</v>
       </c>
       <c r="C47" s="13" t="s">
@@ -2776,7 +3027,7 @@
       </c>
     </row>
     <row r="48" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="13">
+      <c r="A48" s="10">
         <v>47</v>
       </c>
       <c r="D48" s="13" t="s">
@@ -2799,7 +3050,7 @@
       </c>
     </row>
     <row r="49" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="13">
+      <c r="A49" s="10">
         <v>48</v>
       </c>
       <c r="D49" s="13" t="s">
@@ -2819,7 +3070,7 @@
       </c>
     </row>
     <row r="50" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="13">
+      <c r="A50" s="10">
         <v>49</v>
       </c>
       <c r="C50" s="13" t="s">
@@ -2845,7 +3096,7 @@
       </c>
     </row>
     <row r="51" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="13">
+      <c r="A51" s="10">
         <v>50</v>
       </c>
       <c r="D51" s="13" t="s">
@@ -2868,7 +3119,7 @@
       </c>
     </row>
     <row r="52" spans="1:12" s="13" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A52" s="13">
+      <c r="A52" s="10">
         <v>51</v>
       </c>
       <c r="C52" s="17" t="s">
@@ -2897,7 +3148,7 @@
       </c>
     </row>
     <row r="53" spans="1:12" s="13" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A53" s="13">
+      <c r="A53" s="10">
         <v>52</v>
       </c>
       <c r="C53" s="17" t="s">
@@ -2926,7 +3177,7 @@
       </c>
     </row>
     <row r="54" spans="1:12" s="13" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="13">
+      <c r="A54" s="10">
         <v>53</v>
       </c>
       <c r="C54" s="17" t="s">
@@ -2949,7 +3200,7 @@
       </c>
     </row>
     <row r="55" spans="1:12" s="13" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="13">
+      <c r="A55" s="10">
         <v>54</v>
       </c>
       <c r="C55" s="17" t="s">
@@ -2978,7 +3229,7 @@
       </c>
     </row>
     <row r="56" spans="1:12" s="13" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="13">
+      <c r="A56" s="10">
         <v>55</v>
       </c>
       <c r="D56" s="13" t="s">
@@ -3001,7 +3252,7 @@
       </c>
     </row>
     <row r="57" spans="1:12" s="13" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="13">
+      <c r="A57" s="10">
         <v>56</v>
       </c>
       <c r="D57" s="13" t="s">
@@ -3030,7 +3281,7 @@
       </c>
     </row>
     <row r="58" spans="1:12" s="13" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="13">
+      <c r="A58" s="10">
         <v>57</v>
       </c>
       <c r="D58" s="13" t="s">
@@ -3053,7 +3304,7 @@
       </c>
     </row>
     <row r="59" spans="1:12" s="13" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="13">
+      <c r="A59" s="10">
         <v>58</v>
       </c>
       <c r="D59" s="13" t="s">
@@ -3070,7 +3321,7 @@
       </c>
     </row>
     <row r="60" spans="1:12" s="13" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="13">
+      <c r="A60" s="10">
         <v>59</v>
       </c>
       <c r="D60" s="13" t="s">
@@ -3087,7 +3338,7 @@
       </c>
     </row>
     <row r="61" spans="1:12" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="13">
+      <c r="A61" s="10">
         <v>60</v>
       </c>
       <c r="D61" s="13" t="s">
@@ -3098,7 +3349,7 @@
       </c>
     </row>
     <row r="62" spans="1:12" s="13" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="13">
+      <c r="A62" s="10">
         <v>61</v>
       </c>
       <c r="D62" s="13" t="s">
@@ -3115,7 +3366,7 @@
       </c>
     </row>
     <row r="63" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="13">
+      <c r="A63" s="10">
         <v>62</v>
       </c>
       <c r="D63" s="13" t="s">
@@ -3132,7 +3383,7 @@
       </c>
     </row>
     <row r="64" spans="1:12" s="13" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="13">
+      <c r="A64" s="10">
         <v>63</v>
       </c>
       <c r="D64" s="13" t="s">
@@ -3143,7 +3394,7 @@
       </c>
     </row>
     <row r="65" spans="1:11" s="13" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="13">
+      <c r="A65" s="10">
         <v>64</v>
       </c>
       <c r="D65" s="13" t="s">
@@ -3157,7 +3408,7 @@
       </c>
     </row>
     <row r="66" spans="1:11" s="13" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="13">
+      <c r="A66" s="10">
         <v>65</v>
       </c>
       <c r="D66" s="13" t="s">
@@ -3168,7 +3419,7 @@
       </c>
     </row>
     <row r="67" spans="1:11" s="13" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="13">
+      <c r="A67" s="10">
         <v>66</v>
       </c>
       <c r="D67" s="13" t="s">
@@ -3179,7 +3430,7 @@
       </c>
     </row>
     <row r="68" spans="1:11" s="13" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="13">
+      <c r="A68" s="10">
         <v>67</v>
       </c>
       <c r="D68" s="13" t="s">
@@ -3202,7 +3453,7 @@
       </c>
     </row>
     <row r="69" spans="1:11" s="13" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="13">
+      <c r="A69" s="10">
         <v>68</v>
       </c>
       <c r="D69" s="13" t="s">
@@ -3228,7 +3479,7 @@
       </c>
     </row>
     <row r="70" spans="1:11" s="13" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="13">
+      <c r="A70" s="10">
         <v>69</v>
       </c>
       <c r="D70" s="13" t="s">
@@ -3242,7 +3493,7 @@
       </c>
     </row>
     <row r="71" spans="1:11" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="13">
+      <c r="A71" s="10">
         <v>70</v>
       </c>
       <c r="D71" s="13" t="s">
@@ -3253,7 +3504,7 @@
       </c>
     </row>
     <row r="72" spans="1:11" s="13" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="13">
+      <c r="A72" s="10">
         <v>71</v>
       </c>
       <c r="C72" s="13" t="s">
@@ -3282,7 +3533,7 @@
       </c>
     </row>
     <row r="73" spans="1:11" s="13" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A73" s="13">
+      <c r="A73" s="10">
         <v>72</v>
       </c>
       <c r="C73" s="13" t="s">
@@ -3311,7 +3562,7 @@
       </c>
     </row>
     <row r="74" spans="1:11" s="13" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="13">
+      <c r="A74" s="10">
         <v>73</v>
       </c>
       <c r="D74" s="13" t="s">
@@ -3322,7 +3573,7 @@
       </c>
     </row>
     <row r="75" spans="1:11" s="13" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="13">
+      <c r="A75" s="10">
         <v>74</v>
       </c>
       <c r="D75" s="13" t="s">
@@ -3333,7 +3584,7 @@
       </c>
     </row>
     <row r="76" spans="1:11" s="13" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="13">
+      <c r="A76" s="10">
         <v>75</v>
       </c>
       <c r="D76" s="13" t="s">
@@ -3344,12 +3595,12 @@
       </c>
     </row>
     <row r="77" spans="1:11" s="21" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="21">
+      <c r="A77" s="10">
         <v>76</v>
       </c>
     </row>
     <row r="78" spans="1:11" s="21" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="21">
+      <c r="A78" s="10">
         <v>77</v>
       </c>
       <c r="B78" s="21" t="s">
@@ -3375,7 +3626,7 @@
       </c>
     </row>
     <row r="79" spans="1:11" s="21" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="21">
+      <c r="A79" s="10">
         <v>78</v>
       </c>
       <c r="D79" s="21" t="s">
@@ -3401,7 +3652,7 @@
       </c>
     </row>
     <row r="80" spans="1:11" s="21" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="21">
+      <c r="A80" s="10">
         <v>79</v>
       </c>
       <c r="D80" s="21" t="s">
@@ -3427,7 +3678,7 @@
       </c>
     </row>
     <row r="81" spans="1:11" s="21" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="21">
+      <c r="A81" s="10">
         <v>80</v>
       </c>
       <c r="C81" s="21" t="s">
@@ -3456,7 +3707,7 @@
       </c>
     </row>
     <row r="82" spans="1:11" s="21" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="21">
+      <c r="A82" s="10">
         <v>81</v>
       </c>
       <c r="C82" s="21" t="s">
@@ -3485,7 +3736,7 @@
       </c>
     </row>
     <row r="83" spans="1:11" s="21" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="21">
+      <c r="A83" s="10">
         <v>82</v>
       </c>
       <c r="C83" s="21" t="s">
@@ -3511,7 +3762,7 @@
       </c>
     </row>
     <row r="84" spans="1:11" s="21" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="21">
+      <c r="A84" s="10">
         <v>83</v>
       </c>
       <c r="C84" s="21" t="s">
@@ -3534,7 +3785,7 @@
       </c>
     </row>
     <row r="85" spans="1:11" s="21" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="21">
+      <c r="A85" s="10">
         <v>84</v>
       </c>
       <c r="C85" s="21" t="s">
@@ -3560,7 +3811,7 @@
       </c>
     </row>
     <row r="86" spans="1:11" s="21" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="21">
+      <c r="A86" s="10">
         <v>85</v>
       </c>
       <c r="C86" s="21" t="s">
@@ -3589,7 +3840,7 @@
       </c>
     </row>
     <row r="87" spans="1:11" s="21" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="21">
+      <c r="A87" s="10">
         <v>86</v>
       </c>
       <c r="C87" s="21" t="s">
@@ -3618,7 +3869,7 @@
       </c>
     </row>
     <row r="88" spans="1:11" s="21" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="21">
+      <c r="A88" s="10">
         <v>87</v>
       </c>
       <c r="C88" s="21" t="s">
@@ -3644,7 +3895,7 @@
       </c>
     </row>
     <row r="89" spans="1:11" s="21" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="21">
+      <c r="A89" s="10">
         <v>88</v>
       </c>
       <c r="C89" s="21" t="s">
@@ -3673,7 +3924,7 @@
       </c>
     </row>
     <row r="90" spans="1:11" s="21" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="21">
+      <c r="A90" s="10">
         <v>89</v>
       </c>
       <c r="C90" s="21" t="s">
@@ -3702,7 +3953,7 @@
       </c>
     </row>
     <row r="91" spans="1:11" s="21" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="21">
+      <c r="A91" s="10">
         <v>90</v>
       </c>
       <c r="C91" s="21" t="s">
@@ -3731,7 +3982,7 @@
       </c>
     </row>
     <row r="92" spans="1:11" s="21" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="21">
+      <c r="A92" s="10">
         <v>91</v>
       </c>
       <c r="C92" s="21" t="s">
@@ -3760,7 +4011,7 @@
       </c>
     </row>
     <row r="93" spans="1:11" s="21" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="21">
+      <c r="A93" s="10">
         <v>92</v>
       </c>
       <c r="C93" s="21" t="s">
@@ -3789,7 +4040,7 @@
       </c>
     </row>
     <row r="94" spans="1:11" s="21" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="21">
+      <c r="A94" s="10">
         <v>93</v>
       </c>
       <c r="C94" s="21" t="s">
@@ -3818,7 +4069,7 @@
       </c>
     </row>
     <row r="95" spans="1:11" s="21" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="21">
+      <c r="A95" s="10">
         <v>94</v>
       </c>
       <c r="C95" s="21" t="s">
@@ -3841,7 +4092,7 @@
       </c>
     </row>
     <row r="96" spans="1:11" s="21" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="21">
+      <c r="A96" s="10">
         <v>95</v>
       </c>
       <c r="D96" s="21" t="s">
@@ -3867,7 +4118,7 @@
       </c>
     </row>
     <row r="97" spans="1:13" s="21" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="21">
+      <c r="A97" s="10">
         <v>96</v>
       </c>
       <c r="D97" s="21" t="s">
@@ -3893,7 +4144,7 @@
       </c>
     </row>
     <row r="98" spans="1:13" s="21" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="21">
+      <c r="A98" s="10">
         <v>97</v>
       </c>
       <c r="D98" s="21" t="s">
@@ -3913,7 +4164,7 @@
       </c>
     </row>
     <row r="99" spans="1:13" s="21" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="21">
+      <c r="A99" s="10">
         <v>98</v>
       </c>
       <c r="D99" s="21" t="s">
@@ -3939,7 +4190,7 @@
       </c>
     </row>
     <row r="100" spans="1:13" s="21" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="21">
+      <c r="A100" s="10">
         <v>99</v>
       </c>
       <c r="D100" s="21" t="s">
@@ -3965,7 +4216,7 @@
       </c>
     </row>
     <row r="101" spans="1:13" s="21" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A101" s="21">
+      <c r="A101" s="10">
         <v>100</v>
       </c>
       <c r="D101" s="21" t="s">
@@ -3979,7 +4230,7 @@
       </c>
     </row>
     <row r="102" spans="1:13" s="21" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A102" s="21">
+      <c r="A102" s="10">
         <v>101</v>
       </c>
       <c r="D102" s="21" t="s">
@@ -4005,7 +4256,7 @@
       </c>
     </row>
     <row r="103" spans="1:13" s="21" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A103" s="21">
+      <c r="A103" s="10">
         <v>102</v>
       </c>
       <c r="D103" s="21" t="s">
@@ -4031,7 +4282,7 @@
       </c>
     </row>
     <row r="104" spans="1:13" s="21" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A104" s="21">
+      <c r="A104" s="10">
         <v>103</v>
       </c>
       <c r="D104" s="21" t="s">
@@ -4054,7 +4305,7 @@
       </c>
     </row>
     <row r="105" spans="1:13" s="21" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A105" s="21">
+      <c r="A105" s="10">
         <v>104</v>
       </c>
       <c r="D105" s="21" t="s">
@@ -4068,7 +4319,7 @@
       </c>
     </row>
     <row r="106" spans="1:13" s="21" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A106" s="21">
+      <c r="A106" s="10">
         <v>105</v>
       </c>
       <c r="D106" s="21" t="s">
@@ -4088,7 +4339,7 @@
       </c>
     </row>
     <row r="107" spans="1:13" s="21" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A107" s="21">
+      <c r="A107" s="10">
         <v>106</v>
       </c>
       <c r="D107" s="21" t="s">
@@ -4111,7 +4362,7 @@
       </c>
     </row>
     <row r="108" spans="1:13" s="21" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A108" s="21">
+      <c r="A108" s="10">
         <v>107</v>
       </c>
       <c r="D108" s="21" t="s">
@@ -4122,7 +4373,7 @@
       </c>
     </row>
     <row r="109" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A109" s="23">
+      <c r="A109" s="10">
         <v>108</v>
       </c>
       <c r="C109" s="23"/>
@@ -4138,7 +4389,7 @@
       <c r="M109" s="23"/>
     </row>
     <row r="110" spans="1:13" s="31" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A110" s="31">
+      <c r="A110" s="10">
         <v>109</v>
       </c>
       <c r="B110" s="31" t="s">
@@ -4170,7 +4421,7 @@
       </c>
     </row>
     <row r="111" spans="1:13" s="31" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A111" s="31">
+      <c r="A111" s="10">
         <v>110</v>
       </c>
       <c r="D111" s="31" t="s">
@@ -4193,7 +4444,7 @@
       </c>
     </row>
     <row r="112" spans="1:13" s="31" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A112" s="31">
+      <c r="A112" s="10">
         <v>111</v>
       </c>
       <c r="D112" s="31" t="s">
@@ -4216,7 +4467,7 @@
       </c>
     </row>
     <row r="113" spans="1:11" s="31" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A113" s="31">
+      <c r="A113" s="10">
         <v>112</v>
       </c>
       <c r="D113" s="31" t="s">
@@ -4242,7 +4493,7 @@
       </c>
     </row>
     <row r="114" spans="1:11" s="31" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A114" s="31">
+      <c r="A114" s="10">
         <v>113</v>
       </c>
       <c r="C114" s="31" t="s">
@@ -4271,7 +4522,7 @@
       </c>
     </row>
     <row r="115" spans="1:11" s="31" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A115" s="31">
+      <c r="A115" s="10">
         <v>114</v>
       </c>
       <c r="C115" s="31" t="s">
@@ -4300,7 +4551,7 @@
       </c>
     </row>
     <row r="116" spans="1:11" s="31" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A116" s="31">
+      <c r="A116" s="10">
         <v>115</v>
       </c>
       <c r="C116" s="31" t="s">
@@ -4326,7 +4577,7 @@
       </c>
     </row>
     <row r="117" spans="1:11" s="31" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A117" s="31">
+      <c r="A117" s="10">
         <v>116</v>
       </c>
       <c r="D117" s="31" t="s">
@@ -4349,7 +4600,7 @@
       </c>
     </row>
     <row r="118" spans="1:11" s="31" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A118" s="31">
+      <c r="A118" s="10">
         <v>117</v>
       </c>
       <c r="D118" s="31" t="s">
@@ -4372,7 +4623,7 @@
       </c>
     </row>
     <row r="119" spans="1:11" s="31" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A119" s="31">
+      <c r="A119" s="10">
         <v>118</v>
       </c>
       <c r="C119" s="31" t="s">
@@ -4401,7 +4652,7 @@
       </c>
     </row>
     <row r="120" spans="1:11" s="31" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A120" s="31">
+      <c r="A120" s="10">
         <v>119</v>
       </c>
       <c r="D120" s="31" t="s">
@@ -4415,7 +4666,7 @@
       </c>
     </row>
     <row r="121" spans="1:11" s="31" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A121" s="31">
+      <c r="A121" s="10">
         <v>120</v>
       </c>
       <c r="D121" s="31" t="s">
@@ -4429,7 +4680,7 @@
       </c>
     </row>
     <row r="122" spans="1:11" s="31" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A122" s="31">
+      <c r="A122" s="10">
         <v>121</v>
       </c>
       <c r="D122" s="31" t="s">
@@ -4440,7 +4691,7 @@
       </c>
     </row>
     <row r="123" spans="1:11" s="31" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A123" s="31">
+      <c r="A123" s="10">
         <v>122</v>
       </c>
       <c r="D123" s="31" t="s">
@@ -4451,7 +4702,7 @@
       </c>
     </row>
     <row r="124" spans="1:11" s="31" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A124" s="31">
+      <c r="A124" s="10">
         <v>123</v>
       </c>
       <c r="D124" s="31" t="s">
@@ -4462,7 +4713,7 @@
       </c>
     </row>
     <row r="125" spans="1:11" s="31" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A125" s="31">
+      <c r="A125" s="10">
         <v>124</v>
       </c>
       <c r="D125" s="31" t="s">
@@ -4482,7 +4733,7 @@
       </c>
     </row>
     <row r="126" spans="1:11" s="31" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A126" s="31">
+      <c r="A126" s="10">
         <v>125</v>
       </c>
       <c r="D126" s="31" t="s">
@@ -4493,12 +4744,12 @@
       </c>
     </row>
     <row r="127" spans="1:11" s="31" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A127" s="31">
+      <c r="A127" s="10">
         <v>126</v>
       </c>
     </row>
     <row r="128" spans="1:11" s="31" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A128" s="31">
+      <c r="A128" s="10">
         <v>127</v>
       </c>
       <c r="D128" s="31" t="s">
@@ -4521,7 +4772,7 @@
       </c>
     </row>
     <row r="129" spans="1:11" s="31" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A129" s="31">
+      <c r="A129" s="10">
         <v>128</v>
       </c>
       <c r="D129" s="31" t="s">
@@ -4541,7 +4792,7 @@
       </c>
     </row>
     <row r="130" spans="1:11" s="31" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A130" s="31">
+      <c r="A130" s="10">
         <v>129</v>
       </c>
       <c r="D130" s="31" t="s">
@@ -4555,7 +4806,7 @@
       </c>
     </row>
     <row r="131" spans="1:11" s="31" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A131" s="31">
+      <c r="A131" s="10">
         <v>130</v>
       </c>
       <c r="D131" s="31" t="s">
@@ -4569,7 +4820,7 @@
       </c>
     </row>
     <row r="132" spans="1:11" s="31" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A132" s="31">
+      <c r="A132" s="10">
         <v>131</v>
       </c>
       <c r="D132" s="31" t="s">
@@ -4580,7 +4831,7 @@
       </c>
     </row>
     <row r="133" spans="1:11" s="31" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A133" s="31">
+      <c r="A133" s="10">
         <v>132</v>
       </c>
       <c r="D133" s="31" t="s">
@@ -4594,7 +4845,7 @@
       </c>
     </row>
     <row r="134" spans="1:11" s="31" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A134" s="31">
+      <c r="A134" s="10">
         <v>133</v>
       </c>
       <c r="D134" s="31" t="s">
@@ -4608,7 +4859,7 @@
       </c>
     </row>
     <row r="135" spans="1:11" s="31" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A135" s="31">
+      <c r="A135" s="10">
         <v>134</v>
       </c>
       <c r="D135" s="31" t="s">
@@ -4619,7 +4870,7 @@
       </c>
     </row>
     <row r="136" spans="1:11" s="31" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A136" s="31">
+      <c r="A136" s="10">
         <v>135</v>
       </c>
       <c r="D136" s="31" t="s">
@@ -4633,7 +4884,7 @@
       </c>
     </row>
     <row r="137" spans="1:11" s="31" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A137" s="31">
+      <c r="A137" s="10">
         <v>136</v>
       </c>
       <c r="D137" s="31" t="s">
@@ -4647,7 +4898,7 @@
       </c>
     </row>
     <row r="138" spans="1:11" s="31" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A138" s="31">
+      <c r="A138" s="10">
         <v>137</v>
       </c>
       <c r="D138" s="31" t="s">
@@ -4658,7 +4909,7 @@
       </c>
     </row>
     <row r="139" spans="1:11" s="31" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A139" s="31">
+      <c r="A139" s="10">
         <v>138</v>
       </c>
       <c r="D139" s="31" t="s">
@@ -4672,7 +4923,7 @@
       </c>
     </row>
     <row r="140" spans="1:11" s="31" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A140" s="31">
+      <c r="A140" s="10">
         <v>139</v>
       </c>
       <c r="D140" s="31" t="s">
@@ -4683,7 +4934,7 @@
       </c>
     </row>
     <row r="141" spans="1:11" s="31" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A141" s="31">
+      <c r="A141" s="10">
         <v>140</v>
       </c>
       <c r="D141" s="31" t="s">
@@ -4694,7 +4945,7 @@
       </c>
     </row>
     <row r="142" spans="1:11" s="31" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A142" s="31">
+      <c r="A142" s="10">
         <v>141</v>
       </c>
       <c r="D142" s="31" t="s">
@@ -4708,7 +4959,7 @@
       </c>
     </row>
     <row r="143" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A143" s="31">
+      <c r="A143" s="10">
         <v>142</v>
       </c>
       <c r="D143" s="31" t="s">
@@ -4720,7 +4971,7 @@
       <c r="F143" s="31"/>
     </row>
     <row r="144" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A144" s="35">
+      <c r="A144" s="10">
         <v>143</v>
       </c>
       <c r="D144" s="35" t="s">
@@ -4731,18 +4982,18 @@
       </c>
       <c r="F144" s="35"/>
     </row>
-    <row r="145" spans="1:11" s="34" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A145" s="34">
+    <row r="145" spans="1:12" s="34" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A145" s="10">
         <v>144</v>
       </c>
       <c r="B145" s="34" t="s">
+        <v>339</v>
+      </c>
+      <c r="C145" s="40" t="s">
+        <v>350</v>
+      </c>
+      <c r="D145" s="34" t="s">
         <v>341</v>
-      </c>
-      <c r="C145" s="43" t="s">
-        <v>352</v>
-      </c>
-      <c r="D145" s="34" t="s">
-        <v>343</v>
       </c>
       <c r="E145" s="34">
         <v>66</v>
@@ -4757,19 +5008,19 @@
         <v>2</v>
       </c>
       <c r="J145" s="34" t="s">
+        <v>340</v>
+      </c>
+      <c r="K145" s="36">
+        <v>42950</v>
+      </c>
+    </row>
+    <row r="146" spans="1:12" s="34" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A146" s="10">
+        <v>145</v>
+      </c>
+      <c r="C146" s="41"/>
+      <c r="D146" s="34" t="s">
         <v>342</v>
-      </c>
-      <c r="K145" s="37">
-        <v>42950</v>
-      </c>
-    </row>
-    <row r="146" spans="1:11" s="34" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A146" s="34">
-        <v>145</v>
-      </c>
-      <c r="C146" s="44"/>
-      <c r="D146" s="34" t="s">
-        <v>344</v>
       </c>
       <c r="E146" s="34">
         <v>67</v>
@@ -4784,19 +5035,19 @@
         <v>2</v>
       </c>
       <c r="J146" s="34" t="s">
-        <v>342</v>
-      </c>
-      <c r="K146" s="37">
+        <v>340</v>
+      </c>
+      <c r="K146" s="36">
         <v>42950</v>
       </c>
     </row>
-    <row r="147" spans="1:11" s="34" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A147" s="34">
+    <row r="147" spans="1:12" s="34" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A147" s="10">
         <v>146</v>
       </c>
-      <c r="C147" s="44"/>
+      <c r="C147" s="41"/>
       <c r="D147" s="34" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="E147" s="34">
         <v>68</v>
@@ -4811,17 +5062,17 @@
         <v>3</v>
       </c>
       <c r="J147" s="34" t="s">
-        <v>342</v>
-      </c>
-      <c r="K147" s="37">
+        <v>340</v>
+      </c>
+      <c r="K147" s="36">
         <v>42950</v>
       </c>
     </row>
-    <row r="148" spans="1:11" s="34" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A148" s="34">
+    <row r="148" spans="1:12" s="34" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A148" s="10">
         <v>147</v>
       </c>
-      <c r="C148" s="44"/>
+      <c r="C148" s="41"/>
       <c r="D148" s="34" t="s">
         <v>309</v>
       </c>
@@ -4837,17 +5088,17 @@
       <c r="H148" s="34">
         <v>2</v>
       </c>
-      <c r="K148" s="37">
+      <c r="K148" s="36">
         <v>42951</v>
       </c>
     </row>
-    <row r="149" spans="1:11" s="34" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A149" s="34">
+    <row r="149" spans="1:12" s="34" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A149" s="10">
         <v>148</v>
       </c>
-      <c r="C149" s="44"/>
+      <c r="C149" s="41"/>
       <c r="D149" s="34" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="E149" s="34">
         <v>70</v>
@@ -4861,17 +5112,17 @@
       <c r="H149" s="34">
         <v>1</v>
       </c>
-      <c r="K149" s="37">
+      <c r="K149" s="36">
         <v>42951</v>
       </c>
     </row>
-    <row r="150" spans="1:11" s="34" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A150" s="34">
+    <row r="150" spans="1:12" s="34" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A150" s="10">
         <v>149</v>
       </c>
-      <c r="C150" s="45"/>
+      <c r="C150" s="42"/>
       <c r="D150" s="34" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="E150" s="34">
         <v>71</v>
@@ -4885,100 +5136,102 @@
       <c r="H150" s="34">
         <v>2</v>
       </c>
-      <c r="K150" s="37">
+      <c r="K150" s="36">
         <v>42951</v>
       </c>
     </row>
-    <row r="151" spans="1:11" s="34" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A151" s="34">
+    <row r="151" spans="1:12" s="34" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A151" s="10">
         <v>150</v>
       </c>
+      <c r="C151" s="40" t="s">
+        <v>356</v>
+      </c>
       <c r="D151" s="34" t="s">
-        <v>310</v>
+        <v>329</v>
       </c>
       <c r="E151" s="34">
-        <v>97</v>
-      </c>
-      <c r="F151" s="34">
-        <v>104</v>
+        <v>378</v>
       </c>
       <c r="G151" s="34">
         <v>1</v>
       </c>
       <c r="H151" s="34">
-        <v>1</v>
-      </c>
-      <c r="K151" s="37">
-        <v>42951</v>
-      </c>
-    </row>
-    <row r="152" spans="1:11" s="34" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A152" s="34">
+        <v>2</v>
+      </c>
+      <c r="J151" s="48" t="s">
+        <v>77</v>
+      </c>
+      <c r="K151" s="59">
+        <v>42963</v>
+      </c>
+    </row>
+    <row r="152" spans="1:12" s="34" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A152" s="10">
         <v>151</v>
       </c>
+      <c r="C152" s="42"/>
       <c r="D152" s="34" t="s">
-        <v>311</v>
+        <v>330</v>
       </c>
       <c r="E152" s="34">
-        <v>155</v>
+        <v>453</v>
       </c>
       <c r="F152" s="34">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="G152" s="34">
         <v>1</v>
       </c>
       <c r="H152" s="34">
-        <v>1</v>
-      </c>
-      <c r="J152" s="34" t="s">
-        <v>77</v>
-      </c>
-      <c r="K152" s="37">
-        <v>42951</v>
-      </c>
-    </row>
-    <row r="153" spans="1:11" s="34" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A153" s="34">
+        <v>2</v>
+      </c>
+      <c r="J152" s="48" t="s">
+        <v>77</v>
+      </c>
+      <c r="K152" s="59">
+        <v>42963</v>
+      </c>
+    </row>
+    <row r="153" spans="1:12" s="34" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A153" s="10">
         <v>152</v>
       </c>
+      <c r="C153" s="40" t="s">
+        <v>351</v>
+      </c>
       <c r="D153" s="34" t="s">
-        <v>312</v>
+        <v>320</v>
       </c>
       <c r="E153" s="34">
-        <v>93</v>
+        <v>72</v>
       </c>
       <c r="F153" s="34">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="G153" s="34">
         <v>1</v>
       </c>
       <c r="H153" s="34">
-        <v>1</v>
-      </c>
-      <c r="J153" s="34" t="s">
-        <v>77</v>
-      </c>
-      <c r="K153" s="37">
-        <v>42951</v>
-      </c>
-    </row>
-    <row r="154" spans="1:11" s="34" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A154" s="34">
+        <v>2</v>
+      </c>
+      <c r="K153" s="39">
+        <v>42962</v>
+      </c>
+    </row>
+    <row r="154" spans="1:12" s="34" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A154" s="10">
         <v>153</v>
       </c>
-      <c r="C154" s="43" t="s">
-        <v>313</v>
-      </c>
+      <c r="C154" s="41"/>
       <c r="D154" s="34" t="s">
-        <v>313</v>
+        <v>321</v>
       </c>
       <c r="E154" s="34">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="F154" s="34">
-        <v>236</v>
+        <v>105</v>
       </c>
       <c r="G154" s="34">
         <v>1</v>
@@ -4986,71 +5239,67 @@
       <c r="H154" s="34">
         <v>2</v>
       </c>
-      <c r="J154" s="34" t="s">
-        <v>77</v>
-      </c>
-      <c r="K154" s="37">
-        <v>42960</v>
-      </c>
-    </row>
-    <row r="155" spans="1:11" s="34" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A155" s="34">
+      <c r="K154" s="39">
+        <v>42962</v>
+      </c>
+    </row>
+    <row r="155" spans="1:12" s="34" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A155" s="10">
         <v>154</v>
       </c>
-      <c r="C155" s="44"/>
+      <c r="C155" s="42"/>
       <c r="D155" s="34" t="s">
-        <v>314</v>
+        <v>322</v>
       </c>
       <c r="E155" s="34">
-        <v>474</v>
-      </c>
-      <c r="G155" s="34">
-        <v>1</v>
+        <v>177</v>
+      </c>
+      <c r="F155" s="34">
+        <v>108</v>
       </c>
       <c r="H155" s="34">
-        <v>2</v>
-      </c>
-      <c r="J155" s="34" t="s">
-        <v>77</v>
-      </c>
-      <c r="K155" s="37">
-        <v>42960</v>
-      </c>
-    </row>
-    <row r="156" spans="1:11" s="34" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A156" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" spans="1:12" s="34" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A156" s="10">
         <v>155</v>
       </c>
-      <c r="C156" s="44"/>
+      <c r="C156" s="40" t="s">
+        <v>358</v>
+      </c>
       <c r="D156" s="34" t="s">
-        <v>335</v>
+        <v>355</v>
       </c>
       <c r="E156" s="34">
-        <v>578</v>
+        <v>94</v>
+      </c>
+      <c r="F156" s="34">
+        <v>124</v>
       </c>
       <c r="G156" s="34">
         <v>1</v>
       </c>
       <c r="H156" s="34">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J156" s="34" t="s">
         <v>77</v>
       </c>
-      <c r="K156" s="37">
-        <v>42960</v>
-      </c>
-    </row>
-    <row r="157" spans="1:11" s="34" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A157" s="34">
+      <c r="K156" s="36">
+        <v>42961</v>
+      </c>
+    </row>
+    <row r="157" spans="1:12" s="34" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A157" s="10">
         <v>156</v>
       </c>
-      <c r="C157" s="45"/>
+      <c r="C157" s="42"/>
       <c r="D157" s="34" t="s">
-        <v>346</v>
-      </c>
-      <c r="F157" s="34">
-        <v>235</v>
+        <v>354</v>
+      </c>
+      <c r="E157" s="34">
+        <v>475</v>
       </c>
       <c r="G157" s="34">
         <v>1</v>
@@ -5061,677 +5310,2223 @@
       <c r="J157" s="34" t="s">
         <v>77</v>
       </c>
-      <c r="K157" s="37">
+      <c r="K157" s="36">
+        <v>42961</v>
+      </c>
+    </row>
+    <row r="158" spans="1:12" s="34" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A158" s="10">
+        <v>157</v>
+      </c>
+      <c r="B158" s="48"/>
+      <c r="C158" s="49" t="s">
+        <v>357</v>
+      </c>
+      <c r="D158" s="48" t="s">
+        <v>332</v>
+      </c>
+      <c r="E158" s="48">
+        <v>480</v>
+      </c>
+      <c r="F158" s="48">
+        <v>257</v>
+      </c>
+      <c r="G158" s="48">
+        <v>1</v>
+      </c>
+      <c r="H158" s="48">
+        <v>1</v>
+      </c>
+      <c r="I158" s="48"/>
+      <c r="J158" s="48" t="s">
+        <v>77</v>
+      </c>
+      <c r="K158" s="50">
+        <v>42962</v>
+      </c>
+      <c r="L158" s="48"/>
+    </row>
+    <row r="159" spans="1:12" s="34" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A159" s="10">
+        <v>158</v>
+      </c>
+      <c r="B159" s="48"/>
+      <c r="C159" s="51"/>
+      <c r="D159" s="48" t="s">
+        <v>352</v>
+      </c>
+      <c r="E159" s="48"/>
+      <c r="F159" s="48">
+        <v>112</v>
+      </c>
+      <c r="G159" s="48">
+        <v>1</v>
+      </c>
+      <c r="H159" s="48">
+        <v>1</v>
+      </c>
+      <c r="I159" s="48"/>
+      <c r="J159" s="48" t="s">
+        <v>77</v>
+      </c>
+      <c r="K159" s="50">
+        <v>42962</v>
+      </c>
+      <c r="L159" s="48"/>
+    </row>
+    <row r="160" spans="1:12" s="34" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A160" s="10">
+        <v>159</v>
+      </c>
+      <c r="B160" s="48"/>
+      <c r="C160" s="51"/>
+      <c r="D160" s="48" t="s">
+        <v>324</v>
+      </c>
+      <c r="E160" s="48">
+        <v>376</v>
+      </c>
+      <c r="F160" s="48">
+        <v>113</v>
+      </c>
+      <c r="G160" s="48">
+        <v>1</v>
+      </c>
+      <c r="H160" s="48">
+        <v>2</v>
+      </c>
+      <c r="I160" s="48"/>
+      <c r="J160" s="48" t="s">
+        <v>77</v>
+      </c>
+      <c r="K160" s="50">
+        <v>42962</v>
+      </c>
+      <c r="L160" s="48"/>
+    </row>
+    <row r="161" spans="1:12" s="34" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A161" s="10">
+        <v>160</v>
+      </c>
+      <c r="B161" s="48"/>
+      <c r="C161" s="51"/>
+      <c r="D161" s="48" t="s">
+        <v>328</v>
+      </c>
+      <c r="E161" s="48">
+        <v>246</v>
+      </c>
+      <c r="F161" s="48">
+        <v>437</v>
+      </c>
+      <c r="G161" s="48">
+        <v>1</v>
+      </c>
+      <c r="H161" s="48">
+        <v>2</v>
+      </c>
+      <c r="I161" s="48"/>
+      <c r="J161" s="48" t="s">
+        <v>77</v>
+      </c>
+      <c r="K161" s="59">
+        <v>42962</v>
+      </c>
+      <c r="L161" s="48"/>
+    </row>
+    <row r="162" spans="1:12" s="34" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A162" s="10">
+        <v>161</v>
+      </c>
+      <c r="B162" s="48"/>
+      <c r="C162" s="52"/>
+      <c r="D162" s="48" t="s">
+        <v>331</v>
+      </c>
+      <c r="E162" s="48">
+        <v>472</v>
+      </c>
+      <c r="F162" s="48"/>
+      <c r="G162" s="48">
+        <v>1</v>
+      </c>
+      <c r="H162" s="48">
+        <v>2</v>
+      </c>
+      <c r="I162" s="48"/>
+      <c r="J162" s="48" t="s">
+        <v>77</v>
+      </c>
+      <c r="K162" s="59">
+        <v>42962</v>
+      </c>
+      <c r="L162" s="48"/>
+    </row>
+    <row r="163" spans="1:12" s="34" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A163" s="10">
+        <v>162</v>
+      </c>
+      <c r="B163" s="48"/>
+      <c r="C163" s="49" t="s">
+        <v>359</v>
+      </c>
+      <c r="D163" s="48" t="s">
+        <v>334</v>
+      </c>
+      <c r="E163" s="48">
+        <v>595</v>
+      </c>
+      <c r="F163" s="48">
+        <v>298</v>
+      </c>
+      <c r="G163" s="48">
+        <v>1</v>
+      </c>
+      <c r="H163" s="48">
+        <v>2</v>
+      </c>
+      <c r="I163" s="48"/>
+      <c r="J163" s="48" t="s">
+        <v>77</v>
+      </c>
+      <c r="K163" s="59">
+        <v>42962</v>
+      </c>
+      <c r="L163" s="48"/>
+    </row>
+    <row r="164" spans="1:12" s="34" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A164" s="10">
+        <v>163</v>
+      </c>
+      <c r="B164" s="48"/>
+      <c r="C164" s="51"/>
+      <c r="D164" s="48" t="s">
+        <v>337</v>
+      </c>
+      <c r="E164" s="48">
+        <v>614</v>
+      </c>
+      <c r="F164" s="48">
+        <v>549</v>
+      </c>
+      <c r="G164" s="48">
+        <v>1</v>
+      </c>
+      <c r="H164" s="48">
+        <v>2</v>
+      </c>
+      <c r="I164" s="48"/>
+      <c r="J164" s="48" t="s">
+        <v>77</v>
+      </c>
+      <c r="K164" s="59">
+        <v>42963</v>
+      </c>
+      <c r="L164" s="48"/>
+    </row>
+    <row r="165" spans="1:12" s="34" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A165" s="10">
+        <v>164</v>
+      </c>
+      <c r="B165" s="48"/>
+      <c r="C165" s="52"/>
+      <c r="D165" s="48" t="s">
+        <v>338</v>
+      </c>
+      <c r="E165" s="48">
+        <v>619</v>
+      </c>
+      <c r="F165" s="48"/>
+      <c r="G165" s="48">
+        <v>1</v>
+      </c>
+      <c r="H165" s="48">
+        <v>2</v>
+      </c>
+      <c r="I165" s="48"/>
+      <c r="J165" s="48" t="s">
+        <v>77</v>
+      </c>
+      <c r="K165" s="59">
+        <v>42963</v>
+      </c>
+      <c r="L165" s="48"/>
+    </row>
+    <row r="166" spans="1:12" s="34" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A166" s="10">
+        <v>165</v>
+      </c>
+      <c r="B166" s="48"/>
+      <c r="C166" s="54" t="s">
+        <v>313</v>
+      </c>
+      <c r="D166" s="48" t="s">
+        <v>313</v>
+      </c>
+      <c r="E166" s="48">
+        <v>88</v>
+      </c>
+      <c r="F166" s="48">
+        <v>236</v>
+      </c>
+      <c r="G166" s="48">
+        <v>1</v>
+      </c>
+      <c r="H166" s="48">
+        <v>2</v>
+      </c>
+      <c r="I166" s="48"/>
+      <c r="J166" s="48" t="s">
+        <v>77</v>
+      </c>
+      <c r="K166" s="55">
         <v>42960</v>
       </c>
-    </row>
-    <row r="158" spans="1:11" s="34" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A158" s="34">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="159" spans="1:11" s="34" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A159" s="34">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="160" spans="1:11" s="34" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A160" s="34">
-        <v>159</v>
-      </c>
-      <c r="C160" s="34" t="s">
+      <c r="L166" s="48"/>
+    </row>
+    <row r="167" spans="1:12" s="34" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A167" s="10">
+        <v>166</v>
+      </c>
+      <c r="B167" s="48"/>
+      <c r="C167" s="56"/>
+      <c r="D167" s="48" t="s">
+        <v>314</v>
+      </c>
+      <c r="E167" s="48">
+        <v>474</v>
+      </c>
+      <c r="F167" s="48"/>
+      <c r="G167" s="48">
+        <v>1</v>
+      </c>
+      <c r="H167" s="48">
+        <v>2</v>
+      </c>
+      <c r="I167" s="48"/>
+      <c r="J167" s="48" t="s">
+        <v>77</v>
+      </c>
+      <c r="K167" s="55">
+        <v>42960</v>
+      </c>
+      <c r="L167" s="48"/>
+    </row>
+    <row r="168" spans="1:12" s="34" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A168" s="10">
+        <v>167</v>
+      </c>
+      <c r="B168" s="48"/>
+      <c r="C168" s="56"/>
+      <c r="D168" s="48" t="s">
+        <v>333</v>
+      </c>
+      <c r="E168" s="48">
+        <v>578</v>
+      </c>
+      <c r="F168" s="48"/>
+      <c r="G168" s="48">
+        <v>1</v>
+      </c>
+      <c r="H168" s="48">
+        <v>2</v>
+      </c>
+      <c r="I168" s="48"/>
+      <c r="J168" s="48" t="s">
+        <v>77</v>
+      </c>
+      <c r="K168" s="55">
+        <v>42960</v>
+      </c>
+      <c r="L168" s="48"/>
+    </row>
+    <row r="169" spans="1:12" s="34" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A169" s="10">
+        <v>168</v>
+      </c>
+      <c r="B169" s="48"/>
+      <c r="C169" s="57"/>
+      <c r="D169" s="48" t="s">
+        <v>344</v>
+      </c>
+      <c r="E169" s="48"/>
+      <c r="F169" s="48">
+        <v>235</v>
+      </c>
+      <c r="G169" s="48">
+        <v>1</v>
+      </c>
+      <c r="H169" s="48">
+        <v>2</v>
+      </c>
+      <c r="I169" s="48"/>
+      <c r="J169" s="48" t="s">
+        <v>77</v>
+      </c>
+      <c r="K169" s="55">
+        <v>42960</v>
+      </c>
+      <c r="L169" s="48"/>
+    </row>
+    <row r="170" spans="1:12" s="34" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A170" s="10">
+        <v>169</v>
+      </c>
+      <c r="B170" s="48"/>
+      <c r="C170" s="53"/>
+      <c r="D170" s="48" t="s">
+        <v>335</v>
+      </c>
+      <c r="E170" s="48">
+        <v>596</v>
+      </c>
+      <c r="F170" s="48"/>
+      <c r="G170" s="48"/>
+      <c r="H170" s="48"/>
+      <c r="I170" s="48"/>
+      <c r="J170" s="48"/>
+      <c r="K170" s="48"/>
+      <c r="L170" s="48"/>
+    </row>
+    <row r="171" spans="1:12" s="34" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A171" s="10">
+        <v>170</v>
+      </c>
+      <c r="B171" s="48"/>
+      <c r="C171" s="53"/>
+      <c r="D171" s="48" t="s">
+        <v>336</v>
+      </c>
+      <c r="E171" s="48">
+        <v>597</v>
+      </c>
+      <c r="F171" s="48">
+        <v>643</v>
+      </c>
+      <c r="G171" s="48"/>
+      <c r="H171" s="48">
+        <v>1</v>
+      </c>
+      <c r="I171" s="48"/>
+      <c r="J171" s="48"/>
+      <c r="K171" s="48"/>
+      <c r="L171" s="48"/>
+    </row>
+    <row r="172" spans="1:12" s="34" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A172" s="10">
+        <v>171</v>
+      </c>
+      <c r="B172" s="48"/>
+      <c r="C172" s="48"/>
+      <c r="D172" s="48" t="s">
+        <v>310</v>
+      </c>
+      <c r="E172" s="48">
+        <v>97</v>
+      </c>
+      <c r="F172" s="48">
+        <v>104</v>
+      </c>
+      <c r="G172" s="48">
+        <v>1</v>
+      </c>
+      <c r="H172" s="48">
+        <v>1</v>
+      </c>
+      <c r="I172" s="48"/>
+      <c r="J172" s="48"/>
+      <c r="K172" s="55">
+        <v>42951</v>
+      </c>
+      <c r="L172" s="48"/>
+    </row>
+    <row r="173" spans="1:12" s="34" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A173" s="10">
+        <v>172</v>
+      </c>
+      <c r="B173" s="48"/>
+      <c r="C173" s="48"/>
+      <c r="D173" s="48" t="s">
+        <v>311</v>
+      </c>
+      <c r="E173" s="48">
+        <v>155</v>
+      </c>
+      <c r="F173" s="48">
+        <v>111</v>
+      </c>
+      <c r="G173" s="48">
+        <v>1</v>
+      </c>
+      <c r="H173" s="48">
+        <v>1</v>
+      </c>
+      <c r="I173" s="48"/>
+      <c r="J173" s="48" t="s">
+        <v>77</v>
+      </c>
+      <c r="K173" s="55">
+        <v>42951</v>
+      </c>
+      <c r="L173" s="48"/>
+    </row>
+    <row r="174" spans="1:12" s="34" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A174" s="10">
+        <v>173</v>
+      </c>
+      <c r="B174" s="48"/>
+      <c r="C174" s="48"/>
+      <c r="D174" s="48" t="s">
+        <v>312</v>
+      </c>
+      <c r="E174" s="48">
+        <v>93</v>
+      </c>
+      <c r="F174" s="48">
+        <v>110</v>
+      </c>
+      <c r="G174" s="48">
+        <v>1</v>
+      </c>
+      <c r="H174" s="48">
+        <v>1</v>
+      </c>
+      <c r="I174" s="48"/>
+      <c r="J174" s="48" t="s">
+        <v>77</v>
+      </c>
+      <c r="K174" s="55">
+        <v>42951</v>
+      </c>
+      <c r="L174" s="48"/>
+    </row>
+    <row r="175" spans="1:12" s="34" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A175" s="10">
+        <v>174</v>
+      </c>
+      <c r="B175" s="48"/>
+      <c r="C175" s="48"/>
+      <c r="D175" s="48" t="s">
+        <v>325</v>
+      </c>
+      <c r="E175" s="48">
+        <v>467</v>
+      </c>
+      <c r="F175" s="48">
+        <v>222</v>
+      </c>
+      <c r="G175" s="48"/>
+      <c r="H175" s="48">
+        <v>2</v>
+      </c>
+      <c r="I175" s="48"/>
+      <c r="J175" s="48"/>
+      <c r="K175" s="48"/>
+      <c r="L175" s="48"/>
+    </row>
+    <row r="176" spans="1:12" s="34" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A176" s="10">
+        <v>175</v>
+      </c>
+      <c r="B176" s="48"/>
+      <c r="C176" s="48"/>
+      <c r="D176" s="48" t="s">
+        <v>326</v>
+      </c>
+      <c r="E176" s="48">
+        <v>468</v>
+      </c>
+      <c r="F176" s="48">
+        <v>101</v>
+      </c>
+      <c r="G176" s="48"/>
+      <c r="H176" s="48">
+        <v>1</v>
+      </c>
+      <c r="I176" s="48"/>
+      <c r="J176" s="48"/>
+      <c r="K176" s="48"/>
+      <c r="L176" s="48"/>
+    </row>
+    <row r="177" spans="1:12" s="34" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A177" s="10">
+        <v>176</v>
+      </c>
+      <c r="B177" s="48"/>
+      <c r="C177" s="48"/>
+      <c r="D177" s="48" t="s">
+        <v>327</v>
+      </c>
+      <c r="E177" s="48">
+        <v>469</v>
+      </c>
+      <c r="F177" s="48">
+        <v>100</v>
+      </c>
+      <c r="G177" s="48"/>
+      <c r="H177" s="48">
+        <v>1</v>
+      </c>
+      <c r="I177" s="48"/>
+      <c r="J177" s="48"/>
+      <c r="K177" s="48"/>
+      <c r="L177" s="48"/>
+    </row>
+    <row r="178" spans="1:12" s="34" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A178" s="10">
+        <v>177</v>
+      </c>
+      <c r="B178" s="48"/>
+      <c r="C178" s="48" t="s">
+        <v>347</v>
+      </c>
+      <c r="D178" s="48" t="s">
+        <v>315</v>
+      </c>
+      <c r="E178" s="48">
+        <v>95</v>
+      </c>
+      <c r="F178" s="48">
+        <v>98</v>
+      </c>
+      <c r="G178" s="48">
+        <v>1</v>
+      </c>
+      <c r="H178" s="48">
+        <v>2</v>
+      </c>
+      <c r="I178" s="48"/>
+      <c r="J178" s="48" t="s">
+        <v>77</v>
+      </c>
+      <c r="K178" s="55">
+        <v>42961</v>
+      </c>
+      <c r="L178" s="48"/>
+    </row>
+    <row r="179" spans="1:12" s="34" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A179" s="10">
+        <v>178</v>
+      </c>
+      <c r="B179" s="48"/>
+      <c r="C179" s="48" t="s">
+        <v>348</v>
+      </c>
+      <c r="D179" s="48" t="s">
+        <v>316</v>
+      </c>
+      <c r="E179" s="48">
+        <v>86</v>
+      </c>
+      <c r="F179" s="48">
+        <v>173</v>
+      </c>
+      <c r="G179" s="58">
+        <v>1</v>
+      </c>
+      <c r="H179" s="58">
+        <v>2</v>
+      </c>
+      <c r="I179" s="58"/>
+      <c r="J179" s="58" t="s">
+        <v>77</v>
+      </c>
+      <c r="K179" s="59">
+        <v>42961</v>
+      </c>
+      <c r="L179" s="48"/>
+    </row>
+    <row r="180" spans="1:12" s="34" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A180" s="10">
+        <v>179</v>
+      </c>
+      <c r="B180" s="48"/>
+      <c r="C180" s="48" t="s">
         <v>349</v>
       </c>
-      <c r="D160" s="34" t="s">
-        <v>317</v>
-      </c>
-      <c r="E160" s="34">
-        <v>95</v>
-      </c>
-      <c r="F160" s="34">
-        <v>98</v>
-      </c>
-      <c r="G160" s="34">
-        <v>1</v>
-      </c>
-      <c r="H160" s="34">
+      <c r="D180" s="48" t="s">
+        <v>319</v>
+      </c>
+      <c r="E180" s="48">
+        <v>448</v>
+      </c>
+      <c r="F180" s="48">
+        <v>285</v>
+      </c>
+      <c r="G180" s="58">
+        <v>1</v>
+      </c>
+      <c r="H180" s="58">
         <v>2</v>
       </c>
-      <c r="J160" s="34" t="s">
-        <v>77</v>
-      </c>
-      <c r="K160" s="37">
+      <c r="I180" s="58"/>
+      <c r="J180" s="58" t="s">
+        <v>77</v>
+      </c>
+      <c r="K180" s="59">
         <v>42961</v>
       </c>
-    </row>
-    <row r="161" spans="1:11" s="34" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A161" s="34">
-        <v>160</v>
-      </c>
-      <c r="C161" s="34" t="s">
-        <v>350</v>
-      </c>
-      <c r="D161" s="34" t="s">
-        <v>318</v>
-      </c>
-      <c r="E161" s="34">
-        <v>86</v>
-      </c>
-      <c r="F161" s="34">
-        <v>173</v>
-      </c>
-      <c r="G161" s="40">
-        <v>1</v>
-      </c>
-      <c r="H161" s="41">
+      <c r="L180" s="48"/>
+    </row>
+    <row r="181" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A181" s="10">
+        <v>180</v>
+      </c>
+      <c r="B181" s="61"/>
+      <c r="C181" s="61"/>
+      <c r="D181" s="61" t="s">
+        <v>323</v>
+      </c>
+      <c r="E181" s="61">
+        <v>201</v>
+      </c>
+      <c r="F181" s="61"/>
+      <c r="G181" s="61"/>
+      <c r="H181" s="61">
+        <v>1</v>
+      </c>
+      <c r="I181" s="61"/>
+      <c r="J181" s="61"/>
+      <c r="K181" s="61"/>
+      <c r="L181" s="61"/>
+    </row>
+    <row r="182" spans="1:12" s="60" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A182" s="10">
+        <v>181</v>
+      </c>
+      <c r="B182" s="60" t="s">
+        <v>360</v>
+      </c>
+      <c r="D182" s="60" t="s">
+        <v>361</v>
+      </c>
+      <c r="E182" s="60">
+        <v>136</v>
+      </c>
+      <c r="F182" s="60">
+        <v>131</v>
+      </c>
+      <c r="H182" s="60">
         <v>2</v>
       </c>
-      <c r="I161" s="41"/>
-      <c r="J161" s="41" t="s">
-        <v>77</v>
-      </c>
-      <c r="K161" s="42">
-        <v>42961</v>
-      </c>
-    </row>
-    <row r="162" spans="1:11" s="34" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A162" s="34">
-        <v>161</v>
-      </c>
-      <c r="C162" s="34" t="s">
-        <v>351</v>
-      </c>
-      <c r="D162" s="34" t="s">
-        <v>321</v>
-      </c>
-      <c r="E162" s="34">
-        <v>448</v>
-      </c>
-      <c r="F162" s="34">
-        <v>285</v>
-      </c>
-      <c r="G162" s="40">
-        <v>1</v>
-      </c>
-      <c r="H162" s="41">
+    </row>
+    <row r="183" spans="1:12" s="60" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A183" s="10">
+        <v>182</v>
+      </c>
+      <c r="D183" s="60" t="s">
+        <v>362</v>
+      </c>
+      <c r="E183" s="60">
+        <v>153</v>
+      </c>
+      <c r="F183" s="60">
+        <v>40</v>
+      </c>
+      <c r="H183" s="60">
         <v>2</v>
       </c>
-      <c r="I162" s="41"/>
-      <c r="J162" s="41" t="s">
-        <v>77</v>
-      </c>
-      <c r="K162" s="42">
-        <v>42961</v>
-      </c>
-    </row>
-    <row r="163" spans="1:11" s="34" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A163" s="34">
-        <v>162</v>
-      </c>
-      <c r="C163" s="43" t="s">
+    </row>
+    <row r="184" spans="1:12" s="60" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A184" s="10">
+        <v>183</v>
+      </c>
+      <c r="D184" s="60" t="s">
+        <v>363</v>
+      </c>
+      <c r="E184" s="60">
+        <v>18</v>
+      </c>
+      <c r="F184" s="60">
+        <v>39</v>
+      </c>
+      <c r="H184" s="60">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="185" spans="1:12" s="60" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A185" s="10">
+        <v>184</v>
+      </c>
+      <c r="D185" s="60" t="s">
+        <v>364</v>
+      </c>
+      <c r="E185" s="60">
+        <v>16</v>
+      </c>
+      <c r="F185" s="60">
+        <v>47</v>
+      </c>
+      <c r="H185" s="60">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="186" spans="1:12" s="60" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A186" s="10">
+        <v>185</v>
+      </c>
+      <c r="D186" s="60" t="s">
+        <v>365</v>
+      </c>
+      <c r="E186" s="60">
+        <v>15</v>
+      </c>
+      <c r="F186" s="60">
+        <v>46</v>
+      </c>
+      <c r="H186" s="60">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="187" spans="1:12" s="60" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A187" s="10">
+        <v>186</v>
+      </c>
+      <c r="D187" s="60" t="s">
+        <v>370</v>
+      </c>
+      <c r="E187" s="60">
+        <v>121</v>
+      </c>
+      <c r="F187" s="60">
+        <v>126</v>
+      </c>
+      <c r="H187" s="60">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="188" spans="1:12" s="60" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A188" s="10">
+        <v>187</v>
+      </c>
+      <c r="D188" s="60" t="s">
+        <v>366</v>
+      </c>
+      <c r="E188" s="60">
+        <v>120</v>
+      </c>
+      <c r="F188" s="60">
+        <v>127</v>
+      </c>
+      <c r="H188" s="60">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="189" spans="1:12" s="60" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A189" s="10">
+        <v>188</v>
+      </c>
+      <c r="D189" s="60" t="s">
+        <v>367</v>
+      </c>
+      <c r="E189" s="60">
+        <v>52</v>
+      </c>
+      <c r="F189" s="60">
+        <v>31</v>
+      </c>
+      <c r="H189" s="60">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="190" spans="1:12" s="60" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A190" s="10">
+        <v>189</v>
+      </c>
+      <c r="D190" s="60" t="s">
+        <v>368</v>
+      </c>
+      <c r="E190" s="60">
+        <v>51</v>
+      </c>
+      <c r="H190" s="60">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="191" spans="1:12" s="60" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A191" s="10">
+        <v>190</v>
+      </c>
+      <c r="D191" s="60" t="s">
+        <v>369</v>
+      </c>
+      <c r="E191" s="60">
+        <v>582</v>
+      </c>
+      <c r="F191" s="60">
+        <v>140</v>
+      </c>
+      <c r="H191" s="60">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="192" spans="1:12" s="60" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A192" s="10">
+        <v>191</v>
+      </c>
+      <c r="D192" s="60" t="s">
+        <v>371</v>
+      </c>
+      <c r="E192" s="60">
+        <v>211</v>
+      </c>
+      <c r="F192" s="60">
+        <v>567</v>
+      </c>
+      <c r="H192" s="60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="193" spans="1:8" s="60" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A193" s="10">
+        <v>192</v>
+      </c>
+      <c r="D193" s="60" t="s">
+        <v>372</v>
+      </c>
+      <c r="E193" s="60">
+        <v>197</v>
+      </c>
+      <c r="H193" s="60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="194" spans="1:8" s="60" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A194" s="10">
+        <v>193</v>
+      </c>
+      <c r="D194" s="60" t="s">
+        <v>373</v>
+      </c>
+      <c r="E194" s="60">
+        <v>10</v>
+      </c>
+      <c r="H194" s="60">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="195" spans="1:8" s="60" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A195" s="10">
+        <v>194</v>
+      </c>
+      <c r="D195" s="62" t="s">
+        <v>374</v>
+      </c>
+      <c r="E195" s="60">
+        <v>190</v>
+      </c>
+      <c r="H195" s="60">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="196" spans="1:8" s="60" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A196" s="10">
+        <v>195</v>
+      </c>
+      <c r="D196" s="60" t="s">
+        <v>375</v>
+      </c>
+      <c r="E196" s="60">
+        <v>198</v>
+      </c>
+      <c r="H196" s="60">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="197" spans="1:8" s="60" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A197" s="10">
+        <v>196</v>
+      </c>
+      <c r="D197" s="60" t="s">
+        <v>376</v>
+      </c>
+      <c r="E197" s="60">
+        <v>107</v>
+      </c>
+      <c r="F197" s="60">
+        <v>139</v>
+      </c>
+      <c r="H197" s="60">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="198" spans="1:8" s="60" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A198" s="10">
+        <v>197</v>
+      </c>
+      <c r="D198" s="60" t="s">
+        <v>377</v>
+      </c>
+      <c r="E198" s="60">
+        <v>108</v>
+      </c>
+      <c r="F198" s="60">
+        <v>132</v>
+      </c>
+      <c r="H198" s="60">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="199" spans="1:8" s="63" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A199" s="10">
+        <v>198</v>
+      </c>
+      <c r="B199" s="63" t="s">
+        <v>378</v>
+      </c>
+      <c r="D199" s="63" t="s">
+        <v>380</v>
+      </c>
+      <c r="E199" s="63">
+        <v>433</v>
+      </c>
+      <c r="H199" s="63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="200" spans="1:8" s="63" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A200" s="10">
+        <v>199</v>
+      </c>
+      <c r="D200" s="63" t="s">
+        <v>379</v>
+      </c>
+      <c r="E200" s="63">
+        <v>69</v>
+      </c>
+      <c r="H200" s="63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="201" spans="1:8" s="63" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A201" s="10">
+        <v>200</v>
+      </c>
+      <c r="D201" s="63" t="s">
+        <v>381</v>
+      </c>
+      <c r="E201" s="63">
+        <v>616</v>
+      </c>
+      <c r="H201" s="63">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="202" spans="1:8" s="63" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A202" s="10">
+        <v>201</v>
+      </c>
+      <c r="D202" s="63" t="s">
+        <v>382</v>
+      </c>
+      <c r="E202" s="63">
+        <v>618</v>
+      </c>
+      <c r="H202" s="63">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="203" spans="1:8" s="63" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A203" s="10">
+        <v>202</v>
+      </c>
+      <c r="D203" s="63" t="s">
+        <v>383</v>
+      </c>
+      <c r="E203" s="63">
+        <v>598</v>
+      </c>
+      <c r="H203" s="63">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="204" spans="1:8" s="63" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A204" s="10">
+        <v>203</v>
+      </c>
+      <c r="D204" s="63" t="s">
+        <v>384</v>
+      </c>
+      <c r="E204" s="63">
+        <v>178</v>
+      </c>
+      <c r="H204" s="63">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="205" spans="1:8" s="63" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A205" s="10">
+        <v>204</v>
+      </c>
+      <c r="D205" s="63" t="s">
+        <v>385</v>
+      </c>
+      <c r="E205" s="63">
+        <v>137</v>
+      </c>
+      <c r="H205" s="63">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="206" spans="1:8" s="63" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A206" s="10">
+        <v>205</v>
+      </c>
+      <c r="D206" s="63" t="s">
+        <v>386</v>
+      </c>
+      <c r="E206" s="63">
+        <v>7</v>
+      </c>
+      <c r="H206" s="63">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="207" spans="1:8" s="63" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A207" s="10">
+        <v>206</v>
+      </c>
+      <c r="D207" s="63" t="s">
+        <v>387</v>
+      </c>
+      <c r="E207" s="63">
+        <v>573</v>
+      </c>
+      <c r="H207" s="63">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="208" spans="1:8" s="63" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A208" s="10">
+        <v>207</v>
+      </c>
+      <c r="D208" s="63" t="s">
+        <v>388</v>
+      </c>
+      <c r="E208" s="63">
+        <v>242</v>
+      </c>
+      <c r="H208" s="63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="209" spans="1:12" s="63" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A209" s="10">
+        <v>208</v>
+      </c>
+      <c r="D209" s="63" t="s">
+        <v>389</v>
+      </c>
+      <c r="E209" s="63">
+        <v>624</v>
+      </c>
+      <c r="H209" s="63">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="210" spans="1:12" s="63" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A210" s="10">
+        <v>209</v>
+      </c>
+      <c r="D210" s="63" t="s">
+        <v>390</v>
+      </c>
+      <c r="E210" s="63">
+        <v>605</v>
+      </c>
+      <c r="H210" s="63">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="211" spans="1:12" s="63" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A211" s="10">
+        <v>210</v>
+      </c>
+      <c r="D211" s="63" t="s">
+        <v>391</v>
+      </c>
+      <c r="E211" s="63">
+        <v>531</v>
+      </c>
+      <c r="H211" s="63">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="212" spans="1:12" s="63" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A212" s="10">
+        <v>211</v>
+      </c>
+      <c r="D212" s="63" t="s">
+        <v>392</v>
+      </c>
+      <c r="E212" s="63">
+        <v>127</v>
+      </c>
+      <c r="H212" s="63">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="213" spans="1:12" s="63" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A213" s="10">
+        <v>212</v>
+      </c>
+      <c r="D213" s="63" t="s">
+        <v>393</v>
+      </c>
+      <c r="E213" s="63">
+        <v>120</v>
+      </c>
+      <c r="H213" s="63">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="214" spans="1:12" s="63" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A214" s="10">
+        <v>213</v>
+      </c>
+      <c r="D214" s="63" t="s">
+        <v>394</v>
+      </c>
+      <c r="E214" s="63">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="215" spans="1:12" s="63" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A215" s="10">
+        <v>214</v>
+      </c>
+      <c r="D215" s="63" t="s">
+        <v>395</v>
+      </c>
+      <c r="E215" s="63">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="216" spans="1:12" s="63" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A216" s="10">
+        <v>215</v>
+      </c>
+      <c r="D216" s="63" t="s">
+        <v>396</v>
+      </c>
+      <c r="E216" s="63">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="217" spans="1:12" s="63" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A217" s="10">
+        <v>216</v>
+      </c>
+      <c r="D217" s="63" t="s">
+        <v>236</v>
+      </c>
+      <c r="E217" s="63">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="218" spans="1:12" s="63" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A218" s="10">
+        <v>217</v>
+      </c>
+      <c r="D218" s="63" t="s">
+        <v>397</v>
+      </c>
+      <c r="E218" s="63">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="219" spans="1:12" s="63" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A219" s="10">
+        <v>218</v>
+      </c>
+      <c r="D219" s="63" t="s">
+        <v>398</v>
+      </c>
+      <c r="E219" s="63">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="220" spans="1:12" s="63" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A220" s="10">
+        <v>219</v>
+      </c>
+      <c r="D220" s="63" t="s">
+        <v>399</v>
+      </c>
+      <c r="E220" s="63">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="221" spans="1:12" s="63" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A221" s="10">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="222" spans="1:12" s="63" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A222" s="10">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="223" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A223" s="10">
+        <v>222</v>
+      </c>
+      <c r="B223" s="60" t="s">
+        <v>83</v>
+      </c>
+      <c r="C223" s="60"/>
+      <c r="D223" s="60" t="s">
         <v>353</v>
       </c>
-      <c r="D163" s="34" t="s">
-        <v>322</v>
-      </c>
-      <c r="E163" s="34">
-        <v>72</v>
-      </c>
-      <c r="F163" s="34">
-        <v>106</v>
-      </c>
-      <c r="G163" s="34">
-        <v>1</v>
-      </c>
-      <c r="H163" s="34">
+      <c r="E223" s="60">
+        <v>110</v>
+      </c>
+      <c r="F223" s="60">
+        <v>64</v>
+      </c>
+      <c r="G223" s="60"/>
+      <c r="H223" s="60">
         <v>2</v>
       </c>
-      <c r="K163" s="42">
-        <v>42962</v>
-      </c>
-    </row>
-    <row r="164" spans="1:11" s="34" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A164" s="34">
-        <v>163</v>
-      </c>
-      <c r="C164" s="45"/>
-      <c r="D164" s="34" t="s">
-        <v>323</v>
-      </c>
-      <c r="E164" s="34">
-        <v>73</v>
-      </c>
-      <c r="F164" s="34">
-        <v>105</v>
-      </c>
-      <c r="G164" s="34">
-        <v>1</v>
-      </c>
-      <c r="H164" s="34">
-        <v>2</v>
-      </c>
-      <c r="K164" s="42">
-        <v>42962</v>
-      </c>
-    </row>
-    <row r="165" spans="1:11" s="34" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A165" s="34">
-        <v>164</v>
-      </c>
-      <c r="D165" s="34" t="s">
-        <v>324</v>
-      </c>
-      <c r="E165" s="34">
-        <v>177</v>
-      </c>
-      <c r="F165" s="34">
-        <v>108</v>
-      </c>
-      <c r="H165" s="34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="166" spans="1:11" s="34" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A166" s="34">
-        <v>165</v>
-      </c>
-      <c r="D166" s="34" t="s">
-        <v>325</v>
-      </c>
-      <c r="E166" s="34">
-        <v>201</v>
-      </c>
-      <c r="H166" s="34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="167" spans="1:11" s="34" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A167" s="34">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="168" spans="1:11" s="34" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A168" s="34">
-        <v>167</v>
-      </c>
-      <c r="D168" s="34" t="s">
-        <v>334</v>
-      </c>
-      <c r="E168" s="34">
-        <v>480</v>
-      </c>
-      <c r="F168" s="34">
-        <v>257</v>
-      </c>
-      <c r="G168" s="34">
-        <v>1</v>
-      </c>
-      <c r="H168" s="34">
-        <v>1</v>
-      </c>
-      <c r="J168" s="34" t="s">
-        <v>77</v>
-      </c>
-      <c r="K168" s="42">
-        <v>42962</v>
-      </c>
-    </row>
-    <row r="169" spans="1:11" s="34" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A169" s="34">
-        <v>168</v>
-      </c>
-      <c r="C169" s="34" t="s">
-        <v>358</v>
-      </c>
-      <c r="D169" s="34" t="s">
-        <v>354</v>
-      </c>
-      <c r="F169" s="34">
-        <v>112</v>
-      </c>
-      <c r="G169" s="34">
-        <v>1</v>
-      </c>
-      <c r="H169" s="34">
-        <v>1</v>
-      </c>
-      <c r="J169" s="34" t="s">
-        <v>77</v>
-      </c>
-      <c r="K169" s="42">
-        <v>42962</v>
-      </c>
-    </row>
-    <row r="170" spans="1:11" s="34" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A170" s="34">
-        <v>169</v>
-      </c>
-      <c r="C170" s="34" t="s">
-        <v>315</v>
-      </c>
-      <c r="D170" s="34" t="s">
-        <v>326</v>
-      </c>
-      <c r="E170" s="34">
-        <v>376</v>
-      </c>
-      <c r="F170" s="34">
-        <v>113</v>
-      </c>
-      <c r="G170" s="34">
-        <v>1</v>
-      </c>
-      <c r="H170" s="34">
-        <v>2</v>
-      </c>
-      <c r="J170" s="34" t="s">
-        <v>77</v>
-      </c>
-      <c r="K170" s="42">
-        <v>42962</v>
-      </c>
-    </row>
-    <row r="171" spans="1:11" s="34" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A171" s="34">
-        <v>170</v>
-      </c>
-      <c r="C171" s="34" t="s">
-        <v>316</v>
-      </c>
-      <c r="D171" s="34" t="s">
-        <v>330</v>
-      </c>
-      <c r="E171" s="34">
-        <v>246</v>
-      </c>
-      <c r="F171" s="34">
-        <v>437</v>
-      </c>
-      <c r="G171" s="34">
-        <v>1</v>
-      </c>
-      <c r="H171" s="34">
-        <v>2</v>
-      </c>
-      <c r="J171" s="34" t="s">
-        <v>77</v>
-      </c>
-      <c r="K171" s="42">
-        <v>42962</v>
-      </c>
-    </row>
-    <row r="172" spans="1:11" s="34" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A172" s="34">
-        <v>171</v>
-      </c>
-      <c r="C172" s="34" t="s">
-        <v>316</v>
-      </c>
-      <c r="D172" s="34" t="s">
-        <v>333</v>
-      </c>
-      <c r="E172" s="34">
-        <v>472</v>
-      </c>
-      <c r="G172" s="34">
-        <v>1</v>
-      </c>
-      <c r="H172" s="34">
-        <v>2</v>
-      </c>
-      <c r="J172" s="34" t="s">
-        <v>77</v>
-      </c>
-      <c r="K172" s="42">
-        <v>42962</v>
-      </c>
-    </row>
-    <row r="173" spans="1:11" s="34" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A173" s="34">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="174" spans="1:11" s="34" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A174" s="34">
-        <v>173</v>
-      </c>
-      <c r="D174" s="34" t="s">
-        <v>357</v>
-      </c>
-      <c r="E174" s="34">
-        <v>94</v>
-      </c>
-      <c r="F174" s="34">
-        <v>124</v>
-      </c>
-      <c r="G174" s="34">
-        <v>1</v>
-      </c>
-      <c r="H174" s="34">
-        <v>3</v>
-      </c>
-      <c r="J174" s="34" t="s">
-        <v>77</v>
-      </c>
-      <c r="K174" s="37">
-        <v>42961</v>
-      </c>
-    </row>
-    <row r="175" spans="1:11" s="34" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A175" s="34">
-        <v>174</v>
-      </c>
-      <c r="D175" s="34" t="s">
-        <v>356</v>
-      </c>
-      <c r="E175" s="34">
-        <v>475</v>
-      </c>
-      <c r="G175" s="34">
-        <v>1</v>
-      </c>
-      <c r="H175" s="34">
-        <v>2</v>
-      </c>
-      <c r="J175" s="34" t="s">
-        <v>77</v>
-      </c>
-      <c r="K175" s="37">
-        <v>42961</v>
-      </c>
-    </row>
-    <row r="176" spans="1:11" s="34" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A176" s="34">
-        <v>175</v>
-      </c>
-      <c r="D176" s="34" t="s">
-        <v>327</v>
-      </c>
-      <c r="E176" s="34">
-        <v>467</v>
-      </c>
-      <c r="F176" s="34">
-        <v>222</v>
-      </c>
-      <c r="H176" s="34">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="177" spans="1:12" s="34" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A177" s="34">
-        <v>176</v>
-      </c>
-      <c r="D177" s="34" t="s">
-        <v>328</v>
-      </c>
-      <c r="E177" s="34">
-        <v>468</v>
-      </c>
-      <c r="F177" s="34">
-        <v>101</v>
-      </c>
-      <c r="H177" s="34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="178" spans="1:12" s="34" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A178" s="34">
-        <v>177</v>
-      </c>
-      <c r="D178" s="34" t="s">
-        <v>329</v>
-      </c>
-      <c r="E178" s="34">
-        <v>469</v>
-      </c>
-      <c r="F178" s="34">
-        <v>100</v>
-      </c>
-      <c r="H178" s="34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="179" spans="1:12" s="34" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A179" s="34">
-        <v>178</v>
-      </c>
-      <c r="D179" s="34" t="s">
-        <v>331</v>
-      </c>
-      <c r="E179" s="34">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="180" spans="1:12" s="34" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A180" s="36">
-        <v>179</v>
-      </c>
-      <c r="D180" s="34" t="s">
-        <v>332</v>
-      </c>
-      <c r="E180" s="34">
-        <v>453</v>
-      </c>
-      <c r="F180" s="34">
-        <v>114</v>
-      </c>
-      <c r="H180" s="34">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="181" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A181" s="31">
-        <v>180</v>
-      </c>
-      <c r="B181" s="34"/>
-      <c r="C181" s="34"/>
-      <c r="D181" s="34" t="s">
-        <v>336</v>
-      </c>
-      <c r="E181" s="34">
-        <v>595</v>
-      </c>
-      <c r="F181" s="34">
-        <v>298</v>
-      </c>
-      <c r="G181" s="34"/>
-      <c r="H181" s="34">
-        <v>2</v>
-      </c>
-      <c r="I181" s="34"/>
-      <c r="J181" s="34"/>
-      <c r="K181" s="34"/>
-      <c r="L181" s="34"/>
-    </row>
-    <row r="182" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A182" s="31">
-        <v>181</v>
-      </c>
-      <c r="C182" s="34"/>
-      <c r="D182" s="34" t="s">
-        <v>339</v>
-      </c>
-      <c r="E182" s="34">
-        <v>614</v>
-      </c>
-      <c r="F182" s="34">
-        <v>549</v>
-      </c>
-      <c r="G182" s="34"/>
-      <c r="H182" s="34">
-        <v>2</v>
-      </c>
-      <c r="I182" s="34"/>
-      <c r="J182" s="34"/>
-      <c r="K182" s="34"/>
-    </row>
-    <row r="183" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="D183" s="34" t="s">
-        <v>340</v>
-      </c>
-      <c r="E183" s="34">
-        <v>619</v>
-      </c>
-      <c r="F183" s="34"/>
-      <c r="G183" s="34"/>
-      <c r="H183" s="34"/>
-    </row>
-    <row r="184" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="D184" s="34" t="s">
-        <v>337</v>
-      </c>
-      <c r="E184" s="34">
-        <v>596</v>
-      </c>
-      <c r="F184" s="34"/>
-      <c r="G184" s="34"/>
-      <c r="H184" s="34"/>
-    </row>
-    <row r="185" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="D185" s="34" t="s">
-        <v>338</v>
-      </c>
-      <c r="E185" s="34">
-        <v>597</v>
-      </c>
-      <c r="F185" s="34">
-        <v>643</v>
-      </c>
-      <c r="G185" s="34"/>
-      <c r="H185" s="34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="186" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="D186" s="50"/>
-      <c r="E186" s="50"/>
-      <c r="F186" s="50"/>
-      <c r="G186" s="50"/>
-      <c r="H186" s="50"/>
-    </row>
-    <row r="187" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="D187" s="50"/>
-      <c r="E187" s="50"/>
-      <c r="F187" s="50"/>
-      <c r="G187" s="50"/>
-      <c r="H187" s="50"/>
-    </row>
-    <row r="188" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="D188" s="50"/>
-      <c r="E188" s="50"/>
-      <c r="F188" s="50"/>
-      <c r="G188" s="50"/>
-      <c r="H188" s="50"/>
-    </row>
-    <row r="189" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="D189" s="50"/>
-      <c r="E189" s="50"/>
-      <c r="F189" s="50"/>
-      <c r="G189" s="50"/>
-      <c r="H189" s="50"/>
-    </row>
-    <row r="190" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="D190" s="50"/>
-      <c r="E190" s="50"/>
-      <c r="F190" s="50"/>
-      <c r="G190" s="50"/>
-      <c r="H190" s="50"/>
-    </row>
-    <row r="191" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="D191" s="50"/>
-      <c r="E191" s="50"/>
-      <c r="F191" s="50"/>
-      <c r="G191" s="50"/>
-      <c r="H191" s="50"/>
-    </row>
-    <row r="192" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="D192" s="50"/>
-      <c r="E192" s="50"/>
-      <c r="F192" s="50"/>
-      <c r="G192" s="50"/>
-      <c r="H192" s="50"/>
-    </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="D193" s="50"/>
-      <c r="E193" s="50"/>
-      <c r="F193" s="50"/>
-      <c r="G193" s="50"/>
-      <c r="H193" s="50"/>
-    </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="D194" s="50"/>
-      <c r="E194" s="50"/>
-      <c r="F194" s="50"/>
-      <c r="G194" s="50"/>
-      <c r="H194" s="50"/>
-    </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="D195" s="50"/>
-      <c r="E195" s="50"/>
-      <c r="F195" s="50"/>
-      <c r="G195" s="50"/>
-      <c r="H195" s="50"/>
-    </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="D196" s="50"/>
-      <c r="E196" s="50"/>
-      <c r="F196" s="50"/>
-      <c r="G196" s="50"/>
-      <c r="H196" s="50"/>
-    </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="D197" s="50"/>
-      <c r="E197" s="50"/>
-      <c r="F197" s="50"/>
-      <c r="G197" s="50"/>
-      <c r="H197" s="50"/>
-    </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A198" t="s">
-        <v>83</v>
-      </c>
-      <c r="D198" s="34" t="s">
-        <v>355</v>
-      </c>
-      <c r="E198" s="34">
-        <v>110</v>
-      </c>
-      <c r="F198" s="34">
-        <v>64</v>
-      </c>
-      <c r="G198" s="34"/>
-      <c r="H198" s="34">
-        <v>2</v>
-      </c>
-      <c r="I198" s="34"/>
-      <c r="J198" s="34"/>
-      <c r="K198" s="34"/>
-    </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A199" t="s">
-        <v>31</v>
-      </c>
-      <c r="E199">
-        <f>COUNTA(E2:E168)</f>
-        <v>152</v>
-      </c>
-      <c r="F199">
+      <c r="I223" s="60"/>
+      <c r="J223" s="60"/>
+      <c r="K223" s="60"/>
+      <c r="L223" s="60"/>
+    </row>
+    <row r="224" spans="1:12" s="65" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A224" s="10"/>
+      <c r="B224" s="64"/>
+      <c r="C224" s="64"/>
+      <c r="D224" s="64"/>
+      <c r="E224" s="64"/>
+      <c r="F224" s="64"/>
+      <c r="G224" s="64"/>
+      <c r="H224" s="64"/>
+      <c r="I224" s="64"/>
+      <c r="J224" s="64"/>
+      <c r="K224" s="64"/>
+      <c r="L224" s="64"/>
+    </row>
+    <row r="225" spans="1:12" s="65" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A225" s="10"/>
+      <c r="B225" s="64"/>
+      <c r="C225" s="64"/>
+      <c r="D225" s="64"/>
+      <c r="E225" s="64"/>
+      <c r="F225" s="64"/>
+      <c r="G225" s="64"/>
+      <c r="H225" s="64"/>
+      <c r="I225" s="64"/>
+      <c r="J225" s="64"/>
+      <c r="K225" s="64"/>
+      <c r="L225" s="64"/>
+    </row>
+    <row r="226" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A226" s="10">
+        <v>223</v>
+      </c>
+      <c r="D226" s="47"/>
+      <c r="E226" s="47"/>
+      <c r="F226" s="47"/>
+      <c r="G226" s="47"/>
+      <c r="H226" s="47"/>
+      <c r="I226" s="47"/>
+      <c r="J226" s="47"/>
+      <c r="K226" s="47"/>
+    </row>
+    <row r="227" spans="1:12" s="65" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A227" s="10"/>
+      <c r="B227" s="64"/>
+      <c r="C227" s="64"/>
+      <c r="D227" s="64"/>
+      <c r="E227" s="64"/>
+      <c r="F227" s="64"/>
+      <c r="G227" s="64"/>
+      <c r="H227" s="64"/>
+      <c r="I227" s="64"/>
+      <c r="J227" s="64"/>
+      <c r="K227" s="64"/>
+      <c r="L227" s="64"/>
+    </row>
+    <row r="228" spans="1:12" s="65" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A228" s="10"/>
+      <c r="B228" s="64"/>
+      <c r="C228" s="64"/>
+      <c r="D228" s="64"/>
+      <c r="E228" s="64"/>
+      <c r="F228" s="64"/>
+      <c r="G228" s="64"/>
+      <c r="H228" s="64"/>
+      <c r="I228" s="64"/>
+      <c r="J228" s="64"/>
+      <c r="K228" s="64"/>
+      <c r="L228" s="64"/>
+    </row>
+    <row r="229" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A229" s="10">
+        <v>223</v>
+      </c>
+      <c r="D229" s="47"/>
+      <c r="E229" s="47"/>
+      <c r="F229" s="47"/>
+      <c r="G229" s="47"/>
+      <c r="H229" s="47"/>
+      <c r="I229" s="47"/>
+      <c r="J229" s="47"/>
+      <c r="K229" s="47"/>
+    </row>
+    <row r="230" spans="1:12" s="65" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A230" s="10"/>
+      <c r="B230" s="64"/>
+      <c r="C230" s="64"/>
+      <c r="D230" s="64"/>
+      <c r="E230" s="64"/>
+      <c r="F230" s="64"/>
+      <c r="G230" s="64"/>
+      <c r="H230" s="64"/>
+      <c r="I230" s="64"/>
+      <c r="J230" s="64"/>
+      <c r="K230" s="64"/>
+      <c r="L230" s="64"/>
+    </row>
+    <row r="231" spans="1:12" s="65" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A231" s="10"/>
+      <c r="B231" s="64"/>
+      <c r="C231" s="64"/>
+      <c r="D231" s="64"/>
+      <c r="E231" s="64"/>
+      <c r="F231" s="64"/>
+      <c r="G231" s="64"/>
+      <c r="H231" s="64"/>
+      <c r="I231" s="64"/>
+      <c r="J231" s="64"/>
+      <c r="K231" s="64"/>
+      <c r="L231" s="64"/>
+    </row>
+    <row r="232" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A232" s="10">
+        <v>223</v>
+      </c>
+      <c r="D232" s="47"/>
+      <c r="E232" s="47"/>
+      <c r="F232" s="47"/>
+      <c r="G232" s="47"/>
+      <c r="H232" s="47"/>
+      <c r="I232" s="47"/>
+      <c r="J232" s="47"/>
+      <c r="K232" s="47"/>
+    </row>
+    <row r="233" spans="1:12" s="65" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A233" s="10"/>
+      <c r="B233" s="64"/>
+      <c r="C233" s="64"/>
+      <c r="D233" s="64"/>
+      <c r="E233" s="64"/>
+      <c r="F233" s="64"/>
+      <c r="G233" s="64"/>
+      <c r="H233" s="64"/>
+      <c r="I233" s="64"/>
+      <c r="J233" s="64"/>
+      <c r="K233" s="64"/>
+      <c r="L233" s="64"/>
+    </row>
+    <row r="234" spans="1:12" s="65" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A234" s="10"/>
+      <c r="B234" s="64"/>
+      <c r="C234" s="64"/>
+      <c r="D234" s="64"/>
+      <c r="E234" s="64"/>
+      <c r="F234" s="64"/>
+      <c r="G234" s="64"/>
+      <c r="H234" s="64"/>
+      <c r="I234" s="64"/>
+      <c r="J234" s="64"/>
+      <c r="K234" s="64"/>
+      <c r="L234" s="64"/>
+    </row>
+    <row r="235" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A235" s="10">
+        <v>223</v>
+      </c>
+      <c r="D235" s="47"/>
+      <c r="E235" s="47"/>
+      <c r="F235" s="47"/>
+      <c r="G235" s="47"/>
+      <c r="H235" s="47"/>
+      <c r="I235" s="47"/>
+      <c r="J235" s="47"/>
+      <c r="K235" s="47"/>
+    </row>
+    <row r="236" spans="1:12" s="65" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A236" s="10"/>
+      <c r="B236" s="64"/>
+      <c r="C236" s="64"/>
+      <c r="D236" s="64"/>
+      <c r="E236" s="64"/>
+      <c r="F236" s="64"/>
+      <c r="G236" s="64"/>
+      <c r="H236" s="64"/>
+      <c r="I236" s="64"/>
+      <c r="J236" s="64"/>
+      <c r="K236" s="64"/>
+      <c r="L236" s="64"/>
+    </row>
+    <row r="237" spans="1:12" s="65" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A237" s="10"/>
+      <c r="B237" s="64"/>
+      <c r="C237" s="64"/>
+      <c r="D237" s="64"/>
+      <c r="E237" s="64"/>
+      <c r="F237" s="64"/>
+      <c r="G237" s="64"/>
+      <c r="H237" s="64"/>
+      <c r="I237" s="64"/>
+      <c r="J237" s="64"/>
+      <c r="K237" s="64"/>
+      <c r="L237" s="64"/>
+    </row>
+    <row r="238" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A238" s="10">
+        <v>223</v>
+      </c>
+      <c r="D238" s="47"/>
+      <c r="E238" s="47"/>
+      <c r="F238" s="47"/>
+      <c r="G238" s="47"/>
+      <c r="H238" s="47"/>
+      <c r="I238" s="47"/>
+      <c r="J238" s="47"/>
+      <c r="K238" s="47"/>
+    </row>
+    <row r="239" spans="1:12" s="65" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A239" s="10"/>
+      <c r="B239" s="64"/>
+      <c r="C239" s="64"/>
+      <c r="D239" s="64"/>
+      <c r="E239" s="64"/>
+      <c r="F239" s="64"/>
+      <c r="G239" s="64"/>
+      <c r="H239" s="64"/>
+      <c r="I239" s="64"/>
+      <c r="J239" s="64"/>
+      <c r="K239" s="64"/>
+      <c r="L239" s="64"/>
+    </row>
+    <row r="240" spans="1:12" s="65" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A240" s="10"/>
+      <c r="B240" s="64"/>
+      <c r="C240" s="64"/>
+      <c r="D240" s="64"/>
+      <c r="E240" s="64"/>
+      <c r="F240" s="64"/>
+      <c r="G240" s="64"/>
+      <c r="H240" s="64"/>
+      <c r="I240" s="64"/>
+      <c r="J240" s="64"/>
+      <c r="K240" s="64"/>
+      <c r="L240" s="64"/>
+    </row>
+    <row r="241" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A241" s="10">
+        <v>223</v>
+      </c>
+      <c r="D241" s="47"/>
+      <c r="E241" s="47"/>
+      <c r="F241" s="47"/>
+      <c r="G241" s="47"/>
+      <c r="H241" s="47"/>
+      <c r="I241" s="47"/>
+      <c r="J241" s="47"/>
+      <c r="K241" s="47"/>
+    </row>
+    <row r="242" spans="1:12" s="65" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A242" s="10"/>
+      <c r="B242" s="64"/>
+      <c r="C242" s="64"/>
+      <c r="D242" s="64"/>
+      <c r="E242" s="64"/>
+      <c r="F242" s="64"/>
+      <c r="G242" s="64"/>
+      <c r="H242" s="64"/>
+      <c r="I242" s="64"/>
+      <c r="J242" s="64"/>
+      <c r="K242" s="64"/>
+      <c r="L242" s="64"/>
+    </row>
+    <row r="243" spans="1:12" s="65" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A243" s="10"/>
+      <c r="B243" s="64"/>
+      <c r="C243" s="64"/>
+      <c r="D243" s="64"/>
+      <c r="E243" s="64"/>
+      <c r="F243" s="64"/>
+      <c r="G243" s="64"/>
+      <c r="H243" s="64"/>
+      <c r="I243" s="64"/>
+      <c r="J243" s="64"/>
+      <c r="K243" s="64"/>
+      <c r="L243" s="64"/>
+    </row>
+    <row r="244" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A244" s="10">
+        <v>223</v>
+      </c>
+      <c r="D244" s="47"/>
+      <c r="E244" s="47"/>
+      <c r="F244" s="47"/>
+      <c r="G244" s="47"/>
+      <c r="H244" s="47"/>
+      <c r="I244" s="47"/>
+      <c r="J244" s="47"/>
+      <c r="K244" s="47"/>
+    </row>
+    <row r="245" spans="1:12" s="65" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A245" s="10"/>
+      <c r="B245" s="64"/>
+      <c r="C245" s="64"/>
+      <c r="D245" s="64"/>
+      <c r="E245" s="64"/>
+      <c r="F245" s="64"/>
+      <c r="G245" s="64"/>
+      <c r="H245" s="64"/>
+      <c r="I245" s="64"/>
+      <c r="J245" s="64"/>
+      <c r="K245" s="64"/>
+      <c r="L245" s="64"/>
+    </row>
+    <row r="246" spans="1:12" s="65" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A246" s="10"/>
+      <c r="B246" s="64"/>
+      <c r="C246" s="64"/>
+      <c r="D246" s="64"/>
+      <c r="E246" s="64"/>
+      <c r="F246" s="64"/>
+      <c r="G246" s="64"/>
+      <c r="H246" s="64"/>
+      <c r="I246" s="64"/>
+      <c r="J246" s="64"/>
+      <c r="K246" s="64"/>
+      <c r="L246" s="64"/>
+    </row>
+    <row r="247" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A247" s="10">
+        <v>223</v>
+      </c>
+      <c r="D247" s="47"/>
+      <c r="E247" s="47"/>
+      <c r="F247" s="47"/>
+      <c r="G247" s="47"/>
+      <c r="H247" s="47"/>
+      <c r="I247" s="47"/>
+      <c r="J247" s="47"/>
+      <c r="K247" s="47"/>
+    </row>
+    <row r="248" spans="1:12" s="65" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A248" s="10"/>
+      <c r="B248" s="64"/>
+      <c r="C248" s="64"/>
+      <c r="D248" s="64"/>
+      <c r="E248" s="64"/>
+      <c r="F248" s="64"/>
+      <c r="G248" s="64"/>
+      <c r="H248" s="64"/>
+      <c r="I248" s="64"/>
+      <c r="J248" s="64"/>
+      <c r="K248" s="64"/>
+      <c r="L248" s="64"/>
+    </row>
+    <row r="249" spans="1:12" s="65" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A249" s="10"/>
+      <c r="B249" s="64"/>
+      <c r="C249" s="64"/>
+      <c r="D249" s="64"/>
+      <c r="E249" s="64"/>
+      <c r="F249" s="64"/>
+      <c r="G249" s="64"/>
+      <c r="H249" s="64"/>
+      <c r="I249" s="64"/>
+      <c r="J249" s="64"/>
+      <c r="K249" s="64"/>
+      <c r="L249" s="64"/>
+    </row>
+    <row r="250" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A250" s="10">
+        <v>223</v>
+      </c>
+      <c r="D250" s="47"/>
+      <c r="E250" s="47"/>
+      <c r="F250" s="47"/>
+      <c r="G250" s="47"/>
+      <c r="H250" s="47"/>
+      <c r="I250" s="47"/>
+      <c r="J250" s="47"/>
+      <c r="K250" s="47"/>
+    </row>
+    <row r="251" spans="1:12" s="65" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A251" s="10"/>
+      <c r="B251" s="64"/>
+      <c r="C251" s="64"/>
+      <c r="D251" s="64"/>
+      <c r="E251" s="64"/>
+      <c r="F251" s="64"/>
+      <c r="G251" s="64"/>
+      <c r="H251" s="64"/>
+      <c r="I251" s="64"/>
+      <c r="J251" s="64"/>
+      <c r="K251" s="64"/>
+      <c r="L251" s="64"/>
+    </row>
+    <row r="252" spans="1:12" s="65" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A252" s="10"/>
+      <c r="B252" s="64"/>
+      <c r="C252" s="64"/>
+      <c r="D252" s="64"/>
+      <c r="E252" s="64"/>
+      <c r="F252" s="64"/>
+      <c r="G252" s="64"/>
+      <c r="H252" s="64"/>
+      <c r="I252" s="64"/>
+      <c r="J252" s="64"/>
+      <c r="K252" s="64"/>
+      <c r="L252" s="64"/>
+    </row>
+    <row r="253" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A253" s="10">
+        <v>223</v>
+      </c>
+      <c r="D253" s="47"/>
+      <c r="E253" s="47"/>
+      <c r="F253" s="47"/>
+      <c r="G253" s="47"/>
+      <c r="H253" s="47"/>
+      <c r="I253" s="47"/>
+      <c r="J253" s="47"/>
+      <c r="K253" s="47"/>
+    </row>
+    <row r="254" spans="1:12" s="65" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A254" s="10"/>
+      <c r="B254" s="64"/>
+      <c r="C254" s="64"/>
+      <c r="D254" s="64"/>
+      <c r="E254" s="64"/>
+      <c r="F254" s="64"/>
+      <c r="G254" s="64"/>
+      <c r="H254" s="64"/>
+      <c r="I254" s="64"/>
+      <c r="J254" s="64"/>
+      <c r="K254" s="64"/>
+      <c r="L254" s="64"/>
+    </row>
+    <row r="255" spans="1:12" s="65" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A255" s="10"/>
+      <c r="B255" s="64"/>
+      <c r="C255" s="64"/>
+      <c r="D255" s="64"/>
+      <c r="E255" s="64"/>
+      <c r="F255" s="64"/>
+      <c r="G255" s="64"/>
+      <c r="H255" s="64"/>
+      <c r="I255" s="64"/>
+      <c r="J255" s="64"/>
+      <c r="K255" s="64"/>
+      <c r="L255" s="64"/>
+    </row>
+    <row r="256" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A256" s="10">
+        <v>223</v>
+      </c>
+      <c r="D256" s="47"/>
+      <c r="E256" s="47"/>
+      <c r="F256" s="47"/>
+      <c r="G256" s="47"/>
+      <c r="H256" s="47"/>
+      <c r="I256" s="47"/>
+      <c r="J256" s="47"/>
+      <c r="K256" s="47"/>
+    </row>
+    <row r="257" spans="1:12" s="65" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A257" s="10"/>
+      <c r="B257" s="64"/>
+      <c r="C257" s="64"/>
+      <c r="D257" s="64"/>
+      <c r="E257" s="64"/>
+      <c r="F257" s="64"/>
+      <c r="G257" s="64"/>
+      <c r="H257" s="64"/>
+      <c r="I257" s="64"/>
+      <c r="J257" s="64"/>
+      <c r="K257" s="64"/>
+      <c r="L257" s="64"/>
+    </row>
+    <row r="258" spans="1:12" s="65" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A258" s="10"/>
+      <c r="B258" s="64"/>
+      <c r="C258" s="64"/>
+      <c r="D258" s="64"/>
+      <c r="E258" s="64"/>
+      <c r="F258" s="64"/>
+      <c r="G258" s="64"/>
+      <c r="H258" s="64"/>
+      <c r="I258" s="64"/>
+      <c r="J258" s="64"/>
+      <c r="K258" s="64"/>
+      <c r="L258" s="64"/>
+    </row>
+    <row r="259" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A259" s="10">
+        <v>223</v>
+      </c>
+      <c r="D259" s="47"/>
+      <c r="E259" s="47"/>
+      <c r="F259" s="47"/>
+      <c r="G259" s="47"/>
+      <c r="H259" s="47"/>
+      <c r="I259" s="47"/>
+      <c r="J259" s="47"/>
+      <c r="K259" s="47"/>
+    </row>
+    <row r="260" spans="1:12" s="65" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A260" s="10"/>
+      <c r="B260" s="64"/>
+      <c r="C260" s="64"/>
+      <c r="D260" s="64"/>
+      <c r="E260" s="64"/>
+      <c r="F260" s="64"/>
+      <c r="G260" s="64"/>
+      <c r="H260" s="64"/>
+      <c r="I260" s="64"/>
+      <c r="J260" s="64"/>
+      <c r="K260" s="64"/>
+      <c r="L260" s="64"/>
+    </row>
+    <row r="261" spans="1:12" s="65" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A261" s="10"/>
+      <c r="B261" s="64"/>
+      <c r="C261" s="64"/>
+      <c r="D261" s="64"/>
+      <c r="E261" s="64"/>
+      <c r="F261" s="64"/>
+      <c r="G261" s="64"/>
+      <c r="H261" s="64"/>
+      <c r="I261" s="64"/>
+      <c r="J261" s="64"/>
+      <c r="K261" s="64"/>
+      <c r="L261" s="64"/>
+    </row>
+    <row r="262" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A262" s="10">
+        <v>223</v>
+      </c>
+      <c r="D262" s="47"/>
+      <c r="E262" s="47"/>
+      <c r="F262" s="47"/>
+      <c r="G262" s="47"/>
+      <c r="H262" s="47"/>
+      <c r="I262" s="47"/>
+      <c r="J262" s="47"/>
+      <c r="K262" s="47"/>
+    </row>
+    <row r="263" spans="1:12" s="65" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A263" s="10"/>
+      <c r="B263" s="64"/>
+      <c r="C263" s="64"/>
+      <c r="D263" s="64"/>
+      <c r="E263" s="64"/>
+      <c r="F263" s="64"/>
+      <c r="G263" s="64"/>
+      <c r="H263" s="64"/>
+      <c r="I263" s="64"/>
+      <c r="J263" s="64"/>
+      <c r="K263" s="64"/>
+      <c r="L263" s="64"/>
+    </row>
+    <row r="264" spans="1:12" s="65" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A264" s="10"/>
+      <c r="B264" s="64"/>
+      <c r="C264" s="64"/>
+      <c r="D264" s="64"/>
+      <c r="E264" s="64"/>
+      <c r="F264" s="64"/>
+      <c r="G264" s="64"/>
+      <c r="H264" s="64"/>
+      <c r="I264" s="64"/>
+      <c r="J264" s="64"/>
+      <c r="K264" s="64"/>
+      <c r="L264" s="64"/>
+    </row>
+    <row r="265" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A265" s="10">
+        <v>223</v>
+      </c>
+      <c r="D265" s="47"/>
+      <c r="E265" s="47"/>
+      <c r="F265" s="47"/>
+      <c r="G265" s="47"/>
+      <c r="H265" s="47"/>
+      <c r="I265" s="47"/>
+      <c r="J265" s="47"/>
+      <c r="K265" s="47"/>
+    </row>
+    <row r="266" spans="1:12" s="65" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A266" s="10"/>
+      <c r="B266" s="64"/>
+      <c r="C266" s="64"/>
+      <c r="D266" s="64"/>
+      <c r="E266" s="64"/>
+      <c r="F266" s="64"/>
+      <c r="G266" s="64"/>
+      <c r="H266" s="64"/>
+      <c r="I266" s="64"/>
+      <c r="J266" s="64"/>
+      <c r="K266" s="64"/>
+      <c r="L266" s="64"/>
+    </row>
+    <row r="267" spans="1:12" s="65" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A267" s="10"/>
+      <c r="B267" s="64"/>
+      <c r="C267" s="64"/>
+      <c r="D267" s="64"/>
+      <c r="E267" s="64"/>
+      <c r="F267" s="64"/>
+      <c r="G267" s="64"/>
+      <c r="H267" s="64"/>
+      <c r="I267" s="64"/>
+      <c r="J267" s="64"/>
+      <c r="K267" s="64"/>
+      <c r="L267" s="64"/>
+    </row>
+    <row r="268" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A268" s="10">
+        <v>223</v>
+      </c>
+      <c r="D268" s="47"/>
+      <c r="E268" s="47"/>
+      <c r="F268" s="47"/>
+      <c r="G268" s="47"/>
+      <c r="H268" s="47"/>
+      <c r="I268" s="47"/>
+      <c r="J268" s="47"/>
+      <c r="K268" s="47"/>
+    </row>
+    <row r="269" spans="1:12" s="65" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A269" s="10"/>
+      <c r="B269" s="64"/>
+      <c r="C269" s="64"/>
+      <c r="D269" s="64"/>
+      <c r="E269" s="64"/>
+      <c r="F269" s="64"/>
+      <c r="G269" s="64"/>
+      <c r="H269" s="64"/>
+      <c r="I269" s="64"/>
+      <c r="J269" s="64"/>
+      <c r="K269" s="64"/>
+      <c r="L269" s="64"/>
+    </row>
+    <row r="270" spans="1:12" s="65" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A270" s="10"/>
+      <c r="B270" s="64"/>
+      <c r="C270" s="64"/>
+      <c r="D270" s="64"/>
+      <c r="E270" s="64"/>
+      <c r="F270" s="64"/>
+      <c r="G270" s="64"/>
+      <c r="H270" s="64"/>
+      <c r="I270" s="64"/>
+      <c r="J270" s="64"/>
+      <c r="K270" s="64"/>
+      <c r="L270" s="64"/>
+    </row>
+    <row r="271" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A271" s="10">
+        <v>223</v>
+      </c>
+      <c r="D271" s="47"/>
+      <c r="E271" s="47"/>
+      <c r="F271" s="47"/>
+      <c r="G271" s="47"/>
+      <c r="H271" s="47"/>
+      <c r="I271" s="47"/>
+      <c r="J271" s="47"/>
+      <c r="K271" s="47"/>
+    </row>
+    <row r="272" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A272" s="10">
+        <v>224</v>
+      </c>
+      <c r="E272">
+        <f>COUNTA(E2:E158)</f>
+        <v>146</v>
+      </c>
+      <c r="F272">
         <f>COUNTA(F2:F100)</f>
         <v>65</v>
       </c>
-      <c r="G199">
-        <f>SUM(G2:G198)</f>
-        <v>112</v>
+      <c r="G272">
+        <f>SUM(G2:G216)</f>
+        <v>117</v>
+      </c>
+    </row>
+    <row r="273" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A273" s="10">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="274" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A274" s="10">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="275" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A275" s="10">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="276" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A276" s="10">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="277" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A277" s="10">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="278" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A278" s="10">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="279" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A279" s="10">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="280" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A280" s="10">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="281" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A281" s="10">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="282" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A282" s="10">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="283" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A283" s="10">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="284" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A284" s="10">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="285" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A285" s="10">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="286" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A286" s="10">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="287" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A287" s="10">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="288" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A288" s="10">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="289" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A289" s="10">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="290" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A290" s="10">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="291" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A291" s="10">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="292" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A292" s="10">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="293" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A293" s="10">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="294" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A294" s="10">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="295" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A295" s="10">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="296" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A296" s="10">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="297" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A297" s="10">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="298" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A298" s="10">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="299" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A299" s="10">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="300" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A300" s="10">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="301" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A301" s="10">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="302" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A302" s="10">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="303" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A303" s="10">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="304" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A304" s="10">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="305" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A305" s="10">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="306" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A306" s="10">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="307" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A307" s="10">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="308" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A308" s="10">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="309" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A309" s="10">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="310" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A310" s="10">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="311" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A311" s="10">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="312" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A312" s="10">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="313" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A313" s="10">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="314" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A314" s="10">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="315" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A315" s="10">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="316" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A316" s="10">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="317" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A317" s="10">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="318" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A318" s="10">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="319" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A319" s="10">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="320" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A320" s="10">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="321" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A321" s="10">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="322" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A322" s="10">
+        <v>274</v>
       </c>
     </row>
   </sheetData>
   <sortState ref="A1:K133">
     <sortCondition ref="A1"/>
   </sortState>
-  <mergeCells count="3">
-    <mergeCell ref="C154:C157"/>
-    <mergeCell ref="C163:C164"/>
+  <mergeCells count="6">
+    <mergeCell ref="C158:C162"/>
+    <mergeCell ref="C156:C157"/>
+    <mergeCell ref="C163:C165"/>
     <mergeCell ref="C145:C150"/>
+    <mergeCell ref="C151:C152"/>
+    <mergeCell ref="C153:C155"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D55" r:id="rId1"/>
@@ -5750,8 +7545,8 @@
   <dimension ref="A1:X163"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A94" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E142" sqref="E142"/>
+      <pane ySplit="1" topLeftCell="A112" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I131" sqref="I131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6228,7 +8023,7 @@
     </row>
     <row r="18" spans="1:14" ht="18" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
-      <c r="B18" s="46" t="s">
+      <c r="B18" s="43" t="s">
         <v>256</v>
       </c>
       <c r="C18" s="1"/>
@@ -6262,7 +8057,7 @@
     </row>
     <row r="19" spans="1:14" ht="18" x14ac:dyDescent="0.2">
       <c r="A19" s="1"/>
-      <c r="B19" s="47"/>
+      <c r="B19" s="44"/>
       <c r="C19" s="1">
         <v>100</v>
       </c>
@@ -6296,7 +8091,7 @@
     </row>
     <row r="20" spans="1:14" ht="18" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
-      <c r="B20" s="47"/>
+      <c r="B20" s="44"/>
       <c r="C20" s="1">
         <v>101</v>
       </c>
@@ -6324,7 +8119,7 @@
     </row>
     <row r="21" spans="1:14" ht="18" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>
-      <c r="B21" s="47"/>
+      <c r="B21" s="44"/>
       <c r="C21" s="1">
         <v>172</v>
       </c>
@@ -6585,7 +8380,7 @@
     </row>
     <row r="30" spans="1:14" ht="18" x14ac:dyDescent="0.2">
       <c r="A30" s="1"/>
-      <c r="B30" s="48" t="s">
+      <c r="B30" s="45" t="s">
         <v>297</v>
       </c>
       <c r="C30" s="1"/>
@@ -6621,7 +8416,7 @@
       </c>
     </row>
     <row r="31" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B31" s="48"/>
+      <c r="B31" s="45"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1">
         <v>628</v>
@@ -6655,7 +8450,7 @@
       </c>
     </row>
     <row r="32" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B32" s="49" t="s">
+      <c r="B32" s="46" t="s">
         <v>254</v>
       </c>
       <c r="C32" s="1">
@@ -6687,7 +8482,7 @@
       </c>
     </row>
     <row r="33" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B33" s="49"/>
+      <c r="B33" s="46"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1">
         <v>645</v>
@@ -6715,7 +8510,7 @@
       <c r="A34" t="s">
         <v>246</v>
       </c>
-      <c r="B34" s="49"/>
+      <c r="B34" s="46"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1">
         <v>448</v>
@@ -6743,7 +8538,7 @@
       </c>
     </row>
     <row r="35" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B35" s="49"/>
+      <c r="B35" s="46"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1">
         <v>442</v>
@@ -6768,7 +8563,7 @@
       </c>
     </row>
     <row r="36" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B36" s="49"/>
+      <c r="B36" s="46"/>
       <c r="C36" s="1">
         <v>633</v>
       </c>
@@ -6795,7 +8590,7 @@
       </c>
     </row>
     <row r="37" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B37" s="49"/>
+      <c r="B37" s="46"/>
       <c r="C37" s="1">
         <v>189</v>
       </c>
@@ -6822,7 +8617,7 @@
       </c>
     </row>
     <row r="38" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B38" s="49" t="s">
+      <c r="B38" s="46" t="s">
         <v>301</v>
       </c>
       <c r="C38" s="1">
@@ -6857,7 +8652,7 @@
       </c>
     </row>
     <row r="39" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B39" s="49"/>
+      <c r="B39" s="46"/>
       <c r="C39" s="1">
         <v>47</v>
       </c>
@@ -6884,13 +8679,13 @@
       </c>
     </row>
     <row r="40" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B40" s="38"/>
+      <c r="B40" s="37"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1">
         <v>632</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="G40" s="1" t="s">
         <v>253</v>
@@ -6898,7 +8693,7 @@
       <c r="L40" s="5"/>
     </row>
     <row r="41" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B41" s="39"/>
+      <c r="B41" s="38"/>
       <c r="C41" s="1"/>
       <c r="E41" s="2"/>
       <c r="G41" s="1"/>
@@ -8831,10 +10626,10 @@
       <c r="G127" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="H127" s="1">
-        <v>1</v>
-      </c>
-      <c r="I127" s="1">
+      <c r="H127">
+        <v>1</v>
+      </c>
+      <c r="I127">
         <v>1</v>
       </c>
     </row>
@@ -8904,7 +10699,7 @@
       <c r="G131" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="H131" s="1">
+      <c r="H131">
         <v>1</v>
       </c>
     </row>
@@ -8970,7 +10765,7 @@
         <v>623</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="F139" s="3"/>
       <c r="G139" s="1" t="s">

--- a/mycode/刷题统计.xlsx
+++ b/mycode/刷题统计.xlsx
@@ -9,11 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="6700" yWindow="500" windowWidth="18180" windowHeight="14180" tabRatio="500"/>
+    <workbookView xWindow="1000" yWindow="760" windowWidth="20960" windowHeight="14180" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="694" uniqueCount="400">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="797" uniqueCount="488">
   <si>
     <t>1 binary search</t>
   </si>
@@ -1228,13 +1229,279 @@
   </si>
   <si>
     <t>Number of Islands II</t>
+  </si>
+  <si>
+    <t>interleaving string</t>
+  </si>
+  <si>
+    <t>longest increasing subsequence</t>
+  </si>
+  <si>
+    <t>longest common subsequence</t>
+  </si>
+  <si>
+    <t>longest common substring</t>
+  </si>
+  <si>
+    <t>word break</t>
+  </si>
+  <si>
+    <t>palimdrome partition ii</t>
+  </si>
+  <si>
+    <t>triangle</t>
+  </si>
+  <si>
+    <t>climbing stairs</t>
+  </si>
+  <si>
+    <t>unique paths ii</t>
+  </si>
+  <si>
+    <t>unique paths</t>
+  </si>
+  <si>
+    <t>jump game</t>
+  </si>
+  <si>
+    <t>jump game ii</t>
+  </si>
+  <si>
+    <t>distinct subsequences</t>
+  </si>
+  <si>
+    <t>edit distance</t>
+  </si>
+  <si>
+    <t>longest palindromic substring</t>
+  </si>
+  <si>
+    <t>coins in a line</t>
+  </si>
+  <si>
+    <t>climbing stairs ii</t>
+  </si>
+  <si>
+    <t>perfect squares</t>
+  </si>
+  <si>
+    <t>dop eggs ii</t>
+  </si>
+  <si>
+    <t>russian doll envelps</t>
+  </si>
+  <si>
+    <t>largest divisible subset</t>
+  </si>
+  <si>
+    <t>knight shortest path ii</t>
+  </si>
+  <si>
+    <t>坐标型</t>
+  </si>
+  <si>
+    <t>最大最小</t>
+  </si>
+  <si>
+    <t>方案总数</t>
+  </si>
+  <si>
+    <t>单序列</t>
+  </si>
+  <si>
+    <t>双序列</t>
+  </si>
+  <si>
+    <t>可行</t>
+  </si>
+  <si>
+    <t>backpack</t>
+  </si>
+  <si>
+    <t>backpack ii</t>
+  </si>
+  <si>
+    <t>min adjustment cost</t>
+  </si>
+  <si>
+    <t>k sum</t>
+  </si>
+  <si>
+    <t>背包</t>
+  </si>
+  <si>
+    <t>burst bolloons</t>
+  </si>
+  <si>
+    <t>house robber</t>
+  </si>
+  <si>
+    <t>coins in a line ii</t>
+  </si>
+  <si>
+    <t>coins in a line iii</t>
+  </si>
+  <si>
+    <t>longest increasing continuous subsequence</t>
+  </si>
+  <si>
+    <t>longest increasing continuous subsequence ii</t>
+  </si>
+  <si>
+    <t>stone game ii</t>
+  </si>
+  <si>
+    <t>scramble string</t>
+  </si>
+  <si>
+    <t>backpack iii</t>
+  </si>
+  <si>
+    <t>stone game</t>
+  </si>
+  <si>
+    <t>house robber ii</t>
+  </si>
+  <si>
+    <t>hash set</t>
+  </si>
+  <si>
+    <t>queue</t>
+  </si>
+  <si>
+    <t>from Queue import Queue</t>
+  </si>
+  <si>
+    <t>q.put(item)</t>
+  </si>
+  <si>
+    <t>把item压入队尾</t>
+  </si>
+  <si>
+    <t>q = Queue()</t>
+  </si>
+  <si>
+    <t>q.get()</t>
+  </si>
+  <si>
+    <t>把item从队头取出</t>
+  </si>
+  <si>
+    <t>其中queue是要处理的array</t>
+  </si>
+  <si>
+    <t>q.qsize()</t>
+  </si>
+  <si>
+    <t>长度</t>
+  </si>
+  <si>
+    <t>题69</t>
+  </si>
+  <si>
+    <t>heapq</t>
+  </si>
+  <si>
+    <t>import heapq</t>
+  </si>
+  <si>
+    <t>heapq.heappush(heap, item)</t>
+  </si>
+  <si>
+    <t>:将item压入到堆数组heap中</t>
+  </si>
+  <si>
+    <t>其中heap是要处理的array或list</t>
+  </si>
+  <si>
+    <t>heapq.heappop(heap)</t>
+  </si>
+  <si>
+    <t>:从堆数组heap中取出最小的值，并返回</t>
+  </si>
+  <si>
+    <t>heapq.heappushpop(heap, item)</t>
+  </si>
+  <si>
+    <t>)先操作了heappush(heap,item),然后操作heappop(heap)</t>
+  </si>
+  <si>
+    <t>题 104，</t>
+  </si>
+  <si>
+    <t>heapq.heapify(x)</t>
+  </si>
+  <si>
+    <t>x必须是list，此函数将list变成堆，实时操作</t>
+  </si>
+  <si>
+    <t>注意加入array的时候不要用append，要用heappush</t>
+  </si>
+  <si>
+    <t>heapq.heapreplace(heap, item)</t>
+  </si>
+  <si>
+    <t>是heappop(heap)和heappush(heap,item)的联合操作。注意，与heappushpop(heap,item)的区别在于，顺序不同，这里是先进行删除，后压入堆</t>
+  </si>
+  <si>
+    <t>heapq.merge(*iterables)</t>
+  </si>
+  <si>
+    <t>a=[2,4,6] ; b=[1,3,5]; c=merge(a,b)
+&gt;&gt;&gt; list(c)
+[1, 2, 3, 4, 5, 6]</t>
+  </si>
+  <si>
+    <t>heapq.nsmallest(n, iterable[, key])¶</t>
+  </si>
+  <si>
+    <t>求前n个最小的，相当于sorted(iterable, key=key)[:n]</t>
+  </si>
+  <si>
+    <t>heapq.nlargest(n, iterable[, key])</t>
+  </si>
+  <si>
+    <t>求最大时；相当于sorted(iterable, key=key, reverse=True)[:n]</t>
+  </si>
+  <si>
+    <t>dict</t>
+  </si>
+  <si>
+    <t>hash.setdefault(key,0)</t>
+  </si>
+  <si>
+    <t>找key的value，如果没有，value=0</t>
+  </si>
+  <si>
+    <t>import collections</t>
+  </si>
+  <si>
+    <t>hash = collections.defaultdict(list) ；hash[key].append(value)</t>
+  </si>
+  <si>
+    <t>每次往里存(key,value)时，value是往array里append值</t>
+  </si>
+  <si>
+    <t>问题</t>
+  </si>
+  <si>
+    <t>需要讲</t>
+  </si>
+  <si>
+    <t>binary的方法理解</t>
+  </si>
+  <si>
+    <t>再练</t>
+  </si>
+  <si>
+    <t>思路不太一样，这个是往后找</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1284,6 +1551,44 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Menlo"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF333333"/>
+      <name val="-apple-system"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF333333"/>
+      <name val="-apple-system"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF000080"/>
+      <name val="Menlo"/>
     </font>
   </fonts>
   <fills count="15">
@@ -1372,7 +1677,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -1478,8 +1783,64 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="double">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="double">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="double">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="double">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="74">
+  <cellStyleXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1554,8 +1915,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="7"/>
@@ -1600,13 +1964,70 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="16" fontId="3" fillId="9" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="3" fillId="11" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="10" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="3" fillId="11" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="12" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1621,39 +2042,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="3" fillId="11" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="10" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="16" fontId="3" fillId="11" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="74">
+  <cellStyles count="77">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1723,6 +2113,9 @@
     <cellStyle name="Followed Hyperlink" xfId="71" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="72" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="73" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="75" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="76" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1734,8 +2127,8 @@
   <colors>
     <mruColors>
       <color rgb="FFE3FFFD"/>
+      <color rgb="FFFFDEF0"/>
       <color rgb="FFDDFFD3"/>
-      <color rgb="FFFFDEF0"/>
     </mruColors>
   </colors>
   <extLst>
@@ -2011,9 +2404,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M322"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A233" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C233" sqref="C233"/>
+    <sheetView tabSelected="1" showRuler="0" zoomScale="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A218" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D236" sqref="D236"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2389,7 +2782,7 @@
       </c>
       <c r="K16" s="12"/>
     </row>
-    <row r="17" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="10">
         <v>16</v>
       </c>
@@ -2399,9 +2792,17 @@
       <c r="E17" s="10">
         <v>459</v>
       </c>
-      <c r="K17" s="12"/>
-    </row>
-    <row r="18" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G17" s="10">
+        <v>1</v>
+      </c>
+      <c r="H17" s="10">
+        <v>1</v>
+      </c>
+      <c r="K17" s="11">
+        <v>42964</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="10">
         <v>17</v>
       </c>
@@ -2414,9 +2815,17 @@
       <c r="F18" s="10">
         <v>658</v>
       </c>
-      <c r="K18" s="12"/>
-    </row>
-    <row r="19" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G18" s="10">
+        <v>1</v>
+      </c>
+      <c r="H18" s="10">
+        <v>1</v>
+      </c>
+      <c r="K18" s="11">
+        <v>42964</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="10">
         <v>18</v>
       </c>
@@ -2428,7 +2837,7 @@
       </c>
       <c r="K19" s="12"/>
     </row>
-    <row r="20" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="10">
         <v>19</v>
       </c>
@@ -2440,7 +2849,7 @@
       </c>
       <c r="K20" s="12"/>
     </row>
-    <row r="21" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="10">
         <v>20</v>
       </c>
@@ -2458,7 +2867,7 @@
       </c>
       <c r="K21" s="12"/>
     </row>
-    <row r="22" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="10">
         <v>21</v>
       </c>
@@ -2471,12 +2880,20 @@
       <c r="F22" s="10">
         <v>29</v>
       </c>
+      <c r="G22" s="10">
+        <v>1</v>
+      </c>
       <c r="H22" s="10">
         <v>2</v>
       </c>
-      <c r="K22" s="12"/>
-    </row>
-    <row r="23" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="K22" s="11">
+        <v>42964</v>
+      </c>
+      <c r="L22" s="10" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="10">
         <v>22</v>
       </c>
@@ -2488,7 +2905,7 @@
       </c>
       <c r="K23" s="12"/>
     </row>
-    <row r="24" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="10">
         <v>23</v>
       </c>
@@ -2503,7 +2920,7 @@
       </c>
       <c r="K24" s="12"/>
     </row>
-    <row r="25" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="10">
         <v>24</v>
       </c>
@@ -2526,7 +2943,7 @@
         <v>42913</v>
       </c>
     </row>
-    <row r="26" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="10">
         <v>25</v>
       </c>
@@ -2549,7 +2966,7 @@
         <v>42913</v>
       </c>
     </row>
-    <row r="27" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="10">
         <v>26</v>
       </c>
@@ -2572,7 +2989,7 @@
         <v>42913</v>
       </c>
     </row>
-    <row r="28" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="10">
         <v>27</v>
       </c>
@@ -2598,7 +3015,7 @@
         <v>42913</v>
       </c>
     </row>
-    <row r="29" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="10">
         <v>28</v>
       </c>
@@ -2618,7 +3035,7 @@
         <v>42913</v>
       </c>
     </row>
-    <row r="30" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="10">
         <v>29</v>
       </c>
@@ -2644,7 +3061,7 @@
         <v>42914</v>
       </c>
     </row>
-    <row r="31" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="10">
         <v>30</v>
       </c>
@@ -2673,7 +3090,7 @@
         <v>42915</v>
       </c>
     </row>
-    <row r="32" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="10">
         <v>31</v>
       </c>
@@ -4989,7 +5406,7 @@
       <c r="B145" s="34" t="s">
         <v>339</v>
       </c>
-      <c r="C145" s="40" t="s">
+      <c r="C145" s="70" t="s">
         <v>350</v>
       </c>
       <c r="D145" s="34" t="s">
@@ -5018,7 +5435,7 @@
       <c r="A146" s="10">
         <v>145</v>
       </c>
-      <c r="C146" s="41"/>
+      <c r="C146" s="75"/>
       <c r="D146" s="34" t="s">
         <v>342</v>
       </c>
@@ -5045,7 +5462,7 @@
       <c r="A147" s="10">
         <v>146</v>
       </c>
-      <c r="C147" s="41"/>
+      <c r="C147" s="75"/>
       <c r="D147" s="34" t="s">
         <v>343</v>
       </c>
@@ -5072,7 +5489,7 @@
       <c r="A148" s="10">
         <v>147</v>
       </c>
-      <c r="C148" s="41"/>
+      <c r="C148" s="75"/>
       <c r="D148" s="34" t="s">
         <v>309</v>
       </c>
@@ -5096,7 +5513,7 @@
       <c r="A149" s="10">
         <v>148</v>
       </c>
-      <c r="C149" s="41"/>
+      <c r="C149" s="75"/>
       <c r="D149" s="34" t="s">
         <v>317</v>
       </c>
@@ -5120,7 +5537,7 @@
       <c r="A150" s="10">
         <v>149</v>
       </c>
-      <c r="C150" s="42"/>
+      <c r="C150" s="71"/>
       <c r="D150" s="34" t="s">
         <v>318</v>
       </c>
@@ -5144,7 +5561,7 @@
       <c r="A151" s="10">
         <v>150</v>
       </c>
-      <c r="C151" s="40" t="s">
+      <c r="C151" s="70" t="s">
         <v>356</v>
       </c>
       <c r="D151" s="34" t="s">
@@ -5159,10 +5576,10 @@
       <c r="H151" s="34">
         <v>2</v>
       </c>
-      <c r="J151" s="48" t="s">
-        <v>77</v>
-      </c>
-      <c r="K151" s="59">
+      <c r="J151" s="41" t="s">
+        <v>77</v>
+      </c>
+      <c r="K151" s="49">
         <v>42963</v>
       </c>
     </row>
@@ -5170,7 +5587,7 @@
       <c r="A152" s="10">
         <v>151</v>
       </c>
-      <c r="C152" s="42"/>
+      <c r="C152" s="71"/>
       <c r="D152" s="34" t="s">
         <v>330</v>
       </c>
@@ -5186,10 +5603,10 @@
       <c r="H152" s="34">
         <v>2</v>
       </c>
-      <c r="J152" s="48" t="s">
-        <v>77</v>
-      </c>
-      <c r="K152" s="59">
+      <c r="J152" s="41" t="s">
+        <v>77</v>
+      </c>
+      <c r="K152" s="49">
         <v>42963</v>
       </c>
     </row>
@@ -5197,7 +5614,7 @@
       <c r="A153" s="10">
         <v>152</v>
       </c>
-      <c r="C153" s="40" t="s">
+      <c r="C153" s="70" t="s">
         <v>351</v>
       </c>
       <c r="D153" s="34" t="s">
@@ -5223,7 +5640,7 @@
       <c r="A154" s="10">
         <v>153</v>
       </c>
-      <c r="C154" s="41"/>
+      <c r="C154" s="75"/>
       <c r="D154" s="34" t="s">
         <v>321</v>
       </c>
@@ -5247,7 +5664,7 @@
       <c r="A155" s="10">
         <v>154</v>
       </c>
-      <c r="C155" s="42"/>
+      <c r="C155" s="71"/>
       <c r="D155" s="34" t="s">
         <v>322</v>
       </c>
@@ -5265,7 +5682,7 @@
       <c r="A156" s="10">
         <v>155</v>
       </c>
-      <c r="C156" s="40" t="s">
+      <c r="C156" s="70" t="s">
         <v>358</v>
       </c>
       <c r="D156" s="34" t="s">
@@ -5294,7 +5711,7 @@
       <c r="A157" s="10">
         <v>156</v>
       </c>
-      <c r="C157" s="42"/>
+      <c r="C157" s="71"/>
       <c r="D157" s="34" t="s">
         <v>354</v>
       </c>
@@ -5318,1936 +5735,2017 @@
       <c r="A158" s="10">
         <v>157</v>
       </c>
-      <c r="B158" s="48"/>
-      <c r="C158" s="49" t="s">
+      <c r="B158" s="41"/>
+      <c r="C158" s="72" t="s">
         <v>357</v>
       </c>
-      <c r="D158" s="48" t="s">
+      <c r="D158" s="41" t="s">
         <v>332</v>
       </c>
-      <c r="E158" s="48">
+      <c r="E158" s="41">
         <v>480</v>
       </c>
-      <c r="F158" s="48">
+      <c r="F158" s="41">
         <v>257</v>
       </c>
-      <c r="G158" s="48">
-        <v>1</v>
-      </c>
-      <c r="H158" s="48">
-        <v>1</v>
-      </c>
-      <c r="I158" s="48"/>
-      <c r="J158" s="48" t="s">
-        <v>77</v>
-      </c>
-      <c r="K158" s="50">
+      <c r="G158" s="41">
+        <v>1</v>
+      </c>
+      <c r="H158" s="41">
+        <v>1</v>
+      </c>
+      <c r="I158" s="41"/>
+      <c r="J158" s="41" t="s">
+        <v>77</v>
+      </c>
+      <c r="K158" s="42">
         <v>42962</v>
       </c>
-      <c r="L158" s="48"/>
+      <c r="L158" s="41"/>
     </row>
     <row r="159" spans="1:12" s="34" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A159" s="10">
         <v>158</v>
       </c>
-      <c r="B159" s="48"/>
-      <c r="C159" s="51"/>
-      <c r="D159" s="48" t="s">
+      <c r="B159" s="41"/>
+      <c r="C159" s="73"/>
+      <c r="D159" s="41" t="s">
         <v>352</v>
       </c>
-      <c r="E159" s="48"/>
-      <c r="F159" s="48">
+      <c r="E159" s="41"/>
+      <c r="F159" s="41">
         <v>112</v>
       </c>
-      <c r="G159" s="48">
-        <v>1</v>
-      </c>
-      <c r="H159" s="48">
-        <v>1</v>
-      </c>
-      <c r="I159" s="48"/>
-      <c r="J159" s="48" t="s">
-        <v>77</v>
-      </c>
-      <c r="K159" s="50">
+      <c r="G159" s="41">
+        <v>1</v>
+      </c>
+      <c r="H159" s="41">
+        <v>1</v>
+      </c>
+      <c r="I159" s="41"/>
+      <c r="J159" s="41" t="s">
+        <v>77</v>
+      </c>
+      <c r="K159" s="42">
         <v>42962</v>
       </c>
-      <c r="L159" s="48"/>
+      <c r="L159" s="41"/>
     </row>
     <row r="160" spans="1:12" s="34" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A160" s="10">
         <v>159</v>
       </c>
-      <c r="B160" s="48"/>
-      <c r="C160" s="51"/>
-      <c r="D160" s="48" t="s">
+      <c r="B160" s="41"/>
+      <c r="C160" s="73"/>
+      <c r="D160" s="41" t="s">
         <v>324</v>
       </c>
-      <c r="E160" s="48">
+      <c r="E160" s="41">
         <v>376</v>
       </c>
-      <c r="F160" s="48">
+      <c r="F160" s="41">
         <v>113</v>
       </c>
-      <c r="G160" s="48">
-        <v>1</v>
-      </c>
-      <c r="H160" s="48">
+      <c r="G160" s="41">
+        <v>1</v>
+      </c>
+      <c r="H160" s="41">
         <v>2</v>
       </c>
-      <c r="I160" s="48"/>
-      <c r="J160" s="48" t="s">
-        <v>77</v>
-      </c>
-      <c r="K160" s="50">
+      <c r="I160" s="41"/>
+      <c r="J160" s="41" t="s">
+        <v>77</v>
+      </c>
+      <c r="K160" s="42">
         <v>42962</v>
       </c>
-      <c r="L160" s="48"/>
+      <c r="L160" s="41"/>
     </row>
     <row r="161" spans="1:12" s="34" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A161" s="10">
         <v>160</v>
       </c>
-      <c r="B161" s="48"/>
-      <c r="C161" s="51"/>
-      <c r="D161" s="48" t="s">
+      <c r="B161" s="41"/>
+      <c r="C161" s="73"/>
+      <c r="D161" s="41" t="s">
         <v>328</v>
       </c>
-      <c r="E161" s="48">
+      <c r="E161" s="41">
         <v>246</v>
       </c>
-      <c r="F161" s="48">
+      <c r="F161" s="41">
         <v>437</v>
       </c>
-      <c r="G161" s="48">
-        <v>1</v>
-      </c>
-      <c r="H161" s="48">
+      <c r="G161" s="41">
+        <v>1</v>
+      </c>
+      <c r="H161" s="41">
         <v>2</v>
       </c>
-      <c r="I161" s="48"/>
-      <c r="J161" s="48" t="s">
-        <v>77</v>
-      </c>
-      <c r="K161" s="59">
+      <c r="I161" s="41"/>
+      <c r="J161" s="41" t="s">
+        <v>77</v>
+      </c>
+      <c r="K161" s="49">
         <v>42962</v>
       </c>
-      <c r="L161" s="48"/>
+      <c r="L161" s="41"/>
     </row>
     <row r="162" spans="1:12" s="34" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A162" s="10">
         <v>161</v>
       </c>
-      <c r="B162" s="48"/>
-      <c r="C162" s="52"/>
-      <c r="D162" s="48" t="s">
+      <c r="B162" s="41"/>
+      <c r="C162" s="74"/>
+      <c r="D162" s="41" t="s">
         <v>331</v>
       </c>
-      <c r="E162" s="48">
+      <c r="E162" s="41">
         <v>472</v>
       </c>
-      <c r="F162" s="48"/>
-      <c r="G162" s="48">
-        <v>1</v>
-      </c>
-      <c r="H162" s="48">
+      <c r="F162" s="41"/>
+      <c r="G162" s="41">
+        <v>1</v>
+      </c>
+      <c r="H162" s="41">
         <v>2</v>
       </c>
-      <c r="I162" s="48"/>
-      <c r="J162" s="48" t="s">
-        <v>77</v>
-      </c>
-      <c r="K162" s="59">
+      <c r="I162" s="41"/>
+      <c r="J162" s="41" t="s">
+        <v>77</v>
+      </c>
+      <c r="K162" s="49">
         <v>42962</v>
       </c>
-      <c r="L162" s="48"/>
+      <c r="L162" s="41"/>
     </row>
     <row r="163" spans="1:12" s="34" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A163" s="10">
         <v>162</v>
       </c>
-      <c r="B163" s="48"/>
-      <c r="C163" s="49" t="s">
+      <c r="B163" s="41"/>
+      <c r="C163" s="72" t="s">
         <v>359</v>
       </c>
-      <c r="D163" s="48" t="s">
+      <c r="D163" s="41" t="s">
         <v>334</v>
       </c>
-      <c r="E163" s="48">
+      <c r="E163" s="41">
         <v>595</v>
       </c>
-      <c r="F163" s="48">
+      <c r="F163" s="41">
         <v>298</v>
       </c>
-      <c r="G163" s="48">
-        <v>1</v>
-      </c>
-      <c r="H163" s="48">
+      <c r="G163" s="41">
+        <v>1</v>
+      </c>
+      <c r="H163" s="41">
         <v>2</v>
       </c>
-      <c r="I163" s="48"/>
-      <c r="J163" s="48" t="s">
-        <v>77</v>
-      </c>
-      <c r="K163" s="59">
+      <c r="I163" s="41"/>
+      <c r="J163" s="41" t="s">
+        <v>77</v>
+      </c>
+      <c r="K163" s="49">
         <v>42962</v>
       </c>
-      <c r="L163" s="48"/>
+      <c r="L163" s="41"/>
     </row>
     <row r="164" spans="1:12" s="34" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A164" s="10">
         <v>163</v>
       </c>
-      <c r="B164" s="48"/>
-      <c r="C164" s="51"/>
-      <c r="D164" s="48" t="s">
+      <c r="B164" s="41"/>
+      <c r="C164" s="73"/>
+      <c r="D164" s="41" t="s">
         <v>337</v>
       </c>
-      <c r="E164" s="48">
+      <c r="E164" s="41">
         <v>614</v>
       </c>
-      <c r="F164" s="48">
+      <c r="F164" s="41">
         <v>549</v>
       </c>
-      <c r="G164" s="48">
-        <v>1</v>
-      </c>
-      <c r="H164" s="48">
+      <c r="G164" s="41">
+        <v>1</v>
+      </c>
+      <c r="H164" s="41">
         <v>2</v>
       </c>
-      <c r="I164" s="48"/>
-      <c r="J164" s="48" t="s">
-        <v>77</v>
-      </c>
-      <c r="K164" s="59">
+      <c r="I164" s="41"/>
+      <c r="J164" s="41" t="s">
+        <v>77</v>
+      </c>
+      <c r="K164" s="49">
         <v>42963</v>
       </c>
-      <c r="L164" s="48"/>
+      <c r="L164" s="41"/>
     </row>
     <row r="165" spans="1:12" s="34" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A165" s="10">
         <v>164</v>
       </c>
-      <c r="B165" s="48"/>
-      <c r="C165" s="52"/>
-      <c r="D165" s="48" t="s">
+      <c r="B165" s="41"/>
+      <c r="C165" s="74"/>
+      <c r="D165" s="41" t="s">
         <v>338</v>
       </c>
-      <c r="E165" s="48">
+      <c r="E165" s="41">
         <v>619</v>
       </c>
-      <c r="F165" s="48"/>
-      <c r="G165" s="48">
-        <v>1</v>
-      </c>
-      <c r="H165" s="48">
+      <c r="F165" s="41"/>
+      <c r="G165" s="41">
+        <v>1</v>
+      </c>
+      <c r="H165" s="41">
         <v>2</v>
       </c>
-      <c r="I165" s="48"/>
-      <c r="J165" s="48" t="s">
-        <v>77</v>
-      </c>
-      <c r="K165" s="59">
+      <c r="I165" s="41"/>
+      <c r="J165" s="41" t="s">
+        <v>77</v>
+      </c>
+      <c r="K165" s="49">
         <v>42963</v>
       </c>
-      <c r="L165" s="48"/>
+      <c r="L165" s="41"/>
     </row>
     <row r="166" spans="1:12" s="34" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A166" s="10">
         <v>165</v>
       </c>
-      <c r="B166" s="48"/>
-      <c r="C166" s="54" t="s">
+      <c r="B166" s="41"/>
+      <c r="C166" s="44" t="s">
         <v>313</v>
       </c>
-      <c r="D166" s="48" t="s">
+      <c r="D166" s="41" t="s">
         <v>313</v>
       </c>
-      <c r="E166" s="48">
+      <c r="E166" s="41">
         <v>88</v>
       </c>
-      <c r="F166" s="48">
+      <c r="F166" s="41">
         <v>236</v>
       </c>
-      <c r="G166" s="48">
-        <v>1</v>
-      </c>
-      <c r="H166" s="48">
+      <c r="G166" s="41">
+        <v>1</v>
+      </c>
+      <c r="H166" s="41">
         <v>2</v>
       </c>
-      <c r="I166" s="48"/>
-      <c r="J166" s="48" t="s">
-        <v>77</v>
-      </c>
-      <c r="K166" s="55">
+      <c r="I166" s="41"/>
+      <c r="J166" s="41" t="s">
+        <v>77</v>
+      </c>
+      <c r="K166" s="45">
         <v>42960</v>
       </c>
-      <c r="L166" s="48"/>
+      <c r="L166" s="41"/>
     </row>
     <row r="167" spans="1:12" s="34" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A167" s="10">
         <v>166</v>
       </c>
-      <c r="B167" s="48"/>
-      <c r="C167" s="56"/>
-      <c r="D167" s="48" t="s">
+      <c r="B167" s="41"/>
+      <c r="C167" s="46"/>
+      <c r="D167" s="41" t="s">
         <v>314</v>
       </c>
-      <c r="E167" s="48">
+      <c r="E167" s="41">
         <v>474</v>
       </c>
-      <c r="F167" s="48"/>
-      <c r="G167" s="48">
-        <v>1</v>
-      </c>
-      <c r="H167" s="48">
+      <c r="F167" s="41"/>
+      <c r="G167" s="41">
+        <v>1</v>
+      </c>
+      <c r="H167" s="41">
         <v>2</v>
       </c>
-      <c r="I167" s="48"/>
-      <c r="J167" s="48" t="s">
-        <v>77</v>
-      </c>
-      <c r="K167" s="55">
+      <c r="I167" s="41"/>
+      <c r="J167" s="41" t="s">
+        <v>77</v>
+      </c>
+      <c r="K167" s="45">
         <v>42960</v>
       </c>
-      <c r="L167" s="48"/>
+      <c r="L167" s="41"/>
     </row>
     <row r="168" spans="1:12" s="34" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A168" s="10">
         <v>167</v>
       </c>
-      <c r="B168" s="48"/>
-      <c r="C168" s="56"/>
-      <c r="D168" s="48" t="s">
+      <c r="B168" s="41"/>
+      <c r="C168" s="46"/>
+      <c r="D168" s="41" t="s">
         <v>333</v>
       </c>
-      <c r="E168" s="48">
+      <c r="E168" s="41">
         <v>578</v>
       </c>
-      <c r="F168" s="48"/>
-      <c r="G168" s="48">
-        <v>1</v>
-      </c>
-      <c r="H168" s="48">
+      <c r="F168" s="41"/>
+      <c r="G168" s="41">
+        <v>1</v>
+      </c>
+      <c r="H168" s="41">
         <v>2</v>
       </c>
-      <c r="I168" s="48"/>
-      <c r="J168" s="48" t="s">
-        <v>77</v>
-      </c>
-      <c r="K168" s="55">
+      <c r="I168" s="41"/>
+      <c r="J168" s="41" t="s">
+        <v>77</v>
+      </c>
+      <c r="K168" s="45">
         <v>42960</v>
       </c>
-      <c r="L168" s="48"/>
+      <c r="L168" s="41"/>
     </row>
     <row r="169" spans="1:12" s="34" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A169" s="10">
         <v>168</v>
       </c>
-      <c r="B169" s="48"/>
-      <c r="C169" s="57"/>
-      <c r="D169" s="48" t="s">
+      <c r="B169" s="41"/>
+      <c r="C169" s="47"/>
+      <c r="D169" s="41" t="s">
         <v>344</v>
       </c>
-      <c r="E169" s="48"/>
-      <c r="F169" s="48">
+      <c r="E169" s="41"/>
+      <c r="F169" s="41">
         <v>235</v>
       </c>
-      <c r="G169" s="48">
-        <v>1</v>
-      </c>
-      <c r="H169" s="48">
+      <c r="G169" s="41">
+        <v>1</v>
+      </c>
+      <c r="H169" s="41">
         <v>2</v>
       </c>
-      <c r="I169" s="48"/>
-      <c r="J169" s="48" t="s">
-        <v>77</v>
-      </c>
-      <c r="K169" s="55">
+      <c r="I169" s="41"/>
+      <c r="J169" s="41" t="s">
+        <v>77</v>
+      </c>
+      <c r="K169" s="45">
         <v>42960</v>
       </c>
-      <c r="L169" s="48"/>
+      <c r="L169" s="41"/>
     </row>
     <row r="170" spans="1:12" s="34" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A170" s="10">
         <v>169</v>
       </c>
-      <c r="B170" s="48"/>
-      <c r="C170" s="53"/>
-      <c r="D170" s="48" t="s">
+      <c r="B170" s="41"/>
+      <c r="C170" s="43"/>
+      <c r="D170" s="41" t="s">
         <v>335</v>
       </c>
-      <c r="E170" s="48">
+      <c r="E170" s="41">
         <v>596</v>
       </c>
-      <c r="F170" s="48"/>
-      <c r="G170" s="48"/>
-      <c r="H170" s="48"/>
-      <c r="I170" s="48"/>
-      <c r="J170" s="48"/>
-      <c r="K170" s="48"/>
-      <c r="L170" s="48"/>
+      <c r="F170" s="41"/>
+      <c r="G170" s="41"/>
+      <c r="H170" s="41"/>
+      <c r="I170" s="41"/>
+      <c r="J170" s="41"/>
+      <c r="K170" s="41"/>
+      <c r="L170" s="41"/>
     </row>
     <row r="171" spans="1:12" s="34" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A171" s="10">
         <v>170</v>
       </c>
-      <c r="B171" s="48"/>
-      <c r="C171" s="53"/>
-      <c r="D171" s="48" t="s">
+      <c r="B171" s="41"/>
+      <c r="C171" s="43"/>
+      <c r="D171" s="41" t="s">
         <v>336</v>
       </c>
-      <c r="E171" s="48">
+      <c r="E171" s="41">
         <v>597</v>
       </c>
-      <c r="F171" s="48">
+      <c r="F171" s="41">
         <v>643</v>
       </c>
-      <c r="G171" s="48"/>
-      <c r="H171" s="48">
-        <v>1</v>
-      </c>
-      <c r="I171" s="48"/>
-      <c r="J171" s="48"/>
-      <c r="K171" s="48"/>
-      <c r="L171" s="48"/>
+      <c r="G171" s="41"/>
+      <c r="H171" s="41">
+        <v>1</v>
+      </c>
+      <c r="I171" s="41"/>
+      <c r="J171" s="41"/>
+      <c r="K171" s="41"/>
+      <c r="L171" s="41"/>
     </row>
     <row r="172" spans="1:12" s="34" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A172" s="10">
         <v>171</v>
       </c>
-      <c r="B172" s="48"/>
-      <c r="C172" s="48"/>
-      <c r="D172" s="48" t="s">
+      <c r="B172" s="41"/>
+      <c r="C172" s="41"/>
+      <c r="D172" s="41" t="s">
         <v>310</v>
       </c>
-      <c r="E172" s="48">
+      <c r="E172" s="41">
         <v>97</v>
       </c>
-      <c r="F172" s="48">
+      <c r="F172" s="41">
         <v>104</v>
       </c>
-      <c r="G172" s="48">
-        <v>1</v>
-      </c>
-      <c r="H172" s="48">
-        <v>1</v>
-      </c>
-      <c r="I172" s="48"/>
-      <c r="J172" s="48"/>
-      <c r="K172" s="55">
+      <c r="G172" s="41">
+        <v>1</v>
+      </c>
+      <c r="H172" s="41">
+        <v>1</v>
+      </c>
+      <c r="I172" s="41"/>
+      <c r="J172" s="41"/>
+      <c r="K172" s="45">
         <v>42951</v>
       </c>
-      <c r="L172" s="48"/>
+      <c r="L172" s="41"/>
     </row>
     <row r="173" spans="1:12" s="34" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A173" s="10">
         <v>172</v>
       </c>
-      <c r="B173" s="48"/>
-      <c r="C173" s="48"/>
-      <c r="D173" s="48" t="s">
+      <c r="B173" s="41"/>
+      <c r="C173" s="41"/>
+      <c r="D173" s="41" t="s">
         <v>311</v>
       </c>
-      <c r="E173" s="48">
+      <c r="E173" s="41">
         <v>155</v>
       </c>
-      <c r="F173" s="48">
+      <c r="F173" s="41">
         <v>111</v>
       </c>
-      <c r="G173" s="48">
-        <v>1</v>
-      </c>
-      <c r="H173" s="48">
-        <v>1</v>
-      </c>
-      <c r="I173" s="48"/>
-      <c r="J173" s="48" t="s">
-        <v>77</v>
-      </c>
-      <c r="K173" s="55">
+      <c r="G173" s="41">
+        <v>1</v>
+      </c>
+      <c r="H173" s="41">
+        <v>1</v>
+      </c>
+      <c r="I173" s="41"/>
+      <c r="J173" s="41" t="s">
+        <v>77</v>
+      </c>
+      <c r="K173" s="45">
         <v>42951</v>
       </c>
-      <c r="L173" s="48"/>
+      <c r="L173" s="41"/>
     </row>
     <row r="174" spans="1:12" s="34" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A174" s="10">
         <v>173</v>
       </c>
-      <c r="B174" s="48"/>
-      <c r="C174" s="48"/>
-      <c r="D174" s="48" t="s">
+      <c r="B174" s="41"/>
+      <c r="C174" s="41"/>
+      <c r="D174" s="41" t="s">
         <v>312</v>
       </c>
-      <c r="E174" s="48">
+      <c r="E174" s="41">
         <v>93</v>
       </c>
-      <c r="F174" s="48">
+      <c r="F174" s="41">
         <v>110</v>
       </c>
-      <c r="G174" s="48">
-        <v>1</v>
-      </c>
-      <c r="H174" s="48">
-        <v>1</v>
-      </c>
-      <c r="I174" s="48"/>
-      <c r="J174" s="48" t="s">
-        <v>77</v>
-      </c>
-      <c r="K174" s="55">
+      <c r="G174" s="41">
+        <v>1</v>
+      </c>
+      <c r="H174" s="41">
+        <v>1</v>
+      </c>
+      <c r="I174" s="41"/>
+      <c r="J174" s="41" t="s">
+        <v>77</v>
+      </c>
+      <c r="K174" s="45">
         <v>42951</v>
       </c>
-      <c r="L174" s="48"/>
+      <c r="L174" s="41"/>
     </row>
     <row r="175" spans="1:12" s="34" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A175" s="10">
         <v>174</v>
       </c>
-      <c r="B175" s="48"/>
-      <c r="C175" s="48"/>
-      <c r="D175" s="48" t="s">
+      <c r="B175" s="41"/>
+      <c r="C175" s="41"/>
+      <c r="D175" s="41" t="s">
         <v>325</v>
       </c>
-      <c r="E175" s="48">
+      <c r="E175" s="41">
         <v>467</v>
       </c>
-      <c r="F175" s="48">
+      <c r="F175" s="41">
         <v>222</v>
       </c>
-      <c r="G175" s="48"/>
-      <c r="H175" s="48">
+      <c r="G175" s="41"/>
+      <c r="H175" s="41">
         <v>2</v>
       </c>
-      <c r="I175" s="48"/>
-      <c r="J175" s="48"/>
-      <c r="K175" s="48"/>
-      <c r="L175" s="48"/>
+      <c r="I175" s="41"/>
+      <c r="J175" s="41"/>
+      <c r="K175" s="41"/>
+      <c r="L175" s="41"/>
     </row>
     <row r="176" spans="1:12" s="34" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A176" s="10">
         <v>175</v>
       </c>
-      <c r="B176" s="48"/>
-      <c r="C176" s="48"/>
-      <c r="D176" s="48" t="s">
+      <c r="B176" s="41"/>
+      <c r="C176" s="41"/>
+      <c r="D176" s="41" t="s">
         <v>326</v>
       </c>
-      <c r="E176" s="48">
+      <c r="E176" s="41">
         <v>468</v>
       </c>
-      <c r="F176" s="48">
+      <c r="F176" s="41">
         <v>101</v>
       </c>
-      <c r="G176" s="48"/>
-      <c r="H176" s="48">
-        <v>1</v>
-      </c>
-      <c r="I176" s="48"/>
-      <c r="J176" s="48"/>
-      <c r="K176" s="48"/>
-      <c r="L176" s="48"/>
+      <c r="G176" s="41"/>
+      <c r="H176" s="41">
+        <v>1</v>
+      </c>
+      <c r="I176" s="41"/>
+      <c r="J176" s="41"/>
+      <c r="K176" s="41"/>
+      <c r="L176" s="41"/>
     </row>
     <row r="177" spans="1:12" s="34" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A177" s="10">
         <v>176</v>
       </c>
-      <c r="B177" s="48"/>
-      <c r="C177" s="48"/>
-      <c r="D177" s="48" t="s">
+      <c r="B177" s="41"/>
+      <c r="C177" s="41"/>
+      <c r="D177" s="41" t="s">
         <v>327</v>
       </c>
-      <c r="E177" s="48">
+      <c r="E177" s="41">
         <v>469</v>
       </c>
-      <c r="F177" s="48">
+      <c r="F177" s="41">
         <v>100</v>
       </c>
-      <c r="G177" s="48"/>
-      <c r="H177" s="48">
-        <v>1</v>
-      </c>
-      <c r="I177" s="48"/>
-      <c r="J177" s="48"/>
-      <c r="K177" s="48"/>
-      <c r="L177" s="48"/>
+      <c r="G177" s="41"/>
+      <c r="H177" s="41">
+        <v>1</v>
+      </c>
+      <c r="I177" s="41"/>
+      <c r="J177" s="41"/>
+      <c r="K177" s="41"/>
+      <c r="L177" s="41"/>
     </row>
     <row r="178" spans="1:12" s="34" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A178" s="10">
         <v>177</v>
       </c>
-      <c r="B178" s="48"/>
-      <c r="C178" s="48" t="s">
+      <c r="B178" s="41"/>
+      <c r="C178" s="41" t="s">
         <v>347</v>
       </c>
-      <c r="D178" s="48" t="s">
+      <c r="D178" s="41" t="s">
         <v>315</v>
       </c>
-      <c r="E178" s="48">
+      <c r="E178" s="41">
         <v>95</v>
       </c>
-      <c r="F178" s="48">
+      <c r="F178" s="41">
         <v>98</v>
       </c>
-      <c r="G178" s="48">
-        <v>1</v>
-      </c>
-      <c r="H178" s="48">
+      <c r="G178" s="41">
+        <v>1</v>
+      </c>
+      <c r="H178" s="41">
         <v>2</v>
       </c>
-      <c r="I178" s="48"/>
-      <c r="J178" s="48" t="s">
-        <v>77</v>
-      </c>
-      <c r="K178" s="55">
+      <c r="I178" s="41"/>
+      <c r="J178" s="41" t="s">
+        <v>77</v>
+      </c>
+      <c r="K178" s="45">
         <v>42961</v>
       </c>
-      <c r="L178" s="48"/>
+      <c r="L178" s="41"/>
     </row>
     <row r="179" spans="1:12" s="34" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A179" s="10">
         <v>178</v>
       </c>
-      <c r="B179" s="48"/>
-      <c r="C179" s="48" t="s">
+      <c r="B179" s="41"/>
+      <c r="C179" s="41" t="s">
         <v>348</v>
       </c>
-      <c r="D179" s="48" t="s">
+      <c r="D179" s="41" t="s">
         <v>316</v>
       </c>
-      <c r="E179" s="48">
+      <c r="E179" s="41">
         <v>86</v>
       </c>
-      <c r="F179" s="48">
+      <c r="F179" s="41">
         <v>173</v>
       </c>
-      <c r="G179" s="58">
-        <v>1</v>
-      </c>
-      <c r="H179" s="58">
+      <c r="G179" s="48">
+        <v>1</v>
+      </c>
+      <c r="H179" s="48">
         <v>2</v>
       </c>
-      <c r="I179" s="58"/>
-      <c r="J179" s="58" t="s">
-        <v>77</v>
-      </c>
-      <c r="K179" s="59">
+      <c r="I179" s="48"/>
+      <c r="J179" s="48" t="s">
+        <v>77</v>
+      </c>
+      <c r="K179" s="49">
         <v>42961</v>
       </c>
-      <c r="L179" s="48"/>
+      <c r="L179" s="41"/>
     </row>
     <row r="180" spans="1:12" s="34" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A180" s="10">
         <v>179</v>
       </c>
-      <c r="B180" s="48"/>
-      <c r="C180" s="48" t="s">
+      <c r="B180" s="41"/>
+      <c r="C180" s="41" t="s">
         <v>349</v>
       </c>
-      <c r="D180" s="48" t="s">
+      <c r="D180" s="41" t="s">
         <v>319</v>
       </c>
-      <c r="E180" s="48">
+      <c r="E180" s="41">
         <v>448</v>
       </c>
-      <c r="F180" s="48">
+      <c r="F180" s="41">
         <v>285</v>
       </c>
-      <c r="G180" s="58">
-        <v>1</v>
-      </c>
-      <c r="H180" s="58">
+      <c r="G180" s="48">
+        <v>1</v>
+      </c>
+      <c r="H180" s="48">
         <v>2</v>
       </c>
-      <c r="I180" s="58"/>
-      <c r="J180" s="58" t="s">
-        <v>77</v>
-      </c>
-      <c r="K180" s="59">
+      <c r="I180" s="48"/>
+      <c r="J180" s="48" t="s">
+        <v>77</v>
+      </c>
+      <c r="K180" s="49">
         <v>42961</v>
       </c>
-      <c r="L180" s="48"/>
+      <c r="L180" s="41"/>
     </row>
     <row r="181" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A181" s="10">
         <v>180</v>
       </c>
-      <c r="B181" s="61"/>
-      <c r="C181" s="61"/>
-      <c r="D181" s="61" t="s">
+      <c r="B181" s="52"/>
+      <c r="C181" s="52"/>
+      <c r="D181" s="52" t="s">
         <v>323</v>
       </c>
-      <c r="E181" s="61">
+      <c r="E181" s="52">
         <v>201</v>
       </c>
-      <c r="F181" s="61"/>
-      <c r="G181" s="61"/>
-      <c r="H181" s="61">
-        <v>1</v>
-      </c>
-      <c r="I181" s="61"/>
-      <c r="J181" s="61"/>
-      <c r="K181" s="61"/>
-      <c r="L181" s="61"/>
-    </row>
-    <row r="182" spans="1:12" s="60" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F181" s="52"/>
+      <c r="G181" s="52"/>
+      <c r="H181" s="52">
+        <v>1</v>
+      </c>
+      <c r="I181" s="52"/>
+      <c r="J181" s="52"/>
+      <c r="K181" s="52"/>
+      <c r="L181" s="52"/>
+    </row>
+    <row r="182" spans="1:12" s="50" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A182" s="10">
         <v>181</v>
       </c>
-      <c r="B182" s="60" t="s">
+      <c r="B182" s="50" t="s">
         <v>360</v>
       </c>
-      <c r="D182" s="60" t="s">
+      <c r="D182" s="50" t="s">
         <v>361</v>
       </c>
-      <c r="E182" s="60">
+      <c r="E182" s="50">
         <v>136</v>
       </c>
-      <c r="F182" s="60">
+      <c r="F182" s="50">
         <v>131</v>
       </c>
-      <c r="H182" s="60">
+      <c r="G182" s="50">
+        <v>1</v>
+      </c>
+      <c r="H182" s="50">
         <v>2</v>
       </c>
-    </row>
-    <row r="183" spans="1:12" s="60" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="J182" s="50" t="s">
+        <v>486</v>
+      </c>
+      <c r="K182" s="69">
+        <v>42966</v>
+      </c>
+    </row>
+    <row r="183" spans="1:12" s="50" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A183" s="10">
         <v>182</v>
       </c>
-      <c r="D183" s="60" t="s">
+      <c r="D183" s="50" t="s">
         <v>362</v>
       </c>
-      <c r="E183" s="60">
+      <c r="E183" s="50">
         <v>153</v>
       </c>
-      <c r="F183" s="60">
+      <c r="F183" s="50">
         <v>40</v>
       </c>
-      <c r="H183" s="60">
+      <c r="H183" s="50">
         <v>2</v>
       </c>
     </row>
-    <row r="184" spans="1:12" s="60" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:12" s="50" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A184" s="10">
         <v>183</v>
       </c>
-      <c r="D184" s="60" t="s">
+      <c r="D184" s="50" t="s">
         <v>363</v>
       </c>
-      <c r="E184" s="60">
+      <c r="E184" s="50">
         <v>18</v>
       </c>
-      <c r="F184" s="60">
+      <c r="F184" s="50">
         <v>39</v>
       </c>
-      <c r="H184" s="60">
+      <c r="H184" s="50">
         <v>2</v>
       </c>
     </row>
-    <row r="185" spans="1:12" s="60" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:12" s="50" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A185" s="10">
         <v>184</v>
       </c>
-      <c r="D185" s="60" t="s">
+      <c r="D185" s="50" t="s">
         <v>364</v>
       </c>
-      <c r="E185" s="60">
+      <c r="E185" s="50">
         <v>16</v>
       </c>
-      <c r="F185" s="60">
+      <c r="F185" s="50">
         <v>47</v>
       </c>
-      <c r="H185" s="60">
+      <c r="H185" s="50">
         <v>2</v>
       </c>
     </row>
-    <row r="186" spans="1:12" s="60" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:12" s="50" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A186" s="10">
         <v>185</v>
       </c>
-      <c r="D186" s="60" t="s">
+      <c r="D186" s="50" t="s">
         <v>365</v>
       </c>
-      <c r="E186" s="60">
+      <c r="E186" s="50">
         <v>15</v>
       </c>
-      <c r="F186" s="60">
+      <c r="F186" s="50">
         <v>46</v>
       </c>
-      <c r="H186" s="60">
+      <c r="H186" s="50">
         <v>2</v>
       </c>
     </row>
-    <row r="187" spans="1:12" s="60" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:12" s="50" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A187" s="10">
         <v>186</v>
       </c>
-      <c r="D187" s="60" t="s">
+      <c r="D187" s="50" t="s">
         <v>370</v>
       </c>
-      <c r="E187" s="60">
+      <c r="E187" s="50">
         <v>121</v>
       </c>
-      <c r="F187" s="60">
+      <c r="F187" s="50">
         <v>126</v>
       </c>
-      <c r="H187" s="60">
+      <c r="H187" s="50">
         <v>2</v>
       </c>
     </row>
-    <row r="188" spans="1:12" s="60" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:12" s="50" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A188" s="10">
         <v>187</v>
       </c>
-      <c r="D188" s="60" t="s">
+      <c r="D188" s="50" t="s">
         <v>366</v>
       </c>
-      <c r="E188" s="60">
+      <c r="E188" s="50">
         <v>120</v>
       </c>
-      <c r="F188" s="60">
+      <c r="F188" s="50">
         <v>127</v>
       </c>
-      <c r="H188" s="60">
+      <c r="H188" s="50">
         <v>3</v>
       </c>
     </row>
-    <row r="189" spans="1:12" s="60" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:12" s="50" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A189" s="10">
         <v>188</v>
       </c>
-      <c r="D189" s="60" t="s">
+      <c r="D189" s="50" t="s">
         <v>367</v>
       </c>
-      <c r="E189" s="60">
+      <c r="E189" s="50">
         <v>52</v>
       </c>
-      <c r="F189" s="60">
+      <c r="F189" s="50">
         <v>31</v>
       </c>
-      <c r="H189" s="60">
+      <c r="H189" s="50">
         <v>2</v>
       </c>
     </row>
-    <row r="190" spans="1:12" s="60" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:12" s="50" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A190" s="10">
         <v>189</v>
       </c>
-      <c r="D190" s="60" t="s">
+      <c r="D190" s="50" t="s">
         <v>368</v>
       </c>
-      <c r="E190" s="60">
+      <c r="E190" s="50">
         <v>51</v>
       </c>
-      <c r="H190" s="60">
+      <c r="H190" s="50">
         <v>2</v>
       </c>
     </row>
-    <row r="191" spans="1:12" s="60" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:12" s="50" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A191" s="10">
         <v>190</v>
       </c>
-      <c r="D191" s="60" t="s">
+      <c r="D191" s="50" t="s">
         <v>369</v>
       </c>
-      <c r="E191" s="60">
+      <c r="E191" s="50">
         <v>582</v>
       </c>
-      <c r="F191" s="60">
+      <c r="F191" s="50">
         <v>140</v>
       </c>
-      <c r="H191" s="60">
+      <c r="H191" s="50">
         <v>2</v>
       </c>
     </row>
-    <row r="192" spans="1:12" s="60" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:12" s="50" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A192" s="10">
         <v>191</v>
       </c>
-      <c r="D192" s="60" t="s">
+      <c r="D192" s="50" t="s">
         <v>371</v>
       </c>
-      <c r="E192" s="60">
+      <c r="E192" s="50">
         <v>211</v>
       </c>
-      <c r="F192" s="60">
+      <c r="F192" s="50">
         <v>567</v>
       </c>
-      <c r="H192" s="60">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="193" spans="1:8" s="60" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H192" s="50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="193" spans="1:8" s="50" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A193" s="10">
         <v>192</v>
       </c>
-      <c r="D193" s="60" t="s">
+      <c r="D193" s="50" t="s">
         <v>372</v>
       </c>
-      <c r="E193" s="60">
+      <c r="E193" s="50">
         <v>197</v>
       </c>
-      <c r="H193" s="60">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="194" spans="1:8" s="60" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H193" s="50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="194" spans="1:8" s="50" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A194" s="10">
         <v>193</v>
       </c>
-      <c r="D194" s="60" t="s">
+      <c r="D194" s="50" t="s">
         <v>373</v>
       </c>
-      <c r="E194" s="60">
+      <c r="E194" s="50">
         <v>10</v>
       </c>
-      <c r="H194" s="60">
+      <c r="H194" s="50">
         <v>2</v>
       </c>
     </row>
-    <row r="195" spans="1:8" s="60" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:8" s="50" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A195" s="10">
         <v>194</v>
       </c>
-      <c r="D195" s="62" t="s">
+      <c r="D195" s="53" t="s">
         <v>374</v>
       </c>
-      <c r="E195" s="60">
+      <c r="E195" s="50">
         <v>190</v>
       </c>
-      <c r="H195" s="60">
+      <c r="H195" s="50">
         <v>2</v>
       </c>
     </row>
-    <row r="196" spans="1:8" s="60" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:8" s="50" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A196" s="10">
         <v>195</v>
       </c>
-      <c r="D196" s="60" t="s">
+      <c r="D196" s="50" t="s">
         <v>375</v>
       </c>
-      <c r="E196" s="60">
+      <c r="E196" s="50">
         <v>198</v>
       </c>
-      <c r="H196" s="60">
+      <c r="H196" s="50">
         <v>2</v>
       </c>
     </row>
-    <row r="197" spans="1:8" s="60" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:8" s="50" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A197" s="10">
         <v>196</v>
       </c>
-      <c r="D197" s="60" t="s">
+      <c r="D197" s="50" t="s">
         <v>376</v>
       </c>
-      <c r="E197" s="60">
+      <c r="E197" s="50">
         <v>107</v>
       </c>
-      <c r="F197" s="60">
+      <c r="F197" s="50">
         <v>139</v>
       </c>
-      <c r="H197" s="60">
+      <c r="H197" s="50">
         <v>2</v>
       </c>
     </row>
-    <row r="198" spans="1:8" s="60" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:8" s="50" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A198" s="10">
         <v>197</v>
       </c>
-      <c r="D198" s="60" t="s">
+      <c r="D198" s="50" t="s">
         <v>377</v>
       </c>
-      <c r="E198" s="60">
+      <c r="E198" s="50">
         <v>108</v>
       </c>
-      <c r="F198" s="60">
+      <c r="F198" s="50">
         <v>132</v>
       </c>
-      <c r="H198" s="60">
+      <c r="H198" s="50">
         <v>3</v>
       </c>
     </row>
-    <row r="199" spans="1:8" s="63" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:8" s="54" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A199" s="10">
         <v>198</v>
       </c>
-      <c r="B199" s="63" t="s">
+      <c r="B199" s="54" t="s">
         <v>378</v>
       </c>
-      <c r="D199" s="63" t="s">
+      <c r="D199" s="54" t="s">
         <v>380</v>
       </c>
-      <c r="E199" s="63">
+      <c r="E199" s="54">
         <v>433</v>
       </c>
-      <c r="H199" s="63">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="200" spans="1:8" s="63" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H199" s="54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="200" spans="1:8" s="54" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A200" s="10">
         <v>199</v>
       </c>
-      <c r="D200" s="63" t="s">
+      <c r="D200" s="54" t="s">
         <v>379</v>
       </c>
-      <c r="E200" s="63">
+      <c r="E200" s="54">
         <v>69</v>
       </c>
-      <c r="H200" s="63">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="201" spans="1:8" s="63" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H200" s="54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="201" spans="1:8" s="54" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A201" s="10">
         <v>200</v>
       </c>
-      <c r="D201" s="63" t="s">
+      <c r="D201" s="54" t="s">
         <v>381</v>
       </c>
-      <c r="E201" s="63">
+      <c r="E201" s="54">
         <v>616</v>
       </c>
-      <c r="H201" s="63">
+      <c r="H201" s="54">
         <v>2</v>
       </c>
     </row>
-    <row r="202" spans="1:8" s="63" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:8" s="54" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A202" s="10">
         <v>201</v>
       </c>
-      <c r="D202" s="63" t="s">
+      <c r="D202" s="54" t="s">
         <v>382</v>
       </c>
-      <c r="E202" s="63">
+      <c r="E202" s="54">
         <v>618</v>
       </c>
-      <c r="H202" s="63">
+      <c r="H202" s="54">
         <v>2</v>
       </c>
     </row>
-    <row r="203" spans="1:8" s="63" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:8" s="54" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A203" s="10">
         <v>202</v>
       </c>
-      <c r="D203" s="63" t="s">
+      <c r="D203" s="54" t="s">
         <v>383</v>
       </c>
-      <c r="E203" s="63">
+      <c r="E203" s="54">
         <v>598</v>
       </c>
-      <c r="H203" s="63">
+      <c r="H203" s="54">
         <v>2</v>
       </c>
     </row>
-    <row r="204" spans="1:8" s="63" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:8" s="54" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A204" s="10">
         <v>203</v>
       </c>
-      <c r="D204" s="63" t="s">
+      <c r="D204" s="54" t="s">
         <v>384</v>
       </c>
-      <c r="E204" s="63">
+      <c r="E204" s="54">
         <v>178</v>
       </c>
-      <c r="H204" s="63">
+      <c r="H204" s="54">
         <v>2</v>
       </c>
     </row>
-    <row r="205" spans="1:8" s="63" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:8" s="54" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A205" s="10">
         <v>204</v>
       </c>
-      <c r="D205" s="63" t="s">
+      <c r="D205" s="54" t="s">
         <v>385</v>
       </c>
-      <c r="E205" s="63">
+      <c r="E205" s="54">
         <v>137</v>
       </c>
-      <c r="H205" s="63">
+      <c r="H205" s="54">
         <v>2</v>
       </c>
     </row>
-    <row r="206" spans="1:8" s="63" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:8" s="54" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A206" s="10">
         <v>205</v>
       </c>
-      <c r="D206" s="63" t="s">
+      <c r="D206" s="54" t="s">
         <v>386</v>
       </c>
-      <c r="E206" s="63">
+      <c r="E206" s="54">
         <v>7</v>
       </c>
-      <c r="H206" s="63">
+      <c r="H206" s="54">
         <v>2</v>
       </c>
     </row>
-    <row r="207" spans="1:8" s="63" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:8" s="54" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A207" s="10">
         <v>206</v>
       </c>
-      <c r="D207" s="63" t="s">
+      <c r="D207" s="54" t="s">
         <v>387</v>
       </c>
-      <c r="E207" s="63">
+      <c r="E207" s="54">
         <v>573</v>
       </c>
-      <c r="H207" s="63">
+      <c r="H207" s="54">
         <v>3</v>
       </c>
     </row>
-    <row r="208" spans="1:8" s="63" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:8" s="54" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A208" s="10">
         <v>207</v>
       </c>
-      <c r="D208" s="63" t="s">
+      <c r="D208" s="54" t="s">
         <v>388</v>
       </c>
-      <c r="E208" s="63">
+      <c r="E208" s="54">
         <v>242</v>
       </c>
-      <c r="H208" s="63">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="209" spans="1:12" s="63" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H208" s="54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="209" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A209" s="10">
         <v>208</v>
       </c>
-      <c r="D209" s="63" t="s">
+      <c r="D209" s="54" t="s">
         <v>389</v>
       </c>
-      <c r="E209" s="63">
+      <c r="E209" s="54">
         <v>624</v>
       </c>
-      <c r="H209" s="63">
+      <c r="H209" s="54">
         <v>2</v>
       </c>
     </row>
-    <row r="210" spans="1:12" s="63" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A210" s="10">
         <v>209</v>
       </c>
-      <c r="D210" s="63" t="s">
+      <c r="D210" s="54" t="s">
         <v>390</v>
       </c>
-      <c r="E210" s="63">
+      <c r="E210" s="54">
         <v>605</v>
       </c>
-      <c r="H210" s="63">
+      <c r="H210" s="54">
         <v>2</v>
       </c>
     </row>
-    <row r="211" spans="1:12" s="63" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A211" s="10">
         <v>210</v>
       </c>
-      <c r="D211" s="63" t="s">
+      <c r="D211" s="54" t="s">
         <v>391</v>
       </c>
-      <c r="E211" s="63">
+      <c r="E211" s="54">
         <v>531</v>
       </c>
-      <c r="H211" s="63">
+      <c r="H211" s="54">
         <v>2</v>
       </c>
     </row>
-    <row r="212" spans="1:12" s="63" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A212" s="10">
         <v>211</v>
       </c>
-      <c r="D212" s="63" t="s">
+      <c r="D212" s="54" t="s">
         <v>392</v>
       </c>
-      <c r="E212" s="63">
+      <c r="E212" s="54">
         <v>127</v>
       </c>
-      <c r="H212" s="63">
+      <c r="H212" s="54">
         <v>2</v>
       </c>
     </row>
-    <row r="213" spans="1:12" s="63" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A213" s="10">
         <v>212</v>
       </c>
-      <c r="D213" s="63" t="s">
+      <c r="D213" s="54" t="s">
         <v>393</v>
       </c>
-      <c r="E213" s="63">
+      <c r="E213" s="54">
         <v>120</v>
       </c>
-      <c r="H213" s="63">
+      <c r="H213" s="54">
         <v>3</v>
       </c>
     </row>
-    <row r="214" spans="1:12" s="63" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A214" s="10">
         <v>213</v>
       </c>
-      <c r="D214" s="63" t="s">
+      <c r="D214" s="54" t="s">
         <v>394</v>
       </c>
-      <c r="E214" s="63">
+      <c r="E214" s="54">
         <v>615</v>
       </c>
     </row>
-    <row r="215" spans="1:12" s="63" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A215" s="10">
         <v>214</v>
       </c>
-      <c r="D215" s="63" t="s">
+      <c r="D215" s="54" t="s">
         <v>395</v>
       </c>
-      <c r="E215" s="63">
+      <c r="E215" s="54">
         <v>431</v>
       </c>
     </row>
-    <row r="216" spans="1:12" s="63" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A216" s="10">
         <v>215</v>
       </c>
-      <c r="D216" s="63" t="s">
+      <c r="D216" s="54" t="s">
         <v>396</v>
       </c>
-      <c r="E216" s="63">
+      <c r="E216" s="54">
         <v>71</v>
       </c>
     </row>
-    <row r="217" spans="1:12" s="63" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A217" s="10">
         <v>216</v>
       </c>
-      <c r="D217" s="63" t="s">
+      <c r="D217" s="54" t="s">
         <v>236</v>
       </c>
-      <c r="E217" s="63">
+      <c r="E217" s="54">
         <v>70</v>
       </c>
     </row>
-    <row r="218" spans="1:12" s="63" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A218" s="10">
         <v>217</v>
       </c>
-      <c r="D218" s="63" t="s">
+      <c r="D218" s="54" t="s">
         <v>397</v>
       </c>
-      <c r="E218" s="63">
+      <c r="E218" s="54">
         <v>600</v>
       </c>
     </row>
-    <row r="219" spans="1:12" s="63" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A219" s="10">
         <v>218</v>
       </c>
-      <c r="D219" s="63" t="s">
+      <c r="D219" s="54" t="s">
         <v>398</v>
       </c>
-      <c r="E219" s="63">
+      <c r="E219" s="54">
         <v>574</v>
       </c>
     </row>
-    <row r="220" spans="1:12" s="63" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A220" s="10">
         <v>219</v>
       </c>
-      <c r="D220" s="63" t="s">
+      <c r="D220" s="54" t="s">
         <v>399</v>
       </c>
-      <c r="E220" s="63">
+      <c r="E220" s="54">
         <v>434</v>
       </c>
     </row>
-    <row r="221" spans="1:12" s="63" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A221" s="10">
         <v>220</v>
       </c>
     </row>
-    <row r="222" spans="1:12" s="63" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A222" s="10">
+    <row r="222" spans="1:11" s="59" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A222" s="58">
         <v>221</v>
       </c>
     </row>
-    <row r="223" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A223" s="10">
-        <v>222</v>
-      </c>
-      <c r="B223" s="60" t="s">
+    <row r="223" spans="1:11" s="50" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A223" s="50" t="s">
         <v>83</v>
       </c>
-      <c r="C223" s="60"/>
-      <c r="D223" s="60" t="s">
+      <c r="B223" s="79" t="s">
+        <v>422</v>
+      </c>
+      <c r="C223" s="50" t="s">
+        <v>423</v>
+      </c>
+      <c r="D223" s="50" t="s">
+        <v>406</v>
+      </c>
+      <c r="E223" s="50">
+        <v>109</v>
+      </c>
+      <c r="F223" s="50">
+        <v>120</v>
+      </c>
+      <c r="G223" s="50">
+        <v>1</v>
+      </c>
+      <c r="H223" s="50">
+        <v>2</v>
+      </c>
+      <c r="K223" s="69">
+        <v>42964</v>
+      </c>
+    </row>
+    <row r="224" spans="1:11" s="50" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A224" s="50">
+        <v>223</v>
+      </c>
+      <c r="B224" s="77"/>
+      <c r="C224" s="50" t="s">
+        <v>423</v>
+      </c>
+      <c r="D224" s="50" t="s">
         <v>353</v>
       </c>
-      <c r="E223" s="60">
+      <c r="E224" s="50">
         <v>110</v>
       </c>
-      <c r="F223" s="60">
+      <c r="F224" s="50">
         <v>64</v>
       </c>
-      <c r="G223" s="60"/>
-      <c r="H223" s="60">
+      <c r="G224" s="50">
+        <v>1</v>
+      </c>
+      <c r="H224" s="50">
+        <v>1</v>
+      </c>
+      <c r="K224" s="69">
+        <v>42964</v>
+      </c>
+    </row>
+    <row r="225" spans="1:12" s="50" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A225" s="50">
+        <v>224</v>
+      </c>
+      <c r="B225" s="77"/>
+      <c r="C225" s="50" t="s">
+        <v>424</v>
+      </c>
+      <c r="D225" s="50" t="s">
+        <v>407</v>
+      </c>
+      <c r="E225" s="50">
+        <v>111</v>
+      </c>
+      <c r="F225" s="50">
+        <v>70</v>
+      </c>
+      <c r="G225" s="50">
+        <v>1</v>
+      </c>
+      <c r="H225" s="50">
+        <v>1</v>
+      </c>
+      <c r="K225" s="69">
+        <v>42964</v>
+      </c>
+    </row>
+    <row r="226" spans="1:12" s="50" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A226" s="50">
+        <v>225</v>
+      </c>
+      <c r="B226" s="77"/>
+      <c r="C226" s="50" t="s">
+        <v>424</v>
+      </c>
+      <c r="D226" s="50" t="s">
+        <v>409</v>
+      </c>
+      <c r="E226" s="50">
+        <v>114</v>
+      </c>
+      <c r="F226" s="50">
+        <v>62</v>
+      </c>
+      <c r="G226" s="50">
+        <v>1</v>
+      </c>
+      <c r="H226" s="50">
+        <v>1</v>
+      </c>
+      <c r="K226" s="69">
+        <v>42965</v>
+      </c>
+    </row>
+    <row r="227" spans="1:12" s="50" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A227" s="50">
+        <v>226</v>
+      </c>
+      <c r="B227" s="77"/>
+      <c r="C227" s="50" t="s">
+        <v>424</v>
+      </c>
+      <c r="D227" s="50" t="s">
+        <v>408</v>
+      </c>
+      <c r="E227" s="50">
+        <v>115</v>
+      </c>
+      <c r="F227" s="50">
+        <v>63</v>
+      </c>
+      <c r="G227" s="50">
+        <v>1</v>
+      </c>
+      <c r="H227" s="50">
         <v>2</v>
       </c>
-      <c r="I223" s="60"/>
-      <c r="J223" s="60"/>
-      <c r="K223" s="60"/>
-      <c r="L223" s="60"/>
-    </row>
-    <row r="224" spans="1:12" s="65" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A224" s="10"/>
-      <c r="B224" s="64"/>
-      <c r="C224" s="64"/>
-      <c r="D224" s="64"/>
-      <c r="E224" s="64"/>
-      <c r="F224" s="64"/>
-      <c r="G224" s="64"/>
-      <c r="H224" s="64"/>
-      <c r="I224" s="64"/>
-      <c r="J224" s="64"/>
-      <c r="K224" s="64"/>
-      <c r="L224" s="64"/>
-    </row>
-    <row r="225" spans="1:12" s="65" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A225" s="10"/>
-      <c r="B225" s="64"/>
-      <c r="C225" s="64"/>
-      <c r="D225" s="64"/>
-      <c r="E225" s="64"/>
-      <c r="F225" s="64"/>
-      <c r="G225" s="64"/>
-      <c r="H225" s="64"/>
-      <c r="I225" s="64"/>
-      <c r="J225" s="64"/>
-      <c r="K225" s="64"/>
-      <c r="L225" s="64"/>
-    </row>
-    <row r="226" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A226" s="10">
+      <c r="K227" s="69">
+        <v>42965</v>
+      </c>
+    </row>
+    <row r="228" spans="1:12" s="50" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A228" s="50">
+        <v>227</v>
+      </c>
+      <c r="B228" s="77"/>
+      <c r="C228" s="50" t="s">
+        <v>427</v>
+      </c>
+      <c r="D228" s="50" t="s">
+        <v>410</v>
+      </c>
+      <c r="E228" s="50">
+        <v>116</v>
+      </c>
+      <c r="F228" s="50">
+        <v>55</v>
+      </c>
+      <c r="G228" s="50">
+        <v>1</v>
+      </c>
+      <c r="H228" s="50">
+        <v>2</v>
+      </c>
+      <c r="J228" s="50" t="s">
+        <v>77</v>
+      </c>
+      <c r="K228" s="69">
+        <v>42965</v>
+      </c>
+      <c r="L228" s="50" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="229" spans="1:12" s="50" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A229" s="50">
+        <v>228</v>
+      </c>
+      <c r="B229" s="77"/>
+      <c r="C229" s="50" t="s">
+        <v>423</v>
+      </c>
+      <c r="D229" s="50" t="s">
+        <v>411</v>
+      </c>
+      <c r="E229" s="50">
+        <v>117</v>
+      </c>
+      <c r="F229" s="50">
+        <v>45</v>
+      </c>
+      <c r="G229" s="50">
+        <v>1</v>
+      </c>
+      <c r="H229" s="50">
+        <v>3</v>
+      </c>
+      <c r="J229" s="50" t="s">
+        <v>77</v>
+      </c>
+      <c r="K229" s="69">
+        <v>42965</v>
+      </c>
+    </row>
+    <row r="230" spans="1:12" s="60" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A230" s="50">
+        <v>229</v>
+      </c>
+      <c r="B230" s="78"/>
+      <c r="C230" s="60" t="s">
+        <v>423</v>
+      </c>
+      <c r="D230" s="60" t="s">
+        <v>401</v>
+      </c>
+      <c r="E230" s="60">
+        <v>76</v>
+      </c>
+      <c r="F230" s="60">
+        <v>300</v>
+      </c>
+      <c r="G230" s="60">
+        <v>1</v>
+      </c>
+      <c r="H230" s="60">
+        <v>2</v>
+      </c>
+      <c r="J230" s="50" t="s">
+        <v>77</v>
+      </c>
+      <c r="K230" s="69">
+        <v>42965</v>
+      </c>
+      <c r="L230" s="60" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="231" spans="1:12" s="61" customFormat="1" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A231" s="50">
+        <v>230</v>
+      </c>
+      <c r="B231" s="76" t="s">
+        <v>425</v>
+      </c>
+      <c r="D231" s="61" t="s">
+        <v>404</v>
+      </c>
+      <c r="E231" s="61">
+        <v>107</v>
+      </c>
+      <c r="F231" s="61">
+        <v>139</v>
+      </c>
+      <c r="G231" s="61">
+        <v>1</v>
+      </c>
+      <c r="H231" s="61">
+        <v>2</v>
+      </c>
+      <c r="J231" s="50" t="s">
+        <v>77</v>
+      </c>
+      <c r="K231" s="69">
+        <v>42966</v>
+      </c>
+    </row>
+    <row r="232" spans="1:12" s="60" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A232" s="50">
+        <v>231</v>
+      </c>
+      <c r="B232" s="78"/>
+      <c r="D232" s="60" t="s">
+        <v>405</v>
+      </c>
+      <c r="E232" s="60">
+        <v>108</v>
+      </c>
+      <c r="F232" s="60">
+        <v>132</v>
+      </c>
+      <c r="G232" s="60">
+        <v>1</v>
+      </c>
+      <c r="H232" s="60">
+        <v>3</v>
+      </c>
+      <c r="J232" s="50" t="s">
+        <v>77</v>
+      </c>
+      <c r="K232" s="69">
+        <v>42966</v>
+      </c>
+    </row>
+    <row r="233" spans="1:12" s="61" customFormat="1" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A233" s="50">
+        <v>232</v>
+      </c>
+      <c r="B233" s="76" t="s">
+        <v>426</v>
+      </c>
+      <c r="D233" s="61" t="s">
+        <v>412</v>
+      </c>
+      <c r="E233" s="61">
+        <v>118</v>
+      </c>
+      <c r="F233" s="61">
+        <v>115</v>
+      </c>
+      <c r="G233" s="61">
+        <v>1</v>
+      </c>
+      <c r="H233" s="61">
+        <v>3</v>
+      </c>
+      <c r="J233" s="50" t="s">
+        <v>77</v>
+      </c>
+      <c r="K233" s="69">
+        <v>42966</v>
+      </c>
+    </row>
+    <row r="234" spans="1:12" s="50" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A234" s="50">
+        <v>233</v>
+      </c>
+      <c r="B234" s="77"/>
+      <c r="D234" s="50" t="s">
+        <v>413</v>
+      </c>
+      <c r="E234" s="50">
+        <v>119</v>
+      </c>
+      <c r="F234" s="50">
+        <v>72</v>
+      </c>
+      <c r="G234" s="50">
+        <v>1</v>
+      </c>
+      <c r="H234" s="50">
+        <v>3</v>
+      </c>
+      <c r="J234" s="50" t="s">
+        <v>77</v>
+      </c>
+      <c r="K234" s="69">
+        <v>42967</v>
+      </c>
+    </row>
+    <row r="235" spans="1:12" s="50" customFormat="1" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A235" s="50">
+        <v>234</v>
+      </c>
+      <c r="B235" s="77"/>
+      <c r="D235" s="50" t="s">
+        <v>402</v>
+      </c>
+      <c r="E235" s="50">
+        <v>77</v>
+      </c>
+      <c r="G235" s="50">
+        <v>1</v>
+      </c>
+      <c r="H235" s="61">
+        <v>2</v>
+      </c>
+      <c r="I235" s="61"/>
+      <c r="J235" s="50" t="s">
+        <v>77</v>
+      </c>
+      <c r="K235" s="69">
+        <v>42967</v>
+      </c>
+    </row>
+    <row r="236" spans="1:12" s="60" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A236" s="50">
+        <v>235</v>
+      </c>
+      <c r="B236" s="78"/>
+      <c r="D236" s="60" t="s">
+        <v>400</v>
+      </c>
+      <c r="E236" s="60">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="237" spans="1:12" s="61" customFormat="1" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A237" s="50">
+        <v>236</v>
+      </c>
+      <c r="B237" s="76" t="s">
+        <v>432</v>
+      </c>
+      <c r="D237" s="61" t="s">
+        <v>428</v>
+      </c>
+      <c r="E237" s="61">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="238" spans="1:12" s="50" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A238" s="50">
+        <v>237</v>
+      </c>
+      <c r="B238" s="77"/>
+      <c r="D238" s="50" t="s">
+        <v>429</v>
+      </c>
+      <c r="E238" s="50">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="239" spans="1:12" s="50" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A239" s="50">
+        <v>238</v>
+      </c>
+      <c r="B239" s="77"/>
+      <c r="D239" s="50" t="s">
+        <v>430</v>
+      </c>
+      <c r="E239" s="50">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="240" spans="1:12" s="50" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A240" s="50">
+        <v>239</v>
+      </c>
+      <c r="B240" s="77"/>
+      <c r="D240" s="50" t="s">
+        <v>431</v>
+      </c>
+      <c r="E240" s="50">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="241" spans="1:12" s="50" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A241" s="50">
+        <v>240</v>
+      </c>
+      <c r="B241" s="77"/>
+      <c r="D241" s="55" t="s">
+        <v>441</v>
+      </c>
+      <c r="E241" s="55">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="242" spans="1:12" s="60" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A242" s="50">
+        <v>241</v>
+      </c>
+      <c r="B242" s="78"/>
+    </row>
+    <row r="243" spans="1:12" s="51" customFormat="1" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A243" s="50">
+        <v>242</v>
+      </c>
+      <c r="D243" s="60" t="s">
+        <v>403</v>
+      </c>
+      <c r="E243" s="60">
+        <v>79</v>
+      </c>
+      <c r="G243" s="61">
+        <v>1</v>
+      </c>
+      <c r="H243" s="61">
+        <v>2</v>
+      </c>
+      <c r="I243" s="61"/>
+      <c r="J243" s="50" t="s">
+        <v>77</v>
+      </c>
+      <c r="K243" s="69">
+        <v>42967</v>
+      </c>
+      <c r="L243" s="51" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="244" spans="1:12" s="50" customFormat="1" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A244" s="50">
+        <v>243</v>
+      </c>
+      <c r="D244" s="50" t="s">
+        <v>414</v>
+      </c>
+      <c r="E244" s="50">
+        <v>200</v>
+      </c>
+      <c r="F244" s="50">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="245" spans="1:12" s="50" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A245" s="50">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="246" spans="1:12" s="50" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D246" s="50" t="s">
+        <v>416</v>
+      </c>
+      <c r="E246" s="50">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="247" spans="1:12" s="50" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A247" s="50">
         <v>223</v>
       </c>
-      <c r="D226" s="47"/>
-      <c r="E226" s="47"/>
-      <c r="F226" s="47"/>
-      <c r="G226" s="47"/>
-      <c r="H226" s="47"/>
-      <c r="I226" s="47"/>
-      <c r="J226" s="47"/>
-      <c r="K226" s="47"/>
-    </row>
-    <row r="227" spans="1:12" s="65" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A227" s="10"/>
-      <c r="B227" s="64"/>
-      <c r="C227" s="64"/>
-      <c r="D227" s="64"/>
-      <c r="E227" s="64"/>
-      <c r="F227" s="64"/>
-      <c r="G227" s="64"/>
-      <c r="H227" s="64"/>
-      <c r="I227" s="64"/>
-      <c r="J227" s="64"/>
-      <c r="K227" s="64"/>
-      <c r="L227" s="64"/>
-    </row>
-    <row r="228" spans="1:12" s="65" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A228" s="10"/>
-      <c r="B228" s="64"/>
-      <c r="C228" s="64"/>
-      <c r="D228" s="64"/>
-      <c r="E228" s="64"/>
-      <c r="F228" s="64"/>
-      <c r="G228" s="64"/>
-      <c r="H228" s="64"/>
-      <c r="I228" s="64"/>
-      <c r="J228" s="64"/>
-      <c r="K228" s="64"/>
-      <c r="L228" s="64"/>
-    </row>
-    <row r="229" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A229" s="10">
+      <c r="D247" s="50" t="s">
+        <v>417</v>
+      </c>
+      <c r="E247" s="50">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="248" spans="1:12" s="50" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D248" s="50" t="s">
+        <v>418</v>
+      </c>
+      <c r="E248" s="50">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="249" spans="1:12" s="50" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D249" s="50" t="s">
+        <v>419</v>
+      </c>
+      <c r="E249" s="50">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="250" spans="1:12" s="50" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A250" s="50">
         <v>223</v>
       </c>
-      <c r="D229" s="47"/>
-      <c r="E229" s="47"/>
-      <c r="F229" s="47"/>
-      <c r="G229" s="47"/>
-      <c r="H229" s="47"/>
-      <c r="I229" s="47"/>
-      <c r="J229" s="47"/>
-      <c r="K229" s="47"/>
-    </row>
-    <row r="230" spans="1:12" s="65" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A230" s="10"/>
-      <c r="B230" s="64"/>
-      <c r="C230" s="64"/>
-      <c r="D230" s="64"/>
-      <c r="E230" s="64"/>
-      <c r="F230" s="64"/>
-      <c r="G230" s="64"/>
-      <c r="H230" s="64"/>
-      <c r="I230" s="64"/>
-      <c r="J230" s="64"/>
-      <c r="K230" s="64"/>
-      <c r="L230" s="64"/>
-    </row>
-    <row r="231" spans="1:12" s="65" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A231" s="10"/>
-      <c r="B231" s="64"/>
-      <c r="C231" s="64"/>
-      <c r="D231" s="64"/>
-      <c r="E231" s="64"/>
-      <c r="F231" s="64"/>
-      <c r="G231" s="64"/>
-      <c r="H231" s="64"/>
-      <c r="I231" s="64"/>
-      <c r="J231" s="64"/>
-      <c r="K231" s="64"/>
-      <c r="L231" s="64"/>
-    </row>
-    <row r="232" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A232" s="10">
+      <c r="D250" s="50" t="s">
+        <v>420</v>
+      </c>
+      <c r="E250" s="50">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="251" spans="1:12" s="50" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D251" s="50" t="s">
+        <v>421</v>
+      </c>
+      <c r="E251" s="50">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="252" spans="1:12" s="50" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D252" s="50" t="s">
+        <v>433</v>
+      </c>
+      <c r="E252" s="50">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="253" spans="1:12" s="50" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A253" s="50">
         <v>223</v>
       </c>
-      <c r="D232" s="47"/>
-      <c r="E232" s="47"/>
-      <c r="F232" s="47"/>
-      <c r="G232" s="47"/>
-      <c r="H232" s="47"/>
-      <c r="I232" s="47"/>
-      <c r="J232" s="47"/>
-      <c r="K232" s="47"/>
-    </row>
-    <row r="233" spans="1:12" s="65" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A233" s="10"/>
-      <c r="B233" s="64"/>
-      <c r="C233" s="64"/>
-      <c r="D233" s="64"/>
-      <c r="E233" s="64"/>
-      <c r="F233" s="64"/>
-      <c r="G233" s="64"/>
-      <c r="H233" s="64"/>
-      <c r="I233" s="64"/>
-      <c r="J233" s="64"/>
-      <c r="K233" s="64"/>
-      <c r="L233" s="64"/>
-    </row>
-    <row r="234" spans="1:12" s="65" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A234" s="10"/>
-      <c r="B234" s="64"/>
-      <c r="C234" s="64"/>
-      <c r="D234" s="64"/>
-      <c r="E234" s="64"/>
-      <c r="F234" s="64"/>
-      <c r="G234" s="64"/>
-      <c r="H234" s="64"/>
-      <c r="I234" s="64"/>
-      <c r="J234" s="64"/>
-      <c r="K234" s="64"/>
-      <c r="L234" s="64"/>
-    </row>
-    <row r="235" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A235" s="10">
+      <c r="D253" s="50" t="s">
+        <v>434</v>
+      </c>
+      <c r="E253" s="50">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="254" spans="1:12" s="50" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D254" s="50" t="s">
+        <v>415</v>
+      </c>
+      <c r="E254" s="50">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="255" spans="1:12" s="50" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D255" s="50" t="s">
+        <v>435</v>
+      </c>
+      <c r="E255" s="50">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="256" spans="1:12" s="50" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A256" s="50">
         <v>223</v>
       </c>
-      <c r="D235" s="47"/>
-      <c r="E235" s="47"/>
-      <c r="F235" s="47"/>
-      <c r="G235" s="47"/>
-      <c r="H235" s="47"/>
-      <c r="I235" s="47"/>
-      <c r="J235" s="47"/>
-      <c r="K235" s="47"/>
-    </row>
-    <row r="236" spans="1:12" s="65" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A236" s="10"/>
-      <c r="B236" s="64"/>
-      <c r="C236" s="64"/>
-      <c r="D236" s="64"/>
-      <c r="E236" s="64"/>
-      <c r="F236" s="64"/>
-      <c r="G236" s="64"/>
-      <c r="H236" s="64"/>
-      <c r="I236" s="64"/>
-      <c r="J236" s="64"/>
-      <c r="K236" s="64"/>
-      <c r="L236" s="64"/>
-    </row>
-    <row r="237" spans="1:12" s="65" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A237" s="10"/>
-      <c r="B237" s="64"/>
-      <c r="C237" s="64"/>
-      <c r="D237" s="64"/>
-      <c r="E237" s="64"/>
-      <c r="F237" s="64"/>
-      <c r="G237" s="64"/>
-      <c r="H237" s="64"/>
-      <c r="I237" s="64"/>
-      <c r="J237" s="64"/>
-      <c r="K237" s="64"/>
-      <c r="L237" s="64"/>
-    </row>
-    <row r="238" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A238" s="10">
+      <c r="D256" s="50" t="s">
+        <v>436</v>
+      </c>
+      <c r="E256" s="50">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="257" spans="1:12" s="50" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D257" s="50" t="s">
+        <v>437</v>
+      </c>
+      <c r="E257" s="50">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="258" spans="1:12" s="50" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D258" s="50" t="s">
+        <v>438</v>
+      </c>
+      <c r="E258" s="50">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="259" spans="1:12" s="50" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A259" s="50">
         <v>223</v>
       </c>
-      <c r="D238" s="47"/>
-      <c r="E238" s="47"/>
-      <c r="F238" s="47"/>
-      <c r="G238" s="47"/>
-      <c r="H238" s="47"/>
-      <c r="I238" s="47"/>
-      <c r="J238" s="47"/>
-      <c r="K238" s="47"/>
-    </row>
-    <row r="239" spans="1:12" s="65" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A239" s="10"/>
-      <c r="B239" s="64"/>
-      <c r="C239" s="64"/>
-      <c r="D239" s="64"/>
-      <c r="E239" s="64"/>
-      <c r="F239" s="64"/>
-      <c r="G239" s="64"/>
-      <c r="H239" s="64"/>
-      <c r="I239" s="64"/>
-      <c r="J239" s="64"/>
-      <c r="K239" s="64"/>
-      <c r="L239" s="64"/>
-    </row>
-    <row r="240" spans="1:12" s="65" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A240" s="10"/>
-      <c r="B240" s="64"/>
-      <c r="C240" s="64"/>
-      <c r="D240" s="64"/>
-      <c r="E240" s="64"/>
-      <c r="F240" s="64"/>
-      <c r="G240" s="64"/>
-      <c r="H240" s="64"/>
-      <c r="I240" s="64"/>
-      <c r="J240" s="64"/>
-      <c r="K240" s="64"/>
-      <c r="L240" s="64"/>
-    </row>
-    <row r="241" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A241" s="10">
+      <c r="D259" s="50" t="s">
+        <v>440</v>
+      </c>
+      <c r="E259" s="50">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="260" spans="1:12" s="50" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D260" s="50" t="s">
+        <v>63</v>
+      </c>
+      <c r="E260" s="50">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="261" spans="1:12" s="50" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="262" spans="1:12" s="50" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A262" s="50">
         <v>223</v>
       </c>
-      <c r="D241" s="47"/>
-      <c r="E241" s="47"/>
-      <c r="F241" s="47"/>
-      <c r="G241" s="47"/>
-      <c r="H241" s="47"/>
-      <c r="I241" s="47"/>
-      <c r="J241" s="47"/>
-      <c r="K241" s="47"/>
-    </row>
-    <row r="242" spans="1:12" s="65" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A242" s="10"/>
-      <c r="B242" s="64"/>
-      <c r="C242" s="64"/>
-      <c r="D242" s="64"/>
-      <c r="E242" s="64"/>
-      <c r="F242" s="64"/>
-      <c r="G242" s="64"/>
-      <c r="H242" s="64"/>
-      <c r="I242" s="64"/>
-      <c r="J242" s="64"/>
-      <c r="K242" s="64"/>
-      <c r="L242" s="64"/>
-    </row>
-    <row r="243" spans="1:12" s="65" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A243" s="10"/>
-      <c r="B243" s="64"/>
-      <c r="C243" s="64"/>
-      <c r="D243" s="64"/>
-      <c r="E243" s="64"/>
-      <c r="F243" s="64"/>
-      <c r="G243" s="64"/>
-      <c r="H243" s="64"/>
-      <c r="I243" s="64"/>
-      <c r="J243" s="64"/>
-      <c r="K243" s="64"/>
-      <c r="L243" s="64"/>
-    </row>
-    <row r="244" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A244" s="10">
+      <c r="D262" s="50" t="s">
+        <v>442</v>
+      </c>
+      <c r="E262" s="50">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="263" spans="1:12" s="50" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D263" s="50" t="s">
+        <v>443</v>
+      </c>
+      <c r="E263" s="50">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="264" spans="1:12" s="50" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D264" s="50" t="s">
+        <v>439</v>
+      </c>
+      <c r="E264" s="50">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="265" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A265" s="57">
         <v>223</v>
       </c>
-      <c r="D244" s="47"/>
-      <c r="E244" s="47"/>
-      <c r="F244" s="47"/>
-      <c r="G244" s="47"/>
-      <c r="H244" s="47"/>
-      <c r="I244" s="47"/>
-      <c r="J244" s="47"/>
-      <c r="K244" s="47"/>
-    </row>
-    <row r="245" spans="1:12" s="65" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A245" s="10"/>
-      <c r="B245" s="64"/>
-      <c r="C245" s="64"/>
-      <c r="D245" s="64"/>
-      <c r="E245" s="64"/>
-      <c r="F245" s="64"/>
-      <c r="G245" s="64"/>
-      <c r="H245" s="64"/>
-      <c r="I245" s="64"/>
-      <c r="J245" s="64"/>
-      <c r="K245" s="64"/>
-      <c r="L245" s="64"/>
-    </row>
-    <row r="246" spans="1:12" s="65" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A246" s="10"/>
-      <c r="B246" s="64"/>
-      <c r="C246" s="64"/>
-      <c r="D246" s="64"/>
-      <c r="E246" s="64"/>
-      <c r="F246" s="64"/>
-      <c r="G246" s="64"/>
-      <c r="H246" s="64"/>
-      <c r="I246" s="64"/>
-      <c r="J246" s="64"/>
-      <c r="K246" s="64"/>
-      <c r="L246" s="64"/>
-    </row>
-    <row r="247" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A247" s="10">
-        <v>223</v>
-      </c>
-      <c r="D247" s="47"/>
-      <c r="E247" s="47"/>
-      <c r="F247" s="47"/>
-      <c r="G247" s="47"/>
-      <c r="H247" s="47"/>
-      <c r="I247" s="47"/>
-      <c r="J247" s="47"/>
-      <c r="K247" s="47"/>
-    </row>
-    <row r="248" spans="1:12" s="65" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A248" s="10"/>
-      <c r="B248" s="64"/>
-      <c r="C248" s="64"/>
-      <c r="D248" s="64"/>
-      <c r="E248" s="64"/>
-      <c r="F248" s="64"/>
-      <c r="G248" s="64"/>
-      <c r="H248" s="64"/>
-      <c r="I248" s="64"/>
-      <c r="J248" s="64"/>
-      <c r="K248" s="64"/>
-      <c r="L248" s="64"/>
-    </row>
-    <row r="249" spans="1:12" s="65" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A249" s="10"/>
-      <c r="B249" s="64"/>
-      <c r="C249" s="64"/>
-      <c r="D249" s="64"/>
-      <c r="E249" s="64"/>
-      <c r="F249" s="64"/>
-      <c r="G249" s="64"/>
-      <c r="H249" s="64"/>
-      <c r="I249" s="64"/>
-      <c r="J249" s="64"/>
-      <c r="K249" s="64"/>
-      <c r="L249" s="64"/>
-    </row>
-    <row r="250" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A250" s="10">
-        <v>223</v>
-      </c>
-      <c r="D250" s="47"/>
-      <c r="E250" s="47"/>
-      <c r="F250" s="47"/>
-      <c r="G250" s="47"/>
-      <c r="H250" s="47"/>
-      <c r="I250" s="47"/>
-      <c r="J250" s="47"/>
-      <c r="K250" s="47"/>
-    </row>
-    <row r="251" spans="1:12" s="65" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A251" s="10"/>
-      <c r="B251" s="64"/>
-      <c r="C251" s="64"/>
-      <c r="D251" s="64"/>
-      <c r="E251" s="64"/>
-      <c r="F251" s="64"/>
-      <c r="G251" s="64"/>
-      <c r="H251" s="64"/>
-      <c r="I251" s="64"/>
-      <c r="J251" s="64"/>
-      <c r="K251" s="64"/>
-      <c r="L251" s="64"/>
-    </row>
-    <row r="252" spans="1:12" s="65" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A252" s="10"/>
-      <c r="B252" s="64"/>
-      <c r="C252" s="64"/>
-      <c r="D252" s="64"/>
-      <c r="E252" s="64"/>
-      <c r="F252" s="64"/>
-      <c r="G252" s="64"/>
-      <c r="H252" s="64"/>
-      <c r="I252" s="64"/>
-      <c r="J252" s="64"/>
-      <c r="K252" s="64"/>
-      <c r="L252" s="64"/>
-    </row>
-    <row r="253" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A253" s="10">
-        <v>223</v>
-      </c>
-      <c r="D253" s="47"/>
-      <c r="E253" s="47"/>
-      <c r="F253" s="47"/>
-      <c r="G253" s="47"/>
-      <c r="H253" s="47"/>
-      <c r="I253" s="47"/>
-      <c r="J253" s="47"/>
-      <c r="K253" s="47"/>
-    </row>
-    <row r="254" spans="1:12" s="65" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A254" s="10"/>
-      <c r="B254" s="64"/>
-      <c r="C254" s="64"/>
-      <c r="D254" s="64"/>
-      <c r="E254" s="64"/>
-      <c r="F254" s="64"/>
-      <c r="G254" s="64"/>
-      <c r="H254" s="64"/>
-      <c r="I254" s="64"/>
-      <c r="J254" s="64"/>
-      <c r="K254" s="64"/>
-      <c r="L254" s="64"/>
-    </row>
-    <row r="255" spans="1:12" s="65" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A255" s="10"/>
-      <c r="B255" s="64"/>
-      <c r="C255" s="64"/>
-      <c r="D255" s="64"/>
-      <c r="E255" s="64"/>
-      <c r="F255" s="64"/>
-      <c r="G255" s="64"/>
-      <c r="H255" s="64"/>
-      <c r="I255" s="64"/>
-      <c r="J255" s="64"/>
-      <c r="K255" s="64"/>
-      <c r="L255" s="64"/>
-    </row>
-    <row r="256" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A256" s="10">
-        <v>223</v>
-      </c>
-      <c r="D256" s="47"/>
-      <c r="E256" s="47"/>
-      <c r="F256" s="47"/>
-      <c r="G256" s="47"/>
-      <c r="H256" s="47"/>
-      <c r="I256" s="47"/>
-      <c r="J256" s="47"/>
-      <c r="K256" s="47"/>
-    </row>
-    <row r="257" spans="1:12" s="65" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A257" s="10"/>
-      <c r="B257" s="64"/>
-      <c r="C257" s="64"/>
-      <c r="D257" s="64"/>
-      <c r="E257" s="64"/>
-      <c r="F257" s="64"/>
-      <c r="G257" s="64"/>
-      <c r="H257" s="64"/>
-      <c r="I257" s="64"/>
-      <c r="J257" s="64"/>
-      <c r="K257" s="64"/>
-      <c r="L257" s="64"/>
-    </row>
-    <row r="258" spans="1:12" s="65" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A258" s="10"/>
-      <c r="B258" s="64"/>
-      <c r="C258" s="64"/>
-      <c r="D258" s="64"/>
-      <c r="E258" s="64"/>
-      <c r="F258" s="64"/>
-      <c r="G258" s="64"/>
-      <c r="H258" s="64"/>
-      <c r="I258" s="64"/>
-      <c r="J258" s="64"/>
-      <c r="K258" s="64"/>
-      <c r="L258" s="64"/>
-    </row>
-    <row r="259" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A259" s="10">
-        <v>223</v>
-      </c>
-      <c r="D259" s="47"/>
-      <c r="E259" s="47"/>
-      <c r="F259" s="47"/>
-      <c r="G259" s="47"/>
-      <c r="H259" s="47"/>
-      <c r="I259" s="47"/>
-      <c r="J259" s="47"/>
-      <c r="K259" s="47"/>
-    </row>
-    <row r="260" spans="1:12" s="65" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A260" s="10"/>
-      <c r="B260" s="64"/>
-      <c r="C260" s="64"/>
-      <c r="D260" s="64"/>
-      <c r="E260" s="64"/>
-      <c r="F260" s="64"/>
-      <c r="G260" s="64"/>
-      <c r="H260" s="64"/>
-      <c r="I260" s="64"/>
-      <c r="J260" s="64"/>
-      <c r="K260" s="64"/>
-      <c r="L260" s="64"/>
-    </row>
-    <row r="261" spans="1:12" s="65" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A261" s="10"/>
-      <c r="B261" s="64"/>
-      <c r="C261" s="64"/>
-      <c r="D261" s="64"/>
-      <c r="E261" s="64"/>
-      <c r="F261" s="64"/>
-      <c r="G261" s="64"/>
-      <c r="H261" s="64"/>
-      <c r="I261" s="64"/>
-      <c r="J261" s="64"/>
-      <c r="K261" s="64"/>
-      <c r="L261" s="64"/>
-    </row>
-    <row r="262" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A262" s="10">
-        <v>223</v>
-      </c>
-      <c r="D262" s="47"/>
-      <c r="E262" s="47"/>
-      <c r="F262" s="47"/>
-      <c r="G262" s="47"/>
-      <c r="H262" s="47"/>
-      <c r="I262" s="47"/>
-      <c r="J262" s="47"/>
-      <c r="K262" s="47"/>
-    </row>
-    <row r="263" spans="1:12" s="65" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A263" s="10"/>
-      <c r="B263" s="64"/>
-      <c r="C263" s="64"/>
-      <c r="D263" s="64"/>
-      <c r="E263" s="64"/>
-      <c r="F263" s="64"/>
-      <c r="G263" s="64"/>
-      <c r="H263" s="64"/>
-      <c r="I263" s="64"/>
-      <c r="J263" s="64"/>
-      <c r="K263" s="64"/>
-      <c r="L263" s="64"/>
-    </row>
-    <row r="264" spans="1:12" s="65" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A264" s="10"/>
-      <c r="B264" s="64"/>
-      <c r="C264" s="64"/>
-      <c r="D264" s="64"/>
-      <c r="E264" s="64"/>
-      <c r="F264" s="64"/>
-      <c r="G264" s="64"/>
-      <c r="H264" s="64"/>
-      <c r="I264" s="64"/>
-      <c r="J264" s="64"/>
-      <c r="K264" s="64"/>
-      <c r="L264" s="64"/>
-    </row>
-    <row r="265" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A265" s="10">
-        <v>223</v>
-      </c>
-      <c r="D265" s="47"/>
-      <c r="E265" s="47"/>
-      <c r="F265" s="47"/>
-      <c r="G265" s="47"/>
-      <c r="H265" s="47"/>
-      <c r="I265" s="47"/>
-      <c r="J265" s="47"/>
-      <c r="K265" s="47"/>
-    </row>
-    <row r="266" spans="1:12" s="65" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D265" s="40"/>
+      <c r="E265" s="40"/>
+      <c r="F265" s="40"/>
+      <c r="G265" s="40"/>
+      <c r="H265" s="40"/>
+      <c r="I265" s="40"/>
+      <c r="J265" s="40"/>
+      <c r="K265" s="40"/>
+    </row>
+    <row r="266" spans="1:12" s="56" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A266" s="10"/>
-      <c r="B266" s="64"/>
-      <c r="C266" s="64"/>
-      <c r="D266" s="64"/>
-      <c r="E266" s="64"/>
-      <c r="F266" s="64"/>
-      <c r="G266" s="64"/>
-      <c r="H266" s="64"/>
-      <c r="I266" s="64"/>
-      <c r="J266" s="64"/>
-      <c r="K266" s="64"/>
-      <c r="L266" s="64"/>
-    </row>
-    <row r="267" spans="1:12" s="65" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B266" s="55"/>
+      <c r="C266" s="55"/>
+      <c r="D266" s="55"/>
+      <c r="E266" s="55"/>
+      <c r="F266" s="55"/>
+      <c r="G266" s="55"/>
+      <c r="H266" s="55"/>
+      <c r="I266" s="55"/>
+      <c r="J266" s="55"/>
+      <c r="K266" s="55"/>
+      <c r="L266" s="55"/>
+    </row>
+    <row r="267" spans="1:12" s="56" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A267" s="10"/>
-      <c r="B267" s="64"/>
-      <c r="C267" s="64"/>
-      <c r="D267" s="64"/>
-      <c r="E267" s="64"/>
-      <c r="F267" s="64"/>
-      <c r="G267" s="64"/>
-      <c r="H267" s="64"/>
-      <c r="I267" s="64"/>
-      <c r="J267" s="64"/>
-      <c r="K267" s="64"/>
-      <c r="L267" s="64"/>
+      <c r="B267" s="55"/>
+      <c r="C267" s="55"/>
+      <c r="D267" s="55"/>
+      <c r="E267" s="55"/>
+      <c r="F267" s="55"/>
+      <c r="G267" s="55"/>
+      <c r="H267" s="55"/>
+      <c r="I267" s="55"/>
+      <c r="J267" s="55"/>
+      <c r="K267" s="55"/>
+      <c r="L267" s="55"/>
     </row>
     <row r="268" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A268" s="10">
         <v>223</v>
       </c>
-      <c r="D268" s="47"/>
-      <c r="E268" s="47"/>
-      <c r="F268" s="47"/>
-      <c r="G268" s="47"/>
-      <c r="H268" s="47"/>
-      <c r="I268" s="47"/>
-      <c r="J268" s="47"/>
-      <c r="K268" s="47"/>
-    </row>
-    <row r="269" spans="1:12" s="65" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D268" s="40"/>
+      <c r="E268" s="40"/>
+      <c r="F268" s="40"/>
+      <c r="G268" s="40"/>
+      <c r="H268" s="40"/>
+      <c r="I268" s="40"/>
+      <c r="J268" s="40"/>
+      <c r="K268" s="40"/>
+    </row>
+    <row r="269" spans="1:12" s="56" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A269" s="10"/>
-      <c r="B269" s="64"/>
-      <c r="C269" s="64"/>
-      <c r="D269" s="64"/>
-      <c r="E269" s="64"/>
-      <c r="F269" s="64"/>
-      <c r="G269" s="64"/>
-      <c r="H269" s="64"/>
-      <c r="I269" s="64"/>
-      <c r="J269" s="64"/>
-      <c r="K269" s="64"/>
-      <c r="L269" s="64"/>
-    </row>
-    <row r="270" spans="1:12" s="65" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B269" s="55"/>
+      <c r="C269" s="55"/>
+      <c r="D269" s="55"/>
+      <c r="E269" s="55"/>
+      <c r="F269" s="55"/>
+      <c r="G269" s="55"/>
+      <c r="H269" s="55"/>
+      <c r="I269" s="55"/>
+      <c r="J269" s="55"/>
+      <c r="K269" s="55"/>
+      <c r="L269" s="55"/>
+    </row>
+    <row r="270" spans="1:12" s="56" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A270" s="10"/>
-      <c r="B270" s="64"/>
-      <c r="C270" s="64"/>
-      <c r="D270" s="64"/>
-      <c r="E270" s="64"/>
-      <c r="F270" s="64"/>
-      <c r="G270" s="64"/>
-      <c r="H270" s="64"/>
-      <c r="I270" s="64"/>
-      <c r="J270" s="64"/>
-      <c r="K270" s="64"/>
-      <c r="L270" s="64"/>
+      <c r="B270" s="55"/>
+      <c r="C270" s="55"/>
+      <c r="D270" s="55"/>
+      <c r="E270" s="55"/>
+      <c r="F270" s="55"/>
+      <c r="G270" s="55"/>
+      <c r="H270" s="55"/>
+      <c r="I270" s="55"/>
+      <c r="J270" s="55"/>
+      <c r="K270" s="55"/>
+      <c r="L270" s="55"/>
     </row>
     <row r="271" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A271" s="10">
         <v>223</v>
       </c>
-      <c r="D271" s="47"/>
-      <c r="E271" s="47"/>
-      <c r="F271" s="47"/>
-      <c r="G271" s="47"/>
-      <c r="H271" s="47"/>
-      <c r="I271" s="47"/>
-      <c r="J271" s="47"/>
-      <c r="K271" s="47"/>
+      <c r="D271" s="40"/>
+      <c r="E271" s="40"/>
+      <c r="F271" s="40"/>
+      <c r="G271" s="40"/>
+      <c r="H271" s="40"/>
+      <c r="I271" s="40"/>
+      <c r="J271" s="40"/>
+      <c r="K271" s="40"/>
     </row>
     <row r="272" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A272" s="10">
@@ -7263,7 +7761,7 @@
       </c>
       <c r="G272">
         <f>SUM(G2:G216)</f>
-        <v>117</v>
+        <v>121</v>
       </c>
     </row>
     <row r="273" spans="1:1" x14ac:dyDescent="0.2">
@@ -7520,7 +8018,11 @@
   <sortState ref="A1:K133">
     <sortCondition ref="A1"/>
   </sortState>
-  <mergeCells count="6">
+  <mergeCells count="10">
+    <mergeCell ref="B237:B242"/>
+    <mergeCell ref="B231:B232"/>
+    <mergeCell ref="B223:B230"/>
+    <mergeCell ref="B233:B236"/>
     <mergeCell ref="C158:C162"/>
     <mergeCell ref="C156:C157"/>
     <mergeCell ref="C163:C165"/>
@@ -7545,7 +8047,7 @@
   <dimension ref="A1:X163"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A112" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A128" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="I131" sqref="I131"/>
     </sheetView>
   </sheetViews>
@@ -8023,7 +8525,7 @@
     </row>
     <row r="18" spans="1:14" ht="18" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
-      <c r="B18" s="43" t="s">
+      <c r="B18" s="80" t="s">
         <v>256</v>
       </c>
       <c r="C18" s="1"/>
@@ -8057,7 +8559,7 @@
     </row>
     <row r="19" spans="1:14" ht="18" x14ac:dyDescent="0.2">
       <c r="A19" s="1"/>
-      <c r="B19" s="44"/>
+      <c r="B19" s="81"/>
       <c r="C19" s="1">
         <v>100</v>
       </c>
@@ -8091,7 +8593,7 @@
     </row>
     <row r="20" spans="1:14" ht="18" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
-      <c r="B20" s="44"/>
+      <c r="B20" s="81"/>
       <c r="C20" s="1">
         <v>101</v>
       </c>
@@ -8119,7 +8621,7 @@
     </row>
     <row r="21" spans="1:14" ht="18" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>
-      <c r="B21" s="44"/>
+      <c r="B21" s="81"/>
       <c r="C21" s="1">
         <v>172</v>
       </c>
@@ -8380,7 +8882,7 @@
     </row>
     <row r="30" spans="1:14" ht="18" x14ac:dyDescent="0.2">
       <c r="A30" s="1"/>
-      <c r="B30" s="45" t="s">
+      <c r="B30" s="82" t="s">
         <v>297</v>
       </c>
       <c r="C30" s="1"/>
@@ -8416,7 +8918,7 @@
       </c>
     </row>
     <row r="31" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B31" s="45"/>
+      <c r="B31" s="82"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1">
         <v>628</v>
@@ -8450,7 +8952,7 @@
       </c>
     </row>
     <row r="32" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B32" s="46" t="s">
+      <c r="B32" s="83" t="s">
         <v>254</v>
       </c>
       <c r="C32" s="1">
@@ -8482,7 +8984,7 @@
       </c>
     </row>
     <row r="33" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B33" s="46"/>
+      <c r="B33" s="83"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1">
         <v>645</v>
@@ -8510,7 +9012,7 @@
       <c r="A34" t="s">
         <v>246</v>
       </c>
-      <c r="B34" s="46"/>
+      <c r="B34" s="83"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1">
         <v>448</v>
@@ -8538,7 +9040,7 @@
       </c>
     </row>
     <row r="35" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B35" s="46"/>
+      <c r="B35" s="83"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1">
         <v>442</v>
@@ -8563,7 +9065,7 @@
       </c>
     </row>
     <row r="36" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B36" s="46"/>
+      <c r="B36" s="83"/>
       <c r="C36" s="1">
         <v>633</v>
       </c>
@@ -8590,7 +9092,7 @@
       </c>
     </row>
     <row r="37" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B37" s="46"/>
+      <c r="B37" s="83"/>
       <c r="C37" s="1">
         <v>189</v>
       </c>
@@ -8617,7 +9119,7 @@
       </c>
     </row>
     <row r="38" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B38" s="46" t="s">
+      <c r="B38" s="83" t="s">
         <v>301</v>
       </c>
       <c r="C38" s="1">
@@ -8652,7 +9154,7 @@
       </c>
     </row>
     <row r="39" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B39" s="46"/>
+      <c r="B39" s="83"/>
       <c r="C39" s="1">
         <v>47</v>
       </c>
@@ -10937,4 +11439,289 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I17"/>
+  <sheetViews>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="54" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="141.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="19" x14ac:dyDescent="0.25">
+      <c r="A1" s="62" t="s">
+        <v>444</v>
+      </c>
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
+      <c r="G1" s="62"/>
+      <c r="H1" s="62"/>
+      <c r="I1" s="63"/>
+    </row>
+    <row r="2" spans="1:9" ht="19" x14ac:dyDescent="0.25">
+      <c r="A2" s="62" t="s">
+        <v>445</v>
+      </c>
+      <c r="B2" s="62" t="s">
+        <v>446</v>
+      </c>
+      <c r="C2" s="62" t="s">
+        <v>447</v>
+      </c>
+      <c r="D2" s="62" t="s">
+        <v>448</v>
+      </c>
+      <c r="E2" s="62"/>
+      <c r="F2" s="62"/>
+      <c r="G2" s="62"/>
+      <c r="H2" s="62"/>
+      <c r="I2" s="63"/>
+    </row>
+    <row r="3" spans="1:9" ht="19" x14ac:dyDescent="0.25">
+      <c r="A3" s="62"/>
+      <c r="B3" s="64" t="s">
+        <v>449</v>
+      </c>
+      <c r="C3" s="62" t="s">
+        <v>450</v>
+      </c>
+      <c r="D3" s="62" t="s">
+        <v>451</v>
+      </c>
+      <c r="E3" s="62"/>
+      <c r="F3" s="62"/>
+      <c r="G3" s="62"/>
+      <c r="H3" s="62"/>
+      <c r="I3" s="63"/>
+    </row>
+    <row r="4" spans="1:9" ht="19" x14ac:dyDescent="0.25">
+      <c r="A4" s="62"/>
+      <c r="B4" s="62" t="s">
+        <v>452</v>
+      </c>
+      <c r="C4" s="62" t="s">
+        <v>453</v>
+      </c>
+      <c r="D4" s="62" t="s">
+        <v>454</v>
+      </c>
+      <c r="E4" s="62"/>
+      <c r="F4" s="62"/>
+      <c r="G4" s="62"/>
+      <c r="H4" s="62"/>
+      <c r="I4" s="63"/>
+    </row>
+    <row r="5" spans="1:9" ht="19" x14ac:dyDescent="0.25">
+      <c r="A5" s="62"/>
+      <c r="B5" s="62" t="s">
+        <v>455</v>
+      </c>
+      <c r="C5" s="62"/>
+      <c r="D5" s="62"/>
+      <c r="E5" s="62"/>
+      <c r="F5" s="62"/>
+      <c r="G5" s="62"/>
+      <c r="H5" s="62"/>
+      <c r="I5" s="63"/>
+    </row>
+    <row r="6" spans="1:9" ht="19" x14ac:dyDescent="0.25">
+      <c r="A6" s="62"/>
+      <c r="B6" s="62"/>
+      <c r="C6" s="62"/>
+      <c r="D6" s="62"/>
+      <c r="E6" s="62"/>
+      <c r="F6" s="62"/>
+      <c r="G6" s="62"/>
+      <c r="H6" s="62"/>
+      <c r="I6" s="63"/>
+    </row>
+    <row r="7" spans="1:9" ht="19" x14ac:dyDescent="0.25">
+      <c r="A7" s="62" t="s">
+        <v>456</v>
+      </c>
+      <c r="B7" s="65" t="s">
+        <v>457</v>
+      </c>
+      <c r="C7" s="65" t="s">
+        <v>458</v>
+      </c>
+      <c r="D7" s="66" t="s">
+        <v>459</v>
+      </c>
+      <c r="E7" s="62"/>
+      <c r="F7" s="62"/>
+      <c r="G7" s="62"/>
+      <c r="H7" s="62"/>
+      <c r="I7" s="63"/>
+    </row>
+    <row r="8" spans="1:9" ht="19" x14ac:dyDescent="0.25">
+      <c r="A8" s="62" t="s">
+        <v>460</v>
+      </c>
+      <c r="B8" s="65" t="s">
+        <v>461</v>
+      </c>
+      <c r="C8" s="66" t="s">
+        <v>462</v>
+      </c>
+      <c r="D8" s="62"/>
+      <c r="E8" s="62"/>
+      <c r="F8" s="62"/>
+      <c r="G8" s="62"/>
+      <c r="H8" s="63"/>
+      <c r="I8" s="63"/>
+    </row>
+    <row r="9" spans="1:9" ht="19" x14ac:dyDescent="0.25">
+      <c r="A9" s="62"/>
+      <c r="B9" s="62" t="s">
+        <v>463</v>
+      </c>
+      <c r="C9" s="66" t="s">
+        <v>464</v>
+      </c>
+      <c r="D9" s="62"/>
+      <c r="E9" s="62"/>
+      <c r="F9" s="62"/>
+      <c r="G9" s="62"/>
+      <c r="H9" s="63"/>
+      <c r="I9" s="63"/>
+    </row>
+    <row r="10" spans="1:9" ht="19" x14ac:dyDescent="0.25">
+      <c r="A10" s="65" t="s">
+        <v>465</v>
+      </c>
+      <c r="B10" s="62" t="s">
+        <v>466</v>
+      </c>
+      <c r="C10" s="66" t="s">
+        <v>467</v>
+      </c>
+      <c r="D10" s="62"/>
+      <c r="E10" s="62"/>
+      <c r="F10" s="62"/>
+      <c r="G10" s="62"/>
+      <c r="H10" s="63"/>
+      <c r="I10" s="63"/>
+    </row>
+    <row r="11" spans="1:9" ht="19" x14ac:dyDescent="0.25">
+      <c r="A11" s="67" t="s">
+        <v>468</v>
+      </c>
+      <c r="B11" s="67" t="s">
+        <v>469</v>
+      </c>
+      <c r="C11" s="65" t="s">
+        <v>470</v>
+      </c>
+      <c r="D11" s="62"/>
+      <c r="E11" s="62"/>
+      <c r="F11" s="62"/>
+      <c r="G11" s="62"/>
+      <c r="H11" s="63"/>
+      <c r="I11" s="63"/>
+    </row>
+    <row r="12" spans="1:9" ht="19" x14ac:dyDescent="0.25">
+      <c r="A12" s="67"/>
+      <c r="B12" s="67" t="s">
+        <v>471</v>
+      </c>
+      <c r="C12" s="62" t="s">
+        <v>472</v>
+      </c>
+      <c r="D12" s="62"/>
+      <c r="E12" s="62"/>
+      <c r="F12" s="62"/>
+      <c r="G12" s="62"/>
+      <c r="H12" s="63"/>
+      <c r="I12" s="63"/>
+    </row>
+    <row r="13" spans="1:9" ht="19" x14ac:dyDescent="0.25">
+      <c r="A13" s="62"/>
+      <c r="B13" s="62"/>
+      <c r="C13" s="62" t="s">
+        <v>473</v>
+      </c>
+      <c r="D13" s="62" t="s">
+        <v>474</v>
+      </c>
+      <c r="E13" s="62"/>
+      <c r="F13" s="62"/>
+      <c r="G13" s="62"/>
+      <c r="H13" s="62"/>
+      <c r="I13" s="63"/>
+    </row>
+    <row r="14" spans="1:9" ht="19" x14ac:dyDescent="0.25">
+      <c r="A14" s="62"/>
+      <c r="B14" s="62"/>
+      <c r="C14" s="66" t="s">
+        <v>475</v>
+      </c>
+      <c r="D14" s="62" t="s">
+        <v>476</v>
+      </c>
+      <c r="E14" s="62"/>
+      <c r="F14" s="62"/>
+      <c r="G14" s="62"/>
+      <c r="H14" s="62"/>
+      <c r="I14" s="63"/>
+    </row>
+    <row r="15" spans="1:9" ht="19" x14ac:dyDescent="0.25">
+      <c r="A15" s="62" t="s">
+        <v>477</v>
+      </c>
+      <c r="B15" s="62"/>
+      <c r="C15" s="64" t="s">
+        <v>478</v>
+      </c>
+      <c r="D15" s="62" t="s">
+        <v>479</v>
+      </c>
+      <c r="E15" s="62"/>
+      <c r="F15" s="62"/>
+      <c r="G15" s="62"/>
+      <c r="H15" s="62"/>
+      <c r="I15" s="63"/>
+    </row>
+    <row r="16" spans="1:9" ht="19" x14ac:dyDescent="0.25">
+      <c r="A16" s="62"/>
+      <c r="B16" s="68" t="s">
+        <v>480</v>
+      </c>
+      <c r="C16" s="62" t="s">
+        <v>481</v>
+      </c>
+      <c r="D16" s="62" t="s">
+        <v>482</v>
+      </c>
+      <c r="E16" s="62"/>
+      <c r="F16" s="62"/>
+      <c r="G16" s="62"/>
+      <c r="H16" s="62"/>
+      <c r="I16" s="63"/>
+    </row>
+    <row r="17" spans="1:9" ht="19" x14ac:dyDescent="0.25">
+      <c r="A17" s="62"/>
+      <c r="B17" s="62"/>
+      <c r="C17" s="62"/>
+      <c r="D17" s="62"/>
+      <c r="E17" s="62"/>
+      <c r="F17" s="62"/>
+      <c r="G17" s="62"/>
+      <c r="H17" s="62"/>
+      <c r="I17" s="63"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/mycode/刷题统计.xlsx
+++ b/mycode/刷题统计.xlsx
@@ -9,14 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="20" yWindow="500" windowWidth="23340" windowHeight="14180" tabRatio="500"/>
+    <workbookView xWindow="2680" yWindow="460" windowWidth="23340" windowHeight="14180" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
-    <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -31,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1007" uniqueCount="675">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="830" uniqueCount="509">
   <si>
     <t>1 binary search</t>
   </si>
@@ -1541,548 +1539,13 @@
     <t>word ladder</t>
   </si>
   <si>
-    <t>palo alto networks</t>
-  </si>
-  <si>
-    <t>Google</t>
-  </si>
-  <si>
-    <t>孙欣</t>
-  </si>
-  <si>
-    <t>Yahoo</t>
-  </si>
-  <si>
-    <t>snapchat</t>
-  </si>
-  <si>
-    <t>崔昊 hao@snapchat.com</t>
-  </si>
-  <si>
-    <t>linkedin</t>
-  </si>
-  <si>
-    <t>fbreferral16to17@gmail.com-g</t>
-  </si>
-  <si>
-    <t>Subject: [LinkedInRefer] 姓名 - 学校 - 专业 eg: [LinkedInRefer] Ravi Hehe - CMU - CS
-Body:
-1. full name:
-2. contact email:
-3. LinkedIn URL:
-4. why are you a good fit to LinkedIn (short. two to three sentences):
-5. resume in pdf as attachment
-6. Leetcode My Progress截图 as attachment</t>
-  </si>
-  <si>
-    <t>facebook</t>
-  </si>
-  <si>
-    <t>fb.refertoemploy@gmail.com</t>
-  </si>
-  <si>
-    <t>华为</t>
-  </si>
-  <si>
-    <t>姐</t>
-  </si>
-  <si>
-    <t>微软</t>
-  </si>
-  <si>
-    <t>refercase33@gmail.com</t>
-  </si>
-  <si>
-    <t>邮件格式
-标题：微软内推+职位（new grad请标注）
-简历附件
-内容：. visit 1point3acres.com for more.
-1. 姓名+简单中文介绍
-2. 岗位名称+链接
-3. 第三人称英文介绍
-4. 毕业时间+面试准备情况</t>
-  </si>
-  <si>
-    <t>6sense</t>
-  </si>
-  <si>
-    <t>我的邮箱:6senserefer@gmail.com</t>
-  </si>
-  <si>
-    <t>需要内推的在邮件中注明你的：
-姓名
-毕业时间
-Linkedin.鐣欏璁哄潧-涓€浜�-涓夊垎鍦�
-github
-leetcode情况
-并附上你的简历（pdf）</t>
-  </si>
-  <si>
-    <t>https://www.okta.com/company/careers/</t>
-  </si>
-  <si>
-    <t>okta.referal@gmail.com</t>
-  </si>
-  <si>
-    <t>1.你感兴趣的职位
-2.简历. more info on 1point3acres.com
-3.一段简短的三单介绍</t>
-  </si>
-  <si>
-    <t>ibmreferral2016@gmail.com facebook.com/ibmreferral2016</t>
-  </si>
-  <si>
-    <t>1. 姓名
-2. 邮箱
-3. JOB ID - 请先在IBM网站查好</t>
-  </si>
-  <si>
-    <t>offergotcha@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.google.com/about/careers
-https://www.solveforx.com/join/
-https://www.linkedin.com/jobs/linkedin-jobs
-https://www.facebook.com/careers/
-https://www.snapchat.com/jobs
-100-200词的自我介绍 （请用第三人称，relevant experience, 以及觉得为什么自己能胜任</t>
-  </si>
-  <si>
-    <t>Zenefits</t>
-  </si>
-  <si>
-    <t>zenefits.referal@gmail.com：</t>
-  </si>
-  <si>
-    <t>https://www.zenefits.com/careers/ ；*简历，*名字，*联系方式,*感兴趣职位,*什么时候能入职用python做后端，Django. Javascript做前端, ember
-要求能越快入职越好，最好有1-2年工作经，现在fresh graduate不怎么招了</t>
-  </si>
-  <si>
-    <t>VMware</t>
-  </si>
-  <si>
-    <t>kaiweiz@hotmail.com.</t>
-  </si>
-  <si>
-    <t>建议邮件标题以[VMware内推]开头，如果有具体职位job id有兴趣, 请在邮件里说明(找requisition number)，内推的时候可以填。不说明我会根据简历直接填部门和地区，也就是engineer(R&amp;D), palo alto, CA. （如果进了职位应该是MTS, member of technical staff）
-如果录取了欢迎找我进一步交流，可以跟你讲讲具体公司是什么样的环境。（拿到了电面/onsite的可以也找我私聊 我帮你分析分析套路）</t>
-  </si>
-  <si>
-    <t>Apple</t>
-  </si>
-  <si>
-    <t>RogerShen1988 gmail</t>
-  </si>
-  <si>
-    <t>需要内推的把简历和job request number一起发给我；朋友整理上线了面试准备的参考资料，链接：http://www.1point3acres.com/bbs/thread-129212-1-1.html；关于面试准备的资料：http://www.1point3acres.com/bbs/thread-130162-1-1.html.</t>
-  </si>
-  <si>
-    <t>apple</t>
-  </si>
-  <si>
-    <t>kirone.d@gmail.com</t>
-  </si>
-  <si>
-    <t>Bloomberg</t>
-  </si>
-  <si>
-    <t>rbtc89126@gmail.com</t>
-  </si>
-  <si>
-    <t>3. 要求：（1）请将您的简历上写的姓名和邮箱发到rbtc89126@gmail.com或者站内私信我，我会将内推的链接发到你的邮箱。
-（2）需要准备一份第三人称的介绍，不需要给我，点击内推的链接后，自行填上去
-（3）邮件请以 “2016 Bloomberg 内推 ” + Fulltime/Intern/工作职位 为标题，谢谢</t>
-  </si>
-  <si>
-    <t>Cerner</t>
-  </si>
-  <si>
-    <t>cerner.referral@gmail.com</t>
-  </si>
-  <si>
-    <t>不招国际intern</t>
-  </si>
-  <si>
-    <t>walmart</t>
-  </si>
-  <si>
-    <t>walmartreferDOTgmailDOTcom</t>
-  </si>
-  <si>
-    <t>请在标题注明walmart internship refer，然后选择一个合适的方向：software engineer，data scientist，marketing等等。. 1point 3acres 璁哄潧
-发简历时，简历的命名格式为：name_refer area, 例如：San Zhang_software engineer 或者 Si Li_data scientist, 然后在邮件正文附上一小段个人简介。</t>
-  </si>
-  <si>
-    <t>Salesforce</t>
-  </si>
-  <si>
-    <t>steven glogou</t>
-  </si>
-  <si>
-    <t>Tableau</t>
-  </si>
-  <si>
-    <t>bluemark2015@gmail.com</t>
-  </si>
-  <si>
-    <t>有兴趣的朋友请到http://careers.tableau.com/看看有没有感兴趣的工作，然后把简历和工作名称，最好还有一段第三人称推荐的话（英文），发到bluemark2015@gmail.com，如果对地点有要求，请重点标注，建议intern自己投</t>
-  </si>
-  <si>
-    <t>thumbtack</t>
-  </si>
-  <si>
-    <t>thumbtack.alacat@gmail.com</t>
-  </si>
-  <si>
-    <t>简历命名firstname_lastname.pdf (doc)吧
-做那个小项目和电面不要问我（问我就是刷题，再刷题，有时间的话了解一下公司产品
-），拿到onsite以后如果想了解更多欢迎给我发邮件</t>
-  </si>
-  <si>
-    <t>SAP</t>
-  </si>
-  <si>
-    <t>apollo.synth@gmail.com</t>
-  </si>
-  <si>
-    <t>https://www.sap.com/careers/index.html#</t>
-  </si>
-  <si>
-    <t>Akamai</t>
-  </si>
-  <si>
-    <t>akabigdata@gmail.com</t>
-  </si>
-  <si>
-    <t>http://jobs.akamai.com</t>
-  </si>
-  <si>
-    <t>Tapjoy</t>
-  </si>
-  <si>
-    <t>MENG MENG</t>
-  </si>
-  <si>
-    <t>EBAY</t>
-  </si>
-  <si>
-    <t>主推Software Engineer, Quality Engineer, Data Scientist/ Analyst其他任何职位也可，需要了解具体情况请不要犹豫的联系我。第一步：大家可以通过这个链接搜索并申请 j.rfer点us/EBR_EVl9F(把"点"换成".",防止广告). 
-第二步：通过以上链接提交申请后把JobID和简历发我邮箱 pilixiaoxi在gmail点com (可以发多个job ID)最好附上一段第三人称的简要叙述，几句话即可，我会在给recruiter的邮件里附上此叙述。我收到邮件会在24小时内定给大家内推，大家会收到确认邮件。如果过了一天没有收到回复或者有任何问题就联系我，我最迟深夜回复大家。</t>
-  </si>
-  <si>
-    <t>Yahoo Gemini(ads)组，</t>
-  </si>
-  <si>
-    <t>jerryzhang890101@gmail.com</t>
-  </si>
-  <si>
-    <t>Tapad</t>
-  </si>
-  <si>
-    <t>aaron.wang AT tapad.com</t>
-  </si>
-  <si>
-    <t>http://www.leiphone.com/news/201406/mobile-retargeting-tapad.html 有意者请将简历发到 aaron.wang AT tapad.com，并附上感兴趣的职位名称（如有多个请排序）和一段自我介绍。我会把材料直接转交给HR。如果通过了电话面试，我还可以电话辅导一下onsite面试;为了更快让HR看到简历，请移步www.tapad.com/about-us/careers/openings/提交简历（请在“How did you hear about this job? ”一栏填写“Aaron's Referral”）</t>
-  </si>
-  <si>
-    <t>yahoo</t>
-  </si>
-  <si>
-    <t>https://careers.yahoo.com/us/ 搜寻相关职位，把感兴趣的职位Job Number或者链接，以及简历发送到 - gshliou89@yahoo.com</t>
-  </si>
-  <si>
-    <t>PayPal</t>
-  </si>
-  <si>
-    <t>学姐Lauren</t>
-  </si>
-  <si>
-    <t>eBay</t>
-  </si>
-  <si>
-    <t>； https://jobs.ebayinc.com/jobs/2437501-195/San-Jose-California-Frontend-Software-Engineer-Intern-MS?lang=en-US；https://jobs.ebayinc.com/jobs/2437630-195/San-Jose-California-Quality-Software-Engineer-Intern-MS?lang=en-US</t>
-  </si>
-  <si>
-    <t>九章</t>
-  </si>
-  <si>
-    <t>https://jobs.ebayinc.com/jobs/2437628-195/San-Jose-California-Backend-Software-Engineer-Intern-MS?lang=en-US</t>
-  </si>
-  <si>
-    <t>uber</t>
-  </si>
-  <si>
-    <t>airbnb</t>
-  </si>
-  <si>
-    <t>Pinterest</t>
-  </si>
-  <si>
-    <t>Facebook</t>
-  </si>
-  <si>
-    <t>LinkedIn</t>
-  </si>
-  <si>
-    <t>Twitter.</t>
-  </si>
-  <si>
-    <t>Dropbox</t>
-  </si>
-  <si>
-    <t>Amazon</t>
-  </si>
-  <si>
-    <t>Micriosoft</t>
-  </si>
-  <si>
-    <t>Yelp</t>
-  </si>
-  <si>
-    <t>Netflix</t>
-  </si>
-  <si>
-    <t>Skype</t>
-  </si>
-  <si>
-    <t>VMWare</t>
-  </si>
-  <si>
-    <t>Groupon</t>
-  </si>
-  <si>
-    <t>Paypal</t>
-  </si>
-  <si>
-    <t>Evernote</t>
-  </si>
-  <si>
-    <t>Box.com.</t>
-  </si>
-  <si>
-    <t>Quora</t>
-  </si>
-  <si>
-    <t>A9.com</t>
-  </si>
-  <si>
-    <t>126Lab</t>
-  </si>
-  <si>
-    <t>Palantir</t>
-  </si>
-  <si>
-    <t>Square</t>
-  </si>
-  <si>
-    <t>zynga</t>
-  </si>
-  <si>
-    <t>Oracle</t>
-  </si>
-  <si>
-    <t>EMC</t>
-  </si>
-  <si>
-    <t>Intuit</t>
-  </si>
-  <si>
-    <t>NetApp</t>
-  </si>
-  <si>
-    <t>NetSuite</t>
-  </si>
-  <si>
-    <t>Yahoo.</t>
-  </si>
-  <si>
-    <t>Adobe</t>
-  </si>
-  <si>
-    <t>Autodesk</t>
-  </si>
-  <si>
-    <t>Symantec</t>
-  </si>
-  <si>
-    <t>Riverbed.</t>
-  </si>
-  <si>
-    <t>Quantcast</t>
-  </si>
-  <si>
-    <t>Concur</t>
-  </si>
-  <si>
-    <t>Aster Data</t>
-  </si>
-  <si>
-    <t>Citrix</t>
-  </si>
-  <si>
-    <t>EA / EA Data Platform.</t>
-  </si>
-  <si>
-    <t>Expedia</t>
-  </si>
-  <si>
-    <t>RedHat</t>
-  </si>
-  <si>
-    <t>RackSpace</t>
-  </si>
-  <si>
-    <t>jp morgan</t>
-  </si>
-  <si>
-    <t>morgan stanley</t>
-  </si>
-  <si>
-    <t>mathswork</t>
-  </si>
-  <si>
-    <t>Qualcomm</t>
-  </si>
-  <si>
-    <t>Tripadvisor</t>
-  </si>
-  <si>
-    <t>Trulia</t>
-  </si>
-  <si>
-    <t>intel</t>
-  </si>
-  <si>
-    <t>Epic</t>
-  </si>
-  <si>
-    <t>Chartboost</t>
-  </si>
-  <si>
-    <t>Rock Fuel</t>
-  </si>
-  <si>
-    <t>Noom</t>
-  </si>
-  <si>
-    <t>Vertica</t>
-  </si>
-  <si>
-    <t>MongoDB</t>
-  </si>
-  <si>
-    <t>Indeed</t>
-  </si>
-  <si>
-    <t>WalmartLabs</t>
-  </si>
-  <si>
-    <t>乐天（</t>
-  </si>
-  <si>
-    <t>Coursera</t>
-  </si>
-  <si>
-    <t>Booking.com</t>
-  </si>
-  <si>
-    <t>Samsung</t>
-  </si>
-  <si>
-    <t>Alarm.com</t>
-  </si>
-  <si>
-    <t>Quixey</t>
-  </si>
-  <si>
-    <t>Storm8</t>
-  </si>
-  <si>
-    <t>IBM</t>
-  </si>
-  <si>
-    <t>CISCO</t>
-  </si>
-  <si>
-    <t>HP</t>
-  </si>
-  <si>
-    <t>MOTOROLA</t>
-  </si>
-  <si>
-    <t>BOEING</t>
-  </si>
-  <si>
-    <t>DELL</t>
-  </si>
-  <si>
-    <t>ZILLOW</t>
-  </si>
-  <si>
-    <t>Orbitz</t>
-  </si>
-  <si>
-    <t>Redfin</t>
-  </si>
-  <si>
-    <t>advisory board</t>
-  </si>
-  <si>
-    <t>vpay</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Snapchat</t>
-  </si>
-  <si>
-    <t>Slack</t>
-  </si>
-  <si>
-    <t>Cloudera</t>
-  </si>
-  <si>
-    <t>王龙灵</t>
-  </si>
-  <si>
-    <t>婷婷老公</t>
-  </si>
-  <si>
-    <t>Lily</t>
-  </si>
-  <si>
-    <t>candace</t>
-  </si>
-  <si>
-    <t>王大伟</t>
-  </si>
-  <si>
-    <t>老公找人</t>
-  </si>
-  <si>
-    <t>june</t>
-  </si>
-  <si>
-    <t>refer</t>
-  </si>
-  <si>
-    <t>refer投</t>
-  </si>
-  <si>
-    <t>自己投</t>
-  </si>
-  <si>
     <t>sorted()</t>
   </si>
   <si>
-    <t>steven</t>
-  </si>
-  <si>
     <t>Kth Smallest Element in a BST</t>
   </si>
   <si>
     <t>Arranging Coins</t>
-  </si>
-  <si>
-    <t>tangshikai</t>
   </si>
   <si>
     <t>add one row to tree</t>
@@ -2101,7 +1564,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="25" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2189,65 +1652,6 @@
       <sz val="14"/>
       <color rgb="FF000080"/>
       <name val="Menlo"/>
-    </font>
-    <font>
-      <sz val="13"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF666666"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Tahoma"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="14"/>
-      <color rgb="FF497B89"/>
-      <name val="Tahoma"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color rgb="FF555555"/>
-      <name val="Tahoma"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FF555555"/>
-      <name val="Microsoft YaHei"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF555555"/>
-      <name val="Tahoma"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Geneva"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF497B89"/>
-      <name val="Geneva"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color rgb="FF787D82"/>
-      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="16">
@@ -2586,7 +1990,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="97">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="7"/>
@@ -2667,29 +2071,12 @@
     <xf numFmtId="0" fontId="0" fillId="15" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="15" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="16" fontId="3" fillId="13" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2701,13 +2088,19 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -3087,7 +2480,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M327"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+    <sheetView showRuler="0" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A94" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E110" sqref="E110"/>
     </sheetView>
@@ -3605,7 +2998,7 @@
     </row>
     <row r="25" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="D25" s="10" t="s">
-        <v>669</v>
+        <v>504</v>
       </c>
       <c r="F25" s="10">
         <v>441</v>
@@ -6106,7 +5499,7 @@
       <c r="B146" s="34" t="s">
         <v>339</v>
       </c>
-      <c r="C146" s="90" t="s">
+      <c r="C146" s="72" t="s">
         <v>350</v>
       </c>
       <c r="D146" s="34" t="s">
@@ -6135,7 +5528,7 @@
       <c r="A147" s="10">
         <v>145</v>
       </c>
-      <c r="C147" s="92"/>
+      <c r="C147" s="77"/>
       <c r="D147" s="34" t="s">
         <v>342</v>
       </c>
@@ -6162,7 +5555,7 @@
       <c r="A148" s="10">
         <v>146</v>
       </c>
-      <c r="C148" s="92"/>
+      <c r="C148" s="77"/>
       <c r="D148" s="34" t="s">
         <v>343</v>
       </c>
@@ -6189,7 +5582,7 @@
       <c r="A149" s="10">
         <v>147</v>
       </c>
-      <c r="C149" s="92"/>
+      <c r="C149" s="77"/>
       <c r="D149" s="34" t="s">
         <v>309</v>
       </c>
@@ -6213,7 +5606,7 @@
       <c r="A150" s="10">
         <v>148</v>
       </c>
-      <c r="C150" s="92"/>
+      <c r="C150" s="77"/>
       <c r="D150" s="34" t="s">
         <v>317</v>
       </c>
@@ -6237,7 +5630,7 @@
       <c r="A151" s="10">
         <v>149</v>
       </c>
-      <c r="C151" s="91"/>
+      <c r="C151" s="73"/>
       <c r="D151" s="34" t="s">
         <v>318</v>
       </c>
@@ -6261,7 +5654,7 @@
       <c r="A152" s="10">
         <v>150</v>
       </c>
-      <c r="C152" s="90" t="s">
+      <c r="C152" s="72" t="s">
         <v>356</v>
       </c>
       <c r="D152" s="34" t="s">
@@ -6287,7 +5680,7 @@
       <c r="A153" s="10">
         <v>151</v>
       </c>
-      <c r="C153" s="91"/>
+      <c r="C153" s="73"/>
       <c r="D153" s="34" t="s">
         <v>330</v>
       </c>
@@ -6314,7 +5707,7 @@
       <c r="A154" s="10">
         <v>152</v>
       </c>
-      <c r="C154" s="90" t="s">
+      <c r="C154" s="72" t="s">
         <v>351</v>
       </c>
       <c r="D154" s="34" t="s">
@@ -6340,7 +5733,7 @@
       <c r="A155" s="10">
         <v>153</v>
       </c>
-      <c r="C155" s="92"/>
+      <c r="C155" s="77"/>
       <c r="D155" s="34" t="s">
         <v>321</v>
       </c>
@@ -6364,7 +5757,7 @@
       <c r="A156" s="10">
         <v>154</v>
       </c>
-      <c r="C156" s="91"/>
+      <c r="C156" s="73"/>
       <c r="D156" s="34" t="s">
         <v>322</v>
       </c>
@@ -6382,7 +5775,7 @@
       <c r="A157" s="10">
         <v>155</v>
       </c>
-      <c r="C157" s="90" t="s">
+      <c r="C157" s="72" t="s">
         <v>358</v>
       </c>
       <c r="D157" s="34" t="s">
@@ -6411,7 +5804,7 @@
       <c r="A158" s="10">
         <v>156</v>
       </c>
-      <c r="C158" s="91"/>
+      <c r="C158" s="73"/>
       <c r="D158" s="34" t="s">
         <v>354</v>
       </c>
@@ -6436,7 +5829,7 @@
         <v>157</v>
       </c>
       <c r="B159" s="40"/>
-      <c r="C159" s="87" t="s">
+      <c r="C159" s="74" t="s">
         <v>357</v>
       </c>
       <c r="D159" s="40" t="s">
@@ -6468,7 +5861,7 @@
         <v>158</v>
       </c>
       <c r="B160" s="40"/>
-      <c r="C160" s="88"/>
+      <c r="C160" s="75"/>
       <c r="D160" s="40" t="s">
         <v>352</v>
       </c>
@@ -6496,7 +5889,7 @@
         <v>159</v>
       </c>
       <c r="B161" s="40"/>
-      <c r="C161" s="88"/>
+      <c r="C161" s="75"/>
       <c r="D161" s="40" t="s">
         <v>324</v>
       </c>
@@ -6526,7 +5919,7 @@
         <v>160</v>
       </c>
       <c r="B162" s="40"/>
-      <c r="C162" s="88"/>
+      <c r="C162" s="75"/>
       <c r="D162" s="40" t="s">
         <v>328</v>
       </c>
@@ -6556,7 +5949,7 @@
         <v>161</v>
       </c>
       <c r="B163" s="40"/>
-      <c r="C163" s="89"/>
+      <c r="C163" s="76"/>
       <c r="D163" s="40" t="s">
         <v>331</v>
       </c>
@@ -6584,7 +5977,7 @@
         <v>162</v>
       </c>
       <c r="B164" s="40"/>
-      <c r="C164" s="87" t="s">
+      <c r="C164" s="74" t="s">
         <v>359</v>
       </c>
       <c r="D164" s="40" t="s">
@@ -6616,7 +6009,7 @@
         <v>163</v>
       </c>
       <c r="B165" s="40"/>
-      <c r="C165" s="88"/>
+      <c r="C165" s="75"/>
       <c r="D165" s="40" t="s">
         <v>337</v>
       </c>
@@ -6646,7 +6039,7 @@
         <v>164</v>
       </c>
       <c r="B166" s="40"/>
-      <c r="C166" s="89"/>
+      <c r="C166" s="76"/>
       <c r="D166" s="40" t="s">
         <v>338</v>
       </c>
@@ -7118,7 +6511,7 @@
       <c r="B183" s="51"/>
       <c r="C183" s="51"/>
       <c r="D183" s="40" t="s">
-        <v>668</v>
+        <v>503</v>
       </c>
       <c r="E183" s="51"/>
       <c r="F183" s="51">
@@ -7145,7 +6538,7 @@
       <c r="B184" s="51"/>
       <c r="C184" s="51"/>
       <c r="D184" s="40" t="s">
-        <v>671</v>
+        <v>505</v>
       </c>
       <c r="E184" s="51"/>
       <c r="F184" s="51">
@@ -7164,7 +6557,7 @@
       <c r="B185" s="51"/>
       <c r="C185" s="51"/>
       <c r="D185" s="40" t="s">
-        <v>672</v>
+        <v>506</v>
       </c>
       <c r="E185" s="51"/>
       <c r="F185" s="51">
@@ -7218,7 +6611,7 @@
       <c r="J187" s="49" t="s">
         <v>487</v>
       </c>
-      <c r="K187" s="82">
+      <c r="K187" s="71">
         <v>42966</v>
       </c>
     </row>
@@ -7783,7 +7176,7 @@
       <c r="A228" s="49" t="s">
         <v>83</v>
       </c>
-      <c r="B228" s="86" t="s">
+      <c r="B228" s="81" t="s">
         <v>423</v>
       </c>
       <c r="C228" s="49" t="s">
@@ -7812,7 +7205,7 @@
       <c r="A229" s="49">
         <v>223</v>
       </c>
-      <c r="B229" s="84"/>
+      <c r="B229" s="79"/>
       <c r="C229" s="49" t="s">
         <v>424</v>
       </c>
@@ -7839,7 +7232,7 @@
       <c r="A230" s="49">
         <v>224</v>
       </c>
-      <c r="B230" s="84"/>
+      <c r="B230" s="79"/>
       <c r="C230" s="49" t="s">
         <v>425</v>
       </c>
@@ -7866,7 +7259,7 @@
       <c r="A231" s="49">
         <v>225</v>
       </c>
-      <c r="B231" s="84"/>
+      <c r="B231" s="79"/>
       <c r="C231" s="49" t="s">
         <v>425</v>
       </c>
@@ -7893,7 +7286,7 @@
       <c r="A232" s="49">
         <v>226</v>
       </c>
-      <c r="B232" s="84"/>
+      <c r="B232" s="79"/>
       <c r="C232" s="49" t="s">
         <v>425</v>
       </c>
@@ -7920,7 +7313,7 @@
       <c r="A233" s="49">
         <v>227</v>
       </c>
-      <c r="B233" s="84"/>
+      <c r="B233" s="79"/>
       <c r="C233" s="49" t="s">
         <v>428</v>
       </c>
@@ -7953,7 +7346,7 @@
       <c r="A234" s="49">
         <v>228</v>
       </c>
-      <c r="B234" s="84"/>
+      <c r="B234" s="79"/>
       <c r="C234" s="49" t="s">
         <v>424</v>
       </c>
@@ -7983,7 +7376,7 @@
       <c r="A235" s="49">
         <v>229</v>
       </c>
-      <c r="B235" s="85"/>
+      <c r="B235" s="80"/>
       <c r="C235" s="57" t="s">
         <v>424</v>
       </c>
@@ -8016,7 +7409,7 @@
       <c r="A236" s="49">
         <v>230</v>
       </c>
-      <c r="B236" s="83" t="s">
+      <c r="B236" s="78" t="s">
         <v>426</v>
       </c>
       <c r="D236" s="58" t="s">
@@ -8045,7 +7438,7 @@
       <c r="A237" s="49">
         <v>231</v>
       </c>
-      <c r="B237" s="85"/>
+      <c r="B237" s="80"/>
       <c r="D237" s="57" t="s">
         <v>405</v>
       </c>
@@ -8072,7 +7465,7 @@
       <c r="A238" s="49">
         <v>232</v>
       </c>
-      <c r="B238" s="83" t="s">
+      <c r="B238" s="78" t="s">
         <v>427</v>
       </c>
       <c r="D238" s="58" t="s">
@@ -8104,7 +7497,7 @@
       <c r="A239" s="49">
         <v>233</v>
       </c>
-      <c r="B239" s="84"/>
+      <c r="B239" s="79"/>
       <c r="D239" s="49" t="s">
         <v>413</v>
       </c>
@@ -8131,7 +7524,7 @@
       <c r="A240" s="49">
         <v>234</v>
       </c>
-      <c r="B240" s="84"/>
+      <c r="B240" s="79"/>
       <c r="D240" s="49" t="s">
         <v>402</v>
       </c>
@@ -8156,7 +7549,7 @@
       <c r="A241" s="49">
         <v>235</v>
       </c>
-      <c r="B241" s="85"/>
+      <c r="B241" s="80"/>
       <c r="D241" s="57" t="s">
         <v>400</v>
       </c>
@@ -8184,7 +7577,7 @@
       <c r="A242" s="49">
         <v>236</v>
       </c>
-      <c r="B242" s="83" t="s">
+      <c r="B242" s="78" t="s">
         <v>433</v>
       </c>
       <c r="D242" s="58" t="s">
@@ -8198,7 +7591,7 @@
       <c r="A243" s="49">
         <v>237</v>
       </c>
-      <c r="B243" s="84"/>
+      <c r="B243" s="79"/>
       <c r="D243" s="49" t="s">
         <v>430</v>
       </c>
@@ -8210,7 +7603,7 @@
       <c r="A244" s="49">
         <v>238</v>
       </c>
-      <c r="B244" s="84"/>
+      <c r="B244" s="79"/>
       <c r="D244" s="49" t="s">
         <v>431</v>
       </c>
@@ -8222,7 +7615,7 @@
       <c r="A245" s="49">
         <v>239</v>
       </c>
-      <c r="B245" s="84"/>
+      <c r="B245" s="79"/>
       <c r="D245" s="49" t="s">
         <v>432</v>
       </c>
@@ -8234,7 +7627,7 @@
       <c r="A246" s="49">
         <v>240</v>
       </c>
-      <c r="B246" s="84"/>
+      <c r="B246" s="79"/>
       <c r="D246" s="54" t="s">
         <v>442</v>
       </c>
@@ -8246,7 +7639,7 @@
       <c r="A247" s="49">
         <v>241</v>
       </c>
-      <c r="B247" s="85"/>
+      <c r="B247" s="80"/>
     </row>
     <row r="248" spans="1:12" s="50" customFormat="1" ht="17" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A248" s="49">
@@ -8795,10 +8188,10 @@
       <c r="A282" s="67">
         <v>276</v>
       </c>
-      <c r="D282" s="81" t="s">
-        <v>673</v>
-      </c>
-      <c r="F282" s="81">
+      <c r="D282" s="70" t="s">
+        <v>507</v>
+      </c>
+      <c r="F282" s="70">
         <v>36</v>
       </c>
     </row>
@@ -8806,10 +8199,10 @@
       <c r="A283" s="67">
         <v>277</v>
       </c>
-      <c r="D283" s="81" t="s">
-        <v>674</v>
-      </c>
-      <c r="F283" s="81">
+      <c r="D283" s="70" t="s">
+        <v>508</v>
+      </c>
+      <c r="F283" s="70">
         <v>37</v>
       </c>
     </row>
@@ -8817,7 +8210,7 @@
       <c r="A284" s="67">
         <v>278</v>
       </c>
-      <c r="F284" s="81">
+      <c r="F284" s="70">
         <v>17</v>
       </c>
     </row>
@@ -9053,16 +8446,16 @@
     <sortCondition ref="A1"/>
   </sortState>
   <mergeCells count="10">
+    <mergeCell ref="B242:B247"/>
+    <mergeCell ref="B236:B237"/>
+    <mergeCell ref="B228:B235"/>
+    <mergeCell ref="B238:B241"/>
+    <mergeCell ref="C159:C163"/>
     <mergeCell ref="C157:C158"/>
     <mergeCell ref="C164:C166"/>
     <mergeCell ref="C146:C151"/>
     <mergeCell ref="C152:C153"/>
     <mergeCell ref="C154:C156"/>
-    <mergeCell ref="B242:B247"/>
-    <mergeCell ref="B236:B237"/>
-    <mergeCell ref="B228:B235"/>
-    <mergeCell ref="B238:B241"/>
-    <mergeCell ref="C159:C163"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D56" r:id="rId1"/>
@@ -9081,7 +8474,7 @@
   <dimension ref="A1:X163"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A142" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A105" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="I131" sqref="I131"/>
     </sheetView>
   </sheetViews>
@@ -9559,7 +8952,7 @@
     </row>
     <row r="18" spans="1:14" ht="18" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
-      <c r="B18" s="93" t="s">
+      <c r="B18" s="82" t="s">
         <v>256</v>
       </c>
       <c r="C18" s="1"/>
@@ -9593,7 +8986,7 @@
     </row>
     <row r="19" spans="1:14" ht="18" x14ac:dyDescent="0.2">
       <c r="A19" s="1"/>
-      <c r="B19" s="94"/>
+      <c r="B19" s="83"/>
       <c r="C19" s="1">
         <v>100</v>
       </c>
@@ -9627,7 +9020,7 @@
     </row>
     <row r="20" spans="1:14" ht="18" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
-      <c r="B20" s="94"/>
+      <c r="B20" s="83"/>
       <c r="C20" s="1">
         <v>101</v>
       </c>
@@ -9655,7 +9048,7 @@
     </row>
     <row r="21" spans="1:14" ht="18" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>
-      <c r="B21" s="94"/>
+      <c r="B21" s="83"/>
       <c r="C21" s="1">
         <v>172</v>
       </c>
@@ -9916,7 +9309,7 @@
     </row>
     <row r="30" spans="1:14" ht="18" x14ac:dyDescent="0.2">
       <c r="A30" s="1"/>
-      <c r="B30" s="95" t="s">
+      <c r="B30" s="84" t="s">
         <v>297</v>
       </c>
       <c r="C30" s="1"/>
@@ -9952,7 +9345,7 @@
       </c>
     </row>
     <row r="31" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B31" s="95"/>
+      <c r="B31" s="84"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1">
         <v>628</v>
@@ -9986,7 +9379,7 @@
       </c>
     </row>
     <row r="32" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B32" s="96" t="s">
+      <c r="B32" s="85" t="s">
         <v>254</v>
       </c>
       <c r="C32" s="1">
@@ -10018,7 +9411,7 @@
       </c>
     </row>
     <row r="33" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B33" s="96"/>
+      <c r="B33" s="85"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1">
         <v>645</v>
@@ -10046,7 +9439,7 @@
       <c r="A34" t="s">
         <v>246</v>
       </c>
-      <c r="B34" s="96"/>
+      <c r="B34" s="85"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1">
         <v>448</v>
@@ -10074,7 +9467,7 @@
       </c>
     </row>
     <row r="35" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B35" s="96"/>
+      <c r="B35" s="85"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1">
         <v>442</v>
@@ -10099,7 +9492,7 @@
       </c>
     </row>
     <row r="36" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B36" s="96"/>
+      <c r="B36" s="85"/>
       <c r="C36" s="1">
         <v>633</v>
       </c>
@@ -10126,7 +9519,7 @@
       </c>
     </row>
     <row r="37" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B37" s="96"/>
+      <c r="B37" s="85"/>
       <c r="C37" s="1">
         <v>189</v>
       </c>
@@ -10153,7 +9546,7 @@
       </c>
     </row>
     <row r="38" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B38" s="96" t="s">
+      <c r="B38" s="85" t="s">
         <v>301</v>
       </c>
       <c r="C38" s="1">
@@ -10188,7 +9581,7 @@
       </c>
     </row>
     <row r="39" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B39" s="96"/>
+      <c r="B39" s="85"/>
       <c r="C39" s="1">
         <v>47</v>
       </c>
@@ -12479,7 +11872,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I17"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
       <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
@@ -12746,7 +12139,7 @@
     </row>
     <row r="17" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A17" s="59" t="s">
-        <v>666</v>
+        <v>502</v>
       </c>
       <c r="B17" s="59"/>
       <c r="C17" s="59"/>
@@ -12760,3604 +12153,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C34"/>
-  <sheetViews>
-    <sheetView showRuler="0" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="2" max="2" width="18.5" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A1" s="70" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="71" t="s">
-        <v>503</v>
-      </c>
-      <c r="B2" s="71" t="s">
-        <v>504</v>
-      </c>
-      <c r="C2" s="71"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="71" t="s">
-        <v>505</v>
-      </c>
-      <c r="B3" s="71"/>
-      <c r="C3" s="71"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="71" t="s">
-        <v>506</v>
-      </c>
-      <c r="B4" s="71" t="s">
-        <v>507</v>
-      </c>
-      <c r="C4" s="71"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="71" t="s">
-        <v>508</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>509</v>
-      </c>
-      <c r="C5" s="71" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="71" t="s">
-        <v>511</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>512</v>
-      </c>
-      <c r="C6" s="71"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="71" t="s">
-        <v>513</v>
-      </c>
-      <c r="B7" s="71" t="s">
-        <v>514</v>
-      </c>
-      <c r="C7" s="71"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="71" t="s">
-        <v>515</v>
-      </c>
-      <c r="B8" s="72" t="s">
-        <v>516</v>
-      </c>
-      <c r="C8" s="71" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="71" t="s">
-        <v>518</v>
-      </c>
-      <c r="B9" s="71" t="s">
-        <v>519</v>
-      </c>
-      <c r="C9" s="71" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
-        <v>521</v>
-      </c>
-      <c r="B10" s="71" t="s">
-        <v>522</v>
-      </c>
-      <c r="C10" s="73" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="18" x14ac:dyDescent="0.2">
-      <c r="A11" s="71" t="s">
-        <v>515</v>
-      </c>
-      <c r="B11" s="74" t="s">
-        <v>524</v>
-      </c>
-      <c r="C11" s="75" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="18" x14ac:dyDescent="0.2">
-      <c r="A12" s="71"/>
-      <c r="B12" s="2" t="s">
-        <v>526</v>
-      </c>
-      <c r="C12" s="75" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="18" x14ac:dyDescent="0.2">
-      <c r="A13" s="71" t="s">
-        <v>528</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>529</v>
-      </c>
-      <c r="C13" s="75" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="18" x14ac:dyDescent="0.25">
-      <c r="A14" s="76" t="s">
-        <v>531</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>532</v>
-      </c>
-      <c r="C14" s="71" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="18" x14ac:dyDescent="0.25">
-      <c r="A15" s="76" t="s">
-        <v>534</v>
-      </c>
-      <c r="B15" s="77" t="s">
-        <v>535</v>
-      </c>
-      <c r="C15" s="71" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" s="71" t="s">
-        <v>537</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>538</v>
-      </c>
-      <c r="C16" s="71"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="77" t="s">
-        <v>539</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>540</v>
-      </c>
-      <c r="C17" s="71" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="77" t="s">
-        <v>542</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>543</v>
-      </c>
-      <c r="C18" s="71" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="71" t="s">
-        <v>545</v>
-      </c>
-      <c r="B19" s="77" t="s">
-        <v>546</v>
-      </c>
-      <c r="C19" s="77" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="77" t="s">
-        <v>548</v>
-      </c>
-      <c r="B20" s="77" t="s">
-        <v>549</v>
-      </c>
-      <c r="C20" s="77"/>
-    </row>
-    <row r="21" spans="1:3" ht="18" x14ac:dyDescent="0.25">
-      <c r="A21" s="76" t="s">
-        <v>550</v>
-      </c>
-      <c r="B21" s="78" t="s">
-        <v>551</v>
-      </c>
-      <c r="C21" s="79" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="18" x14ac:dyDescent="0.25">
-      <c r="A22" s="76" t="s">
-        <v>553</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>554</v>
-      </c>
-      <c r="C22" s="71" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" s="71" t="s">
-        <v>556</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>557</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" s="71" t="s">
-        <v>559</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>560</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="18" x14ac:dyDescent="0.2">
-      <c r="A25" s="63" t="s">
-        <v>562</v>
-      </c>
-      <c r="B25" s="71" t="s">
-        <v>563</v>
-      </c>
-      <c r="C25" s="71"/>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26" s="71" t="s">
-        <v>564</v>
-      </c>
-      <c r="B26" s="71"/>
-      <c r="C26" s="71" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27" s="77" t="s">
-        <v>566</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>567</v>
-      </c>
-      <c r="C27" s="71"/>
-    </row>
-    <row r="28" spans="1:3" ht="19" x14ac:dyDescent="0.25">
-      <c r="A28" s="76" t="s">
-        <v>568</v>
-      </c>
-      <c r="B28" s="75" t="s">
-        <v>569</v>
-      </c>
-      <c r="C28" s="71" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29" s="71" t="s">
-        <v>571</v>
-      </c>
-      <c r="B29" s="71"/>
-      <c r="C29" s="2" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A30" s="71" t="s">
-        <v>573</v>
-      </c>
-      <c r="B30" s="71" t="s">
-        <v>574</v>
-      </c>
-      <c r="C30" s="71"/>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A31" s="71" t="s">
-        <v>575</v>
-      </c>
-      <c r="B31" s="71"/>
-      <c r="C31" s="71" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A32" s="71" t="s">
-        <v>575</v>
-      </c>
-      <c r="B32" s="71" t="s">
-        <v>577</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A33" s="71"/>
-      <c r="B33" s="71"/>
-      <c r="C33" s="71"/>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A34" s="71"/>
-      <c r="B34" s="71"/>
-      <c r="C34" s="71"/>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B5" r:id="rId1"/>
-    <hyperlink ref="B6" r:id="rId2"/>
-    <hyperlink ref="A10" r:id="rId3"/>
-    <hyperlink ref="B12" r:id="rId4"/>
-    <hyperlink ref="B13" r:id="rId5"/>
-    <hyperlink ref="B14" r:id="rId6"/>
-    <hyperlink ref="B16" r:id="rId7"/>
-    <hyperlink ref="B17" r:id="rId8"/>
-    <hyperlink ref="B18" r:id="rId9"/>
-    <hyperlink ref="B22" r:id="rId10"/>
-    <hyperlink ref="B23" r:id="rId11"/>
-    <hyperlink ref="C23" r:id="rId12"/>
-    <hyperlink ref="B24" r:id="rId13"/>
-    <hyperlink ref="C24" r:id="rId14"/>
-    <hyperlink ref="B27" r:id="rId15"/>
-    <hyperlink ref="C29" r:id="rId16"/>
-    <hyperlink ref="C32" r:id="rId17"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D1001"/>
-  <sheetViews>
-    <sheetView showRuler="0" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="B76" sqref="B76"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B1" t="s">
-        <v>663</v>
-      </c>
-      <c r="C1" t="s">
-        <v>664</v>
-      </c>
-      <c r="D1" t="s">
-        <v>665</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="71" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="71" t="s">
-        <v>608</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="71" t="s">
-        <v>651</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="71" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="71" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="71" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="71" t="s">
-        <v>534</v>
-      </c>
-      <c r="B11" t="s">
-        <v>659</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="71" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="71" t="s">
-        <v>609</v>
-      </c>
-      <c r="B13" t="s">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="71" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="71" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="2" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" s="71" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" s="71" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" s="71" t="s">
-        <v>643</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" s="71" t="s">
-        <v>615</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A21" s="80" t="s">
-        <v>655</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22" s="71" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" s="71" t="s">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24" s="71" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A25" s="71" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A26" s="71" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A27" s="71" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A28" s="71" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A29" s="71" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A30" s="71" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A31" s="71" t="s">
-        <v>617</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A32" s="71" t="s">
-        <v>582</v>
-      </c>
-      <c r="B32" t="s">
-        <v>657</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A33" s="71" t="s">
-        <v>503</v>
-      </c>
-      <c r="B33" t="s">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A34" s="71" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A35" s="71" t="s">
-        <v>644</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A36" s="71" t="s">
-        <v>642</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A37" s="71" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A38" s="71" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A39" s="71" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A40" s="71" t="s">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A41" s="71" t="s">
-        <v>583</v>
-      </c>
-      <c r="B41" t="s">
-        <v>658</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A42" s="71" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A43" s="71" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A44" s="71" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A45" s="71" t="s">
-        <v>621</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A46" s="71" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A47" s="71" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A48" s="71" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A49" s="71" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A50" s="71" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A51" s="71" t="s">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A52" s="71" t="s">
-        <v>649</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A53" s="71" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A54" s="71" t="s">
-        <v>593</v>
-      </c>
-      <c r="B54" s="71" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A55" s="71" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A56" s="71" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A57" s="71" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A58" s="71" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A59" s="71" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A60" s="71" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A61" s="71" t="s">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A62" s="71" t="s">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A63" s="71" t="s">
-        <v>611</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A64" s="71" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A65" s="71" t="s">
-        <v>548</v>
-      </c>
-      <c r="B65" t="s">
-        <v>667</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A66" s="71" t="s">
-        <v>638</v>
-      </c>
-      <c r="B66" t="s">
-        <v>661</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A67" s="71" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A68" t="s">
-        <v>654</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A69" s="71" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A70" s="71" t="s">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A71" s="71" t="s">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A72" s="71" t="s">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A73" s="71" t="s">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A74" s="71" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A75" s="71" t="s">
-        <v>579</v>
-      </c>
-      <c r="B75" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A76" s="71" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A77" s="71" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A78" s="71" t="s">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A79" s="71" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A80" s="71" t="s">
-        <v>607</v>
-      </c>
-      <c r="B80" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A81" s="71" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A82" s="71" t="s">
-        <v>648</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A83" s="71" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A84" s="71" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A85" s="63" t="s">
-        <v>562</v>
-      </c>
-      <c r="B85" s="71" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A86" s="71"/>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A87" s="71"/>
-    </row>
-    <row r="88" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A88" s="71"/>
-      <c r="B88" s="80"/>
-    </row>
-    <row r="89" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A89" s="71"/>
-      <c r="B89" s="80"/>
-    </row>
-    <row r="90" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="B90" s="80"/>
-    </row>
-    <row r="91" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="B91" s="80"/>
-    </row>
-    <row r="92" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="B92" s="80"/>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A93" s="71"/>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A94" s="71"/>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A95" s="71"/>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A96" s="71"/>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A97" s="71"/>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A98" s="71"/>
-    </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A99" s="71"/>
-    </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A100" s="71"/>
-    </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A101" s="71"/>
-    </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A102" s="71"/>
-    </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A103" s="71"/>
-    </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A104" s="71"/>
-    </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A105" s="71"/>
-    </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A106" s="71"/>
-    </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A107" s="71"/>
-    </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A108" s="71"/>
-    </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A109" s="71"/>
-    </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A110" s="71"/>
-    </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A111" s="71"/>
-    </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A112" s="71"/>
-    </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A113" s="71"/>
-    </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A114" s="71"/>
-    </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A115" s="71"/>
-    </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A116" s="71"/>
-    </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A117" s="71"/>
-    </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A118" s="71"/>
-    </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A119" s="71"/>
-    </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A120" s="71"/>
-    </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A121" s="71"/>
-    </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A122" s="71"/>
-    </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A123" s="71"/>
-    </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A124" s="71"/>
-    </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A125" s="71"/>
-    </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A126" s="71"/>
-    </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A127" s="71"/>
-    </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A128" s="71"/>
-    </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A129" s="71"/>
-    </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A130" s="71"/>
-    </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A131" s="71"/>
-    </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A132" s="71"/>
-    </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A133" s="71"/>
-    </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A134" s="71"/>
-    </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A135" s="71"/>
-    </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A136" s="71"/>
-    </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A137" s="71"/>
-    </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A138" s="71"/>
-    </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A139" s="71"/>
-    </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A140" s="71"/>
-    </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A141" s="71"/>
-    </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A142" s="71"/>
-    </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A143" s="71"/>
-    </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A144" s="71"/>
-    </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A145" s="71"/>
-    </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A146" s="71"/>
-    </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A147" s="71"/>
-    </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A148" s="71"/>
-    </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A149" s="71"/>
-    </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A150" s="71"/>
-    </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A151" s="71"/>
-    </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A152" s="71"/>
-    </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A153" s="71"/>
-    </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A154" s="71"/>
-    </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A155" s="71"/>
-    </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A156" s="71"/>
-    </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A157" s="71"/>
-    </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A158" s="71"/>
-    </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A159" s="71"/>
-    </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A160" s="71"/>
-    </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A161" s="71"/>
-    </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A162" s="71"/>
-    </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A163" s="71"/>
-    </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A164" s="71"/>
-    </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A165" s="71"/>
-    </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A166" s="71"/>
-    </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A167" s="71"/>
-    </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A168" s="71"/>
-    </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A169" s="71"/>
-    </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A170" s="71"/>
-    </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A171" s="71"/>
-    </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A172" s="71"/>
-    </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A173" s="71"/>
-    </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A174" s="71"/>
-    </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A175" s="71"/>
-    </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A176" s="71"/>
-    </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A177" s="71"/>
-    </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A178" s="71"/>
-    </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A179" s="71"/>
-    </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A180" s="71"/>
-    </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A181" s="71"/>
-    </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A182" s="71"/>
-    </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A183" s="71"/>
-    </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A184" s="71"/>
-    </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A185" s="71"/>
-    </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A186" s="71"/>
-    </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A187" s="71"/>
-    </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A188" s="71"/>
-    </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A189" s="71"/>
-    </row>
-    <row r="190" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A190" s="71"/>
-    </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A191" s="71"/>
-    </row>
-    <row r="192" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A192" s="71"/>
-    </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A193" s="71"/>
-    </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A194" s="71"/>
-    </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A195" s="71"/>
-    </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A196" s="71"/>
-    </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A197" s="71"/>
-    </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A198" s="71"/>
-    </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A199" s="71"/>
-    </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A200" s="71"/>
-    </row>
-    <row r="201" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A201" s="71"/>
-    </row>
-    <row r="202" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A202" s="71"/>
-    </row>
-    <row r="203" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A203" s="71"/>
-    </row>
-    <row r="204" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A204" s="71"/>
-    </row>
-    <row r="205" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A205" s="71"/>
-    </row>
-    <row r="206" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A206" s="71"/>
-    </row>
-    <row r="207" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A207" s="71"/>
-    </row>
-    <row r="208" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A208" s="71"/>
-    </row>
-    <row r="209" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A209" s="71"/>
-    </row>
-    <row r="210" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A210" s="71"/>
-    </row>
-    <row r="211" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A211" s="71"/>
-    </row>
-    <row r="212" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A212" s="71"/>
-    </row>
-    <row r="213" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A213" s="71"/>
-    </row>
-    <row r="214" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A214" s="71"/>
-    </row>
-    <row r="215" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A215" s="71"/>
-    </row>
-    <row r="216" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A216" s="71"/>
-    </row>
-    <row r="217" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A217" s="71"/>
-    </row>
-    <row r="218" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A218" s="71"/>
-    </row>
-    <row r="219" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A219" s="71"/>
-    </row>
-    <row r="220" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A220" s="71"/>
-    </row>
-    <row r="221" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A221" s="71"/>
-    </row>
-    <row r="222" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A222" s="71"/>
-    </row>
-    <row r="223" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A223" s="71"/>
-    </row>
-    <row r="224" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A224" s="71"/>
-    </row>
-    <row r="225" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A225" s="71"/>
-    </row>
-    <row r="226" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A226" s="71"/>
-    </row>
-    <row r="227" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A227" s="71"/>
-    </row>
-    <row r="228" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A228" s="71"/>
-    </row>
-    <row r="229" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A229" s="71"/>
-    </row>
-    <row r="230" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A230" s="71"/>
-    </row>
-    <row r="231" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A231" s="71"/>
-    </row>
-    <row r="232" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A232" s="71"/>
-    </row>
-    <row r="233" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A233" s="71"/>
-    </row>
-    <row r="234" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A234" s="71"/>
-    </row>
-    <row r="235" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A235" s="71"/>
-    </row>
-    <row r="236" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A236" s="71"/>
-    </row>
-    <row r="237" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A237" s="71"/>
-    </row>
-    <row r="238" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A238" s="71"/>
-    </row>
-    <row r="239" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A239" s="71"/>
-    </row>
-    <row r="240" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A240" s="71"/>
-    </row>
-    <row r="241" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A241" s="71"/>
-    </row>
-    <row r="242" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A242" s="71"/>
-    </row>
-    <row r="243" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A243" s="71"/>
-    </row>
-    <row r="244" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A244" s="71"/>
-    </row>
-    <row r="245" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A245" s="71"/>
-    </row>
-    <row r="246" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A246" s="71"/>
-    </row>
-    <row r="247" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A247" s="71"/>
-    </row>
-    <row r="248" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A248" s="71"/>
-    </row>
-    <row r="249" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A249" s="71"/>
-    </row>
-    <row r="250" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A250" s="71"/>
-    </row>
-    <row r="251" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A251" s="71"/>
-    </row>
-    <row r="252" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A252" s="71"/>
-    </row>
-    <row r="253" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A253" s="71"/>
-    </row>
-    <row r="254" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A254" s="71"/>
-    </row>
-    <row r="255" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A255" s="71"/>
-    </row>
-    <row r="256" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A256" s="71"/>
-    </row>
-    <row r="257" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A257" s="71"/>
-    </row>
-    <row r="258" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A258" s="71"/>
-    </row>
-    <row r="259" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A259" s="71"/>
-    </row>
-    <row r="260" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A260" s="71"/>
-    </row>
-    <row r="261" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A261" s="71"/>
-    </row>
-    <row r="262" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A262" s="71"/>
-    </row>
-    <row r="263" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A263" s="71"/>
-    </row>
-    <row r="264" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A264" s="71"/>
-    </row>
-    <row r="265" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A265" s="71"/>
-    </row>
-    <row r="266" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A266" s="71"/>
-    </row>
-    <row r="267" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A267" s="71"/>
-    </row>
-    <row r="268" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A268" s="71"/>
-    </row>
-    <row r="269" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A269" s="71"/>
-    </row>
-    <row r="270" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A270" s="71"/>
-    </row>
-    <row r="271" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A271" s="71"/>
-    </row>
-    <row r="272" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A272" s="71"/>
-    </row>
-    <row r="273" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A273" s="71"/>
-    </row>
-    <row r="274" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A274" s="71"/>
-    </row>
-    <row r="275" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A275" s="71"/>
-    </row>
-    <row r="276" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A276" s="71"/>
-    </row>
-    <row r="277" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A277" s="71"/>
-    </row>
-    <row r="278" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A278" s="71"/>
-    </row>
-    <row r="279" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A279" s="71"/>
-    </row>
-    <row r="280" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A280" s="71"/>
-    </row>
-    <row r="281" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A281" s="71"/>
-    </row>
-    <row r="282" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A282" s="71"/>
-    </row>
-    <row r="283" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A283" s="71"/>
-    </row>
-    <row r="284" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A284" s="71"/>
-    </row>
-    <row r="285" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A285" s="71"/>
-    </row>
-    <row r="286" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A286" s="71"/>
-    </row>
-    <row r="287" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A287" s="71"/>
-    </row>
-    <row r="288" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A288" s="71"/>
-    </row>
-    <row r="289" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A289" s="71"/>
-    </row>
-    <row r="290" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A290" s="71"/>
-    </row>
-    <row r="291" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A291" s="71"/>
-    </row>
-    <row r="292" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A292" s="71"/>
-    </row>
-    <row r="293" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A293" s="71"/>
-    </row>
-    <row r="294" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A294" s="71"/>
-    </row>
-    <row r="295" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A295" s="71"/>
-    </row>
-    <row r="296" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A296" s="71"/>
-    </row>
-    <row r="297" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A297" s="71"/>
-    </row>
-    <row r="298" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A298" s="71"/>
-    </row>
-    <row r="299" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A299" s="71"/>
-    </row>
-    <row r="300" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A300" s="71"/>
-    </row>
-    <row r="301" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A301" s="71"/>
-    </row>
-    <row r="302" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A302" s="71"/>
-    </row>
-    <row r="303" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A303" s="71"/>
-    </row>
-    <row r="304" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A304" s="71"/>
-    </row>
-    <row r="305" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A305" s="71"/>
-    </row>
-    <row r="306" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A306" s="71"/>
-    </row>
-    <row r="307" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A307" s="71"/>
-    </row>
-    <row r="308" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A308" s="71"/>
-    </row>
-    <row r="309" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A309" s="71"/>
-    </row>
-    <row r="310" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A310" s="71"/>
-    </row>
-    <row r="311" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A311" s="71"/>
-    </row>
-    <row r="312" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A312" s="71"/>
-    </row>
-    <row r="313" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A313" s="71"/>
-    </row>
-    <row r="314" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A314" s="71"/>
-    </row>
-    <row r="315" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A315" s="71"/>
-    </row>
-    <row r="316" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A316" s="71"/>
-    </row>
-    <row r="317" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A317" s="71"/>
-    </row>
-    <row r="318" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A318" s="71"/>
-    </row>
-    <row r="319" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A319" s="71"/>
-    </row>
-    <row r="320" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A320" s="71"/>
-    </row>
-    <row r="321" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A321" s="71"/>
-    </row>
-    <row r="322" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A322" s="71"/>
-    </row>
-    <row r="323" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A323" s="71"/>
-    </row>
-    <row r="324" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A324" s="71"/>
-    </row>
-    <row r="325" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A325" s="71"/>
-    </row>
-    <row r="326" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A326" s="71"/>
-    </row>
-    <row r="327" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A327" s="71"/>
-    </row>
-    <row r="328" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A328" s="71"/>
-    </row>
-    <row r="329" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A329" s="71"/>
-    </row>
-    <row r="330" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A330" s="71"/>
-    </row>
-    <row r="331" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A331" s="71"/>
-    </row>
-    <row r="332" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A332" s="71"/>
-    </row>
-    <row r="333" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A333" s="71"/>
-    </row>
-    <row r="334" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A334" s="71"/>
-    </row>
-    <row r="335" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A335" s="71"/>
-    </row>
-    <row r="336" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A336" s="71"/>
-    </row>
-    <row r="337" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A337" s="71"/>
-    </row>
-    <row r="338" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A338" s="71"/>
-    </row>
-    <row r="339" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A339" s="71"/>
-    </row>
-    <row r="340" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A340" s="71"/>
-    </row>
-    <row r="341" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A341" s="71"/>
-    </row>
-    <row r="342" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A342" s="71"/>
-    </row>
-    <row r="343" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A343" s="71"/>
-    </row>
-    <row r="344" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A344" s="71"/>
-    </row>
-    <row r="345" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A345" s="71"/>
-    </row>
-    <row r="346" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A346" s="71"/>
-    </row>
-    <row r="347" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A347" s="71"/>
-    </row>
-    <row r="348" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A348" s="71"/>
-    </row>
-    <row r="349" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A349" s="71"/>
-    </row>
-    <row r="350" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A350" s="71"/>
-    </row>
-    <row r="351" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A351" s="71"/>
-    </row>
-    <row r="352" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A352" s="71"/>
-    </row>
-    <row r="353" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A353" s="71"/>
-    </row>
-    <row r="354" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A354" s="71"/>
-    </row>
-    <row r="355" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A355" s="71"/>
-    </row>
-    <row r="356" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A356" s="71"/>
-    </row>
-    <row r="357" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A357" s="71"/>
-    </row>
-    <row r="358" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A358" s="71"/>
-    </row>
-    <row r="359" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A359" s="71"/>
-    </row>
-    <row r="360" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A360" s="71"/>
-    </row>
-    <row r="361" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A361" s="71"/>
-    </row>
-    <row r="362" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A362" s="71"/>
-    </row>
-    <row r="363" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A363" s="71"/>
-    </row>
-    <row r="364" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A364" s="71"/>
-    </row>
-    <row r="365" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A365" s="71"/>
-    </row>
-    <row r="366" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A366" s="71"/>
-    </row>
-    <row r="367" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A367" s="71"/>
-    </row>
-    <row r="368" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A368" s="71"/>
-    </row>
-    <row r="369" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A369" s="71"/>
-    </row>
-    <row r="370" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A370" s="71"/>
-    </row>
-    <row r="371" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A371" s="71"/>
-    </row>
-    <row r="372" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A372" s="71"/>
-    </row>
-    <row r="373" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A373" s="71"/>
-    </row>
-    <row r="374" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A374" s="71"/>
-    </row>
-    <row r="375" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A375" s="71"/>
-    </row>
-    <row r="376" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A376" s="71"/>
-    </row>
-    <row r="377" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A377" s="71"/>
-    </row>
-    <row r="378" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A378" s="71"/>
-    </row>
-    <row r="379" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A379" s="71"/>
-    </row>
-    <row r="380" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A380" s="71"/>
-    </row>
-    <row r="381" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A381" s="71"/>
-    </row>
-    <row r="382" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A382" s="71"/>
-    </row>
-    <row r="383" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A383" s="71"/>
-    </row>
-    <row r="384" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A384" s="71"/>
-    </row>
-    <row r="385" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A385" s="71"/>
-    </row>
-    <row r="386" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A386" s="71"/>
-    </row>
-    <row r="387" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A387" s="71"/>
-    </row>
-    <row r="388" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A388" s="71"/>
-    </row>
-    <row r="389" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A389" s="71"/>
-    </row>
-    <row r="390" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A390" s="71"/>
-    </row>
-    <row r="391" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A391" s="71"/>
-    </row>
-    <row r="392" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A392" s="71"/>
-    </row>
-    <row r="393" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A393" s="71"/>
-    </row>
-    <row r="394" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A394" s="71"/>
-    </row>
-    <row r="395" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A395" s="71"/>
-    </row>
-    <row r="396" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A396" s="71"/>
-    </row>
-    <row r="397" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A397" s="71"/>
-    </row>
-    <row r="398" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A398" s="71"/>
-    </row>
-    <row r="399" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A399" s="71"/>
-    </row>
-    <row r="400" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A400" s="71"/>
-    </row>
-    <row r="401" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A401" s="71"/>
-    </row>
-    <row r="402" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A402" s="71"/>
-    </row>
-    <row r="403" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A403" s="71"/>
-    </row>
-    <row r="404" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A404" s="71"/>
-    </row>
-    <row r="405" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A405" s="71"/>
-    </row>
-    <row r="406" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A406" s="71"/>
-    </row>
-    <row r="407" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A407" s="71"/>
-    </row>
-    <row r="408" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A408" s="71"/>
-    </row>
-    <row r="409" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A409" s="71"/>
-    </row>
-    <row r="410" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A410" s="71"/>
-    </row>
-    <row r="411" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A411" s="71"/>
-    </row>
-    <row r="412" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A412" s="71"/>
-    </row>
-    <row r="413" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A413" s="71"/>
-    </row>
-    <row r="414" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A414" s="71"/>
-    </row>
-    <row r="415" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A415" s="71"/>
-    </row>
-    <row r="416" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A416" s="71"/>
-    </row>
-    <row r="417" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A417" s="71"/>
-    </row>
-    <row r="418" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A418" s="71"/>
-    </row>
-    <row r="419" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A419" s="71"/>
-    </row>
-    <row r="420" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A420" s="71"/>
-    </row>
-    <row r="421" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A421" s="71"/>
-    </row>
-    <row r="422" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A422" s="71"/>
-    </row>
-    <row r="423" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A423" s="71"/>
-    </row>
-    <row r="424" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A424" s="71"/>
-    </row>
-    <row r="425" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A425" s="71"/>
-    </row>
-    <row r="426" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A426" s="71"/>
-    </row>
-    <row r="427" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A427" s="71"/>
-    </row>
-    <row r="428" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A428" s="71"/>
-    </row>
-    <row r="429" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A429" s="71"/>
-    </row>
-    <row r="430" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A430" s="71"/>
-    </row>
-    <row r="431" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A431" s="71"/>
-    </row>
-    <row r="432" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A432" s="71"/>
-    </row>
-    <row r="433" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A433" s="71"/>
-    </row>
-    <row r="434" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A434" s="71"/>
-    </row>
-    <row r="435" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A435" s="71"/>
-    </row>
-    <row r="436" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A436" s="71"/>
-    </row>
-    <row r="437" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A437" s="71"/>
-    </row>
-    <row r="438" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A438" s="71"/>
-    </row>
-    <row r="439" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A439" s="71"/>
-    </row>
-    <row r="440" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A440" s="71"/>
-    </row>
-    <row r="441" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A441" s="71"/>
-    </row>
-    <row r="442" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A442" s="71"/>
-    </row>
-    <row r="443" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A443" s="71"/>
-    </row>
-    <row r="444" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A444" s="71"/>
-    </row>
-    <row r="445" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A445" s="71"/>
-    </row>
-    <row r="446" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A446" s="71"/>
-    </row>
-    <row r="447" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A447" s="71"/>
-    </row>
-    <row r="448" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A448" s="71"/>
-    </row>
-    <row r="449" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A449" s="71"/>
-    </row>
-    <row r="450" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A450" s="71"/>
-    </row>
-    <row r="451" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A451" s="71"/>
-    </row>
-    <row r="452" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A452" s="71"/>
-    </row>
-    <row r="453" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A453" s="71"/>
-    </row>
-    <row r="454" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A454" s="71"/>
-    </row>
-    <row r="455" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A455" s="71"/>
-    </row>
-    <row r="456" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A456" s="71"/>
-    </row>
-    <row r="457" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A457" s="71"/>
-    </row>
-    <row r="458" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A458" s="71"/>
-    </row>
-    <row r="459" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A459" s="71"/>
-    </row>
-    <row r="460" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A460" s="71"/>
-    </row>
-    <row r="461" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A461" s="71"/>
-    </row>
-    <row r="462" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A462" s="71"/>
-    </row>
-    <row r="463" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A463" s="71"/>
-    </row>
-    <row r="464" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A464" s="71"/>
-    </row>
-    <row r="465" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A465" s="71"/>
-    </row>
-    <row r="466" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A466" s="71"/>
-    </row>
-    <row r="467" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A467" s="71"/>
-    </row>
-    <row r="468" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A468" s="71"/>
-    </row>
-    <row r="469" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A469" s="71"/>
-    </row>
-    <row r="470" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A470" s="71"/>
-    </row>
-    <row r="471" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A471" s="71"/>
-    </row>
-    <row r="472" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A472" s="71"/>
-    </row>
-    <row r="473" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A473" s="71"/>
-    </row>
-    <row r="474" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A474" s="71"/>
-    </row>
-    <row r="475" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A475" s="71"/>
-    </row>
-    <row r="476" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A476" s="71"/>
-    </row>
-    <row r="477" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A477" s="71"/>
-    </row>
-    <row r="478" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A478" s="71"/>
-    </row>
-    <row r="479" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A479" s="71"/>
-    </row>
-    <row r="480" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A480" s="71"/>
-    </row>
-    <row r="481" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A481" s="71"/>
-    </row>
-    <row r="482" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A482" s="71"/>
-    </row>
-    <row r="483" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A483" s="71"/>
-    </row>
-    <row r="484" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A484" s="71"/>
-    </row>
-    <row r="485" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A485" s="71"/>
-    </row>
-    <row r="486" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A486" s="71"/>
-    </row>
-    <row r="487" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A487" s="71"/>
-    </row>
-    <row r="488" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A488" s="71"/>
-    </row>
-    <row r="489" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A489" s="71"/>
-    </row>
-    <row r="490" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A490" s="71"/>
-    </row>
-    <row r="491" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A491" s="71"/>
-    </row>
-    <row r="492" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A492" s="71"/>
-    </row>
-    <row r="493" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A493" s="71"/>
-    </row>
-    <row r="494" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A494" s="71"/>
-    </row>
-    <row r="495" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A495" s="71"/>
-    </row>
-    <row r="496" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A496" s="71"/>
-    </row>
-    <row r="497" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A497" s="71"/>
-    </row>
-    <row r="498" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A498" s="71"/>
-    </row>
-    <row r="499" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A499" s="71"/>
-    </row>
-    <row r="500" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A500" s="71"/>
-    </row>
-    <row r="501" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A501" s="71"/>
-    </row>
-    <row r="502" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A502" s="71"/>
-    </row>
-    <row r="503" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A503" s="71"/>
-    </row>
-    <row r="504" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A504" s="71"/>
-    </row>
-    <row r="505" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A505" s="71"/>
-    </row>
-    <row r="506" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A506" s="71"/>
-    </row>
-    <row r="507" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A507" s="71"/>
-    </row>
-    <row r="508" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A508" s="71"/>
-    </row>
-    <row r="509" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A509" s="71"/>
-    </row>
-    <row r="510" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A510" s="71"/>
-    </row>
-    <row r="511" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A511" s="71"/>
-    </row>
-    <row r="512" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A512" s="71"/>
-    </row>
-    <row r="513" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A513" s="71"/>
-    </row>
-    <row r="514" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A514" s="71"/>
-    </row>
-    <row r="515" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A515" s="71"/>
-    </row>
-    <row r="516" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A516" s="71"/>
-    </row>
-    <row r="517" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A517" s="71"/>
-    </row>
-    <row r="518" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A518" s="71"/>
-    </row>
-    <row r="519" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A519" s="71"/>
-    </row>
-    <row r="520" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A520" s="71"/>
-    </row>
-    <row r="521" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A521" s="71"/>
-    </row>
-    <row r="522" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A522" s="71"/>
-    </row>
-    <row r="523" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A523" s="71"/>
-    </row>
-    <row r="524" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A524" s="71"/>
-    </row>
-    <row r="525" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A525" s="71"/>
-    </row>
-    <row r="526" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A526" s="71"/>
-    </row>
-    <row r="527" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A527" s="71"/>
-    </row>
-    <row r="528" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A528" s="71"/>
-    </row>
-    <row r="529" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A529" s="71"/>
-    </row>
-    <row r="530" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A530" s="71"/>
-    </row>
-    <row r="531" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A531" s="71"/>
-    </row>
-    <row r="532" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A532" s="71"/>
-    </row>
-    <row r="533" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A533" s="71"/>
-    </row>
-    <row r="534" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A534" s="71"/>
-    </row>
-    <row r="535" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A535" s="71"/>
-    </row>
-    <row r="536" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A536" s="71"/>
-    </row>
-    <row r="537" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A537" s="71"/>
-    </row>
-    <row r="538" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A538" s="71"/>
-    </row>
-    <row r="539" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A539" s="71"/>
-    </row>
-    <row r="540" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A540" s="71"/>
-    </row>
-    <row r="541" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A541" s="71"/>
-    </row>
-    <row r="542" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A542" s="71"/>
-    </row>
-    <row r="543" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A543" s="71"/>
-    </row>
-    <row r="544" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A544" s="71"/>
-    </row>
-    <row r="545" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A545" s="71"/>
-    </row>
-    <row r="546" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A546" s="71"/>
-    </row>
-    <row r="547" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A547" s="71"/>
-    </row>
-    <row r="548" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A548" s="71"/>
-    </row>
-    <row r="549" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A549" s="71"/>
-    </row>
-    <row r="550" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A550" s="71"/>
-    </row>
-    <row r="551" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A551" s="71"/>
-    </row>
-    <row r="552" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A552" s="71"/>
-    </row>
-    <row r="553" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A553" s="71"/>
-    </row>
-    <row r="554" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A554" s="71"/>
-    </row>
-    <row r="555" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A555" s="71"/>
-    </row>
-    <row r="556" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A556" s="71"/>
-    </row>
-    <row r="557" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A557" s="71"/>
-    </row>
-    <row r="558" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A558" s="71"/>
-    </row>
-    <row r="559" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A559" s="71"/>
-    </row>
-    <row r="560" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A560" s="71"/>
-    </row>
-    <row r="561" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A561" s="71"/>
-    </row>
-    <row r="562" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A562" s="71"/>
-    </row>
-    <row r="563" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A563" s="71"/>
-    </row>
-    <row r="564" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A564" s="71"/>
-    </row>
-    <row r="565" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A565" s="71"/>
-    </row>
-    <row r="566" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A566" s="71"/>
-    </row>
-    <row r="567" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A567" s="71"/>
-    </row>
-    <row r="568" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A568" s="71"/>
-    </row>
-    <row r="569" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A569" s="71"/>
-    </row>
-    <row r="570" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A570" s="71"/>
-    </row>
-    <row r="571" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A571" s="71"/>
-    </row>
-    <row r="572" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A572" s="71"/>
-    </row>
-    <row r="573" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A573" s="71"/>
-    </row>
-    <row r="574" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A574" s="71"/>
-    </row>
-    <row r="575" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A575" s="71"/>
-    </row>
-    <row r="576" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A576" s="71"/>
-    </row>
-    <row r="577" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A577" s="71"/>
-    </row>
-    <row r="578" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A578" s="71"/>
-    </row>
-    <row r="579" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A579" s="71"/>
-    </row>
-    <row r="580" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A580" s="71"/>
-    </row>
-    <row r="581" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A581" s="71"/>
-    </row>
-    <row r="582" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A582" s="71"/>
-    </row>
-    <row r="583" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A583" s="71"/>
-    </row>
-    <row r="584" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A584" s="71"/>
-    </row>
-    <row r="585" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A585" s="71"/>
-    </row>
-    <row r="586" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A586" s="71"/>
-    </row>
-    <row r="587" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A587" s="71"/>
-    </row>
-    <row r="588" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A588" s="71"/>
-    </row>
-    <row r="589" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A589" s="71"/>
-    </row>
-    <row r="590" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A590" s="71"/>
-    </row>
-    <row r="591" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A591" s="71"/>
-    </row>
-    <row r="592" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A592" s="71"/>
-    </row>
-    <row r="593" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A593" s="71"/>
-    </row>
-    <row r="594" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A594" s="71"/>
-    </row>
-    <row r="595" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A595" s="71"/>
-    </row>
-    <row r="596" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A596" s="71"/>
-    </row>
-    <row r="597" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A597" s="71"/>
-    </row>
-    <row r="598" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A598" s="71"/>
-    </row>
-    <row r="599" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A599" s="71"/>
-    </row>
-    <row r="600" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A600" s="71"/>
-    </row>
-    <row r="601" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A601" s="71"/>
-    </row>
-    <row r="602" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A602" s="71"/>
-    </row>
-    <row r="603" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A603" s="71"/>
-    </row>
-    <row r="604" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A604" s="71"/>
-    </row>
-    <row r="605" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A605" s="71"/>
-    </row>
-    <row r="606" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A606" s="71"/>
-    </row>
-    <row r="607" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A607" s="71"/>
-    </row>
-    <row r="608" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A608" s="71"/>
-    </row>
-    <row r="609" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A609" s="71"/>
-    </row>
-    <row r="610" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A610" s="71"/>
-    </row>
-    <row r="611" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A611" s="71"/>
-    </row>
-    <row r="612" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A612" s="71"/>
-    </row>
-    <row r="613" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A613" s="71"/>
-    </row>
-    <row r="614" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A614" s="71"/>
-    </row>
-    <row r="615" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A615" s="71"/>
-    </row>
-    <row r="616" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A616" s="71"/>
-    </row>
-    <row r="617" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A617" s="71"/>
-    </row>
-    <row r="618" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A618" s="71"/>
-    </row>
-    <row r="619" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A619" s="71"/>
-    </row>
-    <row r="620" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A620" s="71"/>
-    </row>
-    <row r="621" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A621" s="71"/>
-    </row>
-    <row r="622" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A622" s="71"/>
-    </row>
-    <row r="623" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A623" s="71"/>
-    </row>
-    <row r="624" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A624" s="71"/>
-    </row>
-    <row r="625" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A625" s="71"/>
-    </row>
-    <row r="626" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A626" s="71"/>
-    </row>
-    <row r="627" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A627" s="71"/>
-    </row>
-    <row r="628" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A628" s="71"/>
-    </row>
-    <row r="629" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A629" s="71"/>
-    </row>
-    <row r="630" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A630" s="71"/>
-    </row>
-    <row r="631" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A631" s="71"/>
-    </row>
-    <row r="632" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A632" s="71"/>
-    </row>
-    <row r="633" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A633" s="71"/>
-    </row>
-    <row r="634" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A634" s="71"/>
-    </row>
-    <row r="635" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A635" s="71"/>
-    </row>
-    <row r="636" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A636" s="71"/>
-    </row>
-    <row r="637" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A637" s="71"/>
-    </row>
-    <row r="638" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A638" s="71"/>
-    </row>
-    <row r="639" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A639" s="71"/>
-    </row>
-    <row r="640" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A640" s="71"/>
-    </row>
-    <row r="641" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A641" s="71"/>
-    </row>
-    <row r="642" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A642" s="71"/>
-    </row>
-    <row r="643" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A643" s="71"/>
-    </row>
-    <row r="644" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A644" s="71"/>
-    </row>
-    <row r="645" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A645" s="71"/>
-    </row>
-    <row r="646" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A646" s="71"/>
-    </row>
-    <row r="647" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A647" s="71"/>
-    </row>
-    <row r="648" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A648" s="71"/>
-    </row>
-    <row r="649" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A649" s="71"/>
-    </row>
-    <row r="650" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A650" s="71"/>
-    </row>
-    <row r="651" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A651" s="71"/>
-    </row>
-    <row r="652" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A652" s="71"/>
-    </row>
-    <row r="653" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A653" s="71"/>
-    </row>
-    <row r="654" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A654" s="71"/>
-    </row>
-    <row r="655" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A655" s="71"/>
-    </row>
-    <row r="656" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A656" s="71"/>
-    </row>
-    <row r="657" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A657" s="71"/>
-    </row>
-    <row r="658" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A658" s="71"/>
-    </row>
-    <row r="659" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A659" s="71"/>
-    </row>
-    <row r="660" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A660" s="71"/>
-    </row>
-    <row r="661" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A661" s="71"/>
-    </row>
-    <row r="662" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A662" s="71"/>
-    </row>
-    <row r="663" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A663" s="71"/>
-    </row>
-    <row r="664" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A664" s="71"/>
-    </row>
-    <row r="665" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A665" s="71"/>
-    </row>
-    <row r="666" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A666" s="71"/>
-    </row>
-    <row r="667" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A667" s="71"/>
-    </row>
-    <row r="668" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A668" s="71"/>
-    </row>
-    <row r="669" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A669" s="71"/>
-    </row>
-    <row r="670" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A670" s="71"/>
-    </row>
-    <row r="671" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A671" s="71"/>
-    </row>
-    <row r="672" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A672" s="71"/>
-    </row>
-    <row r="673" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A673" s="71"/>
-    </row>
-    <row r="674" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A674" s="71"/>
-    </row>
-    <row r="675" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A675" s="71"/>
-    </row>
-    <row r="676" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A676" s="71"/>
-    </row>
-    <row r="677" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A677" s="71"/>
-    </row>
-    <row r="678" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A678" s="71"/>
-    </row>
-    <row r="679" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A679" s="71"/>
-    </row>
-    <row r="680" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A680" s="71"/>
-    </row>
-    <row r="681" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A681" s="71"/>
-    </row>
-    <row r="682" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A682" s="71"/>
-    </row>
-    <row r="683" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A683" s="71"/>
-    </row>
-    <row r="684" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A684" s="71"/>
-    </row>
-    <row r="685" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A685" s="71"/>
-    </row>
-    <row r="686" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A686" s="71"/>
-    </row>
-    <row r="687" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A687" s="71"/>
-    </row>
-    <row r="688" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A688" s="71"/>
-    </row>
-    <row r="689" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A689" s="71"/>
-    </row>
-    <row r="690" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A690" s="71"/>
-    </row>
-    <row r="691" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A691" s="71"/>
-    </row>
-    <row r="692" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A692" s="71"/>
-    </row>
-    <row r="693" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A693" s="71"/>
-    </row>
-    <row r="694" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A694" s="71"/>
-    </row>
-    <row r="695" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A695" s="71"/>
-    </row>
-    <row r="696" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A696" s="71"/>
-    </row>
-    <row r="697" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A697" s="71"/>
-    </row>
-    <row r="698" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A698" s="71"/>
-    </row>
-    <row r="699" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A699" s="71"/>
-    </row>
-    <row r="700" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A700" s="71"/>
-    </row>
-    <row r="701" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A701" s="71"/>
-    </row>
-    <row r="702" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A702" s="71"/>
-    </row>
-    <row r="703" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A703" s="71"/>
-    </row>
-    <row r="704" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A704" s="71"/>
-    </row>
-    <row r="705" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A705" s="71"/>
-    </row>
-    <row r="706" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A706" s="71"/>
-    </row>
-    <row r="707" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A707" s="71"/>
-    </row>
-    <row r="708" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A708" s="71"/>
-    </row>
-    <row r="709" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A709" s="71"/>
-    </row>
-    <row r="710" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A710" s="71"/>
-    </row>
-    <row r="711" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A711" s="71"/>
-    </row>
-    <row r="712" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A712" s="71"/>
-    </row>
-    <row r="713" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A713" s="71"/>
-    </row>
-    <row r="714" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A714" s="71"/>
-    </row>
-    <row r="715" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A715" s="71"/>
-    </row>
-    <row r="716" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A716" s="71"/>
-    </row>
-    <row r="717" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A717" s="71"/>
-    </row>
-    <row r="718" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A718" s="71"/>
-    </row>
-    <row r="719" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A719" s="71"/>
-    </row>
-    <row r="720" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A720" s="71"/>
-    </row>
-    <row r="721" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A721" s="71"/>
-    </row>
-    <row r="722" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A722" s="71"/>
-    </row>
-    <row r="723" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A723" s="71"/>
-    </row>
-    <row r="724" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A724" s="71"/>
-    </row>
-    <row r="725" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A725" s="71"/>
-    </row>
-    <row r="726" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A726" s="71"/>
-    </row>
-    <row r="727" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A727" s="71"/>
-    </row>
-    <row r="728" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A728" s="71"/>
-    </row>
-    <row r="729" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A729" s="71"/>
-    </row>
-    <row r="730" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A730" s="71"/>
-    </row>
-    <row r="731" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A731" s="71"/>
-    </row>
-    <row r="732" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A732" s="71"/>
-    </row>
-    <row r="733" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A733" s="71"/>
-    </row>
-    <row r="734" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A734" s="71"/>
-    </row>
-    <row r="735" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A735" s="71"/>
-    </row>
-    <row r="736" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A736" s="71"/>
-    </row>
-    <row r="737" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A737" s="71"/>
-    </row>
-    <row r="738" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A738" s="71"/>
-    </row>
-    <row r="739" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A739" s="71"/>
-    </row>
-    <row r="740" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A740" s="71"/>
-    </row>
-    <row r="741" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A741" s="71"/>
-    </row>
-    <row r="742" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A742" s="71"/>
-    </row>
-    <row r="743" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A743" s="71"/>
-    </row>
-    <row r="744" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A744" s="71"/>
-    </row>
-    <row r="745" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A745" s="71"/>
-    </row>
-    <row r="746" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A746" s="71"/>
-    </row>
-    <row r="747" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A747" s="71"/>
-    </row>
-    <row r="748" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A748" s="71"/>
-    </row>
-    <row r="749" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A749" s="71"/>
-    </row>
-    <row r="750" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A750" s="71"/>
-    </row>
-    <row r="751" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A751" s="71"/>
-    </row>
-    <row r="752" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A752" s="71"/>
-    </row>
-    <row r="753" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A753" s="71"/>
-    </row>
-    <row r="754" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A754" s="71"/>
-    </row>
-    <row r="755" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A755" s="71"/>
-    </row>
-    <row r="756" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A756" s="71"/>
-    </row>
-    <row r="757" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A757" s="71"/>
-    </row>
-    <row r="758" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A758" s="71"/>
-    </row>
-    <row r="759" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A759" s="71"/>
-    </row>
-    <row r="760" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A760" s="71"/>
-    </row>
-    <row r="761" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A761" s="71"/>
-    </row>
-    <row r="762" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A762" s="71"/>
-    </row>
-    <row r="763" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A763" s="71"/>
-    </row>
-    <row r="764" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A764" s="71"/>
-    </row>
-    <row r="765" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A765" s="71"/>
-    </row>
-    <row r="766" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A766" s="71"/>
-    </row>
-    <row r="767" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A767" s="71"/>
-    </row>
-    <row r="768" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A768" s="71"/>
-    </row>
-    <row r="769" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A769" s="71"/>
-    </row>
-    <row r="770" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A770" s="71"/>
-    </row>
-    <row r="771" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A771" s="71"/>
-    </row>
-    <row r="772" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A772" s="71"/>
-    </row>
-    <row r="773" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A773" s="71"/>
-    </row>
-    <row r="774" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A774" s="71"/>
-    </row>
-    <row r="775" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A775" s="71"/>
-    </row>
-    <row r="776" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A776" s="71"/>
-    </row>
-    <row r="777" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A777" s="71"/>
-    </row>
-    <row r="778" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A778" s="71"/>
-    </row>
-    <row r="779" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A779" s="71"/>
-    </row>
-    <row r="780" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A780" s="71"/>
-    </row>
-    <row r="781" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A781" s="71"/>
-    </row>
-    <row r="782" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A782" s="71"/>
-    </row>
-    <row r="783" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A783" s="71"/>
-    </row>
-    <row r="784" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A784" s="71"/>
-    </row>
-    <row r="785" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A785" s="71"/>
-    </row>
-    <row r="786" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A786" s="71"/>
-    </row>
-    <row r="787" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A787" s="71"/>
-    </row>
-    <row r="788" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A788" s="71"/>
-    </row>
-    <row r="789" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A789" s="71"/>
-    </row>
-    <row r="790" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A790" s="71"/>
-    </row>
-    <row r="791" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A791" s="71"/>
-    </row>
-    <row r="792" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A792" s="71"/>
-    </row>
-    <row r="793" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A793" s="71"/>
-    </row>
-    <row r="794" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A794" s="71"/>
-    </row>
-    <row r="795" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A795" s="71"/>
-    </row>
-    <row r="796" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A796" s="71"/>
-    </row>
-    <row r="797" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A797" s="71"/>
-    </row>
-    <row r="798" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A798" s="71"/>
-    </row>
-    <row r="799" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A799" s="71"/>
-    </row>
-    <row r="800" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A800" s="71"/>
-    </row>
-    <row r="801" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A801" s="71"/>
-    </row>
-    <row r="802" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A802" s="71"/>
-    </row>
-    <row r="803" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A803" s="71"/>
-    </row>
-    <row r="804" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A804" s="71"/>
-    </row>
-    <row r="805" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A805" s="71"/>
-    </row>
-    <row r="806" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A806" s="71"/>
-    </row>
-    <row r="807" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A807" s="71"/>
-    </row>
-    <row r="808" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A808" s="71"/>
-    </row>
-    <row r="809" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A809" s="71"/>
-    </row>
-    <row r="810" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A810" s="71"/>
-    </row>
-    <row r="811" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A811" s="71"/>
-    </row>
-    <row r="812" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A812" s="71"/>
-    </row>
-    <row r="813" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A813" s="71"/>
-    </row>
-    <row r="814" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A814" s="71"/>
-    </row>
-    <row r="815" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A815" s="71"/>
-    </row>
-    <row r="816" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A816" s="71"/>
-    </row>
-    <row r="817" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A817" s="71"/>
-    </row>
-    <row r="818" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A818" s="71"/>
-    </row>
-    <row r="819" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A819" s="71"/>
-    </row>
-    <row r="820" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A820" s="71"/>
-    </row>
-    <row r="821" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A821" s="71"/>
-    </row>
-    <row r="822" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A822" s="71"/>
-    </row>
-    <row r="823" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A823" s="71"/>
-    </row>
-    <row r="824" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A824" s="71"/>
-    </row>
-    <row r="825" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A825" s="71"/>
-    </row>
-    <row r="826" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A826" s="71"/>
-    </row>
-    <row r="827" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A827" s="71"/>
-    </row>
-    <row r="828" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A828" s="71"/>
-    </row>
-    <row r="829" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A829" s="71"/>
-    </row>
-    <row r="830" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A830" s="71"/>
-    </row>
-    <row r="831" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A831" s="71"/>
-    </row>
-    <row r="832" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A832" s="71"/>
-    </row>
-    <row r="833" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A833" s="71"/>
-    </row>
-    <row r="834" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A834" s="71"/>
-    </row>
-    <row r="835" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A835" s="71"/>
-    </row>
-    <row r="836" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A836" s="71"/>
-    </row>
-    <row r="837" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A837" s="71"/>
-    </row>
-    <row r="838" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A838" s="71"/>
-    </row>
-    <row r="839" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A839" s="71"/>
-    </row>
-    <row r="840" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A840" s="71"/>
-    </row>
-    <row r="841" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A841" s="71"/>
-    </row>
-    <row r="842" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A842" s="71"/>
-    </row>
-    <row r="843" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A843" s="71"/>
-    </row>
-    <row r="844" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A844" s="71"/>
-    </row>
-    <row r="845" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A845" s="71"/>
-    </row>
-    <row r="846" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A846" s="71"/>
-    </row>
-    <row r="847" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A847" s="71"/>
-    </row>
-    <row r="848" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A848" s="71"/>
-    </row>
-    <row r="849" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A849" s="71"/>
-    </row>
-    <row r="850" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A850" s="71"/>
-    </row>
-    <row r="851" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A851" s="71"/>
-    </row>
-    <row r="852" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A852" s="71"/>
-    </row>
-    <row r="853" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A853" s="71"/>
-    </row>
-    <row r="854" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A854" s="71"/>
-    </row>
-    <row r="855" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A855" s="71"/>
-    </row>
-    <row r="856" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A856" s="71"/>
-    </row>
-    <row r="857" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A857" s="71"/>
-    </row>
-    <row r="858" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A858" s="71"/>
-    </row>
-    <row r="859" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A859" s="71"/>
-    </row>
-    <row r="860" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A860" s="71"/>
-    </row>
-    <row r="861" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A861" s="71"/>
-    </row>
-    <row r="862" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A862" s="71"/>
-    </row>
-    <row r="863" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A863" s="71"/>
-    </row>
-    <row r="864" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A864" s="71"/>
-    </row>
-    <row r="865" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A865" s="71"/>
-    </row>
-    <row r="866" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A866" s="71"/>
-    </row>
-    <row r="867" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A867" s="71"/>
-    </row>
-    <row r="868" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A868" s="71"/>
-    </row>
-    <row r="869" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A869" s="71"/>
-    </row>
-    <row r="870" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A870" s="71"/>
-    </row>
-    <row r="871" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A871" s="71"/>
-    </row>
-    <row r="872" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A872" s="71"/>
-    </row>
-    <row r="873" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A873" s="71"/>
-    </row>
-    <row r="874" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A874" s="71"/>
-    </row>
-    <row r="875" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A875" s="71"/>
-    </row>
-    <row r="876" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A876" s="71"/>
-    </row>
-    <row r="877" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A877" s="71"/>
-    </row>
-    <row r="878" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A878" s="71"/>
-    </row>
-    <row r="879" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A879" s="71"/>
-    </row>
-    <row r="880" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A880" s="71"/>
-    </row>
-    <row r="881" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A881" s="71"/>
-    </row>
-    <row r="882" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A882" s="71"/>
-    </row>
-    <row r="883" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A883" s="71"/>
-    </row>
-    <row r="884" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A884" s="71"/>
-    </row>
-    <row r="885" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A885" s="71"/>
-    </row>
-    <row r="886" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A886" s="71"/>
-    </row>
-    <row r="887" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A887" s="71"/>
-    </row>
-    <row r="888" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A888" s="71"/>
-    </row>
-    <row r="889" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A889" s="71"/>
-    </row>
-    <row r="890" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A890" s="71"/>
-    </row>
-    <row r="891" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A891" s="71"/>
-    </row>
-    <row r="892" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A892" s="71"/>
-    </row>
-    <row r="893" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A893" s="71"/>
-    </row>
-    <row r="894" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A894" s="71"/>
-    </row>
-    <row r="895" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A895" s="71"/>
-    </row>
-    <row r="896" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A896" s="71"/>
-    </row>
-    <row r="897" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A897" s="71"/>
-    </row>
-    <row r="898" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A898" s="71"/>
-    </row>
-    <row r="899" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A899" s="71"/>
-    </row>
-    <row r="900" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A900" s="71"/>
-    </row>
-    <row r="901" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A901" s="71"/>
-    </row>
-    <row r="902" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A902" s="71"/>
-    </row>
-    <row r="903" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A903" s="71"/>
-    </row>
-    <row r="904" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A904" s="71"/>
-    </row>
-    <row r="905" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A905" s="71"/>
-    </row>
-    <row r="906" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A906" s="71"/>
-    </row>
-    <row r="907" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A907" s="71"/>
-    </row>
-    <row r="908" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A908" s="71"/>
-    </row>
-    <row r="909" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A909" s="71"/>
-    </row>
-    <row r="910" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A910" s="71"/>
-    </row>
-    <row r="911" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A911" s="71"/>
-    </row>
-    <row r="912" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A912" s="71"/>
-    </row>
-    <row r="913" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A913" s="71"/>
-    </row>
-    <row r="914" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A914" s="71"/>
-    </row>
-    <row r="915" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A915" s="71"/>
-    </row>
-    <row r="916" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A916" s="71"/>
-    </row>
-    <row r="917" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A917" s="71"/>
-    </row>
-    <row r="918" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A918" s="71"/>
-    </row>
-    <row r="919" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A919" s="71"/>
-    </row>
-    <row r="920" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A920" s="71"/>
-    </row>
-    <row r="921" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A921" s="71"/>
-    </row>
-    <row r="922" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A922" s="71"/>
-    </row>
-    <row r="923" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A923" s="71"/>
-    </row>
-    <row r="924" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A924" s="71"/>
-    </row>
-    <row r="925" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A925" s="71"/>
-    </row>
-    <row r="926" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A926" s="71"/>
-    </row>
-    <row r="927" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A927" s="71"/>
-    </row>
-    <row r="928" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A928" s="71"/>
-    </row>
-    <row r="929" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A929" s="71"/>
-    </row>
-    <row r="930" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A930" s="71"/>
-    </row>
-    <row r="931" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A931" s="71"/>
-    </row>
-    <row r="932" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A932" s="71"/>
-    </row>
-    <row r="933" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A933" s="71"/>
-    </row>
-    <row r="934" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A934" s="71"/>
-    </row>
-    <row r="935" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A935" s="71"/>
-    </row>
-    <row r="936" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A936" s="71"/>
-    </row>
-    <row r="937" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A937" s="71"/>
-    </row>
-    <row r="938" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A938" s="71"/>
-    </row>
-    <row r="939" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A939" s="71"/>
-    </row>
-    <row r="940" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A940" s="71"/>
-    </row>
-    <row r="941" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A941" s="71"/>
-    </row>
-    <row r="942" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A942" s="71"/>
-    </row>
-    <row r="943" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A943" s="71"/>
-    </row>
-    <row r="944" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A944" s="71"/>
-    </row>
-    <row r="945" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A945" s="71"/>
-    </row>
-    <row r="946" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A946" s="71"/>
-    </row>
-    <row r="947" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A947" s="71"/>
-    </row>
-    <row r="948" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A948" s="71"/>
-    </row>
-    <row r="949" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A949" s="71"/>
-    </row>
-    <row r="950" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A950" s="71"/>
-    </row>
-    <row r="951" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A951" s="71"/>
-    </row>
-    <row r="952" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A952" s="71"/>
-    </row>
-    <row r="953" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A953" s="71"/>
-    </row>
-    <row r="954" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A954" s="71"/>
-    </row>
-    <row r="955" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A955" s="71"/>
-    </row>
-    <row r="956" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A956" s="71"/>
-    </row>
-    <row r="957" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A957" s="71"/>
-    </row>
-    <row r="958" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A958" s="71"/>
-    </row>
-    <row r="959" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A959" s="71"/>
-    </row>
-    <row r="960" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A960" s="71"/>
-    </row>
-    <row r="961" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A961" s="71"/>
-    </row>
-    <row r="962" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A962" s="71"/>
-    </row>
-    <row r="963" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A963" s="71"/>
-    </row>
-    <row r="964" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A964" s="71"/>
-    </row>
-    <row r="965" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A965" s="71"/>
-    </row>
-    <row r="966" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A966" s="71"/>
-    </row>
-    <row r="967" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A967" s="71"/>
-    </row>
-    <row r="968" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A968" s="71"/>
-    </row>
-    <row r="969" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A969" s="71"/>
-    </row>
-    <row r="970" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A970" s="71"/>
-    </row>
-    <row r="971" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A971" s="71"/>
-    </row>
-    <row r="972" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A972" s="71"/>
-    </row>
-    <row r="973" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A973" s="71"/>
-    </row>
-    <row r="974" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A974" s="71"/>
-    </row>
-    <row r="975" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A975" s="71"/>
-    </row>
-    <row r="976" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A976" s="71"/>
-    </row>
-    <row r="977" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A977" s="71"/>
-    </row>
-    <row r="978" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A978" s="71"/>
-    </row>
-    <row r="979" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A979" s="71"/>
-    </row>
-    <row r="980" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A980" s="71"/>
-    </row>
-    <row r="981" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A981" s="71"/>
-    </row>
-    <row r="982" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A982" s="71"/>
-    </row>
-    <row r="983" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A983" s="71"/>
-    </row>
-    <row r="984" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A984" s="71"/>
-    </row>
-    <row r="985" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A985" s="71"/>
-    </row>
-    <row r="986" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A986" s="71"/>
-    </row>
-    <row r="987" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A987" s="71"/>
-    </row>
-    <row r="988" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A988" s="71"/>
-    </row>
-    <row r="989" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A989" s="71"/>
-    </row>
-    <row r="990" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A990" s="71"/>
-    </row>
-    <row r="991" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A991" s="71"/>
-    </row>
-    <row r="992" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A992" s="71"/>
-    </row>
-    <row r="993" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A993" s="71"/>
-    </row>
-    <row r="994" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A994" s="71"/>
-    </row>
-    <row r="995" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A995" s="71"/>
-    </row>
-    <row r="996" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A996" s="71"/>
-    </row>
-    <row r="997" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A997" s="71"/>
-    </row>
-    <row r="998" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A998" s="71"/>
-    </row>
-    <row r="999" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A999" s="71"/>
-    </row>
-    <row r="1000" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1000" s="71"/>
-    </row>
-    <row r="1001" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1001" s="71"/>
-    </row>
-  </sheetData>
-  <sortState ref="A2:A1000">
-    <sortCondition ref="A69"/>
-  </sortState>
-  <hyperlinks>
-    <hyperlink ref="A4" r:id="rId1"/>
-    <hyperlink ref="A16" r:id="rId2"/>
-    <hyperlink ref="A9" r:id="rId3"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/mycode/刷题统计.xlsx
+++ b/mycode/刷题统计.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2680" yWindow="460" windowWidth="23340" windowHeight="14180" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="2000" yWindow="740" windowWidth="27520" windowHeight="14180" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="830" uniqueCount="509">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="848" uniqueCount="527">
   <si>
     <t>1 binary search</t>
   </si>
@@ -1473,18 +1473,6 @@
     <t>hash.setdefault(key,0)</t>
   </si>
   <si>
-    <t>找key的value，如果没有，value=0</t>
-  </si>
-  <si>
-    <t>import collections</t>
-  </si>
-  <si>
-    <t>hash = collections.defaultdict(list) ；hash[key].append(value)</t>
-  </si>
-  <si>
-    <t>每次往里存(key,value)时，value是往array里append值</t>
-  </si>
-  <si>
     <t>问题</t>
   </si>
   <si>
@@ -1558,13 +1546,119 @@
   </si>
   <si>
     <t>Sudoku solver</t>
+  </si>
+  <si>
+    <t>用到key的</t>
+  </si>
+  <si>
+    <t>按某种key的规则找最小</t>
+  </si>
+  <si>
+    <t>按某种key的规则sort</t>
+  </si>
+  <si>
+    <t>sorted(a.items(),key = lambda x:x[1])    （其中a = {'a':1,'b':4,'c':2}）</t>
+  </si>
+  <si>
+    <t>按照a里每个item的第二个数排序</t>
+  </si>
+  <si>
+    <t>min(set(s), key=s.count)</t>
+  </si>
+  <si>
+    <t>找set(s)里每个item的频次找最小</t>
+  </si>
+  <si>
+    <t>hash的简便</t>
+  </si>
+  <si>
+    <t>结果是{1:[0,0,0], 2:[0],[0]}，作用是如果没有key就加key:[0]</t>
+  </si>
+  <si>
+    <t>setdefault</t>
+  </si>
+  <si>
+    <t>res = hash.setdefault(key, [])</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 意思是如果hash里有key，就返回key对应的value，既res=value;如果没有key，就在hash里加pair---(key:[])并且返回[]，既res=[]</t>
+  </si>
+  <si>
+    <t>x = [1,1,1,2,3]
+hash = {}
+for ele in x: 
+    hash.setdefault(ele, []).append(0)</t>
+  </si>
+  <si>
+    <t>找key的value，如果没有这个key，就在hash里加pair---（key,0)</t>
+  </si>
+  <si>
+    <t>from collections import  defaultdict</t>
+  </si>
+  <si>
+    <t>hash = defaultdict(list) #list指value的类型
+x = [1,1,3,4]
+for (index, ele) in enumerate(x):
+    hash[ele].append( index )</t>
+  </si>
+  <si>
+    <t>from collections import  defaultdict
+hash = defaultdict(int) #list指value的类型
+x = [1,1,3,4]
+for ele in x:
+    hash[ele]+=1</t>
+  </si>
+  <si>
+    <t>结果 hash =  {1: 2, 3: 1, 4: 1}</t>
+  </si>
+  <si>
+    <t>结果 hash = {1: [0, 1], 3: [2], 4: [3]}
+hash = defaultdict(list) 意思是把hash设成dict,其value的类型是list，这里也可以设置成int，set</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">from </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve">collections </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF000080"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve">import  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>Counter</t>
+    </r>
+  </si>
+  <si>
+    <t>x = [1,1,3,4]
+c = Counter(x)
+print c[1]</t>
+  </si>
+  <si>
+    <t>Counter(x),这个x可以array，string, hash. 然后可以求任何一个key的count</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1648,8 +1742,18 @@
       <name val="-apple-system"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Menlo"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Menlo"/>
+    </font>
+    <font>
       <b/>
-      <sz val="14"/>
+      <sz val="9"/>
       <color rgb="FF000080"/>
       <name val="Menlo"/>
     </font>
@@ -1990,7 +2094,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="86">
+  <cellXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="7"/>
@@ -2066,17 +2170,22 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="12" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="15" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="16" fontId="3" fillId="13" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2088,19 +2197,13 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2115,6 +2218,16 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="79">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -2966,7 +3079,7 @@
         <v>42964</v>
       </c>
       <c r="L22" s="10" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
     </row>
     <row r="23" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.2">
@@ -2998,7 +3111,7 @@
     </row>
     <row r="25" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="D25" s="10" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="F25" s="10">
         <v>441</v>
@@ -5499,7 +5612,7 @@
       <c r="B146" s="34" t="s">
         <v>339</v>
       </c>
-      <c r="C146" s="72" t="s">
+      <c r="C146" s="78" t="s">
         <v>350</v>
       </c>
       <c r="D146" s="34" t="s">
@@ -5528,7 +5641,7 @@
       <c r="A147" s="10">
         <v>145</v>
       </c>
-      <c r="C147" s="77"/>
+      <c r="C147" s="80"/>
       <c r="D147" s="34" t="s">
         <v>342</v>
       </c>
@@ -5555,7 +5668,7 @@
       <c r="A148" s="10">
         <v>146</v>
       </c>
-      <c r="C148" s="77"/>
+      <c r="C148" s="80"/>
       <c r="D148" s="34" t="s">
         <v>343</v>
       </c>
@@ -5582,7 +5695,7 @@
       <c r="A149" s="10">
         <v>147</v>
       </c>
-      <c r="C149" s="77"/>
+      <c r="C149" s="80"/>
       <c r="D149" s="34" t="s">
         <v>309</v>
       </c>
@@ -5606,7 +5719,7 @@
       <c r="A150" s="10">
         <v>148</v>
       </c>
-      <c r="C150" s="77"/>
+      <c r="C150" s="80"/>
       <c r="D150" s="34" t="s">
         <v>317</v>
       </c>
@@ -5630,7 +5743,7 @@
       <c r="A151" s="10">
         <v>149</v>
       </c>
-      <c r="C151" s="73"/>
+      <c r="C151" s="79"/>
       <c r="D151" s="34" t="s">
         <v>318</v>
       </c>
@@ -5654,7 +5767,7 @@
       <c r="A152" s="10">
         <v>150</v>
       </c>
-      <c r="C152" s="72" t="s">
+      <c r="C152" s="78" t="s">
         <v>356</v>
       </c>
       <c r="D152" s="34" t="s">
@@ -5680,7 +5793,7 @@
       <c r="A153" s="10">
         <v>151</v>
       </c>
-      <c r="C153" s="73"/>
+      <c r="C153" s="79"/>
       <c r="D153" s="34" t="s">
         <v>330</v>
       </c>
@@ -5707,7 +5820,7 @@
       <c r="A154" s="10">
         <v>152</v>
       </c>
-      <c r="C154" s="72" t="s">
+      <c r="C154" s="78" t="s">
         <v>351</v>
       </c>
       <c r="D154" s="34" t="s">
@@ -5733,7 +5846,7 @@
       <c r="A155" s="10">
         <v>153</v>
       </c>
-      <c r="C155" s="77"/>
+      <c r="C155" s="80"/>
       <c r="D155" s="34" t="s">
         <v>321</v>
       </c>
@@ -5757,7 +5870,7 @@
       <c r="A156" s="10">
         <v>154</v>
       </c>
-      <c r="C156" s="73"/>
+      <c r="C156" s="79"/>
       <c r="D156" s="34" t="s">
         <v>322</v>
       </c>
@@ -5775,7 +5888,7 @@
       <c r="A157" s="10">
         <v>155</v>
       </c>
-      <c r="C157" s="72" t="s">
+      <c r="C157" s="78" t="s">
         <v>358</v>
       </c>
       <c r="D157" s="34" t="s">
@@ -5804,7 +5917,7 @@
       <c r="A158" s="10">
         <v>156</v>
       </c>
-      <c r="C158" s="73"/>
+      <c r="C158" s="79"/>
       <c r="D158" s="34" t="s">
         <v>354</v>
       </c>
@@ -5829,7 +5942,7 @@
         <v>157</v>
       </c>
       <c r="B159" s="40"/>
-      <c r="C159" s="74" t="s">
+      <c r="C159" s="75" t="s">
         <v>357</v>
       </c>
       <c r="D159" s="40" t="s">
@@ -5861,7 +5974,7 @@
         <v>158</v>
       </c>
       <c r="B160" s="40"/>
-      <c r="C160" s="75"/>
+      <c r="C160" s="76"/>
       <c r="D160" s="40" t="s">
         <v>352</v>
       </c>
@@ -5889,7 +6002,7 @@
         <v>159</v>
       </c>
       <c r="B161" s="40"/>
-      <c r="C161" s="75"/>
+      <c r="C161" s="76"/>
       <c r="D161" s="40" t="s">
         <v>324</v>
       </c>
@@ -5919,7 +6032,7 @@
         <v>160</v>
       </c>
       <c r="B162" s="40"/>
-      <c r="C162" s="75"/>
+      <c r="C162" s="76"/>
       <c r="D162" s="40" t="s">
         <v>328</v>
       </c>
@@ -5949,7 +6062,7 @@
         <v>161</v>
       </c>
       <c r="B163" s="40"/>
-      <c r="C163" s="76"/>
+      <c r="C163" s="77"/>
       <c r="D163" s="40" t="s">
         <v>331</v>
       </c>
@@ -5977,7 +6090,7 @@
         <v>162</v>
       </c>
       <c r="B164" s="40"/>
-      <c r="C164" s="74" t="s">
+      <c r="C164" s="75" t="s">
         <v>359</v>
       </c>
       <c r="D164" s="40" t="s">
@@ -6009,7 +6122,7 @@
         <v>163</v>
       </c>
       <c r="B165" s="40"/>
-      <c r="C165" s="75"/>
+      <c r="C165" s="76"/>
       <c r="D165" s="40" t="s">
         <v>337</v>
       </c>
@@ -6039,7 +6152,7 @@
         <v>164</v>
       </c>
       <c r="B166" s="40"/>
-      <c r="C166" s="76"/>
+      <c r="C166" s="77"/>
       <c r="D166" s="40" t="s">
         <v>338</v>
       </c>
@@ -6511,7 +6624,7 @@
       <c r="B183" s="51"/>
       <c r="C183" s="51"/>
       <c r="D183" s="40" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="E183" s="51"/>
       <c r="F183" s="51">
@@ -6538,7 +6651,7 @@
       <c r="B184" s="51"/>
       <c r="C184" s="51"/>
       <c r="D184" s="40" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="E184" s="51"/>
       <c r="F184" s="51">
@@ -6557,7 +6670,7 @@
       <c r="B185" s="51"/>
       <c r="C185" s="51"/>
       <c r="D185" s="40" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="E185" s="51"/>
       <c r="F185" s="51">
@@ -6609,9 +6722,9 @@
         <v>2</v>
       </c>
       <c r="J187" s="49" t="s">
-        <v>487</v>
-      </c>
-      <c r="K187" s="71">
+        <v>483</v>
+      </c>
+      <c r="K187" s="70">
         <v>42966</v>
       </c>
     </row>
@@ -7176,7 +7289,7 @@
       <c r="A228" s="49" t="s">
         <v>83</v>
       </c>
-      <c r="B228" s="81" t="s">
+      <c r="B228" s="74" t="s">
         <v>423</v>
       </c>
       <c r="C228" s="49" t="s">
@@ -7197,7 +7310,7 @@
       <c r="H228" s="49">
         <v>2</v>
       </c>
-      <c r="K228" s="66">
+      <c r="K228" s="65">
         <v>42964</v>
       </c>
     </row>
@@ -7205,7 +7318,7 @@
       <c r="A229" s="49">
         <v>223</v>
       </c>
-      <c r="B229" s="79"/>
+      <c r="B229" s="72"/>
       <c r="C229" s="49" t="s">
         <v>424</v>
       </c>
@@ -7224,7 +7337,7 @@
       <c r="H229" s="49">
         <v>1</v>
       </c>
-      <c r="K229" s="66">
+      <c r="K229" s="65">
         <v>42964</v>
       </c>
     </row>
@@ -7232,7 +7345,7 @@
       <c r="A230" s="49">
         <v>224</v>
       </c>
-      <c r="B230" s="79"/>
+      <c r="B230" s="72"/>
       <c r="C230" s="49" t="s">
         <v>425</v>
       </c>
@@ -7251,7 +7364,7 @@
       <c r="H230" s="49">
         <v>1</v>
       </c>
-      <c r="K230" s="66">
+      <c r="K230" s="65">
         <v>42964</v>
       </c>
     </row>
@@ -7259,7 +7372,7 @@
       <c r="A231" s="49">
         <v>225</v>
       </c>
-      <c r="B231" s="79"/>
+      <c r="B231" s="72"/>
       <c r="C231" s="49" t="s">
         <v>425</v>
       </c>
@@ -7278,7 +7391,7 @@
       <c r="H231" s="49">
         <v>1</v>
       </c>
-      <c r="K231" s="66">
+      <c r="K231" s="65">
         <v>42965</v>
       </c>
     </row>
@@ -7286,7 +7399,7 @@
       <c r="A232" s="49">
         <v>226</v>
       </c>
-      <c r="B232" s="79"/>
+      <c r="B232" s="72"/>
       <c r="C232" s="49" t="s">
         <v>425</v>
       </c>
@@ -7305,7 +7418,7 @@
       <c r="H232" s="49">
         <v>2</v>
       </c>
-      <c r="K232" s="66">
+      <c r="K232" s="65">
         <v>42965</v>
       </c>
     </row>
@@ -7313,7 +7426,7 @@
       <c r="A233" s="49">
         <v>227</v>
       </c>
-      <c r="B233" s="79"/>
+      <c r="B233" s="72"/>
       <c r="C233" s="49" t="s">
         <v>428</v>
       </c>
@@ -7335,18 +7448,18 @@
       <c r="J233" s="49" t="s">
         <v>77</v>
       </c>
-      <c r="K233" s="66">
+      <c r="K233" s="65">
         <v>42965</v>
       </c>
       <c r="L233" s="49" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
     </row>
     <row r="234" spans="1:12" s="49" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A234" s="49">
         <v>228</v>
       </c>
-      <c r="B234" s="79"/>
+      <c r="B234" s="72"/>
       <c r="C234" s="49" t="s">
         <v>424</v>
       </c>
@@ -7368,7 +7481,7 @@
       <c r="J234" s="49" t="s">
         <v>77</v>
       </c>
-      <c r="K234" s="66">
+      <c r="K234" s="65">
         <v>42965</v>
       </c>
     </row>
@@ -7376,7 +7489,7 @@
       <c r="A235" s="49">
         <v>229</v>
       </c>
-      <c r="B235" s="80"/>
+      <c r="B235" s="73"/>
       <c r="C235" s="57" t="s">
         <v>424</v>
       </c>
@@ -7398,18 +7511,18 @@
       <c r="J235" s="49" t="s">
         <v>77</v>
       </c>
-      <c r="K235" s="66">
+      <c r="K235" s="65">
         <v>42965</v>
       </c>
       <c r="L235" s="57" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
     </row>
     <row r="236" spans="1:12" s="58" customFormat="1" ht="17" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A236" s="49">
         <v>230</v>
       </c>
-      <c r="B236" s="78" t="s">
+      <c r="B236" s="71" t="s">
         <v>426</v>
       </c>
       <c r="D236" s="58" t="s">
@@ -7430,7 +7543,7 @@
       <c r="J236" s="49" t="s">
         <v>77</v>
       </c>
-      <c r="K236" s="66">
+      <c r="K236" s="65">
         <v>42966</v>
       </c>
     </row>
@@ -7438,7 +7551,7 @@
       <c r="A237" s="49">
         <v>231</v>
       </c>
-      <c r="B237" s="80"/>
+      <c r="B237" s="73"/>
       <c r="D237" s="57" t="s">
         <v>405</v>
       </c>
@@ -7457,7 +7570,7 @@
       <c r="J237" s="49" t="s">
         <v>77</v>
       </c>
-      <c r="K237" s="66">
+      <c r="K237" s="65">
         <v>42966</v>
       </c>
     </row>
@@ -7465,7 +7578,7 @@
       <c r="A238" s="49">
         <v>232</v>
       </c>
-      <c r="B238" s="78" t="s">
+      <c r="B238" s="71" t="s">
         <v>427</v>
       </c>
       <c r="D238" s="58" t="s">
@@ -7486,18 +7599,18 @@
       <c r="J238" s="49" t="s">
         <v>77</v>
       </c>
-      <c r="K238" s="66">
+      <c r="K238" s="65">
         <v>42966</v>
       </c>
       <c r="L238" s="58" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
     </row>
     <row r="239" spans="1:12" s="49" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A239" s="49">
         <v>233</v>
       </c>
-      <c r="B239" s="79"/>
+      <c r="B239" s="72"/>
       <c r="D239" s="49" t="s">
         <v>413</v>
       </c>
@@ -7516,7 +7629,7 @@
       <c r="J239" s="49" t="s">
         <v>77</v>
       </c>
-      <c r="K239" s="66">
+      <c r="K239" s="65">
         <v>42967</v>
       </c>
     </row>
@@ -7524,7 +7637,7 @@
       <c r="A240" s="49">
         <v>234</v>
       </c>
-      <c r="B240" s="79"/>
+      <c r="B240" s="72"/>
       <c r="D240" s="49" t="s">
         <v>402</v>
       </c>
@@ -7541,7 +7654,7 @@
       <c r="J240" s="49" t="s">
         <v>77</v>
       </c>
-      <c r="K240" s="66">
+      <c r="K240" s="65">
         <v>42967</v>
       </c>
     </row>
@@ -7549,7 +7662,7 @@
       <c r="A241" s="49">
         <v>235</v>
       </c>
-      <c r="B241" s="80"/>
+      <c r="B241" s="73"/>
       <c r="D241" s="57" t="s">
         <v>400</v>
       </c>
@@ -7569,7 +7682,7 @@
       <c r="J241" s="49" t="s">
         <v>77</v>
       </c>
-      <c r="K241" s="66">
+      <c r="K241" s="65">
         <v>42967</v>
       </c>
     </row>
@@ -7577,7 +7690,7 @@
       <c r="A242" s="49">
         <v>236</v>
       </c>
-      <c r="B242" s="78" t="s">
+      <c r="B242" s="71" t="s">
         <v>433</v>
       </c>
       <c r="D242" s="58" t="s">
@@ -7591,7 +7704,7 @@
       <c r="A243" s="49">
         <v>237</v>
       </c>
-      <c r="B243" s="79"/>
+      <c r="B243" s="72"/>
       <c r="D243" s="49" t="s">
         <v>430</v>
       </c>
@@ -7603,7 +7716,7 @@
       <c r="A244" s="49">
         <v>238</v>
       </c>
-      <c r="B244" s="79"/>
+      <c r="B244" s="72"/>
       <c r="D244" s="49" t="s">
         <v>431</v>
       </c>
@@ -7615,7 +7728,7 @@
       <c r="A245" s="49">
         <v>239</v>
       </c>
-      <c r="B245" s="79"/>
+      <c r="B245" s="72"/>
       <c r="D245" s="49" t="s">
         <v>432</v>
       </c>
@@ -7627,7 +7740,7 @@
       <c r="A246" s="49">
         <v>240</v>
       </c>
-      <c r="B246" s="79"/>
+      <c r="B246" s="72"/>
       <c r="D246" s="54" t="s">
         <v>442</v>
       </c>
@@ -7639,7 +7752,7 @@
       <c r="A247" s="49">
         <v>241</v>
       </c>
-      <c r="B247" s="80"/>
+      <c r="B247" s="73"/>
     </row>
     <row r="248" spans="1:12" s="50" customFormat="1" ht="17" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A248" s="49">
@@ -7663,11 +7776,11 @@
       <c r="J248" s="49" t="s">
         <v>77</v>
       </c>
-      <c r="K248" s="66">
+      <c r="K248" s="65">
         <v>42967</v>
       </c>
       <c r="L248" s="50" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
     </row>
     <row r="249" spans="1:12" s="49" customFormat="1" x14ac:dyDescent="0.2">
@@ -7893,364 +8006,364 @@
         <v>593</v>
       </c>
     </row>
-    <row r="270" spans="1:11" s="68" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A270" s="68">
+    <row r="270" spans="1:11" s="67" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A270" s="67">
         <v>264</v>
       </c>
-      <c r="B270" s="68" t="s">
+      <c r="B270" s="67" t="s">
+        <v>488</v>
+      </c>
+      <c r="D270" s="67" t="s">
+        <v>486</v>
+      </c>
+      <c r="E270" s="67">
+        <v>137</v>
+      </c>
+      <c r="F270" s="67">
+        <v>133</v>
+      </c>
+      <c r="G270" s="67">
+        <v>1</v>
+      </c>
+      <c r="H270" s="67">
+        <v>2</v>
+      </c>
+      <c r="J270" s="67" t="s">
+        <v>77</v>
+      </c>
+      <c r="K270" s="68">
+        <v>42968</v>
+      </c>
+    </row>
+    <row r="271" spans="1:11" s="67" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A271" s="67">
+        <v>265</v>
+      </c>
+      <c r="D271" s="67" t="s">
+        <v>487</v>
+      </c>
+      <c r="E271" s="67">
+        <v>127</v>
+      </c>
+      <c r="G271" s="67">
+        <v>1</v>
+      </c>
+      <c r="H271" s="67">
+        <v>2</v>
+      </c>
+      <c r="J271" s="67" t="s">
+        <v>77</v>
+      </c>
+      <c r="K271" s="68">
+        <v>42968</v>
+      </c>
+    </row>
+    <row r="272" spans="1:11" s="67" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A272" s="67">
+        <v>266</v>
+      </c>
+      <c r="D272" s="67" t="s">
+        <v>489</v>
+      </c>
+      <c r="E272" s="67">
+        <v>17</v>
+      </c>
+      <c r="F272" s="67">
+        <v>78</v>
+      </c>
+      <c r="G272" s="67">
+        <v>1</v>
+      </c>
+      <c r="H272" s="67">
+        <v>2</v>
+      </c>
+      <c r="J272" s="67" t="s">
+        <v>77</v>
+      </c>
+      <c r="K272" s="68">
+        <v>42968</v>
+      </c>
+    </row>
+    <row r="273" spans="1:11" s="67" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A273" s="67">
+        <v>267</v>
+      </c>
+      <c r="D273" s="67" t="s">
+        <v>491</v>
+      </c>
+      <c r="E273" s="67">
+        <v>18</v>
+      </c>
+      <c r="F273" s="67">
+        <v>90</v>
+      </c>
+      <c r="G273" s="67">
+        <v>1</v>
+      </c>
+      <c r="H273" s="67">
+        <v>2</v>
+      </c>
+      <c r="K273" s="68">
+        <v>42968</v>
+      </c>
+    </row>
+    <row r="274" spans="1:11" s="67" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A274" s="67">
+        <v>268</v>
+      </c>
+      <c r="D274" s="67" t="s">
+        <v>490</v>
+      </c>
+      <c r="E274" s="67">
+        <v>15</v>
+      </c>
+      <c r="F274" s="67">
+        <v>46</v>
+      </c>
+      <c r="G274" s="67">
+        <v>1</v>
+      </c>
+      <c r="H274" s="67">
+        <v>2</v>
+      </c>
+      <c r="J274" s="67" t="s">
+        <v>77</v>
+      </c>
+      <c r="K274" s="68">
+        <v>42968</v>
+      </c>
+    </row>
+    <row r="275" spans="1:11" s="67" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A275" s="67">
+        <v>269</v>
+      </c>
+      <c r="D275" s="67" t="s">
         <v>492</v>
       </c>
-      <c r="D270" s="68" t="s">
-        <v>490</v>
-      </c>
-      <c r="E270" s="68">
-        <v>137</v>
-      </c>
-      <c r="F270" s="68">
-        <v>133</v>
-      </c>
-      <c r="G270" s="68">
-        <v>1</v>
-      </c>
-      <c r="H270" s="68">
+      <c r="E275" s="67">
+        <v>16</v>
+      </c>
+      <c r="F275" s="67">
+        <v>47</v>
+      </c>
+      <c r="G275" s="67">
+        <v>1</v>
+      </c>
+      <c r="H275" s="67">
         <v>2</v>
       </c>
-      <c r="J270" s="68" t="s">
-        <v>77</v>
-      </c>
-      <c r="K270" s="69">
+      <c r="J275" s="67" t="s">
+        <v>77</v>
+      </c>
+      <c r="K275" s="68">
         <v>42968</v>
       </c>
     </row>
-    <row r="271" spans="1:11" s="68" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A271" s="68">
-        <v>265</v>
-      </c>
-      <c r="D271" s="68" t="s">
-        <v>491</v>
-      </c>
-      <c r="E271" s="68">
+    <row r="276" spans="1:11" s="67" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A276" s="67">
+        <v>270</v>
+      </c>
+      <c r="D276" s="67" t="s">
+        <v>493</v>
+      </c>
+      <c r="E276" s="67">
+        <v>33</v>
+      </c>
+      <c r="F276" s="67">
+        <v>51</v>
+      </c>
+      <c r="G276" s="67">
+        <v>1</v>
+      </c>
+      <c r="H276" s="67">
+        <v>3</v>
+      </c>
+      <c r="J276" s="67" t="s">
+        <v>77</v>
+      </c>
+      <c r="K276" s="68">
+        <v>42969</v>
+      </c>
+    </row>
+    <row r="277" spans="1:11" s="67" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A277" s="67">
+        <v>271</v>
+      </c>
+      <c r="D277" s="67" t="s">
+        <v>494</v>
+      </c>
+      <c r="E277" s="67">
+        <v>34</v>
+      </c>
+      <c r="F277" s="67">
+        <v>52</v>
+      </c>
+      <c r="G277" s="67">
+        <v>1</v>
+      </c>
+      <c r="H277" s="67">
+        <v>3</v>
+      </c>
+      <c r="J277" s="67" t="s">
+        <v>77</v>
+      </c>
+      <c r="K277" s="68">
+        <v>42969</v>
+      </c>
+    </row>
+    <row r="278" spans="1:11" s="67" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A278" s="67">
+        <v>272</v>
+      </c>
+      <c r="C278" s="67" t="s">
+        <v>422</v>
+      </c>
+      <c r="D278" s="67" t="s">
+        <v>495</v>
+      </c>
+      <c r="E278" s="67">
+        <v>136</v>
+      </c>
+      <c r="F278" s="67">
+        <v>131</v>
+      </c>
+      <c r="G278" s="67">
+        <v>1</v>
+      </c>
+      <c r="H278" s="67">
+        <v>2</v>
+      </c>
+      <c r="J278" s="67" t="s">
+        <v>483</v>
+      </c>
+      <c r="K278" s="68">
+        <v>42966</v>
+      </c>
+    </row>
+    <row r="279" spans="1:11" s="67" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A279" s="67">
+        <v>273</v>
+      </c>
+      <c r="D279" s="67" t="s">
+        <v>496</v>
+      </c>
+      <c r="E279" s="67">
+        <v>135</v>
+      </c>
+      <c r="F279" s="67">
+        <v>39</v>
+      </c>
+      <c r="G279" s="67">
+        <v>1</v>
+      </c>
+      <c r="H279" s="67">
+        <v>2</v>
+      </c>
+      <c r="J279" s="67" t="s">
+        <v>77</v>
+      </c>
+      <c r="K279" s="68">
+        <v>42969</v>
+      </c>
+    </row>
+    <row r="280" spans="1:11" s="67" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A280" s="67">
+        <v>274</v>
+      </c>
+      <c r="D280" s="67" t="s">
+        <v>497</v>
+      </c>
+      <c r="E280" s="67">
+        <v>120</v>
+      </c>
+      <c r="F280" s="67">
         <v>127</v>
       </c>
-      <c r="G271" s="68">
-        <v>1</v>
-      </c>
-      <c r="H271" s="68">
+      <c r="G280" s="67">
+        <v>1</v>
+      </c>
+      <c r="H280" s="67">
         <v>2</v>
       </c>
-      <c r="J271" s="68" t="s">
-        <v>77</v>
-      </c>
-      <c r="K271" s="69">
-        <v>42968</v>
-      </c>
-    </row>
-    <row r="272" spans="1:11" s="68" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A272" s="68">
-        <v>266</v>
-      </c>
-      <c r="D272" s="68" t="s">
-        <v>493</v>
-      </c>
-      <c r="E272" s="68">
+      <c r="J280" s="67" t="s">
+        <v>77</v>
+      </c>
+      <c r="K280" s="68">
+        <v>42969</v>
+      </c>
+    </row>
+    <row r="281" spans="1:11" s="67" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A281" s="67">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="282" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A282" s="66">
+        <v>276</v>
+      </c>
+      <c r="D282" s="69" t="s">
+        <v>503</v>
+      </c>
+      <c r="F282" s="69">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="283" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A283" s="66">
+        <v>277</v>
+      </c>
+      <c r="D283" s="69" t="s">
+        <v>504</v>
+      </c>
+      <c r="F283" s="69">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="284" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A284" s="66">
+        <v>278</v>
+      </c>
+      <c r="F284" s="69">
         <v>17</v>
       </c>
-      <c r="F272" s="68">
-        <v>78</v>
-      </c>
-      <c r="G272" s="68">
-        <v>1</v>
-      </c>
-      <c r="H272" s="68">
-        <v>2</v>
-      </c>
-      <c r="J272" s="68" t="s">
-        <v>77</v>
-      </c>
-      <c r="K272" s="69">
-        <v>42968</v>
-      </c>
-    </row>
-    <row r="273" spans="1:11" s="68" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A273" s="68">
-        <v>267</v>
-      </c>
-      <c r="D273" s="68" t="s">
-        <v>495</v>
-      </c>
-      <c r="E273" s="68">
-        <v>18</v>
-      </c>
-      <c r="F273" s="68">
-        <v>90</v>
-      </c>
-      <c r="G273" s="68">
-        <v>1</v>
-      </c>
-      <c r="H273" s="68">
-        <v>2</v>
-      </c>
-      <c r="K273" s="69">
-        <v>42968</v>
-      </c>
-    </row>
-    <row r="274" spans="1:11" s="68" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A274" s="68">
-        <v>268</v>
-      </c>
-      <c r="D274" s="68" t="s">
-        <v>494</v>
-      </c>
-      <c r="E274" s="68">
-        <v>15</v>
-      </c>
-      <c r="F274" s="68">
-        <v>46</v>
-      </c>
-      <c r="G274" s="68">
-        <v>1</v>
-      </c>
-      <c r="H274" s="68">
-        <v>2</v>
-      </c>
-      <c r="J274" s="68" t="s">
-        <v>77</v>
-      </c>
-      <c r="K274" s="69">
-        <v>42968</v>
-      </c>
-    </row>
-    <row r="275" spans="1:11" s="68" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A275" s="68">
-        <v>269</v>
-      </c>
-      <c r="D275" s="68" t="s">
-        <v>496</v>
-      </c>
-      <c r="E275" s="68">
-        <v>16</v>
-      </c>
-      <c r="F275" s="68">
-        <v>47</v>
-      </c>
-      <c r="G275" s="68">
-        <v>1</v>
-      </c>
-      <c r="H275" s="68">
-        <v>2</v>
-      </c>
-      <c r="J275" s="68" t="s">
-        <v>77</v>
-      </c>
-      <c r="K275" s="69">
-        <v>42968</v>
-      </c>
-    </row>
-    <row r="276" spans="1:11" s="68" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A276" s="68">
-        <v>270</v>
-      </c>
-      <c r="D276" s="68" t="s">
-        <v>497</v>
-      </c>
-      <c r="E276" s="68">
-        <v>33</v>
-      </c>
-      <c r="F276" s="68">
-        <v>51</v>
-      </c>
-      <c r="G276" s="68">
-        <v>1</v>
-      </c>
-      <c r="H276" s="68">
-        <v>3</v>
-      </c>
-      <c r="J276" s="68" t="s">
-        <v>77</v>
-      </c>
-      <c r="K276" s="69">
-        <v>42969</v>
-      </c>
-    </row>
-    <row r="277" spans="1:11" s="68" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A277" s="68">
-        <v>271</v>
-      </c>
-      <c r="D277" s="68" t="s">
-        <v>498</v>
-      </c>
-      <c r="E277" s="68">
-        <v>34</v>
-      </c>
-      <c r="F277" s="68">
-        <v>52</v>
-      </c>
-      <c r="G277" s="68">
-        <v>1</v>
-      </c>
-      <c r="H277" s="68">
-        <v>3</v>
-      </c>
-      <c r="J277" s="68" t="s">
-        <v>77</v>
-      </c>
-      <c r="K277" s="69">
-        <v>42969</v>
-      </c>
-    </row>
-    <row r="278" spans="1:11" s="68" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A278" s="68">
-        <v>272</v>
-      </c>
-      <c r="C278" s="68" t="s">
-        <v>422</v>
-      </c>
-      <c r="D278" s="68" t="s">
-        <v>499</v>
-      </c>
-      <c r="E278" s="68">
-        <v>136</v>
-      </c>
-      <c r="F278" s="68">
-        <v>131</v>
-      </c>
-      <c r="G278" s="68">
-        <v>1</v>
-      </c>
-      <c r="H278" s="68">
-        <v>2</v>
-      </c>
-      <c r="J278" s="68" t="s">
-        <v>487</v>
-      </c>
-      <c r="K278" s="69">
-        <v>42966</v>
-      </c>
-    </row>
-    <row r="279" spans="1:11" s="68" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A279" s="68">
-        <v>273</v>
-      </c>
-      <c r="D279" s="68" t="s">
-        <v>500</v>
-      </c>
-      <c r="E279" s="68">
-        <v>135</v>
-      </c>
-      <c r="F279" s="68">
-        <v>39</v>
-      </c>
-      <c r="G279" s="68">
-        <v>1</v>
-      </c>
-      <c r="H279" s="68">
-        <v>2</v>
-      </c>
-      <c r="J279" s="68" t="s">
-        <v>77</v>
-      </c>
-      <c r="K279" s="69">
-        <v>42969</v>
-      </c>
-    </row>
-    <row r="280" spans="1:11" s="68" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A280" s="68">
-        <v>274</v>
-      </c>
-      <c r="D280" s="68" t="s">
-        <v>501</v>
-      </c>
-      <c r="E280" s="68">
-        <v>120</v>
-      </c>
-      <c r="F280" s="68">
-        <v>127</v>
-      </c>
-      <c r="G280" s="68">
-        <v>1</v>
-      </c>
-      <c r="H280" s="68">
-        <v>2</v>
-      </c>
-      <c r="J280" s="68" t="s">
-        <v>77</v>
-      </c>
-      <c r="K280" s="69">
-        <v>42969</v>
-      </c>
-    </row>
-    <row r="281" spans="1:11" s="68" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A281" s="68">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A282" s="67">
-        <v>276</v>
-      </c>
-      <c r="D282" s="70" t="s">
-        <v>507</v>
-      </c>
-      <c r="F282" s="70">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A283" s="67">
-        <v>277</v>
-      </c>
-      <c r="D283" s="70" t="s">
-        <v>508</v>
-      </c>
-      <c r="F283" s="70">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A284" s="67">
-        <v>278</v>
-      </c>
-      <c r="F284" s="70">
-        <v>17</v>
-      </c>
     </row>
     <row r="285" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A285" s="67">
+      <c r="A285" s="66">
         <v>279</v>
       </c>
     </row>
     <row r="286" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A286" s="67">
+      <c r="A286" s="66">
         <v>280</v>
       </c>
     </row>
     <row r="287" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A287" s="67">
+      <c r="A287" s="66">
         <v>281</v>
       </c>
     </row>
     <row r="288" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A288" s="67">
+      <c r="A288" s="66">
         <v>282</v>
       </c>
     </row>
     <row r="289" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A289" s="67">
+      <c r="A289" s="66">
         <v>283</v>
       </c>
     </row>
     <row r="290" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A290" s="67">
+      <c r="A290" s="66">
         <v>284</v>
       </c>
     </row>
     <row r="291" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A291" s="67">
+      <c r="A291" s="66">
         <v>285</v>
       </c>
     </row>
     <row r="292" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A292" s="67">
+      <c r="A292" s="66">
         <v>286</v>
       </c>
       <c r="E292">
@@ -8267,177 +8380,177 @@
       </c>
     </row>
     <row r="293" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A293" s="67">
+      <c r="A293" s="66">
         <v>287</v>
       </c>
     </row>
     <row r="294" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A294" s="67">
+      <c r="A294" s="66">
         <v>288</v>
       </c>
     </row>
     <row r="295" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A295" s="67">
+      <c r="A295" s="66">
         <v>289</v>
       </c>
     </row>
     <row r="296" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A296" s="67">
+      <c r="A296" s="66">
         <v>290</v>
       </c>
     </row>
     <row r="297" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A297" s="67">
+      <c r="A297" s="66">
         <v>291</v>
       </c>
     </row>
     <row r="298" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A298" s="67">
+      <c r="A298" s="66">
         <v>292</v>
       </c>
     </row>
     <row r="299" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A299" s="67">
+      <c r="A299" s="66">
         <v>293</v>
       </c>
     </row>
     <row r="300" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A300" s="67">
+      <c r="A300" s="66">
         <v>294</v>
       </c>
     </row>
     <row r="301" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A301" s="67">
+      <c r="A301" s="66">
         <v>295</v>
       </c>
     </row>
     <row r="302" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A302" s="67">
+      <c r="A302" s="66">
         <v>296</v>
       </c>
     </row>
     <row r="303" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A303" s="67">
+      <c r="A303" s="66">
         <v>297</v>
       </c>
     </row>
     <row r="304" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A304" s="67">
+      <c r="A304" s="66">
         <v>298</v>
       </c>
     </row>
     <row r="305" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A305" s="67">
+      <c r="A305" s="66">
         <v>299</v>
       </c>
     </row>
     <row r="306" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A306" s="67">
+      <c r="A306" s="66">
         <v>300</v>
       </c>
     </row>
     <row r="307" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A307" s="67">
+      <c r="A307" s="66">
         <v>301</v>
       </c>
     </row>
     <row r="308" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A308" s="67">
+      <c r="A308" s="66">
         <v>302</v>
       </c>
     </row>
     <row r="309" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A309" s="67">
+      <c r="A309" s="66">
         <v>303</v>
       </c>
     </row>
     <row r="310" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A310" s="67">
+      <c r="A310" s="66">
         <v>304</v>
       </c>
     </row>
     <row r="311" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A311" s="67">
+      <c r="A311" s="66">
         <v>305</v>
       </c>
     </row>
     <row r="312" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A312" s="67">
+      <c r="A312" s="66">
         <v>306</v>
       </c>
     </row>
     <row r="313" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A313" s="67">
+      <c r="A313" s="66">
         <v>307</v>
       </c>
     </row>
     <row r="314" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A314" s="67">
+      <c r="A314" s="66">
         <v>308</v>
       </c>
     </row>
     <row r="315" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A315" s="67">
+      <c r="A315" s="66">
         <v>309</v>
       </c>
     </row>
     <row r="316" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A316" s="67">
+      <c r="A316" s="66">
         <v>310</v>
       </c>
     </row>
     <row r="317" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A317" s="67">
+      <c r="A317" s="66">
         <v>311</v>
       </c>
     </row>
     <row r="318" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A318" s="67">
+      <c r="A318" s="66">
         <v>312</v>
       </c>
     </row>
     <row r="319" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A319" s="67">
+      <c r="A319" s="66">
         <v>313</v>
       </c>
     </row>
     <row r="320" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A320" s="67">
+      <c r="A320" s="66">
         <v>314</v>
       </c>
     </row>
     <row r="321" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A321" s="67">
+      <c r="A321" s="66">
         <v>315</v>
       </c>
     </row>
     <row r="322" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A322" s="67">
+      <c r="A322" s="66">
         <v>316</v>
       </c>
     </row>
     <row r="323" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A323" s="67">
+      <c r="A323" s="66">
         <v>317</v>
       </c>
     </row>
     <row r="324" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A324" s="67">
+      <c r="A324" s="66">
         <v>318</v>
       </c>
     </row>
     <row r="325" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A325" s="67">
+      <c r="A325" s="66">
         <v>319</v>
       </c>
     </row>
     <row r="326" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A326" s="67">
+      <c r="A326" s="66">
         <v>320</v>
       </c>
     </row>
     <row r="327" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A327" s="67">
+      <c r="A327" s="66">
         <v>321</v>
       </c>
     </row>
@@ -8446,16 +8559,16 @@
     <sortCondition ref="A1"/>
   </sortState>
   <mergeCells count="10">
+    <mergeCell ref="C157:C158"/>
+    <mergeCell ref="C164:C166"/>
+    <mergeCell ref="C146:C151"/>
+    <mergeCell ref="C152:C153"/>
+    <mergeCell ref="C154:C156"/>
     <mergeCell ref="B242:B247"/>
     <mergeCell ref="B236:B237"/>
     <mergeCell ref="B228:B235"/>
     <mergeCell ref="B238:B241"/>
     <mergeCell ref="C159:C163"/>
-    <mergeCell ref="C157:C158"/>
-    <mergeCell ref="C164:C166"/>
-    <mergeCell ref="C146:C151"/>
-    <mergeCell ref="C152:C153"/>
-    <mergeCell ref="C154:C156"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D56" r:id="rId1"/>
@@ -8952,7 +9065,7 @@
     </row>
     <row r="18" spans="1:14" ht="18" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
-      <c r="B18" s="82" t="s">
+      <c r="B18" s="81" t="s">
         <v>256</v>
       </c>
       <c r="C18" s="1"/>
@@ -8986,7 +9099,7 @@
     </row>
     <row r="19" spans="1:14" ht="18" x14ac:dyDescent="0.2">
       <c r="A19" s="1"/>
-      <c r="B19" s="83"/>
+      <c r="B19" s="82"/>
       <c r="C19" s="1">
         <v>100</v>
       </c>
@@ -9020,7 +9133,7 @@
     </row>
     <row r="20" spans="1:14" ht="18" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
-      <c r="B20" s="83"/>
+      <c r="B20" s="82"/>
       <c r="C20" s="1">
         <v>101</v>
       </c>
@@ -9048,7 +9161,7 @@
     </row>
     <row r="21" spans="1:14" ht="18" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>
-      <c r="B21" s="83"/>
+      <c r="B21" s="82"/>
       <c r="C21" s="1">
         <v>172</v>
       </c>
@@ -9309,7 +9422,7 @@
     </row>
     <row r="30" spans="1:14" ht="18" x14ac:dyDescent="0.2">
       <c r="A30" s="1"/>
-      <c r="B30" s="84" t="s">
+      <c r="B30" s="83" t="s">
         <v>297</v>
       </c>
       <c r="C30" s="1"/>
@@ -9345,7 +9458,7 @@
       </c>
     </row>
     <row r="31" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B31" s="84"/>
+      <c r="B31" s="83"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1">
         <v>628</v>
@@ -9379,7 +9492,7 @@
       </c>
     </row>
     <row r="32" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B32" s="85" t="s">
+      <c r="B32" s="84" t="s">
         <v>254</v>
       </c>
       <c r="C32" s="1">
@@ -9411,7 +9524,7 @@
       </c>
     </row>
     <row r="33" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B33" s="85"/>
+      <c r="B33" s="84"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1">
         <v>645</v>
@@ -9439,7 +9552,7 @@
       <c r="A34" t="s">
         <v>246</v>
       </c>
-      <c r="B34" s="85"/>
+      <c r="B34" s="84"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1">
         <v>448</v>
@@ -9467,7 +9580,7 @@
       </c>
     </row>
     <row r="35" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B35" s="85"/>
+      <c r="B35" s="84"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1">
         <v>442</v>
@@ -9492,7 +9605,7 @@
       </c>
     </row>
     <row r="36" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B36" s="85"/>
+      <c r="B36" s="84"/>
       <c r="C36" s="1">
         <v>633</v>
       </c>
@@ -9519,7 +9632,7 @@
       </c>
     </row>
     <row r="37" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B37" s="85"/>
+      <c r="B37" s="84"/>
       <c r="C37" s="1">
         <v>189</v>
       </c>
@@ -9546,7 +9659,7 @@
       </c>
     </row>
     <row r="38" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B38" s="85" t="s">
+      <c r="B38" s="84" t="s">
         <v>301</v>
       </c>
       <c r="C38" s="1">
@@ -9581,7 +9694,7 @@
       </c>
     </row>
     <row r="39" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B39" s="85"/>
+      <c r="B39" s="84"/>
       <c r="C39" s="1">
         <v>47</v>
       </c>
@@ -11870,17 +11983,18 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:I22"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="54" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28" customWidth="1"/>
     <col min="2" max="2" width="34.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="141.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="72.6640625" customWidth="1"/>
+    <col min="4" max="4" width="85" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19" x14ac:dyDescent="0.25">
@@ -12104,15 +12218,15 @@
       <c r="I14" s="60"/>
     </row>
     <row r="15" spans="1:9" ht="19" x14ac:dyDescent="0.25">
-      <c r="A15" s="59" t="s">
-        <v>478</v>
-      </c>
-      <c r="B15" s="59"/>
-      <c r="C15" s="61" t="s">
-        <v>479</v>
+      <c r="A15" s="59"/>
+      <c r="B15" s="59" t="s">
+        <v>514</v>
+      </c>
+      <c r="C15" s="63" t="s">
+        <v>515</v>
       </c>
       <c r="D15" s="59" t="s">
-        <v>480</v>
+        <v>516</v>
       </c>
       <c r="E15" s="59"/>
       <c r="F15" s="59"/>
@@ -12121,15 +12235,17 @@
       <c r="I15" s="60"/>
     </row>
     <row r="16" spans="1:9" ht="19" x14ac:dyDescent="0.25">
-      <c r="A16" s="59"/>
-      <c r="B16" s="65" t="s">
-        <v>481</v>
-      </c>
-      <c r="C16" s="59" t="s">
-        <v>482</v>
+      <c r="A16" s="59" t="s">
+        <v>478</v>
+      </c>
+      <c r="B16" s="59" t="s">
+        <v>512</v>
+      </c>
+      <c r="C16" s="61" t="s">
+        <v>479</v>
       </c>
       <c r="D16" s="59" t="s">
-        <v>483</v>
+        <v>518</v>
       </c>
       <c r="E16" s="59"/>
       <c r="F16" s="59"/>
@@ -12137,19 +12253,97 @@
       <c r="H16" s="59"/>
       <c r="I16" s="60"/>
     </row>
-    <row r="17" spans="1:9" ht="19" x14ac:dyDescent="0.25">
-      <c r="A17" s="59" t="s">
-        <v>502</v>
-      </c>
+    <row r="17" spans="1:9" ht="64" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="59"/>
       <c r="B17" s="59"/>
-      <c r="C17" s="59"/>
-      <c r="D17" s="59"/>
+      <c r="C17" s="85" t="s">
+        <v>517</v>
+      </c>
+      <c r="D17" s="59" t="s">
+        <v>513</v>
+      </c>
       <c r="E17" s="59"/>
       <c r="F17" s="59"/>
       <c r="G17" s="59"/>
       <c r="H17" s="59"/>
       <c r="I17" s="60"/>
     </row>
+    <row r="18" spans="1:9" ht="71" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="59"/>
+      <c r="B18" s="64" t="s">
+        <v>519</v>
+      </c>
+      <c r="C18" s="86" t="s">
+        <v>520</v>
+      </c>
+      <c r="D18" s="86" t="s">
+        <v>523</v>
+      </c>
+      <c r="E18" s="59"/>
+      <c r="F18" s="59"/>
+      <c r="G18" s="59"/>
+      <c r="H18" s="59"/>
+      <c r="I18" s="60"/>
+    </row>
+    <row r="19" spans="1:9" ht="91" x14ac:dyDescent="0.25">
+      <c r="A19" s="59"/>
+      <c r="B19" s="64"/>
+      <c r="C19" s="86" t="s">
+        <v>521</v>
+      </c>
+      <c r="D19" s="59" t="s">
+        <v>522</v>
+      </c>
+      <c r="E19" s="59"/>
+      <c r="F19" s="59"/>
+      <c r="G19" s="59"/>
+      <c r="H19" s="59"/>
+      <c r="I19" s="60"/>
+    </row>
+    <row r="20" spans="1:9" ht="19" x14ac:dyDescent="0.25">
+      <c r="A20" s="59" t="s">
+        <v>498</v>
+      </c>
+      <c r="B20" s="59" t="s">
+        <v>507</v>
+      </c>
+      <c r="C20" s="59" t="s">
+        <v>508</v>
+      </c>
+      <c r="D20" s="59" t="s">
+        <v>509</v>
+      </c>
+      <c r="E20" s="59"/>
+      <c r="F20" s="59"/>
+      <c r="G20" s="59"/>
+      <c r="H20" s="59"/>
+      <c r="I20" s="60"/>
+    </row>
+    <row r="21" spans="1:9" ht="18" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>505</v>
+      </c>
+      <c r="B21" t="s">
+        <v>506</v>
+      </c>
+      <c r="C21" s="59" t="s">
+        <v>510</v>
+      </c>
+      <c r="D21" s="59" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="48" x14ac:dyDescent="0.2">
+      <c r="B22" s="88" t="s">
+        <v>524</v>
+      </c>
+      <c r="C22" s="87" t="s">
+        <v>525</v>
+      </c>
+      <c r="D22" s="59" t="s">
+        <v>526</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
